--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlasenko\Documents\05.PYTHON\Projects\san_report_automation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileSharing readOnlyRecommended="0" userName="kvl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView activeTab="3" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="switch_info" sheetId="1" r:id="rId1"/>
-    <sheet name="parameters" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="switch_info" sheetId="1" r:id="rId4"/>
+    <sheet name="parameters" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
+    <sheet name="columns" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext uri="smNativeData">
+      <pm:revision xmlns:pm="smNativeData" day="1564686220" val="966" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1564686220" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1564686220" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1564686220"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="416">
   <si>
     <t>switchType</t>
   </si>
@@ -403,6 +403,96 @@
     <t>HPE SN3600B 32Gb 24-port</t>
   </si>
   <si>
+    <t>chassis_params</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>FOS version</t>
+  </si>
+  <si>
+    <t>Number of LS</t>
+  </si>
+  <si>
+    <t>chassis.licenseID</t>
+  </si>
+  <si>
+    <t>FabricID</t>
+  </si>
+  <si>
+    <t>maps.migrated</t>
+  </si>
+  <si>
+    <t>maps.netmon.enabled</t>
+  </si>
+  <si>
+    <t>snmp.snmpv3TrapTarget.0.trapTargetAddr</t>
+  </si>
+  <si>
+    <t>snmp.snmpv3TrapTarget.1.trapTargetAddr</t>
+  </si>
+  <si>
+    <t>snmp.snmpv3TrapTarget.2.trapTargetAddr</t>
+  </si>
+  <si>
+    <t>snmp.snmpv3TrapTarget.3.trapTargetAddr</t>
+  </si>
+  <si>
+    <t>snmp.snmpv3TrapTarget.4.trapTargetAddr</t>
+  </si>
+  <si>
+    <t>snmp.snmpv3TrapTarget.5.trapTargetAddr</t>
+  </si>
+  <si>
+    <t>ssn</t>
+  </si>
+  <si>
+    <t>syslog.address.1</t>
+  </si>
+  <si>
+    <t>syslog.address.2</t>
+  </si>
+  <si>
+    <t>system.cpuLoad</t>
+  </si>
+  <si>
+    <t>system.i2cTurboCnfg</t>
+  </si>
+  <si>
+    <t>ts.tzh</t>
+  </si>
+  <si>
+    <t>ts.tzm</t>
+  </si>
+  <si>
+    <t>system.intPortCrdRecov</t>
+  </si>
+  <si>
+    <t>bottleneck.BECreditLossFaultingBlade</t>
+  </si>
+  <si>
+    <t>fcRoute.backboneFabricId</t>
+  </si>
+  <si>
+    <t>uptime</t>
+  </si>
+  <si>
+    <t>cpu_avrg_load</t>
+  </si>
+  <si>
+    <t>file_system_use</t>
+  </si>
+  <si>
+    <t>memory_system_use</t>
+  </si>
+  <si>
+    <t>snmp</t>
+  </si>
+  <si>
+    <t>config_path</t>
+  </si>
+  <si>
     <t>parameters</t>
   </si>
   <si>
@@ -439,15 +529,12 @@
     <t>fabricshow</t>
   </si>
   <si>
+    <t>fdmishow</t>
+  </si>
+  <si>
     <t>switchName</t>
   </si>
   <si>
-    <t>config_path</t>
-  </si>
-  <si>
-    <t>FOS version</t>
-  </si>
-  <si>
     <t>/fabos/cliexec/uptime</t>
   </si>
   <si>
@@ -469,12 +556,6 @@
     <t>configname_principal</t>
   </si>
   <si>
-    <t>ssn</t>
-  </si>
-  <si>
-    <t>Number of LS</t>
-  </si>
-  <si>
     <t>/fabos/link_abin/defzone --show</t>
   </si>
   <si>
@@ -496,9 +577,6 @@
     <t>switchname_principal</t>
   </si>
   <si>
-    <t>chassis.licenseID</t>
-  </si>
-  <si>
     <t>/bin/df</t>
   </si>
   <si>
@@ -517,372 +595,375 @@
     <t>stat_ftx</t>
   </si>
   <si>
+    <t>Serial No</t>
+  </si>
+  <si>
+    <t>slot</t>
+  </si>
+  <si>
+    <t>switch_wwn_principal</t>
+  </si>
+  <si>
+    <t>fabric_id</t>
+  </si>
+  <si>
+    <t>/bin/cat /proc/meminfo</t>
+  </si>
+  <si>
+    <t>Memory Usage</t>
+  </si>
+  <si>
+    <t>Credit Recovery</t>
+  </si>
+  <si>
+    <t>Current Port</t>
+  </si>
+  <si>
+    <t>stat_frx</t>
+  </si>
+  <si>
     <t>Wavelength, nm</t>
   </si>
   <si>
-    <t>slot</t>
-  </si>
-  <si>
-    <t>switch_wwn_principal</t>
-  </si>
-  <si>
-    <t>fcRoute.backboneFabricId</t>
-  </si>
-  <si>
-    <t>/bin/cat /proc/meminfo</t>
-  </si>
-  <si>
-    <t>Memory Usage</t>
-  </si>
-  <si>
-    <t>Credit Recovery</t>
-  </si>
-  <si>
-    <t>Current Port</t>
-  </si>
-  <si>
-    <t>stat_frx</t>
+    <t>port</t>
+  </si>
+  <si>
+    <t>WWNp</t>
+  </si>
+  <si>
+    <t>Fabric ID</t>
+  </si>
+  <si>
+    <t>Flash Usage</t>
+  </si>
+  <si>
+    <t>Aoq</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>stat_c2_frx</t>
   </si>
   <si>
     <t>Transceiver</t>
   </si>
   <si>
-    <t>port</t>
-  </si>
-  <si>
-    <t>fabric_id</t>
-  </si>
-  <si>
-    <t>Fabric ID</t>
-  </si>
-  <si>
-    <t>snmp.snmpv3TrapTarget.0.trapTargetAddr</t>
-  </si>
-  <si>
-    <t>Flash Usage</t>
-  </si>
-  <si>
-    <t>Aoq</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>stat_c2_frx</t>
+    <t>Octet Speed Combo</t>
+  </si>
+  <si>
+    <t>domain_id</t>
+  </si>
+  <si>
+    <t>Supported Speed</t>
+  </si>
+  <si>
+    <t>switchDomain</t>
+  </si>
+  <si>
+    <t>F_Trunk</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>stat_c3_frx</t>
   </si>
   <si>
     <t>RX Power, dBm</t>
   </si>
   <si>
-    <t>Octet Speed Combo</t>
-  </si>
-  <si>
-    <t>domain_id</t>
-  </si>
-  <si>
-    <t>switchDomain</t>
-  </si>
-  <si>
-    <t>snmp.snmpv3TrapTarget.1.trapTargetAddr</t>
-  </si>
-  <si>
-    <t>F_Trunk</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>stat_c3_frx</t>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>switch_id</t>
+  </si>
+  <si>
+    <t>Port Speed</t>
+  </si>
+  <si>
+    <t>switchWwn</t>
+  </si>
+  <si>
+    <t>FC Fastwrite</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>Master Slot</t>
+  </si>
+  <si>
+    <t>stat_lc_rx</t>
   </si>
   <si>
     <t>TX Power, dBm</t>
   </si>
   <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>switch_id</t>
-  </si>
-  <si>
-    <t>switchWwn</t>
-  </si>
-  <si>
-    <t>snmp.snmpv3TrapTarget.2.trapTargetAddr</t>
-  </si>
-  <si>
-    <t>FC Fastwrite</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>Master Slot</t>
-  </si>
-  <si>
-    <t>stat_lc_rx</t>
+    <t>AL_PA Offset 13</t>
+  </si>
+  <si>
+    <t>wwn</t>
+  </si>
+  <si>
+    <t>Host Name</t>
+  </si>
+  <si>
+    <t>switchMode</t>
+  </si>
+  <si>
+    <t>Interrupts</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>Master Port</t>
+  </si>
+  <si>
+    <t>stat_mc_rx</t>
   </si>
   <si>
     <t>RX Power, uW</t>
   </si>
   <si>
-    <t>AL_PA Offset 13</t>
-  </si>
-  <si>
-    <t>wwn</t>
-  </si>
-  <si>
-    <t>switchMode</t>
-  </si>
-  <si>
-    <t>snmp.snmpv3TrapTarget.3.trapTargetAddr</t>
-  </si>
-  <si>
-    <t>Interrupts</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>Master Port</t>
-  </si>
-  <si>
-    <t>stat_mc_rx</t>
+    <t>Trunk Port</t>
+  </si>
+  <si>
+    <t>ip_address</t>
+  </si>
+  <si>
+    <t>Node Name</t>
+  </si>
+  <si>
+    <t>switchState</t>
+  </si>
+  <si>
+    <t>Link_failure</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>Trunk Area port Index</t>
+  </si>
+  <si>
+    <t>stat_mc_to</t>
   </si>
   <si>
     <t>TX Power, uW</t>
   </si>
   <si>
-    <t>Trunk Port</t>
-  </si>
-  <si>
-    <t>ip_address</t>
-  </si>
-  <si>
-    <t>switchState</t>
-  </si>
-  <si>
-    <t>snmp.snmpv3TrapTarget.4.trapTargetAddr</t>
-  </si>
-  <si>
-    <t>Link_failure</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>Trunk Area port Index</t>
-  </si>
-  <si>
-    <t>stat_mc_to</t>
+    <t>Long Distance</t>
+  </si>
+  <si>
+    <t>fcip_address</t>
+  </si>
+  <si>
+    <t>Port Name</t>
+  </si>
+  <si>
+    <t>switchRole</t>
+  </si>
+  <si>
+    <t>Loss_of_sync</t>
+  </si>
+  <si>
+    <t>proto</t>
+  </si>
+  <si>
+    <t>Default port Index</t>
+  </si>
+  <si>
+    <t>stat_mc_tx</t>
   </si>
   <si>
     <t>Current, mAmps</t>
   </si>
   <si>
-    <t>Long Distance</t>
-  </si>
-  <si>
-    <t>fcip_address</t>
-  </si>
-  <si>
-    <t>switchRole</t>
-  </si>
-  <si>
-    <t>snmp.snmpv3TrapTarget.5.trapTargetAddr</t>
-  </si>
-  <si>
-    <t>Loss_of_sync</t>
-  </si>
-  <si>
-    <t>proto</t>
-  </si>
-  <si>
-    <t>Default port Index</t>
-  </si>
-  <si>
-    <t>stat_mc_tx</t>
+    <t>VC Link Init</t>
+  </si>
+  <si>
+    <t>switchname</t>
+  </si>
+  <si>
+    <t>Port Type</t>
+  </si>
+  <si>
+    <t>Loss_of_sig</t>
+  </si>
+  <si>
+    <t>port type</t>
+  </si>
+  <si>
+    <t>tim_rdy_pri</t>
   </si>
   <si>
     <t>Voltage, mVolts</t>
   </si>
   <si>
-    <t>VC Link Init</t>
-  </si>
-  <si>
-    <t>switchname</t>
-  </si>
-  <si>
-    <t>syslog.address.1</t>
-  </si>
-  <si>
-    <t>Loss_of_sig</t>
-  </si>
-  <si>
-    <t>port type</t>
-  </si>
-  <si>
-    <t>tim_rdy_pri</t>
+    <t>Locked L_Port</t>
+  </si>
+  <si>
+    <t>Port Identifier</t>
+  </si>
+  <si>
+    <t>boot.ipa</t>
+  </si>
+  <si>
+    <t>Protocol_err</t>
+  </si>
+  <si>
+    <t>connected port wwn</t>
+  </si>
+  <si>
+    <t>tim_txcrd_z</t>
   </si>
   <si>
     <t>Temperature, Centigrade</t>
   </si>
   <si>
-    <t>Locked L_Port</t>
-  </si>
-  <si>
-    <t>boot.ipa</t>
-  </si>
-  <si>
-    <t>syslog.address.2</t>
-  </si>
-  <si>
-    <t>Protocol_err</t>
-  </si>
-  <si>
-    <t>connected port wwn</t>
-  </si>
-  <si>
-    <t>tim_txcrd_z</t>
+    <t>Locked G_Port</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>fabric.ididmode</t>
+  </si>
+  <si>
+    <t>Timed_out</t>
+  </si>
+  <si>
+    <t>ag fcid</t>
+  </si>
+  <si>
+    <t>tim_txcrd_z_vc 0</t>
   </si>
   <si>
     <t>Length 9u, km</t>
   </si>
   <si>
-    <t>Locked G_Port</t>
-  </si>
-  <si>
-    <t>fabric.ididmode</t>
-  </si>
-  <si>
-    <t>system.cpuLoad</t>
-  </si>
-  <si>
-    <t>Timed_out</t>
-  </si>
-  <si>
-    <t>ag fcid</t>
-  </si>
-  <si>
-    <t>tim_txcrd_z_vc 0</t>
+    <t>Disabled E_Port</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>Invalid_word</t>
+  </si>
+  <si>
+    <t>connection details</t>
+  </si>
+  <si>
+    <t>tim_txcrd_z_vc 1</t>
   </si>
   <si>
     <t>Length 9u, 100 meters</t>
   </si>
   <si>
-    <t>Disabled E_Port</t>
-  </si>
-  <si>
-    <t>Invalid_word</t>
-  </si>
-  <si>
-    <t>connection details</t>
-  </si>
-  <si>
-    <t>tim_txcrd_z_vc 1</t>
+    <t>Locked E_Port</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Tx_unavail</t>
+  </si>
+  <si>
+    <t>tim_txcrd_z_vc 2</t>
   </si>
   <si>
     <t>Length 50u (OM2), 10 meters</t>
   </si>
   <si>
-    <t>Locked E_Port</t>
-  </si>
-  <si>
-    <t>system.i2cTurboCnfg</t>
-  </si>
-  <si>
-    <t>Tx_unavail</t>
-  </si>
-  <si>
-    <t>tim_txcrd_z_vc 2</t>
+    <t>ISL R_RDY Mode</t>
+  </si>
+  <si>
+    <t>Model Description</t>
+  </si>
+  <si>
+    <t>Invalid_crc</t>
+  </si>
+  <si>
+    <t>tim_txcrd_z_vc 3</t>
   </si>
   <si>
     <t>Length 50u (OM3), 10 meters</t>
   </si>
   <si>
-    <t>ISL R_RDY Mode</t>
-  </si>
-  <si>
-    <t>ts.tzh</t>
-  </si>
-  <si>
-    <t>Invalid_crc</t>
-  </si>
-  <si>
-    <t>tim_txcrd_z_vc 3</t>
+    <t>RSCN Suppressed</t>
+  </si>
+  <si>
+    <t>Driver Version</t>
+  </si>
+  <si>
+    <t>Delim_err</t>
+  </si>
+  <si>
+    <t>tim_txcrd_z_vc 4</t>
   </si>
   <si>
     <t>Length 50u, 10 meters</t>
   </si>
   <si>
-    <t>RSCN Suppressed</t>
-  </si>
-  <si>
-    <t>ts.tzm</t>
-  </si>
-  <si>
-    <t>Delim_err</t>
-  </si>
-  <si>
-    <t>tim_txcrd_z_vc 4</t>
+    <t>Persistent Disable</t>
+  </si>
+  <si>
+    <t>Option ROM Version</t>
+  </si>
+  <si>
+    <t>Address_err</t>
+  </si>
+  <si>
+    <t>tim_txcrd_z_vc 5</t>
   </si>
   <si>
     <t>Length 62.5u, 10 meters</t>
   </si>
   <si>
-    <t>Persistent Disable</t>
-  </si>
-  <si>
-    <t>maps.migrated</t>
-  </si>
-  <si>
-    <t>Address_err</t>
-  </si>
-  <si>
-    <t>tim_txcrd_z_vc 5</t>
+    <t>LOS TOV mode</t>
+  </si>
+  <si>
+    <t>Firmware Version</t>
+  </si>
+  <si>
+    <t>Lr_in</t>
+  </si>
+  <si>
+    <t>tim_txcrd_z_vc 6</t>
   </si>
   <si>
     <t>Pwr On Time, years</t>
   </si>
   <si>
-    <t>LOS TOV mode</t>
-  </si>
-  <si>
-    <t>maps.netmon.enabled</t>
-  </si>
-  <si>
-    <t>Lr_in</t>
-  </si>
-  <si>
-    <t>tim_txcrd_z_vc 6</t>
+    <t>NPIV capability</t>
+  </si>
+  <si>
+    <t>OS Name and Version</t>
+  </si>
+  <si>
+    <t>Lr_out</t>
+  </si>
+  <si>
+    <t>tim_txcrd_z_vc 7</t>
   </si>
   <si>
     <t>Pwr On Time, hours</t>
   </si>
   <si>
-    <t>NPIV capability</t>
-  </si>
-  <si>
-    <t>uptime</t>
-  </si>
-  <si>
-    <t>Lr_out</t>
-  </si>
-  <si>
-    <t>tim_txcrd_z_vc 7</t>
-  </si>
-  <si>
     <t>NPIV PP Limit</t>
   </si>
   <si>
+    <t>Bios Version</t>
+  </si>
+  <si>
     <t>route.delayReroute</t>
   </si>
   <si>
-    <t>cpu_avrg_load</t>
-  </si>
-  <si>
     <t>Ols_in</t>
   </si>
   <si>
@@ -898,9 +979,6 @@
     <t>ts.tz(h:m)</t>
   </si>
   <si>
-    <t>file_system_use</t>
-  </si>
-  <si>
     <t>Ols_out</t>
   </si>
   <si>
@@ -913,9 +991,6 @@
     <t>route.lossless</t>
   </si>
   <si>
-    <t>memory_system_use</t>
-  </si>
-  <si>
     <t>Frjt</t>
   </si>
   <si>
@@ -928,9 +1003,6 @@
     <t>fabric.principalSwSelMode</t>
   </si>
   <si>
-    <t>snmp</t>
-  </si>
-  <si>
     <t>Fbsy</t>
   </si>
   <si>
@@ -1195,153 +1267,165 @@
     <t>phy_stats_clear_ts</t>
   </si>
   <si>
-    <t>fdmishow</t>
-  </si>
-  <si>
-    <t>Supported Speed</t>
-  </si>
-  <si>
-    <t>Port Speed</t>
-  </si>
-  <si>
-    <t>Host Name</t>
-  </si>
-  <si>
-    <t>Node Name</t>
-  </si>
-  <si>
-    <t>Port Name</t>
-  </si>
-  <si>
-    <t>Port Type</t>
-  </si>
-  <si>
-    <t>Port Identifier</t>
-  </si>
-  <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t>Serial Number</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Model Description</t>
-  </si>
-  <si>
-    <t>Driver Version</t>
-  </si>
-  <si>
-    <t>Option ROM Version</t>
-  </si>
-  <si>
-    <t>Firmware Version</t>
-  </si>
-  <si>
-    <t>OS Name and Version</t>
-  </si>
-  <si>
-    <t>Bios Version</t>
-  </si>
-  <si>
-    <t>WWNp</t>
-  </si>
-  <si>
-    <t>Serial No</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>FabricID</t>
-  </si>
-  <si>
-    <t>system.intPortCrdRecov</t>
-  </si>
-  <si>
-    <t>bottleneck.BECreditLossFaultingBlade</t>
-  </si>
-  <si>
-    <t>chassis_params</t>
+    <t>chassis_columns</t>
+  </si>
+  <si>
+    <t>FOS_version</t>
+  </si>
+  <si>
+    <t>Number_of_LS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="10">
+    <numFmt numFmtId="5" formatCode="#,##0\ &quot;₽&quot;;\-#,##0\ &quot;₽&quot;"/>
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;₽&quot;;[Red]\-#,##0\ &quot;₽&quot;"/>
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;₽&quot;;\-#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="2" formatCode="0.00"/>
+    <numFmt numFmtId="49" formatCode="@"/>
+  </numFmts>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1564686220" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <name val="Basic Sans"/>
+      <family val="1"/>
       <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1564686220" ulstyle="none" kern="1">
+            <pm:latin face="Basic Sans" sz="200" lang="default"/>
+            <pm:cs face="Basic Roman" sz="200" lang="default"/>
+            <pm:ea face="Basic Roman" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
+      <b/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1564686220" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1564686220" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1564686220"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1564686220"/>
+        </ext>
+      </extLst>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="smNativeData">
+      <pm:charStyles xmlns:pm="smNativeData" id="1564686220" count="1">
+        <pm:charStyle name="Обычный" fontId="0" Id="1"/>
+      </pm:charStyles>
     </ext>
   </extLst>
 </styleSheet>
@@ -1358,106 +1442,46 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="EEECE1"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="1F497D"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Basic Roman"/>
+        <a:cs typeface="Basic Roman"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1469,164 +1493,217 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr>
+        <a:prstTxWarp prst="textNoShape">
+          <a:avLst/>
+        </a:prstTxWarp>
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr>
+          <a:defRPr/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="normal" workbookViewId="0">
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.40"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" customWidth="1"/>
-    <col min="3" max="3" width="58.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" customWidth="1"/>
-    <col min="5" max="5" width="58.7109375" customWidth="1"/>
-    <col min="6" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.571429" customWidth="1" style="1"/>
+    <col min="2" max="2" width="57.428571" customWidth="1"/>
+    <col min="3" max="3" width="58.714286" customWidth="1"/>
+    <col min="4" max="4" width="30.857143" customWidth="1"/>
+    <col min="5" max="5" width="58.714286" customWidth="1"/>
+    <col min="6" max="1025" width="8.571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1643,8 +1720,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1660,8 +1737,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1677,8 +1754,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1694,8 +1771,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -1711,8 +1788,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -1728,8 +1805,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -1745,8 +1822,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -1762,8 +1839,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B9" t="s">
@@ -1779,8 +1856,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B10" t="s">
@@ -1796,8 +1873,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B11" t="s">
@@ -1813,8 +1890,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B12" t="s">
@@ -1830,8 +1907,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B13" t="s">
@@ -1847,8 +1924,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B14" t="s">
@@ -1864,8 +1941,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B15" t="s">
@@ -1881,8 +1958,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B16" t="s">
@@ -1898,8 +1975,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B17" t="s">
@@ -1915,8 +1992,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B18" t="s">
@@ -1932,8 +2009,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B19" t="s">
@@ -1949,8 +2026,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B20" t="s">
@@ -1966,8 +2043,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B21" t="s">
@@ -1983,8 +2060,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B22" t="s">
@@ -2000,8 +2077,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B23" t="s">
@@ -2017,8 +2094,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B24" t="s">
@@ -2034,8 +2111,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B25" t="s">
@@ -2051,8 +2128,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B26" t="s">
@@ -2068,8 +2145,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B27" t="s">
@@ -2085,8 +2162,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B28" t="s">
@@ -2102,8 +2179,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B29" t="s">
@@ -2119,8 +2196,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B30" t="s">
@@ -2136,8 +2213,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B31" t="s">
@@ -2150,8 +2227,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B32" t="s">
@@ -2167,9 +2244,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>55.2</v>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="n">
+        <v>55.2000000000000028</v>
       </c>
       <c r="B33" t="s">
         <v>41</v>
@@ -2184,8 +2261,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B34" t="s">
@@ -2201,8 +2278,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B35" t="s">
@@ -2218,8 +2295,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B36" t="s">
@@ -2235,8 +2312,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B37" t="s">
@@ -2252,8 +2329,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B38" t="s">
@@ -2269,8 +2346,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B39" t="s">
@@ -2286,8 +2363,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B40" t="s">
@@ -2303,8 +2380,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B41" t="s">
@@ -2320,8 +2397,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B42" t="s">
@@ -2334,8 +2411,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B43" t="s">
@@ -2351,8 +2428,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B44" t="s">
@@ -2368,8 +2445,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B45" t="s">
@@ -2385,8 +2462,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B46" t="s">
@@ -2402,8 +2479,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B47" t="s">
@@ -2419,8 +2496,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B48" t="s">
@@ -2436,8 +2513,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B49" t="s">
@@ -2453,8 +2530,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B50" t="s">
@@ -2470,8 +2547,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B51" t="s">
@@ -2487,8 +2564,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B52" t="s">
@@ -2504,8 +2581,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B53" t="s">
@@ -2521,8 +2598,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B54" t="s">
@@ -2538,8 +2615,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B55" t="s">
@@ -2555,8 +2632,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B56" t="s">
@@ -2572,8 +2649,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B57" t="s">
@@ -2589,8 +2666,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B58" t="s">
@@ -2606,8 +2683,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B59" t="s">
@@ -2623,8 +2700,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B60" t="s">
@@ -2640,8 +2717,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B61" t="s">
@@ -2657,8 +2734,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B62" t="s">
@@ -2674,8 +2751,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B63" t="s">
@@ -2691,8 +2768,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B64" t="s">
@@ -2708,8 +2785,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B65" t="s">
@@ -2725,8 +2802,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B66" t="s">
@@ -2742,8 +2819,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -2759,8 +2836,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -2776,8 +2853,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B69" t="s">
@@ -2793,8 +2870,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B70" t="s">
@@ -2810,8 +2887,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+    <row r="71" spans="1:5">
+      <c r="A71" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B71" t="s">
@@ -2827,8 +2904,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+    <row r="72" spans="1:5">
+      <c r="A72" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B72" t="s">
@@ -2845,1452 +2922,1711 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1564686220" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.511806" footer="0.511806"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1564686220" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1564686220" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1564686220" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.40"/>
   <cols>
-    <col min="1" max="1" width="47.140625" customWidth="1"/>
+    <col min="1" max="1" width="38.303571" customWidth="1"/>
+    <col min="2" max="2" width="37.732143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="B1"/>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B15"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="5" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24"/>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="5"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
       <c r="A48" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="7" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1564686220" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1564686220" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1564686220" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1564686220" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="normal" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.40"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" customWidth="1"/>
-    <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="9" width="24.7109375" customWidth="1"/>
-    <col min="10" max="10" width="26.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" customWidth="1"/>
-    <col min="12" max="12" width="22" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" customWidth="1"/>
-    <col min="15" max="15" width="21" customWidth="1"/>
-    <col min="16" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="40.857143" customWidth="1" style="5"/>
+    <col min="2" max="2" width="44.857143" customWidth="1" style="5"/>
+    <col min="3" max="3" width="45.285714" customWidth="1" style="5"/>
+    <col min="4" max="4" width="32.714286" customWidth="1"/>
+    <col min="5" max="5" width="36.428571" customWidth="1"/>
+    <col min="6" max="6" width="33.428571" customWidth="1"/>
+    <col min="7" max="7" width="28.000000" customWidth="1"/>
+    <col min="8" max="9" width="24.714286" customWidth="1"/>
+    <col min="10" max="10" width="26.571429" customWidth="1"/>
+    <col min="11" max="11" width="20.285714" customWidth="1"/>
+    <col min="12" max="12" width="22.000000" customWidth="1"/>
+    <col min="13" max="13" width="21.571429" customWidth="1"/>
+    <col min="14" max="14" width="8.571429" customWidth="1"/>
+    <col min="15" max="15" width="21.000000" customWidth="1"/>
+    <col min="16" max="1025" width="8.571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="6" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L2" t="s">
+        <v>175</v>
+      </c>
+      <c r="M2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="G3" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="H3" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="I3" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="J3" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="K3" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="L3" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="M3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="G4" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="H4" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="I4" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="J4" t="s">
-        <v>407</v>
+        <v>189</v>
       </c>
       <c r="K4" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="L4" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="M4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="G5" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="H5" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="I5" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="J5" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="K5" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="L5" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="M5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="5" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="F6" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="H6" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="I6" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="J6" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="K6" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="L6" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="M6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="5" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="G7" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="H7" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="I7" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="J7" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="K7" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="L7" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="M7" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="5" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="F8" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="G8" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="H8" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="I8" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="J8" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="K8" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="L8" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="M8" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="5" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="F9" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="G9" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="H9" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I9" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="J9" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="K9" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="L9" t="s">
+        <v>235</v>
+      </c>
+      <c r="M9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" t="s">
+        <v>239</v>
+      </c>
+      <c r="H10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I10" t="s">
+        <v>241</v>
+      </c>
+      <c r="J10" t="s">
+        <v>242</v>
+      </c>
+      <c r="K10" t="s">
+        <v>243</v>
+      </c>
+      <c r="L10" t="s">
+        <v>244</v>
+      </c>
+      <c r="M10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" t="s">
+        <v>248</v>
+      </c>
+      <c r="H11" t="s">
+        <v>249</v>
+      </c>
+      <c r="I11" t="s">
+        <v>250</v>
+      </c>
+      <c r="J11" t="s">
+        <v>251</v>
+      </c>
+      <c r="K11" t="s">
+        <v>252</v>
+      </c>
+      <c r="L11" t="s">
+        <v>253</v>
+      </c>
+      <c r="M11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="M9" t="s">
+      <c r="C12" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" t="s">
+        <v>255</v>
+      </c>
+      <c r="G12" t="s">
+        <v>256</v>
+      </c>
+      <c r="I12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J12" t="s">
+        <v>258</v>
+      </c>
+      <c r="K12" t="s">
+        <v>259</v>
+      </c>
+      <c r="M12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" t="s">
+        <v>262</v>
+      </c>
+      <c r="G13" t="s">
+        <v>263</v>
+      </c>
+      <c r="I13" t="s">
+        <v>264</v>
+      </c>
+      <c r="J13" t="s">
+        <v>265</v>
+      </c>
+      <c r="K13" t="s">
+        <v>266</v>
+      </c>
+      <c r="M13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" t="s">
+        <v>269</v>
+      </c>
+      <c r="G14" t="s">
+        <v>270</v>
+      </c>
+      <c r="I14" t="s">
+        <v>271</v>
+      </c>
+      <c r="J14" t="s">
+        <v>272</v>
+      </c>
+      <c r="K14" t="s">
+        <v>273</v>
+      </c>
+      <c r="M14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" t="s">
+        <v>275</v>
+      </c>
+      <c r="G15" t="s">
+        <v>276</v>
+      </c>
+      <c r="I15" t="s">
+        <v>277</v>
+      </c>
+      <c r="J15" t="s">
+        <v>278</v>
+      </c>
+      <c r="K15" t="s">
+        <v>279</v>
+      </c>
+      <c r="M15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" t="s">
+        <v>281</v>
+      </c>
+      <c r="I16" t="s">
+        <v>282</v>
+      </c>
+      <c r="J16" t="s">
+        <v>283</v>
+      </c>
+      <c r="K16" t="s">
+        <v>284</v>
+      </c>
+      <c r="M16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" t="s">
+        <v>286</v>
+      </c>
+      <c r="I17" t="s">
+        <v>287</v>
+      </c>
+      <c r="J17" t="s">
+        <v>288</v>
+      </c>
+      <c r="K17" t="s">
+        <v>289</v>
+      </c>
+      <c r="M17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" t="s">
+        <v>291</v>
+      </c>
+      <c r="I18" t="s">
+        <v>292</v>
+      </c>
+      <c r="J18" t="s">
+        <v>293</v>
+      </c>
+      <c r="K18" t="s">
+        <v>294</v>
+      </c>
+      <c r="M18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" t="s">
+        <v>296</v>
+      </c>
+      <c r="I19" t="s">
+        <v>297</v>
+      </c>
+      <c r="J19" t="s">
+        <v>298</v>
+      </c>
+      <c r="K19" t="s">
+        <v>299</v>
+      </c>
+      <c r="M19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" t="s">
+        <v>301</v>
+      </c>
+      <c r="I20" t="s">
+        <v>302</v>
+      </c>
+      <c r="J20" t="s">
+        <v>303</v>
+      </c>
+      <c r="K20" t="s">
+        <v>304</v>
+      </c>
+      <c r="M20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" t="s">
+        <v>306</v>
+      </c>
+      <c r="I21" t="s">
+        <v>307</v>
+      </c>
+      <c r="J21" t="s">
+        <v>308</v>
+      </c>
+      <c r="K21" t="s">
+        <v>309</v>
+      </c>
+      <c r="M21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" t="s">
+        <v>312</v>
+      </c>
+      <c r="I22" t="s">
+        <v>313</v>
+      </c>
+      <c r="K22" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" t="s">
+        <v>317</v>
+      </c>
+      <c r="I23" t="s">
+        <v>318</v>
+      </c>
+      <c r="K23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" t="s">
+        <v>321</v>
+      </c>
+      <c r="I24" t="s">
+        <v>322</v>
+      </c>
+      <c r="K24" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" t="s">
+        <v>325</v>
+      </c>
+      <c r="I25" t="s">
+        <v>326</v>
+      </c>
+      <c r="K25" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I26" t="s">
+        <v>329</v>
+      </c>
+      <c r="K26" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="I27" t="s">
+        <v>332</v>
+      </c>
+      <c r="K27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="I28" t="s">
+        <v>334</v>
+      </c>
+      <c r="K28" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="I29" t="s">
+        <v>337</v>
+      </c>
+      <c r="K29" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="I30" t="s">
+        <v>340</v>
+      </c>
+      <c r="K30" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="I31" t="s">
+        <v>343</v>
+      </c>
+      <c r="K31" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="I32" t="s">
+        <v>346</v>
+      </c>
+      <c r="K32" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="I33" t="s">
+        <v>348</v>
+      </c>
+      <c r="K33" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="I34" t="s">
+        <v>350</v>
+      </c>
+      <c r="K34" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="I35" t="s">
+        <v>352</v>
+      </c>
+      <c r="K35" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I36" t="s">
+        <v>354</v>
+      </c>
+      <c r="K36" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I37" t="s">
+        <v>356</v>
+      </c>
+      <c r="K37" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="I38" t="s">
+        <v>359</v>
+      </c>
+      <c r="K38" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I39" t="s">
+        <v>361</v>
+      </c>
+      <c r="K39" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I40" t="s">
+        <v>363</v>
+      </c>
+      <c r="K40" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I41" t="s">
+        <v>365</v>
+      </c>
+      <c r="K41" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I42" t="s">
+        <v>367</v>
+      </c>
+      <c r="K42" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I43" t="s">
+        <v>370</v>
+      </c>
+      <c r="K43" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I44" t="s">
+        <v>373</v>
+      </c>
+      <c r="K44" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I45" t="s">
+        <v>376</v>
+      </c>
+      <c r="K45" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I46" t="s">
+        <v>379</v>
+      </c>
+      <c r="K46" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I47" t="s">
+        <v>381</v>
+      </c>
+      <c r="K47" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="I48" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="I49" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="I50" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="I51" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="I52" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9">
+      <c r="B53" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I53" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I54" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I55" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I56" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9">
+      <c r="I57" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="58" spans="9:9">
+      <c r="I58" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="59" spans="9:9">
+      <c r="I59" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="9:9">
+      <c r="I60" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="61" spans="9:9">
+      <c r="I61" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="62" spans="9:9">
+      <c r="I62" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="63" spans="9:9">
+      <c r="I63" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="64" spans="9:9">
+      <c r="I64" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9">
+      <c r="I65" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9">
+      <c r="I66" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9">
+      <c r="I67" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9">
+      <c r="I68" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="69" spans="9:9">
+      <c r="I69" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="70" spans="9:9">
+      <c r="I70" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9">
+      <c r="I71" t="s">
+        <v>412</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1564686220" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.511806" footer="0.511806"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1564686220" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1564686220" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1564686220" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="15.40"/>
+  <cols>
+    <col min="1" max="1" width="41.205357" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F10" t="s">
-        <v>213</v>
-      </c>
-      <c r="G10" t="s">
-        <v>214</v>
-      </c>
-      <c r="H10" t="s">
-        <v>215</v>
-      </c>
-      <c r="I10" t="s">
-        <v>216</v>
-      </c>
-      <c r="J10" t="s">
-        <v>208</v>
-      </c>
-      <c r="K10" t="s">
-        <v>218</v>
-      </c>
-      <c r="L10" t="s">
-        <v>219</v>
-      </c>
-      <c r="M10" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="F11" t="s">
-        <v>222</v>
-      </c>
-      <c r="G11" t="s">
-        <v>223</v>
-      </c>
-      <c r="H11" t="s">
-        <v>224</v>
-      </c>
-      <c r="I11" t="s">
-        <v>225</v>
-      </c>
-      <c r="J11" t="s">
-        <v>217</v>
-      </c>
-      <c r="K11" t="s">
-        <v>227</v>
-      </c>
-      <c r="L11" t="s">
-        <v>228</v>
-      </c>
-      <c r="M11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F12" t="s">
-        <v>230</v>
-      </c>
-      <c r="G12" t="s">
-        <v>231</v>
-      </c>
-      <c r="I12" t="s">
-        <v>232</v>
-      </c>
-      <c r="J12" t="s">
-        <v>226</v>
-      </c>
-      <c r="K12" t="s">
-        <v>234</v>
-      </c>
-      <c r="M12" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="F13" t="s">
-        <v>237</v>
-      </c>
-      <c r="G13" t="s">
-        <v>238</v>
-      </c>
-      <c r="I13" t="s">
-        <v>239</v>
-      </c>
-      <c r="J13" t="s">
-        <v>233</v>
-      </c>
-      <c r="K13" t="s">
-        <v>241</v>
-      </c>
-      <c r="M13" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="F14" t="s">
-        <v>244</v>
-      </c>
-      <c r="G14" t="s">
-        <v>245</v>
-      </c>
-      <c r="I14" t="s">
-        <v>246</v>
-      </c>
-      <c r="J14" t="s">
-        <v>240</v>
-      </c>
-      <c r="K14" t="s">
-        <v>248</v>
-      </c>
-      <c r="M14" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="5" t="s">
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
         <v>147</v>
       </c>
-      <c r="F15" t="s">
-        <v>249</v>
-      </c>
-      <c r="G15" t="s">
-        <v>250</v>
-      </c>
-      <c r="I15" t="s">
-        <v>251</v>
-      </c>
-      <c r="J15" t="s">
-        <v>247</v>
-      </c>
-      <c r="K15" t="s">
-        <v>253</v>
-      </c>
-      <c r="M15" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F16" t="s">
-        <v>255</v>
-      </c>
-      <c r="I16" t="s">
-        <v>256</v>
-      </c>
-      <c r="J16" t="s">
-        <v>252</v>
-      </c>
-      <c r="K16" t="s">
-        <v>258</v>
-      </c>
-      <c r="M16" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="F17" t="s">
-        <v>260</v>
-      </c>
-      <c r="I17" t="s">
-        <v>261</v>
-      </c>
-      <c r="J17" t="s">
-        <v>257</v>
-      </c>
-      <c r="K17" t="s">
-        <v>263</v>
-      </c>
-      <c r="M17" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="F18" t="s">
-        <v>265</v>
-      </c>
-      <c r="I18" t="s">
-        <v>266</v>
-      </c>
-      <c r="J18" t="s">
-        <v>262</v>
-      </c>
-      <c r="K18" t="s">
-        <v>268</v>
-      </c>
-      <c r="M18" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F19" t="s">
-        <v>270</v>
-      </c>
-      <c r="I19" t="s">
-        <v>271</v>
-      </c>
-      <c r="J19" t="s">
-        <v>267</v>
-      </c>
-      <c r="K19" t="s">
-        <v>273</v>
-      </c>
-      <c r="M19" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F20" t="s">
-        <v>275</v>
-      </c>
-      <c r="I20" t="s">
-        <v>276</v>
-      </c>
-      <c r="J20" t="s">
-        <v>272</v>
-      </c>
-      <c r="K20" t="s">
-        <v>278</v>
-      </c>
-      <c r="M20" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="F21" t="s">
-        <v>280</v>
-      </c>
-      <c r="I21" t="s">
-        <v>281</v>
-      </c>
-      <c r="J21" t="s">
-        <v>277</v>
-      </c>
-      <c r="K21" t="s">
-        <v>282</v>
-      </c>
-      <c r="M21" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="F22" t="s">
-        <v>285</v>
-      </c>
-      <c r="I22" t="s">
-        <v>286</v>
-      </c>
-      <c r="K22" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="F23" t="s">
-        <v>291</v>
-      </c>
-      <c r="I23" t="s">
-        <v>292</v>
-      </c>
-      <c r="K23" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="F24" t="s">
-        <v>296</v>
-      </c>
-      <c r="I24" t="s">
-        <v>297</v>
-      </c>
-      <c r="K24" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="F25" t="s">
-        <v>301</v>
-      </c>
-      <c r="I25" t="s">
-        <v>302</v>
-      </c>
-      <c r="K25" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="I26" t="s">
-        <v>305</v>
-      </c>
-      <c r="K26" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="I27" t="s">
-        <v>308</v>
-      </c>
-      <c r="K27" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="I28" t="s">
-        <v>310</v>
-      </c>
-      <c r="K28" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="I29" t="s">
-        <v>313</v>
-      </c>
-      <c r="K29" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I30" t="s">
-        <v>316</v>
-      </c>
-      <c r="K30" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="I31" t="s">
-        <v>319</v>
-      </c>
-      <c r="K31" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="I32" t="s">
-        <v>322</v>
-      </c>
-      <c r="K32" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="I33" t="s">
-        <v>324</v>
-      </c>
-      <c r="K33" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="I34" t="s">
-        <v>326</v>
-      </c>
-      <c r="K34" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="I35" t="s">
-        <v>328</v>
-      </c>
-      <c r="K35" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="I36" t="s">
-        <v>330</v>
-      </c>
-      <c r="K36" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="I37" t="s">
-        <v>332</v>
-      </c>
-      <c r="K37" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="I38" t="s">
-        <v>335</v>
-      </c>
-      <c r="K38" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="I39" t="s">
-        <v>337</v>
-      </c>
-      <c r="K39" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="I40" t="s">
-        <v>339</v>
-      </c>
-      <c r="K40" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="I41" t="s">
-        <v>341</v>
-      </c>
-      <c r="K41" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="I42" t="s">
-        <v>343</v>
-      </c>
-      <c r="K42" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="I43" t="s">
-        <v>346</v>
-      </c>
-      <c r="K43" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I44" t="s">
-        <v>349</v>
-      </c>
-      <c r="K44" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="I45" t="s">
-        <v>352</v>
-      </c>
-      <c r="K45" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I46" t="s">
-        <v>355</v>
-      </c>
-      <c r="K46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="I47" t="s">
-        <v>357</v>
-      </c>
-      <c r="K47" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="I48" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="I49" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="I50" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="I51" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="I52" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="I53" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="I54" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="I55" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="I56" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I57" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I58" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I59" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I60" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I61" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I62" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I63" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I64" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I65" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I66" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I67" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I68" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I69" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I70" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I71" t="s">
-        <v>388</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1564686220" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1564686220" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1564686220" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1564686220" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="kvl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlasenko\Documents\05.PYTHON\Projects\san_report_automation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="switch_info" sheetId="1" r:id="rId4"/>
-    <sheet name="parameters" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
-    <sheet name="columns" sheetId="4" r:id="rId7"/>
+    <sheet name="switch_info" sheetId="1" r:id="rId1"/>
+    <sheet name="parameters" sheetId="2" r:id="rId2"/>
+    <sheet name="columns" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr iterateDelta="0.0001"/>
+  <calcPr calcId="4283453520" iterateDelta="1E-4"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1564686220" val="966" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="424">
   <si>
     <t>switchType</t>
   </si>
@@ -1274,70 +1278,49 @@
   </si>
   <si>
     <t>Number_of_LS</t>
+  </si>
+  <si>
+    <t>ts.tz</t>
+  </si>
+  <si>
+    <t>snmp_server</t>
+  </si>
+  <si>
+    <t>syslog_server</t>
+  </si>
+  <si>
+    <t>timezone_h:m</t>
+  </si>
+  <si>
+    <t>chassis_wwn</t>
+  </si>
+  <si>
+    <t>config_collection_date</t>
+  </si>
+  <si>
+    <t>chassis_params_add</t>
+  </si>
+  <si>
+    <t>timezone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;₽&quot;;\-#,##0\ &quot;₽&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;₽&quot;;[Red]\-#,##0\ &quot;₽&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;₽&quot;;\-#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="2" formatCode="0.00"/>
-    <numFmt numFmtId="49" formatCode="@"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1564686220" ulstyle="none" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
-      <name val="Basic Sans"/>
-      <family val="1"/>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1564686220" ulstyle="none" kern="1">
-            <pm:latin face="Basic Sans" sz="200" lang="default"/>
-            <pm:cs face="Basic Roman" sz="200" lang="default"/>
-            <pm:ea face="Basic Roman" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <b/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1564686220" ulstyle="none" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
   </fonts>
   <fills count="3">
@@ -1349,79 +1332,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1564686220" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1564686220"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1564686220"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
     <ext uri="smNativeData">
       <pm:charStyles xmlns:pm="smNativeData" id="1564686220" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
@@ -1686,24 +1644,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.571429" customWidth="1" style="1"/>
-    <col min="2" max="2" width="57.428571" customWidth="1"/>
-    <col min="3" max="3" width="58.714286" customWidth="1"/>
-    <col min="4" max="4" width="30.857143" customWidth="1"/>
-    <col min="5" max="5" width="58.714286" customWidth="1"/>
-    <col min="6" max="1025" width="8.571429" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
+    <col min="3" max="3" width="58.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
+    <col min="5" max="5" width="58.7109375" customWidth="1"/>
+    <col min="6" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1720,8 +1678,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1737,8 +1695,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1754,8 +1712,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1771,8 +1729,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -1788,8 +1746,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -1805,8 +1763,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -1822,8 +1780,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -1839,8 +1797,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>9</v>
       </c>
       <c r="B9" t="s">
@@ -1856,8 +1814,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>10</v>
       </c>
       <c r="B10" t="s">
@@ -1873,8 +1831,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>12</v>
       </c>
       <c r="B11" t="s">
@@ -1890,8 +1848,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>16</v>
       </c>
       <c r="B12" t="s">
@@ -1907,8 +1865,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>17</v>
       </c>
       <c r="B13" t="s">
@@ -1924,8 +1882,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>18</v>
       </c>
       <c r="B14" t="s">
@@ -1941,8 +1899,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>21</v>
       </c>
       <c r="B15" t="s">
@@ -1958,8 +1916,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>22</v>
       </c>
       <c r="B16" t="s">
@@ -1975,8 +1933,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>26</v>
       </c>
       <c r="B17" t="s">
@@ -1992,8 +1950,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>27</v>
       </c>
       <c r="B18" t="s">
@@ -2009,8 +1967,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>29</v>
       </c>
       <c r="B19" t="s">
@@ -2026,8 +1984,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>32</v>
       </c>
       <c r="B20" t="s">
@@ -2043,8 +2001,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>33</v>
       </c>
       <c r="B21" t="s">
@@ -2060,8 +2018,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>34</v>
       </c>
       <c r="B22" t="s">
@@ -2077,8 +2035,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>37</v>
       </c>
       <c r="B23" t="s">
@@ -2094,8 +2052,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>38</v>
       </c>
       <c r="B24" t="s">
@@ -2111,8 +2069,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>40</v>
       </c>
       <c r="B25" t="s">
@@ -2128,8 +2086,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>41</v>
       </c>
       <c r="B26" t="s">
@@ -2145,8 +2103,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>42</v>
       </c>
       <c r="B27" t="s">
@@ -2162,8 +2120,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>43</v>
       </c>
       <c r="B28" t="s">
@@ -2179,8 +2137,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>44</v>
       </c>
       <c r="B29" t="s">
@@ -2196,8 +2154,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>45</v>
       </c>
       <c r="B30" t="s">
@@ -2213,8 +2171,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>46</v>
       </c>
       <c r="B31" t="s">
@@ -2227,8 +2185,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>51</v>
       </c>
       <c r="B32" t="s">
@@ -2244,9 +2202,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1" t="n">
-        <v>55.2000000000000028</v>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>55.2</v>
       </c>
       <c r="B33" t="s">
         <v>41</v>
@@ -2261,8 +2219,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>58</v>
       </c>
       <c r="B34" t="s">
@@ -2278,8 +2236,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>61</v>
       </c>
       <c r="B35" t="s">
@@ -2295,8 +2253,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>62</v>
       </c>
       <c r="B36" t="s">
@@ -2312,8 +2270,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>64</v>
       </c>
       <c r="B37" t="s">
@@ -2329,8 +2287,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>66</v>
       </c>
       <c r="B38" t="s">
@@ -2346,8 +2304,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>67</v>
       </c>
       <c r="B39" t="s">
@@ -2363,8 +2321,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>69</v>
       </c>
       <c r="B40" t="s">
@@ -2380,8 +2338,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>70</v>
       </c>
       <c r="B41" t="s">
@@ -2397,8 +2355,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>71</v>
       </c>
       <c r="B42" t="s">
@@ -2411,8 +2369,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>72</v>
       </c>
       <c r="B43" t="s">
@@ -2428,8 +2386,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>73</v>
       </c>
       <c r="B44" t="s">
@@ -2445,8 +2403,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>75</v>
       </c>
       <c r="B45" t="s">
@@ -2462,8 +2420,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>76</v>
       </c>
       <c r="B46" t="s">
@@ -2479,8 +2437,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>77</v>
       </c>
       <c r="B47" t="s">
@@ -2496,8 +2454,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>83</v>
       </c>
       <c r="B48" t="s">
@@ -2513,8 +2471,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>86</v>
       </c>
       <c r="B49" t="s">
@@ -2530,8 +2488,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>87</v>
       </c>
       <c r="B50" t="s">
@@ -2547,8 +2505,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>90</v>
       </c>
       <c r="B51" t="s">
@@ -2564,8 +2522,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>92</v>
       </c>
       <c r="B52" t="s">
@@ -2581,8 +2539,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>95</v>
       </c>
       <c r="B53" t="s">
@@ -2598,8 +2556,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>96</v>
       </c>
       <c r="B54" t="s">
@@ -2615,8 +2573,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>97</v>
       </c>
       <c r="B55" t="s">
@@ -2632,8 +2590,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>98</v>
       </c>
       <c r="B56" t="s">
@@ -2649,8 +2607,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>108</v>
       </c>
       <c r="B57" t="s">
@@ -2666,8 +2624,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>109</v>
       </c>
       <c r="B58" t="s">
@@ -2683,8 +2641,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>116</v>
       </c>
       <c r="B59" t="s">
@@ -2700,8 +2658,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>117</v>
       </c>
       <c r="B60" t="s">
@@ -2717,8 +2675,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>118</v>
       </c>
       <c r="B61" t="s">
@@ -2734,8 +2692,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>120</v>
       </c>
       <c r="B62" t="s">
@@ -2751,8 +2709,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>121</v>
       </c>
       <c r="B63" t="s">
@@ -2768,8 +2726,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>129</v>
       </c>
       <c r="B64" t="s">
@@ -2785,8 +2743,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>130</v>
       </c>
       <c r="B65" t="s">
@@ -2802,8 +2760,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>133</v>
       </c>
       <c r="B66" t="s">
@@ -2819,8 +2777,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>134</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -2836,8 +2794,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>148</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -2853,8 +2811,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>162</v>
       </c>
       <c r="B69" t="s">
@@ -2870,8 +2828,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>165</v>
       </c>
       <c r="B70" t="s">
@@ -2887,8 +2845,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>166</v>
       </c>
       <c r="B71" t="s">
@@ -2904,8 +2862,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>170</v>
       </c>
       <c r="B72" t="s">
@@ -2922,23 +2880,8 @@
       </c>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1564686220" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.511806" footer="0.511806"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1564686220" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1564686220" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup paperSize="9" fitToWidth="0"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1564686220" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
@@ -2951,214 +2894,174 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.303571" customWidth="1"/>
-    <col min="2" max="2" width="37.732143" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B1"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>126</v>
       </c>
-      <c r="B2"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B3"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>130</v>
       </c>
-      <c r="B6"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B7"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B8"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>146</v>
-      </c>
-      <c r="B22"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B24"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="5"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="7" t="s">
-        <v>154</v>
-      </c>
+      <c r="B20" s="5"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1564686220" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1564686220" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1564686220" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1564686220" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
@@ -3171,1293 +3074,203 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.857143" customWidth="1" style="5"/>
-    <col min="2" max="2" width="44.857143" customWidth="1" style="5"/>
-    <col min="3" max="3" width="45.285714" customWidth="1" style="5"/>
-    <col min="4" max="4" width="32.714286" customWidth="1"/>
-    <col min="5" max="5" width="36.428571" customWidth="1"/>
-    <col min="6" max="6" width="33.428571" customWidth="1"/>
-    <col min="7" max="7" width="28.000000" customWidth="1"/>
-    <col min="8" max="9" width="24.714286" customWidth="1"/>
-    <col min="10" max="10" width="26.571429" customWidth="1"/>
-    <col min="11" max="11" width="20.285714" customWidth="1"/>
-    <col min="12" max="12" width="22.000000" customWidth="1"/>
-    <col min="13" max="13" width="21.571429" customWidth="1"/>
-    <col min="14" max="14" width="8.571429" customWidth="1"/>
-    <col min="15" max="15" width="21.000000" customWidth="1"/>
-    <col min="16" max="1025" width="8.571429" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G2" s="5" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="I2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J2" t="s">
-        <v>174</v>
-      </c>
-      <c r="K2" t="s">
-        <v>172</v>
-      </c>
-      <c r="L2" t="s">
-        <v>175</v>
-      </c>
-      <c r="M2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="5" t="s">
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J3" t="s">
-        <v>181</v>
-      </c>
-      <c r="K3" t="s">
-        <v>168</v>
-      </c>
-      <c r="L3" t="s">
-        <v>182</v>
-      </c>
-      <c r="M3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G4" t="s">
-        <v>186</v>
-      </c>
-      <c r="H4" t="s">
-        <v>187</v>
-      </c>
-      <c r="I4" t="s">
-        <v>188</v>
-      </c>
-      <c r="J4" t="s">
-        <v>189</v>
-      </c>
-      <c r="K4" t="s">
-        <v>190</v>
-      </c>
-      <c r="L4" t="s">
-        <v>191</v>
-      </c>
-      <c r="M4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B7" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G5" t="s">
-        <v>190</v>
-      </c>
-      <c r="H5" t="s">
-        <v>196</v>
-      </c>
-      <c r="I5" t="s">
-        <v>197</v>
-      </c>
-      <c r="J5" t="s">
-        <v>198</v>
-      </c>
-      <c r="K5" t="s">
-        <v>199</v>
-      </c>
-      <c r="L5" t="s">
-        <v>192</v>
-      </c>
-      <c r="M5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H6" t="s">
-        <v>204</v>
-      </c>
-      <c r="I6" t="s">
-        <v>205</v>
-      </c>
-      <c r="J6" t="s">
-        <v>206</v>
-      </c>
-      <c r="K6" t="s">
-        <v>207</v>
-      </c>
-      <c r="L6" t="s">
-        <v>208</v>
-      </c>
-      <c r="M6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H7" t="s">
-        <v>213</v>
-      </c>
-      <c r="I7" t="s">
-        <v>214</v>
-      </c>
-      <c r="J7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" t="s">
-        <v>220</v>
-      </c>
-      <c r="G8" t="s">
-        <v>221</v>
-      </c>
-      <c r="H8" t="s">
-        <v>222</v>
-      </c>
-      <c r="I8" t="s">
-        <v>223</v>
-      </c>
-      <c r="J8" t="s">
-        <v>224</v>
-      </c>
-      <c r="K8" t="s">
-        <v>225</v>
-      </c>
-      <c r="L8" t="s">
-        <v>226</v>
-      </c>
-      <c r="M8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" t="s">
-        <v>229</v>
-      </c>
-      <c r="G9" t="s">
-        <v>230</v>
-      </c>
-      <c r="H9" t="s">
-        <v>231</v>
-      </c>
-      <c r="I9" t="s">
-        <v>232</v>
-      </c>
-      <c r="J9" t="s">
-        <v>233</v>
-      </c>
-      <c r="K9" t="s">
-        <v>234</v>
-      </c>
-      <c r="L9" t="s">
-        <v>235</v>
-      </c>
-      <c r="M9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" t="s">
-        <v>238</v>
-      </c>
-      <c r="G10" t="s">
-        <v>239</v>
-      </c>
-      <c r="H10" t="s">
-        <v>240</v>
-      </c>
-      <c r="I10" t="s">
-        <v>241</v>
-      </c>
-      <c r="J10" t="s">
-        <v>242</v>
-      </c>
-      <c r="K10" t="s">
-        <v>243</v>
-      </c>
-      <c r="L10" t="s">
-        <v>244</v>
-      </c>
-      <c r="M10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" t="s">
-        <v>247</v>
-      </c>
-      <c r="G11" t="s">
-        <v>248</v>
-      </c>
-      <c r="H11" t="s">
-        <v>249</v>
-      </c>
-      <c r="I11" t="s">
-        <v>250</v>
-      </c>
-      <c r="J11" t="s">
-        <v>251</v>
-      </c>
-      <c r="K11" t="s">
-        <v>252</v>
-      </c>
-      <c r="L11" t="s">
-        <v>253</v>
-      </c>
-      <c r="M11" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F12" t="s">
-        <v>255</v>
-      </c>
-      <c r="G12" t="s">
-        <v>256</v>
-      </c>
-      <c r="I12" t="s">
-        <v>257</v>
-      </c>
-      <c r="J12" t="s">
-        <v>258</v>
-      </c>
-      <c r="K12" t="s">
-        <v>259</v>
-      </c>
-      <c r="M12" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" t="s">
-        <v>262</v>
-      </c>
-      <c r="G13" t="s">
-        <v>263</v>
-      </c>
-      <c r="I13" t="s">
-        <v>264</v>
-      </c>
-      <c r="J13" t="s">
-        <v>265</v>
-      </c>
-      <c r="K13" t="s">
-        <v>266</v>
-      </c>
-      <c r="M13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F14" t="s">
-        <v>269</v>
-      </c>
-      <c r="G14" t="s">
-        <v>270</v>
-      </c>
-      <c r="I14" t="s">
-        <v>271</v>
-      </c>
-      <c r="J14" t="s">
-        <v>272</v>
-      </c>
-      <c r="K14" t="s">
-        <v>273</v>
-      </c>
-      <c r="M14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" t="s">
-        <v>275</v>
-      </c>
-      <c r="G15" t="s">
-        <v>276</v>
-      </c>
-      <c r="I15" t="s">
-        <v>277</v>
-      </c>
-      <c r="J15" t="s">
-        <v>278</v>
-      </c>
-      <c r="K15" t="s">
-        <v>279</v>
-      </c>
-      <c r="M15" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="5" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F16" t="s">
-        <v>281</v>
-      </c>
-      <c r="I16" t="s">
-        <v>282</v>
-      </c>
-      <c r="J16" t="s">
-        <v>283</v>
-      </c>
-      <c r="K16" t="s">
-        <v>284</v>
-      </c>
-      <c r="M16" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C17" s="5" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F17" t="s">
-        <v>286</v>
-      </c>
-      <c r="I17" t="s">
-        <v>287</v>
-      </c>
-      <c r="J17" t="s">
-        <v>288</v>
-      </c>
-      <c r="K17" t="s">
-        <v>289</v>
-      </c>
-      <c r="M17" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C18" s="5" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F18" t="s">
-        <v>291</v>
-      </c>
-      <c r="I18" t="s">
-        <v>292</v>
-      </c>
-      <c r="J18" t="s">
-        <v>293</v>
-      </c>
-      <c r="K18" t="s">
-        <v>294</v>
-      </c>
-      <c r="M18" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" t="s">
-        <v>296</v>
-      </c>
-      <c r="I19" t="s">
-        <v>297</v>
-      </c>
-      <c r="J19" t="s">
-        <v>298</v>
-      </c>
-      <c r="K19" t="s">
-        <v>299</v>
-      </c>
-      <c r="M19" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" t="s">
-        <v>301</v>
-      </c>
-      <c r="I20" t="s">
-        <v>302</v>
-      </c>
-      <c r="J20" t="s">
-        <v>303</v>
-      </c>
-      <c r="K20" t="s">
-        <v>304</v>
-      </c>
-      <c r="M20" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F21" t="s">
-        <v>306</v>
-      </c>
-      <c r="I21" t="s">
-        <v>307</v>
-      </c>
-      <c r="J21" t="s">
-        <v>308</v>
-      </c>
-      <c r="K21" t="s">
-        <v>309</v>
-      </c>
-      <c r="M21" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" t="s">
-        <v>312</v>
-      </c>
-      <c r="I22" t="s">
-        <v>313</v>
-      </c>
-      <c r="K22" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F23" t="s">
-        <v>317</v>
-      </c>
-      <c r="I23" t="s">
-        <v>318</v>
-      </c>
-      <c r="K23" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F24" t="s">
-        <v>321</v>
-      </c>
-      <c r="I24" t="s">
-        <v>322</v>
-      </c>
-      <c r="K24" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="5" t="s">
-        <v>324</v>
-      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F25" t="s">
-        <v>325</v>
-      </c>
-      <c r="I25" t="s">
-        <v>326</v>
-      </c>
-      <c r="K25" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="I26" t="s">
-        <v>329</v>
-      </c>
-      <c r="K26" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="I27" t="s">
-        <v>332</v>
-      </c>
-      <c r="K27" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="I28" t="s">
-        <v>334</v>
-      </c>
-      <c r="K28" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="I29" t="s">
-        <v>337</v>
-      </c>
-      <c r="K29" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="I30" t="s">
-        <v>340</v>
-      </c>
-      <c r="K30" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="I31" t="s">
-        <v>343</v>
-      </c>
-      <c r="K31" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="I32" t="s">
-        <v>346</v>
-      </c>
-      <c r="K32" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="I33" t="s">
-        <v>348</v>
-      </c>
-      <c r="K33" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="I34" t="s">
-        <v>350</v>
-      </c>
-      <c r="K34" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="I35" t="s">
-        <v>352</v>
-      </c>
-      <c r="K35" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I36" t="s">
-        <v>354</v>
-      </c>
-      <c r="K36" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I37" t="s">
-        <v>356</v>
-      </c>
-      <c r="K37" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="I38" t="s">
-        <v>359</v>
-      </c>
-      <c r="K38" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="I39" t="s">
-        <v>361</v>
-      </c>
-      <c r="K39" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="I40" t="s">
-        <v>363</v>
-      </c>
-      <c r="K40" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I41" t="s">
-        <v>365</v>
-      </c>
-      <c r="K41" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I42" t="s">
-        <v>367</v>
-      </c>
-      <c r="K42" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="I43" t="s">
-        <v>370</v>
-      </c>
-      <c r="K43" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I44" t="s">
-        <v>373</v>
-      </c>
-      <c r="K44" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I45" t="s">
-        <v>376</v>
-      </c>
-      <c r="K45" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I46" t="s">
-        <v>379</v>
-      </c>
-      <c r="K46" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="I47" t="s">
-        <v>381</v>
-      </c>
-      <c r="K47" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="I48" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="I49" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="I50" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="I51" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="I52" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9">
-      <c r="B53" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I53" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="I54" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="B55" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="I55" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I56" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="57" spans="9:9">
-      <c r="I57" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="58" spans="9:9">
-      <c r="I58" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="59" spans="9:9">
-      <c r="I59" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="60" spans="9:9">
-      <c r="I60" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="61" spans="9:9">
-      <c r="I61" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="62" spans="9:9">
-      <c r="I62" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="63" spans="9:9">
-      <c r="I63" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="64" spans="9:9">
-      <c r="I64" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="65" spans="9:9">
-      <c r="I65" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="66" spans="9:9">
-      <c r="I66" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="67" spans="9:9">
-      <c r="I67" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="68" spans="9:9">
-      <c r="I68" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="69" spans="9:9">
-      <c r="I69" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="70" spans="9:9">
-      <c r="I70" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="71" spans="9:9">
-      <c r="I71" t="s">
-        <v>412</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1564686220" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.511806" footer="0.511806"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1564686220" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1564686220" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.39374999999999999" footer="0.39374999999999999"/>
+  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1564686220" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
@@ -4470,156 +3283,1278 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.205357" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="9" width="24.7109375" customWidth="1"/>
+    <col min="10" max="10" width="26.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="21" customWidth="1"/>
+    <col min="16" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L2" t="s">
+        <v>175</v>
+      </c>
+      <c r="M2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>139</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L3" t="s">
+        <v>182</v>
+      </c>
+      <c r="M3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>128</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L4" t="s">
+        <v>191</v>
+      </c>
+      <c r="M4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" t="s">
+        <v>196</v>
+      </c>
+      <c r="I5" t="s">
+        <v>197</v>
+      </c>
+      <c r="J5" t="s">
+        <v>198</v>
+      </c>
+      <c r="K5" t="s">
+        <v>199</v>
+      </c>
+      <c r="L5" t="s">
+        <v>192</v>
+      </c>
+      <c r="M5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H6" t="s">
+        <v>204</v>
+      </c>
+      <c r="I6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J6" t="s">
+        <v>206</v>
+      </c>
+      <c r="K6" t="s">
+        <v>207</v>
+      </c>
+      <c r="L6" t="s">
+        <v>208</v>
+      </c>
+      <c r="M6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>210</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H7" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7" t="s">
+        <v>214</v>
+      </c>
+      <c r="J7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>219</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8" t="s">
+        <v>222</v>
+      </c>
+      <c r="I8" t="s">
+        <v>223</v>
+      </c>
+      <c r="J8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K8" t="s">
+        <v>225</v>
+      </c>
+      <c r="L8" t="s">
+        <v>226</v>
+      </c>
+      <c r="M8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>228</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H9" t="s">
+        <v>231</v>
+      </c>
+      <c r="I9" t="s">
+        <v>232</v>
+      </c>
+      <c r="J9" t="s">
+        <v>233</v>
+      </c>
+      <c r="K9" t="s">
+        <v>234</v>
+      </c>
+      <c r="L9" t="s">
+        <v>235</v>
+      </c>
+      <c r="M9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>237</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" t="s">
+        <v>239</v>
+      </c>
+      <c r="H10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I10" t="s">
+        <v>241</v>
+      </c>
+      <c r="J10" t="s">
+        <v>242</v>
+      </c>
+      <c r="K10" t="s">
+        <v>243</v>
+      </c>
+      <c r="L10" t="s">
+        <v>244</v>
+      </c>
+      <c r="M10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>246</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" t="s">
+        <v>248</v>
+      </c>
+      <c r="H11" t="s">
+        <v>249</v>
+      </c>
+      <c r="I11" t="s">
+        <v>250</v>
+      </c>
+      <c r="J11" t="s">
+        <v>251</v>
+      </c>
+      <c r="K11" t="s">
+        <v>252</v>
+      </c>
+      <c r="L11" t="s">
+        <v>253</v>
+      </c>
+      <c r="M11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>127</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" t="s">
+        <v>255</v>
+      </c>
+      <c r="G12" t="s">
+        <v>256</v>
+      </c>
+      <c r="I12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J12" t="s">
+        <v>258</v>
+      </c>
+      <c r="K12" t="s">
+        <v>259</v>
+      </c>
+      <c r="M12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>261</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" t="s">
+        <v>262</v>
+      </c>
+      <c r="G13" t="s">
+        <v>263</v>
+      </c>
+      <c r="I13" t="s">
+        <v>264</v>
+      </c>
+      <c r="J13" t="s">
+        <v>265</v>
+      </c>
+      <c r="K13" t="s">
+        <v>266</v>
+      </c>
+      <c r="M13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>268</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" t="s">
+        <v>269</v>
+      </c>
+      <c r="G14" t="s">
+        <v>270</v>
+      </c>
+      <c r="I14" t="s">
+        <v>271</v>
+      </c>
+      <c r="J14" t="s">
+        <v>272</v>
+      </c>
+      <c r="K14" t="s">
+        <v>273</v>
+      </c>
+      <c r="M14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="F15" t="s">
+        <v>275</v>
+      </c>
+      <c r="G15" t="s">
+        <v>276</v>
+      </c>
+      <c r="I15" t="s">
+        <v>277</v>
+      </c>
+      <c r="J15" t="s">
+        <v>278</v>
+      </c>
+      <c r="K15" t="s">
+        <v>279</v>
+      </c>
+      <c r="M15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>141</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" t="s">
+        <v>281</v>
+      </c>
+      <c r="I16" t="s">
+        <v>282</v>
+      </c>
+      <c r="J16" t="s">
+        <v>283</v>
+      </c>
+      <c r="K16" t="s">
+        <v>284</v>
+      </c>
+      <c r="M16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>169</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" t="s">
+        <v>286</v>
+      </c>
+      <c r="I17" t="s">
+        <v>287</v>
+      </c>
+      <c r="J17" t="s">
+        <v>288</v>
+      </c>
+      <c r="K17" t="s">
+        <v>289</v>
+      </c>
+      <c r="M17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" t="s">
+        <v>291</v>
+      </c>
+      <c r="I18" t="s">
+        <v>292</v>
+      </c>
+      <c r="J18" t="s">
+        <v>293</v>
+      </c>
+      <c r="K18" t="s">
+        <v>294</v>
+      </c>
+      <c r="M18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" t="s">
+        <v>296</v>
+      </c>
+      <c r="I19" t="s">
+        <v>297</v>
+      </c>
+      <c r="J19" t="s">
+        <v>298</v>
+      </c>
+      <c r="K19" t="s">
+        <v>299</v>
+      </c>
+      <c r="M19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" t="s">
+        <v>301</v>
+      </c>
+      <c r="I20" t="s">
+        <v>302</v>
+      </c>
+      <c r="J20" t="s">
+        <v>303</v>
+      </c>
+      <c r="K20" t="s">
+        <v>304</v>
+      </c>
+      <c r="M20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B21" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" t="s">
+        <v>306</v>
+      </c>
+      <c r="I21" t="s">
+        <v>307</v>
+      </c>
+      <c r="J21" t="s">
+        <v>308</v>
+      </c>
+      <c r="K21" t="s">
+        <v>309</v>
+      </c>
+      <c r="M21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" t="s">
+        <v>312</v>
+      </c>
+      <c r="I22" t="s">
+        <v>313</v>
+      </c>
+      <c r="K22" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" t="s">
+        <v>317</v>
+      </c>
+      <c r="I23" t="s">
+        <v>318</v>
+      </c>
+      <c r="K23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" t="s">
+        <v>321</v>
+      </c>
+      <c r="I24" t="s">
+        <v>322</v>
+      </c>
+      <c r="K24" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" t="s">
+        <v>325</v>
+      </c>
+      <c r="I25" t="s">
+        <v>326</v>
+      </c>
+      <c r="K25" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I26" t="s">
+        <v>329</v>
+      </c>
+      <c r="K26" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="I27" t="s">
+        <v>332</v>
+      </c>
+      <c r="K27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="I28" t="s">
+        <v>334</v>
+      </c>
+      <c r="K28" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="I29" t="s">
+        <v>337</v>
+      </c>
+      <c r="K29" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="I30" t="s">
+        <v>340</v>
+      </c>
+      <c r="K30" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="I31" t="s">
+        <v>343</v>
+      </c>
+      <c r="K31" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="I32" t="s">
+        <v>346</v>
+      </c>
+      <c r="K32" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="I33" t="s">
+        <v>348</v>
+      </c>
+      <c r="K33" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="I34" t="s">
+        <v>350</v>
+      </c>
+      <c r="K34" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="I35" t="s">
+        <v>352</v>
+      </c>
+      <c r="K35" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>148</v>
       </c>
+      <c r="B36" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I36" t="s">
+        <v>354</v>
+      </c>
+      <c r="K36" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I37" t="s">
+        <v>356</v>
+      </c>
+      <c r="K37" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="I38" t="s">
+        <v>359</v>
+      </c>
+      <c r="K38" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I39" t="s">
+        <v>361</v>
+      </c>
+      <c r="K39" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I40" t="s">
+        <v>363</v>
+      </c>
+      <c r="K40" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I41" t="s">
+        <v>365</v>
+      </c>
+      <c r="K41" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I42" t="s">
+        <v>367</v>
+      </c>
+      <c r="K42" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I43" t="s">
+        <v>370</v>
+      </c>
+      <c r="K43" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I44" t="s">
+        <v>373</v>
+      </c>
+      <c r="K44" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I45" t="s">
+        <v>376</v>
+      </c>
+      <c r="K45" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I46" t="s">
+        <v>379</v>
+      </c>
+      <c r="K46" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I47" t="s">
+        <v>381</v>
+      </c>
+      <c r="K47" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="I48" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="I49" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="I50" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="I51" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="I52" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I53" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I54" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I55" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I56" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I60" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I61" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I62" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I64" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I66" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I70" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I71" t="s">
+        <v>412</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1564686220" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1564686220" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1564686220" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup paperSize="9" fitToWidth="0"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1564686220" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="switch_info" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="460">
   <si>
     <t>switchType</t>
   </si>
@@ -1302,13 +1302,121 @@
   </si>
   <si>
     <t>timezone</t>
+  </si>
+  <si>
+    <t>switch_params_configshow</t>
+  </si>
+  <si>
+    <t>boot.mac</t>
+  </si>
+  <si>
+    <t>boot.gateway.ipa</t>
+  </si>
+  <si>
+    <t>fabric.domain</t>
+  </si>
+  <si>
+    <t>fabric.ops.BBCredit</t>
+  </si>
+  <si>
+    <t>fabric.ops.E_D_TOV</t>
+  </si>
+  <si>
+    <t>fabric.ops.R_A_TOV</t>
+  </si>
+  <si>
+    <t>fabric.ops.bladeFault_on_hwErrlevel</t>
+  </si>
+  <si>
+    <t>fabric.ops.dataFieldSize</t>
+  </si>
+  <si>
+    <t>fabric.ops.max_hops</t>
+  </si>
+  <si>
+    <t>fabric.ops.mode.fcpProbeDisable</t>
+  </si>
+  <si>
+    <t>fabric.ops.mode.isolate</t>
+  </si>
+  <si>
+    <t>fabric.ops.mode.noClassF</t>
+  </si>
+  <si>
+    <t>fabric.ops.mode.tachyonCompat</t>
+  </si>
+  <si>
+    <t>fabric.ops.mode.unicastOnly</t>
+  </si>
+  <si>
+    <t>fabric.ops.mode.useCsCtl</t>
+  </si>
+  <si>
+    <t>fabric.ops.vc.class.2</t>
+  </si>
+  <si>
+    <t>fabric.ops.vc.class.3</t>
+  </si>
+  <si>
+    <t>fabric.ops.vc.config</t>
+  </si>
+  <si>
+    <t>fabric.ops.vc.linkCtrl</t>
+  </si>
+  <si>
+    <t>fabric.ops.vc.multicast</t>
+  </si>
+  <si>
+    <t>fabric.ops.wan_tov</t>
+  </si>
+  <si>
+    <t>rte.external_policy</t>
+  </si>
+  <si>
+    <t>zoning.targetPeerZoning</t>
+  </si>
+  <si>
+    <t>defzone</t>
+  </si>
+  <si>
+    <t>maps.activePolicy</t>
+  </si>
+  <si>
+    <t>ams_maps_log</t>
+  </si>
+  <si>
+    <t>maps.actions</t>
+  </si>
+  <si>
+    <t>switch_index</t>
+  </si>
+  <si>
+    <t>switch_columns_configshow</t>
+  </si>
+  <si>
+    <t>enabled_zoning_config</t>
+  </si>
+  <si>
+    <t>enable</t>
+  </si>
+  <si>
+    <t>cpu_average_load</t>
+  </si>
+  <si>
+    <t>uptime_days</t>
+  </si>
+  <si>
+    <t>flash_usage</t>
+  </si>
+  <si>
+    <t>memory_usage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1320,6 +1428,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1349,7 +1464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1367,6 +1482,9 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -2881,7 +2999,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1564686220" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
@@ -2895,156 +3013,739 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.28515625" customWidth="1"/>
     <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>172</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C2" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="C4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="C5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="C6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="C7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="C8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="C10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="C11" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B12" s="11" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="C12" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="C13" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B14" s="10" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="C14" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C26" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C27" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C28" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C29" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C31" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C32" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C35" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C36" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C37" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C38" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C39" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C40" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C41" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C42" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
@@ -3075,202 +3776,326 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="C2" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>148</v>
+      <c r="B21" s="5"/>
+      <c r="C21" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="5" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.39374999999999999" footer="0.39374999999999999"/>
-  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown"/>
+  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1564686220" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
@@ -4554,7 +5379,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1564686220" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -9,15 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="switch_info" sheetId="1" r:id="rId1"/>
     <sheet name="parameters" sheetId="2" r:id="rId2"/>
-    <sheet name="columns" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="chassis" sheetId="5" r:id="rId3"/>
+    <sheet name="switch" sheetId="7" r:id="rId4"/>
+    <sheet name="columns" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
+    <sheet name="notes" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="4283453520" iterateDelta="1E-4"/>
+  <calcPr calcId="4283453520"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1564686220" val="966" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="521">
   <si>
     <t>switchType</t>
   </si>
@@ -1410,6 +1413,189 @@
   </si>
   <si>
     <t>memory_usage</t>
+  </si>
+  <si>
+    <t>chassis_param_comp</t>
+  </si>
+  <si>
+    <t>snmp_target_comp</t>
+  </si>
+  <si>
+    <t>syslog_comp</t>
+  </si>
+  <si>
+    <t>memory_comp</t>
+  </si>
+  <si>
+    <t>flash_comp</t>
+  </si>
+  <si>
+    <t>tz_comp</t>
+  </si>
+  <si>
+    <t>uptime_cpu_comp</t>
+  </si>
+  <si>
+    <t>comp_names</t>
+  </si>
+  <si>
+    <t>comp_values</t>
+  </si>
+  <si>
+    <t>lines example</t>
+  </si>
+  <si>
+    <t>Number of LS = 4, system.i2cTurboCnfg:1</t>
+  </si>
+  <si>
+    <t>snmp.snmpv3TrapTarget.0.trapTargetAddr:10.99.245.222</t>
+  </si>
+  <si>
+    <t>syslog.address.1:10.99.116.66</t>
+  </si>
+  <si>
+    <t>ts.tzh:3</t>
+  </si>
+  <si>
+    <t>09:46:50 up 75 days, 22:29, 1 user, load average: 7.38, 3.83, 2.00</t>
+  </si>
+  <si>
+    <t>/dev/root  394440    207140    166940  55% /</t>
+  </si>
+  <si>
+    <t>MemTotal: 504348 kB</t>
+  </si>
+  <si>
+    <t>params_add</t>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>re_names</t>
+  </si>
+  <si>
+    <t>chassis_param</t>
+  </si>
+  <si>
+    <t>snmp_target</t>
+  </si>
+  <si>
+    <t>syslog</t>
+  </si>
+  <si>
+    <t>tz</t>
+  </si>
+  <si>
+    <t>uptime_cpu</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>flash</t>
+  </si>
+  <si>
+    <t>^([\w .-]+) ?(=|:) ?([\w. :/]+)$</t>
+  </si>
+  <si>
+    <t>^(snmp.snmpv3TrapTarget.\d.trapTargetAddr):([\d.]+)$</t>
+  </si>
+  <si>
+    <t>^(syslog.address.\d):([\d.]+)$</t>
+  </si>
+  <si>
+    <t>^(ts.tz[hm]):(\d+)$</t>
+  </si>
+  <si>
+    <t>^ [\d: ]+up\s+([\d]+)\s+days,?\s+[\d:]+,\s+[\w ]+,\s+[a-z ]+:\s+[\d.,]+\s+[\d.,]+\s+([\d.]+)$</t>
+  </si>
+  <si>
+    <t>^(\w+):\s+(\d+)\s+kB$</t>
+  </si>
+  <si>
+    <t>^/dev/root\s+\d+\s+\d+\s+\d+\s+(\d+)%\s+/$</t>
+  </si>
+  <si>
+    <t>params_required_to_extract</t>
+  </si>
+  <si>
+    <t>just for informarion</t>
+  </si>
+  <si>
+    <t>parameters list checked with re</t>
+  </si>
+  <si>
+    <t>not imported</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>names for compile and match vars</t>
+  </si>
+  <si>
+    <t>name can be changed but not order</t>
+  </si>
+  <si>
+    <t>but not order</t>
+  </si>
+  <si>
+    <t>from dictionary with all values</t>
+  </si>
+  <si>
+    <t>params names used to form list with req values</t>
+  </si>
+  <si>
+    <t>blue params name can't be chaged</t>
+  </si>
+  <si>
+    <t>new params names could be added</t>
+  </si>
+  <si>
+    <t>additional params to add in dictionary</t>
+  </si>
+  <si>
+    <t>with all values. Added manualy (like configname)</t>
+  </si>
+  <si>
+    <t>or added as combination of ble params like syslog</t>
+  </si>
+  <si>
+    <t>param column</t>
+  </si>
+  <si>
+    <t>to save in excel file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red params names can be changed but only with </t>
+  </si>
+  <si>
+    <t>with param add column</t>
+  </si>
+  <si>
+    <t>column names for dataframe</t>
+  </si>
+  <si>
+    <t>column names can be changed</t>
+  </si>
+  <si>
+    <t>but order has to be same as in param</t>
+  </si>
+  <si>
+    <t>regular expression can be changed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red params names can be changed but only </t>
+  </si>
+  <si>
+    <t>^([\w .-]+) ?(=|:) ?([-\w. :/]+)$</t>
+  </si>
+  <si>
+    <t>SwitchName = swDC_62r</t>
+  </si>
+  <si>
+    <t>switch_param</t>
   </si>
 </sst>
 </file>
@@ -1438,7 +1624,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1448,6 +1634,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1464,7 +1704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1485,6 +1725,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -3016,7 +3271,7 @@
   <dimension ref="A1:V52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C2" sqref="C2:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3776,10 +4031,998 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="37" style="7" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>493</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>458</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E41" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E42" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4107,7 +5350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
@@ -5389,4 +6632,153 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" customWidth="1"/>
+    <col min="6" max="6" width="47.28515625" customWidth="1"/>
+    <col min="7" max="7" width="36.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>497</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>497</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="E3" t="s">
+        <v>503</v>
+      </c>
+      <c r="F3" t="s">
+        <v>506</v>
+      </c>
+      <c r="G3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C4" t="s">
+        <v>501</v>
+      </c>
+      <c r="E4" t="s">
+        <v>502</v>
+      </c>
+      <c r="F4" t="s">
+        <v>507</v>
+      </c>
+      <c r="G4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="F5" t="s">
+        <v>508</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -13,10 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="switch_info" sheetId="1" r:id="rId1"/>
-    <sheet name="parameters" sheetId="2" r:id="rId2"/>
+    <sheet name="parameters___" sheetId="2" r:id="rId2"/>
     <sheet name="chassis" sheetId="5" r:id="rId3"/>
     <sheet name="switch" sheetId="7" r:id="rId4"/>
-    <sheet name="columns" sheetId="4" r:id="rId5"/>
+    <sheet name="columns___" sheetId="4" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
     <sheet name="notes" sheetId="6" r:id="rId7"/>
   </sheets>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="577">
   <si>
     <t>switchType</t>
   </si>
@@ -1436,9 +1436,6 @@
     <t>uptime_cpu_comp</t>
   </si>
   <si>
-    <t>comp_names</t>
-  </si>
-  <si>
     <t>comp_values</t>
   </si>
   <si>
@@ -1595,7 +1592,178 @@
     <t>SwitchName = swDC_62r</t>
   </si>
   <si>
-    <t>switch_param</t>
+    <t>switch_configall</t>
+  </si>
+  <si>
+    <t>switch_switchshow</t>
+  </si>
+  <si>
+    <t>switchName: swDC_141def</t>
+  </si>
+  <si>
+    <t>switchType: 120.0</t>
+  </si>
+  <si>
+    <t>switchState: Offline  (Persistent)</t>
+  </si>
+  <si>
+    <t>switchMode: Native</t>
+  </si>
+  <si>
+    <t>switchRole: Disabled</t>
+  </si>
+  <si>
+    <t>switchDomain: 1 (unconfirmed)</t>
+  </si>
+  <si>
+    <t>switchId: fffc01</t>
+  </si>
+  <si>
+    <t>switchWwn: 10:00:00:27:f8:7b:18:00</t>
+  </si>
+  <si>
+    <t>zoning:  OFF</t>
+  </si>
+  <si>
+    <t>switchBeacon: OFF</t>
+  </si>
+  <si>
+    <t>FC Router: OFF</t>
+  </si>
+  <si>
+    <t>HIF Mode: OFF</t>
+  </si>
+  <si>
+    <t>Allow XISL Use: OFF</t>
+  </si>
+  <si>
+    <t>FC Router BB Fabric ID: 1</t>
+  </si>
+  <si>
+    <t>Address Mode: 0</t>
+  </si>
+  <si>
+    <t>Fabric Name: 110</t>
+  </si>
+  <si>
+    <t>switchId</t>
+  </si>
+  <si>
+    <t>zoning</t>
+  </si>
+  <si>
+    <t>switchBeacon</t>
+  </si>
+  <si>
+    <t>FC Router</t>
+  </si>
+  <si>
+    <t>FC Router BB Fabric ID</t>
+  </si>
+  <si>
+    <t>Address Mode</t>
+  </si>
+  <si>
+    <t>Fabric Name</t>
+  </si>
+  <si>
+    <t>HIF Mode</t>
+  </si>
+  <si>
+    <t>Allow XISL Use</t>
+  </si>
+  <si>
+    <t>FC_Router</t>
+  </si>
+  <si>
+    <t>FC_Router_BB_Fabric_ID</t>
+  </si>
+  <si>
+    <t>Address_Mode</t>
+  </si>
+  <si>
+    <t>Fabric_Name</t>
+  </si>
+  <si>
+    <t>HIF_Mode</t>
+  </si>
+  <si>
+    <t>Allow_XISL_Use</t>
+  </si>
+  <si>
+    <t>^([\w .-]+): *([\w ()-:]+)$</t>
+  </si>
+  <si>
+    <t>Fabric_ID</t>
+  </si>
+  <si>
+    <t>ls_attr</t>
+  </si>
+  <si>
+    <t>^LS Attributes: \[[\w]+: \d+, +(Base Switch): +([\w]+), (Default Switch): +([\w]+), (Ficon Switch): +([\w]+), (Address Mode) (\d)\]$</t>
+  </si>
+  <si>
+    <t>LS Attributes: [FID: 128, Base Switch: No, Default Switch: Yes, Ficon Switch: No, Address Mode 0]</t>
+  </si>
+  <si>
+    <t>Base Switch</t>
+  </si>
+  <si>
+    <t>Default Switch</t>
+  </si>
+  <si>
+    <t>Base_Switch</t>
+  </si>
+  <si>
+    <t>Default_Switch</t>
+  </si>
+  <si>
+    <t>^(DHCP): *(On|Off)$</t>
+  </si>
+  <si>
+    <t>dhcp</t>
+  </si>
+  <si>
+    <t>DHCP: On</t>
+  </si>
+  <si>
+    <t>DHCP</t>
+  </si>
+  <si>
+    <t>comp_names2</t>
+  </si>
+  <si>
+    <t>re_num</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>^\s+(\d{1,4})\s+([\d-]{0,2})\s+(\d{1,3})\s+([\da-f-]+)\s+(cu|id|--)\s+([-UANG\d]+)\s+(\w+)\s+(\w+) *([LS VGDFENX]+-Port)? *([\d\w]{2}:[\d\w]{2}:[\d\w]{2}:[\d\w]{2}:[\d\w]{2}:[\d\w]{2}:[\d\w]{2}:[\d\w]{2})* (0x[\da-f]{6})* *([\d \w+(),"=-]*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 341   10   37   70aa80   id    N8    Online      FC  F-Port  22:22:00:02:ac:00:6f:76</t>
+  </si>
+  <si>
+    <t>port_type</t>
+  </si>
+  <si>
+    <t>connected_port_wwn</t>
+  </si>
+  <si>
+    <t>ag_fcid</t>
+  </si>
+  <si>
+    <t>connection_details</t>
+  </si>
+  <si>
+    <t>port_index</t>
+  </si>
+  <si>
+    <t>switchshow_portinfo</t>
+  </si>
+  <si>
+    <t>switchshow_portinfo_columns</t>
   </si>
 </sst>
 </file>
@@ -1624,7 +1792,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1691,6 +1859,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1704,7 +1896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1740,6 +1932,14 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -2021,7 +2221,7 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3271,7 +3471,7 @@
   <dimension ref="A1:V52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C42"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4031,477 +4231,526 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="37" style="7" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="37.28515625" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="37" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>172</v>
-      </c>
       <c r="F2" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>450</v>
-      </c>
       <c r="F3" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>253</v>
-      </c>
       <c r="F5" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="F6" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="F8" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="F9" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>461</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>488</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>471</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>417</v>
+      <c r="B11" s="17">
+        <v>1</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>470</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>462</v>
+      <c r="B12" s="19">
+        <v>2</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>472</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>418</v>
+        <v>488</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>471</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="F13" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="7"/>
+      <c r="H13" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>465</v>
+      <c r="B14" s="16">
+        <v>3</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>419</v>
+        <v>489</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>472</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="H14" s="16" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="F15" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="F16" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="F17" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5"/>
+      <c r="H17" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="F18" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="5"/>
+      <c r="H18" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="F19" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="5"/>
+      <c r="H19" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="F20" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="F21" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="7"/>
+      <c r="H21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>466</v>
+      <c r="B22" s="21">
+        <v>4</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>149</v>
+        <v>490</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>473</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="H22" s="21" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J22" s="21" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>456</v>
-      </c>
       <c r="F23" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="23" t="s">
-        <v>463</v>
+      <c r="B24" s="23">
+        <v>5</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>476</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>459</v>
+        <v>491</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>475</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="H24" s="23" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="25">
+        <v>6</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="J25" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="C25" s="25" t="s">
-        <v>493</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>458</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>562</v>
+      </c>
+      <c r="B30" s="33">
+        <v>7</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>562</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>563</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>564</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12" t="s">
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -4511,505 +4760,1018 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>479</v>
+        <v>566</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>172</v>
-      </c>
+      <c r="I1" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F2" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>452</v>
-      </c>
+      <c r="H2" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F3" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="F5" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B6" s="15"/>
+      <c r="F6" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="F7" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="F8" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="F9" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="F10" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="F11" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="F12" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="F13" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="F14" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="F15" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="F16" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="F17" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="F19" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="F20" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="F21" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="F22" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="F23" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="F24" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="F25" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="F26" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="F27" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="F28" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="F29" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="F30" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="F31" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="F32" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="F33" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="F34" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="F35" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="F36" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="F37" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="F38" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="F39" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="F40" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="F41" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="F42" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="F43" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="F44" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="F45" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" s="29">
+        <v>1</v>
+      </c>
+      <c r="C46" s="30" t="s">
         <v>520</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E41" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E42" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>445</v>
+      <c r="D46" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>521</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29" t="s">
+        <v>522</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="B48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29" t="s">
+        <v>523</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="B49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="F49" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="B50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="B51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="s">
+        <v>537</v>
+      </c>
+      <c r="B52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>537</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="B53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29" t="s">
+        <v>528</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="s">
+        <v>538</v>
+      </c>
+      <c r="B54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29" t="s">
+        <v>529</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>538</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
+        <v>539</v>
+      </c>
+      <c r="B55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>539</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="29" t="s">
+        <v>540</v>
+      </c>
+      <c r="B56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29" t="s">
+        <v>531</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>540</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="29" t="s">
+        <v>541</v>
+      </c>
+      <c r="B57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29" t="s">
+        <v>534</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>541</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="29" t="s">
+        <v>542</v>
+      </c>
+      <c r="B58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29" t="s">
+        <v>535</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>542</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="B59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29" t="s">
+        <v>536</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="B60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="29" t="s">
+        <v>545</v>
+      </c>
+      <c r="B61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29" t="s">
+        <v>533</v>
+      </c>
+      <c r="F61" s="29" t="s">
+        <v>545</v>
+      </c>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="B62" s="32">
+        <v>2</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>554</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>555</v>
+      </c>
+      <c r="E62" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="F62" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="F63" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B64" s="34">
+        <v>3</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>568</v>
+      </c>
+      <c r="E64" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="F64" s="34"/>
+      <c r="I64" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="34" t="s">
+        <v>574</v>
+      </c>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="34" t="s">
+        <v>570</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="34" t="s">
+        <v>572</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="34" t="s">
+        <v>573</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I77" s="7" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I78" s="7" t="s">
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -5022,7 +5784,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C42"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5354,8 +6116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6639,7 +7401,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6656,126 +7418,126 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>468</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>469</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>156</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>477</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>497</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>498</v>
-      </c>
       <c r="C2" s="28" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D2" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>497</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>498</v>
-      </c>
       <c r="F2" s="28" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B4" t="s">
+        <v>499</v>
+      </c>
+      <c r="C4" t="s">
         <v>500</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>501</v>
       </c>
-      <c r="E4" t="s">
-        <v>502</v>
-      </c>
       <c r="F4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E5" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E6" s="28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" s="28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -9,17 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="switch_info" sheetId="1" r:id="rId1"/>
-    <sheet name="parameters___" sheetId="2" r:id="rId2"/>
-    <sheet name="chassis" sheetId="5" r:id="rId3"/>
-    <sheet name="switch" sheetId="7" r:id="rId4"/>
-    <sheet name="columns___" sheetId="4" r:id="rId5"/>
+    <sheet name="chassis" sheetId="5" r:id="rId2"/>
+    <sheet name="switch" sheetId="7" r:id="rId3"/>
+    <sheet name="maps" sheetId="8" r:id="rId4"/>
+    <sheet name="fabricshow" sheetId="10" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
     <sheet name="notes" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Sheet1!$C$34:$C$66</definedName>
+  </definedNames>
   <calcPr calcId="4283453520"/>
   <extLst>
     <ext uri="smNativeData">
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="688">
   <si>
     <t>switchType</t>
   </si>
@@ -410,9 +414,6 @@
     <t>HPE SN3600B 32Gb 24-port</t>
   </si>
   <si>
-    <t>chassis_params</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -1274,9 +1275,6 @@
     <t>phy_stats_clear_ts</t>
   </si>
   <si>
-    <t>chassis_columns</t>
-  </si>
-  <si>
     <t>FOS_version</t>
   </si>
   <si>
@@ -1301,15 +1299,9 @@
     <t>config_collection_date</t>
   </si>
   <si>
-    <t>chassis_params_add</t>
-  </si>
-  <si>
     <t>timezone</t>
   </si>
   <si>
-    <t>switch_params_configshow</t>
-  </si>
-  <si>
     <t>boot.mac</t>
   </si>
   <si>
@@ -1394,9 +1386,6 @@
     <t>switch_index</t>
   </si>
   <si>
-    <t>switch_columns_configshow</t>
-  </si>
-  <si>
     <t>enabled_zoning_config</t>
   </si>
   <si>
@@ -1415,27 +1404,6 @@
     <t>memory_usage</t>
   </si>
   <si>
-    <t>chassis_param_comp</t>
-  </si>
-  <si>
-    <t>snmp_target_comp</t>
-  </si>
-  <si>
-    <t>syslog_comp</t>
-  </si>
-  <si>
-    <t>memory_comp</t>
-  </si>
-  <si>
-    <t>flash_comp</t>
-  </si>
-  <si>
-    <t>tz_comp</t>
-  </si>
-  <si>
-    <t>uptime_cpu_comp</t>
-  </si>
-  <si>
     <t>comp_values</t>
   </si>
   <si>
@@ -1700,9 +1668,6 @@
     <t>ls_attr</t>
   </si>
   <si>
-    <t>^LS Attributes: \[[\w]+: \d+, +(Base Switch): +([\w]+), (Default Switch): +([\w]+), (Ficon Switch): +([\w]+), (Address Mode) (\d)\]$</t>
-  </si>
-  <si>
     <t>LS Attributes: [FID: 128, Base Switch: No, Default Switch: Yes, Ficon Switch: No, Address Mode 0]</t>
   </si>
   <si>
@@ -1730,9 +1695,6 @@
     <t>DHCP</t>
   </si>
   <si>
-    <t>comp_names2</t>
-  </si>
-  <si>
     <t>re_num</t>
   </si>
   <si>
@@ -1764,13 +1726,388 @@
   </si>
   <si>
     <t>switchshow_portinfo_columns</t>
+  </si>
+  <si>
+    <t>line_start_stop</t>
+  </si>
+  <si>
+    <t>[Configuration upload Information]</t>
+  </si>
+  <si>
+    <t>[Chassis Configuration End]</t>
+  </si>
+  <si>
+    <t>[Switch Configuration Begin : 0]</t>
+  </si>
+  <si>
+    <t>[Switch Configuration End : 0]</t>
+  </si>
+  <si>
+    <t>/fabos/bin/switchshow :</t>
+  </si>
+  <si>
+    <t>real 0m0.154s</t>
+  </si>
+  <si>
+    <t>CHASSISCMD /fabos/cliexec/uptime:</t>
+  </si>
+  <si>
+    <t>real 0m0.031s</t>
+  </si>
+  <si>
+    <t>CHASSISCMD /bin/cat /proc/meminfo:</t>
+  </si>
+  <si>
+    <t>real 0m0.002s</t>
+  </si>
+  <si>
+    <t>CHASSISCMD /fabos/link_bin/ipaddrshow:</t>
+  </si>
+  <si>
+    <t>real 0m0.031s | ** SS CMD END **</t>
+  </si>
+  <si>
+    <t>CHASSISCMD /bin/df:</t>
+  </si>
+  <si>
+    <t>ams_maps_config</t>
+  </si>
+  <si>
+    <t>Mail Recipient</t>
+  </si>
+  <si>
+    <t>Configured Notifications</t>
+  </si>
+  <si>
+    <t>DB start time</t>
+  </si>
+  <si>
+    <t>Active policy</t>
+  </si>
+  <si>
+    <t>Fenced Ports</t>
+  </si>
+  <si>
+    <t>Decommissioned Ports</t>
+  </si>
+  <si>
+    <t>Quarantined Ports</t>
+  </si>
+  <si>
+    <t>Top Zoned PIDs &lt;pid(it-flows)&gt;</t>
+  </si>
+  <si>
+    <t>Current Switch Policy Status</t>
+  </si>
+  <si>
+    <t>Port Health</t>
+  </si>
+  <si>
+    <t>BE Port Health</t>
+  </si>
+  <si>
+    <t>GE Port Health</t>
+  </si>
+  <si>
+    <t>Fru Health</t>
+  </si>
+  <si>
+    <t>Security Violations</t>
+  </si>
+  <si>
+    <t>Fabric State Changes</t>
+  </si>
+  <si>
+    <t>Switch Resource</t>
+  </si>
+  <si>
+    <t>Traffic Performance</t>
+  </si>
+  <si>
+    <t>FCIP Health</t>
+  </si>
+  <si>
+    <t>Fabric Performance Impact</t>
+  </si>
+  <si>
+    <t>NM Data</t>
+  </si>
+  <si>
+    <t>^[= ]*AMS/MAPS *Data *Switch *(\d+)[= ]*$</t>
+  </si>
+  <si>
+    <t>AMS/MAPS Data Switch 0</t>
+  </si>
+  <si>
+    <t>dashborad</t>
+  </si>
+  <si>
+    <t>^([\w]+ [\w ]+)\|[\w ]+\|([\w ]+)\|$</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>Configured_Notifications</t>
+  </si>
+  <si>
+    <t>Mail_Recipient</t>
+  </si>
+  <si>
+    <t>DB_start_time</t>
+  </si>
+  <si>
+    <t>Active_policy</t>
+  </si>
+  <si>
+    <t>Fenced_Ports</t>
+  </si>
+  <si>
+    <t>Decommissioned_Ports</t>
+  </si>
+  <si>
+    <t>Quarantined_Ports</t>
+  </si>
+  <si>
+    <t>Current_Switch_Policy_Status</t>
+  </si>
+  <si>
+    <t>Port_Health</t>
+  </si>
+  <si>
+    <t>BE_Port_Health</t>
+  </si>
+  <si>
+    <t>GE_Port_Health</t>
+  </si>
+  <si>
+    <t>Fru_Health</t>
+  </si>
+  <si>
+    <t>Security_Violations</t>
+  </si>
+  <si>
+    <t>Fabric_State_Changes</t>
+  </si>
+  <si>
+    <t>Switch_Resource</t>
+  </si>
+  <si>
+    <t>Traffic_Performance</t>
+  </si>
+  <si>
+    <t>FCIP_Health</t>
+  </si>
+  <si>
+    <t>Fabric_Performance_Impact</t>
+  </si>
+  <si>
+    <t>CPU_Usage</t>
+  </si>
+  <si>
+    <t>Memory_Usage</t>
+  </si>
+  <si>
+    <t>Flash_Usage</t>
+  </si>
+  <si>
+    <t>Top_Zoned_PIDs</t>
+  </si>
+  <si>
+    <t>^ *([\w &lt;&gt;()-]+): *([\w, ()_@:.]+)%?$</t>
+  </si>
+  <si>
+    <t>^Fabric vision license not present.</t>
+  </si>
+  <si>
+    <t>no_lic</t>
+  </si>
+  <si>
+    <t>chassis_name</t>
+  </si>
+  <si>
+    <t>^LS Attributes: \[[\w]+: \d+, +(Base Switch): +([\w]+), (Default Switch): +([\w]+),( (Ficon Switch): +([\w]+),)? (Address Mode) (\d)\]$</t>
+  </si>
+  <si>
+    <t>licenses</t>
+  </si>
+  <si>
+    <t>licence</t>
+  </si>
+  <si>
+    <t>CHASSISCMD /fabos/cliexec/licenseshow:</t>
+  </si>
+  <si>
+    <t>** SS CMD END **, real 0m0.007s</t>
+  </si>
+  <si>
+    <t>Extended Fabric license</t>
+  </si>
+  <si>
+    <t>^ *([\w ]+) license[\w -]*$</t>
+  </si>
+  <si>
+    <t>Configured Notifications: SW_CRITICAL,SW_MARGINAL</t>
+  </si>
+  <si>
+    <t>Fabric vision license not present.</t>
+  </si>
+  <si>
+    <t>Port Health |No Errors|No Errors|</t>
+  </si>
+  <si>
+    <t>CPU Usage   : 17.0%</t>
+  </si>
+  <si>
+    <t>ls_mode</t>
+  </si>
+  <si>
+    <t>LS_mode</t>
+  </si>
+  <si>
+    <t>module used in</t>
+  </si>
+  <si>
+    <t>switch_params</t>
+  </si>
+  <si>
+    <t>Switch ID</t>
+  </si>
+  <si>
+    <t>Worldwide Name</t>
+  </si>
+  <si>
+    <t>Enet IP Addr</t>
+  </si>
+  <si>
+    <t>FC IP Addr</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>SWITCHCMD /fabos/cliexec/fabricshow :</t>
+  </si>
+  <si>
+    <t>real 0m0.345s</t>
+  </si>
+  <si>
+    <t>113: fffc71 10:00:50:eb:1a:93:b8:f9 10.99.251.71    0.0.0.0         "swDC_71"</t>
+  </si>
+  <si>
+    <t>^ *(\d+): +(\w{6}) +([\w:]+) +([\d.]+) +([\d.]+) +&gt;?"([\w-]+)" *$</t>
+  </si>
+  <si>
+    <t>switch_name</t>
+  </si>
+  <si>
+    <t>Switch_ID</t>
+  </si>
+  <si>
+    <t>Worldwide_Name</t>
+  </si>
+  <si>
+    <t>Enet_IP_Addr</t>
+  </si>
+  <si>
+    <t>FC_IP_Addr</t>
+  </si>
+  <si>
+    <t>Domain_ID</t>
+  </si>
+  <si>
+    <t>principal_switch_index</t>
+  </si>
+  <si>
+    <t>principal_switch_name</t>
+  </si>
+  <si>
+    <t>^ *Info: *[0-9.]+, *"([\w-]+)"$</t>
+  </si>
+  <si>
+    <t>^FC Router WWN: *([\w:]+), *Dom ID: *(\d+), *$</t>
+  </si>
+  <si>
+    <t>FC Router WWN: 10:00:00:27:f8:7b:6e:02, Dom ID:  11,</t>
+  </si>
+  <si>
+    <t>Info: 10.99.250.61, "swDC_61r"</t>
+  </si>
+  <si>
+    <t>18 111 10.99.250.61     10:00:00:27:f8:7b:6e:01   "swDC_61"</t>
+  </si>
+  <si>
+    <t>fc_router</t>
+  </si>
+  <si>
+    <t>fcr_info</t>
+  </si>
+  <si>
+    <t>fcr_exports</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EX_Port</t>
+  </si>
+  <si>
+    <t>FID</t>
+  </si>
+  <si>
+    <t>Neighbor Switch enet IP</t>
+  </si>
+  <si>
+    <t>Neighbor Switch WWN</t>
+  </si>
+  <si>
+    <t>Neighbor Switch name</t>
+  </si>
+  <si>
+    <t>FC Router WWN</t>
+  </si>
+  <si>
+    <t>FC Router name</t>
+  </si>
+  <si>
+    <t>fcr_columns</t>
+  </si>
+  <si>
+    <t>^ *(\d+) *(\d+) *([\d.]+) *([\w:]+) *"([\w-]+)"/*$</t>
+  </si>
+  <si>
+    <t>principal_router_name</t>
+  </si>
+  <si>
+    <t>principal_router_index</t>
+  </si>
+  <si>
+    <t>FCRouter_name</t>
+  </si>
+  <si>
+    <t>EX_port_FID</t>
+  </si>
+  <si>
+    <t>EX_port_switch_IP</t>
+  </si>
+  <si>
+    <t>EX_port_switch_WWN</t>
+  </si>
+  <si>
+    <t>EX_port_switch_name</t>
+  </si>
+  <si>
+    <t>FCRouter_WWN</t>
+  </si>
+  <si>
+    <t>FCRouter_DID</t>
+  </si>
+  <si>
+    <t>FCRouter_EX_port</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1784,15 +2121,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="16">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1883,6 +2213,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1896,7 +2244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1914,9 +2262,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1940,6 +2285,9 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -2221,7 +2569,7 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3468,773 +3816,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V52"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>146</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C26" s="5" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C27" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C28" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C29" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="C30" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C31" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C32" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C35" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C36" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C37" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C38" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C39" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C40" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C41" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="13"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C42" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="13"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="13"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1564686220" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
-        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-      </pm:sheetPrefs>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4242,515 +3827,580 @@
     <col min="1" max="1" width="42.5703125" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" style="7" customWidth="1"/>
     <col min="3" max="3" width="28.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="37" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="37.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="37" style="7" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="12" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="9" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="16">
+        <v>1</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="18">
+        <v>2</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="15">
+        <v>3</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="20">
+        <v>4</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>471</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="E26" s="20" t="s">
         <v>478</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="14">
-        <v>0</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="F26" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="B28" s="22">
+        <v>5</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>572</v>
+      </c>
+      <c r="E28" s="22" t="s">
         <v>479</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>469</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="17">
-        <v>1</v>
-      </c>
-      <c r="C11" s="17" t="s">
+      <c r="F28" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="B30" s="24">
+        <v>6</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>576</v>
+      </c>
+      <c r="E30" s="24" t="s">
         <v>480</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="19">
-        <v>2</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>488</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="J12" s="19" t="s">
+      <c r="F30" s="24" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" s="16">
-        <v>3</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22" s="21">
-        <v>4</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>490</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>473</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="23">
-        <v>5</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>484</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>491</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>475</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" s="25">
-        <v>6</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>492</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>474</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J25" s="25" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
-        <v>562</v>
-      </c>
-      <c r="B30" s="33">
+      <c r="G30" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
+        <v>549</v>
+      </c>
+      <c r="B32" s="32">
         <v>7</v>
       </c>
-      <c r="C30" s="33" t="s">
-        <v>562</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>561</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>563</v>
-      </c>
-      <c r="F30" s="33" t="s">
-        <v>564</v>
-      </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12" t="s">
-        <v>564</v>
+      <c r="C32" s="32" t="s">
+        <v>549</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>574</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>548</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="32" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="34" t="s">
+        <v>630</v>
+      </c>
+      <c r="B34" s="34">
+        <v>8</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>631</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>632</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>635</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>634</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="34" t="s">
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -4758,12 +4408,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4771,1007 +4421,1545 @@
     <col min="1" max="1" width="33.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="7" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="36.140625" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="36.140625" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G2" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G4" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="G7" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="G8" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="G9" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="G10" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="G11" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="G12" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="G13" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="G14" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="G15" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="G16" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="G17" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="G18" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="G19" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="G20" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="G21" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="G22" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="G23" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="G24" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="G25" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="G26" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="G27" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="G28" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="G29" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="G30" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="G31" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="G32" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="G33" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="G34" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="G35" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="G36" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="G37" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="G38" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="G39" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="G40" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="G41" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="G42" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="G43" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="G44" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="G45" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="G46" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="D47" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" s="28">
+        <v>1</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>508</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>568</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>540</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="J48" s="12"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" s="12"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="B50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="J50" s="12"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="B51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="J51" s="12"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="B53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="G53" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="J53" s="12"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="B54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="J54" s="12"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="B55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28" t="s">
+        <v>516</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="J55" s="12"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="B56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="G56" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="J56" s="12"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="B57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="G57" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="J57" s="12"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="B58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28" t="s">
+        <v>519</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="B59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="J59" s="12"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="28" t="s">
+        <v>530</v>
+      </c>
+      <c r="B60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28" t="s">
+        <v>523</v>
+      </c>
+      <c r="G60" s="28" t="s">
+        <v>530</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J60" s="12"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="B61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="J61" s="12"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="28" t="s">
+        <v>532</v>
+      </c>
+      <c r="B62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>532</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="J62" s="12"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="B63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="G63" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="J63" s="12"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="B64" s="31">
+        <v>2</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>542</v>
+      </c>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31" t="s">
+        <v>629</v>
+      </c>
+      <c r="F64" s="31" t="s">
+        <v>543</v>
+      </c>
+      <c r="G64" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="J64" s="12"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="G65" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="J65" s="12"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66" s="33">
+        <v>3</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33" t="s">
+        <v>554</v>
+      </c>
+      <c r="F66" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="G66" s="33"/>
+      <c r="K66" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="33" t="s">
+        <v>560</v>
+      </c>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="K68" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="33" t="s">
+        <v>557</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="33" t="s">
+        <v>558</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K79" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K80" s="7" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="81" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K81" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" customWidth="1"/>
+    <col min="6" max="6" width="39.28515625" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>467</v>
+        <v>563</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>156</v>
+        <v>456</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>476</v>
+        <v>155</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>576</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F2" s="11" t="s">
-        <v>172</v>
-      </c>
       <c r="G2" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F3" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="B6" s="34">
+        <v>0</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>598</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>599</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="B7" s="35">
+        <v>1</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>600</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>625</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>636</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>580</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>580</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>581</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>581</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>582</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>582</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>583</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>583</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>584</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>584</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>585</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>585</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>586</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>586</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="B17" s="36">
+        <v>2</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>602</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36" t="s">
+        <v>601</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>638</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>588</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>588</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>589</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>627</v>
+      </c>
+      <c r="E19" t="s">
+        <v>626</v>
+      </c>
+      <c r="F19" t="s">
+        <v>637</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>589</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>590</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>590</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>591</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>591</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>592</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>592</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>593</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>593</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>594</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>594</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>595</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>595</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
+        <v>596</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>596</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>639</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="D30" s="35" t="s">
+        <v>597</v>
+      </c>
+      <c r="G30" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="F6" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="F7" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="F8" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="F9" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="F10" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="F11" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="F12" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="F13" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="F14" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="F15" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="F16" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="F17" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="F18" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="F19" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="F20" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="F21" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="F22" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="F23" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="F24" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="F25" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="F26" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="F27" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="F28" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="B29" s="15"/>
-      <c r="F29" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="B30" s="15"/>
-      <c r="F30" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="B31" s="15"/>
-      <c r="F31" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="F32" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="B33" s="15"/>
-      <c r="F33" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="B34" s="15"/>
-      <c r="F34" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="F35" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="B36" s="15"/>
-      <c r="F36" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="B37" s="15"/>
-      <c r="F37" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="B38" s="15"/>
-      <c r="F38" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="B39" s="15"/>
-      <c r="F39" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="B40" s="15"/>
-      <c r="F40" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="B41" s="15"/>
-      <c r="F41" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="B42" s="15"/>
-      <c r="F42" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="B43" s="15"/>
-      <c r="F43" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="B44" s="15"/>
-      <c r="F44" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="B45" s="15"/>
-      <c r="F45" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="B46" s="29">
-        <v>1</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>520</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>552</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>521</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29" t="s">
-        <v>522</v>
-      </c>
-      <c r="F47" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="B48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29" t="s">
-        <v>523</v>
-      </c>
-      <c r="F48" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="B49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29" t="s">
-        <v>524</v>
-      </c>
-      <c r="F49" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="B50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29" t="s">
-        <v>525</v>
-      </c>
-      <c r="F50" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="B51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29" t="s">
-        <v>526</v>
-      </c>
-      <c r="F51" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="29" t="s">
-        <v>537</v>
-      </c>
-      <c r="B52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29" t="s">
-        <v>527</v>
-      </c>
-      <c r="F52" s="29" t="s">
-        <v>537</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="B53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="F53" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
-        <v>538</v>
-      </c>
-      <c r="B54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29" t="s">
-        <v>529</v>
-      </c>
-      <c r="F54" s="29" t="s">
-        <v>538</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="s">
-        <v>539</v>
-      </c>
-      <c r="B55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29" t="s">
-        <v>530</v>
-      </c>
-      <c r="F55" s="29" t="s">
-        <v>539</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="29" t="s">
-        <v>540</v>
-      </c>
-      <c r="B56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29" t="s">
-        <v>531</v>
-      </c>
-      <c r="F56" s="29" t="s">
-        <v>540</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="29" t="s">
-        <v>541</v>
-      </c>
-      <c r="B57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29" t="s">
-        <v>534</v>
-      </c>
-      <c r="F57" s="29" t="s">
-        <v>541</v>
-      </c>
-      <c r="H57" s="12" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="29" t="s">
-        <v>542</v>
-      </c>
-      <c r="B58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29" t="s">
-        <v>535</v>
-      </c>
-      <c r="F58" s="29" t="s">
-        <v>542</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="29" t="s">
-        <v>543</v>
-      </c>
-      <c r="B59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29" t="s">
-        <v>536</v>
-      </c>
-      <c r="F59" s="29" t="s">
-        <v>543</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="B60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29" t="s">
-        <v>532</v>
-      </c>
-      <c r="F60" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="29" t="s">
-        <v>545</v>
-      </c>
-      <c r="B61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29" t="s">
-        <v>533</v>
-      </c>
-      <c r="F61" s="29" t="s">
-        <v>545</v>
-      </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="32" t="s">
-        <v>557</v>
-      </c>
-      <c r="B62" s="32">
-        <v>2</v>
-      </c>
-      <c r="C62" s="32" t="s">
-        <v>554</v>
-      </c>
-      <c r="D62" s="32" t="s">
-        <v>555</v>
-      </c>
-      <c r="E62" s="32" t="s">
-        <v>556</v>
-      </c>
-      <c r="F62" s="32" t="s">
-        <v>557</v>
-      </c>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="32" t="s">
-        <v>558</v>
-      </c>
-      <c r="F63" s="32" t="s">
-        <v>558</v>
-      </c>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="B64" s="34">
-        <v>3</v>
-      </c>
-      <c r="C64" s="34" t="s">
-        <v>575</v>
-      </c>
-      <c r="D64" s="34" t="s">
-        <v>568</v>
-      </c>
-      <c r="E64" s="34" t="s">
-        <v>569</v>
-      </c>
-      <c r="F64" s="34"/>
-      <c r="I64" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="34" t="s">
-        <v>574</v>
-      </c>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="34" t="s">
-        <v>570</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="34" t="s">
-        <v>571</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="34" t="s">
-        <v>572</v>
-      </c>
-      <c r="I75" s="7" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="34" t="s">
-        <v>573</v>
-      </c>
-      <c r="I76" s="7" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I77" s="7" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I78" s="7" t="s">
-        <v>573</v>
+      <c r="I30" s="7" t="s">
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -5781,334 +5969,309 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24:K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.140625" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="56.5703125" customWidth="1"/>
+    <col min="6" max="6" width="44.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>413</v>
+        <v>481</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>552</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>450</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="7" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="7" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G2" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G3" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G4" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" t="s">
+        <v>649</v>
+      </c>
+      <c r="E5" t="s">
+        <v>652</v>
+      </c>
+      <c r="F5" t="s">
+        <v>651</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="I7" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I10" s="7" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I11" s="7" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>674</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>666</v>
+      </c>
+      <c r="E12" t="s">
+        <v>662</v>
+      </c>
+      <c r="F12" t="s">
+        <v>663</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>675</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>667</v>
+      </c>
+      <c r="E13" t="s">
+        <v>661</v>
+      </c>
+      <c r="F13" t="s">
+        <v>664</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>669</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>668</v>
+      </c>
+      <c r="E14" t="s">
+        <v>677</v>
+      </c>
+      <c r="F14" t="s">
+        <v>665</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>670</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>671</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="7" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="7" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="5" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="5" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="5" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="5" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="5" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="5" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="5" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="5" t="s">
-        <v>445</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="D18" t="s">
+        <v>650</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="12" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="12" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="12" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="12" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="12" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.39374999999999999" footer="0.39374999999999999"/>
-  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1564686220" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
-        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-      </pm:sheetPrefs>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6117,7 +6280,7 @@
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G15"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6141,166 +6304,166 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" t="s">
         <v>169</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>170</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I2" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>173</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L2" t="s">
         <v>174</v>
       </c>
-      <c r="K2" t="s">
-        <v>172</v>
-      </c>
-      <c r="L2" t="s">
-        <v>175</v>
-      </c>
       <c r="M2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" t="s">
         <v>177</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" t="s">
         <v>178</v>
       </c>
-      <c r="G3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>179</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>180</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>167</v>
+      </c>
+      <c r="L3" t="s">
         <v>181</v>
       </c>
-      <c r="K3" t="s">
-        <v>168</v>
-      </c>
-      <c r="L3" t="s">
-        <v>182</v>
-      </c>
       <c r="M3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" t="s">
         <v>185</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>186</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>187</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>188</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>189</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>190</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>191</v>
-      </c>
-      <c r="M4" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -6308,1078 +6471,1078 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" t="s">
         <v>194</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" t="s">
         <v>195</v>
       </c>
-      <c r="G5" t="s">
-        <v>190</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>196</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>197</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>198</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M5" t="s">
         <v>199</v>
-      </c>
-      <c r="L5" t="s">
-        <v>192</v>
-      </c>
-      <c r="M5" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" t="s">
         <v>202</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H6" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>204</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>205</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>206</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>207</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>208</v>
-      </c>
-      <c r="M6" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" t="s">
         <v>210</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>211</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>212</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>213</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>214</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>215</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>216</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>217</v>
-      </c>
-      <c r="M7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" t="s">
         <v>219</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>220</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>221</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>222</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>223</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>224</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>225</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>226</v>
-      </c>
-      <c r="M8" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G9" t="s">
         <v>229</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>230</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>231</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>232</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>233</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>234</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>235</v>
-      </c>
-      <c r="M9" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" t="s">
         <v>237</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>238</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>239</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>240</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>241</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>242</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>243</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>244</v>
-      </c>
-      <c r="M10" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" t="s">
         <v>246</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>247</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>248</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>249</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>250</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>251</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>252</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>253</v>
-      </c>
-      <c r="M11" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G12" t="s">
         <v>255</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>256</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>257</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>258</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>259</v>
-      </c>
-      <c r="M12" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" t="s">
         <v>261</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>262</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>263</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>264</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>265</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>266</v>
-      </c>
-      <c r="M13" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" t="s">
         <v>268</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>269</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>270</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>271</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>272</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>273</v>
-      </c>
-      <c r="M14" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F15" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" t="s">
         <v>275</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>276</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>277</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>278</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="s">
         <v>279</v>
-      </c>
-      <c r="M15" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F16" t="s">
+        <v>280</v>
+      </c>
+      <c r="I16" t="s">
         <v>281</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>282</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>283</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="s">
         <v>284</v>
-      </c>
-      <c r="M16" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F17" t="s">
+        <v>285</v>
+      </c>
+      <c r="I17" t="s">
         <v>286</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>287</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>288</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="s">
         <v>289</v>
-      </c>
-      <c r="M17" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F18" t="s">
+        <v>290</v>
+      </c>
+      <c r="I18" t="s">
         <v>291</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>292</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>293</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="s">
         <v>294</v>
-      </c>
-      <c r="M18" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F19" t="s">
+        <v>295</v>
+      </c>
+      <c r="I19" t="s">
         <v>296</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>297</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>298</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="s">
         <v>299</v>
-      </c>
-      <c r="M19" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I20" t="s">
         <v>301</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>302</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>303</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" t="s">
         <v>304</v>
-      </c>
-      <c r="M20" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F21" t="s">
+        <v>305</v>
+      </c>
+      <c r="I21" t="s">
         <v>306</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>307</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>308</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M21" t="s">
         <v>309</v>
-      </c>
-      <c r="M21" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" t="s">
         <v>311</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="I22" t="s">
         <v>312</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>313</v>
-      </c>
-      <c r="K22" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" t="s">
         <v>316</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="I23" t="s">
         <v>317</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>318</v>
-      </c>
-      <c r="K23" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" t="s">
         <v>320</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="I24" t="s">
         <v>321</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>322</v>
-      </c>
-      <c r="K24" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" t="s">
         <v>324</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="I25" t="s">
         <v>325</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>326</v>
-      </c>
-      <c r="K25" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I26" t="s">
         <v>328</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>329</v>
-      </c>
-      <c r="K26" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I27" t="s">
         <v>331</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="I27" t="s">
-        <v>332</v>
-      </c>
       <c r="K27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I28" t="s">
         <v>333</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s">
         <v>334</v>
-      </c>
-      <c r="K28" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="I29" t="s">
         <v>336</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="K29" t="s">
         <v>337</v>
-      </c>
-      <c r="K29" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="I30" t="s">
         <v>339</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="K30" t="s">
         <v>340</v>
-      </c>
-      <c r="K30" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="I31" t="s">
         <v>342</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="K31" t="s">
         <v>343</v>
-      </c>
-      <c r="K31" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="I32" t="s">
         <v>345</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="K32" t="s">
         <v>346</v>
-      </c>
-      <c r="K32" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I33" t="s">
+        <v>347</v>
+      </c>
+      <c r="K33" t="s">
         <v>348</v>
-      </c>
-      <c r="K33" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I34" t="s">
+        <v>349</v>
+      </c>
+      <c r="K34" t="s">
         <v>350</v>
-      </c>
-      <c r="K34" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I35" t="s">
+        <v>351</v>
+      </c>
+      <c r="K35" t="s">
         <v>352</v>
-      </c>
-      <c r="K35" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I36" t="s">
+        <v>353</v>
+      </c>
+      <c r="K36" t="s">
         <v>354</v>
-      </c>
-      <c r="K36" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I37" t="s">
+        <v>355</v>
+      </c>
+      <c r="K37" t="s">
         <v>356</v>
-      </c>
-      <c r="K37" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="I38" t="s">
         <v>358</v>
       </c>
-      <c r="I38" t="s">
+      <c r="K38" t="s">
         <v>359</v>
-      </c>
-      <c r="K38" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I39" t="s">
+        <v>360</v>
+      </c>
+      <c r="K39" t="s">
         <v>361</v>
-      </c>
-      <c r="K39" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I40" t="s">
+        <v>362</v>
+      </c>
+      <c r="K40" t="s">
         <v>363</v>
-      </c>
-      <c r="K40" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I41" t="s">
+        <v>364</v>
+      </c>
+      <c r="K41" t="s">
         <v>365</v>
-      </c>
-      <c r="K41" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I42" t="s">
+        <v>366</v>
+      </c>
+      <c r="K42" t="s">
         <v>367</v>
-      </c>
-      <c r="K42" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I43" t="s">
         <v>369</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="K43" t="s">
         <v>370</v>
-      </c>
-      <c r="K43" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I44" t="s">
         <v>372</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="K44" t="s">
         <v>373</v>
-      </c>
-      <c r="K44" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I45" t="s">
         <v>375</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="K45" t="s">
         <v>376</v>
-      </c>
-      <c r="K45" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I46" t="s">
         <v>378</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I46" t="s">
-        <v>379</v>
-      </c>
       <c r="K46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I47" t="s">
         <v>380</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="K47" t="s">
         <v>381</v>
-      </c>
-      <c r="K47" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="I48" t="s">
         <v>383</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="I48" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="I49" t="s">
         <v>386</v>
-      </c>
-      <c r="I49" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B50" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="I50" t="s">
         <v>388</v>
-      </c>
-      <c r="I50" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="I51" t="s">
         <v>390</v>
-      </c>
-      <c r="I51" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B52" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="I52" t="s">
         <v>392</v>
-      </c>
-      <c r="I52" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I53" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I54" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I55" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I56" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I57" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I58" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I59" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I60" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I61" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I62" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I63" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I64" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="65" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I65" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="66" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I66" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="67" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I67" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="68" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I68" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="69" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I69" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="70" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I70" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="71" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I71" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -7418,126 +7581,406 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>496</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>497</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>497</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>496</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>497</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>497</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>497</v>
+      <c r="A2" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="B3" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="C3" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="E3" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="F3" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="G3" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="B4" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C4" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="E4" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="F4" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G4" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E5" s="11" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="F5" t="s">
-        <v>507</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>513</v>
+        <v>495</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E6" s="28" t="s">
-        <v>516</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>514</v>
+      <c r="E6" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>498</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E7" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>508</v>
+      <c r="E7" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>504</v>
+        <v>492</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C25:W83"/>
+  <sheetViews>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="M65" sqref="M65:W65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="11" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="11" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="7"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="7"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="7"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="7"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="7"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="11" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="7"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="5"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="7"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="7"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="7"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="7"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="7"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="10" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="10" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="10"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="11" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="11"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="12"/>
+    </row>
+    <row r="65" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C65" s="7"/>
+      <c r="M65" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="N65" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="O65" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="P65" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q65" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="R65" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="S65" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="T65" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="U65" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="V65" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="W65" s="11" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="66" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C66" s="11" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="73" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C73" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="74" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C74" s="11" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="75" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C75" s="11" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="76" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C76" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="77" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C77" s="11" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="78" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C78" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="79" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C79" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C80" s="10" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="10" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="11" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="11" t="s">
+        <v>630</v>
       </c>
     </row>
   </sheetData>

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -9,22 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="switch_info" sheetId="1" r:id="rId1"/>
     <sheet name="chassis" sheetId="5" r:id="rId2"/>
     <sheet name="switch" sheetId="7" r:id="rId3"/>
-    <sheet name="maps" sheetId="8" r:id="rId4"/>
-    <sheet name="fabricshow" sheetId="10" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
-    <sheet name="notes" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
+    <sheet name="portcmd" sheetId="11" r:id="rId4"/>
+    <sheet name="maps" sheetId="8" r:id="rId5"/>
+    <sheet name="fabricshow" sheetId="10" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId7"/>
+    <sheet name="notes" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Sheet1!$C$34:$C$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Sheet1!$C$34:$C$66</definedName>
   </definedNames>
-  <calcPr calcId="4283453520"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1564686220" val="966" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="753">
   <si>
     <t>switchType</t>
   </si>
@@ -2101,6 +2102,201 @@
   </si>
   <si>
     <t>FCRouter_EX_port</t>
+  </si>
+  <si>
+    <t>FC Router DID</t>
+  </si>
+  <si>
+    <t>portState</t>
+  </si>
+  <si>
+    <t>portId</t>
+  </si>
+  <si>
+    <t>portWwn</t>
+  </si>
+  <si>
+    <t>^portFcPortCmdShow --slot (\d{1,2}) (\d{1,2}) \d+$</t>
+  </si>
+  <si>
+    <t>portFcPortCmdShow --slot 10 37 3</t>
+  </si>
+  <si>
+    <t>Credit_Recovery</t>
+  </si>
+  <si>
+    <t>FC_Fastwrite</t>
+  </si>
+  <si>
+    <t>slot_port_number</t>
+  </si>
+  <si>
+    <t>^portshow +(\d{1,4})$</t>
+  </si>
+  <si>
+    <t>portshow 2</t>
+  </si>
+  <si>
+    <t>^([\w ]+): +([\w:.]+) *([\w]+)?:? *(\d+)? *([\w]+)?:? *(\d+)? *$</t>
+  </si>
+  <si>
+    <t>portshow_params</t>
+  </si>
+  <si>
+    <t>^ +[fed]{2} +([\da-f]{6}) +([a-f\d:]+) +[\w= ]+$</t>
+  </si>
+  <si>
+    <t>connected_wwn</t>
+  </si>
+  <si>
+    <t>connected_wwns</t>
+  </si>
+  <si>
+    <t>port_ids</t>
+  </si>
+  <si>
+    <t>^\b(\w+(?&lt;!vc)\b) +([\d-]+)</t>
+  </si>
+  <si>
+    <t>portstats</t>
+  </si>
+  <si>
+    <t>portstats_vc</t>
+  </si>
+  <si>
+    <t>^(\w+)\s{1,2}(\d{1,2})-\s?(\d{1,2}):\s+(\d+)\s+(\d+)\s+(\d+)\s+(\d+)</t>
+  </si>
+  <si>
+    <t>tim_txcrd_z_vc_0</t>
+  </si>
+  <si>
+    <t>tim_txcrd_z_vc_1</t>
+  </si>
+  <si>
+    <t>tim_txcrd_z_vc_2</t>
+  </si>
+  <si>
+    <t>tim_txcrd_z_vc_3</t>
+  </si>
+  <si>
+    <t>tim_txcrd_z_vc_4</t>
+  </si>
+  <si>
+    <t>tim_txcrd_z_vc_5</t>
+  </si>
+  <si>
+    <t>tim_txcrd_z_vc_6</t>
+  </si>
+  <si>
+    <t>tim_txcrd_z_vc_7</t>
+  </si>
+  <si>
+    <t>tim_txcrd_z_vc_8</t>
+  </si>
+  <si>
+    <t>tim_txcrd_z_vc_9</t>
+  </si>
+  <si>
+    <t>tim_txcrd_z_vc_10</t>
+  </si>
+  <si>
+    <t>tim_txcrd_z_vc_11</t>
+  </si>
+  <si>
+    <t>tim_txcrd_z_vc_12</t>
+  </si>
+  <si>
+    <t>tim_txcrd_z_vc_13</t>
+  </si>
+  <si>
+    <t>tim_txcrd_z_vc_14</t>
+  </si>
+  <si>
+    <t>tim_txcrd_z_vc_15</t>
+  </si>
+  <si>
+    <t>tim_latency_vc_0</t>
+  </si>
+  <si>
+    <t>tim_latency_vc_1</t>
+  </si>
+  <si>
+    <t>tim_latency_vc_2</t>
+  </si>
+  <si>
+    <t>tim_latency_vc_3</t>
+  </si>
+  <si>
+    <t>tim_latency_vc_4</t>
+  </si>
+  <si>
+    <t>tim_latency_vc_5</t>
+  </si>
+  <si>
+    <t>tim_latency_vc_6</t>
+  </si>
+  <si>
+    <t>tim_latency_vc_7</t>
+  </si>
+  <si>
+    <t>tim_latency_vc_8</t>
+  </si>
+  <si>
+    <t>tim_latency_vc_9</t>
+  </si>
+  <si>
+    <t>tim_latency_vc_10</t>
+  </si>
+  <si>
+    <t>tim_latency_vc_11</t>
+  </si>
+  <si>
+    <t>tim_latency_vc_12</t>
+  </si>
+  <si>
+    <t>tim_latency_vc_13</t>
+  </si>
+  <si>
+    <t>tim_latency_vc_14</t>
+  </si>
+  <si>
+    <t>tim_latency_vc_15</t>
+  </si>
+  <si>
+    <t>Section: SSHOW_PORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ... rebuilt finished </t>
+  </si>
+  <si>
+    <t>portshow 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ff  131500  50:01:43:80:23:1c:99:34     0     0   8  d_id=FFFFFA</t>
+  </si>
+  <si>
+    <t>F_Trunk: Inactive</t>
+  </si>
+  <si>
+    <t>portloginshow 21</t>
+  </si>
+  <si>
+    <t>stat_wtx 14375003157</t>
+  </si>
+  <si>
+    <t>tim_txcrd_z_vc  0- 3:  0 0  0 0</t>
+  </si>
+  <si>
+    <t>portregshow 21</t>
+  </si>
+  <si>
+    <t>portstatsshow 21</t>
+  </si>
+  <si>
+    <t>portstats64show 21</t>
+  </si>
+  <si>
+    <t>portshow 21</t>
   </si>
 </sst>
 </file>
@@ -2122,7 +2318,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2231,6 +2427,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2244,7 +2458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2288,6 +2502,9 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -3819,7 +4036,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4412,8 +4629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5555,10 +5772,1333 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="30.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="5" max="5" width="49" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G2" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>741</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>560</v>
+      </c>
+      <c r="B4" s="26">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>696</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>693</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>693</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="37">
+        <v>1</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>560</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>698</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>697</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>743</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="B9" s="24">
+        <v>2</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>700</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>699</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>745</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>690</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>746</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>690</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>691</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>691</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="15">
+        <v>3</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>702</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>746</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>701</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>744</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>749</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="38">
+        <v>4</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>706</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>750</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>705</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>747</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="39">
+        <v>5</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>707</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>751</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>708</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>748</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="G38" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="G39" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="G40" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="G42" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="G43" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="G44" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="G45" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="G46" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="G47" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="39" t="s">
+        <v>709</v>
+      </c>
+      <c r="G48" s="39" t="s">
+        <v>709</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="39" t="s">
+        <v>710</v>
+      </c>
+      <c r="G49" s="39" t="s">
+        <v>710</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="39" t="s">
+        <v>711</v>
+      </c>
+      <c r="G50" s="39" t="s">
+        <v>711</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="39" t="s">
+        <v>712</v>
+      </c>
+      <c r="G51" s="39" t="s">
+        <v>712</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="39" t="s">
+        <v>713</v>
+      </c>
+      <c r="G52" s="39" t="s">
+        <v>713</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="39" t="s">
+        <v>714</v>
+      </c>
+      <c r="G53" s="39" t="s">
+        <v>714</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="39" t="s">
+        <v>715</v>
+      </c>
+      <c r="G54" s="39" t="s">
+        <v>715</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="39" t="s">
+        <v>716</v>
+      </c>
+      <c r="G55" s="39" t="s">
+        <v>716</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="39" t="s">
+        <v>717</v>
+      </c>
+      <c r="G56" s="39" t="s">
+        <v>717</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="39" t="s">
+        <v>718</v>
+      </c>
+      <c r="G57" s="39" t="s">
+        <v>718</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="39" t="s">
+        <v>719</v>
+      </c>
+      <c r="G58" s="39" t="s">
+        <v>719</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="39" t="s">
+        <v>720</v>
+      </c>
+      <c r="G59" s="39" t="s">
+        <v>720</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="39" t="s">
+        <v>721</v>
+      </c>
+      <c r="G60" s="39" t="s">
+        <v>721</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="39" t="s">
+        <v>722</v>
+      </c>
+      <c r="G61" s="39" t="s">
+        <v>722</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="39" t="s">
+        <v>723</v>
+      </c>
+      <c r="G62" s="39" t="s">
+        <v>723</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="39" t="s">
+        <v>724</v>
+      </c>
+      <c r="G63" s="39" t="s">
+        <v>724</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="39" t="s">
+        <v>725</v>
+      </c>
+      <c r="G64" s="39" t="s">
+        <v>725</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="39" t="s">
+        <v>726</v>
+      </c>
+      <c r="G65" s="39" t="s">
+        <v>726</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="39" t="s">
+        <v>727</v>
+      </c>
+      <c r="G66" s="39" t="s">
+        <v>727</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="39" t="s">
+        <v>728</v>
+      </c>
+      <c r="G67" s="39" t="s">
+        <v>728</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="39" t="s">
+        <v>729</v>
+      </c>
+      <c r="G68" s="39" t="s">
+        <v>729</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="39" t="s">
+        <v>730</v>
+      </c>
+      <c r="G69" s="39" t="s">
+        <v>730</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="39" t="s">
+        <v>731</v>
+      </c>
+      <c r="G70" s="39" t="s">
+        <v>731</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="39" t="s">
+        <v>732</v>
+      </c>
+      <c r="G71" s="39" t="s">
+        <v>732</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="39" t="s">
+        <v>733</v>
+      </c>
+      <c r="G72" s="39" t="s">
+        <v>733</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="39" t="s">
+        <v>734</v>
+      </c>
+      <c r="G73" s="39" t="s">
+        <v>734</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="39" t="s">
+        <v>735</v>
+      </c>
+      <c r="G74" s="39" t="s">
+        <v>735</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="39" t="s">
+        <v>736</v>
+      </c>
+      <c r="G75" s="39" t="s">
+        <v>736</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="39" t="s">
+        <v>737</v>
+      </c>
+      <c r="G76" s="39" t="s">
+        <v>737</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="39" t="s">
+        <v>738</v>
+      </c>
+      <c r="G77" s="39" t="s">
+        <v>738</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="39" t="s">
+        <v>739</v>
+      </c>
+      <c r="G78" s="39" t="s">
+        <v>739</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="39" t="s">
+        <v>740</v>
+      </c>
+      <c r="G79" s="39" t="s">
+        <v>740</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="G80" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="G81" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="38" t="s">
+        <v>383</v>
+      </c>
+      <c r="G82" s="38" t="s">
+        <v>383</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="G83" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="G84" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="G85" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="38" t="s">
+        <v>392</v>
+      </c>
+      <c r="G86" s="38" t="s">
+        <v>392</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="38" t="s">
+        <v>393</v>
+      </c>
+      <c r="G87" s="38" t="s">
+        <v>393</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="G88" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="G89" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="G90" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="38" t="s">
+        <v>397</v>
+      </c>
+      <c r="G91" s="38" t="s">
+        <v>397</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="G92" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="38" t="s">
+        <v>399</v>
+      </c>
+      <c r="G93" s="38" t="s">
+        <v>399</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="38" t="s">
+        <v>400</v>
+      </c>
+      <c r="G94" s="38" t="s">
+        <v>400</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="38" t="s">
+        <v>401</v>
+      </c>
+      <c r="G95" s="38" t="s">
+        <v>401</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="38" t="s">
+        <v>402</v>
+      </c>
+      <c r="G96" s="38" t="s">
+        <v>402</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="G97" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="G98" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="38" t="s">
+        <v>405</v>
+      </c>
+      <c r="G99" s="38" t="s">
+        <v>405</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="G100" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="G101" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="G102" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="G103" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="38" t="s">
+        <v>410</v>
+      </c>
+      <c r="G104" s="38" t="s">
+        <v>410</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="38" t="s">
+        <v>411</v>
+      </c>
+      <c r="G105" s="38" t="s">
+        <v>411</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>742</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5967,12 +7507,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24:K28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6026,10 +7566,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="18" t="s">
         <v>171</v>
       </c>
       <c r="I2" s="12" t="s">
@@ -6037,10 +7577,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="18" t="s">
         <v>653</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="18" t="s">
         <v>653</v>
       </c>
       <c r="I3" s="12" t="s">
@@ -6048,10 +7588,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="18" t="s">
         <v>448</v>
       </c>
       <c r="I4" s="12" t="s">
@@ -6059,68 +7599,74 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="31" t="s">
         <v>644</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="31">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="31" t="s">
         <v>649</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="31" t="s">
         <v>652</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="31" t="s">
         <v>651</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="18" t="s">
         <v>644</v>
       </c>
+      <c r="H5" s="18"/>
       <c r="I5" s="12" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="31" t="s">
         <v>645</v>
       </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="7" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="31" t="s">
         <v>646</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="18" t="s">
         <v>645</v>
       </c>
+      <c r="H7" s="18"/>
       <c r="I7" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="31" t="s">
         <v>647</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="18" t="s">
         <v>646</v>
       </c>
+      <c r="H8" s="18"/>
       <c r="I8" s="7" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="31" t="s">
         <v>648</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="18" t="s">
         <v>647</v>
       </c>
+      <c r="H9" s="18"/>
       <c r="I9" s="7" t="s">
         <v>656</v>
       </c>
@@ -6136,124 +7682,175 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>674</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>666</v>
-      </c>
-      <c r="E12" t="s">
-        <v>662</v>
-      </c>
-      <c r="F12" t="s">
-        <v>663</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>648</v>
-      </c>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
       <c r="K12" s="12" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>675</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>667</v>
-      </c>
-      <c r="E13" t="s">
-        <v>661</v>
-      </c>
-      <c r="F13" t="s">
-        <v>664</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
       <c r="K13" s="12" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>669</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>668</v>
-      </c>
-      <c r="E14" t="s">
-        <v>677</v>
-      </c>
-      <c r="F14" t="s">
-        <v>665</v>
-      </c>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
       <c r="K14" s="12" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>670</v>
-      </c>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="12" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>671</v>
+      <c r="A16" s="36" t="s">
+        <v>674</v>
+      </c>
+      <c r="B16" s="36">
+        <v>1</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>666</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36" t="s">
+        <v>662</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>663</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>648</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>672</v>
-      </c>
+      <c r="A17" s="36" t="s">
+        <v>688</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
       <c r="K17" s="12" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="D18" t="s">
-        <v>650</v>
+      <c r="A18" s="15" t="s">
+        <v>675</v>
+      </c>
+      <c r="B18" s="15">
+        <v>2</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>664</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>669</v>
+      </c>
+      <c r="B19" s="28">
+        <v>3</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>668</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>665</v>
+      </c>
       <c r="K19" s="12" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>670</v>
+      </c>
       <c r="K20" s="12" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>671</v>
+      </c>
       <c r="K21" s="12" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>672</v>
+      </c>
       <c r="K22" s="12" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>673</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>650</v>
+      </c>
       <c r="K23" s="12" t="s">
         <v>684</v>
       </c>
@@ -6275,12 +7872,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="I2" sqref="I2:I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7559,7 +9156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -7708,7 +9305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C25:W83"/>
   <sheetViews>

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -9,22 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="switch_info" sheetId="1" r:id="rId1"/>
     <sheet name="chassis" sheetId="5" r:id="rId2"/>
     <sheet name="switch" sheetId="7" r:id="rId3"/>
     <sheet name="portcmd" sheetId="11" r:id="rId4"/>
-    <sheet name="maps" sheetId="8" r:id="rId5"/>
-    <sheet name="fabricshow" sheetId="10" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId7"/>
-    <sheet name="notes" sheetId="6" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
+    <sheet name="portinfo" sheetId="12" r:id="rId5"/>
+    <sheet name="maps" sheetId="8" r:id="rId6"/>
+    <sheet name="fabricshow" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId8"/>
+    <sheet name="Sheet5" sheetId="13" r:id="rId9"/>
+    <sheet name="notes" sheetId="6" r:id="rId10"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Sheet1!$C$34:$C$66</definedName>
-  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext uri="smNativeData">
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="926">
   <si>
     <t>switchType</t>
   </si>
@@ -2297,6 +2295,525 @@
   </si>
   <si>
     <t>portshow 21</t>
+  </si>
+  <si>
+    <t>SWITCHCMD /fabos/cliexec/sfpshow -all</t>
+  </si>
+  <si>
+    <t>Baud Rate</t>
+  </si>
+  <si>
+    <t>Baud Rate, 100 megabaud</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>RX Power:    -2.7    dBm (542.3uW)</t>
+  </si>
+  <si>
+    <t>Vendor PN:   QK724A</t>
+  </si>
+  <si>
+    <t>^(Transceiver):\s+\w+\s+([\w, ]+)</t>
+  </si>
+  <si>
+    <t>Transceiver: 700c406000000000 4,8,16_Gbps M5,M6 sw Inter,Short_dist</t>
+  </si>
+  <si>
+    <t>^(Slot *(\d+)/)?Port *(\d+):$</t>
+  </si>
+  <si>
+    <t>Slot num, port num</t>
+  </si>
+  <si>
+    <t>Slot  9/Port  9:</t>
+  </si>
+  <si>
+    <t>slot_port</t>
+  </si>
+  <si>
+    <t>transceiver</t>
+  </si>
+  <si>
+    <t>no_sfp</t>
+  </si>
+  <si>
+    <t>No SFP installed in port 1169</t>
+  </si>
+  <si>
+    <t>sfp_info</t>
+  </si>
+  <si>
+    <t>Wavelength</t>
+  </si>
+  <si>
+    <t>RX Power_dBm</t>
+  </si>
+  <si>
+    <t>TX Power_dBm</t>
+  </si>
+  <si>
+    <t>RX Power_uW</t>
+  </si>
+  <si>
+    <t>TX Power_uW</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Length 9u</t>
+  </si>
+  <si>
+    <t>Length 9</t>
+  </si>
+  <si>
+    <t>Length 50u (OM2)</t>
+  </si>
+  <si>
+    <t>Length 50u (OM3)</t>
+  </si>
+  <si>
+    <t>Length 50u</t>
+  </si>
+  <si>
+    <t>Length 62.5u</t>
+  </si>
+  <si>
+    <t>Pwr On Time_years</t>
+  </si>
+  <si>
+    <t>Pwr On Time_hours</t>
+  </si>
+  <si>
+    <t>^([\w .()-]+): *([\w:.-]+)</t>
+  </si>
+  <si>
+    <t>^([\w ]+): +(Not Available)$</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Temperature :   Not Available</t>
+  </si>
+  <si>
+    <t>^(\w+ \w+ ?\w*):\s+([\w.-]+)\s+(\w+)\s+\(([\d.]+)\s*(\w+)\) *$</t>
+  </si>
+  <si>
+    <t>Vendor_Name</t>
+  </si>
+  <si>
+    <t>Vendor_PN</t>
+  </si>
+  <si>
+    <t>Serial_No</t>
+  </si>
+  <si>
+    <t>Wavelength_nm</t>
+  </si>
+  <si>
+    <t>RX_Power_dBm</t>
+  </si>
+  <si>
+    <t>TX_Power_dBm</t>
+  </si>
+  <si>
+    <t>RX_Power_uW</t>
+  </si>
+  <si>
+    <t>TX_Power_uW</t>
+  </si>
+  <si>
+    <t>Current_mAmps</t>
+  </si>
+  <si>
+    <t>Voltage_mVolts</t>
+  </si>
+  <si>
+    <t>Temperature_Centigrade</t>
+  </si>
+  <si>
+    <t>Baud_Rate_100_megabaud</t>
+  </si>
+  <si>
+    <t>Length_9u_km</t>
+  </si>
+  <si>
+    <t>Length_9u_100_meters</t>
+  </si>
+  <si>
+    <t>Length_50u_(OM2)_10_meters</t>
+  </si>
+  <si>
+    <t>Length_50u_(OM3)_10_meters</t>
+  </si>
+  <si>
+    <t>Length_50u_10_meters</t>
+  </si>
+  <si>
+    <t>Length_62.5u_10_meters</t>
+  </si>
+  <si>
+    <t>Pwr_On_Time_years</t>
+  </si>
+  <si>
+    <t>Pwr_On_Time_hours</t>
+  </si>
+  <si>
+    <t>^Port \d+ does not use an SFP or is disabled!$|No SFP installed in port$</t>
+  </si>
+  <si>
+    <t>fabricshow, portinfo</t>
+  </si>
+  <si>
+    <t>lat_tot_pkt_vc</t>
+  </si>
+  <si>
+    <t>lat_hi_time_vc</t>
+  </si>
+  <si>
+    <t>lat_lo_time_vc</t>
+  </si>
+  <si>
+    <t>max_latency_vc</t>
+  </si>
+  <si>
+    <t>lat_tot_pkt_vc_0</t>
+  </si>
+  <si>
+    <t>lat_tot_pkt_vc_1</t>
+  </si>
+  <si>
+    <t>lat_tot_pkt_vc_2</t>
+  </si>
+  <si>
+    <t>lat_tot_pkt_vc_3</t>
+  </si>
+  <si>
+    <t>lat_tot_pkt_vc_4</t>
+  </si>
+  <si>
+    <t>lat_tot_pkt_vc_5</t>
+  </si>
+  <si>
+    <t>lat_tot_pkt_vc_6</t>
+  </si>
+  <si>
+    <t>lat_tot_pkt_vc_7</t>
+  </si>
+  <si>
+    <t>lat_tot_pkt_vc_8</t>
+  </si>
+  <si>
+    <t>lat_tot_pkt_vc_9</t>
+  </si>
+  <si>
+    <t>lat_tot_pkt_vc_10</t>
+  </si>
+  <si>
+    <t>lat_tot_pkt_vc_11</t>
+  </si>
+  <si>
+    <t>lat_tot_pkt_vc_12</t>
+  </si>
+  <si>
+    <t>lat_tot_pkt_vc_13</t>
+  </si>
+  <si>
+    <t>lat_tot_pkt_vc_14</t>
+  </si>
+  <si>
+    <t>lat_tot_pkt_vc_15</t>
+  </si>
+  <si>
+    <t>lat_hi_time_vc_0</t>
+  </si>
+  <si>
+    <t>lat_hi_time_vc_1</t>
+  </si>
+  <si>
+    <t>lat_hi_time_vc_2</t>
+  </si>
+  <si>
+    <t>lat_hi_time_vc_3</t>
+  </si>
+  <si>
+    <t>lat_hi_time_vc_4</t>
+  </si>
+  <si>
+    <t>lat_hi_time_vc_5</t>
+  </si>
+  <si>
+    <t>lat_hi_time_vc_6</t>
+  </si>
+  <si>
+    <t>lat_hi_time_vc_7</t>
+  </si>
+  <si>
+    <t>lat_hi_time_vc_8</t>
+  </si>
+  <si>
+    <t>lat_hi_time_vc_9</t>
+  </si>
+  <si>
+    <t>lat_hi_time_vc_10</t>
+  </si>
+  <si>
+    <t>lat_hi_time_vc_11</t>
+  </si>
+  <si>
+    <t>lat_hi_time_vc_12</t>
+  </si>
+  <si>
+    <t>lat_hi_time_vc_13</t>
+  </si>
+  <si>
+    <t>lat_hi_time_vc_14</t>
+  </si>
+  <si>
+    <t>lat_hi_time_vc_15</t>
+  </si>
+  <si>
+    <t>lat_lo_time_vc_0</t>
+  </si>
+  <si>
+    <t>lat_lo_time_vc_1</t>
+  </si>
+  <si>
+    <t>lat_lo_time_vc_2</t>
+  </si>
+  <si>
+    <t>lat_lo_time_vc_3</t>
+  </si>
+  <si>
+    <t>lat_lo_time_vc_4</t>
+  </si>
+  <si>
+    <t>lat_lo_time_vc_5</t>
+  </si>
+  <si>
+    <t>lat_lo_time_vc_6</t>
+  </si>
+  <si>
+    <t>lat_lo_time_vc_7</t>
+  </si>
+  <si>
+    <t>lat_lo_time_vc_8</t>
+  </si>
+  <si>
+    <t>lat_lo_time_vc_9</t>
+  </si>
+  <si>
+    <t>lat_lo_time_vc_10</t>
+  </si>
+  <si>
+    <t>lat_lo_time_vc_11</t>
+  </si>
+  <si>
+    <t>lat_lo_time_vc_12</t>
+  </si>
+  <si>
+    <t>lat_lo_time_vc_13</t>
+  </si>
+  <si>
+    <t>lat_lo_time_vc_14</t>
+  </si>
+  <si>
+    <t>lat_lo_time_vc_15</t>
+  </si>
+  <si>
+    <t>max_latency_vc_0</t>
+  </si>
+  <si>
+    <t>max_latency_vc_1</t>
+  </si>
+  <si>
+    <t>max_latency_vc_2</t>
+  </si>
+  <si>
+    <t>max_latency_vc_3</t>
+  </si>
+  <si>
+    <t>max_latency_vc_4</t>
+  </si>
+  <si>
+    <t>max_latency_vc_5</t>
+  </si>
+  <si>
+    <t>max_latency_vc_6</t>
+  </si>
+  <si>
+    <t>max_latency_vc_7</t>
+  </si>
+  <si>
+    <t>max_latency_vc_8</t>
+  </si>
+  <si>
+    <t>max_latency_vc_9</t>
+  </si>
+  <si>
+    <t>max_latency_vc_10</t>
+  </si>
+  <si>
+    <t>max_latency_vc_11</t>
+  </si>
+  <si>
+    <t>max_latency_vc_12</t>
+  </si>
+  <si>
+    <t>max_latency_vc_13</t>
+  </si>
+  <si>
+    <t>max_latency_vc_14</t>
+  </si>
+  <si>
+    <t>max_latency_vc_15</t>
+  </si>
+  <si>
+    <t>^Ports of Slot ?(\d+)\s+([\w ]+)</t>
+  </si>
+  <si>
+    <t>^([D-]*\w+/? ?\w*[- (]?\w* ?\w*\)?)\s{4,}([\w .-]+)</t>
+  </si>
+  <si>
+    <t>SWITCHCMD /fabos/cliexec/portcfgshow :</t>
+  </si>
+  <si>
+    <t>Ports of Slot 2          18  19    30  31</t>
+  </si>
+  <si>
+    <t>Speed                    AN  AN    AN  AN</t>
+  </si>
+  <si>
+    <t>slot_port_line</t>
+  </si>
+  <si>
+    <t>portcfg</t>
+  </si>
+  <si>
+    <t>portcfg_columns</t>
+  </si>
+  <si>
+    <t>portcfg_params</t>
+  </si>
+  <si>
+    <t>Octet_Speed_Combo</t>
+  </si>
+  <si>
+    <t>AL_PA_Offset_13</t>
+  </si>
+  <si>
+    <t>Trunk_Port</t>
+  </si>
+  <si>
+    <t>Long_Distance</t>
+  </si>
+  <si>
+    <t>VC_Link_Init</t>
+  </si>
+  <si>
+    <t>Locked_L_Port</t>
+  </si>
+  <si>
+    <t>Locked_G_Port</t>
+  </si>
+  <si>
+    <t>Disabled_E_Port</t>
+  </si>
+  <si>
+    <t>Locked_E_Port</t>
+  </si>
+  <si>
+    <t>ISL_R_RDY_Mode</t>
+  </si>
+  <si>
+    <t>RSCN_Suppressed</t>
+  </si>
+  <si>
+    <t>Persistent_Disable</t>
+  </si>
+  <si>
+    <t>LOS_TOV_mode</t>
+  </si>
+  <si>
+    <t>NPIV_capability</t>
+  </si>
+  <si>
+    <t>NPIV_PP_Limit</t>
+  </si>
+  <si>
+    <t>NPIV_FLOGI_Logout</t>
+  </si>
+  <si>
+    <t>QOS_Port</t>
+  </si>
+  <si>
+    <t>EX_Port</t>
+  </si>
+  <si>
+    <t>Mirror_Port</t>
+  </si>
+  <si>
+    <t>Rate_Limit</t>
+  </si>
+  <si>
+    <t>Fport_Buffers</t>
+  </si>
+  <si>
+    <t>Eport_Credits</t>
+  </si>
+  <si>
+    <t>Port_Auto_Disable</t>
+  </si>
+  <si>
+    <t>CSCTL_mode</t>
+  </si>
+  <si>
+    <t>D-Port_mode</t>
+  </si>
+  <si>
+    <t>D-Port_over_DWDM</t>
+  </si>
+  <si>
+    <t>10G/16G_FEC</t>
+  </si>
+  <si>
+    <t>16G_FEC_via_TTS</t>
+  </si>
+  <si>
+    <t>Fault_Delay</t>
+  </si>
+  <si>
+    <t>SIM_Port</t>
+  </si>
+  <si>
+    <t>8G_Non-DFE</t>
+  </si>
+  <si>
+    <t>TDZ_mode</t>
+  </si>
+  <si>
+    <t>Fill_Word(On_Active)</t>
+  </si>
+  <si>
+    <t>Fill_Word(Current)</t>
+  </si>
+  <si>
+    <t>Locked_N_Port</t>
+  </si>
+  <si>
+    <t>LOS_TOV_enable</t>
+  </si>
+  <si>
+    <t>FEC_via_TTS</t>
   </si>
 </sst>
 </file>
@@ -2318,7 +2835,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2429,6 +2946,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2441,7 +2970,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2458,7 +2999,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2505,6 +3046,13 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -4031,12 +4579,161 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" customWidth="1"/>
+    <col min="6" max="6" width="47.28515625" customWidth="1"/>
+    <col min="7" max="7" width="36.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="E3" t="s">
+        <v>490</v>
+      </c>
+      <c r="F3" t="s">
+        <v>493</v>
+      </c>
+      <c r="G3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C4" t="s">
+        <v>488</v>
+      </c>
+      <c r="E4" t="s">
+        <v>489</v>
+      </c>
+      <c r="F4" t="s">
+        <v>494</v>
+      </c>
+      <c r="G4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="F5" t="s">
+        <v>495</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>498</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4629,8 +5326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4694,7 +5391,7 @@
         <v>171</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>165</v>
+        <v>811</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -4708,7 +5405,7 @@
         <v>628</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>165</v>
+        <v>811</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4722,7 +5419,7 @@
         <v>448</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>811</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -4736,7 +5433,7 @@
         <v>641</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>165</v>
+        <v>811</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4765,7 +5462,7 @@
         <v>371</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>165</v>
+        <v>811</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -5772,10 +6469,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:K170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5851,7 +6548,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="39" t="s">
         <v>560</v>
       </c>
       <c r="B4" s="26">
@@ -5897,19 +6594,19 @@
       <c r="A6" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="39">
         <v>1</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="39" t="s">
         <v>560</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="39" t="s">
         <v>698</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="39" t="s">
         <v>697</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="39" t="s">
         <v>743</v>
       </c>
       <c r="G6" s="11" t="s">
@@ -6045,19 +6742,19 @@
       <c r="A14" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="40">
         <v>4</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="40" t="s">
         <v>706</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="40" t="s">
         <v>750</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="40" t="s">
         <v>705</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="40" t="s">
         <v>747</v>
       </c>
       <c r="G14" s="24" t="s">
@@ -6071,19 +6768,19 @@
       <c r="A15" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="42">
         <v>5</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="42" t="s">
         <v>707</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="42" t="s">
         <v>751</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="42" t="s">
         <v>708</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="42" t="s">
         <v>748</v>
       </c>
       <c r="G15" s="24" t="s">
@@ -6314,10 +7011,10 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="40" t="s">
         <v>172</v>
       </c>
       <c r="I36" s="7" t="s">
@@ -6325,10 +7022,10 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="G37" s="38" t="s">
+      <c r="G37" s="40" t="s">
         <v>179</v>
       </c>
       <c r="I37" s="7" t="s">
@@ -6336,10 +7033,10 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="G38" s="38" t="s">
+      <c r="G38" s="40" t="s">
         <v>187</v>
       </c>
       <c r="I38" s="7" t="s">
@@ -6347,10 +7044,10 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="G39" s="38" t="s">
+      <c r="G39" s="40" t="s">
         <v>196</v>
       </c>
       <c r="I39" s="7" t="s">
@@ -6358,10 +7055,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="G40" s="38" t="s">
+      <c r="G40" s="40" t="s">
         <v>204</v>
       </c>
       <c r="I40" s="7" t="s">
@@ -6369,10 +7066,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="G41" s="38" t="s">
+      <c r="G41" s="40" t="s">
         <v>213</v>
       </c>
       <c r="I41" s="7" t="s">
@@ -6380,10 +7077,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="G42" s="38" t="s">
+      <c r="G42" s="40" t="s">
         <v>222</v>
       </c>
       <c r="I42" s="7" t="s">
@@ -6391,10 +7088,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="G43" s="38" t="s">
+      <c r="G43" s="40" t="s">
         <v>231</v>
       </c>
       <c r="I43" s="7" t="s">
@@ -6402,10 +7099,10 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="G44" s="38" t="s">
+      <c r="G44" s="40" t="s">
         <v>240</v>
       </c>
       <c r="I44" s="7" t="s">
@@ -6413,10 +7110,10 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="G45" s="38" t="s">
+      <c r="G45" s="40" t="s">
         <v>249</v>
       </c>
       <c r="I45" s="7" t="s">
@@ -6424,667 +7121,1371 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="G46" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="G47" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="G48" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="G49" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="G50" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="G51" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="G52" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="G53" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="40" t="s">
+        <v>394</v>
+      </c>
+      <c r="G54" s="40" t="s">
+        <v>394</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="G55" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="G56" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="40" t="s">
+        <v>397</v>
+      </c>
+      <c r="G57" s="40" t="s">
+        <v>397</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="G58" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="40" t="s">
+        <v>399</v>
+      </c>
+      <c r="G59" s="40" t="s">
+        <v>399</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="G60" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="G61" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="G62" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="G63" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="40" t="s">
+        <v>404</v>
+      </c>
+      <c r="G64" s="40" t="s">
+        <v>404</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="G65" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="G66" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="G67" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="G68" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="G69" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="G70" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="G71" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="G46" s="38" t="s">
+      <c r="G72" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I72" s="7" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="G47" s="38" t="s">
+      <c r="G73" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I73" s="7" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="39" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="G48" s="39" t="s">
+      <c r="G74" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="I74" s="7" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="42" t="s">
         <v>710</v>
       </c>
-      <c r="G49" s="39" t="s">
+      <c r="G75" s="42" t="s">
         <v>710</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="I75" s="7" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="39" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="42" t="s">
         <v>711</v>
       </c>
-      <c r="G50" s="39" t="s">
+      <c r="G76" s="42" t="s">
         <v>711</v>
       </c>
-      <c r="I50" s="7" t="s">
+      <c r="I76" s="7" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="39" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="42" t="s">
         <v>712</v>
       </c>
-      <c r="G51" s="39" t="s">
+      <c r="G77" s="42" t="s">
         <v>712</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="I77" s="7" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="39" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="42" t="s">
         <v>713</v>
       </c>
-      <c r="G52" s="39" t="s">
+      <c r="G78" s="42" t="s">
         <v>713</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="I78" s="7" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="39" t="s">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="42" t="s">
         <v>714</v>
       </c>
-      <c r="G53" s="39" t="s">
+      <c r="G79" s="42" t="s">
         <v>714</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="I79" s="7" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="39" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="42" t="s">
         <v>715</v>
       </c>
-      <c r="G54" s="39" t="s">
+      <c r="G80" s="42" t="s">
         <v>715</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="I80" s="7" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="39" t="s">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="42" t="s">
         <v>716</v>
       </c>
-      <c r="G55" s="39" t="s">
+      <c r="G81" s="42" t="s">
         <v>716</v>
       </c>
-      <c r="I55" s="7" t="s">
+      <c r="I81" s="7" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="39" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="42" t="s">
         <v>717</v>
       </c>
-      <c r="G56" s="39" t="s">
+      <c r="G82" s="42" t="s">
         <v>717</v>
       </c>
-      <c r="I56" s="7" t="s">
+      <c r="I82" s="7" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="39" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="42" t="s">
         <v>718</v>
       </c>
-      <c r="G57" s="39" t="s">
+      <c r="G83" s="42" t="s">
         <v>718</v>
       </c>
-      <c r="I57" s="7" t="s">
+      <c r="I83" s="7" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="39" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="42" t="s">
         <v>719</v>
       </c>
-      <c r="G58" s="39" t="s">
+      <c r="G84" s="42" t="s">
         <v>719</v>
       </c>
-      <c r="I58" s="7" t="s">
+      <c r="I84" s="7" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="39" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="42" t="s">
         <v>720</v>
       </c>
-      <c r="G59" s="39" t="s">
+      <c r="G85" s="42" t="s">
         <v>720</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="I85" s="7" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="39" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="42" t="s">
         <v>721</v>
       </c>
-      <c r="G60" s="39" t="s">
+      <c r="G86" s="42" t="s">
         <v>721</v>
       </c>
-      <c r="I60" s="7" t="s">
+      <c r="I86" s="7" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="39" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="42" t="s">
         <v>722</v>
       </c>
-      <c r="G61" s="39" t="s">
+      <c r="G87" s="42" t="s">
         <v>722</v>
       </c>
-      <c r="I61" s="7" t="s">
+      <c r="I87" s="7" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="39" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="42" t="s">
         <v>723</v>
       </c>
-      <c r="G62" s="39" t="s">
+      <c r="G88" s="42" t="s">
         <v>723</v>
       </c>
-      <c r="I62" s="7" t="s">
+      <c r="I88" s="7" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="39" t="s">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="42" t="s">
         <v>724</v>
       </c>
-      <c r="G63" s="39" t="s">
+      <c r="G89" s="42" t="s">
         <v>724</v>
       </c>
-      <c r="I63" s="7" t="s">
+      <c r="I89" s="7" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="39" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="42" t="s">
         <v>725</v>
       </c>
-      <c r="G64" s="39" t="s">
+      <c r="G90" s="42" t="s">
         <v>725</v>
       </c>
-      <c r="I64" s="7" t="s">
+      <c r="I90" s="7" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="39" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="42" t="s">
         <v>726</v>
       </c>
-      <c r="G65" s="39" t="s">
+      <c r="G91" s="42" t="s">
         <v>726</v>
       </c>
-      <c r="I65" s="7" t="s">
+      <c r="I91" s="7" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="39" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="42" t="s">
         <v>727</v>
       </c>
-      <c r="G66" s="39" t="s">
+      <c r="G92" s="42" t="s">
         <v>727</v>
       </c>
-      <c r="I66" s="7" t="s">
+      <c r="I92" s="7" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="39" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="42" t="s">
         <v>728</v>
       </c>
-      <c r="G67" s="39" t="s">
+      <c r="G93" s="42" t="s">
         <v>728</v>
       </c>
-      <c r="I67" s="7" t="s">
+      <c r="I93" s="7" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="39" t="s">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="42" t="s">
         <v>729</v>
       </c>
-      <c r="G68" s="39" t="s">
+      <c r="G94" s="42" t="s">
         <v>729</v>
       </c>
-      <c r="I68" s="7" t="s">
+      <c r="I94" s="7" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="39" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="42" t="s">
         <v>730</v>
       </c>
-      <c r="G69" s="39" t="s">
+      <c r="G95" s="42" t="s">
         <v>730</v>
       </c>
-      <c r="I69" s="7" t="s">
+      <c r="I95" s="7" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="39" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="42" t="s">
         <v>731</v>
       </c>
-      <c r="G70" s="39" t="s">
+      <c r="G96" s="42" t="s">
         <v>731</v>
       </c>
-      <c r="I70" s="7" t="s">
+      <c r="I96" s="7" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="39" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="42" t="s">
         <v>732</v>
       </c>
-      <c r="G71" s="39" t="s">
+      <c r="G97" s="42" t="s">
         <v>732</v>
       </c>
-      <c r="I71" s="7" t="s">
+      <c r="I97" s="7" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="39" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="42" t="s">
         <v>733</v>
       </c>
-      <c r="G72" s="39" t="s">
+      <c r="G98" s="42" t="s">
         <v>733</v>
       </c>
-      <c r="I72" s="7" t="s">
+      <c r="I98" s="7" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="39" t="s">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="42" t="s">
         <v>734</v>
       </c>
-      <c r="G73" s="39" t="s">
+      <c r="G99" s="42" t="s">
         <v>734</v>
       </c>
-      <c r="I73" s="7" t="s">
+      <c r="I99" s="7" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="39" t="s">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="42" t="s">
         <v>735</v>
       </c>
-      <c r="G74" s="39" t="s">
+      <c r="G100" s="42" t="s">
         <v>735</v>
       </c>
-      <c r="I74" s="7" t="s">
+      <c r="I100" s="7" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="39" t="s">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="42" t="s">
         <v>736</v>
       </c>
-      <c r="G75" s="39" t="s">
+      <c r="G101" s="42" t="s">
         <v>736</v>
       </c>
-      <c r="I75" s="7" t="s">
+      <c r="I101" s="7" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="39" t="s">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="42" t="s">
         <v>737</v>
       </c>
-      <c r="G76" s="39" t="s">
+      <c r="G102" s="42" t="s">
         <v>737</v>
       </c>
-      <c r="I76" s="7" t="s">
+      <c r="I102" s="7" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="39" t="s">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="42" t="s">
         <v>738</v>
       </c>
-      <c r="G77" s="39" t="s">
+      <c r="G103" s="42" t="s">
         <v>738</v>
       </c>
-      <c r="I77" s="7" t="s">
+      <c r="I103" s="7" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="39" t="s">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="42" t="s">
         <v>739</v>
       </c>
-      <c r="G78" s="39" t="s">
+      <c r="G104" s="42" t="s">
         <v>739</v>
       </c>
-      <c r="I78" s="7" t="s">
+      <c r="I104" s="7" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="39" t="s">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="42" t="s">
         <v>740</v>
       </c>
-      <c r="G79" s="39" t="s">
+      <c r="G105" s="42" t="s">
         <v>740</v>
       </c>
-      <c r="I79" s="7" t="s">
+      <c r="I105" s="7" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="G80" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="I80" s="7" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="G81" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="G82" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="I82" s="7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="G83" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="I83" s="7" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="38" t="s">
-        <v>388</v>
-      </c>
-      <c r="G84" s="38" t="s">
-        <v>388</v>
-      </c>
-      <c r="I84" s="7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="G85" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="38" t="s">
-        <v>392</v>
-      </c>
-      <c r="G86" s="38" t="s">
-        <v>392</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="38" t="s">
-        <v>393</v>
-      </c>
-      <c r="G87" s="38" t="s">
-        <v>393</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="38" t="s">
-        <v>394</v>
-      </c>
-      <c r="G88" s="38" t="s">
-        <v>394</v>
-      </c>
-      <c r="I88" s="7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="38" t="s">
-        <v>395</v>
-      </c>
-      <c r="G89" s="38" t="s">
-        <v>395</v>
-      </c>
-      <c r="I89" s="7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="38" t="s">
-        <v>396</v>
-      </c>
-      <c r="G90" s="38" t="s">
-        <v>396</v>
-      </c>
-      <c r="I90" s="7" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="38" t="s">
-        <v>397</v>
-      </c>
-      <c r="G91" s="38" t="s">
-        <v>397</v>
-      </c>
-      <c r="I91" s="7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="38" t="s">
-        <v>398</v>
-      </c>
-      <c r="G92" s="38" t="s">
-        <v>398</v>
-      </c>
-      <c r="I92" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="38" t="s">
-        <v>399</v>
-      </c>
-      <c r="G93" s="38" t="s">
-        <v>399</v>
-      </c>
-      <c r="I93" s="7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="38" t="s">
-        <v>400</v>
-      </c>
-      <c r="G94" s="38" t="s">
-        <v>400</v>
-      </c>
-      <c r="I94" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="38" t="s">
-        <v>401</v>
-      </c>
-      <c r="G95" s="38" t="s">
-        <v>401</v>
-      </c>
-      <c r="I95" s="7" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="38" t="s">
-        <v>402</v>
-      </c>
-      <c r="G96" s="38" t="s">
-        <v>402</v>
-      </c>
-      <c r="I96" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="38" t="s">
-        <v>403</v>
-      </c>
-      <c r="G97" s="38" t="s">
-        <v>403</v>
-      </c>
-      <c r="I97" s="7" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="38" t="s">
-        <v>404</v>
-      </c>
-      <c r="G98" s="38" t="s">
-        <v>404</v>
-      </c>
-      <c r="I98" s="7" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="38" t="s">
-        <v>405</v>
-      </c>
-      <c r="G99" s="38" t="s">
-        <v>405</v>
-      </c>
-      <c r="I99" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="38" t="s">
-        <v>406</v>
-      </c>
-      <c r="G100" s="38" t="s">
-        <v>406</v>
-      </c>
-      <c r="I100" s="7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="G101" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="I101" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="38" t="s">
-        <v>408</v>
-      </c>
-      <c r="G102" s="38" t="s">
-        <v>408</v>
-      </c>
-      <c r="I102" s="7" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="38" t="s">
-        <v>409</v>
-      </c>
-      <c r="G103" s="38" t="s">
-        <v>409</v>
-      </c>
-      <c r="I103" s="7" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="38" t="s">
-        <v>410</v>
-      </c>
-      <c r="G104" s="38" t="s">
-        <v>410</v>
-      </c>
-      <c r="I104" s="7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="38" t="s">
-        <v>411</v>
-      </c>
-      <c r="G105" s="38" t="s">
-        <v>411</v>
-      </c>
-      <c r="I105" s="7" t="s">
-        <v>411</v>
-      </c>
-    </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D106" t="s">
+      <c r="A106" s="42" t="s">
+        <v>816</v>
+      </c>
+      <c r="G106" s="42" t="s">
+        <v>816</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="42" t="s">
+        <v>817</v>
+      </c>
+      <c r="G107" s="42" t="s">
+        <v>817</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="42" t="s">
+        <v>818</v>
+      </c>
+      <c r="G108" s="42" t="s">
+        <v>818</v>
+      </c>
+      <c r="I108" s="7" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="42" t="s">
+        <v>819</v>
+      </c>
+      <c r="G109" s="42" t="s">
+        <v>819</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="42" t="s">
+        <v>820</v>
+      </c>
+      <c r="G110" s="42" t="s">
+        <v>820</v>
+      </c>
+      <c r="I110" s="7" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="42" t="s">
+        <v>821</v>
+      </c>
+      <c r="G111" s="42" t="s">
+        <v>821</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="42" t="s">
+        <v>822</v>
+      </c>
+      <c r="G112" s="42" t="s">
+        <v>822</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="42" t="s">
+        <v>823</v>
+      </c>
+      <c r="G113" s="42" t="s">
+        <v>823</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="42" t="s">
+        <v>824</v>
+      </c>
+      <c r="G114" s="42" t="s">
+        <v>824</v>
+      </c>
+      <c r="I114" s="7" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="42" t="s">
+        <v>825</v>
+      </c>
+      <c r="G115" s="42" t="s">
+        <v>825</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="42" t="s">
+        <v>826</v>
+      </c>
+      <c r="G116" s="42" t="s">
+        <v>826</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="42" t="s">
+        <v>827</v>
+      </c>
+      <c r="G117" s="42" t="s">
+        <v>827</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="42" t="s">
+        <v>828</v>
+      </c>
+      <c r="G118" s="42" t="s">
+        <v>828</v>
+      </c>
+      <c r="I118" s="7" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="42" t="s">
+        <v>829</v>
+      </c>
+      <c r="G119" s="42" t="s">
+        <v>829</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="42" t="s">
+        <v>830</v>
+      </c>
+      <c r="G120" s="42" t="s">
+        <v>830</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="42" t="s">
+        <v>831</v>
+      </c>
+      <c r="G121" s="42" t="s">
+        <v>831</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="42" t="s">
+        <v>832</v>
+      </c>
+      <c r="G122" s="42" t="s">
+        <v>832</v>
+      </c>
+      <c r="I122" s="7" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="42" t="s">
+        <v>833</v>
+      </c>
+      <c r="G123" s="42" t="s">
+        <v>833</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="42" t="s">
+        <v>834</v>
+      </c>
+      <c r="G124" s="42" t="s">
+        <v>834</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="42" t="s">
+        <v>835</v>
+      </c>
+      <c r="G125" s="42" t="s">
+        <v>835</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="42" t="s">
+        <v>836</v>
+      </c>
+      <c r="G126" s="42" t="s">
+        <v>836</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="42" t="s">
+        <v>837</v>
+      </c>
+      <c r="G127" s="42" t="s">
+        <v>837</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="42" t="s">
+        <v>838</v>
+      </c>
+      <c r="G128" s="42" t="s">
+        <v>838</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="42" t="s">
+        <v>839</v>
+      </c>
+      <c r="G129" s="42" t="s">
+        <v>839</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="42" t="s">
+        <v>840</v>
+      </c>
+      <c r="G130" s="42" t="s">
+        <v>840</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="42" t="s">
+        <v>841</v>
+      </c>
+      <c r="G131" s="42" t="s">
+        <v>841</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="42" t="s">
+        <v>842</v>
+      </c>
+      <c r="G132" s="42" t="s">
+        <v>842</v>
+      </c>
+      <c r="I132" s="7" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="42" t="s">
+        <v>843</v>
+      </c>
+      <c r="G133" s="42" t="s">
+        <v>843</v>
+      </c>
+      <c r="I133" s="7" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="42" t="s">
+        <v>844</v>
+      </c>
+      <c r="G134" s="42" t="s">
+        <v>844</v>
+      </c>
+      <c r="I134" s="7" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="42" t="s">
+        <v>845</v>
+      </c>
+      <c r="G135" s="42" t="s">
+        <v>845</v>
+      </c>
+      <c r="I135" s="7" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="42" t="s">
+        <v>846</v>
+      </c>
+      <c r="G136" s="42" t="s">
+        <v>846</v>
+      </c>
+      <c r="I136" s="7" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="42" t="s">
+        <v>847</v>
+      </c>
+      <c r="G137" s="42" t="s">
+        <v>847</v>
+      </c>
+      <c r="I137" s="7" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="42" t="s">
+        <v>848</v>
+      </c>
+      <c r="G138" s="42" t="s">
+        <v>848</v>
+      </c>
+      <c r="I138" s="7" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="42" t="s">
+        <v>849</v>
+      </c>
+      <c r="G139" s="42" t="s">
+        <v>849</v>
+      </c>
+      <c r="I139" s="7" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="42" t="s">
+        <v>850</v>
+      </c>
+      <c r="G140" s="42" t="s">
+        <v>850</v>
+      </c>
+      <c r="I140" s="7" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="42" t="s">
+        <v>851</v>
+      </c>
+      <c r="G141" s="42" t="s">
+        <v>851</v>
+      </c>
+      <c r="I141" s="7" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="42" t="s">
+        <v>852</v>
+      </c>
+      <c r="G142" s="42" t="s">
+        <v>852</v>
+      </c>
+      <c r="I142" s="7" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="42" t="s">
+        <v>853</v>
+      </c>
+      <c r="G143" s="42" t="s">
+        <v>853</v>
+      </c>
+      <c r="I143" s="7" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="42" t="s">
+        <v>854</v>
+      </c>
+      <c r="G144" s="42" t="s">
+        <v>854</v>
+      </c>
+      <c r="I144" s="7" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="42" t="s">
+        <v>855</v>
+      </c>
+      <c r="G145" s="42" t="s">
+        <v>855</v>
+      </c>
+      <c r="I145" s="7" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="42" t="s">
+        <v>856</v>
+      </c>
+      <c r="G146" s="42" t="s">
+        <v>856</v>
+      </c>
+      <c r="I146" s="7" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="42" t="s">
+        <v>857</v>
+      </c>
+      <c r="G147" s="42" t="s">
+        <v>857</v>
+      </c>
+      <c r="I147" s="7" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="42" t="s">
+        <v>858</v>
+      </c>
+      <c r="G148" s="42" t="s">
+        <v>858</v>
+      </c>
+      <c r="I148" s="7" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="42" t="s">
+        <v>859</v>
+      </c>
+      <c r="G149" s="42" t="s">
+        <v>859</v>
+      </c>
+      <c r="I149" s="7" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="42" t="s">
+        <v>860</v>
+      </c>
+      <c r="G150" s="42" t="s">
+        <v>860</v>
+      </c>
+      <c r="I150" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="42" t="s">
+        <v>861</v>
+      </c>
+      <c r="G151" s="42" t="s">
+        <v>861</v>
+      </c>
+      <c r="I151" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="42" t="s">
+        <v>862</v>
+      </c>
+      <c r="G152" s="42" t="s">
+        <v>862</v>
+      </c>
+      <c r="I152" s="7" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="42" t="s">
+        <v>863</v>
+      </c>
+      <c r="G153" s="42" t="s">
+        <v>863</v>
+      </c>
+      <c r="I153" s="7" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="42" t="s">
+        <v>864</v>
+      </c>
+      <c r="G154" s="42" t="s">
+        <v>864</v>
+      </c>
+      <c r="I154" s="7" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="42" t="s">
+        <v>865</v>
+      </c>
+      <c r="G155" s="42" t="s">
+        <v>865</v>
+      </c>
+      <c r="I155" s="7" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="42" t="s">
+        <v>866</v>
+      </c>
+      <c r="G156" s="42" t="s">
+        <v>866</v>
+      </c>
+      <c r="I156" s="7" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="42" t="s">
+        <v>867</v>
+      </c>
+      <c r="G157" s="42" t="s">
+        <v>867</v>
+      </c>
+      <c r="I157" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="42" t="s">
+        <v>868</v>
+      </c>
+      <c r="G158" s="42" t="s">
+        <v>868</v>
+      </c>
+      <c r="I158" s="7" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="42" t="s">
+        <v>869</v>
+      </c>
+      <c r="G159" s="42" t="s">
+        <v>869</v>
+      </c>
+      <c r="I159" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="42" t="s">
+        <v>870</v>
+      </c>
+      <c r="G160" s="42" t="s">
+        <v>870</v>
+      </c>
+      <c r="I160" s="7" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="42" t="s">
+        <v>871</v>
+      </c>
+      <c r="G161" s="42" t="s">
+        <v>871</v>
+      </c>
+      <c r="I161" s="7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="42" t="s">
+        <v>872</v>
+      </c>
+      <c r="G162" s="42" t="s">
+        <v>872</v>
+      </c>
+      <c r="I162" s="7" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="42" t="s">
+        <v>873</v>
+      </c>
+      <c r="G163" s="42" t="s">
+        <v>873</v>
+      </c>
+      <c r="I163" s="7" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="42" t="s">
+        <v>874</v>
+      </c>
+      <c r="G164" s="42" t="s">
+        <v>874</v>
+      </c>
+      <c r="I164" s="7" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="42" t="s">
+        <v>875</v>
+      </c>
+      <c r="G165" s="42" t="s">
+        <v>875</v>
+      </c>
+      <c r="I165" s="7" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="42" t="s">
+        <v>876</v>
+      </c>
+      <c r="G166" s="42" t="s">
+        <v>876</v>
+      </c>
+      <c r="I166" s="7" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="42" t="s">
+        <v>877</v>
+      </c>
+      <c r="G167" s="42" t="s">
+        <v>877</v>
+      </c>
+      <c r="I167" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="42" t="s">
+        <v>878</v>
+      </c>
+      <c r="G168" s="42" t="s">
+        <v>878</v>
+      </c>
+      <c r="I168" s="7" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="42" t="s">
+        <v>879</v>
+      </c>
+      <c r="G169" s="42" t="s">
+        <v>879</v>
+      </c>
+      <c r="I169" s="7" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
         <v>742</v>
       </c>
     </row>
@@ -7094,6 +8495,1101 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D8" s="34" t="s">
+        <v>753</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
+        <v>762</v>
+      </c>
+      <c r="B9" s="41">
+        <v>0</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>764</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41" t="s">
+        <v>761</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>763</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="38">
+        <v>1</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>756</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38" t="s">
+        <v>789</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>757</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>770</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>771</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" s="43">
+        <v>2</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>765</v>
+      </c>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43" t="s">
+        <v>759</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>760</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>772</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>773</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>766</v>
+      </c>
+      <c r="E19" t="s">
+        <v>810</v>
+      </c>
+      <c r="F19" t="s">
+        <v>767</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>787</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21" t="s">
+        <v>786</v>
+      </c>
+      <c r="F21" t="s">
+        <v>788</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>776</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>755</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B23" s="16">
+        <v>5</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>768</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16" t="s">
+        <v>785</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>758</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>778</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>779</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>780</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>781</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>782</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>783</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>569</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>784</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D31" s="37" t="s">
+        <v>882</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="B32" s="31">
+        <v>6</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>885</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31" t="s">
+        <v>880</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>883</v>
+      </c>
+      <c r="K32" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B34" s="15">
+        <v>7</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>886</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15" t="s">
+        <v>881</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>884</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="K35" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="K36" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="K37" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="K38" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="K39" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="K40" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="K41" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="K42" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="K43" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="K49" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="K50" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="K52" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="K54" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="K55" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="K56" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="K57" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="K58" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="K59" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="K60" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="K61" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="K62" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="K63" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="K64" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="K65" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="K66" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="K67" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="K68" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="K69" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="L69" s="7" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="K70" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="K71" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="K72" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="L72" s="7" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="K73" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="L73" s="7" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="K74" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="K75" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D76" s="45" t="s">
+        <v>569</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
@@ -7507,12 +10003,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="K1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7566,34 +10062,22 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G2" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>171</v>
-      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="12" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G3" s="18" t="s">
-        <v>653</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>653</v>
-      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="12" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G4" s="18" t="s">
-        <v>448</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>448</v>
-      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="12" t="s">
         <v>659</v>
       </c>
@@ -7617,10 +10101,8 @@
       <c r="F5" s="31" t="s">
         <v>651</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>644</v>
-      </c>
-      <c r="H5" s="18"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="12" t="s">
         <v>541</v>
       </c>
@@ -7629,8 +10111,8 @@
       <c r="A6" s="31" t="s">
         <v>645</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
         <v>658</v>
       </c>
@@ -7639,10 +10121,8 @@
       <c r="A7" s="31" t="s">
         <v>646</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>645</v>
-      </c>
-      <c r="H7" s="18"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
       <c r="I7" t="s">
         <v>654</v>
       </c>
@@ -7651,10 +10131,8 @@
       <c r="A8" s="31" t="s">
         <v>647</v>
       </c>
-      <c r="G8" s="18" t="s">
-        <v>646</v>
-      </c>
-      <c r="H8" s="18"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
         <v>655</v>
       </c>
@@ -7663,15 +10141,15 @@
       <c r="A9" s="31" t="s">
         <v>648</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>647</v>
-      </c>
-      <c r="H9" s="18"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="7" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
         <v>657</v>
       </c>
@@ -7872,12 +10350,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I71"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7921,7 +10399,7 @@
       <c r="G1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="46" t="s">
         <v>161</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -7936,7 +10414,7 @@
       <c r="L1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="46" t="s">
         <v>166</v>
       </c>
     </row>
@@ -9156,429 +11634,515 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A4:E86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" customWidth="1"/>
-    <col min="6" max="6" width="47.28515625" customWidth="1"/>
-    <col min="7" max="7" width="36.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="59.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>484</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>485</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>485</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>484</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>485</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>485</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>482</v>
-      </c>
-      <c r="B3" t="s">
-        <v>486</v>
-      </c>
-      <c r="C3" t="s">
-        <v>503</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="E3" t="s">
-        <v>490</v>
-      </c>
-      <c r="F3" t="s">
-        <v>493</v>
-      </c>
-      <c r="G3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>483</v>
-      </c>
-      <c r="B4" t="s">
-        <v>487</v>
-      </c>
-      <c r="C4" t="s">
-        <v>488</v>
-      </c>
-      <c r="E4" t="s">
-        <v>489</v>
-      </c>
-      <c r="F4" t="s">
-        <v>494</v>
-      </c>
-      <c r="G4" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E5" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="F5" t="s">
-        <v>495</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E6" s="27" t="s">
-        <v>504</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>498</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E7" s="27" t="s">
-        <v>499</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>492</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C25:W83"/>
-  <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="M65" sqref="M65:W65"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>628</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>628</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>628</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>628</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="11" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="7"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="11" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="7"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="7"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="7"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="7"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="7"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="10" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="11" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="7"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="10" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="5"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="5"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="5"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="5"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="5"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="7"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="7"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="7"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="7"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="7"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="10" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="10" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="10"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="11" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="11"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="12"/>
-    </row>
-    <row r="65" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C65" s="7"/>
-      <c r="M65" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="N65" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="O65" s="11" t="s">
-        <v>628</v>
-      </c>
-      <c r="P65" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q65" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="R65" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="S65" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="T65" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="U65" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="V65" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="W65" s="11" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="66" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C66" s="11" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="73" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C73" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="74" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C74" s="11" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="75" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C75" s="11" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="76" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C76" s="10" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="77" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C77" s="11" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="78" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C78" s="10" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="79" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C79" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="80" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C80" s="10" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" s="10" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" s="11" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" s="11" t="s">
-        <v>630</v>
-      </c>
+        <v>812</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>813</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>814</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>815</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="D8" s="7">
+        <v>4</v>
+      </c>
+      <c r="E8" s="42"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="D10" s="7">
+        <v>6</v>
+      </c>
+      <c r="E10" s="38"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="D12" s="7">
+        <v>8</v>
+      </c>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="D14" s="7">
+        <v>10</v>
+      </c>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="D16" s="7">
+        <v>12</v>
+      </c>
+      <c r="E16" s="43"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>CONCATENATE(A$4,"_",D4)</f>
+        <v>lat_tot_pkt_vc_0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="str">
+        <f t="shared" ref="A23:A39" si="0">CONCATENATE(A$4,"_",D5)</f>
+        <v>lat_tot_pkt_vc_1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>lat_tot_pkt_vc_2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>lat_tot_pkt_vc_3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>lat_tot_pkt_vc_4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>lat_tot_pkt_vc_5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>lat_tot_pkt_vc_6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>lat_tot_pkt_vc_7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>lat_tot_pkt_vc_8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>lat_tot_pkt_vc_9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>lat_tot_pkt_vc_10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>lat_tot_pkt_vc_11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>lat_tot_pkt_vc_12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>lat_tot_pkt_vc_13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>lat_tot_pkt_vc_14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>lat_tot_pkt_vc_15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="str">
+        <f>CONCATENATE(A$5,"_",D4)</f>
+        <v>lat_hi_time_vc_0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="str">
+        <f t="shared" ref="A39:A53" si="1">CONCATENATE(A$5,"_",D5)</f>
+        <v>lat_hi_time_vc_1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>lat_hi_time_vc_2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>lat_hi_time_vc_3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>lat_hi_time_vc_4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>lat_hi_time_vc_5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>lat_hi_time_vc_6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>lat_hi_time_vc_7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>lat_hi_time_vc_8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>lat_hi_time_vc_9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>lat_hi_time_vc_10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>lat_hi_time_vc_11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>lat_hi_time_vc_12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>lat_hi_time_vc_13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>lat_hi_time_vc_14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>lat_hi_time_vc_15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f>CONCATENATE(A$6,"_",D4)</f>
+        <v>lat_lo_time_vc_0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="str">
+        <f t="shared" ref="A55:A69" si="2">CONCATENATE(A$6,"_",D5)</f>
+        <v>lat_lo_time_vc_1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>lat_lo_time_vc_2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>lat_lo_time_vc_3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>lat_lo_time_vc_4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>lat_lo_time_vc_5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>lat_lo_time_vc_6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>lat_lo_time_vc_7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>lat_lo_time_vc_8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>lat_lo_time_vc_9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>lat_lo_time_vc_10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>lat_lo_time_vc_11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>lat_lo_time_vc_12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="str">
+        <f>CONCATENATE(A$6,"_",D17)</f>
+        <v>lat_lo_time_vc_13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>lat_lo_time_vc_14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>lat_lo_time_vc_15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f>CONCATENATE(A$7,"_",D4)</f>
+        <v>max_latency_vc_0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="str">
+        <f t="shared" ref="A71:A86" si="3">CONCATENATE(A$7,"_",D5)</f>
+        <v>max_latency_vc_1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>max_latency_vc_2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>max_latency_vc_3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>max_latency_vc_4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>max_latency_vc_5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>max_latency_vc_6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>max_latency_vc_7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>max_latency_vc_8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>max_latency_vc_9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>max_latency_vc_10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>max_latency_vc_11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>max_latency_vc_12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>max_latency_vc_13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>max_latency_vc_14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>max_latency_vc_15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="switch_info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="1221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="1222">
   <si>
     <t>switchType</t>
   </si>
@@ -3701,6 +3701,9 @@
   </si>
   <si>
     <t>AG_Switch_IP_Address</t>
+  </si>
+  <si>
+    <t>switch_params, portcmd</t>
   </si>
 </sst>
 </file>
@@ -5715,8 +5718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5784,8 +5787,11 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>154</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>154</v>
@@ -5810,8 +5816,11 @@
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>968</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>968</v>
@@ -5870,6 +5879,9 @@
       <c r="H7" s="4"/>
       <c r="I7" s="7" t="s">
         <v>454</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>454</v>
@@ -5964,10 +5976,12 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>1219</v>
+      </c>
       <c r="K14" s="8" t="s">
         <v>572</v>
       </c>
@@ -6941,8 +6955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6956,7 +6970,7 @@
     <col min="7" max="7" width="37.28515625" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7008,7 +7022,7 @@
         <v>154</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>556</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -7064,7 +7078,7 @@
         <v>541</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>556</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -7090,8 +7104,11 @@
         <v>128</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="6" t="s">
         <v>331</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>1221</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -7533,10 +7550,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7630,73 +7647,52 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G4" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G5" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>916</v>
-      </c>
-      <c r="K4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>295</v>
+      <c r="K5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>553</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>295</v>
+        <v>554</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>916</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>1202</v>
+        <v>151</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>1219</v>
@@ -7704,994 +7700,1029 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="10"/>
+        <v>295</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>419</v>
+      </c>
       <c r="G7" s="10" t="s">
-        <v>172</v>
+        <v>295</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>454</v>
+        <v>295</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>150</v>
+        <v>916</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L7" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>1219</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="B8" s="10"/>
       <c r="G8" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>221</v>
+        <v>172</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L8" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="L8" t="s">
         <v>1219</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>334</v>
+        <v>221</v>
       </c>
       <c r="B9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>334</v>
+        <v>221</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>334</v>
+        <v>221</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>1219</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B10" s="10"/>
       <c r="G10" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>227</v>
+        <v>336</v>
       </c>
       <c r="B12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>227</v>
+        <v>336</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>227</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="B13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="J13" s="3"/>
+        <v>227</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B14" s="10"/>
       <c r="G14" s="10" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>355</v>
+        <v>262</v>
       </c>
       <c r="B16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>355</v>
+        <v>262</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>355</v>
+        <v>262</v>
       </c>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>273</v>
+        <v>355</v>
       </c>
       <c r="B17" s="10"/>
       <c r="G17" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>273</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>274</v>
       </c>
       <c r="B18" s="10"/>
       <c r="G18" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>276</v>
       </c>
       <c r="B19" s="10"/>
       <c r="G19" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>276</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>268</v>
       </c>
       <c r="B20" s="10"/>
       <c r="G20" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>268</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="J20" s="26"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>356</v>
       </c>
       <c r="B21" s="10"/>
       <c r="G21" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>356</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B22" s="10"/>
       <c r="G22" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="J22" s="3"/>
+        <v>356</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B23" s="10"/>
       <c r="G23" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>357</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>280</v>
       </c>
       <c r="B24" s="10"/>
       <c r="G24" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>280</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>282</v>
       </c>
       <c r="B25" s="10"/>
       <c r="G25" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>360</v>
+        <v>282</v>
       </c>
       <c r="B26" s="10"/>
       <c r="G26" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>360</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B27" s="10"/>
       <c r="G27" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="J27" s="3"/>
+        <v>360</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="B28" s="10"/>
       <c r="G28" s="10" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B29" s="10"/>
       <c r="G29" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B30" s="10"/>
       <c r="G30" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B31" s="10"/>
       <c r="G31" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B32" s="10"/>
       <c r="G32" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B33" s="10"/>
       <c r="G33" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B34" s="10"/>
       <c r="G34" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B35" s="10"/>
       <c r="G35" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="B36" s="10"/>
       <c r="G36" s="10" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>345</v>
+        <v>278</v>
       </c>
       <c r="B37" s="10"/>
       <c r="G37" s="10" t="s">
-        <v>345</v>
+        <v>278</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>345</v>
+        <v>278</v>
       </c>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="B38" s="10"/>
       <c r="G38" s="10" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
       <c r="B39" s="10"/>
       <c r="G39" s="10" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B40" s="10"/>
       <c r="G40" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B41" s="10"/>
       <c r="G41" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B42" s="10"/>
       <c r="G42" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B43" s="10"/>
       <c r="G43" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B44" s="10"/>
       <c r="G44" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B45" s="10"/>
       <c r="G45" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B46" s="10"/>
       <c r="G46" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="G47" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="D47" s="10" t="s">
+      <c r="B48" s="10"/>
+      <c r="D48" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G48" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="B48" s="24">
-        <v>1</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>421</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>481</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>453</v>
-      </c>
-      <c r="F48" s="24" t="s">
-        <v>422</v>
-      </c>
-      <c r="G48" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="J48" s="8"/>
+      <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="24"/>
-      <c r="E49" s="24"/>
+        <v>151</v>
+      </c>
+      <c r="B49" s="24">
+        <v>1</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>453</v>
+      </c>
       <c r="F49" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="J49" s="8"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="B50" s="24"/>
       <c r="E50" s="24"/>
       <c r="F50" s="24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>1215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" s="8"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B51" s="24"/>
       <c r="E51" s="24"/>
       <c r="F51" s="24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>1216</v>
+        <v>202</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B52" s="24"/>
       <c r="E52" s="24"/>
       <c r="F52" s="24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>917</v>
+        <v>195</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="B53" s="24"/>
       <c r="E53" s="24"/>
       <c r="F53" s="24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="J53" s="8"/>
+        <v>209</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>917</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
-        <v>438</v>
+        <v>180</v>
       </c>
       <c r="B54" s="24"/>
       <c r="E54" s="24"/>
       <c r="F54" s="24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>438</v>
+        <v>180</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>438</v>
+        <v>180</v>
       </c>
       <c r="J54" s="8"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
-        <v>188</v>
+        <v>438</v>
       </c>
       <c r="B55" s="24"/>
       <c r="E55" s="24"/>
       <c r="F55" s="24" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>150</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="J55" s="8"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
-        <v>439</v>
+        <v>188</v>
       </c>
       <c r="B56" s="24"/>
       <c r="E56" s="24"/>
       <c r="F56" s="24" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="J56" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B57" s="24"/>
       <c r="E57" s="24"/>
       <c r="F57" s="24" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J57" s="8"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B58" s="24"/>
       <c r="E58" s="24"/>
       <c r="F58" s="24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>441</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>917</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B59" s="24"/>
       <c r="E59" s="24"/>
       <c r="F59" s="24" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>442</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="J59" s="8"/>
+        <v>441</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>917</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B60" s="24"/>
       <c r="E60" s="24"/>
       <c r="F60" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J60" s="8"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B61" s="24"/>
       <c r="E61" s="24"/>
       <c r="F61" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J61" s="8"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B62" s="24"/>
       <c r="E62" s="24"/>
       <c r="F62" s="24" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J62" s="8"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B63" s="24"/>
       <c r="E63" s="24"/>
       <c r="F63" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="J63" s="8"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="B64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="G63" s="24" t="s">
+      <c r="G64" s="24" t="s">
         <v>446</v>
-      </c>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="J63" s="8"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="27" t="s">
-        <v>457</v>
-      </c>
-      <c r="B64" s="27">
-        <v>2</v>
-      </c>
-      <c r="C64" s="27" t="s">
-        <v>455</v>
-      </c>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27" t="s">
-        <v>542</v>
-      </c>
-      <c r="F64" s="27" t="s">
-        <v>456</v>
-      </c>
-      <c r="G64" s="27" t="s">
-        <v>457</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="8" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="J64" s="8"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="27" t="s">
-        <v>458</v>
+        <v>457</v>
+      </c>
+      <c r="B65" s="27">
+        <v>2</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>455</v>
+      </c>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>456</v>
       </c>
       <c r="G65" s="27" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="J65" s="8"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="G66" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="J65" s="8"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="29" t="s">
-        <v>473</v>
-      </c>
-      <c r="B66" s="29">
-        <v>3</v>
-      </c>
-      <c r="C66" s="29" t="s">
-        <v>474</v>
-      </c>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29" t="s">
-        <v>467</v>
-      </c>
-      <c r="F66" s="29" t="s">
-        <v>468</v>
-      </c>
-      <c r="G66" s="29"/>
-      <c r="K66" s="4" t="s">
-        <v>473</v>
-      </c>
+      <c r="J66" s="8"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
+        <v>473</v>
+      </c>
+      <c r="B67" s="29">
+        <v>3</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29" t="s">
+        <v>467</v>
+      </c>
+      <c r="F67" s="29" t="s">
+        <v>468</v>
+      </c>
+      <c r="G67" s="29"/>
       <c r="K67" s="4" t="s">
-        <v>165</v>
+        <v>473</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
+      </c>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>182</v>
+        <v>170</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="29" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="29" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="29" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="29" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="29" t="s">
-        <v>469</v>
-      </c>
-      <c r="K74" s="7" t="s">
-        <v>469</v>
+        <v>211</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="29" t="s">
-        <v>470</v>
-      </c>
-      <c r="K75" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="29" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="29" t="s">
         <v>472</v>
       </c>
-      <c r="K77" s="4" t="s">
+      <c r="K78" s="4" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D78" s="25" t="s">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D79" s="25" t="s">
         <v>482</v>
       </c>
     </row>
@@ -8703,10 +8734,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K173"/>
+  <dimension ref="A1:K174"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8781,151 +8812,146 @@
         <v>541</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
         <v>473</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B5" s="22">
         <v>0</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C5" s="22" t="s">
         <v>607</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D5" s="22" t="s">
         <v>604</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E5" s="22" t="s">
         <v>603</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F5" s="22" t="s">
         <v>604</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>473</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B7" s="35">
         <v>1</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C7" s="35" t="s">
         <v>473</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D7" s="35" t="s">
         <v>609</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E7" s="35" t="s">
         <v>608</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F7" s="35" t="s">
         <v>654</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>1205</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>1205</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>1206</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>1206</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>600</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B10" s="20">
         <v>2</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C10" s="20" t="s">
         <v>611</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D10" s="20" t="s">
         <v>661</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E10" s="20" t="s">
         <v>610</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F10" s="20" t="s">
         <v>655</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G10" s="20" t="s">
         <v>600</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="47" t="s">
-        <v>1211</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -8933,1858 +8959,1874 @@
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="47" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
         <v>1212</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="47" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>601</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>1207</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>601</v>
-      </c>
       <c r="I12" s="4" t="s">
-        <v>601</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
+        <v>601</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>601</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>602</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G14" s="20" t="s">
         <v>602</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
         <v>976</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G15" s="20" t="s">
         <v>976</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>977</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" s="11">
-        <v>3</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>613</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>656</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>1204</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>1203</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="11">
+        <v>3</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D17" s="11" t="s">
         <v>659</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G17" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B18" s="36">
         <v>4</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C18" s="36" t="s">
         <v>617</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D18" s="36" t="s">
         <v>660</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E18" s="36" t="s">
         <v>616</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F18" s="36" t="s">
         <v>657</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G18" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K18" t="s">
         <v>1208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="B18" s="38">
-        <v>5</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>618</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>660</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>619</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>658</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>174</v>
+        <v>167</v>
+      </c>
+      <c r="B19" s="38">
+        <v>5</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>618</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>660</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>619</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>658</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>174</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" s="47">
-        <v>6</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F20" s="47" t="s">
-        <v>1210</v>
+        <v>174</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>189</v>
+        <v>181</v>
+      </c>
+      <c r="B21" s="47">
+        <v>6</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>1210</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>606</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>196</v>
+        <v>606</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="G38" s="20" t="s">
+      <c r="G39" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="G39" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G40" s="36" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="36" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="36" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="36" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="36" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G45" s="36" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="36" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G46" s="36" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="36" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="36" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="36" t="s">
-        <v>298</v>
+        <v>212</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>298</v>
+        <v>212</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>298</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="36" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G51" s="36" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G52" s="36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G53" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G54" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G55" s="36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G56" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G57" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G58" s="36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G59" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G60" s="36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G61" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G62" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G63" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G64" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G65" s="36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G66" s="36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G67" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G68" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G69" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G70" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G71" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G72" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G73" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G74" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="36" t="s">
-        <v>217</v>
+        <v>324</v>
       </c>
       <c r="G75" s="36" t="s">
-        <v>217</v>
+        <v>324</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>217</v>
+        <v>324</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="G76" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="G76" s="36" t="s">
+      <c r="G77" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="I76" s="4" t="s">
+      <c r="I77" s="4" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="38" t="s">
-        <v>620</v>
-      </c>
-      <c r="G77" s="38" t="s">
-        <v>620</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="38" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G78" s="38" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G79" s="38" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="38" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G80" s="38" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G81" s="38" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="38" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G82" s="38" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G83" s="38" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G84" s="38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G85" s="38" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="38" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G86" s="38" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G87" s="38" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="38" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G88" s="38" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G89" s="38" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="38" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G90" s="38" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="38" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G91" s="38" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="38" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G92" s="38" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="38" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G93" s="38" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="38" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G94" s="38" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G95" s="38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="38" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G96" s="38" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="38" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G97" s="38" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="38" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G98" s="38" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="38" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G99" s="38" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="38" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G100" s="38" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="38" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G101" s="38" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="38" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G102" s="38" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="38" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G103" s="38" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="38" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G104" s="38" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="38" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G105" s="38" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="38" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G106" s="38" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="38" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G107" s="38" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="38" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G108" s="38" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="38" t="s">
-        <v>720</v>
+        <v>651</v>
       </c>
       <c r="G109" s="38" t="s">
-        <v>720</v>
+        <v>651</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>720</v>
+        <v>651</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="38" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G110" s="38" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="38" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G111" s="38" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="38" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G112" s="38" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="38" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G113" s="38" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="38" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G114" s="38" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="38" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G115" s="38" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="38" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G116" s="38" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="38" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G117" s="38" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="38" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G118" s="38" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="38" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G119" s="38" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="38" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G120" s="38" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="38" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G121" s="38" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="38" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G122" s="38" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="38" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G123" s="38" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="38" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G124" s="38" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="38" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G125" s="38" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="38" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G126" s="38" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="38" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G127" s="38" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="38" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G128" s="38" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="38" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G129" s="38" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="38" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G130" s="38" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="38" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G131" s="38" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="38" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G132" s="38" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="38" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G133" s="38" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="38" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G134" s="38" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G135" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="38" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G136" s="38" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G137" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="38" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G138" s="38" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="38" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G139" s="38" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="38" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G140" s="38" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="38" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G141" s="38" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G142" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G143" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G144" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I144" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="38" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G145" s="38" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="38" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G146" s="38" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="38" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G147" s="38" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="38" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G148" s="38" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="38" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G149" s="38" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="38" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G150" s="38" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="38" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G151" s="38" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I151" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="38" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G152" s="38" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="38" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G153" s="38" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="38" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G154" s="38" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="38" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G155" s="38" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I155" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="38" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G156" s="38" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G157" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="38" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G158" s="38" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I158" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="38" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G159" s="38" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="38" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G160" s="38" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="38" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G161" s="38" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="38" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G162" s="38" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="38" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G163" s="38" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="38" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G164" s="38" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="38" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G165" s="38" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="38" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G166" s="38" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="38" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G167" s="38" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G168" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="38" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G169" s="38" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="38" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G170" s="38" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G171" s="38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="38" t="s">
+        <v>782</v>
+      </c>
+      <c r="G172" s="38" t="s">
+        <v>782</v>
+      </c>
+      <c r="I172" s="4" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="38" t="s">
         <v>783</v>
       </c>
-      <c r="G172" s="38" t="s">
+      <c r="G173" s="38" t="s">
         <v>783</v>
       </c>
-      <c r="I172" s="4" t="s">
+      <c r="I173" s="4" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D173" t="s">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
         <v>653</v>
       </c>
     </row>

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="switch_models" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3949" uniqueCount="1819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3958" uniqueCount="1822">
   <si>
     <t>switchType</t>
   </si>
@@ -5116,24 +5116,15 @@
     <t>QLOGIC</t>
   </si>
   <si>
-    <t>SRV|MSL</t>
-  </si>
-  <si>
     <t>SRV|UNKNOWN</t>
   </si>
   <si>
-    <t>SRV|EVA</t>
-  </si>
-  <si>
     <t>SRV|MSA</t>
   </si>
   <si>
     <t>SRV|STORAGE|LIB</t>
   </si>
   <si>
-    <t>SRV|UNKNOWN|ESL</t>
-  </si>
-  <si>
     <t>SRV|UNKNOWN|MSL</t>
   </si>
   <si>
@@ -5164,9 +5155,6 @@
     <t>LIB CTRL</t>
   </si>
   <si>
-    <t>SRV|UNKNOWN|ESL&amp;MSL</t>
-  </si>
-  <si>
     <t>^portFcPortCmdShow --slot (\d{1,2}) (\d{1,2}) \d+ *:?$</t>
   </si>
   <si>
@@ -5504,6 +5492,27 @@
   </si>
   <si>
     <t>Server_Manufacturer</t>
+  </si>
+  <si>
+    <t>0e:80:13</t>
+  </si>
+  <si>
+    <t>18:81:08</t>
+  </si>
+  <si>
+    <t>00:10:9b</t>
+  </si>
+  <si>
+    <t>QLOGIC|MSL</t>
+  </si>
+  <si>
+    <t>QLOGIC|EVA</t>
+  </si>
+  <si>
+    <t>QLOGIC|UNKNOWN|ESL</t>
+  </si>
+  <si>
+    <t>QLOGIC|UNKNOWN|ESL&amp;MSL</t>
   </si>
 </sst>
 </file>
@@ -6125,8 +6134,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F69" sqref="B69:F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6206,7 +6215,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -6232,7 +6241,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -6258,7 +6267,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -6310,7 +6319,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -6362,7 +6371,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="E9" s="4">
         <v>2</v>
@@ -6388,7 +6397,7 @@
         <v>1167</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="E10" s="4">
         <v>2</v>
@@ -6414,7 +6423,7 @@
         <v>1160</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="E11" s="4">
         <v>2</v>
@@ -6440,7 +6449,7 @@
         <v>1158</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="E12" s="4">
         <v>2</v>
@@ -6518,7 +6527,7 @@
         <v>1169</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="E15" s="4">
         <v>2</v>
@@ -6544,7 +6553,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="E16" s="4">
         <v>2</v>
@@ -6570,7 +6579,7 @@
         <v>1159</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="E17" s="4">
         <v>2</v>
@@ -6596,7 +6605,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="E18" s="4">
         <v>2</v>
@@ -6622,7 +6631,7 @@
         <v>1151</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="E19" s="4">
         <v>4</v>
@@ -6648,7 +6657,7 @@
         <v>1163</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="E20" s="4">
         <v>4</v>
@@ -6700,7 +6709,7 @@
         <v>1162</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="E22" s="4">
         <v>4</v>
@@ -6726,7 +6735,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="E23" s="4">
         <v>4</v>
@@ -6752,7 +6761,7 @@
         <v>1173</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="E24" s="4">
         <v>2</v>
@@ -6830,7 +6839,7 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="E27" s="4">
         <v>4</v>
@@ -6856,7 +6865,7 @@
         <v>1165</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="E28" s="4">
         <v>4</v>
@@ -6882,7 +6891,7 @@
         <v>1166</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="E29" s="4">
         <v>4</v>
@@ -6908,7 +6917,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="E30" s="4">
         <v>4</v>
@@ -6934,7 +6943,7 @@
         <v>34</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="E31" s="4">
         <v>4</v>
@@ -6960,7 +6969,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="E32" s="4">
         <v>4</v>
@@ -6986,7 +6995,7 @@
         <v>4</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="E33" s="4">
         <v>4</v>
@@ -7012,7 +7021,7 @@
         <v>1164</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="E34" s="4">
         <v>4</v>
@@ -7038,7 +7047,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="E35" s="4">
         <v>4</v>
@@ -7064,7 +7073,7 @@
         <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="E36" s="4">
         <v>8</v>
@@ -7090,7 +7099,7 @@
         <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="E37" s="4">
         <v>8</v>
@@ -7116,7 +7125,7 @@
         <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="E38" s="4">
         <v>8</v>
@@ -7142,7 +7151,7 @@
         <v>1172</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="E39" s="4">
         <v>8</v>
@@ -7168,7 +7177,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="E40" s="4">
         <v>8</v>
@@ -7194,7 +7203,7 @@
         <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="E41" s="4">
         <v>8</v>
@@ -7220,7 +7229,7 @@
         <v>1170</v>
       </c>
       <c r="D42" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="E42" s="4">
         <v>8</v>
@@ -7246,7 +7255,7 @@
         <v>52</v>
       </c>
       <c r="D43" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="E43" s="4">
         <v>8</v>
@@ -7272,7 +7281,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="E44" s="4">
         <v>8</v>
@@ -7298,7 +7307,7 @@
         <v>4</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="E45" s="4">
         <v>8</v>
@@ -7324,7 +7333,7 @@
         <v>56</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="E46" s="4">
         <v>8</v>
@@ -7350,7 +7359,7 @@
         <v>59</v>
       </c>
       <c r="D47" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="E47" s="4">
         <v>8</v>
@@ -7376,7 +7385,7 @@
         <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="E48" s="4">
         <v>8</v>
@@ -7402,7 +7411,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="E49" s="4">
         <v>8</v>
@@ -7428,7 +7437,7 @@
         <v>4</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="E50" s="4">
         <v>8</v>
@@ -7480,7 +7489,7 @@
         <v>4</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="E52" s="4">
         <v>8</v>
@@ -7636,7 +7645,7 @@
         <v>72</v>
       </c>
       <c r="D58" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="E58" s="4">
         <v>16</v>
@@ -7688,7 +7697,7 @@
         <v>4</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="E60" s="4">
         <v>16</v>
@@ -7714,7 +7723,7 @@
         <v>76</v>
       </c>
       <c r="D61" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="E61" s="4">
         <v>16</v>
@@ -7740,7 +7749,7 @@
         <v>76</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="E62" s="4">
         <v>16</v>
@@ -7766,7 +7775,7 @@
         <v>78</v>
       </c>
       <c r="D63" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="E63" s="4">
         <v>16</v>
@@ -7792,7 +7801,7 @@
         <v>80</v>
       </c>
       <c r="D64" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="E64" s="4">
         <v>16</v>
@@ -7818,7 +7827,7 @@
         <v>4</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="E65" s="4">
         <v>8</v>
@@ -7844,7 +7853,7 @@
         <v>4</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="E66" s="4">
         <v>8</v>
@@ -7870,7 +7879,7 @@
         <v>1114</v>
       </c>
       <c r="D67" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="E67" s="4">
         <v>16</v>
@@ -7896,7 +7905,7 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="E68" s="4">
         <v>16</v>
@@ -7922,7 +7931,7 @@
         <v>86</v>
       </c>
       <c r="D69" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="E69" s="4">
         <v>16</v>
@@ -7948,7 +7957,7 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="E70" s="4">
         <v>8</v>
@@ -7974,7 +7983,7 @@
         <v>88</v>
       </c>
       <c r="D71" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="E71" s="4">
         <v>16</v>
@@ -8000,7 +8009,7 @@
         <v>1116</v>
       </c>
       <c r="D72" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="E72" s="4">
         <v>32</v>
@@ -8026,7 +8035,7 @@
         <v>1117</v>
       </c>
       <c r="D73" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="E73" s="4">
         <v>32</v>
@@ -8052,7 +8061,7 @@
         <v>1118</v>
       </c>
       <c r="D74" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="E74" s="4">
         <v>32</v>
@@ -8078,7 +8087,7 @@
         <v>1115</v>
       </c>
       <c r="D75" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="E75" s="4">
         <v>32</v>
@@ -8104,7 +8113,7 @@
         <v>1113</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="E76" s="4">
         <v>32</v>
@@ -10992,7 +11001,7 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+    <sheetView topLeftCell="D10" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -11045,61 +11054,61 @@
         <v>522</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="B4" s="43">
         <v>0</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -11107,105 +11116,105 @@
         <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="G6" s="43" t="s">
         <v>200</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="B10" s="58">
         <v>1</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="D10" s="58"/>
       <c r="E10" s="58" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="B14" s="45">
         <v>2</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="I14" s="57" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="I15" s="57" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="I16" s="57" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="I17" s="57" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -11213,7 +11222,7 @@
         <v>200</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>200</v>
@@ -11221,13 +11230,13 @@
     </row>
     <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="I19" s="57" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -11235,7 +11244,7 @@
         <v>195</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>195</v>
@@ -11243,13 +11252,13 @@
     </row>
     <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -11257,7 +11266,7 @@
         <v>220</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>220</v>
@@ -11268,68 +11277,68 @@
         <v>3</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D25" s="4" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="B26" s="39">
         <v>4</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
       <c r="D26" s="39"/>
       <c r="E26" s="39" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="L26" s="39" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="B27" s="27">
         <v>5</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="27" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="L27" s="27" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -11340,29 +11349,29 @@
         <v>195</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="L29" s="27" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="L30" s="27" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -11373,68 +11382,68 @@
         <v>200</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
       <c r="L32" s="27" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="L33" s="27" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
       <c r="B34" s="30">
         <v>6</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
       <c r="B35" s="32">
         <v>7</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
       <c r="D35" s="32"/>
       <c r="E35" s="32" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>569</v>
@@ -11442,20 +11451,20 @@
     </row>
     <row r="36" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
       <c r="B36" s="20">
         <v>8</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>1785</v>
+        <v>1781</v>
       </c>
       <c r="D36" s="20"/>
       <c r="E36" s="20" t="s">
-        <v>1784</v>
+        <v>1780</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -11463,31 +11472,31 @@
         <v>9</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="38" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
       <c r="B38" s="23">
         <v>10</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="23" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>1786</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -11496,20 +11505,20 @@
         <v>11</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="14" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D42" s="4" t="s">
-        <v>1793</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -15026,125 +15035,125 @@
         <v>664</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="B2" s="4">
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="B3" s="4">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="B4" s="4">
         <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="B5" s="57">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="B6" s="57">
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="B7" s="57">
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="B8" s="57">
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="B9" s="57">
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
     </row>
   </sheetData>
@@ -15155,10 +15164,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
-  <dimension ref="A1:D359"/>
+  <dimension ref="A1:N362"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F114" sqref="F114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15282,7 +15291,7 @@
         <v>1521</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="D10" s="4"/>
     </row>
@@ -15322,9 +15331,9 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>1529</v>
+    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>1816</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>1521</v>
@@ -15332,11 +15341,10 @@
       <c r="C14" s="4" t="s">
         <v>1530</v>
       </c>
-      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>1521</v>
@@ -15348,7 +15356,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>1521</v>
@@ -15360,67 +15368,66 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>1521</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>1521</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1686</v>
+        <v>1534</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1536</v>
+        <v>1521</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>1536</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>1539</v>
+    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>1817</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>1536</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1686</v>
-      </c>
-      <c r="D21" s="4"/>
+        <v>1687</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>1536</v>
@@ -15432,19 +15439,19 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>1536</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>1536</v>
@@ -15456,31 +15463,31 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>1536</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1536</v>
+        <v>1687</v>
       </c>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>1536</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1536</v>
+        <v>1688</v>
       </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>1536</v>
@@ -15492,19 +15499,19 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>1536</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1536</v>
+        <v>1688</v>
       </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>1536</v>
@@ -15516,7 +15523,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>1536</v>
@@ -15528,7 +15535,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>1536</v>
@@ -15540,7 +15547,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>1536</v>
@@ -15552,19 +15559,19 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>1536</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1536</v>
+        <v>1688</v>
       </c>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>1536</v>
@@ -15576,7 +15583,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>1536</v>
@@ -15588,43 +15595,43 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>1536</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1536</v>
+        <v>1688</v>
       </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>1536</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1536</v>
+        <v>1688</v>
       </c>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>1557</v>
+        <v>1536</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>1536</v>
@@ -15636,31 +15643,31 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>1536</v>
+        <v>1557</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1536</v>
+        <v>1818</v>
       </c>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>1536</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1536</v>
+        <v>1688</v>
       </c>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>1536</v>
@@ -15672,7 +15679,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>1536</v>
@@ -15684,19 +15691,19 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>1536</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>1683</v>
+        <v>1536</v>
       </c>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>1536</v>
@@ -15708,210 +15715,212 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>1536</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>1536</v>
+        <v>1683</v>
       </c>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>1662</v>
+        <v>1536</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>1686</v>
+        <v>1536</v>
       </c>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>1536</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>1688</v>
       </c>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>1569</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>1685</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>1675</v>
       </c>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>1570</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>1685</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>1675</v>
       </c>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>1572</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>1684</v>
-      </c>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>1576</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>1571</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>1571</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>1580</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>1579</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>1581</v>
-      </c>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>1701</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>1579</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>1582</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>1579</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>1573</v>
+        <v>1581</v>
       </c>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>1583</v>
+        <v>1698</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>1579</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>1573</v>
-      </c>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>1579</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>1579</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>1586</v>
+        <v>1573</v>
       </c>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>1579</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>1530</v>
+        <v>1575</v>
       </c>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>1579</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>1530</v>
+        <v>1586</v>
       </c>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>1579</v>
@@ -15921,9 +15930,9 @@
       </c>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>1579</v>
@@ -15935,7 +15944,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>1579</v>
@@ -15947,7 +15956,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>1579</v>
@@ -15959,7 +15968,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>1579</v>
@@ -15971,7 +15980,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>1579</v>
@@ -15983,7 +15992,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>1579</v>
@@ -15995,7 +16004,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>1579</v>
@@ -16007,7 +16016,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>1579</v>
@@ -16019,7 +16028,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>1579</v>
@@ -16031,7 +16040,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>1579</v>
@@ -16043,7 +16052,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>1579</v>
@@ -16055,7 +16064,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>1579</v>
@@ -16067,7 +16076,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>1579</v>
@@ -16079,7 +16088,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>1579</v>
@@ -16091,7 +16100,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>1579</v>
@@ -16103,7 +16112,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>1579</v>
@@ -16115,7 +16124,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>1579</v>
@@ -16127,7 +16136,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>1579</v>
@@ -16139,7 +16148,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>1579</v>
@@ -16151,7 +16160,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>1579</v>
@@ -16163,7 +16172,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>1579</v>
@@ -16175,7 +16184,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>1579</v>
@@ -16187,7 +16196,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>1579</v>
@@ -16199,7 +16208,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>1579</v>
@@ -16211,7 +16220,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>1579</v>
@@ -16223,7 +16232,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>1579</v>
@@ -16235,7 +16244,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>1579</v>
@@ -16247,7 +16256,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>1579</v>
@@ -16259,7 +16268,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>1579</v>
@@ -16271,7 +16280,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>1579</v>
@@ -16283,7 +16292,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>1579</v>
@@ -16295,7 +16304,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>1579</v>
@@ -16307,7 +16316,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>1579</v>
@@ -16319,7 +16328,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>1579</v>
@@ -16331,7 +16340,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>1579</v>
@@ -16343,7 +16352,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>1579</v>
@@ -16355,7 +16364,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>1579</v>
@@ -16367,7 +16376,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>1579</v>
@@ -16379,7 +16388,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>1579</v>
@@ -16391,7 +16400,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>1579</v>
@@ -16403,7 +16412,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>1579</v>
@@ -16415,7 +16424,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>1579</v>
@@ -16427,7 +16436,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>1579</v>
@@ -16439,7 +16448,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>1579</v>
@@ -16451,7 +16460,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>1579</v>
@@ -16463,31 +16472,31 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>1579</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>1575</v>
+        <v>1530</v>
       </c>
       <c r="D109" s="4"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>1579</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>1681</v>
+        <v>1530</v>
       </c>
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>1579</v>
@@ -16499,55 +16508,55 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>1579</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>1573</v>
+        <v>1681</v>
       </c>
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>1579</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="D113" s="4"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>1579</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>1641</v>
+        <v>1573</v>
       </c>
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>1579</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>1641</v>
+        <v>1573</v>
       </c>
       <c r="D115" s="4"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>1579</v>
@@ -16559,7 +16568,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>1579</v>
@@ -16571,79 +16580,78 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>1579</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>1674</v>
+        <v>1641</v>
       </c>
       <c r="D118" s="4"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>1579</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>1674</v>
+        <v>1641</v>
       </c>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>1647</v>
+        <v>1815</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>1579</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D120" s="4"/>
+        <v>1641</v>
+      </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>1579</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>1681</v>
+        <v>1674</v>
       </c>
       <c r="D121" s="4"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>1579</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>1681</v>
+        <v>1674</v>
       </c>
       <c r="D122" s="4"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>1579</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>1681</v>
+        <v>1578</v>
       </c>
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>1579</v>
@@ -16655,19 +16663,19 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>1579</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>1578</v>
+        <v>1681</v>
       </c>
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>1579</v>
@@ -16679,303 +16687,329 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>1579</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>1655</v>
+        <v>1681</v>
       </c>
       <c r="D127" s="4"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>1557</v>
+        <v>1579</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>1700</v>
+        <v>1578</v>
       </c>
       <c r="D128" s="4"/>
     </row>
-    <row r="129" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>1546</v>
+        <v>1653</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>1557</v>
+        <v>1579</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1681</v>
+      </c>
+      <c r="D129" s="4"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>1698</v>
+        <v>1654</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>1536</v>
+        <v>1579</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>1536</v>
-      </c>
+        <v>1655</v>
+      </c>
+      <c r="D130" s="4"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>1693</v>
+        <v>1557</v>
       </c>
       <c r="C131" s="4" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D131" s="4"/>
+    </row>
+    <row r="132" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
         <v>1695</v>
       </c>
-      <c r="D131" s="4"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>1658</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>1693</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>1694</v>
-      </c>
-      <c r="D132" s="4"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>1659</v>
-      </c>
       <c r="B133" s="4" t="s">
-        <v>1693</v>
+        <v>1536</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>1705</v>
-      </c>
-      <c r="D133" s="4"/>
+        <v>1536</v>
+      </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="D134" s="4"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>1703</v>
+        <v>1820</v>
       </c>
       <c r="D135" s="4"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>1662</v>
+        <v>1691</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>1733</v>
+        <v>1821</v>
       </c>
       <c r="D136" s="4"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>1662</v>
+        <v>1691</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>1731</v>
+        <v>1692</v>
       </c>
       <c r="D137" s="4"/>
     </row>
-    <row r="138" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="55" t="s">
-        <v>1682</v>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>1661</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>1662</v>
+        <v>1691</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="55" t="s">
-        <v>1732</v>
+        <v>1700</v>
+      </c>
+      <c r="D138" s="4"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>1663</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>1662</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>1731</v>
-      </c>
+        <v>1729</v>
+      </c>
+      <c r="D139" s="4"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>1521</v>
+        <v>1662</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>1666</v>
+        <v>1727</v>
       </c>
       <c r="D140" s="4"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>1667</v>
+    <row r="141" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="55" t="s">
+        <v>1682</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>1579</v>
+        <v>1662</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D141" s="4"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>1669</v>
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="55" t="s">
+        <v>1728</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>1579</v>
+        <v>1662</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D142" s="4"/>
+        <v>1727</v>
+      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>1525</v>
+        <v>1665</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>1521</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="D143" s="4"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>1678</v>
-      </c>
-      <c r="B144" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>1579</v>
       </c>
-      <c r="C144" t="s">
-        <v>1680</v>
+      <c r="C144" s="4" t="s">
+        <v>1668</v>
       </c>
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>1679</v>
+        <v>1669</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>1579</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>1680</v>
+        <v>1668</v>
       </c>
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B146" t="s">
-        <v>1536</v>
-      </c>
-      <c r="C146" t="s">
-        <v>1675</v>
-      </c>
+        <v>1525</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D146" s="4"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>1696</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>1536</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>1675</v>
-      </c>
+        <v>1678</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D147" s="4"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="55" t="s">
-        <v>1697</v>
+      <c r="A148" s="3" t="s">
+        <v>1679</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>1536</v>
+        <v>1579</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>1536</v>
-      </c>
+        <v>1680</v>
+      </c>
+      <c r="D148" s="4"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B149" s="4" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B149" t="s">
         <v>1536</v>
       </c>
-      <c r="C149" s="4" t="s">
-        <v>1536</v>
+      <c r="C149" t="s">
+        <v>1675</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>1522</v>
-      </c>
-      <c r="B150" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C150" t="s">
-        <v>1534</v>
+        <v>1693</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>1675</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
-        <v>1702</v>
+      <c r="A151" s="55" t="s">
+        <v>1694</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>1536</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="4" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C154" t="s">
         <v>1683</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B152" s="4"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B153" s="4"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B155" s="4"/>
@@ -16985,6 +17019,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B158" s="4"/>
@@ -17591,6 +17626,15 @@
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B359" s="4"/>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B360" s="4"/>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B361" s="4"/>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B362" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18188,7 +18232,7 @@
         <v>513</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="F35" s="30" t="s">
         <v>515</v>
@@ -19534,7 +19578,7 @@
         <v>570</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>570</v>
@@ -21565,8 +21609,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22688,7 +22732,7 @@
   <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M5"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7336" uniqueCount="2977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7344" uniqueCount="2981">
   <si>
     <t>switchType</t>
   </si>
@@ -8889,9 +8889,6 @@
     <t>08:29:13 up 3001 days, 10 min,  1 user,  load average: 1.25, 0.60, 0.22</t>
   </si>
   <si>
-    <t>^ *(?:[\d:]){8} +up +(\d+) +days, +(?:(?:\d+ +min)|[\d:]+), +\d+ +user, +load +average: +(?:[\d.]+, +){2}([\d.]+)$</t>
-  </si>
-  <si>
     <t>b8:85:84</t>
   </si>
   <si>
@@ -8983,6 +8980,21 @@
   </si>
   <si>
     <t>Recommended_FW</t>
+  </si>
+  <si>
+    <t>16:32:04 up 104 days, 21:28, 0 users, load average: 0.80, 0.20, 0.06</t>
+  </si>
+  <si>
+    <t>^ *(?:[\d:]){8} +up +(\d+) +days, +(?:(?:\d+ +min)|[\d:]+), +\d+ +users?, +load +average: +(?:[\d.]+, +){2}([\d.]+)$</t>
+  </si>
+  <si>
+    <t>^(snmp.(?:snmpv3TrapTarget|agtParty|accessList).\d.(?:trapTargetAddr|address)):((?:[0-9]{1,3}\.){3}[0-9]{1,3})$</t>
+  </si>
+  <si>
+    <t>snmp.agtParty.5.address:172.16.5.186</t>
+  </si>
+  <si>
+    <t>snmp.accessList.1.address:10.64.128.34</t>
   </si>
 </sst>
 </file>
@@ -11181,7 +11193,7 @@
         <v>1124</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>1101</v>
@@ -11233,7 +11245,7 @@
         <v>1123</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>4</v>
@@ -11259,7 +11271,7 @@
         <v>1122</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>1101</v>
@@ -11285,7 +11297,7 @@
         <v>1122</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>1101</v>
@@ -11311,7 +11323,7 @@
         <v>1133</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>1101</v>
@@ -11337,7 +11349,7 @@
         <v>1134</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>1101</v>
@@ -11415,7 +11427,7 @@
         <v>82</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>1101</v>
@@ -11441,7 +11453,7 @@
         <v>84</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>1101</v>
@@ -11467,7 +11479,7 @@
         <v>1121</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>1101</v>
@@ -11519,7 +11531,7 @@
         <v>89</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>1101</v>
@@ -11545,7 +11557,7 @@
         <v>1992</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>1101</v>
@@ -11571,7 +11583,7 @@
         <v>1166</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>1101</v>
@@ -11597,7 +11609,7 @@
         <v>1125</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>1101</v>
@@ -11623,7 +11635,7 @@
         <v>1126</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>1101</v>
@@ -11649,7 +11661,7 @@
         <v>1167</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>1101</v>
@@ -11675,7 +11687,7 @@
         <v>1168</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>1101</v>
@@ -12720,7 +12732,7 @@
       </c>
       <c r="F3" s="59"/>
       <c r="G3" s="59" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="H3" s="59" t="s">
         <v>1802</v>
@@ -13227,7 +13239,7 @@
         <v>1852</v>
       </c>
       <c r="G62" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="H62" t="s">
         <v>1850</v>
@@ -13240,7 +13252,7 @@
     </row>
     <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H64" s="4" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -17338,7 +17350,7 @@
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="23" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>1765</v>
@@ -17346,12 +17358,12 @@
     </row>
     <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F40" s="23" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="41" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F41" s="23" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -17420,7 +17432,7 @@
         <v>2931</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="F48" s="32" t="s">
         <v>2933</v>
@@ -17437,7 +17449,7 @@
         <v>2932</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="N49" s="32" t="s">
         <v>2936</v>
@@ -17472,14 +17484,14 @@
         <v>15</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="20" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -17510,7 +17522,7 @@
   <dimension ref="A1:AV103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17678,7 +17690,7 @@
         <v>1784</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1169</v>
@@ -17794,7 +17806,7 @@
         <v>1783</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1170</v>
@@ -17910,7 +17922,7 @@
         <v>1926</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>509</v>
@@ -18026,7 +18038,7 @@
         <v>1775</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>300</v>
@@ -18142,7 +18154,7 @@
         <v>2943</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>264</v>
@@ -18259,7 +18271,7 @@
         <v>1776</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>107</v>
@@ -18492,7 +18504,7 @@
         <v>1778</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>0</v>
@@ -18593,7 +18605,7 @@
         <v>2942</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>1389</v>
@@ -18705,7 +18717,7 @@
         <v>1779</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>1390</v>
@@ -18814,7 +18826,7 @@
         <v>1782</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>1</v>
@@ -19024,7 +19036,7 @@
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>1338</v>
@@ -19127,6 +19139,18 @@
       <c r="AR14" s="4"/>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>1951</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>1957</v>
+      </c>
       <c r="G15" t="s">
         <v>315</v>
       </c>
@@ -34127,7 +34151,7 @@
     </row>
     <row r="133" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>1680</v>
@@ -34490,7 +34514,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="B165" t="s">
         <v>1525</v>
@@ -34501,7 +34525,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="B166" t="s">
         <v>1665</v>
@@ -34512,29 +34536,29 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>1525</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>1525</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>1665</v>
@@ -34545,7 +34569,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="B170" t="s">
         <v>1568</v>
@@ -34568,10 +34592,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34588,7 +34612,7 @@
     <col min="10" max="10" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>363</v>
       </c>
@@ -34620,7 +34644,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>94</v>
       </c>
@@ -34640,7 +34664,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>96</v>
       </c>
@@ -34654,7 +34678,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>97</v>
       </c>
@@ -34679,7 +34703,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>107</v>
       </c>
@@ -34696,7 +34720,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>95</v>
       </c>
@@ -34711,7 +34735,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="G7" s="7" t="s">
         <v>2940</v>
@@ -34724,7 +34748,7 @@
       </c>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>98</v>
       </c>
@@ -34739,7 +34763,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>101</v>
       </c>
@@ -34751,7 +34775,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>102</v>
       </c>
@@ -34763,7 +34787,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>103</v>
       </c>
@@ -34775,7 +34799,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>104</v>
       </c>
@@ -34787,7 +34811,7 @@
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="13" t="s">
-        <v>357</v>
+        <v>2978</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>340</v>
@@ -34801,409 +34825,454 @@
       <c r="I12" s="5" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="K12" s="49" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5"/>
+      <c r="K13" s="49"/>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12" t="s">
+        <v>2980</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5"/>
+      <c r="K14" s="49"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B15" s="14">
         <v>2</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C15" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F15" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I15" s="8" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="3" t="s">
+      <c r="H16" s="4"/>
+      <c r="I16" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B17" s="11">
         <v>3</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C17" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F17" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G18" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>1376</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>111</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>1376</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G21" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>1093</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>1093</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="G22" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3" t="s">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G25" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3" t="s">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G26" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="3" t="s">
+      <c r="H26" s="4"/>
+      <c r="I26" s="3" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D29" s="9" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" s="16">
-        <v>4</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>2945</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="K28" s="16" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="F29" s="16" t="s">
-        <v>2944</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>333</v>
+        <v>117</v>
+      </c>
+      <c r="B30" s="16">
+        <v>4</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>353</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>2977</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>343</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>333</v>
+        <v>117</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>333</v>
+        <v>117</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="B31" s="18">
-        <v>5</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>336</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16" t="s">
+        <v>2976</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="3"/>
+      <c r="K31" s="16"/>
     </row>
     <row r="32" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="F32" s="16" t="s">
+        <v>2944</v>
+      </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B34" s="18">
+        <v>5</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B36" s="20">
         <v>6</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C36" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D36" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E36" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F36" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G36" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H36" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20" t="s">
+    <row r="37" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20" t="s">
         <v>454</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
         <v>430</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B38" s="28">
         <v>7</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C38" s="28" t="s">
         <v>430</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D38" s="28" t="s">
         <v>455</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E38" s="28" t="s">
         <v>429</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="F38" s="28" t="s">
         <v>431</v>
       </c>
-      <c r="G35" s="28" t="s">
+      <c r="G38" s="28" t="s">
         <v>432</v>
       </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8" t="s">
+      <c r="H38" s="8"/>
+      <c r="I38" s="8" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D36" s="28" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="28" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
         <v>511</v>
       </c>
-      <c r="B37" s="30">
+      <c r="B40" s="30">
         <v>8</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C40" s="30" t="s">
         <v>512</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D40" s="30" t="s">
         <v>513</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E40" s="30" t="s">
         <v>1713</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F40" s="30" t="s">
         <v>515</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I40" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="J40" s="4" t="s">
         <v>2913</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D38" s="30" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D41" s="30" t="s">
         <v>514</v>
       </c>
     </row>
@@ -35217,8 +35286,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView topLeftCell="G25" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49:I49"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" firstSheet="10" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" firstSheet="7" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="switch_models" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7344" uniqueCount="2981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7382" uniqueCount="2984">
   <si>
     <t>switchType</t>
   </si>
@@ -8995,6 +8995,15 @@
   </si>
   <si>
     <t>snmp.accessList.1.address:10.64.128.34</t>
+  </si>
+  <si>
+    <t>NPIV_eng</t>
+  </si>
+  <si>
+    <t>NPIV_ru</t>
+  </si>
+  <si>
+    <t>Connected_NPIV</t>
   </si>
 </sst>
 </file>
@@ -17519,10 +17528,10 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:AV103"/>
+  <dimension ref="A1:AX103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AH22" sqref="AH22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17557,18 +17566,19 @@
     <col min="29" max="30" width="23.140625" customWidth="1"/>
     <col min="31" max="31" width="20.85546875" customWidth="1"/>
     <col min="32" max="32" width="33.42578125" customWidth="1"/>
-    <col min="33" max="33" width="29" customWidth="1"/>
-    <col min="34" max="34" width="33.85546875" customWidth="1"/>
-    <col min="35" max="35" width="30.140625" customWidth="1"/>
-    <col min="36" max="36" width="34" customWidth="1"/>
-    <col min="37" max="37" width="32.28515625" customWidth="1"/>
-    <col min="38" max="38" width="32" customWidth="1"/>
-    <col min="39" max="39" width="22.28515625" customWidth="1"/>
-    <col min="40" max="40" width="24.42578125" customWidth="1"/>
-    <col min="41" max="41" width="12.7109375" customWidth="1"/>
+    <col min="33" max="34" width="33.140625" style="4" customWidth="1"/>
+    <col min="35" max="35" width="29" customWidth="1"/>
+    <col min="36" max="36" width="33.85546875" customWidth="1"/>
+    <col min="37" max="37" width="30.140625" customWidth="1"/>
+    <col min="38" max="38" width="34" customWidth="1"/>
+    <col min="39" max="39" width="32.28515625" customWidth="1"/>
+    <col min="40" max="40" width="32" customWidth="1"/>
+    <col min="41" max="41" width="22.28515625" customWidth="1"/>
+    <col min="42" max="42" width="24.42578125" customWidth="1"/>
+    <col min="43" max="43" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
         <v>1947</v>
       </c>
@@ -17660,32 +17670,38 @@
       <c r="AF1" s="24" t="s">
         <v>1942</v>
       </c>
-      <c r="AG1" s="62" t="s">
+      <c r="AG1" s="14" t="s">
+        <v>2981</v>
+      </c>
+      <c r="AH1" s="14" t="s">
+        <v>2982</v>
+      </c>
+      <c r="AI1" s="62" t="s">
         <v>1933</v>
       </c>
-      <c r="AH1" s="62" t="s">
+      <c r="AJ1" s="62" t="s">
         <v>1943</v>
       </c>
-      <c r="AI1" s="63" t="s">
+      <c r="AK1" s="63" t="s">
         <v>1934</v>
       </c>
-      <c r="AJ1" s="63" t="s">
+      <c r="AL1" s="63" t="s">
         <v>1944</v>
       </c>
-      <c r="AK1" s="44" t="s">
+      <c r="AM1" s="44" t="s">
         <v>1935</v>
       </c>
-      <c r="AL1" s="44" t="s">
+      <c r="AN1" s="44" t="s">
         <v>1945</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AO1" s="12" t="s">
         <v>1936</v>
       </c>
-      <c r="AN1" s="12" t="s">
+      <c r="AP1" s="12" t="s">
         <v>1946</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1784</v>
       </c>
@@ -17776,10 +17792,10 @@
       <c r="AF2" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AG2" t="s">
         <v>1169</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AH2" s="50" t="s">
         <v>1325</v>
       </c>
       <c r="AI2" s="4" t="s">
@@ -17797,11 +17813,17 @@
       <c r="AM2" s="4" t="s">
         <v>1169</v>
       </c>
-      <c r="AN2" s="50" t="s">
+      <c r="AN2" s="4" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO2" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AP2" s="50" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1783</v>
       </c>
@@ -17892,10 +17914,10 @@
       <c r="AF3" s="3" t="s">
         <v>1937</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AG3" t="s">
         <v>1170</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AH3" s="51" t="s">
         <v>1326</v>
       </c>
       <c r="AI3" s="4" t="s">
@@ -17913,11 +17935,17 @@
       <c r="AM3" s="4" t="s">
         <v>1170</v>
       </c>
-      <c r="AN3" s="51" t="s">
+      <c r="AN3" s="4" t="s">
         <v>1326</v>
       </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO3" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AP3" s="51" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1926</v>
       </c>
@@ -18008,10 +18036,10 @@
       <c r="AF4" s="3" t="s">
         <v>1938</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AG4" t="s">
         <v>1952</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AH4" s="3" t="s">
         <v>1937</v>
       </c>
       <c r="AI4" s="4" t="s">
@@ -18032,8 +18060,14 @@
       <c r="AN4" s="4" t="s">
         <v>1937</v>
       </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO4" s="4" t="s">
+        <v>1952</v>
+      </c>
+      <c r="AP4" s="4" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1775</v>
       </c>
@@ -18124,11 +18158,11 @@
       <c r="AF5" s="3" t="s">
         <v>1956</v>
       </c>
-      <c r="AG5" s="3" t="s">
-        <v>2911</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>2912</v>
+      <c r="AG5" t="s">
+        <v>1949</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>2910</v>
       </c>
       <c r="AI5" s="3" t="s">
         <v>2911</v>
@@ -18136,20 +18170,26 @@
       <c r="AJ5" s="3" t="s">
         <v>2912</v>
       </c>
-      <c r="AK5" s="4" t="s">
+      <c r="AK5" s="3" t="s">
+        <v>2911</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>2912</v>
+      </c>
+      <c r="AM5" s="4" t="s">
         <v>1085</v>
       </c>
-      <c r="AL5" s="4" t="s">
+      <c r="AN5" s="4" t="s">
         <v>1968</v>
       </c>
-      <c r="AM5" s="4" t="s">
+      <c r="AO5" s="4" t="s">
         <v>1913</v>
       </c>
-      <c r="AN5" s="4" t="s">
+      <c r="AP5" s="4" t="s">
         <v>1939</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2943</v>
       </c>
@@ -18240,11 +18280,11 @@
       <c r="AF6" s="3" t="s">
         <v>1329</v>
       </c>
-      <c r="AG6" s="4" t="s">
-        <v>1949</v>
+      <c r="AG6" t="s">
+        <v>1085</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>2910</v>
+        <v>1968</v>
       </c>
       <c r="AI6" s="4" t="s">
         <v>1949</v>
@@ -18253,10 +18293,10 @@
         <v>2910</v>
       </c>
       <c r="AK6" s="4" t="s">
-        <v>1490</v>
+        <v>1949</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>1967</v>
+        <v>2910</v>
       </c>
       <c r="AM6" s="4" t="s">
         <v>1490</v>
@@ -18264,9 +18304,15 @@
       <c r="AN6" s="4" t="s">
         <v>1967</v>
       </c>
-      <c r="AR6" s="4"/>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO6" s="4" t="s">
+        <v>1490</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>1967</v>
+      </c>
+      <c r="AT6" s="4"/>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1776</v>
       </c>
@@ -18357,11 +18403,11 @@
       <c r="AF7" s="3" t="s">
         <v>1960</v>
       </c>
-      <c r="AG7" s="4" t="s">
-        <v>1085</v>
+      <c r="AG7" t="s">
+        <v>1490</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="AI7" s="4" t="s">
         <v>1085</v>
@@ -18370,19 +18416,25 @@
         <v>1968</v>
       </c>
       <c r="AK7" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>1968</v>
+      </c>
+      <c r="AM7" s="4" t="s">
         <v>1050</v>
       </c>
-      <c r="AL7" s="4" t="s">
+      <c r="AN7" s="4" t="s">
         <v>1969</v>
       </c>
-      <c r="AM7" s="4" t="s">
+      <c r="AO7" s="4" t="s">
         <v>1798</v>
       </c>
-      <c r="AN7" s="4" t="s">
+      <c r="AP7" s="4" t="s">
         <v>1938</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>1777</v>
       </c>
@@ -18474,10 +18526,10 @@
         <v>1939</v>
       </c>
       <c r="AG8" s="4" t="s">
-        <v>1490</v>
+        <v>509</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>1967</v>
+        <v>1327</v>
       </c>
       <c r="AI8" s="4" t="s">
         <v>1490</v>
@@ -18486,20 +18538,26 @@
         <v>1967</v>
       </c>
       <c r="AK8" s="4" t="s">
+        <v>1490</v>
+      </c>
+      <c r="AL8" s="4" t="s">
+        <v>1967</v>
+      </c>
+      <c r="AM8" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="AL8" s="4" t="s">
+      <c r="AN8" s="4" t="s">
         <v>1327</v>
       </c>
-      <c r="AM8" s="4" t="s">
+      <c r="AO8" s="4" t="s">
         <v>1797</v>
       </c>
-      <c r="AN8" s="4" t="s">
+      <c r="AP8" s="4" t="s">
         <v>1956</v>
       </c>
-      <c r="AR8" s="4"/>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT8" s="4"/>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>1778</v>
       </c>
@@ -18574,11 +18632,11 @@
       <c r="AF9" s="3" t="s">
         <v>1957</v>
       </c>
-      <c r="AG9" s="4" t="s">
-        <v>1050</v>
+      <c r="AG9" t="s">
+        <v>120</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>1969</v>
+        <v>1328</v>
       </c>
       <c r="AI9" s="4" t="s">
         <v>1050</v>
@@ -18587,20 +18645,26 @@
         <v>1969</v>
       </c>
       <c r="AK9" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AL9" s="4" t="s">
+        <v>1969</v>
+      </c>
+      <c r="AM9" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="AL9" s="3" t="s">
+      <c r="AN9" s="3" t="s">
         <v>1971</v>
       </c>
-      <c r="AM9" s="4" t="s">
+      <c r="AO9" s="4" t="s">
         <v>1793</v>
       </c>
-      <c r="AN9" s="4" t="s">
+      <c r="AP9" s="4" t="s">
         <v>1171</v>
       </c>
-      <c r="AR9" s="4"/>
-    </row>
-    <row r="10" spans="1:44" ht="30" x14ac:dyDescent="0.25">
+      <c r="AT9" s="4"/>
+    </row>
+    <row r="10" spans="1:46" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>2942</v>
       </c>
@@ -18686,11 +18750,11 @@
       <c r="AF10" s="3" t="s">
         <v>1940</v>
       </c>
-      <c r="AG10" s="4" t="s">
-        <v>509</v>
+      <c r="AG10" t="s">
+        <v>1378</v>
       </c>
       <c r="AH10" s="4" t="s">
-        <v>1327</v>
+        <v>1441</v>
       </c>
       <c r="AI10" s="4" t="s">
         <v>509</v>
@@ -18699,20 +18763,26 @@
         <v>1327</v>
       </c>
       <c r="AK10" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="AL10" s="4" t="s">
+        <v>1327</v>
+      </c>
+      <c r="AM10" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AL10" s="4" t="s">
+      <c r="AN10" s="4" t="s">
         <v>1328</v>
       </c>
-      <c r="AM10" s="4" t="s">
+      <c r="AO10" s="4" t="s">
         <v>1801</v>
       </c>
-      <c r="AN10" s="4" t="s">
+      <c r="AP10" s="4" t="s">
         <v>1337</v>
       </c>
-      <c r="AR10" s="4"/>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT10" s="4"/>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1779</v>
       </c>
@@ -18795,11 +18865,11 @@
       <c r="AF11" s="3" t="s">
         <v>1958</v>
       </c>
-      <c r="AG11" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH11" s="3" t="s">
-        <v>1971</v>
+      <c r="AG11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH11" s="4" t="s">
+        <v>1442</v>
       </c>
       <c r="AI11" s="4" t="s">
         <v>164</v>
@@ -18808,20 +18878,26 @@
         <v>1971</v>
       </c>
       <c r="AK11" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL11" s="3" t="s">
+        <v>1971</v>
+      </c>
+      <c r="AM11" s="4" t="s">
         <v>1378</v>
       </c>
-      <c r="AL11" s="4" t="s">
+      <c r="AN11" s="4" t="s">
         <v>1441</v>
       </c>
-      <c r="AM11" s="4" t="s">
+      <c r="AO11" s="4" t="s">
         <v>1799</v>
       </c>
-      <c r="AN11" s="4" t="s">
+      <c r="AP11" s="4" t="s">
         <v>1965</v>
       </c>
-      <c r="AR11" s="4"/>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT11" s="4"/>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>1782</v>
       </c>
@@ -18904,11 +18980,11 @@
       <c r="AF12" s="3" t="s">
         <v>1959</v>
       </c>
-      <c r="AG12" s="4" t="s">
-        <v>120</v>
+      <c r="AG12" t="s">
+        <v>139</v>
       </c>
       <c r="AH12" s="4" t="s">
-        <v>1328</v>
+        <v>1443</v>
       </c>
       <c r="AI12" s="4" t="s">
         <v>120</v>
@@ -18917,20 +18993,26 @@
         <v>1328</v>
       </c>
       <c r="AK12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL12" s="4" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AM12" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AL12" s="4" t="s">
+      <c r="AN12" s="4" t="s">
         <v>1442</v>
       </c>
-      <c r="AM12" s="4" t="s">
+      <c r="AO12" s="4" t="s">
         <v>1500</v>
       </c>
-      <c r="AN12" s="4" t="s">
+      <c r="AP12" s="4" t="s">
         <v>1501</v>
       </c>
-      <c r="AR12" s="4"/>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT12" s="4"/>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>1500</v>
       </c>
@@ -19009,10 +19091,10 @@
       </c>
       <c r="AE13" s="4"/>
       <c r="AG13" s="4" t="s">
-        <v>1378</v>
+        <v>166</v>
       </c>
       <c r="AH13" s="4" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="AI13" s="4" t="s">
         <v>1378</v>
@@ -19021,20 +19103,26 @@
         <v>1441</v>
       </c>
       <c r="AK13" s="4" t="s">
+        <v>1378</v>
+      </c>
+      <c r="AL13" s="4" t="s">
+        <v>1441</v>
+      </c>
+      <c r="AM13" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AL13" s="4" t="s">
+      <c r="AN13" s="4" t="s">
         <v>1443</v>
       </c>
-      <c r="AM13" s="4" t="s">
+      <c r="AO13" s="4" t="s">
         <v>1963</v>
       </c>
-      <c r="AN13" s="4" t="s">
+      <c r="AP13" s="4" t="s">
         <v>1338</v>
       </c>
-      <c r="AR13" s="4"/>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT13" s="4"/>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2975</v>
       </c>
@@ -19113,10 +19201,10 @@
       </c>
       <c r="AE14" s="4"/>
       <c r="AG14" s="4" t="s">
-        <v>134</v>
+        <v>568</v>
       </c>
       <c r="AH14" s="4" t="s">
-        <v>1442</v>
+        <v>1970</v>
       </c>
       <c r="AI14" s="4" t="s">
         <v>134</v>
@@ -19125,20 +19213,26 @@
         <v>1442</v>
       </c>
       <c r="AK14" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL14" s="4" t="s">
+        <v>1442</v>
+      </c>
+      <c r="AM14" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="AL14" s="4" t="s">
+      <c r="AN14" s="4" t="s">
         <v>1444</v>
       </c>
-      <c r="AM14" s="3" t="s">
+      <c r="AO14" s="3" t="s">
         <v>1966</v>
       </c>
-      <c r="AN14" s="4" t="s">
+      <c r="AP14" s="4" t="s">
         <v>1964</v>
       </c>
-      <c r="AR14" s="4"/>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT14" s="4"/>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>1951</v>
       </c>
@@ -19210,11 +19304,11 @@
         <v>1958</v>
       </c>
       <c r="AE15" s="4"/>
-      <c r="AG15" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH15" s="4" t="s">
-        <v>1443</v>
+      <c r="AG15" t="s">
+        <v>1924</v>
+      </c>
+      <c r="AH15" s="3" t="s">
+        <v>1956</v>
       </c>
       <c r="AI15" s="4" t="s">
         <v>139</v>
@@ -19223,20 +19317,26 @@
         <v>1443</v>
       </c>
       <c r="AK15" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL15" s="4" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AM15" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="AL15" s="4" t="s">
+      <c r="AN15" s="4" t="s">
         <v>1970</v>
       </c>
-      <c r="AM15" s="3" t="s">
+      <c r="AO15" s="3" t="s">
         <v>1951</v>
       </c>
-      <c r="AN15" s="4" t="s">
+      <c r="AP15" s="4" t="s">
         <v>1957</v>
       </c>
-      <c r="AR15" s="4"/>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT15" s="4"/>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>316</v>
       </c>
@@ -19290,11 +19390,11 @@
         <v>1959</v>
       </c>
       <c r="AE16" s="4"/>
-      <c r="AG16" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="AH16" s="4" t="s">
-        <v>1444</v>
+      <c r="AG16" t="s">
+        <v>1951</v>
+      </c>
+      <c r="AH16" s="3" t="s">
+        <v>1957</v>
       </c>
       <c r="AI16" s="4" t="s">
         <v>166</v>
@@ -19303,20 +19403,26 @@
         <v>1444</v>
       </c>
       <c r="AK16" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL16" s="4" t="s">
+        <v>1444</v>
+      </c>
+      <c r="AM16" s="4" t="s">
         <v>1953</v>
       </c>
-      <c r="AL16" s="4" t="s">
+      <c r="AN16" s="4" t="s">
         <v>1974</v>
       </c>
-      <c r="AM16" s="3" t="s">
+      <c r="AO16" s="3" t="s">
         <v>1954</v>
       </c>
-      <c r="AN16" s="4" t="s">
+      <c r="AP16" s="4" t="s">
         <v>1958</v>
       </c>
-      <c r="AR16" s="4"/>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AT16" s="4"/>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>317</v>
       </c>
@@ -19358,11 +19464,11 @@
         <v>832</v>
       </c>
       <c r="AD17" s="4"/>
-      <c r="AG17" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="AH17" s="4" t="s">
-        <v>1970</v>
+      <c r="AG17" t="s">
+        <v>1954</v>
+      </c>
+      <c r="AH17" s="3" t="s">
+        <v>1958</v>
       </c>
       <c r="AI17" s="4" t="s">
         <v>568</v>
@@ -19371,19 +19477,25 @@
         <v>1970</v>
       </c>
       <c r="AK17" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="AL17" s="4" t="s">
+        <v>1970</v>
+      </c>
+      <c r="AM17" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="AL17" s="4" t="s">
+      <c r="AN17" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="AM17" s="3" t="s">
+      <c r="AO17" s="3" t="s">
         <v>1955</v>
       </c>
-      <c r="AN17" s="4" t="s">
+      <c r="AP17" s="4" t="s">
         <v>1959</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
         <v>318</v>
       </c>
@@ -19425,11 +19537,11 @@
         <v>1085</v>
       </c>
       <c r="AD18" s="48"/>
-      <c r="AG18" s="4" t="s">
-        <v>1953</v>
-      </c>
-      <c r="AH18" s="4" t="s">
-        <v>1974</v>
+      <c r="AG18" t="s">
+        <v>1955</v>
+      </c>
+      <c r="AH18" s="3" t="s">
+        <v>1959</v>
       </c>
       <c r="AI18" s="4" t="s">
         <v>1953</v>
@@ -19438,14 +19550,20 @@
         <v>1974</v>
       </c>
       <c r="AK18" s="4" t="s">
+        <v>1953</v>
+      </c>
+      <c r="AL18" s="4" t="s">
+        <v>1974</v>
+      </c>
+      <c r="AM18" s="4" t="s">
         <v>1015</v>
       </c>
-      <c r="AL18" s="4" t="s">
+      <c r="AN18" s="4" t="s">
         <v>1972</v>
       </c>
-      <c r="AM18" s="50"/>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO18" s="50"/>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>319</v>
       </c>
@@ -19487,10 +19605,10 @@
         <v>841</v>
       </c>
       <c r="AG19" s="4" t="s">
-        <v>841</v>
+        <v>2983</v>
       </c>
       <c r="AH19" s="4" t="s">
-        <v>841</v>
+        <v>2983</v>
       </c>
       <c r="AI19" s="4" t="s">
         <v>841</v>
@@ -19499,14 +19617,20 @@
         <v>841</v>
       </c>
       <c r="AK19" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="AL19" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="AM19" s="4" t="s">
         <v>850</v>
       </c>
-      <c r="AL19" s="4" t="s">
+      <c r="AN19" s="4" t="s">
         <v>1973</v>
       </c>
-      <c r="AM19" s="51"/>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO19" s="51"/>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
         <v>320</v>
       </c>
@@ -19541,12 +19665,6 @@
       <c r="V20" s="56" t="s">
         <v>1015</v>
       </c>
-      <c r="AG20" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="AH20" s="4" t="s">
-        <v>1972</v>
-      </c>
       <c r="AI20" s="4" t="s">
         <v>1015</v>
       </c>
@@ -19554,13 +19672,19 @@
         <v>1972</v>
       </c>
       <c r="AK20" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AL20" s="4" t="s">
+        <v>1972</v>
+      </c>
+      <c r="AM20" s="4" t="s">
         <v>1017</v>
       </c>
-      <c r="AL20" s="4" t="s">
+      <c r="AN20" s="4" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
         <v>321</v>
       </c>
@@ -19595,26 +19719,26 @@
       <c r="V21" s="56" t="s">
         <v>850</v>
       </c>
-      <c r="AG21" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="AH21" s="4" t="s">
-        <v>1973</v>
-      </c>
       <c r="AI21" s="4" t="s">
         <v>850</v>
       </c>
       <c r="AJ21" s="4" t="s">
         <v>1973</v>
       </c>
-      <c r="AK21" s="3" t="s">
+      <c r="AK21" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="AL21" s="4" t="s">
+        <v>1973</v>
+      </c>
+      <c r="AM21" s="3" t="s">
         <v>1951</v>
       </c>
-      <c r="AL21" s="4" t="s">
+      <c r="AN21" s="4" t="s">
         <v>1957</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
         <v>322</v>
       </c>
@@ -19649,26 +19773,26 @@
       <c r="V22" s="56" t="s">
         <v>1017</v>
       </c>
-      <c r="AG22" s="4" t="s">
-        <v>1017</v>
-      </c>
-      <c r="AH22" s="4" t="s">
-        <v>1017</v>
-      </c>
       <c r="AI22" s="4" t="s">
         <v>1017</v>
       </c>
       <c r="AJ22" s="4" t="s">
         <v>1017</v>
       </c>
-      <c r="AK22" s="3" t="s">
+      <c r="AK22" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AL22" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AM22" s="3" t="s">
         <v>1954</v>
       </c>
-      <c r="AL22" s="4" t="s">
+      <c r="AN22" s="4" t="s">
         <v>1958</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
         <v>323</v>
       </c>
@@ -19703,12 +19827,6 @@
       <c r="V23" s="56" t="s">
         <v>1923</v>
       </c>
-      <c r="AG23" s="3" t="s">
-        <v>1951</v>
-      </c>
-      <c r="AH23" s="4" t="s">
-        <v>1957</v>
-      </c>
       <c r="AI23" s="3" t="s">
         <v>1951</v>
       </c>
@@ -19716,13 +19834,20 @@
         <v>1957</v>
       </c>
       <c r="AK23" s="3" t="s">
+        <v>1951</v>
+      </c>
+      <c r="AL23" s="4" t="s">
+        <v>1957</v>
+      </c>
+      <c r="AM23" s="3" t="s">
         <v>1955</v>
       </c>
-      <c r="AL23" s="4" t="s">
+      <c r="AN23" s="4" t="s">
         <v>1959</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F24" s="3"/>
       <c r="I24" s="4" t="s">
         <v>247</v>
       </c>
@@ -19757,20 +19882,21 @@
       <c r="AB24" s="4"/>
       <c r="AE24" s="4"/>
       <c r="AF24" s="48"/>
-      <c r="AG24" s="3" t="s">
-        <v>1954</v>
-      </c>
-      <c r="AH24" s="4" t="s">
-        <v>1958</v>
-      </c>
       <c r="AI24" s="3" t="s">
         <v>1954</v>
       </c>
       <c r="AJ24" s="4" t="s">
         <v>1958</v>
       </c>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AK24" s="3" t="s">
+        <v>1954</v>
+      </c>
+      <c r="AL24" s="4" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F25" s="3"/>
       <c r="I25" s="4" t="s">
         <v>240</v>
       </c>
@@ -19798,20 +19924,21 @@
       </c>
       <c r="AC25" s="4"/>
       <c r="AF25" s="48"/>
-      <c r="AG25" s="3" t="s">
-        <v>1955</v>
-      </c>
-      <c r="AH25" s="4" t="s">
-        <v>1959</v>
-      </c>
       <c r="AI25" s="3" t="s">
         <v>1955</v>
       </c>
       <c r="AJ25" s="4" t="s">
         <v>1959</v>
       </c>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AK25" s="3" t="s">
+        <v>1955</v>
+      </c>
+      <c r="AL25" s="4" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F26" s="3"/>
       <c r="I26" s="4" t="s">
         <v>251</v>
       </c>
@@ -19843,12 +19970,14 @@
       <c r="AB26" s="4"/>
       <c r="AE26" s="4"/>
       <c r="AF26" s="48"/>
-      <c r="AH26" s="4"/>
-      <c r="AI26" s="4"/>
       <c r="AJ26" s="4"/>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="4"/>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
       <c r="I27" s="4" t="s">
         <v>484</v>
       </c>
@@ -19877,12 +20006,14 @@
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
       <c r="AF27" s="48"/>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="4"/>
       <c r="AJ27" s="4"/>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
       <c r="I28" s="4" t="s">
         <v>329</v>
       </c>
@@ -19910,12 +20041,14 @@
         <v>1950</v>
       </c>
       <c r="AF28" s="48"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
       <c r="AI28" s="4"/>
       <c r="AJ28" s="4"/>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
       <c r="I29" s="4" t="s">
         <v>99</v>
       </c>
@@ -19943,12 +20076,14 @@
         <v>1951</v>
       </c>
       <c r="AF29" s="48"/>
-      <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
       <c r="AI29" s="4"/>
       <c r="AJ29" s="4"/>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
       <c r="I30" s="4" t="s">
         <v>100</v>
       </c>
@@ -19978,12 +20113,14 @@
       <c r="Y30" s="48"/>
       <c r="Z30" s="48"/>
       <c r="AF30" s="48"/>
-      <c r="AG30" s="4"/>
-      <c r="AH30" s="4"/>
       <c r="AI30" s="4"/>
       <c r="AJ30" s="4"/>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4"/>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
       <c r="I31" s="4" t="s">
@@ -20020,12 +20157,14 @@
       <c r="AB31" s="48"/>
       <c r="AE31" s="48"/>
       <c r="AF31" s="48"/>
-      <c r="AG31" s="4"/>
-      <c r="AH31" s="4"/>
       <c r="AI31" s="4"/>
       <c r="AJ31" s="4"/>
-    </row>
-    <row r="32" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="4"/>
+    </row>
+    <row r="32" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
       <c r="G32" s="48"/>
       <c r="H32" s="48"/>
       <c r="I32" s="49" t="s">
@@ -20064,12 +20203,14 @@
       <c r="AD32" s="48"/>
       <c r="AE32" s="48"/>
       <c r="AF32" s="48"/>
-      <c r="AG32" s="4"/>
-      <c r="AH32" s="4"/>
       <c r="AI32" s="4"/>
       <c r="AJ32" s="4"/>
-    </row>
-    <row r="33" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4"/>
+    </row>
+    <row r="33" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
       <c r="G33" s="48"/>
       <c r="H33" s="48"/>
       <c r="I33" s="4" t="s">
@@ -20108,12 +20249,14 @@
       <c r="AD33" s="48"/>
       <c r="AE33" s="48"/>
       <c r="AF33" s="48"/>
-      <c r="AG33" s="4"/>
-      <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
       <c r="AJ33" s="4"/>
-      <c r="AQ33" s="4"/>
-    </row>
-    <row r="34" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AL33" s="4"/>
+      <c r="AS33" s="4"/>
+    </row>
+    <row r="34" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="E34" s="4"/>
+      <c r="F34" s="3"/>
       <c r="G34" s="48"/>
       <c r="H34" s="48"/>
       <c r="I34" s="4" t="s">
@@ -20152,12 +20295,10 @@
       <c r="AD34" s="48"/>
       <c r="AE34" s="48"/>
       <c r="AF34" s="48"/>
-      <c r="AG34" s="4"/>
-      <c r="AH34" s="4"/>
       <c r="AI34" s="4"/>
       <c r="AJ34" s="4"/>
-      <c r="AM34" s="48"/>
-      <c r="AN34" s="48"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="4"/>
       <c r="AO34" s="48"/>
       <c r="AP34" s="48"/>
       <c r="AQ34" s="48"/>
@@ -20166,8 +20307,12 @@
       <c r="AT34" s="48"/>
       <c r="AU34" s="48"/>
       <c r="AV34" s="48"/>
-    </row>
-    <row r="35" spans="3:48" ht="30" x14ac:dyDescent="0.25">
+      <c r="AW34" s="48"/>
+      <c r="AX34" s="48"/>
+    </row>
+    <row r="35" spans="3:50" ht="30" x14ac:dyDescent="0.25">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
       <c r="G35" s="48"/>
       <c r="H35" s="48"/>
       <c r="I35" s="4" t="s">
@@ -20206,12 +20351,10 @@
       <c r="AD35" s="48"/>
       <c r="AE35" s="48"/>
       <c r="AF35" s="48"/>
-      <c r="AG35" s="4"/>
-      <c r="AH35" s="4"/>
       <c r="AI35" s="4"/>
       <c r="AJ35" s="4"/>
-      <c r="AK35" s="48"/>
-      <c r="AL35" s="48"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
       <c r="AM35" s="48"/>
       <c r="AN35" s="48"/>
       <c r="AO35" s="48"/>
@@ -20222,8 +20365,12 @@
       <c r="AT35" s="48"/>
       <c r="AU35" s="48"/>
       <c r="AV35" s="48"/>
-    </row>
-    <row r="36" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW35" s="48"/>
+      <c r="AX35" s="48"/>
+    </row>
+    <row r="36" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
       <c r="G36" s="48"/>
       <c r="H36" s="48"/>
       <c r="I36" s="4" t="s">
@@ -20253,12 +20400,10 @@
       <c r="AD36" s="48"/>
       <c r="AE36" s="48"/>
       <c r="AF36" s="48"/>
-      <c r="AG36" s="4"/>
-      <c r="AH36" s="4"/>
       <c r="AI36" s="4"/>
       <c r="AJ36" s="4"/>
-      <c r="AK36" s="48"/>
-      <c r="AL36" s="48"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
       <c r="AM36" s="48"/>
       <c r="AN36" s="48"/>
       <c r="AO36" s="48"/>
@@ -20269,8 +20414,12 @@
       <c r="AT36" s="48"/>
       <c r="AU36" s="48"/>
       <c r="AV36" s="48"/>
-    </row>
-    <row r="37" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW36" s="48"/>
+      <c r="AX36" s="48"/>
+    </row>
+    <row r="37" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
       <c r="G37" s="48"/>
       <c r="H37" s="48"/>
       <c r="I37" s="4" t="s">
@@ -20300,12 +20449,10 @@
       <c r="AD37" s="48"/>
       <c r="AE37" s="48"/>
       <c r="AF37" s="48"/>
-      <c r="AG37" s="4"/>
-      <c r="AH37" s="4"/>
       <c r="AI37" s="4"/>
       <c r="AJ37" s="4"/>
-      <c r="AK37" s="48"/>
-      <c r="AL37" s="48"/>
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="4"/>
       <c r="AM37" s="48"/>
       <c r="AN37" s="48"/>
       <c r="AO37" s="48"/>
@@ -20316,8 +20463,12 @@
       <c r="AT37" s="48"/>
       <c r="AU37" s="48"/>
       <c r="AV37" s="48"/>
-    </row>
-    <row r="38" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW37" s="48"/>
+      <c r="AX37" s="48"/>
+    </row>
+    <row r="38" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
       <c r="G38" s="48"/>
       <c r="H38" s="48"/>
       <c r="I38" s="4" t="s">
@@ -20347,12 +20498,10 @@
       <c r="AD38" s="48"/>
       <c r="AE38" s="48"/>
       <c r="AF38" s="48"/>
-      <c r="AG38" s="4"/>
-      <c r="AH38" s="4"/>
       <c r="AI38" s="4"/>
       <c r="AJ38" s="4"/>
-      <c r="AK38" s="48"/>
-      <c r="AL38" s="48"/>
+      <c r="AK38" s="4"/>
+      <c r="AL38" s="4"/>
       <c r="AM38" s="48"/>
       <c r="AN38" s="48"/>
       <c r="AO38" s="48"/>
@@ -20363,8 +20512,12 @@
       <c r="AT38" s="48"/>
       <c r="AU38" s="48"/>
       <c r="AV38" s="48"/>
-    </row>
-    <row r="39" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW38" s="48"/>
+      <c r="AX38" s="48"/>
+    </row>
+    <row r="39" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
       <c r="G39" s="48"/>
       <c r="H39" s="48"/>
       <c r="I39" s="4" t="s">
@@ -20394,11 +20547,9 @@
       <c r="AD39" s="48"/>
       <c r="AE39" s="48"/>
       <c r="AF39" s="48"/>
-      <c r="AG39" s="4"/>
-      <c r="AH39" s="4"/>
       <c r="AI39" s="4"/>
-      <c r="AJ39" s="48"/>
-      <c r="AK39" s="48"/>
+      <c r="AJ39" s="4"/>
+      <c r="AK39" s="4"/>
       <c r="AL39" s="48"/>
       <c r="AM39" s="48"/>
       <c r="AN39" s="48"/>
@@ -20410,8 +20561,10 @@
       <c r="AT39" s="48"/>
       <c r="AU39" s="48"/>
       <c r="AV39" s="48"/>
-    </row>
-    <row r="40" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW39" s="48"/>
+      <c r="AX39" s="48"/>
+    </row>
+    <row r="40" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -20443,11 +20596,9 @@
       <c r="AD40" s="48"/>
       <c r="AE40" s="48"/>
       <c r="AF40" s="48"/>
-      <c r="AG40" s="4"/>
-      <c r="AH40" s="4"/>
       <c r="AI40" s="4"/>
-      <c r="AJ40" s="48"/>
-      <c r="AK40" s="48"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4"/>
       <c r="AL40" s="48"/>
       <c r="AM40" s="48"/>
       <c r="AN40" s="48"/>
@@ -20459,8 +20610,10 @@
       <c r="AT40" s="48"/>
       <c r="AU40" s="48"/>
       <c r="AV40" s="48"/>
-    </row>
-    <row r="41" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW40" s="48"/>
+      <c r="AX40" s="48"/>
+    </row>
+    <row r="41" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -20494,11 +20647,9 @@
       <c r="AD41" s="48"/>
       <c r="AE41" s="48"/>
       <c r="AF41" s="48"/>
-      <c r="AG41" s="4"/>
-      <c r="AH41" s="4"/>
       <c r="AI41" s="4"/>
-      <c r="AJ41" s="48"/>
-      <c r="AK41" s="48"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
       <c r="AL41" s="48"/>
       <c r="AM41" s="48"/>
       <c r="AN41" s="48"/>
@@ -20510,8 +20661,12 @@
       <c r="AT41" s="48"/>
       <c r="AU41" s="48"/>
       <c r="AV41" s="48"/>
-    </row>
-    <row r="42" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW41" s="48"/>
+      <c r="AX41" s="48"/>
+    </row>
+    <row r="42" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
       <c r="G42" s="48"/>
       <c r="H42" s="48"/>
       <c r="I42" s="48"/>
@@ -20537,11 +20692,9 @@
       <c r="AD42" s="48"/>
       <c r="AE42" s="48"/>
       <c r="AF42" s="48"/>
-      <c r="AG42" s="4"/>
-      <c r="AH42" s="4"/>
       <c r="AI42" s="4"/>
-      <c r="AJ42" s="48"/>
-      <c r="AK42" s="48"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4"/>
       <c r="AL42" s="48"/>
       <c r="AM42" s="48"/>
       <c r="AN42" s="48"/>
@@ -20553,8 +20706,12 @@
       <c r="AT42" s="48"/>
       <c r="AU42" s="48"/>
       <c r="AV42" s="48"/>
-    </row>
-    <row r="43" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW42" s="48"/>
+      <c r="AX42" s="48"/>
+    </row>
+    <row r="43" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
       <c r="G43" s="48"/>
       <c r="H43" s="48"/>
       <c r="I43" s="48"/>
@@ -20577,11 +20734,9 @@
       <c r="AD43" s="48"/>
       <c r="AE43" s="48"/>
       <c r="AF43" s="48"/>
-      <c r="AG43" s="4"/>
-      <c r="AH43" s="4"/>
       <c r="AI43" s="4"/>
-      <c r="AJ43" s="48"/>
-      <c r="AK43" s="48"/>
+      <c r="AJ43" s="4"/>
+      <c r="AK43" s="4"/>
       <c r="AL43" s="48"/>
       <c r="AM43" s="48"/>
       <c r="AN43" s="48"/>
@@ -20593,8 +20748,12 @@
       <c r="AT43" s="48"/>
       <c r="AU43" s="48"/>
       <c r="AV43" s="48"/>
-    </row>
-    <row r="44" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW43" s="48"/>
+      <c r="AX43" s="48"/>
+    </row>
+    <row r="44" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
       <c r="G44" s="48"/>
       <c r="H44" s="48"/>
       <c r="I44" s="48"/>
@@ -20617,11 +20776,9 @@
       <c r="AD44" s="48"/>
       <c r="AE44" s="48"/>
       <c r="AF44" s="48"/>
-      <c r="AG44" s="4"/>
-      <c r="AH44" s="4"/>
       <c r="AI44" s="4"/>
-      <c r="AJ44" s="48"/>
-      <c r="AK44" s="48"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
       <c r="AL44" s="48"/>
       <c r="AM44" s="48"/>
       <c r="AN44" s="48"/>
@@ -20633,8 +20790,12 @@
       <c r="AT44" s="48"/>
       <c r="AU44" s="48"/>
       <c r="AV44" s="48"/>
-    </row>
-    <row r="45" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW44" s="48"/>
+      <c r="AX44" s="48"/>
+    </row>
+    <row r="45" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
       <c r="G45" s="48"/>
       <c r="H45" s="48"/>
       <c r="I45" s="48"/>
@@ -20657,11 +20818,9 @@
       <c r="AD45" s="48"/>
       <c r="AE45" s="48"/>
       <c r="AF45" s="48"/>
-      <c r="AG45" s="4"/>
-      <c r="AH45" s="4"/>
       <c r="AI45" s="4"/>
-      <c r="AJ45" s="48"/>
-      <c r="AK45" s="48"/>
+      <c r="AJ45" s="4"/>
+      <c r="AK45" s="4"/>
       <c r="AL45" s="48"/>
       <c r="AM45" s="48"/>
       <c r="AN45" s="48"/>
@@ -20673,8 +20832,12 @@
       <c r="AT45" s="48"/>
       <c r="AU45" s="48"/>
       <c r="AV45" s="48"/>
-    </row>
-    <row r="46" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW45" s="48"/>
+      <c r="AX45" s="48"/>
+    </row>
+    <row r="46" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="E46" s="3"/>
+      <c r="F46" s="4"/>
       <c r="G46" s="48"/>
       <c r="H46" s="48"/>
       <c r="I46" s="48"/>
@@ -20697,11 +20860,9 @@
       <c r="AD46" s="48"/>
       <c r="AE46" s="48"/>
       <c r="AF46" s="48"/>
-      <c r="AG46" s="4"/>
-      <c r="AH46" s="4"/>
       <c r="AI46" s="4"/>
-      <c r="AJ46" s="48"/>
-      <c r="AK46" s="48"/>
+      <c r="AJ46" s="4"/>
+      <c r="AK46" s="4"/>
       <c r="AL46" s="48"/>
       <c r="AM46" s="48"/>
       <c r="AN46" s="48"/>
@@ -20713,8 +20874,12 @@
       <c r="AT46" s="48"/>
       <c r="AU46" s="48"/>
       <c r="AV46" s="48"/>
-    </row>
-    <row r="47" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW46" s="48"/>
+      <c r="AX46" s="48"/>
+    </row>
+    <row r="47" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="E47" s="3"/>
+      <c r="F47" s="4"/>
       <c r="G47" s="48"/>
       <c r="H47" s="48"/>
       <c r="I47" s="48"/>
@@ -20737,11 +20902,9 @@
       <c r="AD47" s="48"/>
       <c r="AE47" s="48"/>
       <c r="AF47" s="48"/>
-      <c r="AG47" s="4"/>
-      <c r="AH47" s="4"/>
       <c r="AI47" s="4"/>
-      <c r="AJ47" s="48"/>
-      <c r="AK47" s="48"/>
+      <c r="AJ47" s="4"/>
+      <c r="AK47" s="4"/>
       <c r="AL47" s="48"/>
       <c r="AM47" s="48"/>
       <c r="AN47" s="48"/>
@@ -20753,8 +20916,12 @@
       <c r="AT47" s="48"/>
       <c r="AU47" s="48"/>
       <c r="AV47" s="48"/>
-    </row>
-    <row r="48" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW47" s="48"/>
+      <c r="AX47" s="48"/>
+    </row>
+    <row r="48" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="E48" s="3"/>
+      <c r="F48" s="4"/>
       <c r="G48" s="48"/>
       <c r="H48" s="48"/>
       <c r="I48" s="48"/>
@@ -20777,11 +20944,9 @@
       <c r="AD48" s="48"/>
       <c r="AE48" s="48"/>
       <c r="AF48" s="48"/>
-      <c r="AG48" s="4"/>
-      <c r="AH48" s="4"/>
       <c r="AI48" s="4"/>
-      <c r="AJ48" s="48"/>
-      <c r="AK48" s="48"/>
+      <c r="AJ48" s="4"/>
+      <c r="AK48" s="4"/>
       <c r="AL48" s="48"/>
       <c r="AM48" s="48"/>
       <c r="AN48" s="48"/>
@@ -20793,8 +20958,10 @@
       <c r="AT48" s="48"/>
       <c r="AU48" s="48"/>
       <c r="AV48" s="48"/>
-    </row>
-    <row r="49" spans="7:38" x14ac:dyDescent="0.25">
+      <c r="AW48" s="48"/>
+      <c r="AX48" s="48"/>
+    </row>
+    <row r="49" spans="7:40" x14ac:dyDescent="0.25">
       <c r="G49" s="48"/>
       <c r="H49" s="48"/>
       <c r="I49" s="48"/>
@@ -20816,14 +20983,14 @@
       <c r="AD49" s="48"/>
       <c r="AE49" s="48"/>
       <c r="AF49" s="48"/>
-      <c r="AG49" s="4"/>
-      <c r="AH49" s="4"/>
       <c r="AI49" s="4"/>
-      <c r="AJ49" s="48"/>
-      <c r="AK49" s="48"/>
+      <c r="AJ49" s="4"/>
+      <c r="AK49" s="4"/>
       <c r="AL49" s="48"/>
-    </row>
-    <row r="50" spans="7:38" x14ac:dyDescent="0.25">
+      <c r="AM49" s="48"/>
+      <c r="AN49" s="48"/>
+    </row>
+    <row r="50" spans="7:40" x14ac:dyDescent="0.25">
       <c r="G50" s="48"/>
       <c r="H50" s="48"/>
       <c r="I50" s="48"/>
@@ -20845,12 +21012,12 @@
       <c r="AD50" s="48"/>
       <c r="AE50" s="48"/>
       <c r="AF50" s="48"/>
-      <c r="AG50" s="4"/>
-      <c r="AH50" s="4"/>
       <c r="AI50" s="4"/>
-      <c r="AJ50" s="48"/>
-    </row>
-    <row r="51" spans="7:38" x14ac:dyDescent="0.25">
+      <c r="AJ50" s="4"/>
+      <c r="AK50" s="4"/>
+      <c r="AL50" s="48"/>
+    </row>
+    <row r="51" spans="7:40" x14ac:dyDescent="0.25">
       <c r="G51" s="48"/>
       <c r="H51" s="48"/>
       <c r="I51" s="48"/>
@@ -20870,12 +21037,12 @@
       <c r="AD51" s="48"/>
       <c r="AE51" s="48"/>
       <c r="AF51" s="48"/>
-      <c r="AG51" s="4"/>
-      <c r="AH51" s="4"/>
       <c r="AI51" s="4"/>
-      <c r="AJ51" s="48"/>
-    </row>
-    <row r="52" spans="7:38" x14ac:dyDescent="0.25">
+      <c r="AJ51" s="4"/>
+      <c r="AK51" s="4"/>
+      <c r="AL51" s="48"/>
+    </row>
+    <row r="52" spans="7:40" x14ac:dyDescent="0.25">
       <c r="I52" s="48"/>
       <c r="J52" s="48"/>
       <c r="O52" s="4" t="s">
@@ -20886,11 +21053,11 @@
       </c>
       <c r="AC52" s="48"/>
       <c r="AD52" s="48"/>
-      <c r="AG52" s="4"/>
-      <c r="AH52" s="4"/>
       <c r="AI52" s="4"/>
-    </row>
-    <row r="53" spans="7:38" x14ac:dyDescent="0.25">
+      <c r="AJ52" s="4"/>
+      <c r="AK52" s="4"/>
+    </row>
+    <row r="53" spans="7:40" x14ac:dyDescent="0.25">
       <c r="I53" s="48"/>
       <c r="J53" s="48"/>
       <c r="O53" s="4" t="s">
@@ -20899,11 +21066,11 @@
       <c r="P53" s="4" t="s">
         <v>1411</v>
       </c>
-      <c r="AG53" s="4"/>
-      <c r="AH53" s="4"/>
       <c r="AI53" s="4"/>
-    </row>
-    <row r="54" spans="7:38" x14ac:dyDescent="0.25">
+      <c r="AJ53" s="4"/>
+      <c r="AK53" s="4"/>
+    </row>
+    <row r="54" spans="7:40" x14ac:dyDescent="0.25">
       <c r="I54" s="48"/>
       <c r="J54" s="48"/>
       <c r="O54" s="4" t="s">
@@ -20912,11 +21079,11 @@
       <c r="P54" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="AG54" s="4"/>
-      <c r="AH54" s="4"/>
       <c r="AI54" s="4"/>
-    </row>
-    <row r="55" spans="7:38" x14ac:dyDescent="0.25">
+      <c r="AJ54" s="4"/>
+      <c r="AK54" s="4"/>
+    </row>
+    <row r="55" spans="7:40" x14ac:dyDescent="0.25">
       <c r="I55" s="48"/>
       <c r="J55" s="48"/>
       <c r="O55" s="4" t="s">
@@ -20925,11 +21092,11 @@
       <c r="P55" s="4" t="s">
         <v>1391</v>
       </c>
-      <c r="AG55" s="4"/>
-      <c r="AH55" s="4"/>
       <c r="AI55" s="4"/>
-    </row>
-    <row r="56" spans="7:38" x14ac:dyDescent="0.25">
+      <c r="AJ55" s="4"/>
+      <c r="AK55" s="4"/>
+    </row>
+    <row r="56" spans="7:40" x14ac:dyDescent="0.25">
       <c r="I56" s="48"/>
       <c r="J56" s="48"/>
       <c r="O56" s="4" t="s">
@@ -20938,495 +21105,495 @@
       <c r="P56" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="AG56" s="4"/>
-      <c r="AH56" s="4"/>
       <c r="AI56" s="4"/>
-    </row>
-    <row r="57" spans="7:38" x14ac:dyDescent="0.25">
+      <c r="AJ56" s="4"/>
+      <c r="AK56" s="4"/>
+    </row>
+    <row r="57" spans="7:40" x14ac:dyDescent="0.25">
       <c r="O57" s="4" t="s">
         <v>1271</v>
       </c>
       <c r="P57" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="AG57" s="4"/>
-      <c r="AH57" s="4"/>
       <c r="AI57" s="4"/>
-    </row>
-    <row r="58" spans="7:38" x14ac:dyDescent="0.25">
+      <c r="AJ57" s="4"/>
+      <c r="AK57" s="4"/>
+    </row>
+    <row r="58" spans="7:40" x14ac:dyDescent="0.25">
       <c r="O58" s="4" t="s">
         <v>1272</v>
       </c>
       <c r="P58" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="AG58" s="4"/>
-      <c r="AH58" s="4"/>
       <c r="AI58" s="4"/>
-    </row>
-    <row r="59" spans="7:38" x14ac:dyDescent="0.25">
+      <c r="AJ58" s="4"/>
+      <c r="AK58" s="4"/>
+    </row>
+    <row r="59" spans="7:40" x14ac:dyDescent="0.25">
       <c r="O59" s="4" t="s">
         <v>1273</v>
       </c>
       <c r="P59" s="4" t="s">
         <v>765</v>
       </c>
-      <c r="AG59" s="4"/>
-      <c r="AH59" s="4"/>
       <c r="AI59" s="4"/>
-    </row>
-    <row r="60" spans="7:38" x14ac:dyDescent="0.25">
+      <c r="AJ59" s="4"/>
+      <c r="AK59" s="4"/>
+    </row>
+    <row r="60" spans="7:40" x14ac:dyDescent="0.25">
       <c r="O60" s="49" t="s">
         <v>1316</v>
       </c>
       <c r="P60" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="AG60" s="4"/>
-      <c r="AH60" s="4"/>
       <c r="AI60" s="4"/>
-    </row>
-    <row r="61" spans="7:38" x14ac:dyDescent="0.25">
+      <c r="AJ60" s="4"/>
+      <c r="AK60" s="4"/>
+    </row>
+    <row r="61" spans="7:40" x14ac:dyDescent="0.25">
       <c r="O61" s="4" t="s">
         <v>1274</v>
       </c>
       <c r="P61" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="AG61" s="4"/>
-      <c r="AH61" s="4"/>
       <c r="AI61" s="4"/>
-    </row>
-    <row r="62" spans="7:38" x14ac:dyDescent="0.25">
+      <c r="AJ61" s="4"/>
+      <c r="AK61" s="4"/>
+    </row>
+    <row r="62" spans="7:40" x14ac:dyDescent="0.25">
       <c r="O62" s="4" t="s">
         <v>1275</v>
       </c>
       <c r="P62" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="AG62" s="4"/>
-      <c r="AH62" s="4"/>
       <c r="AI62" s="4"/>
-    </row>
-    <row r="63" spans="7:38" x14ac:dyDescent="0.25">
+      <c r="AJ62" s="4"/>
+      <c r="AK62" s="4"/>
+    </row>
+    <row r="63" spans="7:40" x14ac:dyDescent="0.25">
       <c r="O63" s="4" t="s">
         <v>1276</v>
       </c>
       <c r="P63" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="AG63" s="4"/>
-      <c r="AH63" s="4"/>
       <c r="AI63" s="4"/>
-    </row>
-    <row r="64" spans="7:38" x14ac:dyDescent="0.25">
+      <c r="AJ63" s="4"/>
+      <c r="AK63" s="4"/>
+    </row>
+    <row r="64" spans="7:40" x14ac:dyDescent="0.25">
       <c r="O64" s="4" t="s">
         <v>1277</v>
       </c>
       <c r="P64" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="AG64" s="4"/>
-      <c r="AH64" s="4"/>
       <c r="AI64" s="4"/>
-    </row>
-    <row r="65" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ64" s="4"/>
+      <c r="AK64" s="4"/>
+    </row>
+    <row r="65" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O65" s="4" t="s">
         <v>1278</v>
       </c>
       <c r="P65" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="AG65" s="4"/>
-      <c r="AH65" s="4"/>
       <c r="AI65" s="4"/>
-    </row>
-    <row r="66" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ65" s="4"/>
+      <c r="AK65" s="4"/>
+    </row>
+    <row r="66" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O66" s="4" t="s">
         <v>1279</v>
       </c>
       <c r="P66" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="AG66" s="4"/>
-      <c r="AH66" s="4"/>
       <c r="AI66" s="4"/>
-    </row>
-    <row r="67" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ66" s="4"/>
+      <c r="AK66" s="4"/>
+    </row>
+    <row r="67" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O67" s="4" t="s">
         <v>1280</v>
       </c>
       <c r="P67" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="AG67" s="4"/>
-      <c r="AH67" s="4"/>
       <c r="AI67" s="4"/>
-    </row>
-    <row r="68" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ67" s="4"/>
+      <c r="AK67" s="4"/>
+    </row>
+    <row r="68" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O68" s="4" t="s">
         <v>1281</v>
       </c>
       <c r="P68" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="AG68" s="4"/>
-      <c r="AH68" s="4"/>
       <c r="AI68" s="4"/>
-    </row>
-    <row r="69" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ68" s="4"/>
+      <c r="AK68" s="4"/>
+    </row>
+    <row r="69" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O69" s="4" t="s">
         <v>1282</v>
       </c>
       <c r="P69" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="AG69" s="4"/>
-      <c r="AH69" s="4"/>
       <c r="AI69" s="4"/>
-    </row>
-    <row r="70" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ69" s="4"/>
+      <c r="AK69" s="4"/>
+    </row>
+    <row r="70" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O70" s="4" t="s">
         <v>1283</v>
       </c>
       <c r="P70" s="4" t="s">
         <v>788</v>
       </c>
-      <c r="AG70" s="4"/>
-      <c r="AH70" s="4"/>
       <c r="AI70" s="4"/>
-    </row>
-    <row r="71" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ70" s="4"/>
+      <c r="AK70" s="4"/>
+    </row>
+    <row r="71" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O71" s="4" t="s">
         <v>1284</v>
       </c>
       <c r="P71" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="AG71" s="4"/>
-      <c r="AH71" s="4"/>
       <c r="AI71" s="4"/>
-    </row>
-    <row r="72" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ71" s="4"/>
+      <c r="AK71" s="4"/>
+    </row>
+    <row r="72" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O72" s="4" t="s">
         <v>1285</v>
       </c>
       <c r="P72" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AG72" s="4"/>
-      <c r="AH72" s="4"/>
       <c r="AI72" s="4"/>
-    </row>
-    <row r="73" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ72" s="4"/>
+      <c r="AK72" s="4"/>
+    </row>
+    <row r="73" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O73" s="4" t="s">
         <v>1286</v>
       </c>
       <c r="P73" s="4" t="s">
         <v>1412</v>
       </c>
-      <c r="AG73" s="4"/>
-      <c r="AH73" s="4"/>
       <c r="AI73" s="4"/>
-    </row>
-    <row r="74" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ73" s="4"/>
+      <c r="AK73" s="4"/>
+    </row>
+    <row r="74" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O74" s="4" t="s">
         <v>1287</v>
       </c>
       <c r="P74" s="4" t="s">
         <v>1413</v>
       </c>
-      <c r="AG74" s="4"/>
-      <c r="AH74" s="4"/>
       <c r="AI74" s="4"/>
-    </row>
-    <row r="75" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ74" s="4"/>
+      <c r="AK74" s="4"/>
+    </row>
+    <row r="75" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O75" s="4" t="s">
         <v>1288</v>
       </c>
       <c r="P75" s="4" t="s">
         <v>1414</v>
       </c>
-      <c r="AG75" s="4"/>
-      <c r="AH75" s="4"/>
       <c r="AI75" s="4"/>
-    </row>
-    <row r="76" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ75" s="4"/>
+      <c r="AK75" s="4"/>
+    </row>
+    <row r="76" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O76" s="4" t="s">
         <v>1289</v>
       </c>
       <c r="P76" s="4" t="s">
         <v>1415</v>
       </c>
-      <c r="AG76" s="4"/>
-      <c r="AH76" s="4"/>
       <c r="AI76" s="4"/>
-    </row>
-    <row r="77" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ76" s="4"/>
+      <c r="AK76" s="4"/>
+    </row>
+    <row r="77" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O77" s="4" t="s">
         <v>1290</v>
       </c>
       <c r="P77" s="4" t="s">
         <v>1416</v>
       </c>
-      <c r="AG77" s="4"/>
-      <c r="AH77" s="4"/>
       <c r="AI77" s="4"/>
-    </row>
-    <row r="78" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ77" s="4"/>
+      <c r="AK77" s="4"/>
+    </row>
+    <row r="78" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O78" s="4" t="s">
         <v>1291</v>
       </c>
       <c r="P78" s="4" t="s">
         <v>1417</v>
       </c>
-      <c r="AG78" s="4"/>
-      <c r="AH78" s="4"/>
       <c r="AI78" s="4"/>
-    </row>
-    <row r="79" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ78" s="4"/>
+      <c r="AK78" s="4"/>
+    </row>
+    <row r="79" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O79" s="4" t="s">
         <v>1292</v>
       </c>
       <c r="P79" s="4" t="s">
         <v>1418</v>
       </c>
-      <c r="AG79" s="4"/>
-      <c r="AH79" s="4"/>
       <c r="AI79" s="4"/>
-    </row>
-    <row r="80" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ79" s="4"/>
+      <c r="AK79" s="4"/>
+    </row>
+    <row r="80" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O80" s="4" t="s">
         <v>1293</v>
       </c>
       <c r="P80" s="4" t="s">
         <v>1419</v>
       </c>
-      <c r="AG80" s="4"/>
-      <c r="AH80" s="4"/>
       <c r="AI80" s="4"/>
-    </row>
-    <row r="81" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ80" s="4"/>
+      <c r="AK80" s="4"/>
+    </row>
+    <row r="81" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O81" s="4" t="s">
         <v>1294</v>
       </c>
       <c r="P81" s="4" t="s">
         <v>1420</v>
       </c>
-      <c r="AG81" s="4"/>
-      <c r="AH81" s="4"/>
       <c r="AI81" s="4"/>
-    </row>
-    <row r="82" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ81" s="4"/>
+      <c r="AK81" s="4"/>
+    </row>
+    <row r="82" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O82" s="4" t="s">
         <v>1295</v>
       </c>
       <c r="P82" s="4" t="s">
         <v>1421</v>
       </c>
-      <c r="AG82" s="4"/>
-      <c r="AH82" s="4"/>
       <c r="AI82" s="4"/>
-    </row>
-    <row r="83" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ82" s="4"/>
+      <c r="AK82" s="4"/>
+    </row>
+    <row r="83" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O83" s="4" t="s">
         <v>1296</v>
       </c>
       <c r="P83" s="4" t="s">
         <v>1422</v>
       </c>
-      <c r="AG83" s="4"/>
-      <c r="AH83" s="4"/>
       <c r="AI83" s="4"/>
-    </row>
-    <row r="84" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ83" s="4"/>
+      <c r="AK83" s="4"/>
+    </row>
+    <row r="84" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O84" s="4" t="s">
         <v>1297</v>
       </c>
       <c r="P84" s="4" t="s">
         <v>1423</v>
       </c>
-      <c r="AG84" s="4"/>
-      <c r="AH84" s="4"/>
       <c r="AI84" s="4"/>
-    </row>
-    <row r="85" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ84" s="4"/>
+      <c r="AK84" s="4"/>
+    </row>
+    <row r="85" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O85" s="4" t="s">
         <v>1298</v>
       </c>
       <c r="P85" s="4" t="s">
         <v>1424</v>
       </c>
-      <c r="AG85" s="4"/>
-      <c r="AH85" s="4"/>
       <c r="AI85" s="4"/>
-    </row>
-    <row r="86" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ85" s="4"/>
+      <c r="AK85" s="4"/>
+    </row>
+    <row r="86" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O86" s="4" t="s">
         <v>1299</v>
       </c>
       <c r="P86" s="4" t="s">
         <v>1425</v>
       </c>
-      <c r="AG86" s="4"/>
-      <c r="AH86" s="4"/>
       <c r="AI86" s="4"/>
-    </row>
-    <row r="87" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ86" s="4"/>
+      <c r="AK86" s="4"/>
+    </row>
+    <row r="87" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O87" s="4" t="s">
         <v>1300</v>
       </c>
       <c r="P87" s="4" t="s">
         <v>1426</v>
       </c>
-      <c r="AG87" s="4"/>
-      <c r="AH87" s="4"/>
       <c r="AI87" s="4"/>
-    </row>
-    <row r="88" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ87" s="4"/>
+      <c r="AK87" s="4"/>
+    </row>
+    <row r="88" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O88" s="4" t="s">
         <v>1301</v>
       </c>
       <c r="P88" s="4" t="s">
         <v>1427</v>
       </c>
-      <c r="AG88" s="4"/>
-      <c r="AH88" s="4"/>
       <c r="AI88" s="4"/>
-    </row>
-    <row r="89" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ88" s="4"/>
+      <c r="AK88" s="4"/>
+    </row>
+    <row r="89" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O89" s="4" t="s">
         <v>1302</v>
       </c>
       <c r="P89" s="4" t="s">
         <v>1428</v>
       </c>
-      <c r="AG89" s="4"/>
-      <c r="AH89" s="4"/>
       <c r="AI89" s="4"/>
-    </row>
-    <row r="90" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ89" s="4"/>
+      <c r="AK89" s="4"/>
+    </row>
+    <row r="90" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O90" s="4" t="s">
         <v>1303</v>
       </c>
       <c r="P90" s="4" t="s">
         <v>1429</v>
       </c>
-      <c r="AG90" s="4"/>
-      <c r="AH90" s="4"/>
       <c r="AI90" s="4"/>
-    </row>
-    <row r="91" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ90" s="4"/>
+      <c r="AK90" s="4"/>
+    </row>
+    <row r="91" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O91" s="4" t="s">
         <v>1304</v>
       </c>
       <c r="P91" s="4" t="s">
         <v>1430</v>
       </c>
-      <c r="AG91" s="4"/>
-      <c r="AH91" s="4"/>
       <c r="AI91" s="4"/>
-    </row>
-    <row r="92" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ91" s="4"/>
+      <c r="AK91" s="4"/>
+    </row>
+    <row r="92" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O92" s="4" t="s">
         <v>1305</v>
       </c>
       <c r="P92" s="4" t="s">
         <v>1169</v>
       </c>
-      <c r="AG92" s="4"/>
-      <c r="AH92" s="4"/>
       <c r="AI92" s="4"/>
-    </row>
-    <row r="93" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ92" s="4"/>
+      <c r="AK92" s="4"/>
+    </row>
+    <row r="93" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O93" s="4" t="s">
         <v>1306</v>
       </c>
       <c r="P93" s="4" t="s">
         <v>1170</v>
       </c>
-      <c r="AG93" s="4"/>
-      <c r="AH93" s="4"/>
       <c r="AI93" s="4"/>
-    </row>
-    <row r="94" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ93" s="4"/>
+      <c r="AK93" s="4"/>
+    </row>
+    <row r="94" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O94" s="4" t="s">
         <v>1307</v>
       </c>
       <c r="P94" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="AG94" s="4"/>
-      <c r="AH94" s="4"/>
       <c r="AI94" s="4"/>
-    </row>
-    <row r="95" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ94" s="4"/>
+      <c r="AK94" s="4"/>
+    </row>
+    <row r="95" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O95" s="4" t="s">
         <v>1308</v>
       </c>
       <c r="P95" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="AG95" s="4"/>
-      <c r="AH95" s="4"/>
       <c r="AI95" s="4"/>
-    </row>
-    <row r="96" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ95" s="4"/>
+      <c r="AK95" s="4"/>
+    </row>
+    <row r="96" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O96" s="4" t="s">
         <v>1309</v>
       </c>
       <c r="P96" s="4" t="s">
         <v>1432</v>
       </c>
-      <c r="AG96" s="4"/>
-      <c r="AH96" s="4"/>
       <c r="AI96" s="4"/>
-    </row>
-    <row r="97" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ96" s="4"/>
+      <c r="AK96" s="4"/>
+    </row>
+    <row r="97" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O97" s="4" t="s">
         <v>1310</v>
       </c>
       <c r="P97" s="4" t="s">
         <v>1433</v>
       </c>
-      <c r="AG97" s="4"/>
-      <c r="AH97" s="4"/>
       <c r="AI97" s="4"/>
-    </row>
-    <row r="98" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ97" s="4"/>
+      <c r="AK97" s="4"/>
+    </row>
+    <row r="98" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O98" s="4" t="s">
         <v>1311</v>
       </c>
       <c r="P98" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="AG98" s="4"/>
-      <c r="AH98" s="4"/>
       <c r="AI98" s="4"/>
-    </row>
-    <row r="99" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ98" s="4"/>
+      <c r="AK98" s="4"/>
+    </row>
+    <row r="99" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O99" s="4" t="s">
         <v>1312</v>
       </c>
       <c r="P99" s="4" t="s">
         <v>1435</v>
       </c>
-      <c r="AG99" s="4"/>
-      <c r="AH99" s="4"/>
       <c r="AI99" s="4"/>
-    </row>
-    <row r="100" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ99" s="4"/>
+      <c r="AK99" s="4"/>
+    </row>
+    <row r="100" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O100" s="4" t="s">
         <v>1313</v>
       </c>
       <c r="P100" s="4" t="s">
         <v>1436</v>
       </c>
-      <c r="AG100" s="4"/>
-      <c r="AH100" s="4"/>
       <c r="AI100" s="4"/>
-    </row>
-    <row r="101" spans="15:35" x14ac:dyDescent="0.25">
+      <c r="AJ100" s="4"/>
+      <c r="AK100" s="4"/>
+    </row>
+    <row r="101" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O101" s="4" t="s">
         <v>1314</v>
       </c>
@@ -21434,7 +21601,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="102" spans="15:35" x14ac:dyDescent="0.25">
+    <row r="102" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O102" s="4" t="s">
         <v>1315</v>
       </c>
@@ -21442,7 +21609,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="103" spans="15:35" x14ac:dyDescent="0.25">
+    <row r="103" spans="15:37" x14ac:dyDescent="0.25">
       <c r="O103" s="4" t="s">
         <v>2928</v>
       </c>

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7382" uniqueCount="2984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7396" uniqueCount="2986">
   <si>
     <t>switchType</t>
   </si>
@@ -9004,6 +9004,12 @@
   </si>
   <si>
     <t>Connected_NPIV</t>
+  </si>
+  <si>
+    <t>Ошибки_eng</t>
+  </si>
+  <si>
+    <t>Ошибки_ru</t>
   </si>
 </sst>
 </file>
@@ -17530,8 +17536,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:AX103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AH22" sqref="AH22"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AR24" sqref="AR24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17573,9 +17579,10 @@
     <col min="38" max="38" width="34" customWidth="1"/>
     <col min="39" max="39" width="32.28515625" customWidth="1"/>
     <col min="40" max="40" width="32" customWidth="1"/>
-    <col min="41" max="41" width="22.28515625" customWidth="1"/>
-    <col min="42" max="42" width="24.42578125" customWidth="1"/>
-    <col min="43" max="43" width="12.7109375" customWidth="1"/>
+    <col min="41" max="41" width="28" customWidth="1"/>
+    <col min="42" max="42" width="33.85546875" customWidth="1"/>
+    <col min="43" max="43" width="19.5703125" customWidth="1"/>
+    <col min="44" max="44" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
@@ -17700,6 +17707,12 @@
       <c r="AP1" s="12" t="s">
         <v>1946</v>
       </c>
+      <c r="AQ1" s="34" t="s">
+        <v>2984</v>
+      </c>
+      <c r="AR1" s="34" t="s">
+        <v>2985</v>
+      </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -17822,6 +17835,9 @@
       <c r="AP2" s="50" t="s">
         <v>1325</v>
       </c>
+      <c r="AQ2" s="4" t="s">
+        <v>1169</v>
+      </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -17944,6 +17960,9 @@
       <c r="AP3" s="51" t="s">
         <v>1326</v>
       </c>
+      <c r="AQ3" s="4" t="s">
+        <v>1170</v>
+      </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -18066,6 +18085,9 @@
       <c r="AP4" s="4" t="s">
         <v>1937</v>
       </c>
+      <c r="AQ4" s="4" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -18188,6 +18210,9 @@
       <c r="AP5" s="4" t="s">
         <v>1939</v>
       </c>
+      <c r="AQ5" s="4" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -18310,6 +18335,9 @@
       <c r="AP6" s="4" t="s">
         <v>1967</v>
       </c>
+      <c r="AQ6" s="4" t="s">
+        <v>1378</v>
+      </c>
       <c r="AT6" s="4"/>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
@@ -18433,6 +18461,9 @@
       <c r="AP7" s="4" t="s">
         <v>1938</v>
       </c>
+      <c r="AQ7" s="4" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -18554,6 +18585,9 @@
       </c>
       <c r="AP8" s="4" t="s">
         <v>1956</v>
+      </c>
+      <c r="AQ8" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="AT8" s="4"/>
     </row>
@@ -18662,6 +18696,9 @@
       <c r="AP9" s="4" t="s">
         <v>1171</v>
       </c>
+      <c r="AQ9" s="4" t="s">
+        <v>1379</v>
+      </c>
       <c r="AT9" s="4"/>
     </row>
     <row r="10" spans="1:46" ht="30" x14ac:dyDescent="0.25">
@@ -18779,6 +18816,9 @@
       </c>
       <c r="AP10" s="4" t="s">
         <v>1337</v>
+      </c>
+      <c r="AQ10" s="4" t="s">
+        <v>832</v>
       </c>
       <c r="AT10" s="4"/>
     </row>
@@ -18895,6 +18935,9 @@
       <c r="AP11" s="4" t="s">
         <v>1965</v>
       </c>
+      <c r="AQ11" s="4" t="s">
+        <v>833</v>
+      </c>
       <c r="AT11" s="4"/>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
@@ -19010,10 +19053,13 @@
       <c r="AP12" s="4" t="s">
         <v>1501</v>
       </c>
+      <c r="AQ12" s="4" t="s">
+        <v>1952</v>
+      </c>
       <c r="AT12" s="4"/>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>1500</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -19120,10 +19166,13 @@
       <c r="AP13" s="4" t="s">
         <v>1338</v>
       </c>
+      <c r="AQ13" s="4" t="s">
+        <v>1949</v>
+      </c>
       <c r="AT13" s="4"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>2975</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -19230,6 +19279,7 @@
       <c r="AP14" s="4" t="s">
         <v>1964</v>
       </c>
+      <c r="AQ14" s="4"/>
       <c r="AT14" s="4"/>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" firstSheet="5" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="switch_models" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5277" uniqueCount="2125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5373" uniqueCount="2144">
   <si>
     <t>switchType</t>
   </si>
@@ -5935,9 +5935,6 @@
     <t>Идентификатор порта WWPN</t>
   </si>
   <si>
-    <t>Тип порта</t>
-  </si>
-  <si>
     <t>Псевдоним</t>
   </si>
   <si>
@@ -6403,12 +6400,6 @@
     <t>Параметры_портов_ru</t>
   </si>
   <si>
-    <t>FEC_x</t>
-  </si>
-  <si>
-    <t>Credit_Recovery_x</t>
-  </si>
-  <si>
     <t>Параметры_портов_eng</t>
   </si>
   <si>
@@ -6425,6 +6416,72 @@
   </si>
   <si>
     <t>principal_switchName</t>
+  </si>
+  <si>
+    <t>Зонирование_eng</t>
+  </si>
+  <si>
+    <t>Псевдонимы_eng</t>
+  </si>
+  <si>
+    <t>Зонирование_ru</t>
+  </si>
+  <si>
+    <t>Псевдонимы_ru</t>
+  </si>
+  <si>
+    <t>cfg_type</t>
+  </si>
+  <si>
+    <t>Wwn_type</t>
+  </si>
+  <si>
+    <t>zonemember_Fabric_name</t>
+  </si>
+  <si>
+    <t>zonemember_Fabric_label</t>
+  </si>
+  <si>
+    <t>Index_slot_port</t>
+  </si>
+  <si>
+    <t>Member_in_cfg_Fabric</t>
+  </si>
+  <si>
+    <t>Входит в конфигурацию</t>
+  </si>
+  <si>
+    <t>Тип конфигурации</t>
+  </si>
+  <si>
+    <t>Зона</t>
+  </si>
+  <si>
+    <t>Идентификатор псевдонима</t>
+  </si>
+  <si>
+    <t>Фабрика устройства</t>
+  </si>
+  <si>
+    <t>Подсеть устройства</t>
+  </si>
+  <si>
+    <t>Тип порта коммутатора</t>
+  </si>
+  <si>
+    <t>Идентификатор порта WWNN</t>
+  </si>
+  <si>
+    <t>Статус LSAN устройства</t>
+  </si>
+  <si>
+    <t>Устройство доступно в сети конфигурации</t>
+  </si>
+  <si>
+    <t>Тип Wwn псевдонима</t>
+  </si>
+  <si>
+    <t>Тип порта  устройства</t>
   </si>
 </sst>
 </file>
@@ -8613,7 +8670,7 @@
         <v>1122</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>1099</v>
@@ -8665,7 +8722,7 @@
         <v>1121</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>4</v>
@@ -8691,7 +8748,7 @@
         <v>1120</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>1099</v>
@@ -8717,7 +8774,7 @@
         <v>1120</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>1099</v>
@@ -8743,7 +8800,7 @@
         <v>1131</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>1099</v>
@@ -8769,7 +8826,7 @@
         <v>1132</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>1099</v>
@@ -8847,7 +8904,7 @@
         <v>82</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>1099</v>
@@ -8873,7 +8930,7 @@
         <v>84</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>1099</v>
@@ -8899,7 +8956,7 @@
         <v>1119</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>1099</v>
@@ -8951,7 +9008,7 @@
         <v>89</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>1099</v>
@@ -8959,13 +9016,13 @@
     </row>
     <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>1982</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>1983</v>
-      </c>
       <c r="C72" s="4" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>1699</v>
@@ -8974,10 +9031,10 @@
         <v>16</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>1099</v>
@@ -9003,7 +9060,7 @@
         <v>1164</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>1099</v>
@@ -9029,7 +9086,7 @@
         <v>1123</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>1099</v>
@@ -9055,7 +9112,7 @@
         <v>1124</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>1099</v>
@@ -9081,7 +9138,7 @@
         <v>1165</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>1099</v>
@@ -9107,7 +9164,7 @@
         <v>1166</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>1099</v>
@@ -10455,16 +10512,16 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>264</v>
@@ -11041,7 +11098,7 @@
       <c r="L37"/>
       <c r="M37"/>
       <c r="N37" s="4" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
       <c r="O37"/>
       <c r="P37"/>
@@ -11179,7 +11236,7 @@
         <v>973</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
@@ -12186,19 +12243,19 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I6" s="8" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12246,7 +12303,7 @@
         <v>1038</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>1038</v>
@@ -12511,7 +12568,7 @@
         <v>1779</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -12533,7 +12590,7 @@
         <v>1711</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>1713</v>
@@ -12645,7 +12702,7 @@
         <v>1726</v>
       </c>
       <c r="I14" s="57" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -12683,7 +12740,7 @@
         <v>200</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>200</v>
@@ -12790,7 +12847,7 @@
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="27" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="F27" s="27" t="s">
         <v>1750</v>
@@ -12880,7 +12937,7 @@
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>1756</v>
@@ -12896,7 +12953,7 @@
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
       <c r="F35" s="30" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="36" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12906,7 +12963,7 @@
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12942,7 +12999,7 @@
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="20" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="F38" s="20" t="s">
         <v>1760</v>
@@ -12977,7 +13034,7 @@
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="23" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>1759</v>
@@ -12985,12 +13042,12 @@
     </row>
     <row r="41" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F41" s="23" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="42" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F42" s="23" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -13018,7 +13075,7 @@
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="7" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="F45" s="30" t="s">
         <v>1756</v>
@@ -13036,7 +13093,7 @@
         <v>1790</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -13047,39 +13104,39 @@
     <row r="48" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B49" s="32">
         <v>14</v>
       </c>
       <c r="C49" s="32" t="s">
+        <v>2027</v>
+      </c>
+      <c r="D49" s="32" t="s">
         <v>2028</v>
       </c>
-      <c r="D49" s="32" t="s">
-        <v>2029</v>
-      </c>
       <c r="E49" s="32" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N49" s="32" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="N50" s="32" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -13100,10 +13157,10 @@
     </row>
     <row r="53" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="N53" s="32" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -13111,14 +13168,14 @@
         <v>15</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="D54" s="20"/>
       <c r="E54" s="20" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -13146,10 +13203,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:AV173"/>
+  <dimension ref="A1:AY173"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13197,9 +13254,13 @@
     <col min="44" max="44" width="26.140625" customWidth="1"/>
     <col min="45" max="45" width="30" customWidth="1"/>
     <col min="46" max="46" width="26.42578125" customWidth="1"/>
+    <col min="47" max="47" width="31.140625" customWidth="1"/>
+    <col min="48" max="48" width="41.28515625" customWidth="1"/>
+    <col min="49" max="49" width="23.5703125" customWidth="1"/>
+    <col min="50" max="50" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
         <v>1940</v>
       </c>
@@ -13286,10 +13347,10 @@
         <v>1935</v>
       </c>
       <c r="AE1" s="14" t="s">
+        <v>2078</v>
+      </c>
+      <c r="AF1" s="14" t="s">
         <v>2079</v>
-      </c>
-      <c r="AF1" s="14" t="s">
-        <v>2080</v>
       </c>
       <c r="AG1" s="62" t="s">
         <v>1926</v>
@@ -13316,30 +13377,42 @@
         <v>1939</v>
       </c>
       <c r="AO1" s="34" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AP1" s="34" t="s">
         <v>2082</v>
       </c>
-      <c r="AP1" s="34" t="s">
-        <v>2083</v>
-      </c>
       <c r="AQ1" s="39" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AR1" s="39" t="s">
         <v>2094</v>
       </c>
-      <c r="AR1" s="39" t="s">
-        <v>2095</v>
-      </c>
       <c r="AS1" s="59" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="AT1" s="59" t="s">
-        <v>2116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+        <v>2115</v>
+      </c>
+      <c r="AU1" s="62" t="s">
+        <v>2122</v>
+      </c>
+      <c r="AV1" s="62" t="s">
+        <v>2124</v>
+      </c>
+      <c r="AW1" s="44" t="s">
+        <v>2123</v>
+      </c>
+      <c r="AX1" s="44" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1778</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1167</v>
@@ -13473,13 +13546,25 @@
       <c r="AT2" s="4" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU2" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1777</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1168</v>
@@ -13613,13 +13698,25 @@
       <c r="AT3" s="4" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU3" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AV3" s="4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AW3" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AX3" s="4" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1919</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>509</v>
@@ -13688,16 +13785,16 @@
         <v>1931</v>
       </c>
       <c r="Y4" s="3" t="s">
+        <v>2008</v>
+      </c>
+      <c r="Z4" s="3" t="s">
         <v>2009</v>
       </c>
-      <c r="Z4" s="3" t="s">
-        <v>2010</v>
-      </c>
       <c r="AA4" s="3" t="s">
+        <v>2008</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>2009</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>2010</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>1916</v>
@@ -13753,13 +13850,25 @@
       <c r="AT4" s="4" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU4" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AV4" s="4" t="s">
+        <v>2132</v>
+      </c>
+      <c r="AW4" s="4" t="s">
+        <v>2126</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1769</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>300</v>
@@ -13849,25 +13958,25 @@
         <v>1942</v>
       </c>
       <c r="AF5" s="4" t="s">
+        <v>2007</v>
+      </c>
+      <c r="AG5" s="3" t="s">
         <v>2008</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AH5" s="3" t="s">
         <v>2009</v>
       </c>
-      <c r="AH5" s="3" t="s">
-        <v>2010</v>
-      </c>
       <c r="AI5" s="3" t="s">
+        <v>2008</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
         <v>2009</v>
-      </c>
-      <c r="AJ5" s="3" t="s">
-        <v>2010</v>
       </c>
       <c r="AK5" s="4" t="s">
         <v>1083</v>
       </c>
       <c r="AL5" s="4" t="s">
-        <v>1961</v>
+        <v>2143</v>
       </c>
       <c r="AM5" s="4" t="s">
         <v>1907</v>
@@ -13893,13 +14002,26 @@
       <c r="AT5" s="4" t="s">
         <v>1326</v>
       </c>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU5" s="4" t="s">
+        <v>2126</v>
+      </c>
+      <c r="AV5" s="4" t="s">
+        <v>2133</v>
+      </c>
+      <c r="AW5" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>1961</v>
+      </c>
+      <c r="AY5" s="4"/>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>264</v>
@@ -13989,19 +14111,19 @@
         <v>1083</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>1961</v>
+        <v>2143</v>
       </c>
       <c r="AG6" s="4" t="s">
         <v>1942</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="AI6" s="4" t="s">
         <v>1942</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="AK6" s="4" t="s">
         <v>1488</v>
@@ -14033,13 +14155,26 @@
       <c r="AT6" s="4" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU6" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AV6" s="4" t="s">
+        <v>2134</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>2135</v>
+      </c>
+      <c r="AY6" s="4"/>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1770</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>107</v>
@@ -14069,7 +14204,7 @@
         <v>1408</v>
       </c>
       <c r="L7" s="52" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>1351</v>
@@ -14135,19 +14270,19 @@
         <v>1083</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>1961</v>
+        <v>2143</v>
       </c>
       <c r="AI7" s="4" t="s">
         <v>1083</v>
       </c>
       <c r="AJ7" s="4" t="s">
-        <v>1961</v>
+        <v>2143</v>
       </c>
       <c r="AK7" s="4" t="s">
         <v>1048</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="AM7" s="4" t="s">
         <v>1792</v>
@@ -14173,8 +14308,21 @@
       <c r="AT7" s="4" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU7" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AV7" s="4" t="s">
+        <v>1961</v>
+      </c>
+      <c r="AW7" s="4" t="s">
+        <v>2127</v>
+      </c>
+      <c r="AX7" s="4" t="s">
+        <v>2142</v>
+      </c>
+      <c r="AY7" s="4"/>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>1771</v>
       </c>
@@ -14206,10 +14354,10 @@
         <v>1175</v>
       </c>
       <c r="K8" s="4" t="s">
+        <v>2011</v>
+      </c>
+      <c r="L8" s="52" t="s">
         <v>2012</v>
-      </c>
-      <c r="L8" s="52" t="s">
-        <v>2013</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>1352</v>
@@ -14313,13 +14461,26 @@
       <c r="AT8" s="4" t="s">
         <v>1441</v>
       </c>
-    </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU8" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AV8" s="4" t="s">
+        <v>2135</v>
+      </c>
+      <c r="AW8" s="4" t="s">
+        <v>2128</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>2136</v>
+      </c>
+      <c r="AY8" s="4"/>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>1772</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>0</v>
@@ -14360,7 +14521,7 @@
         <v>879</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>1443</v>
@@ -14399,19 +14560,19 @@
         <v>1048</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="AI9" s="4" t="s">
         <v>1048</v>
       </c>
       <c r="AJ9" s="4" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="AK9" s="4" t="s">
         <v>164</v>
       </c>
       <c r="AL9" s="3" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="AM9" s="4" t="s">
         <v>1787</v>
@@ -14423,27 +14584,40 @@
         <v>568</v>
       </c>
       <c r="AP9" s="4" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="AQ9" s="4" t="s">
         <v>568</v>
       </c>
       <c r="AR9" s="4" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="AS9" s="4" t="s">
         <v>568</v>
       </c>
       <c r="AT9" s="4" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+        <v>1962</v>
+      </c>
+      <c r="AU9" s="4" t="s">
+        <v>2127</v>
+      </c>
+      <c r="AV9" s="4" t="s">
+        <v>2142</v>
+      </c>
+      <c r="AW9" s="4" t="s">
+        <v>2129</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>2137</v>
+      </c>
+      <c r="AY9" s="4"/>
+    </row>
+    <row r="10" spans="1:51" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>1387</v>
@@ -14557,28 +14731,41 @@
       <c r="AO10" s="4" t="s">
         <v>1377</v>
       </c>
-      <c r="AP10" t="s">
-        <v>1961</v>
+      <c r="AP10" s="4" t="s">
+        <v>2138</v>
       </c>
       <c r="AQ10" s="4" t="s">
         <v>1377</v>
       </c>
       <c r="AR10" s="4" t="s">
-        <v>1961</v>
+        <v>2138</v>
       </c>
       <c r="AS10" s="4" t="s">
         <v>1377</v>
       </c>
       <c r="AT10" s="4" t="s">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+        <v>2138</v>
+      </c>
+      <c r="AU10" s="4" t="s">
+        <v>2128</v>
+      </c>
+      <c r="AV10" s="4" t="s">
+        <v>2136</v>
+      </c>
+      <c r="AW10" s="4" t="s">
+        <v>1945</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>1930</v>
+      </c>
+      <c r="AY10" s="4"/>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1773</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>1388</v>
@@ -14666,13 +14853,13 @@
         <v>164</v>
       </c>
       <c r="AH11" s="3" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="AI11" s="4" t="s">
         <v>164</v>
       </c>
       <c r="AJ11" s="3" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="AK11" s="4" t="s">
         <v>1376</v>
@@ -14690,27 +14877,40 @@
         <v>567</v>
       </c>
       <c r="AP11" s="57" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="AQ11" s="4" t="s">
         <v>567</v>
       </c>
       <c r="AR11" s="57" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="AS11" s="4" t="s">
         <v>567</v>
       </c>
       <c r="AT11" s="57" t="s">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+        <v>2092</v>
+      </c>
+      <c r="AU11" s="4" t="s">
+        <v>2129</v>
+      </c>
+      <c r="AV11" s="4" t="s">
+        <v>2137</v>
+      </c>
+      <c r="AW11" s="4" t="s">
+        <v>2008</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>2009</v>
+      </c>
+      <c r="AY11" s="4"/>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>1776</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>1</v>
@@ -14759,7 +14959,7 @@
         <v>1391</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="V12" s="56" t="s">
         <v>166</v>
@@ -14822,7 +15022,7 @@
         <v>833</v>
       </c>
       <c r="AP12" s="4" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="AQ12" s="4" t="s">
         <v>1945</v>
@@ -14836,8 +15036,21 @@
       <c r="AT12" s="4" t="s">
         <v>1930</v>
       </c>
-    </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU12" s="4" t="s">
+        <v>1945</v>
+      </c>
+      <c r="AV12" s="4" t="s">
+        <v>1930</v>
+      </c>
+      <c r="AW12" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AX12" s="4" t="s">
+        <v>2143</v>
+      </c>
+      <c r="AY12" s="4"/>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>1498</v>
       </c>
@@ -14952,21 +15165,34 @@
         <v>1960</v>
       </c>
       <c r="AQ13" s="3" t="s">
+        <v>2008</v>
+      </c>
+      <c r="AR13" s="3" t="s">
         <v>2009</v>
       </c>
-      <c r="AR13" s="3" t="s">
-        <v>2010</v>
-      </c>
       <c r="AS13" s="3" t="s">
+        <v>2008</v>
+      </c>
+      <c r="AT13" s="3" t="s">
         <v>2009</v>
       </c>
-      <c r="AT13" s="3" t="s">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU13" s="4" t="s">
+        <v>2008</v>
+      </c>
+      <c r="AV13" s="4" t="s">
+        <v>2009</v>
+      </c>
+      <c r="AW13" s="4" t="s">
+        <v>1947</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>1951</v>
+      </c>
+      <c r="AY13" s="4"/>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>1336</v>
@@ -15046,7 +15272,7 @@
         <v>568</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="AG14" s="4" t="s">
         <v>134</v>
@@ -15082,16 +15308,29 @@
         <v>1942</v>
       </c>
       <c r="AR14" s="4" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="AS14" s="4" t="s">
         <v>1942</v>
       </c>
       <c r="AT14" s="4" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+        <v>2007</v>
+      </c>
+      <c r="AU14" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AV14" s="4" t="s">
+        <v>2143</v>
+      </c>
+      <c r="AW14" s="4" t="s">
+        <v>1948</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>1952</v>
+      </c>
+      <c r="AY14" s="4"/>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>1944</v>
       </c>
@@ -15185,7 +15424,7 @@
         <v>568</v>
       </c>
       <c r="AL15" s="4" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="AM15" s="3" t="s">
         <v>1944</v>
@@ -15194,10 +15433,10 @@
         <v>1950</v>
       </c>
       <c r="AO15" s="3" t="s">
+        <v>2008</v>
+      </c>
+      <c r="AP15" s="3" t="s">
         <v>2009</v>
-      </c>
-      <c r="AP15" s="3" t="s">
-        <v>2010</v>
       </c>
       <c r="AQ15" s="4" t="s">
         <v>1944</v>
@@ -15211,8 +15450,21 @@
       <c r="AT15" s="4" t="s">
         <v>1950</v>
       </c>
-    </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU15" s="4" t="s">
+        <v>1947</v>
+      </c>
+      <c r="AV15" s="4" t="s">
+        <v>1951</v>
+      </c>
+      <c r="AW15" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>2138</v>
+      </c>
+      <c r="AY15" s="4"/>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>316</v>
       </c>
@@ -15288,7 +15540,7 @@
         <v>1946</v>
       </c>
       <c r="AL16" s="4" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="AM16" s="3" t="s">
         <v>1947</v>
@@ -15300,22 +15552,35 @@
         <v>1942</v>
       </c>
       <c r="AP16" s="4" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="AQ16" s="4" t="s">
         <v>122</v>
       </c>
       <c r="AR16" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="AS16" s="4" t="s">
         <v>122</v>
       </c>
       <c r="AT16" s="4" t="s">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+        <v>2098</v>
+      </c>
+      <c r="AU16" s="4" t="s">
+        <v>1948</v>
+      </c>
+      <c r="AV16" s="4" t="s">
+        <v>1952</v>
+      </c>
+      <c r="AW16" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>1960</v>
+      </c>
+      <c r="AY16" s="4"/>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>317</v>
       </c>
@@ -15367,13 +15632,13 @@
         <v>568</v>
       </c>
       <c r="AH17" s="4" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="AI17" s="4" t="s">
         <v>568</v>
       </c>
       <c r="AJ17" s="4" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="AK17" s="4" t="s">
         <v>841</v>
@@ -15394,7 +15659,7 @@
         <v>1950</v>
       </c>
       <c r="AQ17" s="4" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="AR17" s="4" t="s">
         <v>125</v>
@@ -15405,8 +15670,21 @@
       <c r="AT17" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU17" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="AV17" s="4" t="s">
+        <v>2138</v>
+      </c>
+      <c r="AW17" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>2139</v>
+      </c>
+      <c r="AY17" s="4"/>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
         <v>318</v>
       </c>
@@ -15458,41 +15736,54 @@
         <v>1946</v>
       </c>
       <c r="AH18" s="4" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="AI18" s="4" t="s">
         <v>1946</v>
       </c>
       <c r="AJ18" s="4" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="AK18" s="4" t="s">
         <v>1015</v>
       </c>
       <c r="AL18" s="4" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="AM18" s="50"/>
       <c r="AO18" s="4" t="s">
         <v>122</v>
       </c>
       <c r="AP18" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="AQ18" s="4" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="AR18" s="4" t="s">
         <v>1443</v>
       </c>
       <c r="AS18" s="4" t="s">
-        <v>2117</v>
+        <v>131</v>
       </c>
       <c r="AT18" s="4" t="s">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="AU18" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="AV18" s="4" t="s">
+        <v>1960</v>
+      </c>
+      <c r="AW18" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AY18" s="4"/>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>319</v>
       </c>
@@ -15534,10 +15825,10 @@
         <v>841</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="AG19" s="4" t="s">
         <v>841</v>
@@ -15555,7 +15846,7 @@
         <v>850</v>
       </c>
       <c r="AL19" s="4" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="AM19" s="51"/>
       <c r="AO19" s="4" t="s">
@@ -15568,16 +15859,29 @@
         <v>1</v>
       </c>
       <c r="AR19" s="4" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="AS19" s="4" t="s">
-        <v>2118</v>
+        <v>571</v>
       </c>
       <c r="AT19" s="4" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+      <c r="AU19" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="AV19" s="4" t="s">
+        <v>2139</v>
+      </c>
+      <c r="AW19" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>1325</v>
+      </c>
+      <c r="AY19" s="4"/>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
         <v>320</v>
       </c>
@@ -15616,13 +15920,13 @@
         <v>1015</v>
       </c>
       <c r="AH20" s="4" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="AI20" s="4" t="s">
         <v>1015</v>
       </c>
       <c r="AJ20" s="4" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="AK20" s="4" t="s">
         <v>1017</v>
@@ -15637,10 +15941,10 @@
         <v>172</v>
       </c>
       <c r="AQ20" s="4" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="AR20" s="4" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="AS20" s="4" t="s">
         <v>143</v>
@@ -15648,8 +15952,21 @@
       <c r="AT20" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU20" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="AV20" s="4" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AW20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AY20" s="4"/>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
         <v>321</v>
       </c>
@@ -15688,13 +16005,13 @@
         <v>850</v>
       </c>
       <c r="AH21" s="4" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="AI21" s="4" t="s">
         <v>850</v>
       </c>
       <c r="AJ21" s="4" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="AK21" s="3" t="s">
         <v>1944</v>
@@ -15709,10 +16026,10 @@
         <v>179</v>
       </c>
       <c r="AQ21" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="AR21" s="4" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="AS21" s="4" t="s">
         <v>150</v>
@@ -15720,8 +16037,21 @@
       <c r="AT21" s="4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU21" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="AV21" s="4" t="s">
+        <v>1325</v>
+      </c>
+      <c r="AW21" s="4" t="s">
+        <v>2130</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>2007</v>
+      </c>
+      <c r="AY21" s="4"/>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
         <v>322</v>
       </c>
@@ -15781,10 +16111,10 @@
         <v>185</v>
       </c>
       <c r="AQ22" s="4" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="AR22" s="4" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="AS22" s="4" t="s">
         <v>572</v>
@@ -15792,8 +16122,21 @@
       <c r="AT22" s="4" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV22" s="4" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AW22" s="4" t="s">
+        <v>2120</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>2140</v>
+      </c>
+      <c r="AY22" s="4"/>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
         <v>323</v>
       </c>
@@ -15856,7 +16199,7 @@
         <v>1403</v>
       </c>
       <c r="AR23" s="4" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="AS23" s="4" t="s">
         <v>757</v>
@@ -15864,8 +16207,21 @@
       <c r="AT23" s="4" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU23" s="4" t="s">
+        <v>2130</v>
+      </c>
+      <c r="AV23" s="4" t="s">
+        <v>2007</v>
+      </c>
+      <c r="AW23" s="4" t="s">
+        <v>2131</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>2141</v>
+      </c>
+      <c r="AY23" s="4"/>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="F24" s="3"/>
       <c r="I24" s="4" t="s">
         <v>247</v>
@@ -15918,10 +16274,10 @@
         <v>197</v>
       </c>
       <c r="AQ24" s="4" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="AR24" s="4" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="AS24" s="4" t="s">
         <v>1389</v>
@@ -15929,8 +16285,14 @@
       <c r="AT24" s="4" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU24" s="4" t="s">
+        <v>2120</v>
+      </c>
+      <c r="AV24" s="4" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="F25" s="3"/>
       <c r="I25" s="4" t="s">
         <v>240</v>
@@ -15981,7 +16343,7 @@
         <v>666</v>
       </c>
       <c r="AR25" s="4" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="AS25" s="4" t="s">
         <v>758</v>
@@ -15989,8 +16351,15 @@
       <c r="AT25" s="4" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU25" s="4" t="s">
+        <v>2131</v>
+      </c>
+      <c r="AV25" s="4" t="s">
+        <v>2141</v>
+      </c>
+      <c r="AW25" s="4"/>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="F26" s="3"/>
       <c r="I26" s="4" t="s">
         <v>251</v>
@@ -16031,10 +16400,10 @@
         <v>209</v>
       </c>
       <c r="AQ26" s="4" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="AR26" s="4" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="AS26" s="4" t="s">
         <v>759</v>
@@ -16042,8 +16411,11 @@
       <c r="AT26" s="4" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU26" s="4"/>
+      <c r="AV26" s="4"/>
+      <c r="AW26" s="4"/>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -16088,7 +16460,7 @@
         <v>667</v>
       </c>
       <c r="AR27" s="4" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="AS27" s="4" t="s">
         <v>760</v>
@@ -16097,7 +16469,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -16142,7 +16514,7 @@
         <v>668</v>
       </c>
       <c r="AR28" s="4" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="AS28" s="4" t="s">
         <v>761</v>
@@ -16151,7 +16523,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="I29" s="4" t="s">
@@ -16195,7 +16567,7 @@
         <v>669</v>
       </c>
       <c r="AR29" s="4" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="AS29" s="4" t="s">
         <v>762</v>
@@ -16204,7 +16576,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="I30" s="4" t="s">
@@ -16250,7 +16622,7 @@
         <v>670</v>
       </c>
       <c r="AR30" s="4" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="AS30" s="4" t="s">
         <v>763</v>
@@ -16259,7 +16631,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="48"/>
@@ -16310,7 +16682,7 @@
         <v>671</v>
       </c>
       <c r="AR31" s="4" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="AS31" s="4" t="s">
         <v>764</v>
@@ -16319,7 +16691,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="32" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:51" ht="30" x14ac:dyDescent="0.25">
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="48"/>
@@ -16372,7 +16744,7 @@
         <v>672</v>
       </c>
       <c r="AR32" s="4" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="AS32" s="4" t="s">
         <v>765</v>
@@ -16433,7 +16805,7 @@
         <v>673</v>
       </c>
       <c r="AR33" s="4" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="AS33" s="4" t="s">
         <v>766</v>
@@ -16921,7 +17293,7 @@
         <v>681</v>
       </c>
       <c r="AR41" s="4" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="AS41" s="4" t="s">
         <v>774</v>
@@ -16976,7 +17348,7 @@
         <v>682</v>
       </c>
       <c r="AR42" s="4" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="AS42" s="4" t="s">
         <v>775</v>
@@ -18371,7 +18743,7 @@
     </row>
     <row r="103" spans="15:42" x14ac:dyDescent="0.25">
       <c r="O103" s="4" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="AO103" s="4" t="s">
         <v>610</v>
@@ -19881,21 +20253,21 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="B1" s="56" t="s">
         <v>1403</v>
       </c>
       <c r="C1" s="56" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D1" s="56" t="s">
         <v>2088</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>2089</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B2" s="57">
         <v>4</v>
@@ -20051,7 +20423,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B13" s="4">
         <v>16</v>
@@ -20060,14 +20432,14 @@
         <v>1691</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B14" s="4">
         <v>16</v>
@@ -20076,12 +20448,12 @@
         <v>1688</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B15">
         <v>32</v>
@@ -20095,7 +20467,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B16">
         <v>32</v>
@@ -20109,7 +20481,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B17">
         <v>32</v>
@@ -20315,7 +20687,7 @@
         <v>1507</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="D15" s="4"/>
     </row>
@@ -20578,7 +20950,7 @@
         <v>1543</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D37" s="4"/>
     </row>
@@ -20626,7 +20998,7 @@
         <v>1543</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D41" s="4"/>
     </row>
@@ -21532,7 +21904,7 @@
     </row>
     <row r="117" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>1565</v>
@@ -21630,10 +22002,10 @@
         <v>1638</v>
       </c>
       <c r="B125" s="4" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C125" s="4" t="s">
         <v>1994</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>1995</v>
       </c>
       <c r="D125" s="4"/>
     </row>
@@ -21669,7 +22041,7 @@
         <v>1543</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D128" s="4"/>
     </row>
@@ -21681,7 +22053,7 @@
         <v>1543</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="130" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -21703,7 +22075,7 @@
         <v>1677</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D131" s="4"/>
     </row>
@@ -21715,19 +22087,19 @@
         <v>1677</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>1677</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -21738,7 +22110,7 @@
         <v>1677</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D134" s="4"/>
     </row>
@@ -21750,7 +22122,7 @@
         <v>1677</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D135" s="4"/>
     </row>
@@ -21762,7 +22134,7 @@
         <v>1677</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D136" s="4"/>
     </row>
@@ -21872,7 +22244,7 @@
     </row>
     <row r="146" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>1507</v>
@@ -21974,7 +22346,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>1522</v>
@@ -21985,7 +22357,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>1522</v>
@@ -21996,7 +22368,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>1522</v>
@@ -22007,7 +22379,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>1662</v>
@@ -22018,7 +22390,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>1662</v>
@@ -22029,7 +22401,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>1662</v>
@@ -22040,7 +22412,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B161" t="s">
         <v>1522</v>
@@ -22051,29 +22423,29 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>1522</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B163" t="s">
         <v>1522</v>
       </c>
       <c r="C163" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>1522</v>
@@ -22084,7 +22456,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B165" t="s">
         <v>1522</v>
@@ -22095,7 +22467,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B166" t="s">
         <v>1662</v>
@@ -22106,29 +22478,29 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>1522</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>1522</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>1662</v>
@@ -22139,7 +22511,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="B170" t="s">
         <v>1565</v>
@@ -22308,13 +22680,13 @@
     <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="G7" s="7" t="s">
+        <v>2037</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>2037</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>2038</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>2038</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>2039</v>
       </c>
       <c r="J7" s="5"/>
     </row>
@@ -22381,7 +22753,7 @@
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="13" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>340</v>
@@ -22406,7 +22778,7 @@
       <c r="D13" s="12"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -22420,7 +22792,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="12" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -22632,7 +23004,7 @@
         <v>451</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>343</v>
@@ -22657,7 +23029,7 @@
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -22670,7 +23042,7 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="F32" s="16" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -22838,7 +23210,7 @@
         <v>511</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -22856,8 +23228,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F40" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView topLeftCell="F40" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23588,17 +23960,17 @@
     </row>
     <row r="49" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B49" s="10"/>
       <c r="D49" s="10" t="s">
         <v>448</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="J49" s="3"/>
     </row>
@@ -24471,11 +24843,11 @@
         <v>143</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -26382,7 +26754,7 @@
         <v>264</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>264</v>
@@ -26408,7 +26780,7 @@
         <v>157</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>157</v>
@@ -26431,7 +26803,7 @@
         <v>134</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -26463,7 +26835,7 @@
         <v>139</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -26483,7 +26855,7 @@
         <v>125</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -26499,10 +26871,10 @@
         <v>129</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="J12" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -26518,7 +26890,7 @@
         <v>133</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -26537,7 +26909,7 @@
         <v>666</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -26563,10 +26935,10 @@
         <v>146</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -26582,7 +26954,7 @@
         <v>667</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -26611,7 +26983,7 @@
         <v>668</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -26627,7 +26999,7 @@
         <v>669</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -26655,7 +27027,7 @@
         <v>670</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -28406,7 +28778,7 @@
       </c>
       <c r="F3" s="59"/>
       <c r="G3" s="59" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="H3" s="59" t="s">
         <v>1796</v>
@@ -28415,7 +28787,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
       <c r="B4" s="59" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C4" s="59" t="s">
         <v>811</v>
@@ -28598,7 +28970,7 @@
         <v>1871</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>1868</v>
@@ -28656,7 +29028,7 @@
         <v>1904</v>
       </c>
       <c r="G27" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="H27" t="s">
         <v>1820</v>
@@ -28674,17 +29046,17 @@
     </row>
     <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H30" s="4" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H31" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H32" s="4" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -28703,7 +29075,7 @@
         <v>1905</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>1901</v>
@@ -28716,17 +29088,17 @@
     </row>
     <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H37" s="4" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H38" s="4" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H39" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -28913,7 +29285,7 @@
         <v>1846</v>
       </c>
       <c r="G62" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="H62" t="s">
         <v>1844</v>
@@ -28926,7 +29298,7 @@
     </row>
     <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H64" s="4" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -29118,13 +29490,13 @@
         <v>19</v>
       </c>
       <c r="E88" s="4" t="s">
+        <v>2005</v>
+      </c>
+      <c r="G88" s="4" t="s">
         <v>2006</v>
       </c>
-      <c r="G88" s="4" t="s">
-        <v>2007</v>
-      </c>
       <c r="H88" s="4" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -35,6 +35,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">nameserver!$A$1:$J$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">oui!$A$1:$N$362</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">sfp_models!$A$1:$G$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">switch_models!$A$1:$H$77</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5373" uniqueCount="2144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5404" uniqueCount="2153">
   <si>
     <t>switchType</t>
   </si>
@@ -5725,9 +5726,6 @@
     <t>infinibox</t>
   </si>
   <si>
-    <t>^(Distance): *([\w ()=&lt;&gt;]+)$</t>
-  </si>
-  <si>
     <t>HBA_SerialNumber</t>
   </si>
   <si>
@@ -6482,6 +6480,36 @@
   </si>
   <si>
     <t>Тип порта  устройства</t>
+  </si>
+  <si>
+    <t>v7.4.2f</t>
+  </si>
+  <si>
+    <t>H6Z29A</t>
+  </si>
+  <si>
+    <t>Distance:  auto (desired distance = 16 Km, actual distance = 15 Km)</t>
+  </si>
+  <si>
+    <t>Distance:  normal</t>
+  </si>
+  <si>
+    <t>^(Distance): *([\w ()=&lt;&gt;,]+)$</t>
+  </si>
+  <si>
+    <t>Transceiver_distanceMax</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>10 km</t>
+  </si>
+  <si>
+    <t>25 km</t>
+  </si>
+  <si>
+    <t>Максимальное расстояние</t>
   </si>
 </sst>
 </file>
@@ -7150,8 +7178,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8098,7 +8126,7 @@
         <v>1160</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>1500</v>
+        <v>4</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>1097</v>
@@ -8124,7 +8152,7 @@
         <v>1129</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>1500</v>
+        <v>4</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>1097</v>
@@ -8150,7 +8178,7 @@
         <v>1130</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>1500</v>
+        <v>4</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>1097</v>
@@ -8254,7 +8282,7 @@
         <v>1128</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>1500</v>
+        <v>2143</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>1099</v>
@@ -8280,7 +8308,7 @@
         <v>1112</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>1500</v>
+        <v>2143</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>1099</v>
@@ -8358,7 +8386,7 @@
         <v>57</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>1500</v>
+        <v>4</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>1097</v>
@@ -8384,7 +8412,7 @@
         <v>1125</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>1500</v>
+        <v>4</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>1097</v>
@@ -8410,10 +8438,10 @@
         <v>1126</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>1500</v>
+        <v>4</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -8514,10 +8542,10 @@
         <v>1130</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>1500</v>
+        <v>4</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>4</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -8670,7 +8698,7 @@
         <v>1122</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>1099</v>
@@ -8722,7 +8750,7 @@
         <v>1121</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>4</v>
@@ -8748,7 +8776,7 @@
         <v>1120</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>1099</v>
@@ -8774,7 +8802,7 @@
         <v>1120</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>1099</v>
@@ -8800,7 +8828,7 @@
         <v>1131</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>1099</v>
@@ -8826,7 +8854,7 @@
         <v>1132</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>1099</v>
@@ -8878,10 +8906,10 @@
         <v>1118</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>1500</v>
+        <v>4</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -8904,7 +8932,7 @@
         <v>82</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>1099</v>
@@ -8930,7 +8958,7 @@
         <v>84</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>1099</v>
@@ -8956,7 +8984,7 @@
         <v>1119</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>1099</v>
@@ -9008,7 +9036,7 @@
         <v>89</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>1099</v>
@@ -9016,13 +9044,13 @@
     </row>
     <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>1981</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>1982</v>
-      </c>
       <c r="C72" s="4" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>1699</v>
@@ -9031,10 +9059,10 @@
         <v>16</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>1099</v>
@@ -9060,7 +9088,7 @@
         <v>1164</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>1099</v>
@@ -9086,7 +9114,7 @@
         <v>1123</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>1099</v>
@@ -9112,7 +9140,7 @@
         <v>1124</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>1099</v>
@@ -9138,7 +9166,7 @@
         <v>1165</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>1099</v>
@@ -9164,13 +9192,14 @@
         <v>1166</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>1099</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H77"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -9190,7 +9219,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10512,16 +10541,16 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>264</v>
@@ -11098,7 +11127,7 @@
       <c r="L37"/>
       <c r="M37"/>
       <c r="N37" s="4" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="O37"/>
       <c r="P37"/>
@@ -11236,7 +11265,7 @@
         <v>973</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
@@ -12107,7 +12136,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:N8"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12243,19 +12272,19 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I6" s="8" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12303,7 +12332,7 @@
         <v>1038</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>1038</v>
@@ -12568,7 +12597,7 @@
         <v>1779</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -12590,7 +12619,7 @@
         <v>1711</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>1713</v>
@@ -12636,13 +12665,13 @@
         <v>200</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -12702,7 +12731,7 @@
         <v>1726</v>
       </c>
       <c r="I14" s="57" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -12740,7 +12769,7 @@
         <v>200</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>200</v>
@@ -12847,7 +12876,7 @@
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="27" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="F27" s="27" t="s">
         <v>1750</v>
@@ -12867,7 +12896,7 @@
         <v>195</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12878,7 +12907,7 @@
         <v>1734</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12889,7 +12918,7 @@
         <v>1736</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12900,7 +12929,7 @@
         <v>200</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12937,7 +12966,7 @@
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>1756</v>
@@ -12953,7 +12982,7 @@
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
       <c r="F35" s="30" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="36" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12963,7 +12992,7 @@
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12999,7 +13028,7 @@
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="20" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="F38" s="20" t="s">
         <v>1760</v>
@@ -13034,7 +13063,7 @@
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="23" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>1759</v>
@@ -13042,12 +13071,12 @@
     </row>
     <row r="41" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F41" s="23" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="42" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F42" s="23" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -13075,7 +13104,7 @@
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="7" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="F45" s="30" t="s">
         <v>1756</v>
@@ -13093,7 +13122,7 @@
         <v>1790</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -13104,39 +13133,39 @@
     <row r="48" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B49" s="32">
         <v>14</v>
       </c>
       <c r="C49" s="32" t="s">
+        <v>2026</v>
+      </c>
+      <c r="D49" s="32" t="s">
         <v>2027</v>
       </c>
-      <c r="D49" s="32" t="s">
-        <v>2028</v>
-      </c>
       <c r="E49" s="32" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="N49" s="32" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="N50" s="32" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -13157,10 +13186,10 @@
     </row>
     <row r="53" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="N53" s="32" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -13168,14 +13197,14 @@
         <v>15</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="D54" s="20"/>
       <c r="E54" s="20" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -13203,10 +13232,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:AY173"/>
+  <dimension ref="A1:AY174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AS12" sqref="AS12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13262,10 +13291,10 @@
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B1" s="64" t="s">
         <v>1940</v>
-      </c>
-      <c r="B1" s="64" t="s">
-        <v>1941</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>1339</v>
@@ -13323,88 +13352,88 @@
       </c>
       <c r="V1" s="8"/>
       <c r="W1" s="4" t="s">
+        <v>1953</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>1954</v>
       </c>
-      <c r="X1" s="4" t="s">
-        <v>1955</v>
-      </c>
       <c r="Y1" s="31" t="s">
+        <v>1921</v>
+      </c>
+      <c r="Z1" s="31" t="s">
         <v>1922</v>
       </c>
-      <c r="Z1" s="31" t="s">
+      <c r="AA1" s="44" t="s">
         <v>1923</v>
       </c>
-      <c r="AA1" s="44" t="s">
+      <c r="AB1" s="44" t="s">
+        <v>1933</v>
+      </c>
+      <c r="AC1" s="24" t="s">
         <v>1924</v>
       </c>
-      <c r="AB1" s="44" t="s">
+      <c r="AD1" s="24" t="s">
         <v>1934</v>
       </c>
-      <c r="AC1" s="24" t="s">
+      <c r="AE1" s="14" t="s">
+        <v>2077</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>2078</v>
+      </c>
+      <c r="AG1" s="62" t="s">
         <v>1925</v>
       </c>
-      <c r="AD1" s="24" t="s">
+      <c r="AH1" s="62" t="s">
         <v>1935</v>
       </c>
-      <c r="AE1" s="14" t="s">
-        <v>2078</v>
-      </c>
-      <c r="AF1" s="14" t="s">
-        <v>2079</v>
-      </c>
-      <c r="AG1" s="62" t="s">
+      <c r="AI1" s="63" t="s">
         <v>1926</v>
       </c>
-      <c r="AH1" s="62" t="s">
+      <c r="AJ1" s="63" t="s">
         <v>1936</v>
       </c>
-      <c r="AI1" s="63" t="s">
+      <c r="AK1" s="44" t="s">
         <v>1927</v>
       </c>
-      <c r="AJ1" s="63" t="s">
+      <c r="AL1" s="44" t="s">
         <v>1937</v>
       </c>
-      <c r="AK1" s="44" t="s">
+      <c r="AM1" s="12" t="s">
         <v>1928</v>
       </c>
-      <c r="AL1" s="44" t="s">
+      <c r="AN1" s="12" t="s">
         <v>1938</v>
       </c>
-      <c r="AM1" s="12" t="s">
-        <v>1929</v>
-      </c>
-      <c r="AN1" s="12" t="s">
-        <v>1939</v>
-      </c>
       <c r="AO1" s="34" t="s">
+        <v>2080</v>
+      </c>
+      <c r="AP1" s="34" t="s">
         <v>2081</v>
       </c>
-      <c r="AP1" s="34" t="s">
-        <v>2082</v>
-      </c>
       <c r="AQ1" s="39" t="s">
+        <v>2092</v>
+      </c>
+      <c r="AR1" s="39" t="s">
         <v>2093</v>
       </c>
-      <c r="AR1" s="39" t="s">
-        <v>2094</v>
-      </c>
       <c r="AS1" s="59" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="AT1" s="59" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="AU1" s="62" t="s">
+        <v>2121</v>
+      </c>
+      <c r="AV1" s="62" t="s">
+        <v>2123</v>
+      </c>
+      <c r="AW1" s="44" t="s">
         <v>2122</v>
       </c>
-      <c r="AV1" s="62" t="s">
+      <c r="AX1" s="44" t="s">
         <v>2124</v>
-      </c>
-      <c r="AW1" s="44" t="s">
-        <v>2123</v>
-      </c>
-      <c r="AX1" s="44" t="s">
-        <v>2125</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
@@ -13412,7 +13441,7 @@
         <v>1778</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1167</v>
@@ -13564,7 +13593,7 @@
         <v>1777</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1168</v>
@@ -13627,28 +13656,28 @@
         <v>509</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="AE3" t="s">
         <v>1168</v>
@@ -13713,10 +13742,10 @@
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>509</v>
@@ -13779,58 +13808,58 @@
         <v>300</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="Y4" s="3" t="s">
+        <v>2007</v>
+      </c>
+      <c r="Z4" s="3" t="s">
         <v>2008</v>
       </c>
-      <c r="Z4" s="3" t="s">
-        <v>2009</v>
-      </c>
       <c r="AA4" s="3" t="s">
+        <v>2007</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>2008</v>
       </c>
-      <c r="AB4" s="3" t="s">
-        <v>2009</v>
-      </c>
       <c r="AC4" s="3" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="AE4" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="AK4" s="4" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="AL4" s="4" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="AM4" s="4" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="AN4" s="4" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="AO4" s="4" t="s">
         <v>509</v>
@@ -13854,13 +13883,13 @@
         <v>1042</v>
       </c>
       <c r="AV4" s="4" t="s">
+        <v>2131</v>
+      </c>
+      <c r="AW4" s="4" t="s">
+        <v>2125</v>
+      </c>
+      <c r="AX4" t="s">
         <v>2132</v>
-      </c>
-      <c r="AW4" s="4" t="s">
-        <v>2126</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>2133</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
@@ -13868,7 +13897,7 @@
         <v>1769</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>300</v>
@@ -13931,58 +13960,58 @@
         <v>1376</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="Y5" s="3" t="s">
+        <v>1915</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>1930</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>1915</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>1930</v>
+      </c>
+      <c r="AC5" s="3" t="s">
         <v>1916</v>
       </c>
-      <c r="Z5" s="3" t="s">
-        <v>1931</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>1916</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>1931</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>1917</v>
-      </c>
       <c r="AD5" s="3" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="AE5" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="AF5" s="4" t="s">
+        <v>2006</v>
+      </c>
+      <c r="AG5" s="3" t="s">
         <v>2007</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AH5" s="3" t="s">
         <v>2008</v>
       </c>
-      <c r="AH5" s="3" t="s">
-        <v>2009</v>
-      </c>
       <c r="AI5" s="3" t="s">
+        <v>2007</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
         <v>2008</v>
-      </c>
-      <c r="AJ5" s="3" t="s">
-        <v>2009</v>
       </c>
       <c r="AK5" s="4" t="s">
         <v>1083</v>
       </c>
       <c r="AL5" s="4" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="AM5" s="4" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="AO5" s="4" t="s">
         <v>120</v>
@@ -14003,25 +14032,25 @@
         <v>1326</v>
       </c>
       <c r="AU5" s="4" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="AV5" s="4" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="AW5" s="4" t="s">
         <v>1059</v>
       </c>
       <c r="AX5" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="AY5" s="4"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>264</v>
@@ -14084,25 +14113,25 @@
         <v>134</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="X6" s="3" t="s">
         <v>1327</v>
       </c>
       <c r="Y6" s="3" t="s">
+        <v>1916</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>1948</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>1916</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>1948</v>
+      </c>
+      <c r="AC6" s="3" t="s">
         <v>1917</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>1949</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>1917</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>1949</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>1918</v>
       </c>
       <c r="AD6" s="3" t="s">
         <v>1327</v>
@@ -14111,31 +14140,31 @@
         <v>1083</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="AG6" s="4" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="AK6" s="4" t="s">
         <v>1488</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="AM6" s="4" t="s">
         <v>1488</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="AO6" s="4" t="s">
         <v>1376</v>
@@ -14159,13 +14188,13 @@
         <v>1043</v>
       </c>
       <c r="AV6" s="4" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="AW6" s="4" t="s">
         <v>1060</v>
       </c>
       <c r="AX6" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="AY6" s="4"/>
     </row>
@@ -14174,7 +14203,7 @@
         <v>1770</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>107</v>
@@ -14204,7 +14233,7 @@
         <v>1408</v>
       </c>
       <c r="L7" s="52" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>1351</v>
@@ -14240,16 +14269,16 @@
         <v>1782</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="Z7" s="3" t="s">
         <v>1327</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="AB7" s="3" t="s">
         <v>1327</v>
@@ -14258,37 +14287,37 @@
         <v>1782</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="AE7" t="s">
         <v>1488</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="AG7" s="4" t="s">
         <v>1083</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="AI7" s="4" t="s">
         <v>1083</v>
       </c>
       <c r="AJ7" s="4" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="AK7" s="4" t="s">
         <v>1048</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="AM7" s="4" t="s">
         <v>1792</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="AO7" s="4" t="s">
         <v>134</v>
@@ -14312,13 +14341,13 @@
         <v>1059</v>
       </c>
       <c r="AV7" s="4" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="AW7" s="4" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="AX7" s="4" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="AY7" s="4"/>
     </row>
@@ -14327,7 +14356,7 @@
         <v>1771</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>157</v>
@@ -14354,10 +14383,10 @@
         <v>1175</v>
       </c>
       <c r="K8" s="4" t="s">
+        <v>2010</v>
+      </c>
+      <c r="L8" s="52" t="s">
         <v>2011</v>
-      </c>
-      <c r="L8" s="52" t="s">
-        <v>2012</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>1352</v>
@@ -14390,28 +14419,28 @@
         <v>1489</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="Y8" s="3" t="s">
         <v>1782</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="AA8" s="3" t="s">
         <v>1782</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="AE8" s="4" t="s">
         <v>509</v>
@@ -14423,13 +14452,13 @@
         <v>1488</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="AI8" s="4" t="s">
         <v>1488</v>
       </c>
       <c r="AJ8" s="4" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="AK8" s="4" t="s">
         <v>509</v>
@@ -14441,7 +14470,7 @@
         <v>1791</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="AO8" s="4" t="s">
         <v>139</v>
@@ -14465,13 +14494,13 @@
         <v>1060</v>
       </c>
       <c r="AV8" s="4" t="s">
+        <v>2134</v>
+      </c>
+      <c r="AW8" s="4" t="s">
+        <v>2127</v>
+      </c>
+      <c r="AX8" t="s">
         <v>2135</v>
-      </c>
-      <c r="AW8" s="4" t="s">
-        <v>2128</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>2136</v>
       </c>
       <c r="AY8" s="4"/>
     </row>
@@ -14480,7 +14509,7 @@
         <v>1772</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>0</v>
@@ -14521,7 +14550,7 @@
         <v>879</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>1443</v>
@@ -14539,16 +14568,16 @@
         <v>1488</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="AE9" t="s">
         <v>120</v>
@@ -14560,19 +14589,19 @@
         <v>1048</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="AI9" s="4" t="s">
         <v>1048</v>
       </c>
       <c r="AJ9" s="4" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="AK9" s="4" t="s">
         <v>164</v>
       </c>
       <c r="AL9" s="3" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="AM9" s="4" t="s">
         <v>1787</v>
@@ -14581,43 +14610,43 @@
         <v>1169</v>
       </c>
       <c r="AO9" s="4" t="s">
-        <v>568</v>
+        <v>166</v>
       </c>
       <c r="AP9" s="4" t="s">
-        <v>1962</v>
+        <v>1442</v>
       </c>
       <c r="AQ9" s="4" t="s">
-        <v>568</v>
+        <v>166</v>
       </c>
       <c r="AR9" s="4" t="s">
-        <v>1962</v>
+        <v>1442</v>
       </c>
       <c r="AS9" s="4" t="s">
-        <v>568</v>
+        <v>166</v>
       </c>
       <c r="AT9" s="4" t="s">
-        <v>1962</v>
+        <v>1442</v>
       </c>
       <c r="AU9" s="4" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="AV9" s="4" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="AW9" s="4" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="AX9" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="AY9" s="4"/>
     </row>
     <row r="10" spans="1:51" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>1387</v>
@@ -14678,25 +14707,25 @@
         <v>1096</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="Y10" s="3" t="s">
         <v>1096</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="AA10" s="3" t="s">
         <v>1096</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>1096</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="AE10" t="s">
         <v>1376</v>
@@ -14729,34 +14758,34 @@
         <v>1335</v>
       </c>
       <c r="AO10" s="4" t="s">
-        <v>1377</v>
+        <v>568</v>
       </c>
       <c r="AP10" s="4" t="s">
-        <v>2138</v>
+        <v>1961</v>
       </c>
       <c r="AQ10" s="4" t="s">
-        <v>1377</v>
+        <v>568</v>
       </c>
       <c r="AR10" s="4" t="s">
-        <v>2138</v>
+        <v>1961</v>
       </c>
       <c r="AS10" s="4" t="s">
-        <v>1377</v>
+        <v>568</v>
       </c>
       <c r="AT10" s="4" t="s">
-        <v>2138</v>
+        <v>1961</v>
       </c>
       <c r="AU10" s="4" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="AV10" s="4" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="AW10" s="4" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="AX10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="AY10" s="4"/>
     </row>
@@ -14765,7 +14794,7 @@
         <v>1773</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>1388</v>
@@ -14820,28 +14849,28 @@
         <v>157</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="X11" s="3" t="s">
         <v>1335</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="Z11" s="3" t="s">
         <v>1335</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="AB11" s="3" t="s">
         <v>1335</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="AE11" t="s">
         <v>134</v>
@@ -14853,13 +14882,13 @@
         <v>164</v>
       </c>
       <c r="AH11" s="3" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="AI11" s="4" t="s">
         <v>164</v>
       </c>
       <c r="AJ11" s="3" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="AK11" s="4" t="s">
         <v>1376</v>
@@ -14871,37 +14900,37 @@
         <v>1793</v>
       </c>
       <c r="AN11" s="4" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="AO11" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="AP11" s="57" t="s">
-        <v>2092</v>
+        <v>1377</v>
+      </c>
+      <c r="AP11" s="4" t="s">
+        <v>2137</v>
       </c>
       <c r="AQ11" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="AR11" s="57" t="s">
-        <v>2092</v>
+        <v>1377</v>
+      </c>
+      <c r="AR11" s="4" t="s">
+        <v>2137</v>
       </c>
       <c r="AS11" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="AT11" s="57" t="s">
-        <v>2092</v>
+        <v>1377</v>
+      </c>
+      <c r="AT11" s="4" t="s">
+        <v>2137</v>
       </c>
       <c r="AU11" s="4" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="AV11" s="4" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="AW11" s="4" t="s">
+        <v>2007</v>
+      </c>
+      <c r="AX11" t="s">
         <v>2008</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>2009</v>
       </c>
       <c r="AY11" s="4"/>
     </row>
@@ -14910,7 +14939,7 @@
         <v>1776</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>1</v>
@@ -14959,7 +14988,7 @@
         <v>1391</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="V12" s="56" t="s">
         <v>166</v>
@@ -14983,10 +15012,10 @@
         <v>1499</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="AE12" t="s">
         <v>139</v>
@@ -15019,34 +15048,34 @@
         <v>1499</v>
       </c>
       <c r="AO12" s="4" t="s">
-        <v>833</v>
-      </c>
-      <c r="AP12" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="AP12" s="57" t="s">
         <v>2091</v>
       </c>
       <c r="AQ12" s="4" t="s">
-        <v>1945</v>
-      </c>
-      <c r="AR12" s="4" t="s">
-        <v>1930</v>
+        <v>567</v>
+      </c>
+      <c r="AR12" s="57" t="s">
+        <v>2091</v>
       </c>
       <c r="AS12" s="4" t="s">
-        <v>1945</v>
-      </c>
-      <c r="AT12" s="4" t="s">
-        <v>1930</v>
+        <v>567</v>
+      </c>
+      <c r="AT12" s="57" t="s">
+        <v>2091</v>
       </c>
       <c r="AU12" s="4" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="AV12" s="4" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="AW12" s="4" t="s">
         <v>1083</v>
       </c>
       <c r="AX12" s="4" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="AY12" s="4"/>
     </row>
@@ -15110,19 +15139,19 @@
         <v>1377</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="X13" s="3" t="s">
         <v>1336</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="Z13" s="3" t="s">
         <v>1336</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="AB13" s="3" t="s">
         <v>1336</v>
@@ -15153,46 +15182,46 @@
         <v>1441</v>
       </c>
       <c r="AM13" s="4" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="AN13" s="4" t="s">
         <v>1336</v>
       </c>
       <c r="AO13" s="4" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AP13" s="4" t="s">
-        <v>1960</v>
-      </c>
-      <c r="AQ13" s="3" t="s">
+        <v>2090</v>
+      </c>
+      <c r="AQ13" s="4" t="s">
+        <v>1944</v>
+      </c>
+      <c r="AR13" s="4" t="s">
+        <v>1929</v>
+      </c>
+      <c r="AS13" s="4" t="s">
+        <v>1944</v>
+      </c>
+      <c r="AT13" s="4" t="s">
+        <v>1929</v>
+      </c>
+      <c r="AU13" s="4" t="s">
+        <v>2007</v>
+      </c>
+      <c r="AV13" s="4" t="s">
         <v>2008</v>
       </c>
-      <c r="AR13" s="3" t="s">
-        <v>2009</v>
-      </c>
-      <c r="AS13" s="3" t="s">
-        <v>2008</v>
-      </c>
-      <c r="AT13" s="3" t="s">
-        <v>2009</v>
-      </c>
-      <c r="AU13" s="4" t="s">
-        <v>2008</v>
-      </c>
-      <c r="AV13" s="4" t="s">
-        <v>2009</v>
-      </c>
       <c r="AW13" s="4" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="AX13" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="AY13" s="4"/>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>1336</v>
@@ -15250,29 +15279,29 @@
         <v>1167</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="AC14" s="4"/>
       <c r="AE14" s="4" t="s">
         <v>568</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="AG14" s="4" t="s">
         <v>134</v>
@@ -15293,55 +15322,55 @@
         <v>1442</v>
       </c>
       <c r="AM14" s="3" t="s">
+        <v>1958</v>
+      </c>
+      <c r="AN14" s="4" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AO14" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="AP14" s="4" t="s">
         <v>1959</v>
       </c>
-      <c r="AN14" s="4" t="s">
-        <v>1957</v>
-      </c>
-      <c r="AO14" s="4" t="s">
-        <v>1945</v>
-      </c>
-      <c r="AP14" s="4" t="s">
-        <v>1930</v>
-      </c>
-      <c r="AQ14" s="4" t="s">
-        <v>1942</v>
-      </c>
-      <c r="AR14" s="4" t="s">
+      <c r="AQ14" s="3" t="s">
         <v>2007</v>
       </c>
-      <c r="AS14" s="4" t="s">
-        <v>1942</v>
-      </c>
-      <c r="AT14" s="4" t="s">
+      <c r="AR14" s="3" t="s">
+        <v>2008</v>
+      </c>
+      <c r="AS14" s="3" t="s">
         <v>2007</v>
+      </c>
+      <c r="AT14" s="3" t="s">
+        <v>2008</v>
       </c>
       <c r="AU14" s="4" t="s">
         <v>1083</v>
       </c>
       <c r="AV14" s="4" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="AW14" s="4" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="AX14" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="AY14" s="4"/>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G15" t="s">
         <v>315</v>
@@ -15384,29 +15413,29 @@
         <v>1168</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="AB15" s="3" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="AC15" s="4"/>
       <c r="AE15" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="AF15" s="3" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="AG15" s="4" t="s">
         <v>139</v>
@@ -15424,43 +15453,43 @@
         <v>568</v>
       </c>
       <c r="AL15" s="4" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="AM15" s="3" t="s">
+        <v>1943</v>
+      </c>
+      <c r="AN15" s="4" t="s">
+        <v>1949</v>
+      </c>
+      <c r="AO15" s="4" t="s">
         <v>1944</v>
       </c>
-      <c r="AN15" s="4" t="s">
+      <c r="AP15" s="4" t="s">
+        <v>1929</v>
+      </c>
+      <c r="AQ15" s="4" t="s">
+        <v>1941</v>
+      </c>
+      <c r="AR15" s="4" t="s">
+        <v>2006</v>
+      </c>
+      <c r="AS15" s="4" t="s">
+        <v>1941</v>
+      </c>
+      <c r="AT15" s="4" t="s">
+        <v>2006</v>
+      </c>
+      <c r="AU15" s="4" t="s">
+        <v>1946</v>
+      </c>
+      <c r="AV15" s="4" t="s">
         <v>1950</v>
-      </c>
-      <c r="AO15" s="3" t="s">
-        <v>2008</v>
-      </c>
-      <c r="AP15" s="3" t="s">
-        <v>2009</v>
-      </c>
-      <c r="AQ15" s="4" t="s">
-        <v>1944</v>
-      </c>
-      <c r="AR15" s="4" t="s">
-        <v>1950</v>
-      </c>
-      <c r="AS15" s="4" t="s">
-        <v>1944</v>
-      </c>
-      <c r="AT15" s="4" t="s">
-        <v>1950</v>
-      </c>
-      <c r="AU15" s="4" t="s">
-        <v>1947</v>
-      </c>
-      <c r="AV15" s="4" t="s">
-        <v>1951</v>
       </c>
       <c r="AW15" s="4" t="s">
         <v>1377</v>
       </c>
       <c r="AX15" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="AY15" s="4"/>
     </row>
@@ -15506,23 +15535,23 @@
         <v>164</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="AB16" s="3" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="AC16" s="4"/>
       <c r="AE16" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="AF16" s="3" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="AG16" s="4" t="s">
         <v>166</v>
@@ -15537,46 +15566,46 @@
         <v>1442</v>
       </c>
       <c r="AK16" s="4" t="s">
+        <v>1945</v>
+      </c>
+      <c r="AL16" s="4" t="s">
+        <v>1965</v>
+      </c>
+      <c r="AM16" s="3" t="s">
         <v>1946</v>
       </c>
-      <c r="AL16" s="4" t="s">
-        <v>1966</v>
-      </c>
-      <c r="AM16" s="3" t="s">
+      <c r="AN16" s="4" t="s">
+        <v>1950</v>
+      </c>
+      <c r="AO16" s="3" t="s">
+        <v>2007</v>
+      </c>
+      <c r="AP16" s="3" t="s">
+        <v>2008</v>
+      </c>
+      <c r="AQ16" s="4" t="s">
+        <v>1943</v>
+      </c>
+      <c r="AR16" s="4" t="s">
+        <v>1949</v>
+      </c>
+      <c r="AS16" s="4" t="s">
+        <v>1943</v>
+      </c>
+      <c r="AT16" s="4" t="s">
+        <v>1949</v>
+      </c>
+      <c r="AU16" s="4" t="s">
         <v>1947</v>
       </c>
-      <c r="AN16" s="4" t="s">
+      <c r="AV16" s="4" t="s">
         <v>1951</v>
-      </c>
-      <c r="AO16" s="4" t="s">
-        <v>1942</v>
-      </c>
-      <c r="AP16" s="4" t="s">
-        <v>2007</v>
-      </c>
-      <c r="AQ16" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AR16" s="4" t="s">
-        <v>2098</v>
-      </c>
-      <c r="AS16" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT16" s="4" t="s">
-        <v>2098</v>
-      </c>
-      <c r="AU16" s="4" t="s">
-        <v>1948</v>
-      </c>
-      <c r="AV16" s="4" t="s">
-        <v>1952</v>
       </c>
       <c r="AW16" s="4" t="s">
         <v>832</v>
       </c>
       <c r="AX16" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="AY16" s="4"/>
     </row>
@@ -15623,22 +15652,22 @@
       </c>
       <c r="AB17" s="4"/>
       <c r="AE17" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="AF17" s="3" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="AG17" s="4" t="s">
         <v>568</v>
       </c>
       <c r="AH17" s="4" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="AI17" s="4" t="s">
         <v>568</v>
       </c>
       <c r="AJ17" s="4" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="AK17" s="4" t="s">
         <v>841</v>
@@ -15647,40 +15676,40 @@
         <v>841</v>
       </c>
       <c r="AM17" s="3" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="AN17" s="4" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="AO17" s="4" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
       <c r="AP17" s="4" t="s">
-        <v>1950</v>
+        <v>2006</v>
       </c>
       <c r="AQ17" s="4" t="s">
-        <v>2083</v>
+        <v>122</v>
       </c>
       <c r="AR17" s="4" t="s">
-        <v>125</v>
+        <v>2097</v>
       </c>
       <c r="AS17" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AT17" s="4" t="s">
-        <v>127</v>
+        <v>2097</v>
       </c>
       <c r="AU17" s="4" t="s">
         <v>1377</v>
       </c>
       <c r="AV17" s="4" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="AW17" s="4" t="s">
         <v>833</v>
       </c>
       <c r="AX17" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="AY17" s="4"/>
     </row>
@@ -15727,59 +15756,59 @@
       </c>
       <c r="AB18" s="48"/>
       <c r="AE18" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="AF18" s="3" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="AG18" s="4" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="AH18" s="4" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="AI18" s="4" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="AJ18" s="4" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="AK18" s="4" t="s">
         <v>1015</v>
       </c>
       <c r="AL18" s="4" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="AM18" s="50"/>
       <c r="AO18" s="4" t="s">
-        <v>122</v>
+        <v>1943</v>
       </c>
       <c r="AP18" s="4" t="s">
-        <v>2098</v>
+        <v>1949</v>
       </c>
       <c r="AQ18" s="4" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="AR18" s="4" t="s">
-        <v>1443</v>
+        <v>125</v>
       </c>
       <c r="AS18" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AT18" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AU18" s="4" t="s">
         <v>832</v>
       </c>
       <c r="AV18" s="4" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="AW18" s="4" t="s">
         <v>568</v>
       </c>
       <c r="AX18" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="AY18" s="4"/>
     </row>
@@ -15825,10 +15854,10 @@
         <v>841</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="AG19" s="4" t="s">
         <v>841</v>
@@ -15846,32 +15875,32 @@
         <v>850</v>
       </c>
       <c r="AL19" s="4" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="AM19" s="51"/>
       <c r="AO19" s="4" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="AP19" s="4" t="s">
-        <v>165</v>
+        <v>2097</v>
       </c>
       <c r="AQ19" s="4" t="s">
-        <v>1</v>
+        <v>2083</v>
       </c>
       <c r="AR19" s="4" t="s">
-        <v>2097</v>
+        <v>1443</v>
       </c>
       <c r="AS19" s="4" t="s">
-        <v>571</v>
+        <v>131</v>
       </c>
       <c r="AT19" s="4" t="s">
-        <v>571</v>
+        <v>131</v>
       </c>
       <c r="AU19" s="4" t="s">
         <v>833</v>
       </c>
       <c r="AV19" s="4" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="AW19" s="4" t="s">
         <v>509</v>
@@ -15920,13 +15949,13 @@
         <v>1015</v>
       </c>
       <c r="AH20" s="4" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="AI20" s="4" t="s">
         <v>1015</v>
       </c>
       <c r="AJ20" s="4" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="AK20" s="4" t="s">
         <v>1017</v>
@@ -15935,28 +15964,28 @@
         <v>1017</v>
       </c>
       <c r="AO20" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="AP20" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="AQ20" s="4" t="s">
-        <v>2088</v>
+        <v>1</v>
       </c>
       <c r="AR20" s="4" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
       <c r="AS20" s="4" t="s">
-        <v>143</v>
+        <v>571</v>
       </c>
       <c r="AT20" s="4" t="s">
-        <v>143</v>
+        <v>571</v>
       </c>
       <c r="AU20" s="4" t="s">
         <v>568</v>
       </c>
       <c r="AV20" s="4" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="AW20" s="4" t="s">
         <v>120</v>
@@ -16005,37 +16034,37 @@
         <v>850</v>
       </c>
       <c r="AH21" s="4" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="AI21" s="4" t="s">
         <v>850</v>
       </c>
       <c r="AJ21" s="4" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="AK21" s="3" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="AL21" s="4" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="AO21" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AP21" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AQ21" s="4" t="s">
-        <v>2095</v>
+        <v>2087</v>
       </c>
       <c r="AR21" s="4" t="s">
-        <v>2104</v>
+        <v>2098</v>
       </c>
       <c r="AS21" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AT21" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AU21" s="4" t="s">
         <v>509</v>
@@ -16044,10 +16073,10 @@
         <v>1325</v>
       </c>
       <c r="AW21" s="4" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="AX21" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="AY21" s="4"/>
     </row>
@@ -16099,28 +16128,28 @@
         <v>1017</v>
       </c>
       <c r="AK22" s="3" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="AL22" s="4" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="AO22" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AP22" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AQ22" s="4" t="s">
-        <v>2085</v>
+        <v>2094</v>
       </c>
       <c r="AR22" s="4" t="s">
-        <v>2100</v>
+        <v>2103</v>
       </c>
       <c r="AS22" s="4" t="s">
-        <v>572</v>
+        <v>150</v>
       </c>
       <c r="AT22" s="4" t="s">
-        <v>572</v>
+        <v>150</v>
       </c>
       <c r="AU22" s="4" t="s">
         <v>120</v>
@@ -16129,10 +16158,10 @@
         <v>1326</v>
       </c>
       <c r="AW22" s="4" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="AX22" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="AY22" s="4"/>
     </row>
@@ -16169,55 +16198,55 @@
         <v>1167</v>
       </c>
       <c r="V23" s="56" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="AG23" s="3" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="AH23" s="4" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="AI23" s="3" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="AJ23" s="4" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="AK23" s="3" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="AL23" s="4" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="AO23" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AP23" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AQ23" s="4" t="s">
-        <v>1403</v>
+        <v>2084</v>
       </c>
       <c r="AR23" s="4" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="AS23" s="4" t="s">
-        <v>757</v>
+        <v>572</v>
       </c>
       <c r="AT23" s="4" t="s">
-        <v>757</v>
+        <v>572</v>
       </c>
       <c r="AU23" s="4" t="s">
+        <v>2129</v>
+      </c>
+      <c r="AV23" s="4" t="s">
+        <v>2006</v>
+      </c>
+      <c r="AW23" s="4" t="s">
         <v>2130</v>
       </c>
-      <c r="AV23" s="4" t="s">
-        <v>2007</v>
-      </c>
-      <c r="AW23" s="4" t="s">
-        <v>2131</v>
-      </c>
       <c r="AX23" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="AY23" s="4"/>
     </row>
@@ -16249,47 +16278,47 @@
         <v>1168</v>
       </c>
       <c r="V24" s="56" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="48"/>
       <c r="AG24" s="3" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="AH24" s="4" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="AI24" s="3" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="AJ24" s="4" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="AO24" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AP24" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AQ24" s="4" t="s">
-        <v>2087</v>
+        <v>1403</v>
       </c>
       <c r="AR24" s="4" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="AS24" s="4" t="s">
-        <v>1389</v>
+        <v>757</v>
       </c>
       <c r="AT24" s="4" t="s">
-        <v>1389</v>
+        <v>757</v>
       </c>
       <c r="AU24" s="4" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="AV24" s="4" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.25">
@@ -16317,45 +16346,45 @@
         <v>1451</v>
       </c>
       <c r="V25" s="56" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="AA25" s="4"/>
       <c r="AD25" s="48"/>
       <c r="AG25" s="3" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="AH25" s="4" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="AI25" s="3" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="AJ25" s="4" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="AO25" s="4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AP25" s="4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AQ25" s="4" t="s">
-        <v>666</v>
+        <v>2086</v>
       </c>
       <c r="AR25" s="4" t="s">
-        <v>2105</v>
+        <v>2101</v>
       </c>
       <c r="AS25" s="4" t="s">
-        <v>758</v>
+        <v>1389</v>
       </c>
       <c r="AT25" s="4" t="s">
-        <v>758</v>
+        <v>1389</v>
       </c>
       <c r="AU25" s="4" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="AV25" s="4" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="AW25" s="4"/>
     </row>
@@ -16394,22 +16423,22 @@
       <c r="AI26" s="4"/>
       <c r="AJ26" s="4"/>
       <c r="AO26" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AP26" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AQ26" s="4" t="s">
-        <v>2096</v>
+        <v>2148</v>
       </c>
       <c r="AR26" s="4" t="s">
-        <v>2103</v>
+        <v>2152</v>
       </c>
       <c r="AS26" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AT26" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AU26" s="4"/>
       <c r="AV26" s="4"/>
@@ -16442,7 +16471,7 @@
         <v>1448</v>
       </c>
       <c r="V27" s="56" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
@@ -16451,22 +16480,22 @@
       <c r="AI27" s="4"/>
       <c r="AJ27" s="4"/>
       <c r="AO27" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AP27" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AQ27" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AR27" s="4" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="AS27" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AT27" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.25">
@@ -16497,7 +16526,7 @@
       </c>
       <c r="T28" s="48"/>
       <c r="V28" s="56" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="AD28" s="48"/>
       <c r="AG28" s="4"/>
@@ -16505,22 +16534,22 @@
       <c r="AI28" s="4"/>
       <c r="AJ28" s="4"/>
       <c r="AO28" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AP28" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AQ28" s="4" t="s">
-        <v>668</v>
+        <v>2095</v>
       </c>
       <c r="AR28" s="4" t="s">
-        <v>2107</v>
+        <v>2102</v>
       </c>
       <c r="AS28" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AT28" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.25">
@@ -16550,7 +16579,7 @@
       </c>
       <c r="T29" s="48"/>
       <c r="V29" s="56" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="AD29" s="48"/>
       <c r="AG29" s="4"/>
@@ -16558,22 +16587,22 @@
       <c r="AI29" s="4"/>
       <c r="AJ29" s="4"/>
       <c r="AO29" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AP29" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AQ29" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="AR29" s="4" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="AS29" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AT29" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.25">
@@ -16613,22 +16642,22 @@
       <c r="AI30" s="4"/>
       <c r="AJ30" s="4"/>
       <c r="AO30" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AP30" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AQ30" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="AR30" s="4" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="AS30" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AT30" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.25">
@@ -16673,22 +16702,22 @@
       <c r="AI31" s="4"/>
       <c r="AJ31" s="4"/>
       <c r="AO31" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AP31" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AQ31" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="AR31" s="4" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="AS31" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AT31" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="32" spans="1:51" ht="30" x14ac:dyDescent="0.25">
@@ -16735,22 +16764,22 @@
       <c r="AI32" s="4"/>
       <c r="AJ32" s="4"/>
       <c r="AO32" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AP32" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AQ32" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="AR32" s="4" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="AS32" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AT32" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="33" spans="3:48" x14ac:dyDescent="0.25">
@@ -16796,22 +16825,22 @@
       <c r="AH33" s="4"/>
       <c r="AJ33" s="4"/>
       <c r="AO33" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AP33" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AQ33" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AR33" s="4" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="AS33" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AT33" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="34" spans="3:48" x14ac:dyDescent="0.25">
@@ -16860,22 +16889,22 @@
       <c r="AM34" s="48"/>
       <c r="AN34" s="48"/>
       <c r="AO34" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AP34" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AQ34" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="AR34" s="4" t="s">
-        <v>674</v>
+        <v>2110</v>
       </c>
       <c r="AS34" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AT34" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AU34" s="48"/>
       <c r="AV34" s="48"/>
@@ -16909,7 +16938,7 @@
       </c>
       <c r="T35" s="48"/>
       <c r="V35" s="56" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="W35" s="48"/>
       <c r="X35" s="48"/>
@@ -16928,22 +16957,22 @@
       <c r="AM35" s="48"/>
       <c r="AN35" s="48"/>
       <c r="AO35" s="4" t="s">
-        <v>124</v>
+        <v>238</v>
       </c>
       <c r="AP35" s="4" t="s">
-        <v>124</v>
+        <v>238</v>
       </c>
       <c r="AQ35" s="4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AR35" s="4" t="s">
-        <v>675</v>
+        <v>2111</v>
       </c>
       <c r="AS35" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AT35" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AU35" s="48"/>
       <c r="AV35" s="48"/>
@@ -16987,22 +17016,22 @@
       <c r="AM36" s="48"/>
       <c r="AN36" s="48"/>
       <c r="AO36" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AP36" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AQ36" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AR36" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AS36" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AT36" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AU36" s="48"/>
       <c r="AV36" s="48"/>
@@ -17046,22 +17075,22 @@
       <c r="AM37" s="48"/>
       <c r="AN37" s="48"/>
       <c r="AO37" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AP37" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AQ37" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AR37" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AS37" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AT37" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AU37" s="48"/>
       <c r="AV37" s="48"/>
@@ -17086,7 +17115,7 @@
       <c r="R38" s="4"/>
       <c r="T38" s="48"/>
       <c r="V38" s="56" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="W38" s="48"/>
       <c r="X38" s="48"/>
@@ -17105,22 +17134,22 @@
       <c r="AM38" s="48"/>
       <c r="AN38" s="48"/>
       <c r="AO38" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AP38" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AQ38" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AR38" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AS38" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AT38" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AU38" s="48"/>
       <c r="AV38" s="48"/>
@@ -17164,22 +17193,22 @@
       <c r="AM39" s="48"/>
       <c r="AN39" s="48"/>
       <c r="AO39" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="AP39" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="AQ39" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="AR39" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="AS39" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AT39" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AU39" s="48"/>
       <c r="AV39" s="48"/>
@@ -17204,7 +17233,7 @@
       <c r="R40" s="4"/>
       <c r="T40" s="48"/>
       <c r="V40" s="56" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="W40" s="48"/>
       <c r="X40" s="48"/>
@@ -17223,22 +17252,22 @@
       <c r="AM40" s="48"/>
       <c r="AN40" s="48"/>
       <c r="AO40" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AP40" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AQ40" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="AR40" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="AS40" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AT40" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AU40" s="48"/>
       <c r="AV40" s="48"/>
@@ -17265,7 +17294,7 @@
       <c r="R41" s="4"/>
       <c r="T41" s="48"/>
       <c r="V41" s="56" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="W41" s="48"/>
       <c r="X41" s="48"/>
@@ -17284,22 +17313,22 @@
       <c r="AM41" s="48"/>
       <c r="AN41" s="48"/>
       <c r="AO41" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="AP41" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="AQ41" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="AR41" s="4" t="s">
-        <v>2113</v>
+        <v>679</v>
       </c>
       <c r="AS41" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AT41" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AU41" s="48"/>
       <c r="AV41" s="48"/>
@@ -17320,7 +17349,7 @@
       <c r="R42" s="4"/>
       <c r="T42" s="48"/>
       <c r="V42" s="56" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="W42" s="48"/>
       <c r="X42" s="48"/>
@@ -17339,22 +17368,22 @@
       <c r="AM42" s="48"/>
       <c r="AN42" s="48"/>
       <c r="AO42" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AP42" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AQ42" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AR42" s="4" t="s">
-        <v>2114</v>
+        <v>680</v>
       </c>
       <c r="AS42" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AT42" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AU42" s="48"/>
       <c r="AV42" s="48"/>
@@ -17391,18 +17420,22 @@
       <c r="AM43" s="48"/>
       <c r="AN43" s="48"/>
       <c r="AO43" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="AP43" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AQ43" s="4"/>
-      <c r="AR43" s="4"/>
+        <v>167</v>
+      </c>
+      <c r="AQ43" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="AR43" s="4" t="s">
+        <v>2112</v>
+      </c>
       <c r="AS43" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AT43" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AU43" s="48"/>
       <c r="AV43" s="48"/>
@@ -17439,18 +17472,22 @@
       <c r="AM44" s="48"/>
       <c r="AN44" s="48"/>
       <c r="AO44" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AP44" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AQ44" s="4"/>
-      <c r="AR44" s="4"/>
+        <v>174</v>
+      </c>
+      <c r="AQ44" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="AR44" s="4" t="s">
+        <v>2113</v>
+      </c>
       <c r="AS44" s="4" t="s">
-        <v>571</v>
+        <v>776</v>
       </c>
       <c r="AT44" s="4" t="s">
-        <v>571</v>
+        <v>776</v>
       </c>
       <c r="AU44" s="48"/>
       <c r="AV44" s="48"/>
@@ -17487,18 +17524,18 @@
       <c r="AM45" s="48"/>
       <c r="AN45" s="48"/>
       <c r="AO45" s="4" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="AP45" s="4" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="AQ45" s="4"/>
       <c r="AR45" s="4"/>
       <c r="AS45" s="4" t="s">
-        <v>777</v>
+        <v>571</v>
       </c>
       <c r="AT45" s="4" t="s">
-        <v>777</v>
+        <v>571</v>
       </c>
       <c r="AU45" s="48"/>
       <c r="AV45" s="48"/>
@@ -17535,18 +17572,18 @@
       <c r="AM46" s="48"/>
       <c r="AN46" s="48"/>
       <c r="AO46" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AP46" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AQ46" s="4"/>
       <c r="AR46" s="4"/>
       <c r="AS46" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AT46" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AU46" s="48"/>
       <c r="AV46" s="48"/>
@@ -17583,18 +17620,18 @@
       <c r="AM47" s="48"/>
       <c r="AN47" s="48"/>
       <c r="AO47" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AP47" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AQ47" s="4"/>
       <c r="AR47" s="4"/>
       <c r="AS47" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AT47" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AU47" s="48"/>
       <c r="AV47" s="48"/>
@@ -17631,18 +17668,18 @@
       <c r="AM48" s="48"/>
       <c r="AN48" s="48"/>
       <c r="AO48" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AP48" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AQ48" s="4"/>
       <c r="AR48" s="4"/>
       <c r="AS48" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AT48" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AU48" s="48"/>
       <c r="AV48" s="48"/>
@@ -17674,18 +17711,18 @@
       <c r="AK49" s="48"/>
       <c r="AL49" s="48"/>
       <c r="AO49" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AP49" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AQ49" s="4"/>
       <c r="AR49" s="4"/>
       <c r="AS49" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AT49" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="50" spans="7:46" x14ac:dyDescent="0.25">
@@ -17713,18 +17750,18 @@
       <c r="AI50" s="4"/>
       <c r="AJ50" s="48"/>
       <c r="AO50" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AP50" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AQ50" s="4"/>
       <c r="AR50" s="4"/>
       <c r="AS50" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AT50" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="51" spans="7:46" x14ac:dyDescent="0.25">
@@ -17750,18 +17787,18 @@
       <c r="AI51" s="4"/>
       <c r="AJ51" s="48"/>
       <c r="AO51" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AP51" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AQ51" s="4"/>
       <c r="AR51" s="4"/>
       <c r="AS51" s="4" t="s">
-        <v>254</v>
+        <v>782</v>
       </c>
       <c r="AT51" s="4" t="s">
-        <v>254</v>
+        <v>782</v>
       </c>
     </row>
     <row r="52" spans="7:46" x14ac:dyDescent="0.25">
@@ -17779,17 +17816,18 @@
       <c r="AH52" s="4"/>
       <c r="AI52" s="4"/>
       <c r="AO52" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AP52" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="AQ52" s="48"/>
+        <v>274</v>
+      </c>
+      <c r="AQ52" s="4"/>
+      <c r="AR52" s="4"/>
       <c r="AS52" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AT52" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" spans="7:46" x14ac:dyDescent="0.25">
@@ -17805,17 +17843,18 @@
       <c r="AH53" s="4"/>
       <c r="AI53" s="4"/>
       <c r="AO53" s="4" t="s">
-        <v>1</v>
+        <v>275</v>
       </c>
       <c r="AP53" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ53" s="48"/>
+        <v>275</v>
+      </c>
+      <c r="AQ53" s="4"/>
+      <c r="AR53" s="4"/>
       <c r="AS53" s="4" t="s">
-        <v>783</v>
+        <v>255</v>
       </c>
       <c r="AT53" s="4" t="s">
-        <v>783</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="7:46" x14ac:dyDescent="0.25">
@@ -17831,16 +17870,17 @@
       <c r="AH54" s="4"/>
       <c r="AI54" s="4"/>
       <c r="AO54" s="4" t="s">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="AP54" s="4" t="s">
-        <v>166</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AQ54" s="48"/>
       <c r="AS54" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AT54" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="55" spans="7:46" x14ac:dyDescent="0.25">
@@ -17856,16 +17896,17 @@
       <c r="AH55" s="4"/>
       <c r="AI55" s="4"/>
       <c r="AO55" s="4" t="s">
-        <v>789</v>
+        <v>166</v>
       </c>
       <c r="AP55" s="4" t="s">
-        <v>789</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="AQ55" s="48"/>
       <c r="AS55" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AT55" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="56" spans="7:46" x14ac:dyDescent="0.25">
@@ -17881,16 +17922,16 @@
       <c r="AH56" s="4"/>
       <c r="AI56" s="4"/>
       <c r="AO56" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AP56" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AS56" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AT56" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="57" spans="7:46" x14ac:dyDescent="0.25">
@@ -17904,16 +17945,16 @@
       <c r="AH57" s="4"/>
       <c r="AI57" s="4"/>
       <c r="AO57" s="4" t="s">
-        <v>201</v>
+        <v>790</v>
       </c>
       <c r="AP57" s="4" t="s">
-        <v>201</v>
+        <v>790</v>
       </c>
       <c r="AS57" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AT57" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="58" spans="7:46" x14ac:dyDescent="0.25">
@@ -17927,16 +17968,16 @@
       <c r="AH58" s="4"/>
       <c r="AI58" s="4"/>
       <c r="AO58" s="4" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="AP58" s="4" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="AS58" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AT58" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="59" spans="7:46" x14ac:dyDescent="0.25">
@@ -17950,16 +17991,16 @@
       <c r="AH59" s="4"/>
       <c r="AI59" s="4"/>
       <c r="AO59" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AP59" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AS59" s="4" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="AT59" s="4" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="60" spans="7:46" x14ac:dyDescent="0.25">
@@ -17973,16 +18014,16 @@
       <c r="AH60" s="4"/>
       <c r="AI60" s="4"/>
       <c r="AO60" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AP60" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AS60" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AT60" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="61" spans="7:46" x14ac:dyDescent="0.25">
@@ -17996,16 +18037,16 @@
       <c r="AH61" s="4"/>
       <c r="AI61" s="4"/>
       <c r="AO61" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AP61" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AS61" s="4" t="s">
-        <v>131</v>
+        <v>792</v>
       </c>
       <c r="AT61" s="4" t="s">
-        <v>131</v>
+        <v>792</v>
       </c>
     </row>
     <row r="62" spans="7:46" x14ac:dyDescent="0.25">
@@ -18019,16 +18060,16 @@
       <c r="AH62" s="4"/>
       <c r="AI62" s="4"/>
       <c r="AO62" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AP62" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AS62" s="4" t="s">
-        <v>793</v>
+        <v>131</v>
       </c>
       <c r="AT62" s="4" t="s">
-        <v>793</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="7:46" x14ac:dyDescent="0.25">
@@ -18042,16 +18083,16 @@
       <c r="AH63" s="4"/>
       <c r="AI63" s="4"/>
       <c r="AO63" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AP63" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AS63" s="4" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="AT63" s="4" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="64" spans="7:46" x14ac:dyDescent="0.25">
@@ -18065,16 +18106,16 @@
       <c r="AH64" s="4"/>
       <c r="AI64" s="4"/>
       <c r="AO64" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AP64" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AS64" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AT64" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="65" spans="15:46" x14ac:dyDescent="0.25">
@@ -18088,16 +18129,16 @@
       <c r="AH65" s="4"/>
       <c r="AI65" s="4"/>
       <c r="AO65" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AP65" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AS65" s="4" t="s">
-        <v>1</v>
+        <v>790</v>
       </c>
       <c r="AT65" s="4" t="s">
-        <v>1</v>
+        <v>790</v>
       </c>
     </row>
     <row r="66" spans="15:46" x14ac:dyDescent="0.25">
@@ -18111,16 +18152,16 @@
       <c r="AH66" s="4"/>
       <c r="AI66" s="4"/>
       <c r="AO66" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP66" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS66" s="4" t="s">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="AT66" s="4" t="s">
-        <v>166</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="15:46" x14ac:dyDescent="0.25">
@@ -18134,16 +18175,16 @@
       <c r="AH67" s="4"/>
       <c r="AI67" s="4"/>
       <c r="AO67" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AP67" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AS67" s="4" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="AT67" s="4" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="15:46" x14ac:dyDescent="0.25">
@@ -18157,16 +18198,16 @@
       <c r="AH68" s="4"/>
       <c r="AI68" s="4"/>
       <c r="AO68" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AP68" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AS68" s="4" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="AT68" s="4" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="15:46" x14ac:dyDescent="0.25">
@@ -18180,10 +18221,16 @@
       <c r="AH69" s="4"/>
       <c r="AI69" s="4"/>
       <c r="AO69" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AP69" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
+      </c>
+      <c r="AS69" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="AT69" s="4" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="70" spans="15:46" x14ac:dyDescent="0.25">
@@ -18197,10 +18244,10 @@
       <c r="AH70" s="4"/>
       <c r="AI70" s="4"/>
       <c r="AO70" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AP70" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="71" spans="15:46" x14ac:dyDescent="0.25">
@@ -18214,10 +18261,10 @@
       <c r="AH71" s="4"/>
       <c r="AI71" s="4"/>
       <c r="AO71" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AP71" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="15:46" x14ac:dyDescent="0.25">
@@ -18231,10 +18278,10 @@
       <c r="AH72" s="4"/>
       <c r="AI72" s="4"/>
       <c r="AO72" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AP72" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="15:46" x14ac:dyDescent="0.25">
@@ -18248,10 +18295,10 @@
       <c r="AH73" s="4"/>
       <c r="AI73" s="4"/>
       <c r="AO73" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AP73" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="74" spans="15:46" x14ac:dyDescent="0.25">
@@ -18265,10 +18312,10 @@
       <c r="AH74" s="4"/>
       <c r="AI74" s="4"/>
       <c r="AO74" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AP74" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="75" spans="15:46" x14ac:dyDescent="0.25">
@@ -18282,10 +18329,10 @@
       <c r="AH75" s="4"/>
       <c r="AI75" s="4"/>
       <c r="AO75" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AP75" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="15:46" x14ac:dyDescent="0.25">
@@ -18299,10 +18346,10 @@
       <c r="AH76" s="4"/>
       <c r="AI76" s="4"/>
       <c r="AO76" s="4" t="s">
-        <v>186</v>
+        <v>293</v>
       </c>
       <c r="AP76" s="4" t="s">
-        <v>186</v>
+        <v>293</v>
       </c>
     </row>
     <row r="77" spans="15:46" x14ac:dyDescent="0.25">
@@ -18316,10 +18363,10 @@
       <c r="AH77" s="4"/>
       <c r="AI77" s="4"/>
       <c r="AO77" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AP77" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="15:46" x14ac:dyDescent="0.25">
@@ -18333,10 +18380,10 @@
       <c r="AH78" s="4"/>
       <c r="AI78" s="4"/>
       <c r="AO78" s="4" t="s">
-        <v>585</v>
+        <v>192</v>
       </c>
       <c r="AP78" s="4" t="s">
-        <v>585</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="15:46" x14ac:dyDescent="0.25">
@@ -18350,10 +18397,10 @@
       <c r="AH79" s="4"/>
       <c r="AI79" s="4"/>
       <c r="AO79" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AP79" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="80" spans="15:46" x14ac:dyDescent="0.25">
@@ -18367,10 +18414,10 @@
       <c r="AH80" s="4"/>
       <c r="AI80" s="4"/>
       <c r="AO80" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AP80" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="81" spans="15:42" x14ac:dyDescent="0.25">
@@ -18384,10 +18431,10 @@
       <c r="AH81" s="4"/>
       <c r="AI81" s="4"/>
       <c r="AO81" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AP81" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="82" spans="15:42" x14ac:dyDescent="0.25">
@@ -18401,10 +18448,10 @@
       <c r="AH82" s="4"/>
       <c r="AI82" s="4"/>
       <c r="AO82" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AP82" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="83" spans="15:42" x14ac:dyDescent="0.25">
@@ -18418,10 +18465,10 @@
       <c r="AH83" s="4"/>
       <c r="AI83" s="4"/>
       <c r="AO83" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AP83" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="84" spans="15:42" x14ac:dyDescent="0.25">
@@ -18435,10 +18482,10 @@
       <c r="AH84" s="4"/>
       <c r="AI84" s="4"/>
       <c r="AO84" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AP84" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="85" spans="15:42" x14ac:dyDescent="0.25">
@@ -18452,10 +18499,10 @@
       <c r="AH85" s="4"/>
       <c r="AI85" s="4"/>
       <c r="AO85" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AP85" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="86" spans="15:42" x14ac:dyDescent="0.25">
@@ -18469,10 +18516,10 @@
       <c r="AH86" s="4"/>
       <c r="AI86" s="4"/>
       <c r="AO86" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AP86" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="87" spans="15:42" x14ac:dyDescent="0.25">
@@ -18486,10 +18533,10 @@
       <c r="AH87" s="4"/>
       <c r="AI87" s="4"/>
       <c r="AO87" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AP87" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="88" spans="15:42" x14ac:dyDescent="0.25">
@@ -18503,10 +18550,10 @@
       <c r="AH88" s="4"/>
       <c r="AI88" s="4"/>
       <c r="AO88" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AP88" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="89" spans="15:42" x14ac:dyDescent="0.25">
@@ -18520,10 +18567,10 @@
       <c r="AH89" s="4"/>
       <c r="AI89" s="4"/>
       <c r="AO89" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AP89" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="90" spans="15:42" x14ac:dyDescent="0.25">
@@ -18537,10 +18584,10 @@
       <c r="AH90" s="4"/>
       <c r="AI90" s="4"/>
       <c r="AO90" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AP90" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="91" spans="15:42" x14ac:dyDescent="0.25">
@@ -18554,10 +18601,10 @@
       <c r="AH91" s="4"/>
       <c r="AI91" s="4"/>
       <c r="AO91" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AP91" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="92" spans="15:42" x14ac:dyDescent="0.25">
@@ -18571,10 +18618,10 @@
       <c r="AH92" s="4"/>
       <c r="AI92" s="4"/>
       <c r="AO92" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AP92" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="93" spans="15:42" x14ac:dyDescent="0.25">
@@ -18588,10 +18635,10 @@
       <c r="AH93" s="4"/>
       <c r="AI93" s="4"/>
       <c r="AO93" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AP93" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="94" spans="15:42" x14ac:dyDescent="0.25">
@@ -18605,10 +18652,10 @@
       <c r="AH94" s="4"/>
       <c r="AI94" s="4"/>
       <c r="AO94" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AP94" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="95" spans="15:42" x14ac:dyDescent="0.25">
@@ -18622,10 +18669,10 @@
       <c r="AH95" s="4"/>
       <c r="AI95" s="4"/>
       <c r="AO95" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AP95" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="96" spans="15:42" x14ac:dyDescent="0.25">
@@ -18639,10 +18686,10 @@
       <c r="AH96" s="4"/>
       <c r="AI96" s="4"/>
       <c r="AO96" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AP96" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="97" spans="15:42" x14ac:dyDescent="0.25">
@@ -18656,10 +18703,10 @@
       <c r="AH97" s="4"/>
       <c r="AI97" s="4"/>
       <c r="AO97" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AP97" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="98" spans="15:42" x14ac:dyDescent="0.25">
@@ -18673,10 +18720,10 @@
       <c r="AH98" s="4"/>
       <c r="AI98" s="4"/>
       <c r="AO98" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AP98" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="99" spans="15:42" x14ac:dyDescent="0.25">
@@ -18690,10 +18737,10 @@
       <c r="AH99" s="4"/>
       <c r="AI99" s="4"/>
       <c r="AO99" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AP99" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="100" spans="15:42" x14ac:dyDescent="0.25">
@@ -18707,10 +18754,10 @@
       <c r="AH100" s="4"/>
       <c r="AI100" s="4"/>
       <c r="AO100" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AP100" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="101" spans="15:42" x14ac:dyDescent="0.25">
@@ -18721,10 +18768,10 @@
         <v>1435</v>
       </c>
       <c r="AO101" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AP101" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="102" spans="15:42" x14ac:dyDescent="0.25">
@@ -18735,580 +18782,588 @@
         <v>1436</v>
       </c>
       <c r="AO102" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AP102" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="103" spans="15:42" x14ac:dyDescent="0.25">
       <c r="O103" s="4" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="AO103" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AP103" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="104" spans="15:42" x14ac:dyDescent="0.25">
       <c r="AO104" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AP104" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="105" spans="15:42" x14ac:dyDescent="0.25">
       <c r="AO105" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AP105" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="106" spans="15:42" x14ac:dyDescent="0.25">
       <c r="AO106" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AP106" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="107" spans="15:42" x14ac:dyDescent="0.25">
       <c r="AO107" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AP107" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="108" spans="15:42" x14ac:dyDescent="0.25">
       <c r="AO108" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AP108" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="109" spans="15:42" x14ac:dyDescent="0.25">
       <c r="AO109" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AP109" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="110" spans="15:42" x14ac:dyDescent="0.25">
       <c r="AO110" s="4" t="s">
-        <v>684</v>
+        <v>616</v>
       </c>
       <c r="AP110" s="4" t="s">
-        <v>684</v>
+        <v>616</v>
       </c>
     </row>
     <row r="111" spans="15:42" x14ac:dyDescent="0.25">
       <c r="AO111" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AP111" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="112" spans="15:42" x14ac:dyDescent="0.25">
       <c r="AO112" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AP112" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="113" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO113" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AP113" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="114" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO114" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AP114" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="115" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO115" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AP115" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="116" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO116" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AP116" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="117" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO117" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AP117" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="118" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO118" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AP118" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="119" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO119" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AP119" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="120" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO120" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AP120" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="121" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO121" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AP121" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="122" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO122" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AP122" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="123" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO123" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AP123" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="124" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO124" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AP124" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="125" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO125" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AP125" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="126" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO126" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AP126" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="127" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO127" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AP127" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="128" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO128" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AP128" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="129" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO129" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AP129" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="130" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO130" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AP130" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="131" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO131" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AP131" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="132" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO132" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AP132" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="133" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO133" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AP133" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="134" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO134" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AP134" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="135" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO135" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AP135" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="136" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO136" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AP136" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="137" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO137" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AP137" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="138" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO138" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AP138" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="139" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO139" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AP139" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="140" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO140" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AP140" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="141" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO141" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AP141" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="142" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO142" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AP142" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="143" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO143" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AP143" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="144" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO144" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AP144" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="145" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO145" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AP145" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="146" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO146" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AP146" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="147" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO147" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AP147" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="148" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO148" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AP148" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="149" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO149" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AP149" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="150" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO150" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AP150" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="151" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO151" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AP151" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="152" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO152" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AP152" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="153" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO153" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AP153" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="154" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO154" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AP154" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="155" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO155" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AP155" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="156" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO156" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AP156" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="157" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO157" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AP157" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="158" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO158" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AP158" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="159" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO159" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AP159" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="160" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO160" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AP160" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="161" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO161" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AP161" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="162" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO162" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AP162" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="163" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO163" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AP163" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="164" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO164" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AP164" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="165" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO165" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AP165" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="166" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO166" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AP166" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="167" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO167" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AP167" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="168" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO168" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AP168" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="169" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO169" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AP169" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="170" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO170" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AP170" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="171" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO171" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AP171" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="172" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO172" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AP172" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="173" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO173" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="AP173" s="4" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="174" spans="41:42" x14ac:dyDescent="0.25">
+      <c r="AO174" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="AP173" s="4" t="s">
+      <c r="AP174" s="4" t="s">
         <v>747</v>
       </c>
     </row>
@@ -20238,36 +20293,40 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="2" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B1" s="56" t="s">
         <v>1403</v>
       </c>
       <c r="C1" s="56" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>2148</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>2087</v>
       </c>
-      <c r="D1" s="56" t="s">
-        <v>2088</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B2" s="57">
         <v>4</v>
@@ -20276,10 +20335,13 @@
         <v>1688</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>1689</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1687</v>
       </c>
@@ -20290,10 +20352,13 @@
         <v>1688</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>1689</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1851</v>
       </c>
@@ -20304,10 +20369,13 @@
         <v>1688</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>1700</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1850</v>
       </c>
@@ -20318,10 +20386,13 @@
         <v>1691</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>2150</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>1700</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>1690</v>
       </c>
@@ -20331,11 +20402,14 @@
       <c r="C6" s="4" t="s">
         <v>1691</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="57" t="s">
+        <v>2151</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>1700</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1692</v>
       </c>
@@ -20346,10 +20420,13 @@
         <v>1688</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>1698</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>1693</v>
       </c>
@@ -20360,10 +20437,13 @@
         <v>1688</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>1700</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>1694</v>
       </c>
@@ -20374,10 +20454,13 @@
         <v>1688</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>1701</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>1695</v>
       </c>
@@ -20388,10 +20471,13 @@
         <v>1688</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>1701</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>1696</v>
       </c>
@@ -20402,10 +20488,13 @@
         <v>1688</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>1689</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>1697</v>
       </c>
@@ -20416,14 +20505,17 @@
         <v>1688</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>1701</v>
       </c>
-      <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B13" s="4">
         <v>16</v>
@@ -20432,14 +20524,17 @@
         <v>1691</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>2018</v>
-      </c>
-      <c r="E13" s="4"/>
+        <v>2150</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>2017</v>
+      </c>
       <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B14" s="4">
         <v>16</v>
@@ -20448,12 +20543,15 @@
         <v>1688</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2149</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B15">
         <v>32</v>
@@ -20461,13 +20559,16 @@
       <c r="C15" t="s">
         <v>1688</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E15" t="s">
         <v>1705</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B16">
         <v>32</v>
@@ -20476,12 +20577,15 @@
         <v>1688</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>1705</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B17">
         <v>32</v>
@@ -20490,7 +20594,27 @@
         <v>1691</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>2150</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>1705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>2151</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>1699</v>
       </c>
     </row>
   </sheetData>
@@ -20503,8 +20627,8 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:N170"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="I146" sqref="I146"/>
+    <sheetView topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20687,7 +20811,7 @@
         <v>1507</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="D15" s="4"/>
     </row>
@@ -20950,7 +21074,7 @@
         <v>1543</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="D37" s="4"/>
     </row>
@@ -20998,7 +21122,7 @@
         <v>1543</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D41" s="4"/>
     </row>
@@ -21904,7 +22028,7 @@
     </row>
     <row r="117" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>1565</v>
@@ -22002,10 +22126,10 @@
         <v>1638</v>
       </c>
       <c r="B125" s="4" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C125" s="4" t="s">
         <v>1993</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>1994</v>
       </c>
       <c r="D125" s="4"/>
     </row>
@@ -22041,7 +22165,7 @@
         <v>1543</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D128" s="4"/>
     </row>
@@ -22053,7 +22177,7 @@
         <v>1543</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="130" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -22075,7 +22199,7 @@
         <v>1677</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D131" s="4"/>
     </row>
@@ -22087,19 +22211,19 @@
         <v>1677</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>1677</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -22110,7 +22234,7 @@
         <v>1677</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D134" s="4"/>
     </row>
@@ -22122,7 +22246,7 @@
         <v>1677</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D135" s="4"/>
     </row>
@@ -22134,7 +22258,7 @@
         <v>1677</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D136" s="4"/>
     </row>
@@ -22244,7 +22368,7 @@
     </row>
     <row r="146" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>1507</v>
@@ -22346,7 +22470,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>1522</v>
@@ -22357,7 +22481,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>1522</v>
@@ -22368,7 +22492,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>1522</v>
@@ -22379,7 +22503,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>1662</v>
@@ -22390,7 +22514,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>1662</v>
@@ -22401,7 +22525,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>1662</v>
@@ -22412,7 +22536,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B161" t="s">
         <v>1522</v>
@@ -22423,29 +22547,29 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>1522</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B163" t="s">
         <v>1522</v>
       </c>
       <c r="C163" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>1522</v>
@@ -22456,7 +22580,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B165" t="s">
         <v>1522</v>
@@ -22467,7 +22591,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B166" t="s">
         <v>1662</v>
@@ -22478,29 +22602,29 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>1522</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>1522</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>1662</v>
@@ -22511,7 +22635,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B170" t="s">
         <v>1565</v>
@@ -22536,7 +22660,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -22680,13 +22804,13 @@
     <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="G7" s="7" t="s">
+        <v>2036</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>2036</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>2037</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>2037</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>2038</v>
       </c>
       <c r="J7" s="5"/>
     </row>
@@ -22753,7 +22877,7 @@
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="13" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>340</v>
@@ -22778,7 +22902,7 @@
       <c r="D13" s="12"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -22792,7 +22916,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="12" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -23004,7 +23128,7 @@
         <v>451</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>343</v>
@@ -23029,7 +23153,7 @@
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -23042,7 +23166,7 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="F32" s="16" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -23210,7 +23334,7 @@
         <v>511</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -23228,7 +23352,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView topLeftCell="F40" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
@@ -23960,17 +24084,17 @@
     </row>
     <row r="49" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B49" s="10"/>
       <c r="D49" s="10" t="s">
         <v>448</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="J49" s="3"/>
     </row>
@@ -24454,10 +24578,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:K174"/>
+  <dimension ref="A1:K175"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24466,7 +24590,7 @@
     <col min="3" max="3" width="24.85546875" customWidth="1"/>
     <col min="4" max="4" width="33.7109375" customWidth="1"/>
     <col min="5" max="5" width="58.5703125" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" customWidth="1"/>
+    <col min="6" max="6" width="67.42578125" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="19.140625" customWidth="1"/>
     <col min="9" max="9" width="27.140625" customWidth="1"/>
@@ -24843,11 +24967,11 @@
         <v>143</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -24897,7 +25021,7 @@
       </c>
       <c r="D23" s="44"/>
       <c r="E23" s="44" t="s">
-        <v>1891</v>
+        <v>2147</v>
       </c>
       <c r="F23" s="44" t="s">
         <v>1491</v>
@@ -24913,6 +25037,13 @@
       <c r="A24" s="20" t="s">
         <v>172</v>
       </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44" t="s">
+        <v>2146</v>
+      </c>
       <c r="G24" s="20" t="s">
         <v>165</v>
       </c>
@@ -24924,20 +25055,8 @@
       <c r="A25" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="B25" s="11">
-        <v>8</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>1493</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>1496</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>1495</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>1497</v>
+      <c r="F25" s="44" t="s">
+        <v>2145</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>172</v>
@@ -24950,6 +25069,21 @@
       <c r="A26" s="20" t="s">
         <v>185</v>
       </c>
+      <c r="B26" s="11">
+        <v>8</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>1497</v>
+      </c>
       <c r="G26" s="20" t="s">
         <v>179</v>
       </c>
@@ -26575,14 +26709,16 @@
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D174" t="s">
-        <v>618</v>
-      </c>
       <c r="G174" s="38" t="s">
         <v>747</v>
       </c>
       <c r="I174" s="4" t="s">
         <v>747</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -26595,8 +26731,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="F28" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26754,7 +26890,7 @@
         <v>264</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>264</v>
@@ -26780,7 +26916,7 @@
         <v>157</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>157</v>
@@ -26803,7 +26939,7 @@
         <v>134</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -26835,7 +26971,7 @@
         <v>139</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -26855,7 +26991,7 @@
         <v>125</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -26871,10 +27007,10 @@
         <v>129</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="J12" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -26890,7 +27026,7 @@
         <v>133</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -26909,7 +27045,7 @@
         <v>666</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -26935,10 +27071,10 @@
         <v>146</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -26954,7 +27090,7 @@
         <v>667</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -26983,7 +27119,7 @@
         <v>668</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -26999,7 +27135,7 @@
         <v>669</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -27027,7 +27163,7 @@
         <v>670</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -27759,7 +27895,7 @@
   <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28115,7 +28251,7 @@
         <v>200</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -28181,7 +28317,7 @@
         <v>224</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -28710,8 +28846,8 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28730,7 +28866,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1804</v>
@@ -28778,7 +28914,7 @@
       </c>
       <c r="F3" s="59"/>
       <c r="G3" s="59" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="H3" s="59" t="s">
         <v>1796</v>
@@ -28787,7 +28923,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
       <c r="B4" s="59" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C4" s="59" t="s">
         <v>811</v>
@@ -28970,7 +29106,7 @@
         <v>1871</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>1868</v>
@@ -29004,7 +29140,7 @@
         <v>1815</v>
       </c>
       <c r="G25" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>1819</v>
@@ -29025,10 +29161,10 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="G27" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="H27" t="s">
         <v>1820</v>
@@ -29041,22 +29177,22 @@
     </row>
     <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H29" s="4" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H30" s="4" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H31" s="4" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H32" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -29072,33 +29208,33 @@
         <v>8</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H36" s="4" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H37" s="4" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H38" s="4" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H39" s="4" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -29120,7 +29256,7 @@
         <v>1828</v>
       </c>
       <c r="G42" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="H42" t="s">
         <v>1822</v>
@@ -29192,7 +29328,7 @@
         <v>1833</v>
       </c>
       <c r="G50" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="H50" t="s">
         <v>1834</v>
@@ -29210,12 +29346,12 @@
     </row>
     <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H53" s="4" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H54" s="4" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -29225,12 +29361,12 @@
     </row>
     <row r="56" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H56" s="4" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H57" s="4" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -29248,7 +29384,7 @@
         <v>12</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4" t="s">
@@ -29285,7 +29421,7 @@
         <v>1846</v>
       </c>
       <c r="G62" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="H62" t="s">
         <v>1844</v>
@@ -29298,7 +29434,7 @@
     </row>
     <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H64" s="4" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -29318,7 +29454,7 @@
         <v>1861</v>
       </c>
       <c r="G66" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>1854</v>
@@ -29376,7 +29512,7 @@
         <v>1890</v>
       </c>
       <c r="G75" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="H75" s="61" t="s">
         <v>1882</v>
@@ -29396,7 +29532,7 @@
         <v>1873</v>
       </c>
       <c r="G77" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="H77" t="s">
         <v>1875</v>
@@ -29429,7 +29565,7 @@
         <v>1887</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>1888</v>
@@ -29442,7 +29578,7 @@
     </row>
     <row r="82" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H82" s="4" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -29456,13 +29592,13 @@
         <v>18</v>
       </c>
       <c r="E84" t="s">
+        <v>1912</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1911</v>
+      </c>
+      <c r="H84" s="4" t="s">
         <v>1913</v>
-      </c>
-      <c r="G84" t="s">
-        <v>1912</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>1914</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -29470,12 +29606,12 @@
         <v>1795</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="87" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -29490,13 +29626,13 @@
         <v>19</v>
       </c>
       <c r="E88" s="4" t="s">
+        <v>2004</v>
+      </c>
+      <c r="G88" s="4" t="s">
         <v>2005</v>
       </c>
-      <c r="G88" s="4" t="s">
-        <v>2006</v>
-      </c>
       <c r="H88" s="4" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" firstSheet="8" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="switch_models" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5404" uniqueCount="2153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5407" uniqueCount="2154">
   <si>
     <t>switchType</t>
   </si>
@@ -6510,6 +6510,9 @@
   </si>
   <si>
     <t>Максимальное расстояние</t>
+  </si>
+  <si>
+    <t>08:f1:ea</t>
   </si>
 </sst>
 </file>
@@ -13234,8 +13237,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:AY174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AS12" sqref="AS12"/>
+    <sheetView topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AQ11" sqref="AQ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20625,10 +20628,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
-  <dimension ref="A1:N170"/>
+  <dimension ref="A1:N171"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22642,6 +22645,17 @@
       </c>
       <c r="C170" t="s">
         <v>1641</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>1673</v>
       </c>
     </row>
   </sheetData>

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" firstSheet="7" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="switch_models" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">nameserver!$A$1:$J$103</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">oui!$A$1:$N$362</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">oui!$A$1:$N$171</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">sfp_models!$A$1:$G$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">switch_models!$A$1:$H$77</definedName>
   </definedNames>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5407" uniqueCount="2154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5445" uniqueCount="2190">
   <si>
     <t>switchType</t>
   </si>
@@ -6513,6 +6513,114 @@
   </si>
   <si>
     <t>08:f1:ea</t>
+  </si>
+  <si>
+    <t>zone_duplicates_free</t>
+  </si>
+  <si>
+    <t>Название зоны</t>
+  </si>
+  <si>
+    <t>Target_Initiator_note</t>
+  </si>
+  <si>
+    <t>Fabric_device_status</t>
+  </si>
+  <si>
+    <t>Target_model_note</t>
+  </si>
+  <si>
+    <t>Статус устройства в сети конфигурации</t>
+  </si>
+  <si>
+    <t>Примечание. Модели таргетов в зоне</t>
+  </si>
+  <si>
+    <t>Зонирование_перевод_eng</t>
+  </si>
+  <si>
+    <t>Зонирование_перевод_ru</t>
+  </si>
+  <si>
+    <t>empty_zone</t>
+  </si>
+  <si>
+    <t>replication_zone</t>
+  </si>
+  <si>
+    <t>no_initiator</t>
+  </si>
+  <si>
+    <t>no_target</t>
+  </si>
+  <si>
+    <t>several_initiators</t>
+  </si>
+  <si>
+    <t>нет инициатора</t>
+  </si>
+  <si>
+    <t>несколько инициаторов</t>
+  </si>
+  <si>
+    <t>нет таргета</t>
+  </si>
+  <si>
+    <t>зона репликации</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>absent</t>
+  </si>
+  <si>
+    <t>remote_na</t>
+  </si>
+  <si>
+    <t>remote_imported</t>
+  </si>
+  <si>
+    <t>remote_configured</t>
+  </si>
+  <si>
+    <t>remote_initializing</t>
+  </si>
+  <si>
+    <t>different_storages</t>
+  </si>
+  <si>
+    <t>storage_library</t>
+  </si>
+  <si>
+    <t>массивы разных модельных линий</t>
+  </si>
+  <si>
+    <t>библиотека и массив</t>
+  </si>
+  <si>
+    <t>отсутствует</t>
+  </si>
+  <si>
+    <t>недоступно (подключено в другую фабрику)</t>
+  </si>
+  <si>
+    <t>импортировано</t>
+  </si>
+  <si>
+    <t>сконфигурировано</t>
+  </si>
+  <si>
+    <t>инициализируется</t>
+  </si>
+  <si>
+    <t>доступно</t>
+  </si>
+  <si>
+    <t>нет инициатора, нет таргета</t>
+  </si>
+  <si>
+    <t>Примечание. Количество таргетов и инициаторов в зоне</t>
   </si>
 </sst>
 </file>
@@ -7182,7 +7290,7 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13235,10 +13343,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:AY174"/>
+  <dimension ref="A1:AZ174"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AQ11" sqref="AQ11"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="AW18" sqref="AW18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13287,12 +13395,14 @@
     <col min="45" max="45" width="30" customWidth="1"/>
     <col min="46" max="46" width="26.42578125" customWidth="1"/>
     <col min="47" max="47" width="31.140625" customWidth="1"/>
-    <col min="48" max="48" width="41.28515625" customWidth="1"/>
+    <col min="48" max="48" width="54.7109375" customWidth="1"/>
     <col min="49" max="49" width="23.5703125" customWidth="1"/>
-    <col min="50" max="50" width="23" customWidth="1"/>
+    <col min="50" max="50" width="41.7109375" customWidth="1"/>
+    <col min="51" max="51" width="37.7109375" customWidth="1"/>
+    <col min="52" max="52" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
         <v>1939</v>
       </c>
@@ -13438,8 +13548,14 @@
       <c r="AX1" s="44" t="s">
         <v>2124</v>
       </c>
-    </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY1" s="14" t="s">
+        <v>2161</v>
+      </c>
+      <c r="AZ1" s="14" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1778</v>
       </c>
@@ -13590,8 +13706,14 @@
       <c r="AX2" s="4" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY2" t="s">
+        <v>2163</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1777</v>
       </c>
@@ -13742,8 +13864,14 @@
       <c r="AX3" s="4" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY3" t="s">
+        <v>2164</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1918</v>
       </c>
@@ -13894,8 +14022,14 @@
       <c r="AX4" t="s">
         <v>2132</v>
       </c>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY4" t="s">
+        <v>2165</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1769</v>
       </c>
@@ -14046,9 +14180,14 @@
       <c r="AX5" t="s">
         <v>1960</v>
       </c>
-      <c r="AY5" s="4"/>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY5" s="4" t="s">
+        <v>2166</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2039</v>
       </c>
@@ -14199,9 +14338,14 @@
       <c r="AX6" t="s">
         <v>2134</v>
       </c>
-      <c r="AY6" s="4"/>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY6" s="4" t="s">
+        <v>2167</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1770</v>
       </c>
@@ -14341,10 +14485,10 @@
         <v>1440</v>
       </c>
       <c r="AU7" s="4" t="s">
-        <v>1059</v>
+        <v>2154</v>
       </c>
       <c r="AV7" s="4" t="s">
-        <v>1960</v>
+        <v>2155</v>
       </c>
       <c r="AW7" s="4" t="s">
         <v>2126</v>
@@ -14352,9 +14496,14 @@
       <c r="AX7" s="4" t="s">
         <v>2141</v>
       </c>
-      <c r="AY7" s="4"/>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY7" s="4" t="s">
+        <v>2172</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>1771</v>
       </c>
@@ -14494,10 +14643,10 @@
         <v>1441</v>
       </c>
       <c r="AU8" s="4" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="AV8" s="4" t="s">
-        <v>2134</v>
+        <v>1960</v>
       </c>
       <c r="AW8" s="4" t="s">
         <v>2127</v>
@@ -14505,9 +14654,14 @@
       <c r="AX8" t="s">
         <v>2135</v>
       </c>
-      <c r="AY8" s="4"/>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY8" s="4" t="s">
+        <v>2173</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>1772</v>
       </c>
@@ -14631,10 +14785,10 @@
         <v>1442</v>
       </c>
       <c r="AU9" s="4" t="s">
-        <v>2126</v>
+        <v>1060</v>
       </c>
       <c r="AV9" s="4" t="s">
-        <v>2141</v>
+        <v>2134</v>
       </c>
       <c r="AW9" s="4" t="s">
         <v>2128</v>
@@ -14642,9 +14796,14 @@
       <c r="AX9" t="s">
         <v>2136</v>
       </c>
-      <c r="AY9" s="4"/>
-    </row>
-    <row r="10" spans="1:51" ht="30" x14ac:dyDescent="0.25">
+      <c r="AY9" s="4" t="s">
+        <v>2174</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>2038</v>
       </c>
@@ -14779,10 +14938,10 @@
         <v>1961</v>
       </c>
       <c r="AU10" s="4" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="AV10" s="4" t="s">
-        <v>2135</v>
+        <v>2141</v>
       </c>
       <c r="AW10" s="4" t="s">
         <v>1944</v>
@@ -14790,9 +14949,14 @@
       <c r="AX10" t="s">
         <v>1929</v>
       </c>
-      <c r="AY10" s="4"/>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY10" s="4" t="s">
+        <v>2175</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1773</v>
       </c>
@@ -14924,10 +15088,10 @@
         <v>2137</v>
       </c>
       <c r="AU11" s="4" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="AV11" s="4" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="AW11" s="4" t="s">
         <v>2007</v>
@@ -14935,9 +15099,14 @@
       <c r="AX11" t="s">
         <v>2008</v>
       </c>
-      <c r="AY11" s="4"/>
-    </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY11" s="4" t="s">
+        <v>2176</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>1776</v>
       </c>
@@ -15069,10 +15238,10 @@
         <v>2091</v>
       </c>
       <c r="AU12" s="4" t="s">
-        <v>1944</v>
+        <v>2128</v>
       </c>
       <c r="AV12" s="4" t="s">
-        <v>1929</v>
+        <v>2136</v>
       </c>
       <c r="AW12" s="4" t="s">
         <v>1083</v>
@@ -15080,9 +15249,14 @@
       <c r="AX12" s="4" t="s">
         <v>2142</v>
       </c>
-      <c r="AY12" s="4"/>
-    </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY12" s="4" t="s">
+        <v>2177</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>1498</v>
       </c>
@@ -15209,10 +15383,10 @@
         <v>1929</v>
       </c>
       <c r="AU13" s="4" t="s">
-        <v>2007</v>
+        <v>1944</v>
       </c>
       <c r="AV13" s="4" t="s">
-        <v>2008</v>
+        <v>1929</v>
       </c>
       <c r="AW13" s="4" t="s">
         <v>1946</v>
@@ -15220,9 +15394,14 @@
       <c r="AX13" t="s">
         <v>1950</v>
       </c>
-      <c r="AY13" s="4"/>
-    </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY13" s="4" t="s">
+        <v>2178</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>2071</v>
       </c>
@@ -15349,10 +15528,10 @@
         <v>2008</v>
       </c>
       <c r="AU14" s="4" t="s">
-        <v>1083</v>
+        <v>2007</v>
       </c>
       <c r="AV14" s="4" t="s">
-        <v>2142</v>
+        <v>2008</v>
       </c>
       <c r="AW14" s="4" t="s">
         <v>1947</v>
@@ -15360,9 +15539,14 @@
       <c r="AX14" t="s">
         <v>1951</v>
       </c>
-      <c r="AY14" s="4"/>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY14" s="4" t="s">
+        <v>2179</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>1943</v>
       </c>
@@ -15483,10 +15667,10 @@
         <v>2006</v>
       </c>
       <c r="AU15" s="4" t="s">
-        <v>1946</v>
+        <v>1083</v>
       </c>
       <c r="AV15" s="4" t="s">
-        <v>1950</v>
+        <v>2142</v>
       </c>
       <c r="AW15" s="4" t="s">
         <v>1377</v>
@@ -15496,7 +15680,7 @@
       </c>
       <c r="AY15" s="4"/>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>316</v>
       </c>
@@ -15599,10 +15783,10 @@
         <v>1949</v>
       </c>
       <c r="AU16" s="4" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="AV16" s="4" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="AW16" s="4" t="s">
         <v>832</v>
@@ -15703,10 +15887,10 @@
         <v>2097</v>
       </c>
       <c r="AU17" s="4" t="s">
-        <v>1377</v>
+        <v>1947</v>
       </c>
       <c r="AV17" s="4" t="s">
-        <v>2137</v>
+        <v>1951</v>
       </c>
       <c r="AW17" s="4" t="s">
         <v>833</v>
@@ -15802,10 +15986,10 @@
         <v>127</v>
       </c>
       <c r="AU18" s="4" t="s">
-        <v>832</v>
+        <v>1377</v>
       </c>
       <c r="AV18" s="4" t="s">
-        <v>1959</v>
+        <v>2137</v>
       </c>
       <c r="AW18" s="4" t="s">
         <v>568</v>
@@ -15900,10 +16084,10 @@
         <v>131</v>
       </c>
       <c r="AU19" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AV19" s="4" t="s">
-        <v>2138</v>
+        <v>1959</v>
       </c>
       <c r="AW19" s="4" t="s">
         <v>509</v>
@@ -15985,10 +16169,10 @@
         <v>571</v>
       </c>
       <c r="AU20" s="4" t="s">
-        <v>568</v>
+        <v>833</v>
       </c>
       <c r="AV20" s="4" t="s">
-        <v>1961</v>
+        <v>2138</v>
       </c>
       <c r="AW20" s="4" t="s">
         <v>120</v>
@@ -16070,10 +16254,10 @@
         <v>143</v>
       </c>
       <c r="AU21" s="4" t="s">
-        <v>509</v>
+        <v>568</v>
       </c>
       <c r="AV21" s="4" t="s">
-        <v>1325</v>
+        <v>1961</v>
       </c>
       <c r="AW21" s="4" t="s">
         <v>2129</v>
@@ -16155,10 +16339,10 @@
         <v>150</v>
       </c>
       <c r="AU22" s="4" t="s">
-        <v>120</v>
+        <v>509</v>
       </c>
       <c r="AV22" s="4" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="AW22" s="4" t="s">
         <v>2119</v>
@@ -16240,10 +16424,10 @@
         <v>572</v>
       </c>
       <c r="AU23" s="4" t="s">
-        <v>2129</v>
+        <v>120</v>
       </c>
       <c r="AV23" s="4" t="s">
-        <v>2006</v>
+        <v>1326</v>
       </c>
       <c r="AW23" s="4" t="s">
         <v>2130</v>
@@ -16318,10 +16502,16 @@
         <v>757</v>
       </c>
       <c r="AU24" s="4" t="s">
-        <v>2119</v>
+        <v>2129</v>
       </c>
       <c r="AV24" s="4" t="s">
-        <v>2139</v>
+        <v>2006</v>
+      </c>
+      <c r="AW24" s="4" t="s">
+        <v>2157</v>
+      </c>
+      <c r="AX24" s="4" t="s">
+        <v>2159</v>
       </c>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.25">
@@ -16384,10 +16574,10 @@
         <v>1389</v>
       </c>
       <c r="AU25" s="4" t="s">
-        <v>2130</v>
+        <v>2119</v>
       </c>
       <c r="AV25" s="4" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="AW25" s="4"/>
     </row>
@@ -16443,8 +16633,12 @@
       <c r="AT26" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="AU26" s="4"/>
-      <c r="AV26" s="4"/>
+      <c r="AU26" s="4" t="s">
+        <v>2130</v>
+      </c>
+      <c r="AV26" s="4" t="s">
+        <v>2140</v>
+      </c>
       <c r="AW26" s="4"/>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.25">
@@ -16500,6 +16694,12 @@
       <c r="AT27" s="4" t="s">
         <v>759</v>
       </c>
+      <c r="AU27" s="4" t="s">
+        <v>2157</v>
+      </c>
+      <c r="AV27" s="4" t="s">
+        <v>2159</v>
+      </c>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
@@ -16554,6 +16754,12 @@
       <c r="AT28" s="4" t="s">
         <v>760</v>
       </c>
+      <c r="AU28" s="4" t="s">
+        <v>2156</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>2189</v>
+      </c>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="E29" s="4"/>
@@ -16606,6 +16812,12 @@
       </c>
       <c r="AT29" s="4" t="s">
         <v>761</v>
+      </c>
+      <c r="AU29" s="4" t="s">
+        <v>2158</v>
+      </c>
+      <c r="AV29" s="4" t="s">
+        <v>2160</v>
       </c>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.25">
@@ -16909,8 +17121,6 @@
       <c r="AT34" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="AU34" s="48"/>
-      <c r="AV34" s="48"/>
     </row>
     <row r="35" spans="3:48" ht="30" x14ac:dyDescent="0.25">
       <c r="E35" s="4"/>
@@ -17687,7 +17897,7 @@
       <c r="AU48" s="48"/>
       <c r="AV48" s="48"/>
     </row>
-    <row r="49" spans="7:46" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:48" x14ac:dyDescent="0.25">
       <c r="G49" s="48"/>
       <c r="H49" s="48"/>
       <c r="I49" s="48"/>
@@ -17727,8 +17937,10 @@
       <c r="AT49" s="4" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="50" spans="7:46" x14ac:dyDescent="0.25">
+      <c r="AU49" s="48"/>
+      <c r="AV49" s="48"/>
+    </row>
+    <row r="50" spans="7:48" x14ac:dyDescent="0.25">
       <c r="G50" s="48"/>
       <c r="H50" s="48"/>
       <c r="I50" s="48"/>
@@ -17767,7 +17979,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="51" spans="7:46" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:48" x14ac:dyDescent="0.25">
       <c r="G51" s="48"/>
       <c r="H51" s="48"/>
       <c r="I51" s="48"/>
@@ -17804,7 +18016,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="52" spans="7:46" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:48" x14ac:dyDescent="0.25">
       <c r="I52" s="48"/>
       <c r="J52" s="48"/>
       <c r="O52" s="4" t="s">
@@ -17833,7 +18045,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="53" spans="7:46" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:48" x14ac:dyDescent="0.25">
       <c r="I53" s="48"/>
       <c r="J53" s="48"/>
       <c r="O53" s="4" t="s">
@@ -17860,7 +18072,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="54" spans="7:46" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:48" x14ac:dyDescent="0.25">
       <c r="I54" s="48"/>
       <c r="J54" s="48"/>
       <c r="O54" s="4" t="s">
@@ -17886,7 +18098,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="55" spans="7:46" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:48" x14ac:dyDescent="0.25">
       <c r="I55" s="48"/>
       <c r="J55" s="48"/>
       <c r="O55" s="4" t="s">
@@ -17912,7 +18124,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="56" spans="7:46" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:48" x14ac:dyDescent="0.25">
       <c r="I56" s="48"/>
       <c r="J56" s="48"/>
       <c r="O56" s="4" t="s">
@@ -17937,7 +18149,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="57" spans="7:46" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:48" x14ac:dyDescent="0.25">
       <c r="O57" s="4" t="s">
         <v>1269</v>
       </c>
@@ -17960,7 +18172,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="58" spans="7:46" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:48" x14ac:dyDescent="0.25">
       <c r="O58" s="4" t="s">
         <v>1270</v>
       </c>
@@ -17983,7 +18195,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="59" spans="7:46" x14ac:dyDescent="0.25">
+    <row r="59" spans="7:48" x14ac:dyDescent="0.25">
       <c r="O59" s="4" t="s">
         <v>1271</v>
       </c>
@@ -18006,7 +18218,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="60" spans="7:46" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:48" x14ac:dyDescent="0.25">
       <c r="O60" s="49" t="s">
         <v>1314</v>
       </c>
@@ -18029,7 +18241,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="61" spans="7:46" x14ac:dyDescent="0.25">
+    <row r="61" spans="7:48" x14ac:dyDescent="0.25">
       <c r="O61" s="4" t="s">
         <v>1272</v>
       </c>
@@ -18052,7 +18264,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="62" spans="7:46" x14ac:dyDescent="0.25">
+    <row r="62" spans="7:48" x14ac:dyDescent="0.25">
       <c r="O62" s="4" t="s">
         <v>1273</v>
       </c>
@@ -18075,7 +18287,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="7:46" x14ac:dyDescent="0.25">
+    <row r="63" spans="7:48" x14ac:dyDescent="0.25">
       <c r="O63" s="4" t="s">
         <v>1274</v>
       </c>
@@ -18098,7 +18310,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="64" spans="7:46" x14ac:dyDescent="0.25">
+    <row r="64" spans="7:48" x14ac:dyDescent="0.25">
       <c r="O64" s="4" t="s">
         <v>1275</v>
       </c>
@@ -20630,8 +20842,8 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:N171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="H115" sqref="H115"/>
+    <sheetView topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23366,8 +23578,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView topLeftCell="D37" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" firstSheet="7" activeTab="15"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" firstSheet="8" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="switch_models" sheetId="1" r:id="rId1"/>
@@ -13456,8 +13456,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:BD174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="BB12" sqref="BB12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20605,8 +20605,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" firstSheet="5" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" firstSheet="8" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="switch_models" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5738" uniqueCount="2293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5746" uniqueCount="2294">
   <si>
     <t>switchType</t>
   </si>
@@ -6695,9 +6695,6 @@
     <t>Всего "доступных" членов в зоне</t>
   </si>
   <si>
-    <t>Определнное число Wwn</t>
-  </si>
-  <si>
     <t>Фактическое число Wwn</t>
   </si>
   <si>
@@ -6920,16 +6917,22 @@
     <t>peerzone_effective_columns</t>
   </si>
   <si>
-    <t>zonemember_type</t>
-  </si>
-  <si>
-    <t>zonemember</t>
-  </si>
-  <si>
     <t>^ *(cfg:|zone:|alias:|real [\w.]+|\*\* *SS CMD END *\*\*|Effective +configuration *:|\d+ Peer +Zones +in +Eff +Cfg)</t>
   </si>
   <si>
     <t>^ +([PC][a-z]+) +(?:Member|by): +([\w$-^]+)$</t>
+  </si>
+  <si>
+    <t>analysis_zoning</t>
+  </si>
+  <si>
+    <t>Тип члена Peer зоны</t>
+  </si>
+  <si>
+    <t>Порт коммутатора</t>
+  </si>
+  <si>
+    <t>Определённое  в зоне число Wwn</t>
   </si>
 </sst>
 </file>
@@ -9515,13 +9518,13 @@
     </row>
     <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>2264</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>2265</v>
-      </c>
       <c r="C73" s="4" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>4</v>
@@ -9530,7 +9533,7 @@
         <v>16</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>1096</v>
@@ -12025,16 +12028,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>2219</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>2220</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>2221</v>
-      </c>
       <c r="E6" s="14" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>533</v>
@@ -12127,38 +12130,38 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="B13" s="34">
         <v>1</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
       <c r="F14" s="34" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>144</v>
@@ -12166,32 +12169,32 @@
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
       <c r="F15" s="34" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
       <c r="F16" s="34" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12204,7 +12207,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="4" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -12775,7 +12778,7 @@
         <v>522</v>
       </c>
       <c r="K1" s="68" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>894</v>
@@ -13467,10 +13470,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13490,10 +13493,11 @@
     <col min="13" max="13" width="23.140625" customWidth="1"/>
     <col min="14" max="14" width="22.140625" customWidth="1"/>
     <col min="15" max="15" width="27" customWidth="1"/>
-    <col min="16" max="16" width="26.5703125" customWidth="1"/>
+    <col min="16" max="16" width="27" style="4" customWidth="1"/>
+    <col min="17" max="17" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>363</v>
       </c>
@@ -13537,13 +13541,16 @@
         <v>1054</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>2287</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>2288</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I2" s="8" t="s">
         <v>123</v>
       </c>
@@ -13562,11 +13569,12 @@
       <c r="O2" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>509</v>
       </c>
@@ -13585,11 +13593,11 @@
       <c r="O3" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I4" s="7" t="s">
         <v>300</v>
       </c>
@@ -13608,11 +13616,12 @@
       <c r="O4" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E5" s="4"/>
       <c r="I5" s="8" t="s">
         <v>539</v>
@@ -13632,11 +13641,12 @@
       <c r="O5" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I6" s="8" t="s">
         <v>2115</v>
       </c>
@@ -13655,11 +13665,12 @@
       <c r="O6" s="8" t="s">
         <v>2115</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8" t="s">
         <v>2115</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I7" s="8" t="s">
         <v>1654</v>
       </c>
@@ -13678,11 +13689,12 @@
       <c r="O7" s="8" t="s">
         <v>1654</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8" t="s">
         <v>1654</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I8" s="8" t="s">
         <v>422</v>
       </c>
@@ -13701,11 +13713,12 @@
       <c r="O8" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <v>0</v>
       </c>
@@ -13725,9 +13738,9 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="P9" s="4"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>1041</v>
       </c>
@@ -13751,9 +13764,9 @@
       <c r="M10" s="4" t="s">
         <v>1055</v>
       </c>
-      <c r="P10" s="4"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>1042</v>
       </c>
@@ -13777,9 +13790,9 @@
       <c r="M11" s="4" t="s">
         <v>1056</v>
       </c>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <v>3</v>
       </c>
@@ -13790,14 +13803,14 @@
         <v>1062</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>1063</v>
       </c>
-      <c r="P12" s="4"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <v>4</v>
       </c>
@@ -13813,9 +13826,9 @@
       <c r="F13" s="14" t="s">
         <v>854</v>
       </c>
-      <c r="P13" s="4"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>1042</v>
       </c>
@@ -13841,11 +13854,11 @@
       <c r="O14" s="4" t="s">
         <v>1042</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="Q14" s="4" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>1057</v>
       </c>
@@ -13858,22 +13871,25 @@
       <c r="N15" s="4" t="s">
         <v>1057</v>
       </c>
-      <c r="O15" t="s">
-        <v>2289</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>2289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O15" s="7" t="s">
+        <v>2280</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D16" s="8" t="s">
         <v>1066</v>
       </c>
       <c r="O16" t="s">
-        <v>2290</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>2290</v>
+        <v>1057</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -13936,65 +13952,65 @@
         <v>8</v>
       </c>
       <c r="C22" s="14" t="s">
+        <v>2267</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>2268</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>2269</v>
-      </c>
       <c r="E22" s="14" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="B24" s="39">
         <v>9</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="39" t="s">
-        <v>2292</v>
+        <v>2289</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="63" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="B26" s="63">
         <v>10</v>
       </c>
       <c r="C26" s="63" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="D26" s="63"/>
       <c r="E26" s="63" t="s">
+        <v>2274</v>
+      </c>
+      <c r="F26" s="63" t="s">
         <v>2275</v>
-      </c>
-      <c r="F26" s="63" t="s">
-        <v>2276</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F27" s="63" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -14002,26 +14018,26 @@
         <v>11</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="D29" s="14" t="s">
+        <v>2281</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>2278</v>
+      </c>
+      <c r="F29" s="14" t="s">
         <v>2282</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>2279</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>2283</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F30" s="14" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F31" s="14" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -14031,12 +14047,12 @@
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" s="14" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34" s="14" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
     </row>
   </sheetData>
@@ -14749,8 +14765,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:BL174"/>
   <sheetViews>
-    <sheetView topLeftCell="AU1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU28" sqref="AU28:AV28"/>
+    <sheetView tabSelected="1" topLeftCell="BE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BG22" sqref="BG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14973,34 +14989,34 @@
         <v>2203</v>
       </c>
       <c r="BC1" s="12" t="s">
+        <v>2257</v>
+      </c>
+      <c r="BD1" s="12" t="s">
         <v>2258</v>
       </c>
-      <c r="BD1" s="12" t="s">
+      <c r="BE1" s="24" t="s">
         <v>2259</v>
       </c>
-      <c r="BE1" s="24" t="s">
+      <c r="BF1" s="24" t="s">
         <v>2260</v>
       </c>
-      <c r="BF1" s="24" t="s">
-        <v>2261</v>
-      </c>
       <c r="BG1" s="34" t="s">
+        <v>2217</v>
+      </c>
+      <c r="BH1" s="34" t="s">
         <v>2218</v>
       </c>
-      <c r="BH1" s="34" t="s">
-        <v>2219</v>
-      </c>
       <c r="BI1" s="9" t="s">
+        <v>2232</v>
+      </c>
+      <c r="BJ1" s="9" t="s">
         <v>2233</v>
       </c>
-      <c r="BJ1" s="9" t="s">
-        <v>2234</v>
-      </c>
       <c r="BK1" s="59" t="s">
+        <v>2239</v>
+      </c>
+      <c r="BL1" s="59" t="s">
         <v>2240</v>
-      </c>
-      <c r="BL1" s="59" t="s">
-        <v>2241</v>
       </c>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.25">
@@ -15194,7 +15210,7 @@
         <v>649</v>
       </c>
       <c r="BL2" s="4" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.25">
@@ -15385,10 +15401,10 @@
         <v>1322</v>
       </c>
       <c r="BK3" s="4" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="BL3" s="4" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.25">
@@ -15579,10 +15595,10 @@
         <v>1323</v>
       </c>
       <c r="BK4" s="4" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="BL4" s="4" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.25">
@@ -15773,10 +15789,10 @@
         <v>1324</v>
       </c>
       <c r="BK5" s="4" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="BL5" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.25">
@@ -15961,16 +15977,16 @@
         <v>2128</v>
       </c>
       <c r="BI6" s="4" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="BJ6" s="4" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="BK6" s="4" t="s">
+        <v>2247</v>
+      </c>
+      <c r="BL6" s="66" t="s">
         <v>2248</v>
-      </c>
-      <c r="BL6" s="66" t="s">
-        <v>2249</v>
       </c>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.25">
@@ -16158,13 +16174,13 @@
         <v>144</v>
       </c>
       <c r="BJ7" s="4" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="BK7" t="s">
+        <v>2250</v>
+      </c>
+      <c r="BL7" t="s">
         <v>2251</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>2252</v>
       </c>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.25">
@@ -16349,16 +16365,16 @@
         <v>2182</v>
       </c>
       <c r="BI8" s="4" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="BJ8" s="4" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="BK8" s="4" t="s">
+        <v>2252</v>
+      </c>
+      <c r="BL8" t="s">
         <v>2253</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>2254</v>
       </c>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.25">
@@ -16527,10 +16543,10 @@
         <v>2178</v>
       </c>
       <c r="BI9" s="4" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="BJ9" s="4" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="10" spans="1:64" ht="30" x14ac:dyDescent="0.25">
@@ -16668,10 +16684,10 @@
         <v>1956</v>
       </c>
       <c r="AU10" s="4" t="s">
-        <v>2121</v>
+        <v>2280</v>
       </c>
       <c r="AV10" s="4" t="s">
-        <v>2136</v>
+        <v>2291</v>
       </c>
       <c r="AW10" s="4" t="s">
         <v>2122</v>
@@ -16704,10 +16720,10 @@
         <v>2179</v>
       </c>
       <c r="BI10" s="4" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="BJ10" s="4" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.25">
@@ -16841,11 +16857,11 @@
       <c r="AT11" s="4" t="s">
         <v>2132</v>
       </c>
-      <c r="AU11" s="49" t="s">
-        <v>2200</v>
+      <c r="AU11" s="4" t="s">
+        <v>2121</v>
       </c>
       <c r="AV11" s="4" t="s">
-        <v>2201</v>
+        <v>2136</v>
       </c>
       <c r="AW11" s="4" t="s">
         <v>2123</v>
@@ -17009,11 +17025,11 @@
       <c r="AT12" s="57" t="s">
         <v>2086</v>
       </c>
-      <c r="AU12" s="4" t="s">
-        <v>2122</v>
+      <c r="AU12" s="49" t="s">
+        <v>2200</v>
       </c>
       <c r="AV12" s="4" t="s">
-        <v>2130</v>
+        <v>2201</v>
       </c>
       <c r="AW12" s="4" t="s">
         <v>1939</v>
@@ -17173,10 +17189,10 @@
         <v>1924</v>
       </c>
       <c r="AU13" s="4" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="AV13" s="4" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="AW13" s="4" t="s">
         <v>2002</v>
@@ -17336,16 +17352,16 @@
         <v>2003</v>
       </c>
       <c r="AU14" s="4" t="s">
-        <v>1939</v>
+        <v>2123</v>
       </c>
       <c r="AV14" s="4" t="s">
-        <v>1924</v>
+        <v>2131</v>
       </c>
       <c r="AW14" s="4" t="s">
-        <v>1081</v>
+        <v>1936</v>
       </c>
       <c r="AX14" s="4" t="s">
-        <v>2137</v>
+        <v>2001</v>
       </c>
       <c r="AY14" s="4" t="s">
         <v>2174</v>
@@ -17493,16 +17509,16 @@
         <v>2001</v>
       </c>
       <c r="AU15" s="4" t="s">
-        <v>2002</v>
+        <v>1939</v>
       </c>
       <c r="AV15" s="4" t="s">
-        <v>2003</v>
+        <v>1924</v>
       </c>
       <c r="AW15" s="4" t="s">
-        <v>1941</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>1945</v>
+        <v>1081</v>
+      </c>
+      <c r="AX15" s="4" t="s">
+        <v>2137</v>
       </c>
       <c r="AY15" s="4"/>
       <c r="BA15" t="s">
@@ -17521,7 +17537,7 @@
         <v>2208</v>
       </c>
       <c r="BH15" s="4" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="16" spans="1:64" x14ac:dyDescent="0.25">
@@ -17627,16 +17643,16 @@
         <v>1944</v>
       </c>
       <c r="AU16" s="4" t="s">
-        <v>1081</v>
+        <v>2002</v>
       </c>
       <c r="AV16" s="4" t="s">
-        <v>2137</v>
+        <v>2003</v>
       </c>
       <c r="AW16" s="4" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="AX16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="AY16" s="4"/>
       <c r="BA16" t="s">
@@ -17655,7 +17671,7 @@
         <v>2209</v>
       </c>
       <c r="BH16" s="4" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.25">
@@ -17749,16 +17765,16 @@
         <v>2092</v>
       </c>
       <c r="AU17" s="4" t="s">
-        <v>1941</v>
+        <v>1936</v>
       </c>
       <c r="AV17" s="4" t="s">
-        <v>1945</v>
+        <v>2001</v>
       </c>
       <c r="AW17" s="4" t="s">
-        <v>1372</v>
+        <v>1942</v>
       </c>
       <c r="AX17" t="s">
-        <v>2132</v>
+        <v>1946</v>
       </c>
       <c r="AY17" s="4"/>
       <c r="BA17" t="s">
@@ -17771,7 +17787,7 @@
         <v>2210</v>
       </c>
       <c r="BH17" s="4" t="s">
-        <v>2214</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.25">
@@ -17860,23 +17876,23 @@
         <v>127</v>
       </c>
       <c r="AU18" s="4" t="s">
-        <v>1942</v>
+        <v>1081</v>
       </c>
       <c r="AV18" s="4" t="s">
-        <v>1946</v>
+        <v>2137</v>
       </c>
       <c r="AW18" s="4" t="s">
-        <v>831</v>
+        <v>1372</v>
       </c>
       <c r="AX18" t="s">
-        <v>1954</v>
+        <v>2132</v>
       </c>
       <c r="AY18" s="4"/>
       <c r="BG18" s="4" t="s">
         <v>2211</v>
       </c>
       <c r="BH18" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.25">
@@ -17964,16 +17980,16 @@
         <v>131</v>
       </c>
       <c r="AU19" s="4" t="s">
-        <v>1372</v>
+        <v>1941</v>
       </c>
       <c r="AV19" s="4" t="s">
-        <v>2132</v>
+        <v>1945</v>
       </c>
       <c r="AW19" s="4" t="s">
-        <v>2197</v>
-      </c>
-      <c r="AX19" s="4" t="s">
-        <v>2199</v>
+        <v>831</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>1954</v>
       </c>
       <c r="AY19" s="4"/>
       <c r="BG19" s="4" t="s">
@@ -18055,16 +18071,16 @@
         <v>570</v>
       </c>
       <c r="AU20" s="4" t="s">
-        <v>831</v>
+        <v>1942</v>
       </c>
       <c r="AV20" s="4" t="s">
-        <v>1954</v>
+        <v>1946</v>
       </c>
       <c r="AW20" s="4" t="s">
-        <v>832</v>
-      </c>
-      <c r="AX20" t="s">
-        <v>2133</v>
+        <v>2197</v>
+      </c>
+      <c r="AX20" s="4" t="s">
+        <v>2199</v>
       </c>
       <c r="AY20" s="4"/>
       <c r="BG20" s="4" t="s">
@@ -18146,16 +18162,16 @@
         <v>143</v>
       </c>
       <c r="AU21" s="4" t="s">
-        <v>2196</v>
+        <v>1372</v>
       </c>
       <c r="AV21" s="4" t="s">
-        <v>2198</v>
+        <v>2132</v>
       </c>
       <c r="AW21" s="4" t="s">
-        <v>1484</v>
+        <v>832</v>
       </c>
       <c r="AX21" t="s">
-        <v>1956</v>
+        <v>2133</v>
       </c>
       <c r="AY21" s="4"/>
     </row>
@@ -18231,16 +18247,16 @@
         <v>150</v>
       </c>
       <c r="AU22" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AV22" s="4" t="s">
-        <v>2133</v>
+        <v>1954</v>
       </c>
       <c r="AW22" s="4" t="s">
-        <v>509</v>
+        <v>1484</v>
       </c>
       <c r="AX22" t="s">
-        <v>1323</v>
+        <v>1956</v>
       </c>
       <c r="AY22" s="4"/>
     </row>
@@ -18316,16 +18332,16 @@
         <v>571</v>
       </c>
       <c r="AU23" s="4" t="s">
-        <v>1484</v>
+        <v>2196</v>
       </c>
       <c r="AV23" s="4" t="s">
-        <v>1956</v>
+        <v>2198</v>
       </c>
       <c r="AW23" s="4" t="s">
-        <v>120</v>
+        <v>509</v>
       </c>
       <c r="AX23" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="AY23" s="4"/>
     </row>
@@ -18400,16 +18416,16 @@
         <v>756</v>
       </c>
       <c r="AU24" s="4" t="s">
-        <v>509</v>
+        <v>832</v>
       </c>
       <c r="AV24" s="4" t="s">
-        <v>1323</v>
+        <v>2133</v>
       </c>
       <c r="AW24" s="4" t="s">
-        <v>2124</v>
+        <v>120</v>
       </c>
       <c r="AX24" t="s">
-        <v>2001</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.25">
@@ -18472,16 +18488,16 @@
         <v>1384</v>
       </c>
       <c r="AU25" s="4" t="s">
-        <v>120</v>
+        <v>1484</v>
       </c>
       <c r="AV25" s="4" t="s">
-        <v>1324</v>
+        <v>1956</v>
       </c>
       <c r="AW25" s="4" t="s">
-        <v>2114</v>
-      </c>
-      <c r="AX25" t="s">
-        <v>2134</v>
+        <v>2124</v>
+      </c>
+      <c r="AX25" s="4" t="s">
+        <v>2292</v>
       </c>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.25">
@@ -18537,16 +18553,16 @@
         <v>757</v>
       </c>
       <c r="AU26" s="4" t="s">
-        <v>2124</v>
+        <v>509</v>
       </c>
       <c r="AV26" s="4" t="s">
-        <v>2001</v>
+        <v>1323</v>
       </c>
       <c r="AW26" s="4" t="s">
-        <v>2125</v>
+        <v>2114</v>
       </c>
       <c r="AX26" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="27" spans="1:60" x14ac:dyDescent="0.25">
@@ -18603,16 +18619,16 @@
         <v>758</v>
       </c>
       <c r="AU27" s="4" t="s">
-        <v>2114</v>
+        <v>120</v>
       </c>
       <c r="AV27" s="4" t="s">
-        <v>2134</v>
+        <v>1324</v>
       </c>
       <c r="AW27" s="4" t="s">
-        <v>2152</v>
-      </c>
-      <c r="AX27" s="4" t="s">
-        <v>2154</v>
+        <v>2125</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>2135</v>
       </c>
     </row>
     <row r="28" spans="1:60" x14ac:dyDescent="0.25">
@@ -18669,16 +18685,16 @@
         <v>759</v>
       </c>
       <c r="AU28" s="4" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="AV28" s="4" t="s">
-        <v>2135</v>
+        <v>2292</v>
       </c>
       <c r="AW28" s="4" t="s">
-        <v>2185</v>
-      </c>
-      <c r="AX28" t="s">
-        <v>2187</v>
+        <v>2152</v>
+      </c>
+      <c r="AX28" s="4" t="s">
+        <v>2154</v>
       </c>
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.25">
@@ -18734,16 +18750,16 @@
         <v>760</v>
       </c>
       <c r="AU29" s="4" t="s">
-        <v>2152</v>
+        <v>2114</v>
       </c>
       <c r="AV29" s="4" t="s">
-        <v>2154</v>
+        <v>2134</v>
       </c>
       <c r="AW29" s="4" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="AX29" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="30" spans="1:60" x14ac:dyDescent="0.25">
@@ -18801,16 +18817,16 @@
         <v>761</v>
       </c>
       <c r="AU30" s="4" t="s">
-        <v>2151</v>
-      </c>
-      <c r="AV30" t="s">
-        <v>2184</v>
+        <v>2125</v>
+      </c>
+      <c r="AV30" s="4" t="s">
+        <v>2135</v>
       </c>
       <c r="AW30" s="4" t="s">
-        <v>2195</v>
+        <v>2186</v>
       </c>
       <c r="AX30" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.25">
@@ -18873,16 +18889,16 @@
         <v>762</v>
       </c>
       <c r="AU31" s="4" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="AV31" s="4" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="AW31" s="4" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="AX31" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="32" spans="1:60" ht="30" x14ac:dyDescent="0.25">
@@ -18946,6 +18962,18 @@
       <c r="AT32" s="4" t="s">
         <v>763</v>
       </c>
+      <c r="AU32" s="4" t="s">
+        <v>2151</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>2184</v>
+      </c>
+      <c r="AW32" s="4" t="s">
+        <v>2194</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>2190</v>
+      </c>
     </row>
     <row r="33" spans="3:48" x14ac:dyDescent="0.25">
       <c r="E33" s="4"/>
@@ -19006,6 +19034,12 @@
       </c>
       <c r="AT33" s="4" t="s">
         <v>764</v>
+      </c>
+      <c r="AU33" s="4" t="s">
+        <v>2153</v>
+      </c>
+      <c r="AV33" s="4" t="s">
+        <v>2155</v>
       </c>
     </row>
     <row r="34" spans="3:48" x14ac:dyDescent="0.25">
@@ -19251,8 +19285,6 @@
       <c r="AT37" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="AU37" s="48"/>
-      <c r="AV37" s="48"/>
     </row>
     <row r="38" spans="3:48" x14ac:dyDescent="0.25">
       <c r="E38" s="4"/>
@@ -19310,8 +19342,6 @@
       <c r="AT38" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="AU38" s="48"/>
-      <c r="AV38" s="48"/>
     </row>
     <row r="39" spans="3:48" x14ac:dyDescent="0.25">
       <c r="E39" s="4"/>
@@ -19994,6 +20024,8 @@
       <c r="AT52" s="4" t="s">
         <v>254</v>
       </c>
+      <c r="AU52" s="48"/>
+      <c r="AV52" s="48"/>
     </row>
     <row r="53" spans="7:48" x14ac:dyDescent="0.25">
       <c r="I53" s="48"/>
@@ -20021,6 +20053,8 @@
       <c r="AT53" s="4" t="s">
         <v>255</v>
       </c>
+      <c r="AU53" s="48"/>
+      <c r="AV53" s="48"/>
     </row>
     <row r="54" spans="7:48" x14ac:dyDescent="0.25">
       <c r="I54" s="48"/>
@@ -22979,7 +23013,7 @@
         <v>1538</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="D26" s="4"/>
     </row>
@@ -23346,7 +23380,7 @@
     </row>
     <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>1560</v>
@@ -23357,7 +23391,7 @@
     </row>
     <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>1560</v>
@@ -24714,7 +24748,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="55" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>1517</v>

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" firstSheet="8" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="switch_models" sheetId="1" r:id="rId1"/>
@@ -6215,9 +6215,6 @@
     <t>^(HSV\d{3}) +- +([\w \-]+) +- +CR\w{4} *$</t>
   </si>
   <si>
-    <t>v8.2.2b</t>
-  </si>
-  <si>
     <t>HSV340 - MTGCOD_P6300-1 - CR1F1B</t>
   </si>
   <si>
@@ -6933,6 +6930,9 @@
   </si>
   <si>
     <t>Определённое  в зоне число Wwn</t>
+  </si>
+  <si>
+    <t>v8.2.2c</t>
   </si>
 </sst>
 </file>
@@ -7626,8 +7626,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8730,7 +8730,7 @@
         <v>1126</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>1097</v>
@@ -8756,7 +8756,7 @@
         <v>1110</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>1097</v>
@@ -9146,7 +9146,7 @@
         <v>1120</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>2054</v>
+        <v>2293</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>1097</v>
@@ -9198,7 +9198,7 @@
         <v>1119</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>2054</v>
+        <v>2293</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>4</v>
@@ -9224,7 +9224,7 @@
         <v>1118</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>2054</v>
+        <v>2293</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>1097</v>
@@ -9250,7 +9250,7 @@
         <v>1118</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>2054</v>
+        <v>2293</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>1097</v>
@@ -9276,7 +9276,7 @@
         <v>1129</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>2054</v>
+        <v>2293</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>1097</v>
@@ -9302,7 +9302,7 @@
         <v>1130</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>2054</v>
+        <v>2293</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>1097</v>
@@ -9380,7 +9380,7 @@
         <v>82</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>2054</v>
+        <v>2293</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>1097</v>
@@ -9406,7 +9406,7 @@
         <v>84</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>2054</v>
+        <v>2293</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>1097</v>
@@ -9432,7 +9432,7 @@
         <v>1117</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>2054</v>
+        <v>2293</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>1097</v>
@@ -9484,7 +9484,7 @@
         <v>89</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>2054</v>
+        <v>2293</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>1097</v>
@@ -9510,7 +9510,7 @@
         <v>1977</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>2054</v>
+        <v>2293</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>1097</v>
@@ -9518,13 +9518,13 @@
     </row>
     <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>2263</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>2264</v>
-      </c>
       <c r="C73" s="4" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>4</v>
@@ -9533,7 +9533,7 @@
         <v>16</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>1096</v>
@@ -9562,7 +9562,7 @@
         <v>1162</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>2054</v>
+        <v>2293</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>1097</v>
@@ -9588,7 +9588,7 @@
         <v>1121</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>2054</v>
+        <v>2293</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>1097</v>
@@ -9614,7 +9614,7 @@
         <v>1122</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>2054</v>
+        <v>2293</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>1097</v>
@@ -9640,7 +9640,7 @@
         <v>1163</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>2054</v>
+        <v>2293</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>1097</v>
@@ -9666,7 +9666,7 @@
         <v>1164</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>2054</v>
+        <v>2293</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>1097</v>
@@ -11016,16 +11016,16 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>264</v>
@@ -11602,7 +11602,7 @@
       <c r="L37"/>
       <c r="M37"/>
       <c r="N37" s="4" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="O37"/>
       <c r="P37"/>
@@ -12028,16 +12028,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>2218</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>2219</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>2220</v>
-      </c>
       <c r="E6" s="14" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>533</v>
@@ -12130,38 +12130,38 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B13" s="34">
         <v>1</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
       <c r="F14" s="34" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>144</v>
@@ -12169,32 +12169,32 @@
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
       <c r="F15" s="34" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
       <c r="F16" s="34" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12207,7 +12207,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="4" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -12778,7 +12778,7 @@
         <v>522</v>
       </c>
       <c r="K1" s="68" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>894</v>
@@ -13541,13 +13541,13 @@
         <v>1054</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>522</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -13648,26 +13648,26 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I6" s="8" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="8" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -13803,7 +13803,7 @@
         <v>1062</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>1063</v>
@@ -13872,13 +13872,13 @@
         <v>1057</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -13952,65 +13952,65 @@
         <v>8</v>
       </c>
       <c r="C22" s="14" t="s">
+        <v>2266</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>2267</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>2268</v>
-      </c>
       <c r="E22" s="14" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="B24" s="39">
         <v>9</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="39" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="63" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="B26" s="63">
         <v>10</v>
       </c>
       <c r="C26" s="63" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="D26" s="63"/>
       <c r="E26" s="63" t="s">
+        <v>2273</v>
+      </c>
+      <c r="F26" s="63" t="s">
         <v>2274</v>
-      </c>
-      <c r="F26" s="63" t="s">
-        <v>2275</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F27" s="63" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -14018,26 +14018,26 @@
         <v>11</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="D29" s="14" t="s">
+        <v>2280</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>2277</v>
+      </c>
+      <c r="F29" s="14" t="s">
         <v>2281</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>2278</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>2282</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F30" s="14" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F31" s="14" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -14047,12 +14047,12 @@
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" s="14" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34" s="14" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
   </sheetData>
@@ -14497,7 +14497,7 @@
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>1751</v>
@@ -14523,7 +14523,7 @@
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -14765,8 +14765,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:BL174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BG22" sqref="BG22"/>
+    <sheetView topLeftCell="AT1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AW6" sqref="AW6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14868,10 +14868,10 @@
         <v>1344</v>
       </c>
       <c r="M1" s="20" t="s">
+        <v>2203</v>
+      </c>
+      <c r="N1" s="20" t="s">
         <v>2204</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>2205</v>
       </c>
       <c r="P1" s="27" t="s">
         <v>1478</v>
@@ -14917,10 +14917,10 @@
         <v>1929</v>
       </c>
       <c r="AE1" s="14" t="s">
+        <v>2071</v>
+      </c>
+      <c r="AF1" s="14" t="s">
         <v>2072</v>
-      </c>
-      <c r="AF1" s="14" t="s">
-        <v>2073</v>
       </c>
       <c r="AG1" s="62" t="s">
         <v>1920</v>
@@ -14947,76 +14947,76 @@
         <v>1933</v>
       </c>
       <c r="AO1" s="34" t="s">
+        <v>2074</v>
+      </c>
+      <c r="AP1" s="34" t="s">
         <v>2075</v>
       </c>
-      <c r="AP1" s="34" t="s">
-        <v>2076</v>
-      </c>
       <c r="AQ1" s="39" t="s">
+        <v>2086</v>
+      </c>
+      <c r="AR1" s="39" t="s">
         <v>2087</v>
       </c>
-      <c r="AR1" s="39" t="s">
-        <v>2088</v>
-      </c>
       <c r="AS1" s="59" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="AT1" s="59" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="AU1" s="62" t="s">
+        <v>2115</v>
+      </c>
+      <c r="AV1" s="62" t="s">
+        <v>2117</v>
+      </c>
+      <c r="AW1" s="44" t="s">
         <v>2116</v>
       </c>
-      <c r="AV1" s="62" t="s">
+      <c r="AX1" s="44" t="s">
         <v>2118</v>
       </c>
-      <c r="AW1" s="44" t="s">
-        <v>2117</v>
-      </c>
-      <c r="AX1" s="44" t="s">
-        <v>2119</v>
-      </c>
       <c r="AY1" s="14" t="s">
+        <v>2155</v>
+      </c>
+      <c r="AZ1" s="14" t="s">
         <v>2156</v>
       </c>
-      <c r="AZ1" s="14" t="s">
-        <v>2157</v>
-      </c>
       <c r="BA1" s="65" t="s">
+        <v>2201</v>
+      </c>
+      <c r="BB1" s="65" t="s">
         <v>2202</v>
       </c>
-      <c r="BB1" s="65" t="s">
-        <v>2203</v>
-      </c>
       <c r="BC1" s="12" t="s">
+        <v>2256</v>
+      </c>
+      <c r="BD1" s="12" t="s">
         <v>2257</v>
       </c>
-      <c r="BD1" s="12" t="s">
+      <c r="BE1" s="24" t="s">
         <v>2258</v>
       </c>
-      <c r="BE1" s="24" t="s">
+      <c r="BF1" s="24" t="s">
         <v>2259</v>
       </c>
-      <c r="BF1" s="24" t="s">
-        <v>2260</v>
-      </c>
       <c r="BG1" s="34" t="s">
+        <v>2216</v>
+      </c>
+      <c r="BH1" s="34" t="s">
         <v>2217</v>
       </c>
-      <c r="BH1" s="34" t="s">
-        <v>2218</v>
-      </c>
       <c r="BI1" s="9" t="s">
+        <v>2231</v>
+      </c>
+      <c r="BJ1" s="9" t="s">
         <v>2232</v>
       </c>
-      <c r="BJ1" s="9" t="s">
-        <v>2233</v>
-      </c>
       <c r="BK1" s="59" t="s">
+        <v>2238</v>
+      </c>
+      <c r="BL1" s="59" t="s">
         <v>2239</v>
-      </c>
-      <c r="BL1" s="59" t="s">
-        <v>2240</v>
       </c>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.25">
@@ -15024,7 +15024,7 @@
         <v>1773</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1165</v>
@@ -15171,10 +15171,10 @@
         <v>1321</v>
       </c>
       <c r="AY2" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="AZ2" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="BA2" t="s">
         <v>1165</v>
@@ -15210,7 +15210,7 @@
         <v>649</v>
       </c>
       <c r="BL2" s="4" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.25">
@@ -15218,7 +15218,7 @@
         <v>1772</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1166</v>
@@ -15365,10 +15365,10 @@
         <v>1322</v>
       </c>
       <c r="AY3" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="AZ3" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="BA3" t="s">
         <v>1166</v>
@@ -15401,10 +15401,10 @@
         <v>1322</v>
       </c>
       <c r="BK3" s="4" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="BL3" s="4" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.25">
@@ -15412,7 +15412,7 @@
         <v>1913</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>509</v>
@@ -15550,19 +15550,19 @@
         <v>1041</v>
       </c>
       <c r="AV4" s="4" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="AW4" s="4" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="AX4" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="AY4" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="AZ4" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="BA4" t="s">
         <v>1483</v>
@@ -15577,16 +15577,16 @@
         <v>1954</v>
       </c>
       <c r="BE4" s="4" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="BF4" s="4" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="BG4" s="4" t="s">
         <v>1041</v>
       </c>
       <c r="BH4" s="4" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="BI4" s="4" t="s">
         <v>509</v>
@@ -15595,10 +15595,10 @@
         <v>1323</v>
       </c>
       <c r="BK4" s="4" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="BL4" s="4" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.25">
@@ -15606,7 +15606,7 @@
         <v>1764</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>300</v>
@@ -15714,7 +15714,7 @@
         <v>1081</v>
       </c>
       <c r="AL5" s="4" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="AM5" s="4" t="s">
         <v>1901</v>
@@ -15741,10 +15741,10 @@
         <v>1324</v>
       </c>
       <c r="AU5" s="4" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="AV5" s="4" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="AW5" s="4" t="s">
         <v>1057</v>
@@ -15753,10 +15753,10 @@
         <v>1955</v>
       </c>
       <c r="AY5" s="4" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="AZ5" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="BA5" t="s">
         <v>1939</v>
@@ -15774,13 +15774,13 @@
         <v>1041</v>
       </c>
       <c r="BF5" s="4" t="s">
+        <v>2125</v>
+      </c>
+      <c r="BG5" s="4" t="s">
+        <v>2119</v>
+      </c>
+      <c r="BH5" s="4" t="s">
         <v>2126</v>
-      </c>
-      <c r="BG5" s="4" t="s">
-        <v>2120</v>
-      </c>
-      <c r="BH5" s="4" t="s">
-        <v>2127</v>
       </c>
       <c r="BI5" s="4" t="s">
         <v>120</v>
@@ -15789,10 +15789,10 @@
         <v>1324</v>
       </c>
       <c r="BK5" s="4" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="BL5" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.25">
@@ -15800,7 +15800,7 @@
         <v>2034</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>264</v>
@@ -15890,7 +15890,7 @@
         <v>1081</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="AG6" s="4" t="s">
         <v>1936</v>
@@ -15938,19 +15938,19 @@
         <v>1042</v>
       </c>
       <c r="AV6" s="4" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="AW6" s="4" t="s">
+        <v>2191</v>
+      </c>
+      <c r="AX6" s="4" t="s">
         <v>2192</v>
       </c>
-      <c r="AX6" s="4" t="s">
-        <v>2193</v>
-      </c>
       <c r="AY6" s="4" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="AZ6" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="BA6" t="s">
         <v>2002</v>
@@ -15974,19 +15974,19 @@
         <v>1042</v>
       </c>
       <c r="BH6" s="4" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="BI6" s="4" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="BJ6" s="4" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="BK6" s="4" t="s">
+        <v>2246</v>
+      </c>
+      <c r="BL6" s="66" t="s">
         <v>2247</v>
-      </c>
-      <c r="BL6" s="66" t="s">
-        <v>2248</v>
       </c>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.25">
@@ -15994,7 +15994,7 @@
         <v>1765</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>107</v>
@@ -16090,13 +16090,13 @@
         <v>1081</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="AI7" s="4" t="s">
         <v>1081</v>
       </c>
       <c r="AJ7" s="4" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="AK7" s="4" t="s">
         <v>1047</v>
@@ -16129,22 +16129,22 @@
         <v>1435</v>
       </c>
       <c r="AU7" s="4" t="s">
+        <v>2148</v>
+      </c>
+      <c r="AV7" s="4" t="s">
         <v>2149</v>
-      </c>
-      <c r="AV7" s="4" t="s">
-        <v>2150</v>
       </c>
       <c r="AW7" s="4" t="s">
         <v>1058</v>
       </c>
       <c r="AX7" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="AY7" s="4" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="AZ7" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="BA7" t="s">
         <v>1047</v>
@@ -16162,25 +16162,25 @@
         <v>1058</v>
       </c>
       <c r="BF7" s="4" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="BG7" s="4" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="BH7" s="4" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="BI7" s="4" t="s">
         <v>144</v>
       </c>
       <c r="BJ7" s="4" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="BK7" t="s">
+        <v>2249</v>
+      </c>
+      <c r="BL7" t="s">
         <v>2250</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>2251</v>
       </c>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.25">
@@ -16329,16 +16329,16 @@
         <v>1955</v>
       </c>
       <c r="AW8" s="4" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="AX8" s="4" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="AY8" s="4" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="AZ8" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="BA8" t="s">
         <v>1936</v>
@@ -16353,28 +16353,28 @@
         <v>1324</v>
       </c>
       <c r="BE8" s="4" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="BF8" s="4" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="BG8" s="4" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="BH8" s="4" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="BI8" s="4" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="BJ8" s="4" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="BK8" s="4" t="s">
+        <v>2251</v>
+      </c>
+      <c r="BL8" t="s">
         <v>2252</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>2253</v>
       </c>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.25">
@@ -16382,7 +16382,7 @@
         <v>1767</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>0</v>
@@ -16423,7 +16423,7 @@
         <v>878</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>1438</v>
@@ -16504,19 +16504,19 @@
         <v>1058</v>
       </c>
       <c r="AV9" s="4" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="AW9" s="49" t="s">
+        <v>2199</v>
+      </c>
+      <c r="AX9" s="4" t="s">
         <v>2200</v>
       </c>
-      <c r="AX9" s="4" t="s">
-        <v>2201</v>
-      </c>
       <c r="AY9" s="4" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="AZ9" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="BA9" t="s">
         <v>509</v>
@@ -16534,19 +16534,19 @@
         <v>1042</v>
       </c>
       <c r="BF9" s="4" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="BG9" s="4" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="BH9" s="4" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="BI9" s="4" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="BJ9" s="4" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="10" spans="1:64" ht="30" x14ac:dyDescent="0.25">
@@ -16554,7 +16554,7 @@
         <v>2033</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>1382</v>
@@ -16684,22 +16684,22 @@
         <v>1956</v>
       </c>
       <c r="AU10" s="4" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="AV10" s="4" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="AW10" s="4" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="AX10" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="AY10" s="4" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="AZ10" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="BA10" t="s">
         <v>120</v>
@@ -16714,16 +16714,16 @@
         <v>1435</v>
       </c>
       <c r="BG10" s="4" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="BH10" s="4" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="BI10" s="4" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="BJ10" s="4" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.25">
@@ -16731,7 +16731,7 @@
         <v>1768</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>1383</v>
@@ -16843,37 +16843,37 @@
         <v>1372</v>
       </c>
       <c r="AP11" s="4" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="AQ11" s="4" t="s">
         <v>1372</v>
       </c>
       <c r="AR11" s="4" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="AS11" s="4" t="s">
         <v>1372</v>
       </c>
       <c r="AT11" s="4" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="AU11" s="4" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="AV11" s="4" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="AW11" s="4" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="AX11" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="AY11" s="4" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="AZ11" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="BA11" t="s">
         <v>1371</v>
@@ -16888,10 +16888,10 @@
         <v>1436</v>
       </c>
       <c r="BG11" s="4" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="BH11" s="4" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.25">
@@ -16899,7 +16899,7 @@
         <v>1771</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>1</v>
@@ -17011,25 +17011,25 @@
         <v>566</v>
       </c>
       <c r="AP12" s="57" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="AQ12" s="4" t="s">
         <v>566</v>
       </c>
       <c r="AR12" s="57" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="AS12" s="4" t="s">
         <v>566</v>
       </c>
       <c r="AT12" s="57" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="AU12" s="49" t="s">
+        <v>2199</v>
+      </c>
+      <c r="AV12" s="4" t="s">
         <v>2200</v>
-      </c>
-      <c r="AV12" s="4" t="s">
-        <v>2201</v>
       </c>
       <c r="AW12" s="4" t="s">
         <v>1939</v>
@@ -17038,10 +17038,10 @@
         <v>1924</v>
       </c>
       <c r="AY12" s="4" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="AZ12" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="BA12" t="s">
         <v>134</v>
@@ -17056,10 +17056,10 @@
         <v>1956</v>
       </c>
       <c r="BG12" s="4" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="BH12" s="4" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.25">
@@ -17174,7 +17174,7 @@
         <v>832</v>
       </c>
       <c r="AP13" s="4" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="AQ13" s="4" t="s">
         <v>1939</v>
@@ -17189,10 +17189,10 @@
         <v>1924</v>
       </c>
       <c r="AU13" s="4" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="AV13" s="4" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="AW13" s="4" t="s">
         <v>2002</v>
@@ -17201,10 +17201,10 @@
         <v>2003</v>
       </c>
       <c r="AY13" s="4" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="AZ13" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="BA13" t="s">
         <v>139</v>
@@ -17219,15 +17219,15 @@
         <v>1944</v>
       </c>
       <c r="BG13" s="4" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="BH13" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>1334</v>
@@ -17352,10 +17352,10 @@
         <v>2003</v>
       </c>
       <c r="AU14" s="4" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="AV14" s="4" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="AW14" s="4" t="s">
         <v>1936</v>
@@ -17364,10 +17364,10 @@
         <v>2001</v>
       </c>
       <c r="AY14" s="4" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="AZ14" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="BA14" s="4" t="s">
         <v>1484</v>
@@ -17382,10 +17382,10 @@
         <v>1945</v>
       </c>
       <c r="BG14" s="4" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="BH14" s="4" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.25">
@@ -17518,7 +17518,7 @@
         <v>1081</v>
       </c>
       <c r="AX15" s="4" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="AY15" s="4"/>
       <c r="BA15" t="s">
@@ -17534,10 +17534,10 @@
         <v>1946</v>
       </c>
       <c r="BG15" s="4" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="BH15" s="4" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="16" spans="1:64" x14ac:dyDescent="0.25">
@@ -17662,16 +17662,16 @@
         <v>1945</v>
       </c>
       <c r="BC16" s="4" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="BD16" s="4" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="BG16" s="4" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="BH16" s="4" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.25">
@@ -17756,13 +17756,13 @@
         <v>122</v>
       </c>
       <c r="AR17" s="4" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="AS17" s="4" t="s">
         <v>122</v>
       </c>
       <c r="AT17" s="4" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="AU17" s="4" t="s">
         <v>1936</v>
@@ -17784,10 +17784,10 @@
         <v>1946</v>
       </c>
       <c r="BG17" s="4" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="BH17" s="4" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.25">
@@ -17864,7 +17864,7 @@
         <v>1944</v>
       </c>
       <c r="AQ18" s="4" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="AR18" s="4" t="s">
         <v>125</v>
@@ -17879,20 +17879,20 @@
         <v>1081</v>
       </c>
       <c r="AV18" s="4" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="AW18" s="4" t="s">
         <v>1372</v>
       </c>
       <c r="AX18" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="AY18" s="4"/>
       <c r="BG18" s="4" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="BH18" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.25">
@@ -17937,10 +17937,10 @@
         <v>840</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="AG19" s="4" t="s">
         <v>840</v>
@@ -17965,10 +17965,10 @@
         <v>122</v>
       </c>
       <c r="AP19" s="4" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="AQ19" s="4" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="AR19" s="4" t="s">
         <v>1438</v>
@@ -17993,10 +17993,10 @@
       </c>
       <c r="AY19" s="4"/>
       <c r="BG19" s="4" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="BH19" s="4" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="20" spans="1:60" x14ac:dyDescent="0.25">
@@ -18062,7 +18062,7 @@
         <v>1</v>
       </c>
       <c r="AR20" s="4" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="AS20" s="4" t="s">
         <v>570</v>
@@ -18077,17 +18077,17 @@
         <v>1946</v>
       </c>
       <c r="AW20" s="4" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="AX20" s="4" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="AY20" s="4"/>
       <c r="BG20" s="4" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="BH20" s="4" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="21" spans="1:60" x14ac:dyDescent="0.25">
@@ -18150,10 +18150,10 @@
         <v>172</v>
       </c>
       <c r="AQ21" s="4" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="AR21" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="AS21" s="4" t="s">
         <v>143</v>
@@ -18165,13 +18165,13 @@
         <v>1372</v>
       </c>
       <c r="AV21" s="4" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="AW21" s="4" t="s">
         <v>832</v>
       </c>
       <c r="AX21" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="AY21" s="4"/>
     </row>
@@ -18235,10 +18235,10 @@
         <v>179</v>
       </c>
       <c r="AQ22" s="4" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="AR22" s="4" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="AS22" s="4" t="s">
         <v>150</v>
@@ -18320,10 +18320,10 @@
         <v>185</v>
       </c>
       <c r="AQ23" s="4" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="AR23" s="4" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="AS23" s="4" t="s">
         <v>571</v>
@@ -18332,10 +18332,10 @@
         <v>571</v>
       </c>
       <c r="AU23" s="4" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="AV23" s="4" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="AW23" s="4" t="s">
         <v>509</v>
@@ -18407,7 +18407,7 @@
         <v>1398</v>
       </c>
       <c r="AR24" s="4" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="AS24" s="4" t="s">
         <v>756</v>
@@ -18419,7 +18419,7 @@
         <v>832</v>
       </c>
       <c r="AV24" s="4" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="AW24" s="4" t="s">
         <v>120</v>
@@ -18476,10 +18476,10 @@
         <v>197</v>
       </c>
       <c r="AQ25" s="4" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="AR25" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="AS25" s="4" t="s">
         <v>1384</v>
@@ -18494,10 +18494,10 @@
         <v>1956</v>
       </c>
       <c r="AW25" s="4" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="AX25" s="4" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.25">
@@ -18541,10 +18541,10 @@
         <v>205</v>
       </c>
       <c r="AQ26" s="4" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="AR26" s="4" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="AS26" s="4" t="s">
         <v>757</v>
@@ -18559,10 +18559,10 @@
         <v>1323</v>
       </c>
       <c r="AW26" s="4" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="AX26" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="27" spans="1:60" x14ac:dyDescent="0.25">
@@ -18610,7 +18610,7 @@
         <v>665</v>
       </c>
       <c r="AR27" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="AS27" s="4" t="s">
         <v>758</v>
@@ -18625,10 +18625,10 @@
         <v>1324</v>
       </c>
       <c r="AW27" s="4" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="AX27" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="28" spans="1:60" x14ac:dyDescent="0.25">
@@ -18673,10 +18673,10 @@
         <v>213</v>
       </c>
       <c r="AQ28" s="4" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="AR28" s="4" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="AS28" s="4" t="s">
         <v>759</v>
@@ -18685,16 +18685,16 @@
         <v>759</v>
       </c>
       <c r="AU28" s="4" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="AV28" s="4" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="AW28" s="4" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="AX28" s="4" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.25">
@@ -18741,7 +18741,7 @@
         <v>666</v>
       </c>
       <c r="AR29" s="4" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="AS29" s="4" t="s">
         <v>760</v>
@@ -18750,16 +18750,16 @@
         <v>760</v>
       </c>
       <c r="AU29" s="4" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="AV29" s="4" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="AW29" s="4" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="AX29" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="30" spans="1:60" x14ac:dyDescent="0.25">
@@ -18808,7 +18808,7 @@
         <v>667</v>
       </c>
       <c r="AR30" s="4" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="AS30" s="4" t="s">
         <v>761</v>
@@ -18817,16 +18817,16 @@
         <v>761</v>
       </c>
       <c r="AU30" s="4" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="AV30" s="4" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="AW30" s="4" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="AX30" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.25">
@@ -18880,7 +18880,7 @@
         <v>668</v>
       </c>
       <c r="AR31" s="4" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="AS31" s="4" t="s">
         <v>762</v>
@@ -18889,16 +18889,16 @@
         <v>762</v>
       </c>
       <c r="AU31" s="4" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="AV31" s="4" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="AW31" s="4" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="AX31" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="32" spans="1:60" ht="30" x14ac:dyDescent="0.25">
@@ -18954,7 +18954,7 @@
         <v>669</v>
       </c>
       <c r="AR32" s="4" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="AS32" s="4" t="s">
         <v>763</v>
@@ -18963,16 +18963,16 @@
         <v>763</v>
       </c>
       <c r="AU32" s="4" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="AV32" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="AW32" s="4" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="AX32" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="33" spans="3:48" x14ac:dyDescent="0.25">
@@ -19027,7 +19027,7 @@
         <v>670</v>
       </c>
       <c r="AR33" s="4" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="AS33" s="4" t="s">
         <v>764</v>
@@ -19036,10 +19036,10 @@
         <v>764</v>
       </c>
       <c r="AU33" s="4" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="AV33" s="4" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="34" spans="3:48" x14ac:dyDescent="0.25">
@@ -19097,7 +19097,7 @@
         <v>671</v>
       </c>
       <c r="AR34" s="4" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="AS34" s="4" t="s">
         <v>765</v>
@@ -19163,7 +19163,7 @@
         <v>672</v>
       </c>
       <c r="AR35" s="4" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="AS35" s="4" t="s">
         <v>766</v>
@@ -19618,7 +19618,7 @@
         <v>680</v>
       </c>
       <c r="AR43" s="4" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="AS43" s="4" t="s">
         <v>774</v>
@@ -19670,7 +19670,7 @@
         <v>681</v>
       </c>
       <c r="AR44" s="4" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="AS44" s="4" t="s">
         <v>775</v>
@@ -22380,19 +22380,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B1" s="67" t="s">
         <v>1398</v>
       </c>
       <c r="C1" s="67" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>2142</v>
+      </c>
+      <c r="E1" s="67" t="s">
         <v>2081</v>
-      </c>
-      <c r="D1" s="67" t="s">
-        <v>2143</v>
-      </c>
-      <c r="E1" s="67" t="s">
-        <v>2082</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -22406,7 +22406,7 @@
         <v>1683</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1684</v>
@@ -22423,7 +22423,7 @@
         <v>1683</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>1684</v>
@@ -22440,7 +22440,7 @@
         <v>1683</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>1695</v>
@@ -22457,7 +22457,7 @@
         <v>1686</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>1695</v>
@@ -22474,7 +22474,7 @@
         <v>1686</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>1695</v>
@@ -22491,7 +22491,7 @@
         <v>1683</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1693</v>
@@ -22508,7 +22508,7 @@
         <v>1683</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>1695</v>
@@ -22525,7 +22525,7 @@
         <v>1683</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>1696</v>
@@ -22542,7 +22542,7 @@
         <v>1683</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>1696</v>
@@ -22559,7 +22559,7 @@
         <v>1683</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>1684</v>
@@ -22576,7 +22576,7 @@
         <v>1683</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>1696</v>
@@ -22595,7 +22595,7 @@
         <v>1686</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>2012</v>
@@ -22614,7 +22614,7 @@
         <v>1683</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>2012</v>
@@ -22631,7 +22631,7 @@
         <v>1683</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E15" t="s">
         <v>1700</v>
@@ -22648,7 +22648,7 @@
         <v>1683</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>1700</v>
@@ -22665,7 +22665,7 @@
         <v>1686</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>1700</v>
@@ -22673,7 +22673,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -22682,7 +22682,7 @@
         <v>1686</v>
       </c>
       <c r="D18" s="57" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>1694</v>
@@ -23013,7 +23013,7 @@
         <v>1538</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="D26" s="4"/>
     </row>
@@ -23380,7 +23380,7 @@
     </row>
     <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>1560</v>
@@ -23391,7 +23391,7 @@
     </row>
     <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>1560</v>
@@ -24737,7 +24737,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>1517</v>
@@ -24748,7 +24748,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="55" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>1517</v>
@@ -24999,7 +24999,7 @@
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="13" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>340</v>
@@ -25024,7 +25024,7 @@
       <c r="D13" s="12"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -25038,7 +25038,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="12" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -25250,7 +25250,7 @@
         <v>451</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>343</v>
@@ -25275,7 +25275,7 @@
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -27089,11 +27089,11 @@
         <v>143</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -27143,7 +27143,7 @@
       </c>
       <c r="D23" s="44"/>
       <c r="E23" s="44" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="F23" s="44" t="s">
         <v>1486</v>
@@ -27164,7 +27164,7 @@
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
       <c r="F24" s="44" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>165</v>
@@ -27178,7 +27178,7 @@
         <v>179</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>172</v>
@@ -29012,7 +29012,7 @@
         <v>264</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>264</v>
@@ -29038,7 +29038,7 @@
         <v>157</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>157</v>
@@ -29061,7 +29061,7 @@
         <v>134</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -29093,7 +29093,7 @@
         <v>139</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -29113,7 +29113,7 @@
         <v>125</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -29129,10 +29129,10 @@
         <v>129</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="J12" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -29148,7 +29148,7 @@
         <v>133</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -29167,7 +29167,7 @@
         <v>665</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -29193,10 +29193,10 @@
         <v>146</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -29212,7 +29212,7 @@
         <v>666</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -29241,7 +29241,7 @@
         <v>667</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -29257,7 +29257,7 @@
         <v>668</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -29285,7 +29285,7 @@
         <v>669</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -31228,7 +31228,7 @@
         <v>1866</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>1863</v>
@@ -31556,7 +31556,7 @@
     </row>
     <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H64" s="4" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" firstSheet="8" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="switch_models" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5746" uniqueCount="2294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5753" uniqueCount="2295">
   <si>
     <t>switchType</t>
   </si>
@@ -6933,6 +6933,9 @@
   </si>
   <si>
     <t>v8.2.2c</t>
+  </si>
+  <si>
+    <t>^(snmp.(?:snmpv3TrapTarget|agtParty).\d.(?:trapTargetAddr|address)):((?:[0-9]{1,3}\.){3}[0-9]{1,3})$</t>
   </si>
 </sst>
 </file>
@@ -7626,8 +7629,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14763,10 +14766,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:BL174"/>
+  <dimension ref="A1:BL175"/>
   <sheetViews>
-    <sheetView topLeftCell="AT1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AW6" sqref="AW6"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AS13" sqref="AS13:AT13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16483,22 +16486,22 @@
         <v>1167</v>
       </c>
       <c r="AO9" s="4" t="s">
-        <v>166</v>
+        <v>1484</v>
       </c>
       <c r="AP9" s="4" t="s">
-        <v>1437</v>
+        <v>1956</v>
       </c>
       <c r="AQ9" s="4" t="s">
-        <v>166</v>
+        <v>1484</v>
       </c>
       <c r="AR9" s="4" t="s">
-        <v>1437</v>
+        <v>1956</v>
       </c>
       <c r="AS9" s="4" t="s">
-        <v>166</v>
+        <v>1484</v>
       </c>
       <c r="AT9" s="4" t="s">
-        <v>1437</v>
+        <v>1956</v>
       </c>
       <c r="AU9" s="4" t="s">
         <v>1058</v>
@@ -16666,22 +16669,22 @@
         <v>1333</v>
       </c>
       <c r="AO10" s="4" t="s">
-        <v>1484</v>
+        <v>1939</v>
       </c>
       <c r="AP10" s="4" t="s">
-        <v>1956</v>
+        <v>1924</v>
       </c>
       <c r="AQ10" s="4" t="s">
-        <v>1484</v>
+        <v>1939</v>
       </c>
       <c r="AR10" s="4" t="s">
-        <v>1956</v>
+        <v>1924</v>
       </c>
       <c r="AS10" s="4" t="s">
-        <v>1484</v>
+        <v>1939</v>
       </c>
       <c r="AT10" s="4" t="s">
-        <v>1956</v>
+        <v>1924</v>
       </c>
       <c r="AU10" s="4" t="s">
         <v>2279</v>
@@ -16839,23 +16842,23 @@
       <c r="AN11" s="4" t="s">
         <v>1952</v>
       </c>
-      <c r="AO11" s="4" t="s">
-        <v>1372</v>
-      </c>
-      <c r="AP11" s="4" t="s">
-        <v>2131</v>
-      </c>
-      <c r="AQ11" s="4" t="s">
-        <v>1372</v>
-      </c>
-      <c r="AR11" s="4" t="s">
-        <v>2131</v>
-      </c>
-      <c r="AS11" s="4" t="s">
-        <v>1372</v>
-      </c>
-      <c r="AT11" s="4" t="s">
-        <v>2131</v>
+      <c r="AO11" s="3" t="s">
+        <v>2002</v>
+      </c>
+      <c r="AP11" s="3" t="s">
+        <v>2003</v>
+      </c>
+      <c r="AQ11" s="3" t="s">
+        <v>2002</v>
+      </c>
+      <c r="AR11" s="3" t="s">
+        <v>2003</v>
+      </c>
+      <c r="AS11" s="3" t="s">
+        <v>2002</v>
+      </c>
+      <c r="AT11" s="3" t="s">
+        <v>2003</v>
       </c>
       <c r="AU11" s="4" t="s">
         <v>2120</v>
@@ -17008,22 +17011,22 @@
         <v>1494</v>
       </c>
       <c r="AO12" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="AP12" s="57" t="s">
-        <v>2085</v>
+        <v>1936</v>
+      </c>
+      <c r="AP12" s="4" t="s">
+        <v>2001</v>
       </c>
       <c r="AQ12" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="AR12" s="57" t="s">
-        <v>2085</v>
+        <v>1936</v>
+      </c>
+      <c r="AR12" s="4" t="s">
+        <v>2001</v>
       </c>
       <c r="AS12" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="AT12" s="57" t="s">
-        <v>2085</v>
+        <v>1936</v>
+      </c>
+      <c r="AT12" s="4" t="s">
+        <v>2001</v>
       </c>
       <c r="AU12" s="49" t="s">
         <v>2199</v>
@@ -17171,22 +17174,22 @@
         <v>1334</v>
       </c>
       <c r="AO13" s="4" t="s">
-        <v>832</v>
+        <v>1047</v>
       </c>
       <c r="AP13" s="4" t="s">
-        <v>2084</v>
+        <v>1955</v>
       </c>
       <c r="AQ13" s="4" t="s">
-        <v>1939</v>
+        <v>1047</v>
       </c>
       <c r="AR13" s="4" t="s">
-        <v>1924</v>
+        <v>1955</v>
       </c>
       <c r="AS13" s="4" t="s">
-        <v>1939</v>
+        <v>1047</v>
       </c>
       <c r="AT13" s="4" t="s">
-        <v>1924</v>
+        <v>1955</v>
       </c>
       <c r="AU13" s="4" t="s">
         <v>2121</v>
@@ -17334,22 +17337,22 @@
         <v>1951</v>
       </c>
       <c r="AO14" s="4" t="s">
-        <v>831</v>
+        <v>1938</v>
       </c>
       <c r="AP14" s="4" t="s">
-        <v>1954</v>
-      </c>
-      <c r="AQ14" s="3" t="s">
-        <v>2002</v>
-      </c>
-      <c r="AR14" s="3" t="s">
-        <v>2003</v>
-      </c>
-      <c r="AS14" s="3" t="s">
-        <v>2002</v>
-      </c>
-      <c r="AT14" s="3" t="s">
-        <v>2003</v>
+        <v>1944</v>
+      </c>
+      <c r="AQ14" s="4" t="s">
+        <v>1938</v>
+      </c>
+      <c r="AR14" s="4" t="s">
+        <v>1944</v>
+      </c>
+      <c r="AS14" s="4" t="s">
+        <v>1938</v>
+      </c>
+      <c r="AT14" s="4" t="s">
+        <v>1944</v>
       </c>
       <c r="AU14" s="4" t="s">
         <v>2122</v>
@@ -17491,22 +17494,22 @@
         <v>1944</v>
       </c>
       <c r="AO15" s="4" t="s">
-        <v>1939</v>
+        <v>166</v>
       </c>
       <c r="AP15" s="4" t="s">
-        <v>1924</v>
+        <v>1437</v>
       </c>
       <c r="AQ15" s="4" t="s">
-        <v>1936</v>
+        <v>166</v>
       </c>
       <c r="AR15" s="4" t="s">
-        <v>2001</v>
+        <v>1437</v>
       </c>
       <c r="AS15" s="4" t="s">
-        <v>1936</v>
+        <v>166</v>
       </c>
       <c r="AT15" s="4" t="s">
-        <v>2001</v>
+        <v>1437</v>
       </c>
       <c r="AU15" s="4" t="s">
         <v>1939</v>
@@ -17624,23 +17627,23 @@
       <c r="AN16" s="4" t="s">
         <v>1945</v>
       </c>
-      <c r="AO16" s="3" t="s">
-        <v>2002</v>
-      </c>
-      <c r="AP16" s="3" t="s">
-        <v>2003</v>
+      <c r="AO16" s="4" t="s">
+        <v>1372</v>
+      </c>
+      <c r="AP16" s="4" t="s">
+        <v>2131</v>
       </c>
       <c r="AQ16" s="4" t="s">
-        <v>1938</v>
+        <v>1372</v>
       </c>
       <c r="AR16" s="4" t="s">
-        <v>1944</v>
+        <v>2131</v>
       </c>
       <c r="AS16" s="4" t="s">
-        <v>1938</v>
+        <v>1372</v>
       </c>
       <c r="AT16" s="4" t="s">
-        <v>1944</v>
+        <v>2131</v>
       </c>
       <c r="AU16" s="4" t="s">
         <v>2002</v>
@@ -17747,22 +17750,22 @@
         <v>1946</v>
       </c>
       <c r="AO17" s="4" t="s">
-        <v>1936</v>
-      </c>
-      <c r="AP17" s="4" t="s">
-        <v>2001</v>
+        <v>566</v>
+      </c>
+      <c r="AP17" s="57" t="s">
+        <v>2085</v>
       </c>
       <c r="AQ17" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AR17" s="4" t="s">
-        <v>2091</v>
+        <v>566</v>
+      </c>
+      <c r="AR17" s="57" t="s">
+        <v>2085</v>
       </c>
       <c r="AS17" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT17" s="4" t="s">
-        <v>2091</v>
+        <v>566</v>
+      </c>
+      <c r="AT17" s="57" t="s">
+        <v>2085</v>
       </c>
       <c r="AU17" s="4" t="s">
         <v>1936</v>
@@ -17858,22 +17861,22 @@
       </c>
       <c r="AM18" s="50"/>
       <c r="AO18" s="4" t="s">
-        <v>1938</v>
+        <v>832</v>
       </c>
       <c r="AP18" s="4" t="s">
-        <v>1944</v>
+        <v>2084</v>
       </c>
       <c r="AQ18" s="4" t="s">
-        <v>2076</v>
+        <v>122</v>
       </c>
       <c r="AR18" s="4" t="s">
-        <v>125</v>
+        <v>2091</v>
       </c>
       <c r="AS18" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AT18" s="4" t="s">
-        <v>127</v>
+        <v>2091</v>
       </c>
       <c r="AU18" s="4" t="s">
         <v>1081</v>
@@ -17962,22 +17965,22 @@
       </c>
       <c r="AM19" s="51"/>
       <c r="AO19" s="4" t="s">
-        <v>122</v>
+        <v>831</v>
       </c>
       <c r="AP19" s="4" t="s">
-        <v>2091</v>
+        <v>1954</v>
       </c>
       <c r="AQ19" s="4" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="AR19" s="4" t="s">
-        <v>1438</v>
+        <v>125</v>
       </c>
       <c r="AS19" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AT19" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AU19" s="4" t="s">
         <v>1941</v>
@@ -18053,22 +18056,22 @@
         <v>1016</v>
       </c>
       <c r="AO20" s="4" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="AP20" s="4" t="s">
-        <v>165</v>
+        <v>2091</v>
       </c>
       <c r="AQ20" s="4" t="s">
-        <v>1</v>
+        <v>2077</v>
       </c>
       <c r="AR20" s="4" t="s">
-        <v>2090</v>
+        <v>1438</v>
       </c>
       <c r="AS20" s="4" t="s">
-        <v>570</v>
+        <v>131</v>
       </c>
       <c r="AT20" s="4" t="s">
-        <v>570</v>
+        <v>131</v>
       </c>
       <c r="AU20" s="4" t="s">
         <v>1942</v>
@@ -18144,22 +18147,22 @@
         <v>1944</v>
       </c>
       <c r="AO21" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="AP21" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="AQ21" s="4" t="s">
-        <v>2081</v>
+        <v>1</v>
       </c>
       <c r="AR21" s="4" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="AS21" s="4" t="s">
-        <v>143</v>
+        <v>570</v>
       </c>
       <c r="AT21" s="4" t="s">
-        <v>143</v>
+        <v>570</v>
       </c>
       <c r="AU21" s="4" t="s">
         <v>1372</v>
@@ -18229,22 +18232,22 @@
         <v>1945</v>
       </c>
       <c r="AO22" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AP22" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AQ22" s="4" t="s">
-        <v>2088</v>
+        <v>2081</v>
       </c>
       <c r="AR22" s="4" t="s">
-        <v>2097</v>
+        <v>2092</v>
       </c>
       <c r="AS22" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AT22" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AU22" s="4" t="s">
         <v>831</v>
@@ -18314,22 +18317,22 @@
         <v>1946</v>
       </c>
       <c r="AO23" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AP23" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AQ23" s="4" t="s">
-        <v>2078</v>
+        <v>2088</v>
       </c>
       <c r="AR23" s="4" t="s">
-        <v>2093</v>
+        <v>2097</v>
       </c>
       <c r="AS23" s="4" t="s">
-        <v>571</v>
+        <v>150</v>
       </c>
       <c r="AT23" s="4" t="s">
-        <v>571</v>
+        <v>150</v>
       </c>
       <c r="AU23" s="4" t="s">
         <v>2195</v>
@@ -18398,22 +18401,22 @@
         <v>1926</v>
       </c>
       <c r="AO24" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AP24" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AQ24" s="4" t="s">
-        <v>1398</v>
+        <v>2078</v>
       </c>
       <c r="AR24" s="4" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="AS24" s="4" t="s">
-        <v>756</v>
+        <v>571</v>
       </c>
       <c r="AT24" s="4" t="s">
-        <v>756</v>
+        <v>571</v>
       </c>
       <c r="AU24" s="4" t="s">
         <v>832</v>
@@ -18470,22 +18473,22 @@
         <v>1946</v>
       </c>
       <c r="AO25" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AP25" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AQ25" s="4" t="s">
-        <v>2080</v>
+        <v>1398</v>
       </c>
       <c r="AR25" s="4" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="AS25" s="4" t="s">
-        <v>1384</v>
+        <v>756</v>
       </c>
       <c r="AT25" s="4" t="s">
-        <v>1384</v>
+        <v>756</v>
       </c>
       <c r="AU25" s="4" t="s">
         <v>1484</v>
@@ -18535,22 +18538,22 @@
       <c r="AI26" s="4"/>
       <c r="AJ26" s="4"/>
       <c r="AO26" s="4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AP26" s="4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AQ26" s="4" t="s">
-        <v>2142</v>
+        <v>2080</v>
       </c>
       <c r="AR26" s="4" t="s">
-        <v>2146</v>
+        <v>2095</v>
       </c>
       <c r="AS26" s="4" t="s">
-        <v>757</v>
+        <v>1384</v>
       </c>
       <c r="AT26" s="4" t="s">
-        <v>757</v>
+        <v>1384</v>
       </c>
       <c r="AU26" s="4" t="s">
         <v>509</v>
@@ -18601,22 +18604,22 @@
       <c r="AI27" s="4"/>
       <c r="AJ27" s="4"/>
       <c r="AO27" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AP27" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AQ27" s="4" t="s">
-        <v>665</v>
+        <v>2142</v>
       </c>
       <c r="AR27" s="4" t="s">
-        <v>2098</v>
+        <v>2146</v>
       </c>
       <c r="AS27" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AT27" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AU27" s="4" t="s">
         <v>120</v>
@@ -18667,22 +18670,22 @@
       <c r="AI28" s="4"/>
       <c r="AJ28" s="4"/>
       <c r="AO28" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AP28" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AQ28" s="4" t="s">
-        <v>2089</v>
+        <v>665</v>
       </c>
       <c r="AR28" s="4" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
       <c r="AS28" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AT28" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AU28" s="4" t="s">
         <v>2123</v>
@@ -18732,22 +18735,22 @@
       <c r="AI29" s="4"/>
       <c r="AJ29" s="4"/>
       <c r="AO29" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AP29" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AQ29" s="4" t="s">
-        <v>666</v>
+        <v>2089</v>
       </c>
       <c r="AR29" s="4" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
       <c r="AS29" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AT29" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AU29" s="4" t="s">
         <v>2113</v>
@@ -18799,22 +18802,22 @@
       <c r="AI30" s="4"/>
       <c r="AJ30" s="4"/>
       <c r="AO30" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AP30" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AQ30" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AR30" s="4" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="AS30" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AT30" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AU30" s="4" t="s">
         <v>2124</v>
@@ -18871,22 +18874,22 @@
       <c r="AI31" s="4"/>
       <c r="AJ31" s="4"/>
       <c r="AO31" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AP31" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AQ31" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AR31" s="4" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="AS31" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AT31" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AU31" s="4" t="s">
         <v>2151</v>
@@ -18945,22 +18948,22 @@
       <c r="AI32" s="4"/>
       <c r="AJ32" s="4"/>
       <c r="AO32" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AP32" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AQ32" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AR32" s="4" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="AS32" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AT32" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AU32" s="4" t="s">
         <v>2150</v>
@@ -19018,22 +19021,22 @@
       <c r="AH33" s="4"/>
       <c r="AJ33" s="4"/>
       <c r="AO33" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AP33" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AQ33" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AR33" s="4" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="AS33" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AT33" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AU33" s="4" t="s">
         <v>2152</v>
@@ -19088,22 +19091,22 @@
       <c r="AM34" s="48"/>
       <c r="AN34" s="48"/>
       <c r="AO34" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AP34" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AQ34" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AR34" s="4" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="AS34" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AT34" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="35" spans="3:48" ht="30" x14ac:dyDescent="0.25">
@@ -19154,22 +19157,22 @@
       <c r="AM35" s="48"/>
       <c r="AN35" s="48"/>
       <c r="AO35" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AP35" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AQ35" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AR35" s="4" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="AS35" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AT35" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="36" spans="3:48" x14ac:dyDescent="0.25">
@@ -19211,22 +19214,22 @@
       <c r="AM36" s="48"/>
       <c r="AN36" s="48"/>
       <c r="AO36" s="4" t="s">
-        <v>124</v>
+        <v>238</v>
       </c>
       <c r="AP36" s="4" t="s">
-        <v>124</v>
+        <v>238</v>
       </c>
       <c r="AQ36" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AR36" s="4" t="s">
-        <v>673</v>
+        <v>2105</v>
       </c>
       <c r="AS36" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AT36" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="37" spans="3:48" x14ac:dyDescent="0.25">
@@ -19268,22 +19271,22 @@
       <c r="AM37" s="48"/>
       <c r="AN37" s="48"/>
       <c r="AO37" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AP37" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AQ37" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AR37" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AS37" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AT37" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="38" spans="3:48" x14ac:dyDescent="0.25">
@@ -19325,22 +19328,22 @@
       <c r="AM38" s="48"/>
       <c r="AN38" s="48"/>
       <c r="AO38" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AP38" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AQ38" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AR38" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AS38" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AT38" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="39" spans="3:48" x14ac:dyDescent="0.25">
@@ -19382,22 +19385,22 @@
       <c r="AM39" s="48"/>
       <c r="AN39" s="48"/>
       <c r="AO39" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AP39" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AQ39" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AR39" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AS39" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AT39" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AU39" s="48"/>
       <c r="AV39" s="48"/>
@@ -19441,22 +19444,22 @@
       <c r="AM40" s="48"/>
       <c r="AN40" s="48"/>
       <c r="AO40" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="AP40" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="AQ40" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AR40" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AS40" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AT40" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AU40" s="48"/>
       <c r="AV40" s="48"/>
@@ -19502,22 +19505,22 @@
       <c r="AM41" s="48"/>
       <c r="AN41" s="48"/>
       <c r="AO41" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AP41" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AQ41" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AR41" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AS41" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AT41" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AU41" s="48"/>
       <c r="AV41" s="48"/>
@@ -19557,22 +19560,22 @@
       <c r="AM42" s="48"/>
       <c r="AN42" s="48"/>
       <c r="AO42" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="AP42" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="AQ42" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AR42" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AS42" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AT42" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AU42" s="48"/>
       <c r="AV42" s="48"/>
@@ -19609,22 +19612,22 @@
       <c r="AM43" s="48"/>
       <c r="AN43" s="48"/>
       <c r="AO43" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AP43" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AQ43" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AR43" s="4" t="s">
-        <v>2106</v>
+        <v>679</v>
       </c>
       <c r="AS43" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AT43" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AU43" s="48"/>
       <c r="AV43" s="48"/>
@@ -19661,22 +19664,22 @@
       <c r="AM44" s="48"/>
       <c r="AN44" s="48"/>
       <c r="AO44" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="AP44" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="AQ44" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AR44" s="4" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="AS44" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AT44" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AU44" s="48"/>
       <c r="AV44" s="48"/>
@@ -19713,18 +19716,22 @@
       <c r="AM45" s="48"/>
       <c r="AN45" s="48"/>
       <c r="AO45" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AP45" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AQ45" s="4"/>
-      <c r="AR45" s="4"/>
+        <v>174</v>
+      </c>
+      <c r="AQ45" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="AR45" s="4" t="s">
+        <v>2107</v>
+      </c>
       <c r="AS45" s="4" t="s">
-        <v>570</v>
+        <v>775</v>
       </c>
       <c r="AT45" s="4" t="s">
-        <v>570</v>
+        <v>775</v>
       </c>
       <c r="AU45" s="48"/>
       <c r="AV45" s="48"/>
@@ -19761,18 +19768,18 @@
       <c r="AM46" s="48"/>
       <c r="AN46" s="48"/>
       <c r="AO46" s="4" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="AP46" s="4" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="AQ46" s="4"/>
       <c r="AR46" s="4"/>
       <c r="AS46" s="4" t="s">
-        <v>776</v>
+        <v>570</v>
       </c>
       <c r="AT46" s="4" t="s">
-        <v>776</v>
+        <v>570</v>
       </c>
       <c r="AU46" s="48"/>
       <c r="AV46" s="48"/>
@@ -19809,18 +19816,18 @@
       <c r="AM47" s="48"/>
       <c r="AN47" s="48"/>
       <c r="AO47" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AP47" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AQ47" s="4"/>
       <c r="AR47" s="4"/>
       <c r="AS47" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AT47" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AU47" s="48"/>
       <c r="AV47" s="48"/>
@@ -19857,18 +19864,18 @@
       <c r="AM48" s="48"/>
       <c r="AN48" s="48"/>
       <c r="AO48" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AP48" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AQ48" s="4"/>
       <c r="AR48" s="4"/>
       <c r="AS48" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AT48" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AU48" s="48"/>
       <c r="AV48" s="48"/>
@@ -19900,18 +19907,18 @@
       <c r="AK49" s="48"/>
       <c r="AL49" s="48"/>
       <c r="AO49" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AP49" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AQ49" s="4"/>
       <c r="AR49" s="4"/>
       <c r="AS49" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AT49" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AU49" s="48"/>
       <c r="AV49" s="48"/>
@@ -19941,18 +19948,18 @@
       <c r="AI50" s="4"/>
       <c r="AJ50" s="48"/>
       <c r="AO50" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AP50" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AQ50" s="4"/>
       <c r="AR50" s="4"/>
       <c r="AS50" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AT50" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AU50" s="48"/>
       <c r="AV50" s="48"/>
@@ -19980,18 +19987,18 @@
       <c r="AI51" s="4"/>
       <c r="AJ51" s="48"/>
       <c r="AO51" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AP51" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AQ51" s="4"/>
       <c r="AR51" s="4"/>
       <c r="AS51" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AT51" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AU51" s="48"/>
       <c r="AV51" s="48"/>
@@ -20011,18 +20018,18 @@
       <c r="AH52" s="4"/>
       <c r="AI52" s="4"/>
       <c r="AO52" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AP52" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AQ52" s="4"/>
       <c r="AR52" s="4"/>
       <c r="AS52" s="4" t="s">
-        <v>254</v>
+        <v>781</v>
       </c>
       <c r="AT52" s="4" t="s">
-        <v>254</v>
+        <v>781</v>
       </c>
       <c r="AU52" s="48"/>
       <c r="AV52" s="48"/>
@@ -20040,18 +20047,18 @@
       <c r="AH53" s="4"/>
       <c r="AI53" s="4"/>
       <c r="AO53" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AP53" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ53" s="4"/>
       <c r="AR53" s="4"/>
       <c r="AS53" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AT53" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AU53" s="48"/>
       <c r="AV53" s="48"/>
@@ -20069,17 +20076,18 @@
       <c r="AH54" s="4"/>
       <c r="AI54" s="4"/>
       <c r="AO54" s="4" t="s">
-        <v>1</v>
+        <v>275</v>
       </c>
       <c r="AP54" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ54" s="48"/>
+        <v>275</v>
+      </c>
+      <c r="AQ54" s="4"/>
+      <c r="AR54" s="4"/>
       <c r="AS54" s="4" t="s">
-        <v>782</v>
+        <v>255</v>
       </c>
       <c r="AT54" s="4" t="s">
-        <v>782</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="7:48" x14ac:dyDescent="0.25">
@@ -20095,17 +20103,17 @@
       <c r="AH55" s="4"/>
       <c r="AI55" s="4"/>
       <c r="AO55" s="4" t="s">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="AP55" s="4" t="s">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="AQ55" s="48"/>
       <c r="AS55" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AT55" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="56" spans="7:48" x14ac:dyDescent="0.25">
@@ -20121,16 +20129,17 @@
       <c r="AH56" s="4"/>
       <c r="AI56" s="4"/>
       <c r="AO56" s="4" t="s">
-        <v>788</v>
+        <v>166</v>
       </c>
       <c r="AP56" s="4" t="s">
-        <v>788</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="AQ56" s="48"/>
       <c r="AS56" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AT56" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="57" spans="7:48" x14ac:dyDescent="0.25">
@@ -20144,16 +20153,16 @@
       <c r="AH57" s="4"/>
       <c r="AI57" s="4"/>
       <c r="AO57" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AP57" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AS57" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AT57" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="58" spans="7:48" x14ac:dyDescent="0.25">
@@ -20167,16 +20176,16 @@
       <c r="AH58" s="4"/>
       <c r="AI58" s="4"/>
       <c r="AO58" s="4" t="s">
-        <v>201</v>
+        <v>789</v>
       </c>
       <c r="AP58" s="4" t="s">
-        <v>201</v>
+        <v>789</v>
       </c>
       <c r="AS58" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AT58" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="59" spans="7:48" x14ac:dyDescent="0.25">
@@ -20190,16 +20199,16 @@
       <c r="AH59" s="4"/>
       <c r="AI59" s="4"/>
       <c r="AO59" s="4" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="AP59" s="4" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="AS59" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AT59" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="60" spans="7:48" x14ac:dyDescent="0.25">
@@ -20213,16 +20222,16 @@
       <c r="AH60" s="4"/>
       <c r="AI60" s="4"/>
       <c r="AO60" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AP60" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AS60" s="4" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="AT60" s="4" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="61" spans="7:48" x14ac:dyDescent="0.25">
@@ -20236,16 +20245,16 @@
       <c r="AH61" s="4"/>
       <c r="AI61" s="4"/>
       <c r="AO61" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AP61" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AS61" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AT61" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="62" spans="7:48" x14ac:dyDescent="0.25">
@@ -20259,16 +20268,16 @@
       <c r="AH62" s="4"/>
       <c r="AI62" s="4"/>
       <c r="AO62" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AP62" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AS62" s="4" t="s">
-        <v>131</v>
+        <v>791</v>
       </c>
       <c r="AT62" s="4" t="s">
-        <v>131</v>
+        <v>791</v>
       </c>
     </row>
     <row r="63" spans="7:48" x14ac:dyDescent="0.25">
@@ -20282,16 +20291,16 @@
       <c r="AH63" s="4"/>
       <c r="AI63" s="4"/>
       <c r="AO63" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AP63" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AS63" s="4" t="s">
-        <v>792</v>
+        <v>131</v>
       </c>
       <c r="AT63" s="4" t="s">
-        <v>792</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="7:48" x14ac:dyDescent="0.25">
@@ -20305,16 +20314,16 @@
       <c r="AH64" s="4"/>
       <c r="AI64" s="4"/>
       <c r="AO64" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AP64" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AS64" s="4" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="AT64" s="4" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="65" spans="15:46" x14ac:dyDescent="0.25">
@@ -20328,16 +20337,16 @@
       <c r="AH65" s="4"/>
       <c r="AI65" s="4"/>
       <c r="AO65" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AP65" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AS65" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AT65" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="66" spans="15:46" x14ac:dyDescent="0.25">
@@ -20351,16 +20360,16 @@
       <c r="AH66" s="4"/>
       <c r="AI66" s="4"/>
       <c r="AO66" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AP66" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AS66" s="4" t="s">
-        <v>1</v>
+        <v>789</v>
       </c>
       <c r="AT66" s="4" t="s">
-        <v>1</v>
+        <v>789</v>
       </c>
     </row>
     <row r="67" spans="15:46" x14ac:dyDescent="0.25">
@@ -20374,16 +20383,16 @@
       <c r="AH67" s="4"/>
       <c r="AI67" s="4"/>
       <c r="AO67" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP67" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS67" s="4" t="s">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="AT67" s="4" t="s">
-        <v>166</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="15:46" x14ac:dyDescent="0.25">
@@ -20397,16 +20406,16 @@
       <c r="AH68" s="4"/>
       <c r="AI68" s="4"/>
       <c r="AO68" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AP68" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AS68" s="4" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="AT68" s="4" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="15:46" x14ac:dyDescent="0.25">
@@ -20420,16 +20429,16 @@
       <c r="AH69" s="4"/>
       <c r="AI69" s="4"/>
       <c r="AO69" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AP69" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AS69" s="4" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="AT69" s="4" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="15:46" x14ac:dyDescent="0.25">
@@ -20443,10 +20452,16 @@
       <c r="AH70" s="4"/>
       <c r="AI70" s="4"/>
       <c r="AO70" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AP70" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
+      </c>
+      <c r="AS70" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="AT70" s="4" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="71" spans="15:46" x14ac:dyDescent="0.25">
@@ -20460,10 +20475,10 @@
       <c r="AH71" s="4"/>
       <c r="AI71" s="4"/>
       <c r="AO71" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AP71" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="72" spans="15:46" x14ac:dyDescent="0.25">
@@ -20477,10 +20492,10 @@
       <c r="AH72" s="4"/>
       <c r="AI72" s="4"/>
       <c r="AO72" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AP72" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="73" spans="15:46" x14ac:dyDescent="0.25">
@@ -20494,10 +20509,10 @@
       <c r="AH73" s="4"/>
       <c r="AI73" s="4"/>
       <c r="AO73" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AP73" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="74" spans="15:46" x14ac:dyDescent="0.25">
@@ -20511,10 +20526,10 @@
       <c r="AH74" s="4"/>
       <c r="AI74" s="4"/>
       <c r="AO74" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AP74" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="75" spans="15:46" x14ac:dyDescent="0.25">
@@ -20528,10 +20543,10 @@
       <c r="AH75" s="4"/>
       <c r="AI75" s="4"/>
       <c r="AO75" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AP75" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="76" spans="15:46" x14ac:dyDescent="0.25">
@@ -20545,10 +20560,10 @@
       <c r="AH76" s="4"/>
       <c r="AI76" s="4"/>
       <c r="AO76" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AP76" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="15:46" x14ac:dyDescent="0.25">
@@ -20562,10 +20577,10 @@
       <c r="AH77" s="4"/>
       <c r="AI77" s="4"/>
       <c r="AO77" s="4" t="s">
-        <v>186</v>
+        <v>293</v>
       </c>
       <c r="AP77" s="4" t="s">
-        <v>186</v>
+        <v>293</v>
       </c>
     </row>
     <row r="78" spans="15:46" x14ac:dyDescent="0.25">
@@ -20579,10 +20594,10 @@
       <c r="AH78" s="4"/>
       <c r="AI78" s="4"/>
       <c r="AO78" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AP78" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="15:46" x14ac:dyDescent="0.25">
@@ -20596,10 +20611,10 @@
       <c r="AH79" s="4"/>
       <c r="AI79" s="4"/>
       <c r="AO79" s="4" t="s">
-        <v>584</v>
+        <v>192</v>
       </c>
       <c r="AP79" s="4" t="s">
-        <v>584</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="15:46" x14ac:dyDescent="0.25">
@@ -20613,10 +20628,10 @@
       <c r="AH80" s="4"/>
       <c r="AI80" s="4"/>
       <c r="AO80" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AP80" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="81" spans="15:42" x14ac:dyDescent="0.25">
@@ -20630,10 +20645,10 @@
       <c r="AH81" s="4"/>
       <c r="AI81" s="4"/>
       <c r="AO81" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AP81" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="82" spans="15:42" x14ac:dyDescent="0.25">
@@ -20647,10 +20662,10 @@
       <c r="AH82" s="4"/>
       <c r="AI82" s="4"/>
       <c r="AO82" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AP82" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="83" spans="15:42" x14ac:dyDescent="0.25">
@@ -20664,10 +20679,10 @@
       <c r="AH83" s="4"/>
       <c r="AI83" s="4"/>
       <c r="AO83" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AP83" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="84" spans="15:42" x14ac:dyDescent="0.25">
@@ -20681,10 +20696,10 @@
       <c r="AH84" s="4"/>
       <c r="AI84" s="4"/>
       <c r="AO84" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AP84" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="85" spans="15:42" x14ac:dyDescent="0.25">
@@ -20698,10 +20713,10 @@
       <c r="AH85" s="4"/>
       <c r="AI85" s="4"/>
       <c r="AO85" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AP85" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="86" spans="15:42" x14ac:dyDescent="0.25">
@@ -20715,10 +20730,10 @@
       <c r="AH86" s="4"/>
       <c r="AI86" s="4"/>
       <c r="AO86" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AP86" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="87" spans="15:42" x14ac:dyDescent="0.25">
@@ -20732,10 +20747,10 @@
       <c r="AH87" s="4"/>
       <c r="AI87" s="4"/>
       <c r="AO87" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AP87" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="88" spans="15:42" x14ac:dyDescent="0.25">
@@ -20749,10 +20764,10 @@
       <c r="AH88" s="4"/>
       <c r="AI88" s="4"/>
       <c r="AO88" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AP88" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="89" spans="15:42" x14ac:dyDescent="0.25">
@@ -20766,10 +20781,10 @@
       <c r="AH89" s="4"/>
       <c r="AI89" s="4"/>
       <c r="AO89" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AP89" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="90" spans="15:42" x14ac:dyDescent="0.25">
@@ -20783,10 +20798,10 @@
       <c r="AH90" s="4"/>
       <c r="AI90" s="4"/>
       <c r="AO90" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AP90" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="91" spans="15:42" x14ac:dyDescent="0.25">
@@ -20800,10 +20815,10 @@
       <c r="AH91" s="4"/>
       <c r="AI91" s="4"/>
       <c r="AO91" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AP91" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="92" spans="15:42" x14ac:dyDescent="0.25">
@@ -20817,10 +20832,10 @@
       <c r="AH92" s="4"/>
       <c r="AI92" s="4"/>
       <c r="AO92" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AP92" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="93" spans="15:42" x14ac:dyDescent="0.25">
@@ -20834,10 +20849,10 @@
       <c r="AH93" s="4"/>
       <c r="AI93" s="4"/>
       <c r="AO93" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AP93" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="94" spans="15:42" x14ac:dyDescent="0.25">
@@ -20851,10 +20866,10 @@
       <c r="AH94" s="4"/>
       <c r="AI94" s="4"/>
       <c r="AO94" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AP94" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="95" spans="15:42" x14ac:dyDescent="0.25">
@@ -20868,10 +20883,10 @@
       <c r="AH95" s="4"/>
       <c r="AI95" s="4"/>
       <c r="AO95" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AP95" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="96" spans="15:42" x14ac:dyDescent="0.25">
@@ -20885,10 +20900,10 @@
       <c r="AH96" s="4"/>
       <c r="AI96" s="4"/>
       <c r="AO96" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AP96" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="97" spans="15:42" x14ac:dyDescent="0.25">
@@ -20902,10 +20917,10 @@
       <c r="AH97" s="4"/>
       <c r="AI97" s="4"/>
       <c r="AO97" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AP97" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="98" spans="15:42" x14ac:dyDescent="0.25">
@@ -20919,10 +20934,10 @@
       <c r="AH98" s="4"/>
       <c r="AI98" s="4"/>
       <c r="AO98" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AP98" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="99" spans="15:42" x14ac:dyDescent="0.25">
@@ -20936,10 +20951,10 @@
       <c r="AH99" s="4"/>
       <c r="AI99" s="4"/>
       <c r="AO99" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AP99" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="100" spans="15:42" x14ac:dyDescent="0.25">
@@ -20953,10 +20968,10 @@
       <c r="AH100" s="4"/>
       <c r="AI100" s="4"/>
       <c r="AO100" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AP100" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="101" spans="15:42" x14ac:dyDescent="0.25">
@@ -20967,10 +20982,10 @@
         <v>1430</v>
       </c>
       <c r="AO101" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AP101" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="102" spans="15:42" x14ac:dyDescent="0.25">
@@ -20981,10 +20996,10 @@
         <v>1431</v>
       </c>
       <c r="AO102" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AP102" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="103" spans="15:42" x14ac:dyDescent="0.25">
@@ -20992,577 +21007,585 @@
         <v>2019</v>
       </c>
       <c r="AO103" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AP103" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="104" spans="15:42" x14ac:dyDescent="0.25">
       <c r="AO104" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AP104" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="105" spans="15:42" x14ac:dyDescent="0.25">
       <c r="AO105" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AP105" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="106" spans="15:42" x14ac:dyDescent="0.25">
       <c r="AO106" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AP106" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="107" spans="15:42" x14ac:dyDescent="0.25">
       <c r="AO107" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AP107" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="108" spans="15:42" x14ac:dyDescent="0.25">
       <c r="AO108" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AP108" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="109" spans="15:42" x14ac:dyDescent="0.25">
       <c r="AO109" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AP109" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="110" spans="15:42" x14ac:dyDescent="0.25">
       <c r="AO110" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AP110" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="111" spans="15:42" x14ac:dyDescent="0.25">
       <c r="AO111" s="4" t="s">
-        <v>683</v>
+        <v>615</v>
       </c>
       <c r="AP111" s="4" t="s">
-        <v>683</v>
+        <v>615</v>
       </c>
     </row>
     <row r="112" spans="15:42" x14ac:dyDescent="0.25">
       <c r="AO112" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AP112" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="113" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO113" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AP113" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="114" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO114" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AP114" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="115" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO115" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AP115" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="116" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO116" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AP116" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="117" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO117" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AP117" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="118" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO118" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AP118" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="119" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO119" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AP119" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="120" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO120" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AP120" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="121" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO121" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AP121" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="122" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO122" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AP122" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="123" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO123" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AP123" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="124" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO124" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AP124" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="125" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO125" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AP125" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="126" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO126" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AP126" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="127" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO127" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AP127" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="128" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO128" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AP128" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="129" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO129" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AP129" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="130" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO130" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AP130" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="131" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO131" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AP131" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="132" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO132" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AP132" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="133" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO133" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AP133" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="134" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO134" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AP134" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="135" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO135" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AP135" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="136" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO136" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AP136" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="137" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO137" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AP137" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="138" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO138" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AP138" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="139" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO139" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AP139" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="140" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO140" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AP140" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="141" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO141" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AP141" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="142" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO142" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AP142" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="143" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO143" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AP143" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="144" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO144" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AP144" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="145" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO145" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AP145" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="146" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO146" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AP146" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="147" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO147" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AP147" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="148" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO148" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AP148" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="149" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO149" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AP149" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="150" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO150" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AP150" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="151" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO151" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AP151" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="152" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO152" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AP152" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="153" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO153" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AP153" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="154" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO154" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AP154" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="155" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO155" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AP155" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="156" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO156" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AP156" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="157" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO157" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AP157" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="158" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO158" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AP158" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="159" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO159" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AP159" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="160" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO160" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AP160" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="161" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO161" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AP161" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="162" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO162" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AP162" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="163" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO163" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AP163" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="164" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO164" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AP164" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="165" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO165" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AP165" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="166" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO166" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AP166" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="167" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO167" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AP167" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="168" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO168" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AP168" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="169" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO169" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AP169" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="170" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO170" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AP170" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="171" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO171" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AP171" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="172" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO172" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AP172" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="173" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO173" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AP173" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="174" spans="41:42" x14ac:dyDescent="0.25">
       <c r="AO174" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="AP174" s="4" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="175" spans="41:42" x14ac:dyDescent="0.25">
+      <c r="AO175" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="AP174" s="4" t="s">
+      <c r="AP175" s="4" t="s">
         <v>746</v>
       </c>
     </row>
@@ -24780,10 +24803,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24792,7 +24815,7 @@
     <col min="2" max="2" width="10.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="28.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="39.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="37" style="4" customWidth="1"/>
+    <col min="5" max="5" width="69.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="74.5703125" style="4" customWidth="1"/>
     <col min="7" max="7" width="37.28515625" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
@@ -24800,7 +24823,7 @@
     <col min="10" max="10" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>363</v>
       </c>
@@ -24832,7 +24855,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>94</v>
       </c>
@@ -24852,7 +24875,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>96</v>
       </c>
@@ -24866,7 +24889,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>97</v>
       </c>
@@ -24891,7 +24914,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>107</v>
       </c>
@@ -24908,7 +24931,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>95</v>
       </c>
@@ -24923,7 +24946,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="G7" s="7" t="s">
         <v>2031</v>
@@ -24936,7 +24959,7 @@
       </c>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>98</v>
       </c>
@@ -24951,7 +24974,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>101</v>
       </c>
@@ -24963,7 +24986,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>102</v>
       </c>
@@ -24975,7 +24998,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>103</v>
       </c>
@@ -24987,7 +25010,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>104</v>
       </c>
@@ -24999,7 +25022,7 @@
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="13" t="s">
-        <v>2068</v>
+        <v>2294</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>340</v>
@@ -25016,8 +25039,11 @@
       <c r="K12" s="49" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="13" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -25031,7 +25057,7 @@
       <c r="I13" s="5"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -25045,7 +25071,7 @@
       <c r="I14" s="5"/>
       <c r="K14" s="49"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>105</v>
       </c>
@@ -25072,7 +25098,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>106</v>
       </c>
@@ -25474,8 +25500,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" firstSheet="8" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="switch_models" sheetId="1" r:id="rId1"/>
@@ -7629,8 +7629,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8889,10 +8889,10 @@
         <v>1124</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>4</v>
+        <v>2137</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -14768,8 +14768,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:BL175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS13" sqref="AS13:AT13"/>
+    <sheetView topLeftCell="AQ4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AT26" sqref="AT26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" firstSheet="8" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="switch_models" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5753" uniqueCount="2295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5769" uniqueCount="2313">
   <si>
     <t>switchType</t>
   </si>
@@ -6692,15 +6692,6 @@
     <t>Всего "доступных" членов в зоне</t>
   </si>
   <si>
-    <t>Фактическое число Wwn</t>
-  </si>
-  <si>
-    <t>Идентификатор Wwnn</t>
-  </si>
-  <si>
-    <t>Идентификатор Wwnp</t>
-  </si>
-  <si>
     <t>Статистика_зон_eng</t>
   </si>
   <si>
@@ -6929,13 +6920,76 @@
     <t>Порт коммутатора</t>
   </si>
   <si>
-    <t>Определённое  в зоне число Wwn</t>
-  </si>
-  <si>
     <t>v8.2.2c</t>
   </si>
   <si>
     <t>^(snmp.(?:snmpv3TrapTarget|agtParty).\d.(?:trapTargetAddr|address)):((?:[0-9]{1,3}\.){3}[0-9]{1,3})$</t>
+  </si>
+  <si>
+    <t>доступно (локальные)</t>
+  </si>
+  <si>
+    <t>доступно (импортировано)</t>
+  </si>
+  <si>
+    <t>alias_number_per_zone</t>
+  </si>
+  <si>
+    <t>Фактическое число Wwnp в зоне</t>
+  </si>
+  <si>
+    <t>Количество псевдонимов в зоне</t>
+  </si>
+  <si>
+    <t>Идентификаторы Wwnn в определении зоны</t>
+  </si>
+  <si>
+    <t>Идентификаторы Wwnp в определении зоны</t>
+  </si>
+  <si>
+    <t>Всего Wwnn(Wwnp) сконфигурировано в зоне</t>
+  </si>
+  <si>
+    <t>zonemember_alias</t>
+  </si>
+  <si>
+    <t>zonemember_wwn</t>
+  </si>
+  <si>
+    <t>zonemember_domain_portindex</t>
+  </si>
+  <si>
+    <t>Wwnn_to_Wwnp_number_unpacked</t>
+  </si>
+  <si>
+    <t>Члены зоны определены через псевдоним</t>
+  </si>
+  <si>
+    <t>Члены зоны определены через wwn</t>
+  </si>
+  <si>
+    <t>Члены зоны определены через DI</t>
+  </si>
+  <si>
+    <t>Wwnn "распакован" в Wwnp</t>
+  </si>
+  <si>
+    <t>peer</t>
+  </si>
+  <si>
+    <t>principal</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>Членов peer в peer зоне</t>
+  </si>
+  <si>
+    <t>Членов principal в peer зоне</t>
+  </si>
+  <si>
+    <t>Членов property в peer зоне</t>
   </si>
 </sst>
 </file>
@@ -7629,8 +7683,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9149,7 +9203,7 @@
         <v>1120</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>1097</v>
@@ -9201,7 +9255,7 @@
         <v>1119</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>4</v>
@@ -9227,7 +9281,7 @@
         <v>1118</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>1097</v>
@@ -9253,7 +9307,7 @@
         <v>1118</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>1097</v>
@@ -9279,7 +9333,7 @@
         <v>1129</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>1097</v>
@@ -9305,7 +9359,7 @@
         <v>1130</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>1097</v>
@@ -9383,7 +9437,7 @@
         <v>82</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>1097</v>
@@ -9409,7 +9463,7 @@
         <v>84</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>1097</v>
@@ -9435,7 +9489,7 @@
         <v>1117</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>1097</v>
@@ -9487,7 +9541,7 @@
         <v>89</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>1097</v>
@@ -9513,7 +9567,7 @@
         <v>1977</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>1097</v>
@@ -9521,13 +9575,13 @@
     </row>
     <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>4</v>
@@ -9536,7 +9590,7 @@
         <v>16</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>2264</v>
+        <v>2261</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>1096</v>
@@ -9565,7 +9619,7 @@
         <v>1162</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>1097</v>
@@ -9591,7 +9645,7 @@
         <v>1121</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>1097</v>
@@ -9617,7 +9671,7 @@
         <v>1122</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>1097</v>
@@ -9643,7 +9697,7 @@
         <v>1163</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>1097</v>
@@ -9669,7 +9723,7 @@
         <v>1164</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>1097</v>
@@ -12031,16 +12085,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>533</v>
@@ -12133,38 +12187,38 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
       <c r="B13" s="34">
         <v>1</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34" t="s">
-        <v>2230</v>
+        <v>2227</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>2225</v>
+        <v>2222</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
       <c r="F14" s="34" t="s">
-        <v>2226</v>
+        <v>2223</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>144</v>
@@ -12172,32 +12226,32 @@
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
       <c r="F15" s="34" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
       <c r="F16" s="34" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12210,7 +12264,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="4" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -12781,7 +12835,7 @@
         <v>522</v>
       </c>
       <c r="K1" s="68" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>894</v>
@@ -13475,8 +13529,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13544,13 +13598,13 @@
         <v>1054</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>2285</v>
+        <v>2282</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>522</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>2286</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -13806,7 +13860,7 @@
         <v>1062</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>1063</v>
@@ -13875,13 +13929,13 @@
         <v>1057</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>2289</v>
+        <v>2286</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -13955,65 +14009,65 @@
         <v>8</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>2265</v>
+        <v>2262</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
-        <v>2271</v>
+        <v>2268</v>
       </c>
       <c r="B24" s="39">
         <v>9</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>2270</v>
+        <v>2267</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="39" t="s">
-        <v>2288</v>
+        <v>2285</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
-        <v>2272</v>
+        <v>2269</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>2269</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="63" t="s">
-        <v>2276</v>
+        <v>2273</v>
       </c>
       <c r="B26" s="63">
         <v>10</v>
       </c>
       <c r="C26" s="63" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
       <c r="D26" s="63"/>
       <c r="E26" s="63" t="s">
-        <v>2273</v>
+        <v>2270</v>
       </c>
       <c r="F26" s="63" t="s">
-        <v>2274</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F27" s="63" t="s">
-        <v>2275</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -14021,26 +14075,26 @@
         <v>11</v>
       </c>
       <c r="C29" s="14" t="s">
+        <v>2275</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>2277</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>2274</v>
+      </c>
+      <c r="F29" s="14" t="s">
         <v>2278</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>2280</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>2277</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>2281</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F30" s="14" t="s">
-        <v>2274</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F31" s="14" t="s">
-        <v>2282</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -14050,12 +14104,12 @@
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" s="14" t="s">
-        <v>2283</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34" s="14" t="s">
-        <v>2284</v>
+        <v>2281</v>
       </c>
     </row>
   </sheetData>
@@ -14068,8 +14122,8 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14768,8 +14822,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:BL175"/>
   <sheetViews>
-    <sheetView topLeftCell="AQ4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AT26" sqref="AT26"/>
+    <sheetView tabSelected="1" topLeftCell="BD1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BI11" sqref="BI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14826,8 +14880,8 @@
     <col min="53" max="54" width="34.5703125" customWidth="1"/>
     <col min="55" max="55" width="34.5703125" style="4" customWidth="1"/>
     <col min="56" max="58" width="39.7109375" style="4" customWidth="1"/>
-    <col min="59" max="59" width="32" customWidth="1"/>
-    <col min="60" max="60" width="27.140625" customWidth="1"/>
+    <col min="59" max="59" width="39" customWidth="1"/>
+    <col min="60" max="60" width="44.85546875" customWidth="1"/>
     <col min="61" max="61" width="35.140625" customWidth="1"/>
     <col min="62" max="62" width="23" customWidth="1"/>
     <col min="63" max="64" width="31.28515625" customWidth="1"/>
@@ -14992,34 +15046,34 @@
         <v>2202</v>
       </c>
       <c r="BC1" s="12" t="s">
+        <v>2253</v>
+      </c>
+      <c r="BD1" s="12" t="s">
+        <v>2254</v>
+      </c>
+      <c r="BE1" s="24" t="s">
+        <v>2255</v>
+      </c>
+      <c r="BF1" s="24" t="s">
         <v>2256</v>
       </c>
-      <c r="BD1" s="12" t="s">
-        <v>2257</v>
-      </c>
-      <c r="BE1" s="24" t="s">
-        <v>2258</v>
-      </c>
-      <c r="BF1" s="24" t="s">
-        <v>2259</v>
-      </c>
       <c r="BG1" s="34" t="s">
-        <v>2216</v>
+        <v>2213</v>
       </c>
       <c r="BH1" s="34" t="s">
-        <v>2217</v>
+        <v>2214</v>
       </c>
       <c r="BI1" s="9" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
       <c r="BJ1" s="9" t="s">
-        <v>2232</v>
+        <v>2229</v>
       </c>
       <c r="BK1" s="59" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
       <c r="BL1" s="59" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.25">
@@ -15213,7 +15267,7 @@
         <v>649</v>
       </c>
       <c r="BL2" s="4" t="s">
-        <v>2242</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.25">
@@ -15404,10 +15458,10 @@
         <v>1322</v>
       </c>
       <c r="BK3" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="BL3" s="4" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.25">
@@ -15598,10 +15652,10 @@
         <v>1323</v>
       </c>
       <c r="BK4" s="4" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
       <c r="BL4" s="4" t="s">
-        <v>2241</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.25">
@@ -15792,10 +15846,10 @@
         <v>1324</v>
       </c>
       <c r="BK5" s="4" t="s">
+        <v>2242</v>
+      </c>
+      <c r="BL5" t="s">
         <v>2245</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>2248</v>
       </c>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.25">
@@ -15980,16 +16034,16 @@
         <v>2127</v>
       </c>
       <c r="BI6" s="4" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
       <c r="BJ6" s="4" t="s">
-        <v>2233</v>
+        <v>2230</v>
       </c>
       <c r="BK6" s="4" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
       <c r="BL6" s="66" t="s">
-        <v>2247</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.25">
@@ -16177,13 +16231,13 @@
         <v>144</v>
       </c>
       <c r="BJ7" s="4" t="s">
-        <v>2234</v>
+        <v>2231</v>
       </c>
       <c r="BK7" t="s">
-        <v>2249</v>
+        <v>2246</v>
       </c>
       <c r="BL7" t="s">
-        <v>2250</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.25">
@@ -16365,19 +16419,19 @@
         <v>2166</v>
       </c>
       <c r="BH8" s="4" t="s">
-        <v>2181</v>
+        <v>2291</v>
       </c>
       <c r="BI8" s="4" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
       <c r="BJ8" s="4" t="s">
-        <v>2235</v>
+        <v>2232</v>
       </c>
       <c r="BK8" s="4" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
       <c r="BL8" t="s">
-        <v>2252</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.25">
@@ -16546,10 +16600,10 @@
         <v>2177</v>
       </c>
       <c r="BI9" s="4" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
       <c r="BJ9" s="4" t="s">
-        <v>2237</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="10" spans="1:64" ht="30" x14ac:dyDescent="0.25">
@@ -16687,10 +16741,10 @@
         <v>1924</v>
       </c>
       <c r="AU10" s="4" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
       <c r="AV10" s="4" t="s">
-        <v>2290</v>
+        <v>2287</v>
       </c>
       <c r="AW10" s="4" t="s">
         <v>2121</v>
@@ -16720,13 +16774,13 @@
         <v>2169</v>
       </c>
       <c r="BH10" s="4" t="s">
-        <v>2178</v>
+        <v>2292</v>
       </c>
       <c r="BI10" s="4" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
       <c r="BJ10" s="4" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.25">
@@ -17540,7 +17594,7 @@
         <v>2207</v>
       </c>
       <c r="BH15" s="4" t="s">
-        <v>2214</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="16" spans="1:64" x14ac:dyDescent="0.25">
@@ -17674,7 +17728,7 @@
         <v>2208</v>
       </c>
       <c r="BH16" s="4" t="s">
-        <v>2215</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.25">
@@ -17786,11 +17840,11 @@
       <c r="BB17" s="4" t="s">
         <v>1946</v>
       </c>
-      <c r="BG17" s="4" t="s">
-        <v>2209</v>
-      </c>
-      <c r="BH17" s="4" t="s">
-        <v>2292</v>
+      <c r="BG17" s="14" t="s">
+        <v>2293</v>
+      </c>
+      <c r="BH17" s="14" t="s">
+        <v>2295</v>
       </c>
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.25">
@@ -17891,11 +17945,11 @@
         <v>2131</v>
       </c>
       <c r="AY18" s="4"/>
-      <c r="BG18" s="4" t="s">
-        <v>2210</v>
-      </c>
-      <c r="BH18" t="s">
-        <v>2213</v>
+      <c r="BG18" s="14" t="s">
+        <v>2209</v>
+      </c>
+      <c r="BH18" s="14" t="s">
+        <v>2298</v>
       </c>
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.25">
@@ -17995,11 +18049,11 @@
         <v>1954</v>
       </c>
       <c r="AY19" s="4"/>
-      <c r="BG19" s="4" t="s">
-        <v>2150</v>
-      </c>
-      <c r="BH19" s="4" t="s">
-        <v>2183</v>
+      <c r="BG19" s="14" t="s">
+        <v>2210</v>
+      </c>
+      <c r="BH19" s="14" t="s">
+        <v>2294</v>
       </c>
     </row>
     <row r="20" spans="1:60" x14ac:dyDescent="0.25">
@@ -18087,10 +18141,10 @@
       </c>
       <c r="AY20" s="4"/>
       <c r="BG20" s="4" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="BH20" s="4" t="s">
-        <v>2154</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="21" spans="1:60" x14ac:dyDescent="0.25">
@@ -18177,6 +18231,12 @@
         <v>2132</v>
       </c>
       <c r="AY21" s="4"/>
+      <c r="BG21" s="4" t="s">
+        <v>2152</v>
+      </c>
+      <c r="BH21" s="4" t="s">
+        <v>2154</v>
+      </c>
     </row>
     <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
@@ -18262,6 +18322,12 @@
         <v>1956</v>
       </c>
       <c r="AY22" s="4"/>
+      <c r="BG22" s="4" t="s">
+        <v>2299</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>2303</v>
+      </c>
     </row>
     <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
@@ -18347,6 +18413,12 @@
         <v>1323</v>
       </c>
       <c r="AY23" s="4"/>
+      <c r="BG23" s="4" t="s">
+        <v>2300</v>
+      </c>
+      <c r="BH23" s="4" t="s">
+        <v>2304</v>
+      </c>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="F24" s="3"/>
@@ -18430,6 +18502,12 @@
       <c r="AX24" t="s">
         <v>1324</v>
       </c>
+      <c r="BG24" s="4" t="s">
+        <v>2301</v>
+      </c>
+      <c r="BH24" s="4" t="s">
+        <v>2305</v>
+      </c>
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.25">
       <c r="F25" s="3"/>
@@ -18500,7 +18578,13 @@
         <v>2123</v>
       </c>
       <c r="AX25" s="4" t="s">
-        <v>2291</v>
+        <v>2288</v>
+      </c>
+      <c r="BG25" s="4" t="s">
+        <v>2302</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>2306</v>
       </c>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.25">
@@ -18567,6 +18651,12 @@
       <c r="AX26" t="s">
         <v>2133</v>
       </c>
+      <c r="BG26" s="4" t="s">
+        <v>2307</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>2310</v>
+      </c>
     </row>
     <row r="27" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -18633,6 +18723,12 @@
       <c r="AX27" t="s">
         <v>2134</v>
       </c>
+      <c r="BG27" s="4" t="s">
+        <v>2308</v>
+      </c>
+      <c r="BH27" s="4" t="s">
+        <v>2311</v>
+      </c>
     </row>
     <row r="28" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
@@ -18691,13 +18787,19 @@
         <v>2123</v>
       </c>
       <c r="AV28" s="4" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
       <c r="AW28" s="4" t="s">
         <v>2151</v>
       </c>
       <c r="AX28" s="4" t="s">
         <v>2153</v>
+      </c>
+      <c r="BG28" s="4" t="s">
+        <v>2309</v>
+      </c>
+      <c r="BH28" s="4" t="s">
+        <v>2312</v>
       </c>
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.25">
@@ -23036,7 +23138,7 @@
         <v>1538</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
       <c r="D26" s="4"/>
     </row>
@@ -23403,7 +23505,7 @@
     </row>
     <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>2253</v>
+        <v>2250</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>1560</v>
@@ -23414,7 +23516,7 @@
     </row>
     <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>2254</v>
+        <v>2251</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>1560</v>
@@ -24771,7 +24873,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="55" t="s">
-        <v>2255</v>
+        <v>2252</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>1517</v>
@@ -25022,7 +25124,7 @@
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="13" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>340</v>

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5769" uniqueCount="2313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5845" uniqueCount="2370">
   <si>
     <t>switchType</t>
   </si>
@@ -6614,9 +6614,6 @@
     <t>Дубликаты псевдонима</t>
   </si>
   <si>
-    <t>Количество псевдонимов устройства</t>
-  </si>
-  <si>
     <t>Используется в зонах</t>
   </si>
   <si>
@@ -6671,9 +6668,6 @@
     <t>Total_zonemembers</t>
   </si>
   <si>
-    <t>Total_connected_zonemembers</t>
-  </si>
-  <si>
     <t>Wwnn</t>
   </si>
   <si>
@@ -6990,6 +6984,183 @@
   </si>
   <si>
     <t>Членов property в peer зоне</t>
+  </si>
+  <si>
+    <t>Total_zonemembers_active</t>
+  </si>
+  <si>
+    <t>active_device_ports_per_alias</t>
+  </si>
+  <si>
+    <t>Количество активных портов в псевдониме</t>
+  </si>
+  <si>
+    <t>Количество псевдонимов порта</t>
+  </si>
+  <si>
+    <t>Статистика_конфигурации_ru</t>
+  </si>
+  <si>
+    <t>zone_tag</t>
+  </si>
+  <si>
+    <t>lsan_tag</t>
+  </si>
+  <si>
+    <t>Total_device_ports</t>
+  </si>
+  <si>
+    <t>alias_per_zone_mean</t>
+  </si>
+  <si>
+    <t>alias_per_zone_max</t>
+  </si>
+  <si>
+    <t>alias_per_zone_min</t>
+  </si>
+  <si>
+    <t>active_ports_per_zone_mean</t>
+  </si>
+  <si>
+    <t>active_ports_per_zone_max</t>
+  </si>
+  <si>
+    <t>active_ports_per_zone_min</t>
+  </si>
+  <si>
+    <t>ports_per_alias_mean</t>
+  </si>
+  <si>
+    <t>ports_per_alias_max</t>
+  </si>
+  <si>
+    <t>ports_per_alias_min</t>
+  </si>
+  <si>
+    <t>active_ports_per_alias_mean</t>
+  </si>
+  <si>
+    <t>active_ports_per_alias_max</t>
+  </si>
+  <si>
+    <t>active_ports_per_alias_min</t>
+  </si>
+  <si>
+    <t>zone_number_alias_used_in_mean</t>
+  </si>
+  <si>
+    <t>zone_number_alias_used_in_max</t>
+  </si>
+  <si>
+    <t>zone_number_alias_used_in_min</t>
+  </si>
+  <si>
+    <t>Статистика_конфигурации_eng</t>
+  </si>
+  <si>
+    <t>Всего зон</t>
+  </si>
+  <si>
+    <t>LSAN зон</t>
+  </si>
+  <si>
+    <t>Peer зон</t>
+  </si>
+  <si>
+    <t>Зон без инициатора и таргета</t>
+  </si>
+  <si>
+    <t>Зон репликации</t>
+  </si>
+  <si>
+    <t>Количество портов устройств в подсети</t>
+  </si>
+  <si>
+    <t>Зон без инициатора</t>
+  </si>
+  <si>
+    <t>Зон без таргета</t>
+  </si>
+  <si>
+    <t>Зон с несколькими инициаторами</t>
+  </si>
+  <si>
+    <t>Зон с массивами разных модельных линий</t>
+  </si>
+  <si>
+    <t>Зон с библиотекой и массивом</t>
+  </si>
+  <si>
+    <t>Локальных устройств в конфигурации</t>
+  </si>
+  <si>
+    <t>Импортируемых устройств в конфигурации</t>
+  </si>
+  <si>
+    <t>Среднее количество псевдонимов в зонах</t>
+  </si>
+  <si>
+    <t>Максимальное количество псевдонимов в зонах</t>
+  </si>
+  <si>
+    <t>Минимальное количество псевдонимов в зонах</t>
+  </si>
+  <si>
+    <t>Среднее количество активных портов в зонах</t>
+  </si>
+  <si>
+    <t>Максимальное количество  активных портов в зонах</t>
+  </si>
+  <si>
+    <t>Минимальное количество  активных портов в зонах</t>
+  </si>
+  <si>
+    <t>Среднее количество портов в псевдонимах</t>
+  </si>
+  <si>
+    <t>Максимальное количество портов в псевдонимах</t>
+  </si>
+  <si>
+    <t>Минимальное количество портов в псевдонимах</t>
+  </si>
+  <si>
+    <t>Среднее количество активных портов в псевдонимах</t>
+  </si>
+  <si>
+    <t>Максимальное количество активных портов в псевдонимах</t>
+  </si>
+  <si>
+    <t>Минимальное количество активных портов в псевдонимах</t>
+  </si>
+  <si>
+    <t>Среднее количество зон, использующих один псевдоним</t>
+  </si>
+  <si>
+    <t>Максимальное количество зон, использующих один псевдоним</t>
+  </si>
+  <si>
+    <t>Минимальное количество зон, использующих один псевдоним</t>
+  </si>
+  <si>
+    <t>Всего активных устройств в конфигурации</t>
+  </si>
+  <si>
+    <t>Отсутствующих устройств в конфигурации</t>
+  </si>
+  <si>
+    <t>Устройств, подключенных в другую фабрику</t>
+  </si>
+  <si>
+    <t>Устройств в статусе initializing</t>
+  </si>
+  <si>
+    <t>Устройств в статусе configured</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Итого:</t>
   </si>
 </sst>
 </file>
@@ -9203,7 +9374,7 @@
         <v>1120</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>1097</v>
@@ -9255,7 +9426,7 @@
         <v>1119</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>4</v>
@@ -9281,7 +9452,7 @@
         <v>1118</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>1097</v>
@@ -9307,7 +9478,7 @@
         <v>1118</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>1097</v>
@@ -9333,7 +9504,7 @@
         <v>1129</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>1097</v>
@@ -9359,7 +9530,7 @@
         <v>1130</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>1097</v>
@@ -9437,7 +9608,7 @@
         <v>82</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>1097</v>
@@ -9463,7 +9634,7 @@
         <v>84</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>1097</v>
@@ -9489,7 +9660,7 @@
         <v>1117</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>1097</v>
@@ -9541,7 +9712,7 @@
         <v>89</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>1097</v>
@@ -9567,7 +9738,7 @@
         <v>1977</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>1097</v>
@@ -9575,13 +9746,13 @@
     </row>
     <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>4</v>
@@ -9590,7 +9761,7 @@
         <v>16</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>1096</v>
@@ -9619,7 +9790,7 @@
         <v>1162</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>1097</v>
@@ -9645,7 +9816,7 @@
         <v>1121</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>1097</v>
@@ -9671,7 +9842,7 @@
         <v>1122</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>1097</v>
@@ -9697,7 +9868,7 @@
         <v>1163</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>1097</v>
@@ -9723,7 +9894,7 @@
         <v>1164</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>1097</v>
@@ -12085,16 +12256,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>533</v>
@@ -12187,38 +12358,38 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="B13" s="34">
         <v>1</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
       <c r="F14" s="34" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>144</v>
@@ -12226,32 +12397,32 @@
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
       <c r="F15" s="34" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
       <c r="F16" s="34" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12264,7 +12435,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="4" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -12835,7 +13006,7 @@
         <v>522</v>
       </c>
       <c r="K1" s="68" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>894</v>
@@ -13598,13 +13769,13 @@
         <v>1054</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>522</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -13860,7 +14031,7 @@
         <v>1062</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>1063</v>
@@ -13929,13 +14100,13 @@
         <v>1057</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -14009,65 +14180,65 @@
         <v>8</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="E22" s="14" t="s">
+        <v>2260</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>2262</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>2264</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="B24" s="39">
         <v>9</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="39" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="63" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="B26" s="63">
         <v>10</v>
       </c>
       <c r="C26" s="63" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="D26" s="63"/>
       <c r="E26" s="63" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="F26" s="63" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F27" s="63" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -14075,26 +14246,26 @@
         <v>11</v>
       </c>
       <c r="C29" s="14" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>2275</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>2277</v>
-      </c>
       <c r="E29" s="14" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F30" s="14" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F31" s="14" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -14104,12 +14275,12 @@
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" s="14" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34" s="14" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
     </row>
   </sheetData>
@@ -14820,10 +14991,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:BL175"/>
+  <dimension ref="A1:BN175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BI11" sqref="BI11"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY25" sqref="AY25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14882,12 +15053,14 @@
     <col min="56" max="58" width="39.7109375" style="4" customWidth="1"/>
     <col min="59" max="59" width="39" customWidth="1"/>
     <col min="60" max="60" width="44.85546875" customWidth="1"/>
-    <col min="61" max="61" width="35.140625" customWidth="1"/>
-    <col min="62" max="62" width="23" customWidth="1"/>
-    <col min="63" max="64" width="31.28515625" customWidth="1"/>
+    <col min="61" max="61" width="44.85546875" style="4" customWidth="1"/>
+    <col min="62" max="62" width="55.42578125" style="4" customWidth="1"/>
+    <col min="63" max="63" width="35.140625" customWidth="1"/>
+    <col min="64" max="64" width="23" customWidth="1"/>
+    <col min="65" max="66" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
         <v>1934</v>
       </c>
@@ -14925,10 +15098,10 @@
         <v>1344</v>
       </c>
       <c r="M1" s="20" t="s">
+        <v>2202</v>
+      </c>
+      <c r="N1" s="20" t="s">
         <v>2203</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>2204</v>
       </c>
       <c r="P1" s="27" t="s">
         <v>1478</v>
@@ -15040,43 +15213,49 @@
         <v>2156</v>
       </c>
       <c r="BA1" s="65" t="s">
+        <v>2200</v>
+      </c>
+      <c r="BB1" s="65" t="s">
         <v>2201</v>
       </c>
-      <c r="BB1" s="65" t="s">
-        <v>2202</v>
-      </c>
       <c r="BC1" s="12" t="s">
+        <v>2251</v>
+      </c>
+      <c r="BD1" s="12" t="s">
+        <v>2252</v>
+      </c>
+      <c r="BE1" s="24" t="s">
         <v>2253</v>
       </c>
-      <c r="BD1" s="12" t="s">
+      <c r="BF1" s="24" t="s">
         <v>2254</v>
       </c>
-      <c r="BE1" s="24" t="s">
-        <v>2255</v>
-      </c>
-      <c r="BF1" s="24" t="s">
-        <v>2256</v>
-      </c>
       <c r="BG1" s="34" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="BH1" s="34" t="s">
-        <v>2214</v>
-      </c>
-      <c r="BI1" s="9" t="s">
-        <v>2228</v>
-      </c>
-      <c r="BJ1" s="9" t="s">
-        <v>2229</v>
-      </c>
-      <c r="BK1" s="59" t="s">
-        <v>2235</v>
-      </c>
-      <c r="BL1" s="59" t="s">
-        <v>2236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+        <v>2212</v>
+      </c>
+      <c r="BI1" s="20" t="s">
+        <v>2334</v>
+      </c>
+      <c r="BJ1" s="20" t="s">
+        <v>2315</v>
+      </c>
+      <c r="BK1" s="9" t="s">
+        <v>2226</v>
+      </c>
+      <c r="BL1" s="9" t="s">
+        <v>2227</v>
+      </c>
+      <c r="BM1" s="59" t="s">
+        <v>2233</v>
+      </c>
+      <c r="BN1" s="59" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1773</v>
       </c>
@@ -15264,13 +15443,19 @@
         <v>1321</v>
       </c>
       <c r="BK2" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="BM2" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="BL2" s="4" t="s">
-        <v>2239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BN2" s="4" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1772</v>
       </c>
@@ -15458,13 +15643,19 @@
         <v>1322</v>
       </c>
       <c r="BK3" s="4" t="s">
-        <v>2240</v>
+        <v>1166</v>
       </c>
       <c r="BL3" s="4" t="s">
-        <v>2237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+      <c r="BM3" s="4" t="s">
+        <v>2238</v>
+      </c>
+      <c r="BN3" s="4" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1913</v>
       </c>
@@ -15613,7 +15804,7 @@
         <v>2119</v>
       </c>
       <c r="AX4" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="AY4" t="s">
         <v>2159</v>
@@ -15646,19 +15837,25 @@
         <v>2125</v>
       </c>
       <c r="BI4" s="4" t="s">
+        <v>2316</v>
+      </c>
+      <c r="BJ4" s="4" t="s">
+        <v>2335</v>
+      </c>
+      <c r="BK4" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="BJ4" s="4" t="s">
+      <c r="BL4" s="4" t="s">
         <v>1323</v>
       </c>
-      <c r="BK4" s="4" t="s">
-        <v>2241</v>
-      </c>
-      <c r="BL4" s="4" t="s">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM4" s="4" t="s">
+        <v>2239</v>
+      </c>
+      <c r="BN4" s="4" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1764</v>
       </c>
@@ -15840,19 +16037,25 @@
         <v>2126</v>
       </c>
       <c r="BI5" s="4" t="s">
+        <v>2317</v>
+      </c>
+      <c r="BJ5" s="4" t="s">
+        <v>2336</v>
+      </c>
+      <c r="BK5" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="BJ5" s="4" t="s">
+      <c r="BL5" s="4" t="s">
         <v>1324</v>
       </c>
-      <c r="BK5" s="4" t="s">
-        <v>2242</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM5" s="4" t="s">
+        <v>2240</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2034</v>
       </c>
@@ -15998,10 +16201,10 @@
         <v>2127</v>
       </c>
       <c r="AW6" s="4" t="s">
+        <v>2190</v>
+      </c>
+      <c r="AX6" s="4" t="s">
         <v>2191</v>
-      </c>
-      <c r="AX6" s="4" t="s">
-        <v>2192</v>
       </c>
       <c r="AY6" s="4" t="s">
         <v>2161</v>
@@ -16034,19 +16237,25 @@
         <v>2127</v>
       </c>
       <c r="BI6" s="4" t="s">
-        <v>2218</v>
+        <v>2307</v>
       </c>
       <c r="BJ6" s="4" t="s">
-        <v>2230</v>
+        <v>2337</v>
       </c>
       <c r="BK6" s="4" t="s">
-        <v>2243</v>
-      </c>
-      <c r="BL6" s="66" t="s">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+        <v>2216</v>
+      </c>
+      <c r="BL6" s="4" t="s">
+        <v>2228</v>
+      </c>
+      <c r="BM6" s="4" t="s">
+        <v>2241</v>
+      </c>
+      <c r="BN6" s="66" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1765</v>
       </c>
@@ -16228,19 +16437,25 @@
         <v>2176</v>
       </c>
       <c r="BI7" s="4" t="s">
+        <v>2166</v>
+      </c>
+      <c r="BJ7" s="4" t="s">
+        <v>2346</v>
+      </c>
+      <c r="BK7" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="BJ7" s="4" t="s">
-        <v>2231</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>2246</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>2247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BL7" s="4" t="s">
+        <v>2229</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>2244</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>1766</v>
       </c>
@@ -16419,22 +16634,28 @@
         <v>2166</v>
       </c>
       <c r="BH8" s="4" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="BI8" s="4" t="s">
-        <v>2219</v>
+        <v>2169</v>
       </c>
       <c r="BJ8" s="4" t="s">
-        <v>2232</v>
+        <v>2347</v>
       </c>
       <c r="BK8" s="4" t="s">
-        <v>2248</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>2249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+        <v>2217</v>
+      </c>
+      <c r="BL8" s="4" t="s">
+        <v>2230</v>
+      </c>
+      <c r="BM8" s="4" t="s">
+        <v>2246</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>1767</v>
       </c>
@@ -16564,10 +16785,10 @@
         <v>2128</v>
       </c>
       <c r="AW9" s="49" t="s">
+        <v>2198</v>
+      </c>
+      <c r="AX9" s="4" t="s">
         <v>2199</v>
-      </c>
-      <c r="AX9" s="4" t="s">
-        <v>2200</v>
       </c>
       <c r="AY9" s="4" t="s">
         <v>2168</v>
@@ -16600,13 +16821,19 @@
         <v>2177</v>
       </c>
       <c r="BI9" s="4" t="s">
-        <v>2220</v>
+        <v>2167</v>
       </c>
       <c r="BJ9" s="4" t="s">
-        <v>2234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:64" ht="30" x14ac:dyDescent="0.25">
+        <v>2364</v>
+      </c>
+      <c r="BK9" s="4" t="s">
+        <v>2218</v>
+      </c>
+      <c r="BL9" s="4" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:66" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>2033</v>
       </c>
@@ -16741,10 +16968,10 @@
         <v>1924</v>
       </c>
       <c r="AU10" s="4" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="AV10" s="4" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="AW10" s="4" t="s">
         <v>2121</v>
@@ -16774,16 +17001,22 @@
         <v>2169</v>
       </c>
       <c r="BH10" s="4" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="BI10" s="4" t="s">
-        <v>2221</v>
+        <v>2168</v>
       </c>
       <c r="BJ10" s="4" t="s">
-        <v>2233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+        <v>2365</v>
+      </c>
+      <c r="BK10" s="4" t="s">
+        <v>2219</v>
+      </c>
+      <c r="BL10" s="4" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1768</v>
       </c>
@@ -16950,8 +17183,14 @@
       <c r="BH11" s="4" t="s">
         <v>2179</v>
       </c>
-    </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BI11" s="4" t="s">
+        <v>2170</v>
+      </c>
+      <c r="BJ11" s="4" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>1771</v>
       </c>
@@ -17083,10 +17322,10 @@
         <v>2001</v>
       </c>
       <c r="AU12" s="49" t="s">
+        <v>2198</v>
+      </c>
+      <c r="AV12" s="4" t="s">
         <v>2199</v>
-      </c>
-      <c r="AV12" s="4" t="s">
-        <v>2200</v>
       </c>
       <c r="AW12" s="4" t="s">
         <v>1939</v>
@@ -17118,8 +17357,14 @@
       <c r="BH12" s="4" t="s">
         <v>2180</v>
       </c>
-    </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BI12" s="4" t="s">
+        <v>2171</v>
+      </c>
+      <c r="BJ12" s="4" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>1493</v>
       </c>
@@ -17276,13 +17521,19 @@
         <v>1944</v>
       </c>
       <c r="BG13" s="4" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="BH13" t="s">
-        <v>2211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+        <v>2209</v>
+      </c>
+      <c r="BI13" s="4" t="s">
+        <v>2157</v>
+      </c>
+      <c r="BJ13" s="4" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>2065</v>
       </c>
@@ -17439,13 +17690,19 @@
         <v>1945</v>
       </c>
       <c r="BG14" s="4" t="s">
-        <v>2206</v>
+        <v>2311</v>
       </c>
       <c r="BH14" s="4" t="s">
-        <v>2212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+        <v>2210</v>
+      </c>
+      <c r="BI14" s="4" t="s">
+        <v>2158</v>
+      </c>
+      <c r="BJ14" s="4" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>1938</v>
       </c>
@@ -17577,7 +17834,12 @@
       <c r="AX15" s="4" t="s">
         <v>2136</v>
       </c>
-      <c r="AY15" s="4"/>
+      <c r="AY15" s="4" t="s">
+        <v>2368</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>2369</v>
+      </c>
       <c r="BA15" t="s">
         <v>1938</v>
       </c>
@@ -17591,13 +17853,19 @@
         <v>1946</v>
       </c>
       <c r="BG15" s="4" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="BH15" s="4" t="s">
-        <v>2296</v>
-      </c>
-    </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+        <v>2294</v>
+      </c>
+      <c r="BI15" s="4" t="s">
+        <v>2159</v>
+      </c>
+      <c r="BJ15" s="4" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>316</v>
       </c>
@@ -17725,13 +17993,19 @@
         <v>2126</v>
       </c>
       <c r="BG16" s="4" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="BH16" s="4" t="s">
-        <v>2297</v>
-      </c>
-    </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
+        <v>2295</v>
+      </c>
+      <c r="BI16" s="4" t="s">
+        <v>2160</v>
+      </c>
+      <c r="BJ16" s="4" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>317</v>
       </c>
@@ -17841,13 +18115,19 @@
         <v>1946</v>
       </c>
       <c r="BG17" s="14" t="s">
+        <v>2291</v>
+      </c>
+      <c r="BH17" s="14" t="s">
         <v>2293</v>
       </c>
-      <c r="BH17" s="14" t="s">
-        <v>2295</v>
-      </c>
-    </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI17" s="4" t="s">
+        <v>2161</v>
+      </c>
+      <c r="BJ17" s="4" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
         <v>318</v>
       </c>
@@ -17946,13 +18226,19 @@
       </c>
       <c r="AY18" s="4"/>
       <c r="BG18" s="14" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="BH18" s="14" t="s">
-        <v>2298</v>
-      </c>
-    </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
+        <v>2296</v>
+      </c>
+      <c r="BI18" s="4" t="s">
+        <v>2172</v>
+      </c>
+      <c r="BJ18" s="4" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>319</v>
       </c>
@@ -18050,13 +18336,19 @@
       </c>
       <c r="AY19" s="4"/>
       <c r="BG19" s="14" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="BH19" s="14" t="s">
-        <v>2294</v>
-      </c>
-    </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
+        <v>2292</v>
+      </c>
+      <c r="BI19" s="4" t="s">
+        <v>2173</v>
+      </c>
+      <c r="BJ19" s="4" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
         <v>320</v>
       </c>
@@ -18134,10 +18426,10 @@
         <v>1946</v>
       </c>
       <c r="AW20" s="4" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="AX20" s="4" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="AY20" s="4"/>
       <c r="BG20" s="4" t="s">
@@ -18146,8 +18438,14 @@
       <c r="BH20" s="4" t="s">
         <v>2183</v>
       </c>
-    </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI20" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="BJ20" s="4" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
         <v>321</v>
       </c>
@@ -18237,8 +18535,14 @@
       <c r="BH21" s="4" t="s">
         <v>2154</v>
       </c>
-    </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI21" s="4" t="s">
+        <v>2318</v>
+      </c>
+      <c r="BJ21" s="4" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
         <v>322</v>
       </c>
@@ -18323,13 +18627,19 @@
       </c>
       <c r="AY22" s="4"/>
       <c r="BG22" s="4" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="BH22" t="s">
-        <v>2303</v>
-      </c>
-    </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
+        <v>2301</v>
+      </c>
+      <c r="BI22" s="4" t="s">
+        <v>2319</v>
+      </c>
+      <c r="BJ22" s="4" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
         <v>323</v>
       </c>
@@ -18401,10 +18711,10 @@
         <v>150</v>
       </c>
       <c r="AU23" s="4" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="AV23" s="4" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="AW23" s="4" t="s">
         <v>509</v>
@@ -18414,13 +18724,19 @@
       </c>
       <c r="AY23" s="4"/>
       <c r="BG23" s="4" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="BH23" s="4" t="s">
-        <v>2304</v>
-      </c>
-    </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
+        <v>2302</v>
+      </c>
+      <c r="BI23" s="4" t="s">
+        <v>2320</v>
+      </c>
+      <c r="BJ23" s="4" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
       <c r="F24" s="3"/>
       <c r="I24" s="4" t="s">
         <v>247</v>
@@ -18503,13 +18819,19 @@
         <v>1324</v>
       </c>
       <c r="BG24" s="4" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="BH24" s="4" t="s">
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
+        <v>2303</v>
+      </c>
+      <c r="BI24" s="4" t="s">
+        <v>2321</v>
+      </c>
+      <c r="BJ24" s="4" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
       <c r="F25" s="3"/>
       <c r="I25" s="4" t="s">
         <v>240</v>
@@ -18578,16 +18900,22 @@
         <v>2123</v>
       </c>
       <c r="AX25" s="4" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="BG25" s="4" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="BH25" t="s">
-        <v>2306</v>
-      </c>
-    </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
+        <v>2304</v>
+      </c>
+      <c r="BI25" s="4" t="s">
+        <v>2322</v>
+      </c>
+      <c r="BJ25" s="4" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
       <c r="F26" s="3"/>
       <c r="I26" s="4" t="s">
         <v>251</v>
@@ -18652,13 +18980,19 @@
         <v>2133</v>
       </c>
       <c r="BG26" s="4" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="BH26" t="s">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
+        <v>2308</v>
+      </c>
+      <c r="BI26" s="4" t="s">
+        <v>2323</v>
+      </c>
+      <c r="BJ26" s="4" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -18724,13 +19058,19 @@
         <v>2134</v>
       </c>
       <c r="BG27" s="4" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="BH27" s="4" t="s">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
+        <v>2309</v>
+      </c>
+      <c r="BI27" s="4" t="s">
+        <v>2324</v>
+      </c>
+      <c r="BJ27" s="4" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -18787,7 +19127,7 @@
         <v>2123</v>
       </c>
       <c r="AV28" s="4" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="AW28" s="4" t="s">
         <v>2151</v>
@@ -18796,13 +19136,19 @@
         <v>2153</v>
       </c>
       <c r="BG28" s="4" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="BH28" s="4" t="s">
-        <v>2312</v>
-      </c>
-    </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
+        <v>2310</v>
+      </c>
+      <c r="BI28" s="4" t="s">
+        <v>2325</v>
+      </c>
+      <c r="BJ28" s="4" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="I29" s="4" t="s">
@@ -18861,13 +19207,19 @@
         <v>2133</v>
       </c>
       <c r="AW29" s="4" t="s">
-        <v>2184</v>
-      </c>
-      <c r="AX29" t="s">
-        <v>2186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
+        <v>2312</v>
+      </c>
+      <c r="AX29" s="4" t="s">
+        <v>2313</v>
+      </c>
+      <c r="BI29" s="4" t="s">
+        <v>2326</v>
+      </c>
+      <c r="BJ29" s="4" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="I30" s="4" t="s">
@@ -18931,10 +19283,16 @@
         <v>2185</v>
       </c>
       <c r="AX30" t="s">
-        <v>2187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
+        <v>2314</v>
+      </c>
+      <c r="BI30" s="4" t="s">
+        <v>2327</v>
+      </c>
+      <c r="BJ30" s="4" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="48"/>
@@ -19000,13 +19358,19 @@
         <v>2153</v>
       </c>
       <c r="AW31" s="4" t="s">
-        <v>2194</v>
+        <v>2184</v>
       </c>
       <c r="AX31" t="s">
-        <v>2188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:60" ht="30" x14ac:dyDescent="0.25">
+        <v>2186</v>
+      </c>
+      <c r="BI31" s="4" t="s">
+        <v>2328</v>
+      </c>
+      <c r="BJ31" s="4" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="32" spans="1:62" ht="30" x14ac:dyDescent="0.25">
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="48"/>
@@ -19077,10 +19441,16 @@
         <v>2193</v>
       </c>
       <c r="AX32" t="s">
-        <v>2189</v>
-      </c>
-    </row>
-    <row r="33" spans="3:48" x14ac:dyDescent="0.25">
+        <v>2187</v>
+      </c>
+      <c r="BI32" s="4" t="s">
+        <v>2329</v>
+      </c>
+      <c r="BJ32" s="4" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="33" spans="3:62" x14ac:dyDescent="0.25">
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="48"/>
@@ -19146,8 +19516,20 @@
       <c r="AV33" s="4" t="s">
         <v>2154</v>
       </c>
-    </row>
-    <row r="34" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW33" s="4" t="s">
+        <v>2192</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>2188</v>
+      </c>
+      <c r="BI33" s="4" t="s">
+        <v>2330</v>
+      </c>
+      <c r="BJ33" s="4" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="34" spans="3:62" x14ac:dyDescent="0.25">
       <c r="E34" s="4"/>
       <c r="F34" s="3"/>
       <c r="G34" s="48"/>
@@ -19210,8 +19592,14 @@
       <c r="AT34" s="4" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="35" spans="3:48" ht="30" x14ac:dyDescent="0.25">
+      <c r="BI34" s="4" t="s">
+        <v>2331</v>
+      </c>
+      <c r="BJ34" s="4" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="35" spans="3:62" ht="30" x14ac:dyDescent="0.25">
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="48"/>
@@ -19276,8 +19664,14 @@
       <c r="AT35" s="4" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="36" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="BI35" s="4" t="s">
+        <v>2332</v>
+      </c>
+      <c r="BJ35" s="4" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="36" spans="3:62" x14ac:dyDescent="0.25">
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="48"/>
@@ -19333,8 +19727,14 @@
       <c r="AT36" s="4" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="37" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="BI36" s="4" t="s">
+        <v>2333</v>
+      </c>
+      <c r="BJ36" s="4" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="37" spans="3:62" x14ac:dyDescent="0.25">
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="48"/>
@@ -19391,7 +19791,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="38" spans="3:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:62" x14ac:dyDescent="0.25">
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="48"/>
@@ -19448,7 +19848,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="39" spans="3:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:62" x14ac:dyDescent="0.25">
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="48"/>
@@ -19507,7 +19907,7 @@
       <c r="AU39" s="48"/>
       <c r="AV39" s="48"/>
     </row>
-    <row r="40" spans="3:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -19566,7 +19966,7 @@
       <c r="AU40" s="48"/>
       <c r="AV40" s="48"/>
     </row>
-    <row r="41" spans="3:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -19627,7 +20027,7 @@
       <c r="AU41" s="48"/>
       <c r="AV41" s="48"/>
     </row>
-    <row r="42" spans="3:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:62" x14ac:dyDescent="0.25">
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="48"/>
@@ -19682,7 +20082,7 @@
       <c r="AU42" s="48"/>
       <c r="AV42" s="48"/>
     </row>
-    <row r="43" spans="3:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:62" x14ac:dyDescent="0.25">
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="48"/>
@@ -19734,7 +20134,7 @@
       <c r="AU43" s="48"/>
       <c r="AV43" s="48"/>
     </row>
-    <row r="44" spans="3:48" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:62" x14ac:dyDescent="0.25">
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="48"/>
@@ -19786,7 +20186,7 @@
       <c r="AU44" s="48"/>
       <c r="AV44" s="48"/>
     </row>
-    <row r="45" spans="3:48" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:62" x14ac:dyDescent="0.25">
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="48"/>
@@ -19838,7 +20238,7 @@
       <c r="AU45" s="48"/>
       <c r="AV45" s="48"/>
     </row>
-    <row r="46" spans="3:48" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:62" x14ac:dyDescent="0.25">
       <c r="E46" s="3"/>
       <c r="F46" s="4"/>
       <c r="G46" s="48"/>
@@ -19886,7 +20286,7 @@
       <c r="AU46" s="48"/>
       <c r="AV46" s="48"/>
     </row>
-    <row r="47" spans="3:48" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:62" x14ac:dyDescent="0.25">
       <c r="E47" s="3"/>
       <c r="F47" s="4"/>
       <c r="G47" s="48"/>
@@ -19934,7 +20334,7 @@
       <c r="AU47" s="48"/>
       <c r="AV47" s="48"/>
     </row>
-    <row r="48" spans="3:48" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:62" x14ac:dyDescent="0.25">
       <c r="E48" s="3"/>
       <c r="F48" s="4"/>
       <c r="G48" s="48"/>
@@ -22823,8 +23223,8 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:N178"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23138,7 +23538,7 @@
         <v>1538</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="D26" s="4"/>
     </row>
@@ -23505,7 +23905,7 @@
     </row>
     <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>1560</v>
@@ -23516,7 +23916,7 @@
     </row>
     <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>1560</v>
@@ -24873,7 +25273,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="55" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>1517</v>
@@ -24907,8 +25307,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25124,7 +25524,7 @@
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="13" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>340</v>

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" firstSheet="8" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="switch_models" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">nameserver!$A$1:$J$103</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">oui!$A$1:$N$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">oui!$A$1:$N$202</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">sfp_models!$A$1:$G$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">switch_models!$A$1:$H$78</definedName>
   </definedNames>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5845" uniqueCount="2370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5953" uniqueCount="2405">
   <si>
     <t>switchType</t>
   </si>
@@ -5975,9 +5975,6 @@
     <t>b6:93:73</t>
   </si>
   <si>
-    <t>QLOGIC|STOREONCE</t>
-  </si>
-  <si>
     <t>157</t>
   </si>
   <si>
@@ -7161,6 +7158,114 @@
   </si>
   <si>
     <t>Итого:</t>
+  </si>
+  <si>
+    <t>80:30:e0</t>
+  </si>
+  <si>
+    <t>c4:34:6b</t>
+  </si>
+  <si>
+    <t>14:58:d0</t>
+  </si>
+  <si>
+    <t>ec:b1:d7</t>
+  </si>
+  <si>
+    <t>8c:dc:d4</t>
+  </si>
+  <si>
+    <t>f4:03:43</t>
+  </si>
+  <si>
+    <t>f0:92:1c</t>
+  </si>
+  <si>
+    <t>76:08:87</t>
+  </si>
+  <si>
+    <t>76:0b:76</t>
+  </si>
+  <si>
+    <t>76:0a:d5</t>
+  </si>
+  <si>
+    <t>76:0b:3c</t>
+  </si>
+  <si>
+    <t>76:09:df</t>
+  </si>
+  <si>
+    <t>76:02:97</t>
+  </si>
+  <si>
+    <t>76:04:b5</t>
+  </si>
+  <si>
+    <t>76:03:51</t>
+  </si>
+  <si>
+    <t>76:03:6d</t>
+  </si>
+  <si>
+    <t>76:07:63</t>
+  </si>
+  <si>
+    <t>76:0b:3d</t>
+  </si>
+  <si>
+    <t>76:0a:d4</t>
+  </si>
+  <si>
+    <t>76:07:60</t>
+  </si>
+  <si>
+    <t>10:60:4b</t>
+  </si>
+  <si>
+    <t>9c:b6:54</t>
+  </si>
+  <si>
+    <t>07:68:10</t>
+  </si>
+  <si>
+    <t>2e:c0:14</t>
+  </si>
+  <si>
+    <t>44:1e:a1</t>
+  </si>
+  <si>
+    <t>52:9e:b9</t>
+  </si>
+  <si>
+    <t>5c:b9:01</t>
+  </si>
+  <si>
+    <t>6c:3b:e5</t>
+  </si>
+  <si>
+    <t>b4:b5:2f</t>
+  </si>
+  <si>
+    <t>20:67:7c</t>
+  </si>
+  <si>
+    <t>d0:67:26</t>
+  </si>
+  <si>
+    <t>6c:c2:17</t>
+  </si>
+  <si>
+    <t>d8:9d:67</t>
+  </si>
+  <si>
+    <t>ce:b4:d8</t>
+  </si>
+  <si>
+    <t>76:07:62</t>
+  </si>
+  <si>
+    <t>76:07:66</t>
   </si>
 </sst>
 </file>
@@ -7551,7 +7656,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7854,8 +7979,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8958,7 +9083,7 @@
         <v>1126</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>1097</v>
@@ -8984,7 +9109,7 @@
         <v>1110</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>1097</v>
@@ -9114,7 +9239,7 @@
         <v>1124</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>1097</v>
@@ -9374,7 +9499,7 @@
         <v>1120</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>1097</v>
@@ -9426,7 +9551,7 @@
         <v>1119</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>4</v>
@@ -9452,7 +9577,7 @@
         <v>1118</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>1097</v>
@@ -9478,7 +9603,7 @@
         <v>1118</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>1097</v>
@@ -9504,7 +9629,7 @@
         <v>1129</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>1097</v>
@@ -9530,7 +9655,7 @@
         <v>1130</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>1097</v>
@@ -9608,7 +9733,7 @@
         <v>82</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>1097</v>
@@ -9634,7 +9759,7 @@
         <v>84</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>1097</v>
@@ -9660,7 +9785,7 @@
         <v>1117</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>1097</v>
@@ -9712,7 +9837,7 @@
         <v>89</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>1097</v>
@@ -9720,13 +9845,13 @@
     </row>
     <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>1975</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>1976</v>
-      </c>
       <c r="C72" s="4" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>1694</v>
@@ -9735,10 +9860,10 @@
         <v>16</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>1097</v>
@@ -9746,13 +9871,13 @@
     </row>
     <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>2257</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>2258</v>
-      </c>
       <c r="C73" s="4" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>4</v>
@@ -9761,7 +9886,7 @@
         <v>16</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>1096</v>
@@ -9790,7 +9915,7 @@
         <v>1162</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>1097</v>
@@ -9816,7 +9941,7 @@
         <v>1121</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>1097</v>
@@ -9842,7 +9967,7 @@
         <v>1122</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>1097</v>
@@ -9868,7 +9993,7 @@
         <v>1163</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>1097</v>
@@ -9894,7 +10019,7 @@
         <v>1164</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>1097</v>
@@ -11244,16 +11369,16 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>264</v>
@@ -11830,7 +11955,7 @@
       <c r="L37"/>
       <c r="M37"/>
       <c r="N37" s="4" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="O37"/>
       <c r="P37"/>
@@ -11968,7 +12093,7 @@
         <v>972</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
@@ -12256,16 +12381,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>2212</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>2213</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>2214</v>
-      </c>
       <c r="E6" s="14" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>533</v>
@@ -12358,38 +12483,38 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="B13" s="34">
         <v>1</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
       <c r="F14" s="34" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>144</v>
@@ -12397,32 +12522,32 @@
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
       <c r="F15" s="34" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
       <c r="F16" s="34" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12435,7 +12560,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="4" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -13006,7 +13131,7 @@
         <v>522</v>
       </c>
       <c r="K1" s="68" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>894</v>
@@ -13769,13 +13894,13 @@
         <v>1054</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>522</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -13876,26 +14001,26 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I6" s="8" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="8" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -13957,7 +14082,7 @@
         <v>1037</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>1037</v>
@@ -14031,7 +14156,7 @@
         <v>1062</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>1063</v>
@@ -14100,13 +14225,13 @@
         <v>1057</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -14180,65 +14305,65 @@
         <v>8</v>
       </c>
       <c r="C22" s="14" t="s">
+        <v>2260</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>2261</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>2262</v>
-      </c>
       <c r="E22" s="14" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="B24" s="39">
         <v>9</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="39" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="63" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="B26" s="63">
         <v>10</v>
       </c>
       <c r="C26" s="63" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="D26" s="63"/>
       <c r="E26" s="63" t="s">
+        <v>2267</v>
+      </c>
+      <c r="F26" s="63" t="s">
         <v>2268</v>
-      </c>
-      <c r="F26" s="63" t="s">
-        <v>2269</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F27" s="63" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -14246,26 +14371,26 @@
         <v>11</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="D29" s="14" t="s">
+        <v>2274</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>2271</v>
+      </c>
+      <c r="F29" s="14" t="s">
         <v>2275</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>2272</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>2276</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F30" s="14" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F31" s="14" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -14275,12 +14400,12 @@
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" s="14" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34" s="14" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
   </sheetData>
@@ -14356,7 +14481,7 @@
         <v>1774</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -14378,7 +14503,7 @@
         <v>1706</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>1708</v>
@@ -14490,7 +14615,7 @@
         <v>1721</v>
       </c>
       <c r="I14" s="57" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -14528,7 +14653,7 @@
         <v>200</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>200</v>
@@ -14725,7 +14850,7 @@
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>1751</v>
@@ -14751,7 +14876,7 @@
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -14822,7 +14947,7 @@
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="23" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>1754</v>
@@ -14830,12 +14955,12 @@
     </row>
     <row r="41" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F41" s="23" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="42" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F42" s="23" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -14881,7 +15006,7 @@
         <v>1785</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -14892,39 +15017,39 @@
     <row r="48" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B49" s="32">
         <v>14</v>
       </c>
       <c r="C49" s="32" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D49" s="32" t="s">
         <v>2021</v>
       </c>
-      <c r="D49" s="32" t="s">
-        <v>2022</v>
-      </c>
       <c r="E49" s="32" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="N49" s="32" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="N50" s="32" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -14945,10 +15070,10 @@
     </row>
     <row r="53" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="N53" s="32" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -14956,14 +15081,14 @@
         <v>15</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="D54" s="20"/>
       <c r="E54" s="20" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -14993,7 +15118,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:BN175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AW1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AY25" sqref="AY25"/>
     </sheetView>
   </sheetViews>
@@ -15098,10 +15223,10 @@
         <v>1344</v>
       </c>
       <c r="M1" s="20" t="s">
+        <v>2201</v>
+      </c>
+      <c r="N1" s="20" t="s">
         <v>2202</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>2203</v>
       </c>
       <c r="P1" s="27" t="s">
         <v>1478</v>
@@ -15147,10 +15272,10 @@
         <v>1929</v>
       </c>
       <c r="AE1" s="14" t="s">
+        <v>2070</v>
+      </c>
+      <c r="AF1" s="14" t="s">
         <v>2071</v>
-      </c>
-      <c r="AF1" s="14" t="s">
-        <v>2072</v>
       </c>
       <c r="AG1" s="62" t="s">
         <v>1920</v>
@@ -15177,82 +15302,82 @@
         <v>1933</v>
       </c>
       <c r="AO1" s="34" t="s">
+        <v>2073</v>
+      </c>
+      <c r="AP1" s="34" t="s">
         <v>2074</v>
       </c>
-      <c r="AP1" s="34" t="s">
-        <v>2075</v>
-      </c>
       <c r="AQ1" s="39" t="s">
+        <v>2085</v>
+      </c>
+      <c r="AR1" s="39" t="s">
         <v>2086</v>
       </c>
-      <c r="AR1" s="39" t="s">
-        <v>2087</v>
-      </c>
       <c r="AS1" s="59" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="AT1" s="59" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="AU1" s="62" t="s">
+        <v>2114</v>
+      </c>
+      <c r="AV1" s="62" t="s">
+        <v>2116</v>
+      </c>
+      <c r="AW1" s="44" t="s">
         <v>2115</v>
       </c>
-      <c r="AV1" s="62" t="s">
+      <c r="AX1" s="44" t="s">
         <v>2117</v>
       </c>
-      <c r="AW1" s="44" t="s">
-        <v>2116</v>
-      </c>
-      <c r="AX1" s="44" t="s">
-        <v>2118</v>
-      </c>
       <c r="AY1" s="14" t="s">
+        <v>2154</v>
+      </c>
+      <c r="AZ1" s="14" t="s">
         <v>2155</v>
       </c>
-      <c r="AZ1" s="14" t="s">
-        <v>2156</v>
-      </c>
       <c r="BA1" s="65" t="s">
+        <v>2199</v>
+      </c>
+      <c r="BB1" s="65" t="s">
         <v>2200</v>
       </c>
-      <c r="BB1" s="65" t="s">
-        <v>2201</v>
-      </c>
       <c r="BC1" s="12" t="s">
+        <v>2250</v>
+      </c>
+      <c r="BD1" s="12" t="s">
         <v>2251</v>
       </c>
-      <c r="BD1" s="12" t="s">
+      <c r="BE1" s="24" t="s">
         <v>2252</v>
       </c>
-      <c r="BE1" s="24" t="s">
+      <c r="BF1" s="24" t="s">
         <v>2253</v>
       </c>
-      <c r="BF1" s="24" t="s">
-        <v>2254</v>
-      </c>
       <c r="BG1" s="34" t="s">
+        <v>2210</v>
+      </c>
+      <c r="BH1" s="34" t="s">
         <v>2211</v>
       </c>
-      <c r="BH1" s="34" t="s">
-        <v>2212</v>
-      </c>
       <c r="BI1" s="20" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="BJ1" s="20" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="BK1" s="9" t="s">
+        <v>2225</v>
+      </c>
+      <c r="BL1" s="9" t="s">
         <v>2226</v>
       </c>
-      <c r="BL1" s="9" t="s">
-        <v>2227</v>
-      </c>
       <c r="BM1" s="59" t="s">
+        <v>2232</v>
+      </c>
+      <c r="BN1" s="59" t="s">
         <v>2233</v>
-      </c>
-      <c r="BN1" s="59" t="s">
-        <v>2234</v>
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.25">
@@ -15260,7 +15385,7 @@
         <v>1773</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1165</v>
@@ -15407,10 +15532,10 @@
         <v>1321</v>
       </c>
       <c r="AY2" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="AZ2" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="BA2" t="s">
         <v>1165</v>
@@ -15452,7 +15577,7 @@
         <v>649</v>
       </c>
       <c r="BN2" s="4" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.25">
@@ -15460,7 +15585,7 @@
         <v>1772</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1166</v>
@@ -15607,10 +15732,10 @@
         <v>1322</v>
       </c>
       <c r="AY3" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="AZ3" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="BA3" t="s">
         <v>1166</v>
@@ -15649,10 +15774,10 @@
         <v>1322</v>
       </c>
       <c r="BM3" s="4" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="BN3" s="4" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.25">
@@ -15660,7 +15785,7 @@
         <v>1913</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>509</v>
@@ -15729,16 +15854,16 @@
         <v>1925</v>
       </c>
       <c r="Y4" s="3" t="s">
+        <v>2001</v>
+      </c>
+      <c r="Z4" s="3" t="s">
         <v>2002</v>
       </c>
-      <c r="Z4" s="3" t="s">
-        <v>2003</v>
-      </c>
       <c r="AA4" s="3" t="s">
+        <v>2001</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>2002</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>2003</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>1910</v>
@@ -15798,19 +15923,19 @@
         <v>1041</v>
       </c>
       <c r="AV4" s="4" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="AW4" s="4" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="AX4" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="AY4" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="AZ4" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="BA4" t="s">
         <v>1483</v>
@@ -15825,22 +15950,22 @@
         <v>1954</v>
       </c>
       <c r="BE4" s="4" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="BF4" s="4" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="BG4" s="4" t="s">
         <v>1041</v>
       </c>
       <c r="BH4" s="4" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="BI4" s="4" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="BJ4" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="BK4" s="4" t="s">
         <v>509</v>
@@ -15849,10 +15974,10 @@
         <v>1323</v>
       </c>
       <c r="BM4" s="4" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="BN4" s="4" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.25">
@@ -15860,7 +15985,7 @@
         <v>1764</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>300</v>
@@ -15950,25 +16075,25 @@
         <v>1936</v>
       </c>
       <c r="AF5" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="AG5" s="3" t="s">
         <v>2001</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AH5" s="3" t="s">
         <v>2002</v>
       </c>
-      <c r="AH5" s="3" t="s">
-        <v>2003</v>
-      </c>
       <c r="AI5" s="3" t="s">
+        <v>2001</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
         <v>2002</v>
-      </c>
-      <c r="AJ5" s="3" t="s">
-        <v>2003</v>
       </c>
       <c r="AK5" s="4" t="s">
         <v>1081</v>
       </c>
       <c r="AL5" s="4" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="AM5" s="4" t="s">
         <v>1901</v>
@@ -15995,10 +16120,10 @@
         <v>1324</v>
       </c>
       <c r="AU5" s="4" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="AV5" s="4" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="AW5" s="4" t="s">
         <v>1057</v>
@@ -16007,10 +16132,10 @@
         <v>1955</v>
       </c>
       <c r="AY5" s="4" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="AZ5" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="BA5" t="s">
         <v>1939</v>
@@ -16028,19 +16153,19 @@
         <v>1041</v>
       </c>
       <c r="BF5" s="4" t="s">
+        <v>2124</v>
+      </c>
+      <c r="BG5" s="4" t="s">
+        <v>2118</v>
+      </c>
+      <c r="BH5" s="4" t="s">
         <v>2125</v>
       </c>
-      <c r="BG5" s="4" t="s">
-        <v>2119</v>
-      </c>
-      <c r="BH5" s="4" t="s">
-        <v>2126</v>
-      </c>
       <c r="BI5" s="4" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="BJ5" s="4" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="BK5" s="4" t="s">
         <v>120</v>
@@ -16049,18 +16174,18 @@
         <v>1324</v>
       </c>
       <c r="BM5" s="4" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="BN5" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>264</v>
@@ -16150,19 +16275,19 @@
         <v>1081</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="AG6" s="4" t="s">
         <v>1936</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="AI6" s="4" t="s">
         <v>1936</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="AK6" s="4" t="s">
         <v>1483</v>
@@ -16198,31 +16323,31 @@
         <v>1042</v>
       </c>
       <c r="AV6" s="4" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="AW6" s="4" t="s">
+        <v>2189</v>
+      </c>
+      <c r="AX6" s="4" t="s">
         <v>2190</v>
       </c>
-      <c r="AX6" s="4" t="s">
-        <v>2191</v>
-      </c>
       <c r="AY6" s="4" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="AZ6" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="BA6" t="s">
+        <v>2001</v>
+      </c>
+      <c r="BB6" s="3" t="s">
         <v>2002</v>
-      </c>
-      <c r="BB6" s="3" t="s">
-        <v>2003</v>
       </c>
       <c r="BC6" s="4" t="s">
         <v>1936</v>
       </c>
       <c r="BD6" s="4" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="BE6" s="4" t="s">
         <v>1057</v>
@@ -16234,25 +16359,25 @@
         <v>1042</v>
       </c>
       <c r="BH6" s="4" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="BI6" s="4" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="BJ6" s="4" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="BK6" s="4" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="BL6" s="4" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="BM6" s="4" t="s">
+        <v>2240</v>
+      </c>
+      <c r="BN6" s="66" t="s">
         <v>2241</v>
-      </c>
-      <c r="BN6" s="66" t="s">
-        <v>2242</v>
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.25">
@@ -16260,7 +16385,7 @@
         <v>1765</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>107</v>
@@ -16290,7 +16415,7 @@
         <v>1403</v>
       </c>
       <c r="L7" s="52" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>1349</v>
@@ -16356,13 +16481,13 @@
         <v>1081</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="AI7" s="4" t="s">
         <v>1081</v>
       </c>
       <c r="AJ7" s="4" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="AK7" s="4" t="s">
         <v>1047</v>
@@ -16395,22 +16520,22 @@
         <v>1435</v>
       </c>
       <c r="AU7" s="4" t="s">
+        <v>2147</v>
+      </c>
+      <c r="AV7" s="4" t="s">
         <v>2148</v>
-      </c>
-      <c r="AV7" s="4" t="s">
-        <v>2149</v>
       </c>
       <c r="AW7" s="4" t="s">
         <v>1058</v>
       </c>
       <c r="AX7" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="AY7" s="4" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="AZ7" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="BA7" t="s">
         <v>1047</v>
@@ -16428,31 +16553,31 @@
         <v>1058</v>
       </c>
       <c r="BF7" s="4" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="BG7" s="4" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="BH7" s="4" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="BI7" s="4" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="BJ7" s="4" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="BK7" s="4" t="s">
         <v>144</v>
       </c>
       <c r="BL7" s="4" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="BM7" t="s">
+        <v>2243</v>
+      </c>
+      <c r="BN7" t="s">
         <v>2244</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>2245</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.25">
@@ -16487,10 +16612,10 @@
         <v>1173</v>
       </c>
       <c r="K8" s="4" t="s">
+        <v>2004</v>
+      </c>
+      <c r="L8" s="52" t="s">
         <v>2005</v>
-      </c>
-      <c r="L8" s="52" t="s">
-        <v>2006</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>1350</v>
@@ -16601,22 +16726,22 @@
         <v>1955</v>
       </c>
       <c r="AW8" s="4" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="AX8" s="4" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="AY8" s="4" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="AZ8" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="BA8" t="s">
         <v>1936</v>
       </c>
       <c r="BB8" s="4" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="BC8" s="4" t="s">
         <v>120</v>
@@ -16625,34 +16750,34 @@
         <v>1324</v>
       </c>
       <c r="BE8" s="4" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="BF8" s="4" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="BG8" s="4" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="BH8" s="4" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="BI8" s="4" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="BJ8" s="4" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="BK8" s="4" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="BL8" s="4" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="BM8" s="4" t="s">
+        <v>2245</v>
+      </c>
+      <c r="BN8" t="s">
         <v>2246</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>2247</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.25">
@@ -16660,7 +16785,7 @@
         <v>1767</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>0</v>
@@ -16701,7 +16826,7 @@
         <v>878</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>1438</v>
@@ -16782,19 +16907,19 @@
         <v>1058</v>
       </c>
       <c r="AV9" s="4" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="AW9" s="49" t="s">
+        <v>2197</v>
+      </c>
+      <c r="AX9" s="4" t="s">
         <v>2198</v>
       </c>
-      <c r="AX9" s="4" t="s">
-        <v>2199</v>
-      </c>
       <c r="AY9" s="4" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="AZ9" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="BA9" t="s">
         <v>509</v>
@@ -16812,33 +16937,33 @@
         <v>1042</v>
       </c>
       <c r="BF9" s="4" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="BG9" s="4" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="BH9" s="4" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="BI9" s="4" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="BJ9" s="4" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="BK9" s="4" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="BL9" s="4" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="10" spans="1:66" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>1382</v>
@@ -16968,22 +17093,22 @@
         <v>1924</v>
       </c>
       <c r="AU10" s="4" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="AV10" s="4" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="AW10" s="4" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="AX10" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="AY10" s="4" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="AZ10" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="BA10" t="s">
         <v>120</v>
@@ -16998,22 +17123,22 @@
         <v>1435</v>
       </c>
       <c r="BG10" s="4" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="BH10" s="4" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="BI10" s="4" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="BJ10" s="4" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="BK10" s="4" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="BL10" s="4" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.25">
@@ -17021,7 +17146,7 @@
         <v>1768</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>1383</v>
@@ -17130,40 +17255,40 @@
         <v>1952</v>
       </c>
       <c r="AO11" s="3" t="s">
+        <v>2001</v>
+      </c>
+      <c r="AP11" s="3" t="s">
         <v>2002</v>
       </c>
-      <c r="AP11" s="3" t="s">
-        <v>2003</v>
-      </c>
       <c r="AQ11" s="3" t="s">
+        <v>2001</v>
+      </c>
+      <c r="AR11" s="3" t="s">
         <v>2002</v>
       </c>
-      <c r="AR11" s="3" t="s">
-        <v>2003</v>
-      </c>
       <c r="AS11" s="3" t="s">
+        <v>2001</v>
+      </c>
+      <c r="AT11" s="3" t="s">
         <v>2002</v>
       </c>
-      <c r="AT11" s="3" t="s">
-        <v>2003</v>
-      </c>
       <c r="AU11" s="4" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="AV11" s="4" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="AW11" s="4" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="AX11" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="AY11" s="4" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="AZ11" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="BA11" t="s">
         <v>1371</v>
@@ -17178,16 +17303,16 @@
         <v>1436</v>
       </c>
       <c r="BG11" s="4" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="BH11" s="4" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="BI11" s="4" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="BJ11" s="4" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.25">
@@ -17195,7 +17320,7 @@
         <v>1771</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>1</v>
@@ -17244,7 +17369,7 @@
         <v>1386</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="V12" s="56" t="s">
         <v>166</v>
@@ -17307,25 +17432,25 @@
         <v>1936</v>
       </c>
       <c r="AP12" s="4" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="AQ12" s="4" t="s">
         <v>1936</v>
       </c>
       <c r="AR12" s="4" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="AS12" s="4" t="s">
         <v>1936</v>
       </c>
       <c r="AT12" s="4" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="AU12" s="49" t="s">
+        <v>2197</v>
+      </c>
+      <c r="AV12" s="4" t="s">
         <v>2198</v>
-      </c>
-      <c r="AV12" s="4" t="s">
-        <v>2199</v>
       </c>
       <c r="AW12" s="4" t="s">
         <v>1939</v>
@@ -17334,10 +17459,10 @@
         <v>1924</v>
       </c>
       <c r="AY12" s="4" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="AZ12" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="BA12" t="s">
         <v>134</v>
@@ -17352,16 +17477,16 @@
         <v>1956</v>
       </c>
       <c r="BG12" s="4" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="BH12" s="4" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="BI12" s="4" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="BJ12" s="4" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.25">
@@ -17491,22 +17616,22 @@
         <v>1955</v>
       </c>
       <c r="AU13" s="4" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="AV13" s="4" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="AW13" s="4" t="s">
+        <v>2001</v>
+      </c>
+      <c r="AX13" t="s">
         <v>2002</v>
       </c>
-      <c r="AX13" t="s">
-        <v>2003</v>
-      </c>
       <c r="AY13" s="4" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="AZ13" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="BA13" t="s">
         <v>139</v>
@@ -17521,21 +17646,21 @@
         <v>1944</v>
       </c>
       <c r="BG13" s="4" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="BH13" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="BI13" s="4" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="BJ13" s="4" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>1334</v>
@@ -17660,22 +17785,22 @@
         <v>1944</v>
       </c>
       <c r="AU14" s="4" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="AV14" s="4" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="AW14" s="4" t="s">
         <v>1936</v>
       </c>
       <c r="AX14" s="4" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="AY14" s="4" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="AZ14" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="BA14" s="4" t="s">
         <v>1484</v>
@@ -17690,16 +17815,16 @@
         <v>1945</v>
       </c>
       <c r="BG14" s="4" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="BH14" s="4" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="BI14" s="4" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="BJ14" s="4" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.25">
@@ -17832,13 +17957,13 @@
         <v>1081</v>
       </c>
       <c r="AX15" s="4" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="AY15" s="4" t="s">
+        <v>2367</v>
+      </c>
+      <c r="AZ15" t="s">
         <v>2368</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>2369</v>
       </c>
       <c r="BA15" t="s">
         <v>1938</v>
@@ -17853,16 +17978,16 @@
         <v>1946</v>
       </c>
       <c r="BG15" s="4" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="BH15" s="4" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="BI15" s="4" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="BJ15" s="4" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.25">
@@ -17953,25 +18078,25 @@
         <v>1372</v>
       </c>
       <c r="AP16" s="4" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="AQ16" s="4" t="s">
         <v>1372</v>
       </c>
       <c r="AR16" s="4" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="AS16" s="4" t="s">
         <v>1372</v>
       </c>
       <c r="AT16" s="4" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="AU16" s="4" t="s">
+        <v>2001</v>
+      </c>
+      <c r="AV16" s="4" t="s">
         <v>2002</v>
-      </c>
-      <c r="AV16" s="4" t="s">
-        <v>2003</v>
       </c>
       <c r="AW16" s="4" t="s">
         <v>1941</v>
@@ -17987,22 +18112,22 @@
         <v>1945</v>
       </c>
       <c r="BC16" s="4" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="BD16" s="4" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="BG16" s="4" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="BH16" s="4" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="BI16" s="4" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="BJ16" s="4" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.25">
@@ -18081,25 +18206,25 @@
         <v>566</v>
       </c>
       <c r="AP17" s="57" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="AQ17" s="4" t="s">
         <v>566</v>
       </c>
       <c r="AR17" s="57" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="AS17" s="4" t="s">
         <v>566</v>
       </c>
       <c r="AT17" s="57" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="AU17" s="4" t="s">
         <v>1936</v>
       </c>
       <c r="AV17" s="4" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="AW17" s="4" t="s">
         <v>1942</v>
@@ -18115,16 +18240,16 @@
         <v>1946</v>
       </c>
       <c r="BG17" s="14" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="BH17" s="14" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="BI17" s="4" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="BJ17" s="4" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.25">
@@ -18198,44 +18323,44 @@
         <v>832</v>
       </c>
       <c r="AP18" s="4" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="AQ18" s="4" t="s">
         <v>122</v>
       </c>
       <c r="AR18" s="4" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="AS18" s="4" t="s">
         <v>122</v>
       </c>
       <c r="AT18" s="4" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="AU18" s="4" t="s">
         <v>1081</v>
       </c>
       <c r="AV18" s="4" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="AW18" s="4" t="s">
         <v>1372</v>
       </c>
       <c r="AX18" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="AY18" s="4"/>
       <c r="BG18" s="14" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="BH18" s="14" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="BI18" s="4" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="BJ18" s="4" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.25">
@@ -18280,10 +18405,10 @@
         <v>840</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="AG19" s="4" t="s">
         <v>840</v>
@@ -18311,7 +18436,7 @@
         <v>1954</v>
       </c>
       <c r="AQ19" s="4" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="AR19" s="4" t="s">
         <v>125</v>
@@ -18336,16 +18461,16 @@
       </c>
       <c r="AY19" s="4"/>
       <c r="BG19" s="14" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="BH19" s="14" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="BI19" s="4" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="BJ19" s="4" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.25">
@@ -18405,10 +18530,10 @@
         <v>122</v>
       </c>
       <c r="AP20" s="4" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="AQ20" s="4" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="AR20" s="4" t="s">
         <v>1438</v>
@@ -18426,23 +18551,23 @@
         <v>1946</v>
       </c>
       <c r="AW20" s="4" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="AX20" s="4" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="AY20" s="4"/>
       <c r="BG20" s="4" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="BH20" s="4" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="BI20" s="4" t="s">
         <v>1052</v>
       </c>
       <c r="BJ20" s="4" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.25">
@@ -18508,7 +18633,7 @@
         <v>1</v>
       </c>
       <c r="AR21" s="4" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="AS21" s="4" t="s">
         <v>570</v>
@@ -18520,26 +18645,26 @@
         <v>1372</v>
       </c>
       <c r="AV21" s="4" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="AW21" s="4" t="s">
         <v>832</v>
       </c>
       <c r="AX21" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="AY21" s="4"/>
       <c r="BG21" s="4" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="BH21" s="4" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="BI21" s="4" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="BJ21" s="4" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.25">
@@ -18602,10 +18727,10 @@
         <v>172</v>
       </c>
       <c r="AQ22" s="4" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="AR22" s="4" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="AS22" s="4" t="s">
         <v>143</v>
@@ -18627,16 +18752,16 @@
       </c>
       <c r="AY22" s="4"/>
       <c r="BG22" s="4" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="BH22" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="BI22" s="4" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="BJ22" s="4" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="23" spans="1:62" x14ac:dyDescent="0.25">
@@ -18699,10 +18824,10 @@
         <v>179</v>
       </c>
       <c r="AQ23" s="4" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="AR23" s="4" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="AS23" s="4" t="s">
         <v>150</v>
@@ -18711,10 +18836,10 @@
         <v>150</v>
       </c>
       <c r="AU23" s="4" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="AV23" s="4" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="AW23" s="4" t="s">
         <v>509</v>
@@ -18724,16 +18849,16 @@
       </c>
       <c r="AY23" s="4"/>
       <c r="BG23" s="4" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="BH23" s="4" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="BI23" s="4" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="BJ23" s="4" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="24" spans="1:62" x14ac:dyDescent="0.25">
@@ -18795,10 +18920,10 @@
         <v>185</v>
       </c>
       <c r="AQ24" s="4" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="AR24" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="AS24" s="4" t="s">
         <v>571</v>
@@ -18810,7 +18935,7 @@
         <v>832</v>
       </c>
       <c r="AV24" s="4" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="AW24" s="4" t="s">
         <v>120</v>
@@ -18819,16 +18944,16 @@
         <v>1324</v>
       </c>
       <c r="BG24" s="4" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="BH24" s="4" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="BI24" s="4" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="BJ24" s="4" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.25">
@@ -18882,7 +19007,7 @@
         <v>1398</v>
       </c>
       <c r="AR25" s="4" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="AS25" s="4" t="s">
         <v>756</v>
@@ -18897,22 +19022,22 @@
         <v>1956</v>
       </c>
       <c r="AW25" s="4" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="AX25" s="4" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="BG25" s="4" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="BH25" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="BI25" s="4" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="BJ25" s="4" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.25">
@@ -18956,10 +19081,10 @@
         <v>197</v>
       </c>
       <c r="AQ26" s="4" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="AR26" s="4" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="AS26" s="4" t="s">
         <v>1384</v>
@@ -18974,22 +19099,22 @@
         <v>1323</v>
       </c>
       <c r="AW26" s="4" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="AX26" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="BG26" s="4" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="BH26" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="BI26" s="4" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="BJ26" s="4" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.25">
@@ -19034,10 +19159,10 @@
         <v>205</v>
       </c>
       <c r="AQ27" s="4" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="AR27" s="4" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="AS27" s="4" t="s">
         <v>757</v>
@@ -19052,22 +19177,22 @@
         <v>1324</v>
       </c>
       <c r="AW27" s="4" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="AX27" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="BG27" s="4" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="BH27" s="4" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="BI27" s="4" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="BJ27" s="4" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.25">
@@ -19115,7 +19240,7 @@
         <v>665</v>
       </c>
       <c r="AR28" s="4" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="AS28" s="4" t="s">
         <v>758</v>
@@ -19124,28 +19249,28 @@
         <v>758</v>
       </c>
       <c r="AU28" s="4" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="AV28" s="4" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="AW28" s="4" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="AX28" s="4" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="BG28" s="4" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="BH28" s="4" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="BI28" s="4" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="BJ28" s="4" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.25">
@@ -19189,10 +19314,10 @@
         <v>213</v>
       </c>
       <c r="AQ29" s="4" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="AR29" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="AS29" s="4" t="s">
         <v>759</v>
@@ -19201,22 +19326,22 @@
         <v>759</v>
       </c>
       <c r="AU29" s="4" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="AV29" s="4" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="AW29" s="4" t="s">
+        <v>2311</v>
+      </c>
+      <c r="AX29" s="4" t="s">
         <v>2312</v>
       </c>
-      <c r="AX29" s="4" t="s">
-        <v>2313</v>
-      </c>
       <c r="BI29" s="4" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="BJ29" s="4" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.25">
@@ -19265,7 +19390,7 @@
         <v>666</v>
       </c>
       <c r="AR30" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="AS30" s="4" t="s">
         <v>760</v>
@@ -19274,22 +19399,22 @@
         <v>760</v>
       </c>
       <c r="AU30" s="4" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="AV30" s="4" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="AW30" s="4" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="AX30" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="BI30" s="4" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="BJ30" s="4" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.25">
@@ -19343,7 +19468,7 @@
         <v>667</v>
       </c>
       <c r="AR31" s="4" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="AS31" s="4" t="s">
         <v>761</v>
@@ -19352,22 +19477,22 @@
         <v>761</v>
       </c>
       <c r="AU31" s="4" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="AV31" s="4" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="AW31" s="4" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="AX31" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="BI31" s="4" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="BJ31" s="4" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="32" spans="1:62" ht="30" x14ac:dyDescent="0.25">
@@ -19423,7 +19548,7 @@
         <v>668</v>
       </c>
       <c r="AR32" s="4" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="AS32" s="4" t="s">
         <v>762</v>
@@ -19432,22 +19557,22 @@
         <v>762</v>
       </c>
       <c r="AU32" s="4" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="AV32" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="AW32" s="4" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="AX32" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="BI32" s="4" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="BJ32" s="4" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="33" spans="3:62" x14ac:dyDescent="0.25">
@@ -19502,7 +19627,7 @@
         <v>669</v>
       </c>
       <c r="AR33" s="4" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="AS33" s="4" t="s">
         <v>763</v>
@@ -19511,22 +19636,22 @@
         <v>763</v>
       </c>
       <c r="AU33" s="4" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="AV33" s="4" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="AW33" s="4" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="AX33" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="BI33" s="4" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="BJ33" s="4" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="34" spans="3:62" x14ac:dyDescent="0.25">
@@ -19584,7 +19709,7 @@
         <v>670</v>
       </c>
       <c r="AR34" s="4" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="AS34" s="4" t="s">
         <v>764</v>
@@ -19593,10 +19718,10 @@
         <v>764</v>
       </c>
       <c r="BI34" s="4" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="BJ34" s="4" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="35" spans="3:62" ht="30" x14ac:dyDescent="0.25">
@@ -19656,7 +19781,7 @@
         <v>671</v>
       </c>
       <c r="AR35" s="4" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="AS35" s="4" t="s">
         <v>765</v>
@@ -19665,10 +19790,10 @@
         <v>765</v>
       </c>
       <c r="BI35" s="4" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="BJ35" s="4" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="36" spans="3:62" x14ac:dyDescent="0.25">
@@ -19719,7 +19844,7 @@
         <v>672</v>
       </c>
       <c r="AR36" s="4" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="AS36" s="4" t="s">
         <v>766</v>
@@ -19728,10 +19853,10 @@
         <v>766</v>
       </c>
       <c r="BI36" s="4" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="BJ36" s="4" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="37" spans="3:62" x14ac:dyDescent="0.25">
@@ -20175,7 +20300,7 @@
         <v>680</v>
       </c>
       <c r="AR44" s="4" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="AS44" s="4" t="s">
         <v>774</v>
@@ -20227,7 +20352,7 @@
         <v>681</v>
       </c>
       <c r="AR45" s="4" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="AS45" s="4" t="s">
         <v>775</v>
@@ -21506,7 +21631,7 @@
     </row>
     <row r="103" spans="15:42" x14ac:dyDescent="0.25">
       <c r="O103" s="4" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="AO103" s="4" t="s">
         <v>607</v>
@@ -22905,24 +23030,24 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B1" s="67" t="s">
         <v>1398</v>
       </c>
       <c r="C1" s="67" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>2141</v>
+      </c>
+      <c r="E1" s="67" t="s">
         <v>2080</v>
-      </c>
-      <c r="D1" s="67" t="s">
-        <v>2142</v>
-      </c>
-      <c r="E1" s="67" t="s">
-        <v>2081</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B2" s="57">
         <v>4</v>
@@ -22931,7 +23056,7 @@
         <v>1683</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1684</v>
@@ -22948,7 +23073,7 @@
         <v>1683</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>1684</v>
@@ -22965,7 +23090,7 @@
         <v>1683</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>1695</v>
@@ -22982,7 +23107,7 @@
         <v>1686</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>1695</v>
@@ -22999,7 +23124,7 @@
         <v>1686</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>1695</v>
@@ -23016,7 +23141,7 @@
         <v>1683</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1693</v>
@@ -23033,7 +23158,7 @@
         <v>1683</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>1695</v>
@@ -23050,7 +23175,7 @@
         <v>1683</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>1696</v>
@@ -23067,7 +23192,7 @@
         <v>1683</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>1696</v>
@@ -23084,7 +23209,7 @@
         <v>1683</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>1684</v>
@@ -23101,7 +23226,7 @@
         <v>1683</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>1696</v>
@@ -23111,7 +23236,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B13" s="4">
         <v>16</v>
@@ -23120,17 +23245,17 @@
         <v>1686</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B14" s="4">
         <v>16</v>
@@ -23139,15 +23264,15 @@
         <v>1683</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B15">
         <v>32</v>
@@ -23156,7 +23281,7 @@
         <v>1683</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E15" t="s">
         <v>1700</v>
@@ -23164,7 +23289,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B16">
         <v>32</v>
@@ -23173,7 +23298,7 @@
         <v>1683</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>1700</v>
@@ -23181,7 +23306,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B17">
         <v>32</v>
@@ -23190,7 +23315,7 @@
         <v>1686</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>1700</v>
@@ -23198,7 +23323,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -23207,7 +23332,7 @@
         <v>1686</v>
       </c>
       <c r="D18" s="57" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>1694</v>
@@ -23221,10 +23346,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
-  <dimension ref="A1:N178"/>
+  <dimension ref="A1:N210"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="E214" sqref="E214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23538,7 +23663,7 @@
         <v>1538</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="D26" s="4"/>
     </row>
@@ -23718,7 +23843,7 @@
         <v>1538</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1974</v>
+        <v>1969</v>
       </c>
       <c r="D41" s="4"/>
     </row>
@@ -23905,7 +24030,7 @@
     </row>
     <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>1560</v>
@@ -23916,7 +24041,7 @@
     </row>
     <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>1560</v>
@@ -24644,7 +24769,7 @@
     </row>
     <row r="119" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>1560</v>
@@ -24742,10 +24867,10 @@
         <v>1633</v>
       </c>
       <c r="B127" s="4" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>1987</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>1988</v>
       </c>
       <c r="D127" s="4"/>
     </row>
@@ -24833,7 +24958,7 @@
     </row>
     <row r="135" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>1672</v>
@@ -25119,7 +25244,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>1657</v>
@@ -25130,7 +25255,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>1657</v>
@@ -25141,7 +25266,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>1657</v>
@@ -25152,7 +25277,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B163" t="s">
         <v>1517</v>
@@ -25163,29 +25288,29 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>1517</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B165" t="s">
         <v>1517</v>
       </c>
       <c r="C165" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>1517</v>
@@ -25196,7 +25321,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B167" t="s">
         <v>1517</v>
@@ -25207,7 +25332,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B168" t="s">
         <v>1657</v>
@@ -25218,29 +25343,29 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>1517</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>1517</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>1657</v>
@@ -25251,7 +25376,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B172" t="s">
         <v>1560</v>
@@ -25262,7 +25387,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>1517</v>
@@ -25273,7 +25398,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="55" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>1517</v>
@@ -25282,21 +25407,432 @@
         <v>1669</v>
       </c>
     </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1664</v>
+      </c>
+    </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="4"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="4"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="4"/>
+      <c r="A176" s="4" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D177" s="4"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D178" s="4"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D179" s="4"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D180" s="4"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D181" s="4"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D182" s="4"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D183" s="4"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D184" s="4"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D185" s="4"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D186" s="4"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D187" s="4"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D188" s="4"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D189" s="4"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D190" s="4"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D191" s="4"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D192" s="4"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D193" s="4"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>2386</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D194" s="4"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D195" s="4"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D196" s="4"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>2398</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>2399</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>1662</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1059:A1048576 A1:A56 A120:A134 A136:A159 A59:A118">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="A1056:A1048576 A1:A56 A120:A134 A136:A159 A59:A118">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25451,13 +25987,13 @@
     <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="G7" s="7" t="s">
+        <v>2030</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>2031</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>2031</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>2032</v>
       </c>
       <c r="J7" s="5"/>
     </row>
@@ -25524,7 +26060,7 @@
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="13" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>340</v>
@@ -25542,7 +26078,7 @@
         <v>357</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -25552,7 +26088,7 @@
       <c r="D13" s="12"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -25566,7 +26102,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="12" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -25778,7 +26314,7 @@
         <v>451</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>343</v>
@@ -25803,7 +26339,7 @@
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -25816,7 +26352,7 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="F32" s="16" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -25984,7 +26520,7 @@
         <v>511</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -26734,17 +27270,17 @@
     </row>
     <row r="49" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B49" s="10"/>
       <c r="D49" s="10" t="s">
         <v>448</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J49" s="3"/>
     </row>
@@ -27617,11 +28153,11 @@
         <v>143</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -27671,7 +28207,7 @@
       </c>
       <c r="D23" s="44"/>
       <c r="E23" s="44" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="F23" s="44" t="s">
         <v>1486</v>
@@ -27692,7 +28228,7 @@
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
       <c r="F24" s="44" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>165</v>
@@ -27706,7 +28242,7 @@
         <v>179</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>172</v>
@@ -29540,7 +30076,7 @@
         <v>264</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>264</v>
@@ -29566,7 +30102,7 @@
         <v>157</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>157</v>
@@ -29589,7 +30125,7 @@
         <v>134</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -29621,7 +30157,7 @@
         <v>139</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -29641,7 +30177,7 @@
         <v>125</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -29657,10 +30193,10 @@
         <v>129</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="J12" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -29676,7 +30212,7 @@
         <v>133</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -29695,7 +30231,7 @@
         <v>665</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -29721,10 +30257,10 @@
         <v>146</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -29740,7 +30276,7 @@
         <v>666</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -29769,7 +30305,7 @@
         <v>667</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -29785,7 +30321,7 @@
         <v>668</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -29813,7 +30349,7 @@
         <v>669</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -31564,7 +32100,7 @@
       </c>
       <c r="F3" s="59"/>
       <c r="G3" s="59" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="H3" s="59" t="s">
         <v>1791</v>
@@ -31573,7 +32109,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
       <c r="B4" s="59" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C4" s="59" t="s">
         <v>810</v>
@@ -31756,7 +32292,7 @@
         <v>1866</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>1863</v>
@@ -31814,7 +32350,7 @@
         <v>1898</v>
       </c>
       <c r="G27" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="H27" t="s">
         <v>1815</v>
@@ -31832,17 +32368,17 @@
     </row>
     <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H30" s="4" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H31" s="4" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H32" s="4" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -31861,7 +32397,7 @@
         <v>1899</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>1895</v>
@@ -31874,17 +32410,17 @@
     </row>
     <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H37" s="4" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H38" s="4" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H39" s="4" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -32071,7 +32607,7 @@
         <v>1841</v>
       </c>
       <c r="G62" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="H62" t="s">
         <v>1839</v>
@@ -32084,7 +32620,7 @@
     </row>
     <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H64" s="4" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -32276,13 +32812,13 @@
         <v>19</v>
       </c>
       <c r="E88" s="4" t="s">
+        <v>1998</v>
+      </c>
+      <c r="G88" s="4" t="s">
         <v>1999</v>
       </c>
-      <c r="G88" s="4" t="s">
-        <v>2000</v>
-      </c>
       <c r="H88" s="4" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -33,7 +33,7 @@
     <sheet name="Sheet2" sheetId="19" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">nameserver!$A$1:$J$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">nameserver!$A$1:$J$104</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">oui!$A$1:$N$202</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">sfp_models!$A$1:$G$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">switch_models!$A$1:$H$78</definedName>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5953" uniqueCount="2405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5955" uniqueCount="2407">
   <si>
     <t>switchType</t>
   </si>
@@ -6170,9 +6170,6 @@
     <t>enc0:1:X1  OK      8Gb    20:00:00:11:0a:02:24:ed  10:00:00:05:33:8a:96:c7</t>
   </si>
   <si>
-    <t>^ *\w+:(\d+):(\w+) +[\w]+ +([\w]+) +((?:[0-9a-fA-F]{2}:){7}[0-9a-fA-F]{2}) +((?:[0-9a-fA-F]{2}:){7}[0-9a-f]{2}) *$</t>
-  </si>
-  <si>
     <t>43:80:13</t>
   </si>
   <si>
@@ -6206,9 +6203,6 @@
     <t>VMWARE</t>
   </si>
   <si>
-    <t>[\da-f]{16}|[\da-f]{8}-([\da-f]{4}-){3}[\da-f]{8}|AG-FDMI|ESXHost|ESXi|\(none\)|^localhost(?:.\w+)?</t>
-  </si>
-  <si>
     <t>^(HSV\d{3}) +- +([\w \-]+) +- +CR\w{4} *$</t>
   </si>
   <si>
@@ -7266,6 +7260,18 @@
   </si>
   <si>
     <t>76:07:66</t>
+  </si>
+  <si>
+    <t>QLGC IP REG: IPV4 :00000000 IPV6 :00000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>Embedded-AG</t>
+  </si>
+  <si>
+    <t>[\da-f]{16}|[\da-f]{8}-([\da-f]{4}-){3}[\da-f]{8}|AG-FDMI|ESXHost|ESXi|\(none\)|^localhost(?:.\w+)?|Embedded-AG|^QLGC IP REG: +(IPV[46] *: *0+ *)+$</t>
+  </si>
+  <si>
+    <t>^ *\w+:(\d+):(\w+) +[\w]+ +([\w]+) +((?:[0-9a-fA-F]{2}:){7}[0-9a-fA-F]{2}) +((?:[0-9a-fA-F]{2}:){7}[0-9a-fA-F]{2}) *$</t>
   </si>
 </sst>
 </file>
@@ -9083,7 +9089,7 @@
         <v>1126</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>1097</v>
@@ -9109,7 +9115,7 @@
         <v>1110</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>1097</v>
@@ -9239,7 +9245,7 @@
         <v>1124</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>1097</v>
@@ -9499,7 +9505,7 @@
         <v>1120</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>1097</v>
@@ -9551,7 +9557,7 @@
         <v>1119</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>4</v>
@@ -9577,7 +9583,7 @@
         <v>1118</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>1097</v>
@@ -9603,7 +9609,7 @@
         <v>1118</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>1097</v>
@@ -9629,7 +9635,7 @@
         <v>1129</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>1097</v>
@@ -9655,7 +9661,7 @@
         <v>1130</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>1097</v>
@@ -9733,7 +9739,7 @@
         <v>82</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>1097</v>
@@ -9759,7 +9765,7 @@
         <v>84</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>1097</v>
@@ -9785,7 +9791,7 @@
         <v>1117</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>1097</v>
@@ -9837,7 +9843,7 @@
         <v>89</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>1097</v>
@@ -9863,7 +9869,7 @@
         <v>1976</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>1097</v>
@@ -9871,13 +9877,13 @@
     </row>
     <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>4</v>
@@ -9886,7 +9892,7 @@
         <v>16</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>1096</v>
@@ -9915,7 +9921,7 @@
         <v>1162</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>1097</v>
@@ -9941,7 +9947,7 @@
         <v>1121</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>1097</v>
@@ -9967,7 +9973,7 @@
         <v>1122</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>1097</v>
@@ -9993,7 +9999,7 @@
         <v>1163</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>1097</v>
@@ -10019,7 +10025,7 @@
         <v>1164</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>1097</v>
@@ -11369,16 +11375,16 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>264</v>
@@ -11955,7 +11961,7 @@
       <c r="L37"/>
       <c r="M37"/>
       <c r="N37" s="4" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="O37"/>
       <c r="P37"/>
@@ -12381,16 +12387,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>533</v>
@@ -12483,38 +12489,38 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="B13" s="34">
         <v>1</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
       <c r="F14" s="34" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>144</v>
@@ -12522,32 +12528,32 @@
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
       <c r="F15" s="34" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
       <c r="F16" s="34" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12560,7 +12566,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="4" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -13131,7 +13137,7 @@
         <v>522</v>
       </c>
       <c r="K1" s="68" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>894</v>
@@ -13894,13 +13900,13 @@
         <v>1054</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>522</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -14001,26 +14007,26 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I6" s="8" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="8" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -14156,7 +14162,7 @@
         <v>1062</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>1063</v>
@@ -14225,13 +14231,13 @@
         <v>1057</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -14305,65 +14311,65 @@
         <v>8</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="E22" s="14" t="s">
+        <v>2257</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>2259</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>2261</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="B24" s="39">
         <v>9</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="39" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="63" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="B26" s="63">
         <v>10</v>
       </c>
       <c r="C26" s="63" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D26" s="63"/>
       <c r="E26" s="63" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="F26" s="63" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F27" s="63" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -14371,26 +14377,26 @@
         <v>11</v>
       </c>
       <c r="C29" s="14" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>2272</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>2274</v>
-      </c>
       <c r="E29" s="14" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F30" s="14" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F31" s="14" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -14400,12 +14406,12 @@
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" s="14" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34" s="14" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
     </row>
   </sheetData>
@@ -14418,7 +14424,7 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
@@ -14850,7 +14856,7 @@
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>1751</v>
@@ -14876,7 +14882,7 @@
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -14947,7 +14953,7 @@
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="23" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>1754</v>
@@ -14955,12 +14961,12 @@
     </row>
     <row r="41" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F41" s="23" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="42" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F42" s="23" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -15029,7 +15035,7 @@
         <v>2021</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>2039</v>
+        <v>2406</v>
       </c>
       <c r="F49" s="32" t="s">
         <v>2023</v>
@@ -15081,14 +15087,14 @@
         <v>15</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="D54" s="20"/>
       <c r="E54" s="20" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -15223,10 +15229,10 @@
         <v>1344</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="P1" s="27" t="s">
         <v>1478</v>
@@ -15272,10 +15278,10 @@
         <v>1929</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="AF1" s="14" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="AG1" s="62" t="s">
         <v>1920</v>
@@ -15302,82 +15308,82 @@
         <v>1933</v>
       </c>
       <c r="AO1" s="34" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="AP1" s="34" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="AQ1" s="39" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="AR1" s="39" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="AS1" s="59" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="AT1" s="59" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="AU1" s="62" t="s">
+        <v>2112</v>
+      </c>
+      <c r="AV1" s="62" t="s">
         <v>2114</v>
       </c>
-      <c r="AV1" s="62" t="s">
-        <v>2116</v>
-      </c>
       <c r="AW1" s="44" t="s">
+        <v>2113</v>
+      </c>
+      <c r="AX1" s="44" t="s">
         <v>2115</v>
       </c>
-      <c r="AX1" s="44" t="s">
-        <v>2117</v>
-      </c>
       <c r="AY1" s="14" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="AZ1" s="14" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="BA1" s="65" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="BB1" s="65" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="BC1" s="12" t="s">
+        <v>2248</v>
+      </c>
+      <c r="BD1" s="12" t="s">
+        <v>2249</v>
+      </c>
+      <c r="BE1" s="24" t="s">
         <v>2250</v>
       </c>
-      <c r="BD1" s="12" t="s">
+      <c r="BF1" s="24" t="s">
         <v>2251</v>
       </c>
-      <c r="BE1" s="24" t="s">
-        <v>2252</v>
-      </c>
-      <c r="BF1" s="24" t="s">
-        <v>2253</v>
-      </c>
       <c r="BG1" s="34" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="BH1" s="34" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="BI1" s="20" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="BJ1" s="20" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="BK1" s="9" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="BL1" s="9" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="BM1" s="59" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="BN1" s="59" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.25">
@@ -15385,7 +15391,7 @@
         <v>1773</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1165</v>
@@ -15532,10 +15538,10 @@
         <v>1321</v>
       </c>
       <c r="AY2" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="AZ2" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="BA2" t="s">
         <v>1165</v>
@@ -15577,7 +15583,7 @@
         <v>649</v>
       </c>
       <c r="BN2" s="4" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.25">
@@ -15585,7 +15591,7 @@
         <v>1772</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1166</v>
@@ -15732,10 +15738,10 @@
         <v>1322</v>
       </c>
       <c r="AY3" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="AZ3" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="BA3" t="s">
         <v>1166</v>
@@ -15774,10 +15780,10 @@
         <v>1322</v>
       </c>
       <c r="BM3" s="4" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="BN3" s="4" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.25">
@@ -15785,7 +15791,7 @@
         <v>1913</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>509</v>
@@ -15923,19 +15929,19 @@
         <v>1041</v>
       </c>
       <c r="AV4" s="4" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="AW4" s="4" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="AX4" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="AY4" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="AZ4" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="BA4" t="s">
         <v>1483</v>
@@ -15950,22 +15956,22 @@
         <v>1954</v>
       </c>
       <c r="BE4" s="4" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="BF4" s="4" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="BG4" s="4" t="s">
         <v>1041</v>
       </c>
       <c r="BH4" s="4" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="BI4" s="4" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="BJ4" s="4" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="BK4" s="4" t="s">
         <v>509</v>
@@ -15974,10 +15980,10 @@
         <v>1323</v>
       </c>
       <c r="BM4" s="4" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="BN4" s="4" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.25">
@@ -15985,7 +15991,7 @@
         <v>1764</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>300</v>
@@ -16093,7 +16099,7 @@
         <v>1081</v>
       </c>
       <c r="AL5" s="4" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="AM5" s="4" t="s">
         <v>1901</v>
@@ -16120,10 +16126,10 @@
         <v>1324</v>
       </c>
       <c r="AU5" s="4" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="AV5" s="4" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="AW5" s="4" t="s">
         <v>1057</v>
@@ -16132,10 +16138,10 @@
         <v>1955</v>
       </c>
       <c r="AY5" s="4" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="AZ5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="BA5" t="s">
         <v>1939</v>
@@ -16153,19 +16159,19 @@
         <v>1041</v>
       </c>
       <c r="BF5" s="4" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="BG5" s="4" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="BH5" s="4" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="BI5" s="4" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="BJ5" s="4" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="BK5" s="4" t="s">
         <v>120</v>
@@ -16174,10 +16180,10 @@
         <v>1324</v>
       </c>
       <c r="BM5" s="4" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="BN5" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.25">
@@ -16185,7 +16191,7 @@
         <v>2033</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>264</v>
@@ -16275,7 +16281,7 @@
         <v>1081</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="AG6" s="4" t="s">
         <v>1936</v>
@@ -16323,19 +16329,19 @@
         <v>1042</v>
       </c>
       <c r="AV6" s="4" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="AY6" s="4" t="s">
+        <v>2158</v>
+      </c>
+      <c r="AZ6" t="s">
         <v>2160</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>2162</v>
       </c>
       <c r="BA6" t="s">
         <v>2001</v>
@@ -16359,25 +16365,25 @@
         <v>1042</v>
       </c>
       <c r="BH6" s="4" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="BI6" s="4" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="BJ6" s="4" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="BK6" s="4" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="BL6" s="4" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="BM6" s="4" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="BN6" s="66" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.25">
@@ -16385,7 +16391,7 @@
         <v>1765</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>107</v>
@@ -16481,13 +16487,13 @@
         <v>1081</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="AI7" s="4" t="s">
         <v>1081</v>
       </c>
       <c r="AJ7" s="4" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="AK7" s="4" t="s">
         <v>1047</v>
@@ -16520,22 +16526,22 @@
         <v>1435</v>
       </c>
       <c r="AU7" s="4" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="AV7" s="4" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="AW7" s="4" t="s">
         <v>1058</v>
       </c>
       <c r="AX7" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="AY7" s="4" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="AZ7" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="BA7" t="s">
         <v>1047</v>
@@ -16553,31 +16559,31 @@
         <v>1058</v>
       </c>
       <c r="BF7" s="4" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="BG7" s="4" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="BH7" s="4" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="BI7" s="4" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="BJ7" s="4" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="BK7" s="4" t="s">
         <v>144</v>
       </c>
       <c r="BL7" s="4" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="BM7" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="BN7" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.25">
@@ -16726,16 +16732,16 @@
         <v>1955</v>
       </c>
       <c r="AW8" s="4" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="AX8" s="4" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="AY8" s="4" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="AZ8" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="BA8" t="s">
         <v>1936</v>
@@ -16750,34 +16756,34 @@
         <v>1324</v>
       </c>
       <c r="BE8" s="4" t="s">
+        <v>2148</v>
+      </c>
+      <c r="BF8" s="4" t="s">
         <v>2150</v>
       </c>
-      <c r="BF8" s="4" t="s">
-        <v>2152</v>
-      </c>
       <c r="BG8" s="4" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="BH8" s="4" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="BI8" s="4" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="BJ8" s="4" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="BK8" s="4" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="BL8" s="4" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="BM8" s="4" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="BN8" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.25">
@@ -16785,7 +16791,7 @@
         <v>1767</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>0</v>
@@ -16826,7 +16832,7 @@
         <v>878</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>1438</v>
@@ -16907,19 +16913,19 @@
         <v>1058</v>
       </c>
       <c r="AV9" s="4" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="AW9" s="49" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="AX9" s="4" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="AY9" s="4" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="AZ9" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="BA9" t="s">
         <v>509</v>
@@ -16937,25 +16943,25 @@
         <v>1042</v>
       </c>
       <c r="BF9" s="4" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="BG9" s="4" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="BH9" s="4" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="BI9" s="4" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="BJ9" s="4" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="BK9" s="4" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="BL9" s="4" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="10" spans="1:66" ht="30" x14ac:dyDescent="0.25">
@@ -16963,7 +16969,7 @@
         <v>2032</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>1382</v>
@@ -17093,22 +17099,22 @@
         <v>1924</v>
       </c>
       <c r="AU10" s="4" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="AV10" s="4" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="AW10" s="4" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="AX10" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="AY10" s="4" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="AZ10" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="BA10" t="s">
         <v>120</v>
@@ -17123,22 +17129,22 @@
         <v>1435</v>
       </c>
       <c r="BG10" s="4" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="BH10" s="4" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="BI10" s="4" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="BJ10" s="4" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="BK10" s="4" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="BL10" s="4" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.25">
@@ -17146,7 +17152,7 @@
         <v>1768</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>1383</v>
@@ -17273,22 +17279,22 @@
         <v>2002</v>
       </c>
       <c r="AU11" s="4" t="s">
+        <v>2117</v>
+      </c>
+      <c r="AV11" s="4" t="s">
+        <v>2132</v>
+      </c>
+      <c r="AW11" s="4" t="s">
         <v>2119</v>
       </c>
-      <c r="AV11" s="4" t="s">
-        <v>2134</v>
-      </c>
-      <c r="AW11" s="4" t="s">
-        <v>2121</v>
-      </c>
       <c r="AX11" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="AY11" s="4" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="AZ11" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="BA11" t="s">
         <v>1371</v>
@@ -17303,16 +17309,16 @@
         <v>1436</v>
       </c>
       <c r="BG11" s="4" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="BH11" s="4" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="BI11" s="4" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="BJ11" s="4" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.25">
@@ -17320,7 +17326,7 @@
         <v>1771</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>1</v>
@@ -17447,10 +17453,10 @@
         <v>2000</v>
       </c>
       <c r="AU12" s="49" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="AV12" s="4" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="AW12" s="4" t="s">
         <v>1939</v>
@@ -17459,10 +17465,10 @@
         <v>1924</v>
       </c>
       <c r="AY12" s="4" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="AZ12" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="BA12" t="s">
         <v>134</v>
@@ -17477,16 +17483,16 @@
         <v>1956</v>
       </c>
       <c r="BG12" s="4" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="BH12" s="4" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="BI12" s="4" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="BJ12" s="4" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.25">
@@ -17616,10 +17622,10 @@
         <v>1955</v>
       </c>
       <c r="AU13" s="4" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="AV13" s="4" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="AW13" s="4" t="s">
         <v>2001</v>
@@ -17628,10 +17634,10 @@
         <v>2002</v>
       </c>
       <c r="AY13" s="4" t="s">
+        <v>2169</v>
+      </c>
+      <c r="AZ13" t="s">
         <v>2171</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>2173</v>
       </c>
       <c r="BA13" t="s">
         <v>139</v>
@@ -17646,21 +17652,21 @@
         <v>1944</v>
       </c>
       <c r="BG13" s="4" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="BH13" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="BI13" s="4" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="BJ13" s="4" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>1334</v>
@@ -17785,10 +17791,10 @@
         <v>1944</v>
       </c>
       <c r="AU14" s="4" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="AV14" s="4" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="AW14" s="4" t="s">
         <v>1936</v>
@@ -17797,10 +17803,10 @@
         <v>2000</v>
       </c>
       <c r="AY14" s="4" t="s">
+        <v>2170</v>
+      </c>
+      <c r="AZ14" t="s">
         <v>2172</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>2174</v>
       </c>
       <c r="BA14" s="4" t="s">
         <v>1484</v>
@@ -17815,16 +17821,16 @@
         <v>1945</v>
       </c>
       <c r="BG14" s="4" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="BH14" s="4" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="BI14" s="4" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="BJ14" s="4" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.25">
@@ -17957,13 +17963,13 @@
         <v>1081</v>
       </c>
       <c r="AX15" s="4" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="AY15" s="4" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="AZ15" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="BA15" t="s">
         <v>1938</v>
@@ -17978,16 +17984,16 @@
         <v>1946</v>
       </c>
       <c r="BG15" s="4" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="BH15" s="4" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="BI15" s="4" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="BJ15" s="4" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.25">
@@ -18078,19 +18084,19 @@
         <v>1372</v>
       </c>
       <c r="AP16" s="4" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="AQ16" s="4" t="s">
         <v>1372</v>
       </c>
       <c r="AR16" s="4" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="AS16" s="4" t="s">
         <v>1372</v>
       </c>
       <c r="AT16" s="4" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="AU16" s="4" t="s">
         <v>2001</v>
@@ -18112,22 +18118,22 @@
         <v>1945</v>
       </c>
       <c r="BC16" s="4" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="BD16" s="4" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="BG16" s="4" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="BH16" s="4" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="BI16" s="4" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="BJ16" s="4" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.25">
@@ -18206,19 +18212,19 @@
         <v>566</v>
       </c>
       <c r="AP17" s="57" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="AQ17" s="4" t="s">
         <v>566</v>
       </c>
       <c r="AR17" s="57" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="AS17" s="4" t="s">
         <v>566</v>
       </c>
       <c r="AT17" s="57" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="AU17" s="4" t="s">
         <v>1936</v>
@@ -18240,16 +18246,16 @@
         <v>1946</v>
       </c>
       <c r="BG17" s="14" t="s">
+        <v>2288</v>
+      </c>
+      <c r="BH17" s="14" t="s">
         <v>2290</v>
       </c>
-      <c r="BH17" s="14" t="s">
-        <v>2292</v>
-      </c>
       <c r="BI17" s="4" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="BJ17" s="4" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.25">
@@ -18323,44 +18329,44 @@
         <v>832</v>
       </c>
       <c r="AP18" s="4" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="AQ18" s="4" t="s">
         <v>122</v>
       </c>
       <c r="AR18" s="4" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="AS18" s="4" t="s">
         <v>122</v>
       </c>
       <c r="AT18" s="4" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="AU18" s="4" t="s">
         <v>1081</v>
       </c>
       <c r="AV18" s="4" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="AW18" s="4" t="s">
         <v>1372</v>
       </c>
       <c r="AX18" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="AY18" s="4"/>
       <c r="BG18" s="14" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="BH18" s="14" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="BI18" s="4" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="BJ18" s="4" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.25">
@@ -18405,10 +18411,10 @@
         <v>840</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="AG19" s="4" t="s">
         <v>840</v>
@@ -18436,7 +18442,7 @@
         <v>1954</v>
       </c>
       <c r="AQ19" s="4" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="AR19" s="4" t="s">
         <v>125</v>
@@ -18461,16 +18467,16 @@
       </c>
       <c r="AY19" s="4"/>
       <c r="BG19" s="14" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="BH19" s="14" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="BI19" s="4" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="BJ19" s="4" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.25">
@@ -18530,10 +18536,10 @@
         <v>122</v>
       </c>
       <c r="AP20" s="4" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="AQ20" s="4" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="AR20" s="4" t="s">
         <v>1438</v>
@@ -18551,23 +18557,23 @@
         <v>1946</v>
       </c>
       <c r="AW20" s="4" t="s">
+        <v>2192</v>
+      </c>
+      <c r="AX20" s="4" t="s">
         <v>2194</v>
-      </c>
-      <c r="AX20" s="4" t="s">
-        <v>2196</v>
       </c>
       <c r="AY20" s="4"/>
       <c r="BG20" s="4" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="BH20" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="BI20" s="4" t="s">
         <v>1052</v>
       </c>
       <c r="BJ20" s="4" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.25">
@@ -18633,7 +18639,7 @@
         <v>1</v>
       </c>
       <c r="AR21" s="4" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="AS21" s="4" t="s">
         <v>570</v>
@@ -18645,26 +18651,26 @@
         <v>1372</v>
       </c>
       <c r="AV21" s="4" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="AW21" s="4" t="s">
         <v>832</v>
       </c>
       <c r="AX21" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="AY21" s="4"/>
       <c r="BG21" s="4" t="s">
+        <v>2149</v>
+      </c>
+      <c r="BH21" s="4" t="s">
         <v>2151</v>
       </c>
-      <c r="BH21" s="4" t="s">
-        <v>2153</v>
-      </c>
       <c r="BI21" s="4" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="BJ21" s="4" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.25">
@@ -18727,10 +18733,10 @@
         <v>172</v>
       </c>
       <c r="AQ22" s="4" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="AR22" s="4" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="AS22" s="4" t="s">
         <v>143</v>
@@ -18752,16 +18758,16 @@
       </c>
       <c r="AY22" s="4"/>
       <c r="BG22" s="4" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="BH22" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="BI22" s="4" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="BJ22" s="4" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="23" spans="1:62" x14ac:dyDescent="0.25">
@@ -18824,10 +18830,10 @@
         <v>179</v>
       </c>
       <c r="AQ23" s="4" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="AR23" s="4" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="AS23" s="4" t="s">
         <v>150</v>
@@ -18836,10 +18842,10 @@
         <v>150</v>
       </c>
       <c r="AU23" s="4" t="s">
+        <v>2191</v>
+      </c>
+      <c r="AV23" s="4" t="s">
         <v>2193</v>
-      </c>
-      <c r="AV23" s="4" t="s">
-        <v>2195</v>
       </c>
       <c r="AW23" s="4" t="s">
         <v>509</v>
@@ -18849,16 +18855,16 @@
       </c>
       <c r="AY23" s="4"/>
       <c r="BG23" s="4" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="BH23" s="4" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="BI23" s="4" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="BJ23" s="4" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="24" spans="1:62" x14ac:dyDescent="0.25">
@@ -18920,10 +18926,10 @@
         <v>185</v>
       </c>
       <c r="AQ24" s="4" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="AR24" s="4" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="AS24" s="4" t="s">
         <v>571</v>
@@ -18935,7 +18941,7 @@
         <v>832</v>
       </c>
       <c r="AV24" s="4" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="AW24" s="4" t="s">
         <v>120</v>
@@ -18944,16 +18950,16 @@
         <v>1324</v>
       </c>
       <c r="BG24" s="4" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="BH24" s="4" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="BI24" s="4" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="BJ24" s="4" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.25">
@@ -19007,7 +19013,7 @@
         <v>1398</v>
       </c>
       <c r="AR25" s="4" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="AS25" s="4" t="s">
         <v>756</v>
@@ -19022,22 +19028,22 @@
         <v>1956</v>
       </c>
       <c r="AW25" s="4" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="AX25" s="4" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="BG25" s="4" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="BH25" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="BI25" s="4" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="BJ25" s="4" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.25">
@@ -19081,10 +19087,10 @@
         <v>197</v>
       </c>
       <c r="AQ26" s="4" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="AR26" s="4" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="AS26" s="4" t="s">
         <v>1384</v>
@@ -19099,22 +19105,22 @@
         <v>1323</v>
       </c>
       <c r="AW26" s="4" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="AX26" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="BG26" s="4" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="BH26" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="BI26" s="4" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="BJ26" s="4" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.25">
@@ -19159,10 +19165,10 @@
         <v>205</v>
       </c>
       <c r="AQ27" s="4" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="AR27" s="4" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="AS27" s="4" t="s">
         <v>757</v>
@@ -19177,22 +19183,22 @@
         <v>1324</v>
       </c>
       <c r="AW27" s="4" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="AX27" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="BG27" s="4" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="BH27" s="4" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="BI27" s="4" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="BJ27" s="4" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.25">
@@ -19240,7 +19246,7 @@
         <v>665</v>
       </c>
       <c r="AR28" s="4" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="AS28" s="4" t="s">
         <v>758</v>
@@ -19249,28 +19255,28 @@
         <v>758</v>
       </c>
       <c r="AU28" s="4" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="AV28" s="4" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="AW28" s="4" t="s">
+        <v>2148</v>
+      </c>
+      <c r="AX28" s="4" t="s">
         <v>2150</v>
       </c>
-      <c r="AX28" s="4" t="s">
-        <v>2152</v>
-      </c>
       <c r="BG28" s="4" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="BH28" s="4" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="BI28" s="4" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="BJ28" s="4" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.25">
@@ -19314,10 +19320,10 @@
         <v>213</v>
       </c>
       <c r="AQ29" s="4" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="AR29" s="4" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="AS29" s="4" t="s">
         <v>759</v>
@@ -19326,22 +19332,22 @@
         <v>759</v>
       </c>
       <c r="AU29" s="4" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="AV29" s="4" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="AW29" s="4" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="AX29" s="4" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="BI29" s="4" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="BJ29" s="4" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.25">
@@ -19390,7 +19396,7 @@
         <v>666</v>
       </c>
       <c r="AR30" s="4" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="AS30" s="4" t="s">
         <v>760</v>
@@ -19399,22 +19405,22 @@
         <v>760</v>
       </c>
       <c r="AU30" s="4" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="AV30" s="4" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="AW30" s="4" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="AX30" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="BI30" s="4" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="BJ30" s="4" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.25">
@@ -19468,7 +19474,7 @@
         <v>667</v>
       </c>
       <c r="AR31" s="4" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="AS31" s="4" t="s">
         <v>761</v>
@@ -19477,22 +19483,22 @@
         <v>761</v>
       </c>
       <c r="AU31" s="4" t="s">
+        <v>2148</v>
+      </c>
+      <c r="AV31" s="4" t="s">
         <v>2150</v>
       </c>
-      <c r="AV31" s="4" t="s">
-        <v>2152</v>
-      </c>
       <c r="AW31" s="4" t="s">
+        <v>2181</v>
+      </c>
+      <c r="AX31" t="s">
         <v>2183</v>
       </c>
-      <c r="AX31" t="s">
-        <v>2185</v>
-      </c>
       <c r="BI31" s="4" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="BJ31" s="4" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="32" spans="1:62" ht="30" x14ac:dyDescent="0.25">
@@ -19548,7 +19554,7 @@
         <v>668</v>
       </c>
       <c r="AR32" s="4" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="AS32" s="4" t="s">
         <v>762</v>
@@ -19557,22 +19563,22 @@
         <v>762</v>
       </c>
       <c r="AU32" s="4" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="AV32" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="AW32" s="4" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="AX32" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="BI32" s="4" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="BJ32" s="4" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="33" spans="3:62" x14ac:dyDescent="0.25">
@@ -19627,7 +19633,7 @@
         <v>669</v>
       </c>
       <c r="AR33" s="4" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="AS33" s="4" t="s">
         <v>763</v>
@@ -19636,22 +19642,22 @@
         <v>763</v>
       </c>
       <c r="AU33" s="4" t="s">
+        <v>2149</v>
+      </c>
+      <c r="AV33" s="4" t="s">
         <v>2151</v>
       </c>
-      <c r="AV33" s="4" t="s">
-        <v>2153</v>
-      </c>
       <c r="AW33" s="4" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="AX33" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="BI33" s="4" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="BJ33" s="4" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="34" spans="3:62" x14ac:dyDescent="0.25">
@@ -19709,7 +19715,7 @@
         <v>670</v>
       </c>
       <c r="AR34" s="4" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="AS34" s="4" t="s">
         <v>764</v>
@@ -19718,10 +19724,10 @@
         <v>764</v>
       </c>
       <c r="BI34" s="4" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="BJ34" s="4" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="35" spans="3:62" ht="30" x14ac:dyDescent="0.25">
@@ -19781,7 +19787,7 @@
         <v>671</v>
       </c>
       <c r="AR35" s="4" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="AS35" s="4" t="s">
         <v>765</v>
@@ -19790,10 +19796,10 @@
         <v>765</v>
       </c>
       <c r="BI35" s="4" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="BJ35" s="4" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="36" spans="3:62" x14ac:dyDescent="0.25">
@@ -19844,7 +19850,7 @@
         <v>672</v>
       </c>
       <c r="AR36" s="4" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="AS36" s="4" t="s">
         <v>766</v>
@@ -19853,10 +19859,10 @@
         <v>766</v>
       </c>
       <c r="BI36" s="4" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="BJ36" s="4" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="37" spans="3:62" x14ac:dyDescent="0.25">
@@ -20300,7 +20306,7 @@
         <v>680</v>
       </c>
       <c r="AR44" s="4" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="AS44" s="4" t="s">
         <v>774</v>
@@ -20352,7 +20358,7 @@
         <v>681</v>
       </c>
       <c r="AR45" s="4" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="AS45" s="4" t="s">
         <v>775</v>
@@ -23030,19 +23036,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="B1" s="67" t="s">
         <v>1398</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="E1" s="67" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -23056,7 +23062,7 @@
         <v>1683</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1684</v>
@@ -23073,7 +23079,7 @@
         <v>1683</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>1684</v>
@@ -23090,7 +23096,7 @@
         <v>1683</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>1695</v>
@@ -23107,7 +23113,7 @@
         <v>1686</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>1695</v>
@@ -23124,7 +23130,7 @@
         <v>1686</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>1695</v>
@@ -23141,7 +23147,7 @@
         <v>1683</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1693</v>
@@ -23158,7 +23164,7 @@
         <v>1683</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>1695</v>
@@ -23175,7 +23181,7 @@
         <v>1683</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>1696</v>
@@ -23192,7 +23198,7 @@
         <v>1683</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>1696</v>
@@ -23209,7 +23215,7 @@
         <v>1683</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>1684</v>
@@ -23226,7 +23232,7 @@
         <v>1683</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>1696</v>
@@ -23245,7 +23251,7 @@
         <v>1686</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>2011</v>
@@ -23264,7 +23270,7 @@
         <v>1683</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>2011</v>
@@ -23281,7 +23287,7 @@
         <v>1683</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="E15" t="s">
         <v>1700</v>
@@ -23298,7 +23304,7 @@
         <v>1683</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>1700</v>
@@ -23315,7 +23321,7 @@
         <v>1686</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>1700</v>
@@ -23323,7 +23329,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -23332,7 +23338,7 @@
         <v>1686</v>
       </c>
       <c r="D18" s="57" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>1694</v>
@@ -23348,8 +23354,8 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:N210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="E214" sqref="E214"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="C221" sqref="C221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23663,7 +23669,7 @@
         <v>1538</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="D26" s="4"/>
     </row>
@@ -24030,7 +24036,7 @@
     </row>
     <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>1560</v>
@@ -24041,7 +24047,7 @@
     </row>
     <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>1560</v>
@@ -24958,7 +24964,7 @@
     </row>
     <row r="135" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>1672</v>
@@ -25343,13 +25349,13 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>1517</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -25360,12 +25366,12 @@
         <v>1517</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>1657</v>
@@ -25376,7 +25382,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B172" t="s">
         <v>1560</v>
@@ -25387,7 +25393,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>1517</v>
@@ -25398,7 +25404,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="55" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>1517</v>
@@ -25409,7 +25415,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>1517</v>
@@ -25420,7 +25426,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>1517</v>
@@ -25431,7 +25437,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>1517</v>
@@ -25443,7 +25449,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>1517</v>
@@ -25455,7 +25461,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>1517</v>
@@ -25467,7 +25473,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>1517</v>
@@ -25479,7 +25485,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>1517</v>
@@ -25491,7 +25497,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>1517</v>
@@ -25503,7 +25509,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>1517</v>
@@ -25515,174 +25521,174 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="B184" t="s">
         <v>1517</v>
       </c>
-      <c r="C184" t="s">
-        <v>1649</v>
+      <c r="C184" s="4" t="s">
+        <v>1662</v>
       </c>
       <c r="D184" s="4"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>1517</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>1649</v>
+        <v>1662</v>
       </c>
       <c r="D185" s="4"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>1517</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>1649</v>
+        <v>1662</v>
       </c>
       <c r="D186" s="4"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>1517</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>1649</v>
+        <v>1662</v>
       </c>
       <c r="D187" s="4"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>1517</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>1649</v>
+        <v>1662</v>
       </c>
       <c r="D188" s="4"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>1517</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>1649</v>
+        <v>1662</v>
       </c>
       <c r="D189" s="4"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>1517</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>1649</v>
+        <v>1662</v>
       </c>
       <c r="D190" s="4"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>1517</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>1649</v>
+        <v>1662</v>
       </c>
       <c r="D191" s="4"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>1517</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>1649</v>
+        <v>1662</v>
       </c>
       <c r="D192" s="4"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>1517</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>1649</v>
+        <v>1662</v>
       </c>
       <c r="D193" s="4"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>1517</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>1649</v>
+        <v>1662</v>
       </c>
       <c r="D194" s="4"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>1517</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>1649</v>
+        <v>1662</v>
       </c>
       <c r="D195" s="4"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>1517</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>1649</v>
+        <v>1662</v>
       </c>
       <c r="D196" s="4"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>1560</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="4" t="s">
         <v>1649</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="B198" t="s">
         <v>1517</v>
@@ -25693,7 +25699,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>1517</v>
@@ -25704,7 +25710,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>1517</v>
@@ -25715,7 +25721,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>1517</v>
@@ -25726,7 +25732,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>1517</v>
@@ -25737,7 +25743,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>1517</v>
@@ -25748,7 +25754,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>1517</v>
@@ -25759,7 +25765,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>1517</v>
@@ -25770,7 +25776,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>1517</v>
@@ -25781,18 +25787,18 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>1517</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>1662</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>1517</v>
@@ -25803,7 +25809,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>1517</v>
@@ -25814,7 +25820,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>1517</v>
@@ -26060,7 +26066,7 @@
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="13" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>340</v>
@@ -26078,7 +26084,7 @@
         <v>357</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -26088,7 +26094,7 @@
       <c r="D13" s="12"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -26102,7 +26108,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="12" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -26314,7 +26320,7 @@
         <v>451</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>343</v>
@@ -26339,7 +26345,7 @@
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -28153,11 +28159,11 @@
         <v>143</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -28207,7 +28213,7 @@
       </c>
       <c r="D23" s="44"/>
       <c r="E23" s="44" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="F23" s="44" t="s">
         <v>1486</v>
@@ -28228,7 +28234,7 @@
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
       <c r="F24" s="44" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>165</v>
@@ -28242,7 +28248,7 @@
         <v>179</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>172</v>
@@ -30076,7 +30082,7 @@
         <v>264</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>264</v>
@@ -30102,7 +30108,7 @@
         <v>157</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>157</v>
@@ -30125,7 +30131,7 @@
         <v>134</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -30157,7 +30163,7 @@
         <v>139</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -30177,7 +30183,7 @@
         <v>125</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -30193,10 +30199,10 @@
         <v>129</v>
       </c>
       <c r="I12" s="4" t="s">
+        <v>2074</v>
+      </c>
+      <c r="J12" t="s">
         <v>2076</v>
-      </c>
-      <c r="J12" t="s">
-        <v>2078</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -30212,7 +30218,7 @@
         <v>133</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -30231,7 +30237,7 @@
         <v>665</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -30257,10 +30263,10 @@
         <v>146</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -30276,7 +30282,7 @@
         <v>666</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -30305,7 +30311,7 @@
         <v>667</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -30321,7 +30327,7 @@
         <v>668</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -30349,7 +30355,7 @@
         <v>669</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -32030,10 +32036,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32044,7 +32050,7 @@
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="91.5703125" customWidth="1"/>
+    <col min="7" max="7" width="113.42578125" customWidth="1"/>
     <col min="8" max="8" width="79.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" customWidth="1"/>
@@ -32100,7 +32106,7 @@
       </c>
       <c r="F3" s="59"/>
       <c r="G3" s="59" t="s">
-        <v>2051</v>
+        <v>2405</v>
       </c>
       <c r="H3" s="59" t="s">
         <v>1791</v>
@@ -32154,188 +32160,188 @@
       <c r="E7" s="59"/>
       <c r="F7" s="59"/>
       <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="H7" s="59" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>1802</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>1800</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="D8">
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E10" t="s">
         <v>1801</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G10" t="s">
         <v>1862</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>1806</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="4" t="s">
-        <v>844</v>
-      </c>
-    </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1843</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>1800</v>
-      </c>
       <c r="C11" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1808</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1857</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1843</v>
+      </c>
       <c r="B13" s="4" t="s">
         <v>1800</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1808</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1857</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D15" s="4">
         <v>3</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>1874</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>1876</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>1872</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="2" t="s">
+    <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="2" t="s">
         <v>1873</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H15" s="2" t="s">
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="2" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>1844</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>1800</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <v>4</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E19" t="s">
         <v>1809</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G19" t="s">
         <v>1858</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>1812</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H18" s="4" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="4" t="s">
         <v>1813</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H19" s="4" t="s">
+    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="4" t="s">
         <v>1820</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>1867</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>1800</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D23" s="4">
         <v>5</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>1866</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>2111</v>
-      </c>
-      <c r="H21" s="4" t="s">
+      <c r="G23" s="4" t="s">
+        <v>2109</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>1863</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H22" s="4" t="s">
+    <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="4" t="s">
         <v>1865</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H23" s="4" t="s">
+    <row r="25" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="4" t="s">
         <v>1864</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1816</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>1800</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="D25">
-        <v>6</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1810</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1903</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>1814</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>1800</v>
@@ -32344,575 +32350,590 @@
         <v>844</v>
       </c>
       <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1810</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1903</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="D29">
         <v>7</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E29" t="s">
         <v>1898</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G29" t="s">
         <v>1978</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H29" t="s">
         <v>1815</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H28" s="4" t="s">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H29" s="4" t="s">
-        <v>1897</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H30" s="4" t="s">
-        <v>1979</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H31" s="4" t="s">
-        <v>1980</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H32" s="4" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="4" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="4" t="s">
         <v>1981</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
+    <row r="35" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
         <v>1800</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D37" s="4">
         <v>8</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>1899</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>1895</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H36" s="4" t="s">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H37" s="4" t="s">
-        <v>1983</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H38" s="4" t="s">
-        <v>1984</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H39" s="4" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="4" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="4" t="s">
         <v>1985</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>1819</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>1800</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="D42">
+      <c r="D44">
         <v>9</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E44" t="s">
         <v>1823</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G44" t="s">
         <v>1904</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H44" t="s">
         <v>1817</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H43" t="s">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H44" t="s">
-        <v>1821</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H45" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
         <v>1822</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H46" s="2" t="s">
+    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="2" t="s">
         <v>1871</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>1834</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>1800</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="D47">
+      <c r="D49">
         <v>10</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E49" t="s">
         <v>1824</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G49" t="s">
         <v>1848</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H49" t="s">
         <v>1825</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H48" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
         <v>1826</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>1833</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>1800</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="D50">
+      <c r="D52">
         <v>11</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E52" t="s">
         <v>1828</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G52" t="s">
         <v>1889</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H52" t="s">
         <v>1829</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H51" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
         <v>1830</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H52" s="4" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H53" s="4" t="s">
-        <v>1890</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H54" s="4" t="s">
-        <v>1891</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H55" s="4" t="s">
-        <v>1860</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H56" s="4" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H57" s="4" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H58" s="4" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H59" s="4" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>1837</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>1800</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D61" s="4">
         <v>12</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E61" s="4" t="s">
         <v>1905</v>
       </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4" t="s">
+      <c r="F61" s="4"/>
+      <c r="G61" s="4" t="s">
         <v>1878</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>1880</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4" t="s">
         <v>1879</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>1842</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>1800</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C64" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="D62">
+      <c r="D64">
         <v>13</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E64" t="s">
         <v>1841</v>
       </c>
-      <c r="G62" t="s">
-        <v>2052</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="G64" t="s">
+        <v>2050</v>
+      </c>
+      <c r="H64" t="s">
         <v>1839</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H63" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
         <v>1840</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H64" s="4" t="s">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H66" s="4" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>1836</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>1800</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="D66">
+      <c r="D68">
         <v>14</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E68" t="s">
         <v>1856</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G68" t="s">
         <v>1915</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H68" s="4" t="s">
         <v>1849</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H67" s="4" t="s">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H68" s="4" t="s">
-        <v>1851</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H69" s="4" t="s">
-        <v>1835</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H70" s="4" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H71" s="4" t="s">
-        <v>1853</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H72" s="4" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H73" s="4" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H74" s="4" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H75" s="4" t="s">
         <v>1855</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H74" s="4"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="4" t="s">
-        <v>1800</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="D75">
-        <v>15</v>
-      </c>
-      <c r="E75" t="s">
-        <v>1885</v>
-      </c>
-      <c r="G75" t="s">
-        <v>1900</v>
-      </c>
-      <c r="H75" s="61" t="s">
-        <v>1877</v>
-      </c>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H76" s="4"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
         <v>1800</v>
       </c>
       <c r="C77" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="D77">
+        <v>15</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1900</v>
+      </c>
+      <c r="H77" s="61" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="D77">
+      <c r="D79">
         <v>16</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E79" t="s">
         <v>1868</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G79" t="s">
         <v>1894</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H79" t="s">
         <v>1870</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="4" t="s">
-        <v>1800</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="E78" s="4"/>
-      <c r="H78" s="4" t="s">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
         <v>1800</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="D80" s="4">
+      <c r="E80" s="4"/>
+      <c r="H80" s="4" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="D82" s="4">
         <v>17</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E82" s="4" t="s">
         <v>1882</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="G82" s="4" t="s">
         <v>1887</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="H82" s="4" t="s">
         <v>1883</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H81" s="4" t="s">
+    <row r="83" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H83" s="4" t="s">
         <v>1884</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H82" s="4" t="s">
+    <row r="84" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H84" s="4" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="4" t="s">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
         <v>1798</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C86" s="4" t="s">
         <v>1788</v>
       </c>
-      <c r="D84">
+      <c r="D86">
         <v>18</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E86" t="s">
         <v>1907</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G86" t="s">
         <v>1906</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="H86" s="4" t="s">
         <v>1908</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
         <v>1790</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="H87" s="4" t="s">
         <v>1909</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
         <v>1901</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="4" t="s">
+    <row r="89" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
         <v>1800</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C90" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D90" s="4">
         <v>19</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E90" s="4" t="s">
         <v>1998</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="G90" s="4" t="s">
         <v>1999</v>
       </c>
-      <c r="H88" s="4" t="s">
+      <c r="H90" s="4" t="s">
         <v>1997</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="91" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="92" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
+    <row r="93" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
         <v>1805</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B94" s="7" t="s">
         <v>1800</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C94" s="7" t="s">
         <v>844</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D94" s="7">
         <v>20</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E94" s="7" t="s">
         <v>1804</v>
       </c>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7" t="s">
+      <c r="F94" s="7"/>
+      <c r="G94" s="7" t="s">
         <v>1803</v>
       </c>
-      <c r="H93" s="7" t="s">
+      <c r="H94" s="7" t="s">
         <v>1807</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-    </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="7" t="s">
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="7" t="s">
         <v>1800</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C96" s="7" t="s">
         <v>844</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D96" s="7">
         <v>21</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E96" s="7" t="s">
         <v>1832</v>
       </c>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7" t="s">
+      <c r="F96" s="7"/>
+      <c r="G96" s="7" t="s">
         <v>1838</v>
       </c>
-      <c r="H95" s="7" t="s">
+      <c r="H96" s="7" t="s">
         <v>1831</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7" t="s">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7" t="s">
         <v>1881</v>
       </c>
     </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-    </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C99" s="4"/>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -32920,6 +32941,14 @@
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
     </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5977" uniqueCount="2420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6003" uniqueCount="2428">
   <si>
     <t>switchType</t>
   </si>
@@ -6974,9 +6974,6 @@
     <t>Total_zonemembers_active</t>
   </si>
   <si>
-    <t>active_device_ports_per_alias</t>
-  </si>
-  <si>
     <t>Количество активных портов в псевдониме</t>
   </si>
   <si>
@@ -7311,6 +7308,33 @@
   </si>
   <si>
     <t>FEC_cfg</t>
+  </si>
+  <si>
+    <t>Device_Host_Name_per_fabric_name_and_label</t>
+  </si>
+  <si>
+    <t>Device_Host_Name_per_fabric_label</t>
+  </si>
+  <si>
+    <t>Device_Host_Name_total_fabrics</t>
+  </si>
+  <si>
+    <t>Количество портов устройства в подсети</t>
+  </si>
+  <si>
+    <t>Количество портов устройства в фабрике</t>
+  </si>
+  <si>
+    <t>Всего портов устройства</t>
+  </si>
+  <si>
+    <t>ports_per_alias</t>
+  </si>
+  <si>
+    <t>active_ports_per_alias</t>
+  </si>
+  <si>
+    <t>Всего портов в псевдониме</t>
   </si>
 </sst>
 </file>
@@ -9050,7 +9074,7 @@
         <v>1125</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>1096</v>
@@ -9076,7 +9100,7 @@
         <v>1108</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>4</v>
@@ -9102,7 +9126,7 @@
         <v>1108</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>1096</v>
@@ -9128,7 +9152,7 @@
         <v>1126</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>1097</v>
@@ -9154,7 +9178,7 @@
         <v>1110</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>1097</v>
@@ -9180,7 +9204,7 @@
         <v>1109</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
@@ -9206,7 +9230,7 @@
         <v>1110</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -9310,7 +9334,7 @@
         <v>1107</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
@@ -9336,7 +9360,7 @@
         <v>1107</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>4</v>
@@ -9726,7 +9750,7 @@
         <v>1113</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>1096</v>
@@ -9856,7 +9880,7 @@
         <v>1110</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>1096</v>
@@ -15074,7 +15098,7 @@
         <v>2019</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="F49" s="32" t="s">
         <v>2021</v>
@@ -15163,8 +15187,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:BN176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN20" sqref="AN20"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AT30" sqref="AT30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15198,8 +15222,8 @@
     <col min="29" max="29" width="20.85546875" customWidth="1"/>
     <col min="30" max="30" width="33.42578125" customWidth="1"/>
     <col min="31" max="32" width="33.140625" style="4" customWidth="1"/>
-    <col min="33" max="33" width="29" customWidth="1"/>
-    <col min="34" max="34" width="33.85546875" customWidth="1"/>
+    <col min="33" max="33" width="44.7109375" customWidth="1"/>
+    <col min="34" max="34" width="43" customWidth="1"/>
     <col min="35" max="35" width="30.140625" customWidth="1"/>
     <col min="36" max="36" width="34" customWidth="1"/>
     <col min="37" max="37" width="32.28515625" customWidth="1"/>
@@ -15407,10 +15431,10 @@
         <v>2207</v>
       </c>
       <c r="BI1" s="20" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="BJ1" s="20" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="BK1" s="9" t="s">
         <v>2221</v>
@@ -16007,10 +16031,10 @@
         <v>2120</v>
       </c>
       <c r="BI4" s="4" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="BJ4" s="4" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="BK4" s="4" t="s">
         <v>509</v>
@@ -16207,10 +16231,10 @@
         <v>2121</v>
       </c>
       <c r="BI5" s="4" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="BJ5" s="4" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="BK5" s="4" t="s">
         <v>120</v>
@@ -16410,7 +16434,7 @@
         <v>2302</v>
       </c>
       <c r="BJ6" s="4" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="BK6" s="4" t="s">
         <v>2211</v>
@@ -16610,7 +16634,7 @@
         <v>2161</v>
       </c>
       <c r="BJ7" s="4" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="BK7" s="4" t="s">
         <v>144</v>
@@ -16810,7 +16834,7 @@
         <v>2164</v>
       </c>
       <c r="BJ8" s="4" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="BK8" s="4" t="s">
         <v>2212</v>
@@ -16994,7 +17018,7 @@
         <v>2162</v>
       </c>
       <c r="BJ9" s="4" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="BK9" s="4" t="s">
         <v>2213</v>
@@ -17177,7 +17201,7 @@
         <v>2163</v>
       </c>
       <c r="BJ10" s="4" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="BK10" s="4" t="s">
         <v>2214</v>
@@ -17357,7 +17381,7 @@
         <v>2165</v>
       </c>
       <c r="BJ11" s="4" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.25">
@@ -17531,7 +17555,7 @@
         <v>2166</v>
       </c>
       <c r="BJ12" s="4" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.25">
@@ -17700,7 +17724,7 @@
         <v>2152</v>
       </c>
       <c r="BJ13" s="4" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.25">
@@ -17869,7 +17893,7 @@
         <v>2153</v>
       </c>
       <c r="BJ14" s="4" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.25">
@@ -18005,10 +18029,10 @@
         <v>2131</v>
       </c>
       <c r="AY15" s="4" t="s">
+        <v>2362</v>
+      </c>
+      <c r="AZ15" t="s">
         <v>2363</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>2364</v>
       </c>
       <c r="BA15" t="s">
         <v>1936</v>
@@ -18032,7 +18056,7 @@
         <v>2154</v>
       </c>
       <c r="BJ15" s="4" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.25">
@@ -18172,7 +18196,7 @@
         <v>2155</v>
       </c>
       <c r="BJ16" s="4" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.25">
@@ -18294,7 +18318,7 @@
         <v>2156</v>
       </c>
       <c r="BJ17" s="4" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.25">
@@ -18405,7 +18429,7 @@
         <v>2167</v>
       </c>
       <c r="BJ18" s="4" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.25">
@@ -18515,7 +18539,7 @@
         <v>2168</v>
       </c>
       <c r="BJ19" s="4" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.25">
@@ -18612,7 +18636,7 @@
         <v>1052</v>
       </c>
       <c r="BJ20" s="4" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.25">
@@ -18706,10 +18730,10 @@
         <v>2149</v>
       </c>
       <c r="BI21" s="4" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="BJ21" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.25">
@@ -18760,10 +18784,10 @@
         <v>1016</v>
       </c>
       <c r="AK22" s="3" t="s">
-        <v>1939</v>
+        <v>2419</v>
       </c>
       <c r="AL22" s="4" t="s">
-        <v>1943</v>
+        <v>2422</v>
       </c>
       <c r="AO22" s="4" t="s">
         <v>172</v>
@@ -18803,10 +18827,10 @@
         <v>2296</v>
       </c>
       <c r="BI22" s="4" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="BJ22" s="4" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="23" spans="1:62" x14ac:dyDescent="0.25">
@@ -18857,10 +18881,10 @@
         <v>1942</v>
       </c>
       <c r="AK23" s="3" t="s">
-        <v>1940</v>
+        <v>2420</v>
       </c>
       <c r="AL23" s="4" t="s">
-        <v>1944</v>
+        <v>2423</v>
       </c>
       <c r="AO23" s="4" t="s">
         <v>179</v>
@@ -18900,10 +18924,10 @@
         <v>2297</v>
       </c>
       <c r="BI23" s="4" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="BJ23" s="4" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="24" spans="1:62" x14ac:dyDescent="0.25">
@@ -18941,22 +18965,22 @@
       <c r="AC24" s="4"/>
       <c r="AD24" s="48"/>
       <c r="AG24" s="3" t="s">
-        <v>1939</v>
+        <v>2419</v>
       </c>
       <c r="AH24" s="4" t="s">
-        <v>1943</v>
+        <v>2422</v>
       </c>
       <c r="AI24" s="3" t="s">
-        <v>1939</v>
+        <v>2419</v>
       </c>
       <c r="AJ24" s="4" t="s">
-        <v>1943</v>
+        <v>2422</v>
       </c>
       <c r="AK24" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="AL24" s="3" t="s">
-        <v>1924</v>
+        <v>2421</v>
+      </c>
+      <c r="AL24" s="4" t="s">
+        <v>2424</v>
       </c>
       <c r="AO24" s="4" t="s">
         <v>185</v>
@@ -18995,10 +19019,10 @@
         <v>2298</v>
       </c>
       <c r="BI24" s="4" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="BJ24" s="4" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.25">
@@ -19031,16 +19055,22 @@
       <c r="AA25" s="4"/>
       <c r="AD25" s="48"/>
       <c r="AG25" s="3" t="s">
-        <v>1940</v>
+        <v>2420</v>
       </c>
       <c r="AH25" s="4" t="s">
-        <v>1944</v>
+        <v>2423</v>
       </c>
       <c r="AI25" s="3" t="s">
-        <v>1940</v>
+        <v>2420</v>
       </c>
       <c r="AJ25" s="4" t="s">
-        <v>1944</v>
+        <v>2423</v>
+      </c>
+      <c r="AK25" s="3" t="s">
+        <v>1939</v>
+      </c>
+      <c r="AL25" s="4" t="s">
+        <v>1943</v>
       </c>
       <c r="AO25" s="4" t="s">
         <v>191</v>
@@ -19079,10 +19109,10 @@
         <v>2299</v>
       </c>
       <c r="BI25" s="4" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="BJ25" s="4" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.25">
@@ -19116,9 +19146,24 @@
       <c r="Z26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="48"/>
-      <c r="AH26" s="4"/>
-      <c r="AI26" s="4"/>
-      <c r="AJ26" s="4"/>
+      <c r="AG26" s="3" t="s">
+        <v>2421</v>
+      </c>
+      <c r="AH26" s="4" t="s">
+        <v>2424</v>
+      </c>
+      <c r="AI26" s="3" t="s">
+        <v>2421</v>
+      </c>
+      <c r="AJ26" s="4" t="s">
+        <v>2424</v>
+      </c>
+      <c r="AK26" s="3" t="s">
+        <v>1940</v>
+      </c>
+      <c r="AL26" s="4" t="s">
+        <v>1944</v>
+      </c>
       <c r="AO26" s="4" t="s">
         <v>197</v>
       </c>
@@ -19156,10 +19201,10 @@
         <v>2303</v>
       </c>
       <c r="BI26" s="4" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="BJ26" s="4" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.25">
@@ -19194,9 +19239,24 @@
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
       <c r="AD27" s="48"/>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="4"/>
-      <c r="AJ27" s="4"/>
+      <c r="AG27" s="3" t="s">
+        <v>1939</v>
+      </c>
+      <c r="AH27" s="4" t="s">
+        <v>1943</v>
+      </c>
+      <c r="AI27" s="3" t="s">
+        <v>1939</v>
+      </c>
+      <c r="AJ27" s="4" t="s">
+        <v>1943</v>
+      </c>
+      <c r="AK27" s="3" t="s">
+        <v>1899</v>
+      </c>
+      <c r="AL27" s="3" t="s">
+        <v>1924</v>
+      </c>
       <c r="AO27" s="4" t="s">
         <v>205</v>
       </c>
@@ -19234,10 +19294,10 @@
         <v>2304</v>
       </c>
       <c r="BI27" s="4" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="BJ27" s="4" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.25">
@@ -19271,10 +19331,18 @@
         <v>1935</v>
       </c>
       <c r="AD28" s="48"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="4"/>
-      <c r="AJ28" s="4"/>
+      <c r="AG28" s="3" t="s">
+        <v>1940</v>
+      </c>
+      <c r="AH28" s="4" t="s">
+        <v>1944</v>
+      </c>
+      <c r="AI28" s="3" t="s">
+        <v>1940</v>
+      </c>
+      <c r="AJ28" s="4" t="s">
+        <v>1944</v>
+      </c>
       <c r="AO28" s="4" t="s">
         <v>209</v>
       </c>
@@ -19312,10 +19380,10 @@
         <v>2305</v>
       </c>
       <c r="BI28" s="4" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="BJ28" s="4" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.25">
@@ -19377,16 +19445,16 @@
         <v>2128</v>
       </c>
       <c r="AW29" s="4" t="s">
-        <v>2307</v>
+        <v>2425</v>
       </c>
       <c r="AX29" s="4" t="s">
-        <v>2308</v>
+        <v>2427</v>
       </c>
       <c r="BI29" s="4" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="BJ29" s="4" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.25">
@@ -19450,16 +19518,16 @@
         <v>2129</v>
       </c>
       <c r="AW30" s="4" t="s">
-        <v>2180</v>
-      </c>
-      <c r="AX30" t="s">
-        <v>2309</v>
+        <v>2426</v>
+      </c>
+      <c r="AX30" s="4" t="s">
+        <v>2307</v>
       </c>
       <c r="BI30" s="4" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="BJ30" s="4" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.25">
@@ -19528,16 +19596,16 @@
         <v>2148</v>
       </c>
       <c r="AW31" s="4" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="AX31" t="s">
-        <v>2181</v>
+        <v>2308</v>
       </c>
       <c r="BI31" s="4" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="BJ31" s="4" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="32" spans="1:62" ht="30" x14ac:dyDescent="0.25">
@@ -19579,8 +19647,6 @@
       <c r="AB32" s="48"/>
       <c r="AC32" s="48"/>
       <c r="AD32" s="48"/>
-      <c r="AG32" s="4"/>
-      <c r="AH32" s="4"/>
       <c r="AI32" s="4"/>
       <c r="AJ32" s="4"/>
       <c r="AO32" s="4" t="s">
@@ -19601,23 +19667,23 @@
       <c r="AT32" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="AU32" s="4" t="s">
-        <v>2145</v>
-      </c>
-      <c r="AV32" t="s">
-        <v>2178</v>
+      <c r="AU32" s="3" t="s">
+        <v>2419</v>
+      </c>
+      <c r="AV32" s="4" t="s">
+        <v>2422</v>
       </c>
       <c r="AW32" s="4" t="s">
-        <v>2188</v>
+        <v>2179</v>
       </c>
       <c r="AX32" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="BI32" s="4" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="BJ32" s="4" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="33" spans="3:62" x14ac:dyDescent="0.25">
@@ -19659,8 +19725,6 @@
       <c r="AB33" s="48"/>
       <c r="AC33" s="48"/>
       <c r="AD33" s="48"/>
-      <c r="AG33" s="4"/>
-      <c r="AH33" s="4"/>
       <c r="AJ33" s="4"/>
       <c r="AO33" s="4" t="s">
         <v>229</v>
@@ -19680,23 +19744,23 @@
       <c r="AT33" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="AU33" s="4" t="s">
-        <v>2147</v>
+      <c r="AU33" s="3" t="s">
+        <v>2420</v>
       </c>
       <c r="AV33" s="4" t="s">
-        <v>2149</v>
+        <v>2423</v>
       </c>
       <c r="AW33" s="4" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="AX33" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="BI33" s="4" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="BJ33" s="4" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="34" spans="3:62" x14ac:dyDescent="0.25">
@@ -19738,8 +19802,6 @@
       <c r="AB34" s="48"/>
       <c r="AC34" s="48"/>
       <c r="AD34" s="48"/>
-      <c r="AG34" s="4"/>
-      <c r="AH34" s="4"/>
       <c r="AI34" s="4"/>
       <c r="AJ34" s="4"/>
       <c r="AM34" s="48"/>
@@ -19762,11 +19824,23 @@
       <c r="AT34" s="4" t="s">
         <v>764</v>
       </c>
+      <c r="AU34" s="3" t="s">
+        <v>2421</v>
+      </c>
+      <c r="AV34" s="4" t="s">
+        <v>2424</v>
+      </c>
+      <c r="AW34" s="4" t="s">
+        <v>2187</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>2183</v>
+      </c>
       <c r="BI34" s="4" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="BJ34" s="4" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="35" spans="3:62" ht="30" x14ac:dyDescent="0.25">
@@ -19808,12 +19882,8 @@
       <c r="AB35" s="48"/>
       <c r="AC35" s="48"/>
       <c r="AD35" s="48"/>
-      <c r="AG35" s="4"/>
-      <c r="AH35" s="4"/>
       <c r="AI35" s="4"/>
       <c r="AJ35" s="4"/>
-      <c r="AK35" s="48"/>
-      <c r="AL35" s="48"/>
       <c r="AM35" s="48"/>
       <c r="AN35" s="48"/>
       <c r="AO35" s="4" t="s">
@@ -19834,11 +19904,17 @@
       <c r="AT35" s="4" t="s">
         <v>765</v>
       </c>
+      <c r="AU35" s="4" t="s">
+        <v>2145</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>2178</v>
+      </c>
       <c r="BI35" s="4" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="BJ35" s="4" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="36" spans="3:62" x14ac:dyDescent="0.25">
@@ -19871,12 +19947,8 @@
       <c r="AB36" s="48"/>
       <c r="AC36" s="48"/>
       <c r="AD36" s="48"/>
-      <c r="AG36" s="4"/>
-      <c r="AH36" s="4"/>
       <c r="AI36" s="4"/>
       <c r="AJ36" s="4"/>
-      <c r="AK36" s="48"/>
-      <c r="AL36" s="48"/>
       <c r="AM36" s="48"/>
       <c r="AN36" s="48"/>
       <c r="AO36" s="4" t="s">
@@ -19897,11 +19969,17 @@
       <c r="AT36" s="4" t="s">
         <v>766</v>
       </c>
+      <c r="AU36" s="4" t="s">
+        <v>2147</v>
+      </c>
+      <c r="AV36" s="4" t="s">
+        <v>2149</v>
+      </c>
       <c r="BI36" s="4" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="BJ36" s="4" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="37" spans="3:62" x14ac:dyDescent="0.25">
@@ -20074,8 +20152,6 @@
       <c r="AT39" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="AU39" s="48"/>
-      <c r="AV39" s="48"/>
     </row>
     <row r="40" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C40" s="4"/>
@@ -20133,8 +20209,6 @@
       <c r="AT40" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="AU40" s="48"/>
-      <c r="AV40" s="48"/>
     </row>
     <row r="41" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C41" s="4"/>
@@ -20194,8 +20268,6 @@
       <c r="AT41" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="AU41" s="48"/>
-      <c r="AV41" s="48"/>
     </row>
     <row r="42" spans="3:62" x14ac:dyDescent="0.25">
       <c r="E42" s="4"/>
@@ -20249,8 +20321,6 @@
       <c r="AT42" s="4" t="s">
         <v>772</v>
       </c>
-      <c r="AU42" s="48"/>
-      <c r="AV42" s="48"/>
     </row>
     <row r="43" spans="3:62" x14ac:dyDescent="0.25">
       <c r="E43" s="4"/>
@@ -20301,8 +20371,6 @@
       <c r="AT43" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="AU43" s="48"/>
-      <c r="AV43" s="48"/>
     </row>
     <row r="44" spans="3:62" x14ac:dyDescent="0.25">
       <c r="E44" s="4"/>
@@ -20448,10 +20516,10 @@
       <c r="AQ46" s="4"/>
       <c r="AR46" s="4"/>
       <c r="AS46" s="4" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="AT46" s="4" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="AU46" s="48"/>
       <c r="AV46" s="48"/>
@@ -20825,10 +20893,10 @@
       <c r="AH57" s="4"/>
       <c r="AI57" s="4"/>
       <c r="AO57" s="4" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="AP57" s="4" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="AS57" s="4" t="s">
         <v>784</v>
@@ -20969,10 +21037,10 @@
         <v>278</v>
       </c>
       <c r="AS63" s="4" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="AT63" s="4" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="64" spans="7:48" x14ac:dyDescent="0.25">
@@ -21015,10 +21083,10 @@
         <v>280</v>
       </c>
       <c r="AS65" s="4" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="AT65" s="4" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="66" spans="15:46" x14ac:dyDescent="0.25">
@@ -25468,7 +25536,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>1516</v>
@@ -25479,7 +25547,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>1516</v>
@@ -25490,7 +25558,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>1516</v>
@@ -25502,7 +25570,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>1516</v>
@@ -25514,7 +25582,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>1516</v>
@@ -25526,7 +25594,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>1516</v>
@@ -25538,7 +25606,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>1516</v>
@@ -25550,7 +25618,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>1516</v>
@@ -25562,7 +25630,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>1516</v>
@@ -25574,7 +25642,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="B184" t="s">
         <v>1516</v>
@@ -25586,7 +25654,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>1516</v>
@@ -25598,7 +25666,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>1516</v>
@@ -25610,7 +25678,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>1516</v>
@@ -25622,7 +25690,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>1516</v>
@@ -25634,7 +25702,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>1516</v>
@@ -25646,7 +25714,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>1516</v>
@@ -25658,7 +25726,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>1516</v>
@@ -25670,7 +25738,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>1516</v>
@@ -25682,7 +25750,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>1516</v>
@@ -25694,7 +25762,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>1516</v>
@@ -25706,7 +25774,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>1516</v>
@@ -25718,7 +25786,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>1516</v>
@@ -25730,7 +25798,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>1559</v>
@@ -25741,7 +25809,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="B198" t="s">
         <v>1516</v>
@@ -25752,7 +25820,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>1516</v>
@@ -25763,7 +25831,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>1516</v>
@@ -25774,7 +25842,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>1516</v>
@@ -25785,7 +25853,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>1516</v>
@@ -25796,7 +25864,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>1516</v>
@@ -25807,7 +25875,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>1516</v>
@@ -25818,7 +25886,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>1516</v>
@@ -25829,7 +25897,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>1516</v>
@@ -25840,7 +25908,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>1516</v>
@@ -25851,7 +25919,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>1516</v>
@@ -25862,7 +25930,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>1516</v>
@@ -25873,7 +25941,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>1516</v>
@@ -31063,10 +31131,10 @@
         <v>262</v>
       </c>
       <c r="K70" s="11" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -32165,7 +32233,7 @@
       </c>
       <c r="F3" s="59"/>
       <c r="G3" s="59" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="H3" s="59" t="s">
         <v>1790</v>
@@ -32220,7 +32288,7 @@
       <c r="F7" s="59"/>
       <c r="G7" s="59"/>
       <c r="H7" s="59" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -32232,7 +32300,7 @@
       <c r="F8" s="59"/>
       <c r="G8" s="59"/>
       <c r="H8" s="59" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -32311,7 +32379,7 @@
         <v>1873</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>1871</v>
@@ -32329,7 +32397,7 @@
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H18" s="4" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -32927,13 +32995,13 @@
         <v>20</v>
       </c>
       <c r="E93" s="4" t="s">
+        <v>2406</v>
+      </c>
+      <c r="G93" s="4" t="s">
         <v>2407</v>
       </c>
-      <c r="G93" s="4" t="s">
+      <c r="H93" s="4" t="s">
         <v>2408</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>2409</v>
       </c>
     </row>
     <row r="94" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -32948,13 +33016,13 @@
         <v>21</v>
       </c>
       <c r="E95" s="4" t="s">
+        <v>2409</v>
+      </c>
+      <c r="G95" s="4" t="s">
         <v>2410</v>
       </c>
-      <c r="G95" s="4" t="s">
+      <c r="H95" s="4" t="s">
         <v>2411</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>2412</v>
       </c>
     </row>
     <row r="96" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -32969,13 +33037,13 @@
         <v>22</v>
       </c>
       <c r="E97" s="4" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>2414</v>
+      </c>
+      <c r="H97" s="4" t="s">
         <v>2413</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>2415</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>2414</v>
       </c>
     </row>
     <row r="98" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="switch_models" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6003" uniqueCount="2428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6003" uniqueCount="2429">
   <si>
     <t>switchType</t>
   </si>
@@ -7335,6 +7335,9 @@
   </si>
   <si>
     <t>Всего портов в псевдониме</t>
+  </si>
+  <si>
+    <t>EMULEX|QLOGIC</t>
   </si>
 </sst>
 </file>
@@ -15187,8 +15190,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:BN176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AT30" sqref="AT30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23476,7 +23479,7 @@
   <dimension ref="A1:N210"/>
   <sheetViews>
     <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="E142" sqref="E142"/>
+      <selection activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25355,7 +25358,7 @@
         <v>1516</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>1667</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -32165,8 +32168,8 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" firstSheet="2" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="switch_models" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6003" uniqueCount="2429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6051" uniqueCount="2465">
   <si>
     <t>switchType</t>
   </si>
@@ -7338,6 +7338,114 @@
   </si>
   <si>
     <t>EMULEX|QLOGIC</t>
+  </si>
+  <si>
+    <t>Статистика_подключения_устройств_перевод_eng</t>
+  </si>
+  <si>
+    <t>Статистика_подключения_устройств_перевод_ru</t>
+  </si>
+  <si>
+    <t>low_speed</t>
+  </si>
+  <si>
+    <t>unsymmetric_connection</t>
+  </si>
+  <si>
+    <t>different_bandwidth</t>
+  </si>
+  <si>
+    <t>auto_speed</t>
+  </si>
+  <si>
+    <t>несимметричное подключение</t>
+  </si>
+  <si>
+    <t>низкая скорость</t>
+  </si>
+  <si>
+    <t>нет подключения к подсети</t>
+  </si>
+  <si>
+    <t>различная пропускная способность в подсетях</t>
+  </si>
+  <si>
+    <t>скрость не зафиксирована</t>
+  </si>
+  <si>
+    <t>no_fabric_connection</t>
+  </si>
+  <si>
+    <t>Device_port_quantity_A</t>
+  </si>
+  <si>
+    <t>Device_port_quantity_B</t>
+  </si>
+  <si>
+    <t>Unique_VC_quantity_A</t>
+  </si>
+  <si>
+    <t>Unique_VC_quantity_B</t>
+  </si>
+  <si>
+    <t>Bandwidth_A</t>
+  </si>
+  <si>
+    <t>Bandwidth_B</t>
+  </si>
+  <si>
+    <t>Device_connection_note</t>
+  </si>
+  <si>
+    <t>Single_VC_note</t>
+  </si>
+  <si>
+    <t>Bandwidth_note</t>
+  </si>
+  <si>
+    <t>Low_speed_note</t>
+  </si>
+  <si>
+    <t>Storage_Lib_speed_note</t>
+  </si>
+  <si>
+    <t>Device_port_quantity_Total</t>
+  </si>
+  <si>
+    <t>Пропускная способность в подсети А, Гб/с</t>
+  </si>
+  <si>
+    <t>Пропускная способность в подсети B, Гб/с</t>
+  </si>
+  <si>
+    <t>Количество портов в подсети А</t>
+  </si>
+  <si>
+    <t>Количество портов подсети B</t>
+  </si>
+  <si>
+    <t>Количество портов в фабрике</t>
+  </si>
+  <si>
+    <t>Количество VC в подсети А</t>
+  </si>
+  <si>
+    <t>Количество VC в подсети B</t>
+  </si>
+  <si>
+    <t>Примечание. Количество портов</t>
+  </si>
+  <si>
+    <t>Примечание. Пропускная способность</t>
+  </si>
+  <si>
+    <t>Примечание. Скорость подключения</t>
+  </si>
+  <si>
+    <t>Примечание. Режим скорости подключения</t>
+  </si>
+  <si>
+    <t>Примечание. Подсеть с одним виртуальным каналом VC</t>
   </si>
 </sst>
 </file>
@@ -15188,10 +15296,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:BN176"/>
+  <dimension ref="A1:BP176"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BO27" sqref="BO27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15255,9 +15363,11 @@
     <col min="63" max="63" width="35.140625" customWidth="1"/>
     <col min="64" max="64" width="23" customWidth="1"/>
     <col min="65" max="66" width="31.28515625" customWidth="1"/>
+    <col min="67" max="67" width="57.7109375" customWidth="1"/>
+    <col min="68" max="68" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
         <v>1932</v>
       </c>
@@ -15451,8 +15561,14 @@
       <c r="BN1" s="59" t="s">
         <v>2229</v>
       </c>
-    </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO1" s="34" t="s">
+        <v>2429</v>
+      </c>
+      <c r="BP1" s="34" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1772</v>
       </c>
@@ -15651,8 +15767,14 @@
       <c r="BN2" s="4" t="s">
         <v>2232</v>
       </c>
-    </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO2" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="BP2" s="4" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1771</v>
       </c>
@@ -15851,8 +15973,14 @@
       <c r="BN3" s="4" t="s">
         <v>2230</v>
       </c>
-    </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO3" s="4" t="s">
+        <v>1939</v>
+      </c>
+      <c r="BP3" s="4" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1911</v>
       </c>
@@ -16051,8 +16179,14 @@
       <c r="BN4" s="4" t="s">
         <v>2231</v>
       </c>
-    </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO4" s="4" t="s">
+        <v>1936</v>
+      </c>
+      <c r="BP4" s="4" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1763</v>
       </c>
@@ -16251,8 +16385,14 @@
       <c r="BN5" t="s">
         <v>2238</v>
       </c>
-    </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO5" s="4" t="s">
+        <v>1940</v>
+      </c>
+      <c r="BP5" s="4" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2031</v>
       </c>
@@ -16451,8 +16591,14 @@
       <c r="BN6" s="66" t="s">
         <v>2237</v>
       </c>
-    </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO6" s="4" t="s">
+        <v>1937</v>
+      </c>
+      <c r="BP6" s="4" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1764</v>
       </c>
@@ -16651,8 +16797,14 @@
       <c r="BN7" t="s">
         <v>2240</v>
       </c>
-    </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO7" s="4" t="s">
+        <v>2441</v>
+      </c>
+      <c r="BP7" s="4" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>1765</v>
       </c>
@@ -16851,8 +17003,14 @@
       <c r="BN8" t="s">
         <v>2242</v>
       </c>
-    </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO8" s="4" t="s">
+        <v>2442</v>
+      </c>
+      <c r="BP8" s="4" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>1766</v>
       </c>
@@ -17029,8 +17187,14 @@
       <c r="BL9" s="4" t="s">
         <v>2227</v>
       </c>
-    </row>
-    <row r="10" spans="1:66" ht="30" x14ac:dyDescent="0.25">
+      <c r="BO9" s="4" t="s">
+        <v>2452</v>
+      </c>
+      <c r="BP9" s="4" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>2030</v>
       </c>
@@ -17212,8 +17376,14 @@
       <c r="BL10" s="4" t="s">
         <v>2226</v>
       </c>
-    </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO10" s="4" t="s">
+        <v>2443</v>
+      </c>
+      <c r="BP10" s="4" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1767</v>
       </c>
@@ -17386,8 +17556,14 @@
       <c r="BJ11" s="4" t="s">
         <v>2361</v>
       </c>
-    </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO11" s="4" t="s">
+        <v>2444</v>
+      </c>
+      <c r="BP11" s="4" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>1770</v>
       </c>
@@ -17560,8 +17736,14 @@
       <c r="BJ12" s="4" t="s">
         <v>2360</v>
       </c>
-    </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO12" s="4" t="s">
+        <v>2445</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>1493</v>
       </c>
@@ -17729,8 +17911,14 @@
       <c r="BJ13" s="4" t="s">
         <v>2332</v>
       </c>
-    </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO13" s="4" t="s">
+        <v>2446</v>
+      </c>
+      <c r="BP13" s="4" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>2060</v>
       </c>
@@ -17898,8 +18086,14 @@
       <c r="BJ14" s="4" t="s">
         <v>2333</v>
       </c>
-    </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO14" s="4" t="s">
+        <v>2447</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>1936</v>
       </c>
@@ -18061,8 +18255,14 @@
       <c r="BJ15" s="4" t="s">
         <v>2335</v>
       </c>
-    </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO15" s="4" t="s">
+        <v>2448</v>
+      </c>
+      <c r="BP15" s="4" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>316</v>
       </c>
@@ -18201,8 +18401,14 @@
       <c r="BJ16" s="4" t="s">
         <v>2336</v>
       </c>
-    </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BO16" s="4" t="s">
+        <v>2449</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>317</v>
       </c>
@@ -18323,8 +18529,14 @@
       <c r="BJ17" s="4" t="s">
         <v>2337</v>
       </c>
-    </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BO17" s="4" t="s">
+        <v>2450</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
         <v>318</v>
       </c>
@@ -18434,8 +18646,14 @@
       <c r="BJ18" s="4" t="s">
         <v>2338</v>
       </c>
-    </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BO18" s="4" t="s">
+        <v>2451</v>
+      </c>
+      <c r="BP18" s="4" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>319</v>
       </c>
@@ -18544,8 +18762,14 @@
       <c r="BJ19" s="4" t="s">
         <v>2339</v>
       </c>
-    </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BO19" s="4" t="s">
+        <v>2440</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
         <v>320</v>
       </c>
@@ -18641,8 +18865,14 @@
       <c r="BJ20" s="4" t="s">
         <v>2357</v>
       </c>
-    </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BO20" s="4" t="s">
+        <v>2432</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
         <v>321</v>
       </c>
@@ -18738,8 +18968,14 @@
       <c r="BJ21" s="4" t="s">
         <v>2334</v>
       </c>
-    </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BO21" s="4" t="s">
+        <v>2431</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
         <v>322</v>
       </c>
@@ -18835,8 +19071,14 @@
       <c r="BJ22" s="4" t="s">
         <v>2342</v>
       </c>
-    </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BO22" s="4" t="s">
+        <v>2433</v>
+      </c>
+      <c r="BP22" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
         <v>323</v>
       </c>
@@ -18932,8 +19174,14 @@
       <c r="BJ23" s="4" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BO23" s="4" t="s">
+        <v>2434</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
       <c r="F24" s="3"/>
       <c r="I24" s="4" t="s">
         <v>247</v>
@@ -19027,8 +19275,14 @@
       <c r="BJ24" s="4" t="s">
         <v>2344</v>
       </c>
-    </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BO24" s="4" t="s">
+        <v>2362</v>
+      </c>
+      <c r="BP24" s="4" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68" x14ac:dyDescent="0.25">
       <c r="F25" s="3"/>
       <c r="I25" s="4" t="s">
         <v>240</v>
@@ -19117,8 +19371,9 @@
       <c r="BJ25" s="4" t="s">
         <v>2345</v>
       </c>
-    </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BO25" s="4"/>
+    </row>
+    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
       <c r="F26" s="3"/>
       <c r="I26" s="4" t="s">
         <v>251</v>
@@ -19209,8 +19464,9 @@
       <c r="BJ26" s="4" t="s">
         <v>2346</v>
       </c>
-    </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BO26" s="4"/>
+    </row>
+    <row r="27" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -19302,8 +19558,9 @@
       <c r="BJ27" s="4" t="s">
         <v>2347</v>
       </c>
-    </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BO27" s="4"/>
+    </row>
+    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -19388,8 +19645,9 @@
       <c r="BJ28" s="4" t="s">
         <v>2348</v>
       </c>
-    </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BO28" s="4"/>
+    </row>
+    <row r="29" spans="1:68" x14ac:dyDescent="0.25">
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="I29" s="4" t="s">
@@ -19459,8 +19717,9 @@
       <c r="BJ29" s="4" t="s">
         <v>2349</v>
       </c>
-    </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BO29" s="4"/>
+    </row>
+    <row r="30" spans="1:68" x14ac:dyDescent="0.25">
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="I30" s="4" t="s">
@@ -19532,8 +19791,9 @@
       <c r="BJ30" s="4" t="s">
         <v>2350</v>
       </c>
-    </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BO30" s="4"/>
+    </row>
+    <row r="31" spans="1:68" x14ac:dyDescent="0.25">
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="48"/>
@@ -19610,8 +19870,9 @@
       <c r="BJ31" s="4" t="s">
         <v>2351</v>
       </c>
-    </row>
-    <row r="32" spans="1:62" ht="30" x14ac:dyDescent="0.25">
+      <c r="BO31" s="4"/>
+    </row>
+    <row r="32" spans="1:68" ht="30" x14ac:dyDescent="0.25">
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="48"/>
@@ -19688,8 +19949,9 @@
       <c r="BJ32" s="4" t="s">
         <v>2352</v>
       </c>
-    </row>
-    <row r="33" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BO32" s="4"/>
+    </row>
+    <row r="33" spans="3:68" x14ac:dyDescent="0.25">
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="48"/>
@@ -19765,8 +20027,9 @@
       <c r="BJ33" s="4" t="s">
         <v>2353</v>
       </c>
-    </row>
-    <row r="34" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BO33" s="4"/>
+    </row>
+    <row r="34" spans="3:68" x14ac:dyDescent="0.25">
       <c r="E34" s="4"/>
       <c r="F34" s="3"/>
       <c r="G34" s="48"/>
@@ -19845,8 +20108,9 @@
       <c r="BJ34" s="4" t="s">
         <v>2354</v>
       </c>
-    </row>
-    <row r="35" spans="3:62" ht="30" x14ac:dyDescent="0.25">
+      <c r="BO34" s="4"/>
+    </row>
+    <row r="35" spans="3:68" ht="30" x14ac:dyDescent="0.25">
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="48"/>
@@ -19919,8 +20183,9 @@
       <c r="BJ35" s="4" t="s">
         <v>2355</v>
       </c>
-    </row>
-    <row r="36" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BO35" s="4"/>
+    </row>
+    <row r="36" spans="3:68" x14ac:dyDescent="0.25">
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="48"/>
@@ -19984,8 +20249,9 @@
       <c r="BJ36" s="4" t="s">
         <v>2356</v>
       </c>
-    </row>
-    <row r="37" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BO36" s="4"/>
+    </row>
+    <row r="37" spans="3:68" x14ac:dyDescent="0.25">
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="48"/>
@@ -20041,8 +20307,9 @@
       <c r="AT37" s="4" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="38" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BO37" s="4"/>
+    </row>
+    <row r="38" spans="3:68" x14ac:dyDescent="0.25">
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="48"/>
@@ -20098,8 +20365,9 @@
       <c r="AT38" s="4" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="39" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BO38" s="4"/>
+    </row>
+    <row r="39" spans="3:68" x14ac:dyDescent="0.25">
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="48"/>
@@ -20155,8 +20423,9 @@
       <c r="AT39" s="4" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="40" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BO39" s="3"/>
+    </row>
+    <row r="40" spans="3:68" x14ac:dyDescent="0.25">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -20212,8 +20481,9 @@
       <c r="AT40" s="4" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="41" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BO40" s="3"/>
+    </row>
+    <row r="41" spans="3:68" x14ac:dyDescent="0.25">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -20271,8 +20541,9 @@
       <c r="AT41" s="4" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="42" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BO41" s="3"/>
+    </row>
+    <row r="42" spans="3:68" x14ac:dyDescent="0.25">
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="48"/>
@@ -20324,8 +20595,9 @@
       <c r="AT42" s="4" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="43" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BO42" s="3"/>
+    </row>
+    <row r="43" spans="3:68" x14ac:dyDescent="0.25">
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="48"/>
@@ -20374,8 +20646,9 @@
       <c r="AT43" s="4" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="44" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BO43" s="3"/>
+    </row>
+    <row r="44" spans="3:68" x14ac:dyDescent="0.25">
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="48"/>
@@ -20426,8 +20699,9 @@
       </c>
       <c r="AU44" s="48"/>
       <c r="AV44" s="48"/>
-    </row>
-    <row r="45" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BO44" s="3"/>
+    </row>
+    <row r="45" spans="3:68" x14ac:dyDescent="0.25">
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="48"/>
@@ -20478,8 +20752,10 @@
       </c>
       <c r="AU45" s="48"/>
       <c r="AV45" s="48"/>
-    </row>
-    <row r="46" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BO45" s="3"/>
+      <c r="BP45" s="4"/>
+    </row>
+    <row r="46" spans="3:68" x14ac:dyDescent="0.25">
       <c r="E46" s="3"/>
       <c r="F46" s="4"/>
       <c r="G46" s="48"/>
@@ -20526,8 +20802,9 @@
       </c>
       <c r="AU46" s="48"/>
       <c r="AV46" s="48"/>
-    </row>
-    <row r="47" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BP46" s="4"/>
+    </row>
+    <row r="47" spans="3:68" x14ac:dyDescent="0.25">
       <c r="E47" s="3"/>
       <c r="F47" s="4"/>
       <c r="G47" s="48"/>
@@ -20574,8 +20851,9 @@
       </c>
       <c r="AU47" s="48"/>
       <c r="AV47" s="48"/>
-    </row>
-    <row r="48" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BP47" s="3"/>
+    </row>
+    <row r="48" spans="3:68" x14ac:dyDescent="0.25">
       <c r="E48" s="3"/>
       <c r="F48" s="4"/>
       <c r="G48" s="48"/>
@@ -20622,8 +20900,9 @@
       </c>
       <c r="AU48" s="48"/>
       <c r="AV48" s="48"/>
-    </row>
-    <row r="49" spans="7:48" x14ac:dyDescent="0.25">
+      <c r="BP48" s="4"/>
+    </row>
+    <row r="49" spans="7:68" x14ac:dyDescent="0.25">
       <c r="G49" s="48"/>
       <c r="H49" s="48"/>
       <c r="I49" s="48"/>
@@ -20665,8 +20944,9 @@
       </c>
       <c r="AU49" s="48"/>
       <c r="AV49" s="48"/>
-    </row>
-    <row r="50" spans="7:48" x14ac:dyDescent="0.25">
+      <c r="BP49" s="4"/>
+    </row>
+    <row r="50" spans="7:68" x14ac:dyDescent="0.25">
       <c r="G50" s="48"/>
       <c r="H50" s="48"/>
       <c r="I50" s="48"/>
@@ -20706,8 +20986,9 @@
       </c>
       <c r="AU50" s="48"/>
       <c r="AV50" s="48"/>
-    </row>
-    <row r="51" spans="7:48" x14ac:dyDescent="0.25">
+      <c r="BP50" s="4"/>
+    </row>
+    <row r="51" spans="7:68" x14ac:dyDescent="0.25">
       <c r="G51" s="48"/>
       <c r="H51" s="48"/>
       <c r="I51" s="48"/>
@@ -20745,8 +21026,9 @@
       </c>
       <c r="AU51" s="48"/>
       <c r="AV51" s="48"/>
-    </row>
-    <row r="52" spans="7:48" x14ac:dyDescent="0.25">
+      <c r="BP51" s="4"/>
+    </row>
+    <row r="52" spans="7:68" x14ac:dyDescent="0.25">
       <c r="I52" s="48"/>
       <c r="J52" s="48"/>
       <c r="O52" s="4" t="s">
@@ -20776,8 +21058,9 @@
       </c>
       <c r="AU52" s="48"/>
       <c r="AV52" s="48"/>
-    </row>
-    <row r="53" spans="7:48" x14ac:dyDescent="0.25">
+      <c r="BP52" s="4"/>
+    </row>
+    <row r="53" spans="7:68" x14ac:dyDescent="0.25">
       <c r="I53" s="48"/>
       <c r="J53" s="48"/>
       <c r="O53" s="4" t="s">
@@ -20805,8 +21088,9 @@
       </c>
       <c r="AU53" s="48"/>
       <c r="AV53" s="48"/>
-    </row>
-    <row r="54" spans="7:48" x14ac:dyDescent="0.25">
+      <c r="BP53" s="4"/>
+    </row>
+    <row r="54" spans="7:68" x14ac:dyDescent="0.25">
       <c r="I54" s="48"/>
       <c r="J54" s="48"/>
       <c r="O54" s="4" t="s">
@@ -20832,8 +21116,9 @@
       <c r="AT54" s="4" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="55" spans="7:48" x14ac:dyDescent="0.25">
+      <c r="BP54" s="4"/>
+    </row>
+    <row r="55" spans="7:68" x14ac:dyDescent="0.25">
       <c r="I55" s="48"/>
       <c r="J55" s="48"/>
       <c r="O55" s="4" t="s">
@@ -20858,8 +21143,9 @@
       <c r="AT55" s="4" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="56" spans="7:48" x14ac:dyDescent="0.25">
+      <c r="BP55" s="4"/>
+    </row>
+    <row r="56" spans="7:68" x14ac:dyDescent="0.25">
       <c r="I56" s="48"/>
       <c r="J56" s="48"/>
       <c r="O56" s="4" t="s">
@@ -20884,8 +21170,9 @@
       <c r="AT56" s="4" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="57" spans="7:48" x14ac:dyDescent="0.25">
+      <c r="BP56" s="4"/>
+    </row>
+    <row r="57" spans="7:68" x14ac:dyDescent="0.25">
       <c r="O57" s="4" t="s">
         <v>1267</v>
       </c>
@@ -20907,8 +21194,9 @@
       <c r="AT57" s="4" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="58" spans="7:48" x14ac:dyDescent="0.25">
+      <c r="BP57" s="4"/>
+    </row>
+    <row r="58" spans="7:68" x14ac:dyDescent="0.25">
       <c r="O58" s="4" t="s">
         <v>1268</v>
       </c>
@@ -20930,8 +21218,9 @@
       <c r="AT58" s="4" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="59" spans="7:48" x14ac:dyDescent="0.25">
+      <c r="BP58" s="4"/>
+    </row>
+    <row r="59" spans="7:68" x14ac:dyDescent="0.25">
       <c r="O59" s="4" t="s">
         <v>1269</v>
       </c>
@@ -20953,8 +21242,9 @@
       <c r="AT59" s="4" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="60" spans="7:48" x14ac:dyDescent="0.25">
+      <c r="BP59" s="4"/>
+    </row>
+    <row r="60" spans="7:68" x14ac:dyDescent="0.25">
       <c r="O60" s="49" t="s">
         <v>1312</v>
       </c>
@@ -20976,8 +21266,9 @@
       <c r="AT60" s="4" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="61" spans="7:48" x14ac:dyDescent="0.25">
+      <c r="BP60" s="4"/>
+    </row>
+    <row r="61" spans="7:68" x14ac:dyDescent="0.25">
       <c r="O61" s="4" t="s">
         <v>1270</v>
       </c>
@@ -20999,8 +21290,9 @@
       <c r="AT61" s="4" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="62" spans="7:48" x14ac:dyDescent="0.25">
+      <c r="BP61" s="4"/>
+    </row>
+    <row r="62" spans="7:68" x14ac:dyDescent="0.25">
       <c r="O62" s="4" t="s">
         <v>1271</v>
       </c>
@@ -21022,8 +21314,9 @@
       <c r="AT62" s="4" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="63" spans="7:48" x14ac:dyDescent="0.25">
+      <c r="BP62" s="4"/>
+    </row>
+    <row r="63" spans="7:68" x14ac:dyDescent="0.25">
       <c r="O63" s="4" t="s">
         <v>1272</v>
       </c>
@@ -21045,8 +21338,9 @@
       <c r="AT63" s="4" t="s">
         <v>2418</v>
       </c>
-    </row>
-    <row r="64" spans="7:48" x14ac:dyDescent="0.25">
+      <c r="BP63" s="4"/>
+    </row>
+    <row r="64" spans="7:68" x14ac:dyDescent="0.25">
       <c r="O64" s="4" t="s">
         <v>1273</v>
       </c>
@@ -21068,8 +21362,9 @@
       <c r="AT64" s="4" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="65" spans="15:46" x14ac:dyDescent="0.25">
+      <c r="BP64" s="4"/>
+    </row>
+    <row r="65" spans="15:68" x14ac:dyDescent="0.25">
       <c r="O65" s="4" t="s">
         <v>1274</v>
       </c>
@@ -21091,8 +21386,9 @@
       <c r="AT65" s="4" t="s">
         <v>2416</v>
       </c>
-    </row>
-    <row r="66" spans="15:46" x14ac:dyDescent="0.25">
+      <c r="BP65" s="3"/>
+    </row>
+    <row r="66" spans="15:68" x14ac:dyDescent="0.25">
       <c r="O66" s="4" t="s">
         <v>1275</v>
       </c>
@@ -21115,7 +21411,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="67" spans="15:46" x14ac:dyDescent="0.25">
+    <row r="67" spans="15:68" x14ac:dyDescent="0.25">
       <c r="O67" s="4" t="s">
         <v>1276</v>
       </c>
@@ -21138,7 +21434,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="68" spans="15:46" x14ac:dyDescent="0.25">
+    <row r="68" spans="15:68" x14ac:dyDescent="0.25">
       <c r="O68" s="4" t="s">
         <v>1277</v>
       </c>
@@ -21161,7 +21457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="15:46" x14ac:dyDescent="0.25">
+    <row r="69" spans="15:68" x14ac:dyDescent="0.25">
       <c r="O69" s="4" t="s">
         <v>1278</v>
       </c>
@@ -21184,7 +21480,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="15:46" x14ac:dyDescent="0.25">
+    <row r="70" spans="15:68" x14ac:dyDescent="0.25">
       <c r="O70" s="4" t="s">
         <v>1279</v>
       </c>
@@ -21207,7 +21503,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="15:46" x14ac:dyDescent="0.25">
+    <row r="71" spans="15:68" x14ac:dyDescent="0.25">
       <c r="O71" s="4" t="s">
         <v>1280</v>
       </c>
@@ -21230,7 +21526,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="72" spans="15:46" x14ac:dyDescent="0.25">
+    <row r="72" spans="15:68" x14ac:dyDescent="0.25">
       <c r="O72" s="4" t="s">
         <v>1281</v>
       </c>
@@ -21247,7 +21543,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="73" spans="15:46" x14ac:dyDescent="0.25">
+    <row r="73" spans="15:68" x14ac:dyDescent="0.25">
       <c r="O73" s="4" t="s">
         <v>1282</v>
       </c>
@@ -21264,7 +21560,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="74" spans="15:46" x14ac:dyDescent="0.25">
+    <row r="74" spans="15:68" x14ac:dyDescent="0.25">
       <c r="O74" s="4" t="s">
         <v>1283</v>
       </c>
@@ -21281,7 +21577,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="75" spans="15:46" x14ac:dyDescent="0.25">
+    <row r="75" spans="15:68" x14ac:dyDescent="0.25">
       <c r="O75" s="4" t="s">
         <v>1284</v>
       </c>
@@ -21298,7 +21594,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="76" spans="15:46" x14ac:dyDescent="0.25">
+    <row r="76" spans="15:68" x14ac:dyDescent="0.25">
       <c r="O76" s="4" t="s">
         <v>1285</v>
       </c>
@@ -21315,7 +21611,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="77" spans="15:46" x14ac:dyDescent="0.25">
+    <row r="77" spans="15:68" x14ac:dyDescent="0.25">
       <c r="O77" s="4" t="s">
         <v>1286</v>
       </c>
@@ -21332,7 +21628,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="78" spans="15:46" x14ac:dyDescent="0.25">
+    <row r="78" spans="15:68" x14ac:dyDescent="0.25">
       <c r="O78" s="4" t="s">
         <v>1287</v>
       </c>
@@ -21349,7 +21645,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="79" spans="15:46" x14ac:dyDescent="0.25">
+    <row r="79" spans="15:68" x14ac:dyDescent="0.25">
       <c r="O79" s="4" t="s">
         <v>1288</v>
       </c>
@@ -21366,7 +21662,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="80" spans="15:46" x14ac:dyDescent="0.25">
+    <row r="80" spans="15:68" x14ac:dyDescent="0.25">
       <c r="O80" s="4" t="s">
         <v>1289</v>
       </c>
@@ -32168,8 +32464,8 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="D40" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6051" uniqueCount="2465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6055" uniqueCount="2469">
   <si>
     <t>switchType</t>
   </si>
@@ -7446,6 +7446,18 @@
   </si>
   <si>
     <t>Примечание. Подсеть с одним виртуальным каналом VC</t>
+  </si>
+  <si>
+    <t>нет подключения к подсети A</t>
+  </si>
+  <si>
+    <t>нет подключения к подсети B</t>
+  </si>
+  <si>
+    <t>no_connection_fabric_A</t>
+  </si>
+  <si>
+    <t>no_connection_fabric_B</t>
   </si>
 </sst>
 </file>
@@ -18866,10 +18878,10 @@
         <v>2357</v>
       </c>
       <c r="BO20" s="4" t="s">
-        <v>2432</v>
-      </c>
-      <c r="BP20" t="s">
-        <v>2435</v>
+        <v>2467</v>
+      </c>
+      <c r="BP20" s="4" t="s">
+        <v>2465</v>
       </c>
     </row>
     <row r="21" spans="1:68" x14ac:dyDescent="0.25">
@@ -18969,10 +18981,10 @@
         <v>2334</v>
       </c>
       <c r="BO21" s="4" t="s">
-        <v>2431</v>
-      </c>
-      <c r="BP21" t="s">
-        <v>2436</v>
+        <v>2468</v>
+      </c>
+      <c r="BP21" s="4" t="s">
+        <v>2466</v>
       </c>
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.25">
@@ -19072,10 +19084,10 @@
         <v>2342</v>
       </c>
       <c r="BO22" s="4" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="BP22" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="23" spans="1:68" x14ac:dyDescent="0.25">
@@ -19175,10 +19187,10 @@
         <v>2343</v>
       </c>
       <c r="BO23" s="4" t="s">
-        <v>2434</v>
+        <v>2431</v>
       </c>
       <c r="BP23" t="s">
-        <v>2439</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="24" spans="1:68" x14ac:dyDescent="0.25">
@@ -19276,10 +19288,10 @@
         <v>2344</v>
       </c>
       <c r="BO24" s="4" t="s">
-        <v>2362</v>
-      </c>
-      <c r="BP24" s="4" t="s">
-        <v>2363</v>
+        <v>2433</v>
+      </c>
+      <c r="BP24" t="s">
+        <v>2438</v>
       </c>
     </row>
     <row r="25" spans="1:68" x14ac:dyDescent="0.25">
@@ -19371,7 +19383,12 @@
       <c r="BJ25" s="4" t="s">
         <v>2345</v>
       </c>
-      <c r="BO25" s="4"/>
+      <c r="BO25" s="4" t="s">
+        <v>2434</v>
+      </c>
+      <c r="BP25" t="s">
+        <v>2439</v>
+      </c>
     </row>
     <row r="26" spans="1:68" x14ac:dyDescent="0.25">
       <c r="F26" s="3"/>
@@ -19464,7 +19481,12 @@
       <c r="BJ26" s="4" t="s">
         <v>2346</v>
       </c>
-      <c r="BO26" s="4"/>
+      <c r="BO26" s="4" t="s">
+        <v>2362</v>
+      </c>
+      <c r="BP26" s="4" t="s">
+        <v>2363</v>
+      </c>
     </row>
     <row r="27" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -20423,7 +20445,7 @@
       <c r="AT39" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="BO39" s="3"/>
+      <c r="BO39" s="4"/>
     </row>
     <row r="40" spans="3:68" x14ac:dyDescent="0.25">
       <c r="C40" s="4"/>
@@ -20481,7 +20503,7 @@
       <c r="AT40" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="BO40" s="3"/>
+      <c r="BO40" s="4"/>
     </row>
     <row r="41" spans="3:68" x14ac:dyDescent="0.25">
       <c r="C41" s="4"/>
@@ -20753,7 +20775,6 @@
       <c r="AU45" s="48"/>
       <c r="AV45" s="48"/>
       <c r="BO45" s="3"/>
-      <c r="BP45" s="4"/>
     </row>
     <row r="46" spans="3:68" x14ac:dyDescent="0.25">
       <c r="E46" s="3"/>
@@ -20802,7 +20823,7 @@
       </c>
       <c r="AU46" s="48"/>
       <c r="AV46" s="48"/>
-      <c r="BP46" s="4"/>
+      <c r="BO46" s="3"/>
     </row>
     <row r="47" spans="3:68" x14ac:dyDescent="0.25">
       <c r="E47" s="3"/>
@@ -20851,7 +20872,8 @@
       </c>
       <c r="AU47" s="48"/>
       <c r="AV47" s="48"/>
-      <c r="BP47" s="3"/>
+      <c r="BO47" s="3"/>
+      <c r="BP47" s="4"/>
     </row>
     <row r="48" spans="3:68" x14ac:dyDescent="0.25">
       <c r="E48" s="3"/>
@@ -20944,7 +20966,7 @@
       </c>
       <c r="AU49" s="48"/>
       <c r="AV49" s="48"/>
-      <c r="BP49" s="4"/>
+      <c r="BP49" s="3"/>
     </row>
     <row r="50" spans="7:68" x14ac:dyDescent="0.25">
       <c r="G50" s="48"/>
@@ -21386,7 +21408,7 @@
       <c r="AT65" s="4" t="s">
         <v>2416</v>
       </c>
-      <c r="BP65" s="3"/>
+      <c r="BP65" s="4"/>
     </row>
     <row r="66" spans="15:68" x14ac:dyDescent="0.25">
       <c r="O66" s="4" t="s">
@@ -21410,6 +21432,7 @@
       <c r="AT66" s="4" t="s">
         <v>788</v>
       </c>
+      <c r="BP66" s="4"/>
     </row>
     <row r="67" spans="15:68" x14ac:dyDescent="0.25">
       <c r="O67" s="4" t="s">
@@ -21433,6 +21456,7 @@
       <c r="AT67" s="4" t="s">
         <v>789</v>
       </c>
+      <c r="BP67" s="3"/>
     </row>
     <row r="68" spans="15:68" x14ac:dyDescent="0.25">
       <c r="O68" s="4" t="s">

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -6944,9 +6944,6 @@
     <t>Члены зоны определены через псевдоним</t>
   </si>
   <si>
-    <t>Члены зоны определены через wwn</t>
-  </si>
-  <si>
     <t>Члены зоны определены через DI</t>
   </si>
   <si>
@@ -7458,6 +7455,9 @@
   </si>
   <si>
     <t>no_connection_fabric_B</t>
+  </si>
+  <si>
+    <t>Члены зоны определены через wwnp(wwnn)</t>
   </si>
 </sst>
 </file>
@@ -9197,7 +9197,7 @@
         <v>1125</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>1096</v>
@@ -9223,7 +9223,7 @@
         <v>1108</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>4</v>
@@ -9249,7 +9249,7 @@
         <v>1108</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>1096</v>
@@ -9275,7 +9275,7 @@
         <v>1126</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>1097</v>
@@ -9301,7 +9301,7 @@
         <v>1110</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>1097</v>
@@ -9327,7 +9327,7 @@
         <v>1109</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
@@ -9353,7 +9353,7 @@
         <v>1110</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -9457,7 +9457,7 @@
         <v>1107</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
@@ -9483,7 +9483,7 @@
         <v>1107</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>4</v>
@@ -9873,7 +9873,7 @@
         <v>1113</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>1096</v>
@@ -10003,7 +10003,7 @@
         <v>1110</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>1096</v>
@@ -15221,7 +15221,7 @@
         <v>2019</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="F49" s="32" t="s">
         <v>2021</v>
@@ -15310,8 +15310,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:BP176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BO27" sqref="BO27"/>
+    <sheetView tabSelected="1" topLeftCell="BB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BH36" sqref="BH36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15556,10 +15556,10 @@
         <v>2207</v>
       </c>
       <c r="BI1" s="20" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="BJ1" s="20" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="BK1" s="9" t="s">
         <v>2221</v>
@@ -15574,10 +15574,10 @@
         <v>2229</v>
       </c>
       <c r="BO1" s="34" t="s">
+        <v>2428</v>
+      </c>
+      <c r="BP1" s="34" t="s">
         <v>2429</v>
-      </c>
-      <c r="BP1" s="34" t="s">
-        <v>2430</v>
       </c>
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.25">
@@ -16174,10 +16174,10 @@
         <v>2120</v>
       </c>
       <c r="BI4" s="4" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="BJ4" s="4" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="BK4" s="4" t="s">
         <v>509</v>
@@ -16380,10 +16380,10 @@
         <v>2121</v>
       </c>
       <c r="BI5" s="4" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="BJ5" s="4" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="BK5" s="4" t="s">
         <v>120</v>
@@ -16586,10 +16586,10 @@
         <v>2122</v>
       </c>
       <c r="BI6" s="4" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="BJ6" s="4" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="BK6" s="4" t="s">
         <v>2211</v>
@@ -16795,7 +16795,7 @@
         <v>2161</v>
       </c>
       <c r="BJ7" s="4" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="BK7" s="4" t="s">
         <v>144</v>
@@ -16810,10 +16810,10 @@
         <v>2240</v>
       </c>
       <c r="BO7" s="4" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="BP7" s="4" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.25">
@@ -17001,7 +17001,7 @@
         <v>2164</v>
       </c>
       <c r="BJ8" s="4" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="BK8" s="4" t="s">
         <v>2212</v>
@@ -17016,10 +17016,10 @@
         <v>2242</v>
       </c>
       <c r="BO8" s="4" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="BP8" s="4" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.25">
@@ -17191,7 +17191,7 @@
         <v>2162</v>
       </c>
       <c r="BJ9" s="4" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="BK9" s="4" t="s">
         <v>2213</v>
@@ -17200,10 +17200,10 @@
         <v>2227</v>
       </c>
       <c r="BO9" s="4" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BP9" s="4" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="10" spans="1:68" ht="30" x14ac:dyDescent="0.25">
@@ -17380,7 +17380,7 @@
         <v>2163</v>
       </c>
       <c r="BJ10" s="4" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="BK10" s="4" t="s">
         <v>2214</v>
@@ -17389,10 +17389,10 @@
         <v>2226</v>
       </c>
       <c r="BO10" s="4" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="BP10" s="4" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.25">
@@ -17566,13 +17566,13 @@
         <v>2165</v>
       </c>
       <c r="BJ11" s="4" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="BO11" s="4" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="BP11" s="4" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.25">
@@ -17746,13 +17746,13 @@
         <v>2166</v>
       </c>
       <c r="BJ12" s="4" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="BO12" s="4" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="BP12" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.25">
@@ -17921,13 +17921,13 @@
         <v>2152</v>
       </c>
       <c r="BJ13" s="4" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="BO13" s="4" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="BP13" s="4" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.25">
@@ -18087,7 +18087,7 @@
         <v>1943</v>
       </c>
       <c r="BG14" s="4" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="BH14" s="4" t="s">
         <v>2205</v>
@@ -18096,13 +18096,13 @@
         <v>2153</v>
       </c>
       <c r="BJ14" s="4" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="BO14" s="4" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="BP14" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.25">
@@ -18238,10 +18238,10 @@
         <v>2131</v>
       </c>
       <c r="AY15" s="4" t="s">
+        <v>2361</v>
+      </c>
+      <c r="AZ15" t="s">
         <v>2362</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>2363</v>
       </c>
       <c r="BA15" t="s">
         <v>1936</v>
@@ -18265,13 +18265,13 @@
         <v>2154</v>
       </c>
       <c r="BJ15" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="BO15" s="4" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="BP15" s="4" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.25">
@@ -18411,13 +18411,13 @@
         <v>2155</v>
       </c>
       <c r="BJ16" s="4" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="BO16" s="4" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="BP16" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.25">
@@ -18539,13 +18539,13 @@
         <v>2156</v>
       </c>
       <c r="BJ17" s="4" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="BO17" s="4" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BP17" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.25">
@@ -18656,13 +18656,13 @@
         <v>2167</v>
       </c>
       <c r="BJ18" s="4" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="BO18" s="4" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="BP18" s="4" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.25">
@@ -18772,13 +18772,13 @@
         <v>2168</v>
       </c>
       <c r="BJ19" s="4" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="BO19" s="4" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="BP19" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="20" spans="1:68" x14ac:dyDescent="0.25">
@@ -18875,13 +18875,13 @@
         <v>1052</v>
       </c>
       <c r="BJ20" s="4" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="BO20" s="4" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BP20" s="4" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="21" spans="1:68" x14ac:dyDescent="0.25">
@@ -18975,16 +18975,16 @@
         <v>2149</v>
       </c>
       <c r="BI21" s="4" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="BJ21" s="4" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="BO21" s="4" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="BP21" s="4" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.25">
@@ -19035,10 +19035,10 @@
         <v>1016</v>
       </c>
       <c r="AK22" s="3" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="AL22" s="4" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="AO22" s="4" t="s">
         <v>172</v>
@@ -19078,16 +19078,16 @@
         <v>2296</v>
       </c>
       <c r="BI22" s="4" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="BJ22" s="4" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="BO22" s="4" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="BP22" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="23" spans="1:68" x14ac:dyDescent="0.25">
@@ -19138,10 +19138,10 @@
         <v>1942</v>
       </c>
       <c r="AK23" s="3" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="AL23" s="4" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="AO23" s="4" t="s">
         <v>179</v>
@@ -19178,19 +19178,19 @@
         <v>2293</v>
       </c>
       <c r="BH23" s="4" t="s">
-        <v>2297</v>
+        <v>2468</v>
       </c>
       <c r="BI23" s="4" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="BJ23" s="4" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="BO23" s="4" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="BP23" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="24" spans="1:68" x14ac:dyDescent="0.25">
@@ -19228,22 +19228,22 @@
       <c r="AC24" s="4"/>
       <c r="AD24" s="48"/>
       <c r="AG24" s="3" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="AH24" s="4" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="AI24" s="3" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="AJ24" s="4" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="AK24" s="3" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="AL24" s="4" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="AO24" s="4" t="s">
         <v>185</v>
@@ -19279,19 +19279,19 @@
         <v>2294</v>
       </c>
       <c r="BH24" s="4" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="BI24" s="4" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="BJ24" s="4" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="BO24" s="4" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="BP24" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="25" spans="1:68" x14ac:dyDescent="0.25">
@@ -19324,16 +19324,16 @@
       <c r="AA25" s="4"/>
       <c r="AD25" s="48"/>
       <c r="AG25" s="3" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="AH25" s="4" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="AI25" s="3" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="AJ25" s="4" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="AK25" s="3" t="s">
         <v>1939</v>
@@ -19375,19 +19375,19 @@
         <v>2295</v>
       </c>
       <c r="BH25" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="BI25" s="4" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="BJ25" s="4" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="BO25" s="4" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="BP25" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="26" spans="1:68" x14ac:dyDescent="0.25">
@@ -19422,16 +19422,16 @@
       <c r="AC26" s="4"/>
       <c r="AD26" s="48"/>
       <c r="AG26" s="3" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="AH26" s="4" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="AI26" s="3" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="AJ26" s="4" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="AK26" s="3" t="s">
         <v>1940</v>
@@ -19470,22 +19470,22 @@
         <v>2128</v>
       </c>
       <c r="BG26" s="4" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="BH26" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="BI26" s="4" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="BJ26" s="4" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="BO26" s="4" t="s">
+        <v>2361</v>
+      </c>
+      <c r="BP26" s="4" t="s">
         <v>2362</v>
-      </c>
-      <c r="BP26" s="4" t="s">
-        <v>2363</v>
       </c>
     </row>
     <row r="27" spans="1:68" x14ac:dyDescent="0.25">
@@ -19569,16 +19569,16 @@
         <v>2129</v>
       </c>
       <c r="BG27" s="4" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="BH27" s="4" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="BI27" s="4" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="BJ27" s="4" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="BO27" s="4"/>
     </row>
@@ -19656,16 +19656,16 @@
         <v>2148</v>
       </c>
       <c r="BG28" s="4" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="BH28" s="4" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="BI28" s="4" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="BJ28" s="4" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="BO28" s="4"/>
     </row>
@@ -19728,16 +19728,16 @@
         <v>2128</v>
       </c>
       <c r="AW29" s="4" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="AX29" s="4" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="BI29" s="4" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="BJ29" s="4" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="BO29" s="4"/>
     </row>
@@ -19802,16 +19802,16 @@
         <v>2129</v>
       </c>
       <c r="AW30" s="4" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="AX30" s="4" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="BI30" s="4" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="BJ30" s="4" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="BO30" s="4"/>
     </row>
@@ -19884,13 +19884,13 @@
         <v>2180</v>
       </c>
       <c r="AX31" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="BI31" s="4" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="BJ31" s="4" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="BO31" s="4"/>
     </row>
@@ -19954,10 +19954,10 @@
         <v>762</v>
       </c>
       <c r="AU32" s="3" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="AV32" s="4" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="AW32" s="4" t="s">
         <v>2179</v>
@@ -19966,10 +19966,10 @@
         <v>2181</v>
       </c>
       <c r="BI32" s="4" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="BJ32" s="4" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="BO32" s="4"/>
     </row>
@@ -20032,10 +20032,10 @@
         <v>763</v>
       </c>
       <c r="AU33" s="3" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="AV33" s="4" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="AW33" s="4" t="s">
         <v>2188</v>
@@ -20044,10 +20044,10 @@
         <v>2182</v>
       </c>
       <c r="BI33" s="4" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="BJ33" s="4" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="BO33" s="4"/>
     </row>
@@ -20113,10 +20113,10 @@
         <v>764</v>
       </c>
       <c r="AU34" s="3" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="AV34" s="4" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="AW34" s="4" t="s">
         <v>2187</v>
@@ -20125,10 +20125,10 @@
         <v>2183</v>
       </c>
       <c r="BI34" s="4" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="BJ34" s="4" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="BO34" s="4"/>
     </row>
@@ -20200,10 +20200,10 @@
         <v>2178</v>
       </c>
       <c r="BI35" s="4" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="BJ35" s="4" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="BO35" s="4"/>
     </row>
@@ -20266,10 +20266,10 @@
         <v>2149</v>
       </c>
       <c r="BI36" s="4" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="BJ36" s="4" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="BO36" s="4"/>
     </row>
@@ -20816,10 +20816,10 @@
       <c r="AQ46" s="4"/>
       <c r="AR46" s="4"/>
       <c r="AS46" s="4" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="AT46" s="4" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="AU46" s="48"/>
       <c r="AV46" s="48"/>
@@ -21205,10 +21205,10 @@
       <c r="AH57" s="4"/>
       <c r="AI57" s="4"/>
       <c r="AO57" s="4" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="AP57" s="4" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="AS57" s="4" t="s">
         <v>784</v>
@@ -21355,10 +21355,10 @@
         <v>278</v>
       </c>
       <c r="AS63" s="4" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="AT63" s="4" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="BP63" s="4"/>
     </row>
@@ -21403,10 +21403,10 @@
         <v>280</v>
       </c>
       <c r="AS65" s="4" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="AT65" s="4" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="BP65" s="4"/>
     </row>
@@ -25678,7 +25678,7 @@
         <v>1516</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -25859,7 +25859,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>1516</v>
@@ -25870,7 +25870,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>1516</v>
@@ -25881,7 +25881,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>1516</v>
@@ -25893,7 +25893,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>1516</v>
@@ -25905,7 +25905,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>1516</v>
@@ -25917,7 +25917,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>1516</v>
@@ -25929,7 +25929,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>1516</v>
@@ -25941,7 +25941,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>1516</v>
@@ -25953,7 +25953,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>1516</v>
@@ -25965,7 +25965,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="B184" t="s">
         <v>1516</v>
@@ -25977,7 +25977,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>1516</v>
@@ -25989,7 +25989,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>1516</v>
@@ -26001,7 +26001,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>1516</v>
@@ -26013,7 +26013,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>1516</v>
@@ -26025,7 +26025,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>1516</v>
@@ -26037,7 +26037,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>1516</v>
@@ -26049,7 +26049,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>1516</v>
@@ -26061,7 +26061,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>1516</v>
@@ -26073,7 +26073,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>1516</v>
@@ -26085,7 +26085,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>1516</v>
@@ -26097,7 +26097,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>1516</v>
@@ -26109,7 +26109,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>1516</v>
@@ -26121,7 +26121,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>1559</v>
@@ -26132,7 +26132,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="B198" t="s">
         <v>1516</v>
@@ -26143,7 +26143,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>1516</v>
@@ -26154,7 +26154,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>1516</v>
@@ -26165,7 +26165,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>1516</v>
@@ -26176,7 +26176,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>1516</v>
@@ -26187,7 +26187,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>1516</v>
@@ -26198,7 +26198,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>1516</v>
@@ -26209,7 +26209,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>1516</v>
@@ -26220,7 +26220,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>1516</v>
@@ -26231,7 +26231,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>1516</v>
@@ -26242,7 +26242,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>1516</v>
@@ -26253,7 +26253,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>1516</v>
@@ -26264,7 +26264,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>1516</v>
@@ -31454,10 +31454,10 @@
         <v>262</v>
       </c>
       <c r="K70" s="11" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -32556,7 +32556,7 @@
       </c>
       <c r="F3" s="59"/>
       <c r="G3" s="59" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="H3" s="59" t="s">
         <v>1790</v>
@@ -32611,7 +32611,7 @@
       <c r="F7" s="59"/>
       <c r="G7" s="59"/>
       <c r="H7" s="59" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -32623,7 +32623,7 @@
       <c r="F8" s="59"/>
       <c r="G8" s="59"/>
       <c r="H8" s="59" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -32702,7 +32702,7 @@
         <v>1873</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>1871</v>
@@ -32720,7 +32720,7 @@
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H18" s="4" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -33318,13 +33318,13 @@
         <v>20</v>
       </c>
       <c r="E93" s="4" t="s">
+        <v>2405</v>
+      </c>
+      <c r="G93" s="4" t="s">
         <v>2406</v>
       </c>
-      <c r="G93" s="4" t="s">
+      <c r="H93" s="4" t="s">
         <v>2407</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>2408</v>
       </c>
     </row>
     <row r="94" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -33339,13 +33339,13 @@
         <v>21</v>
       </c>
       <c r="E95" s="4" t="s">
+        <v>2408</v>
+      </c>
+      <c r="G95" s="4" t="s">
         <v>2409</v>
       </c>
-      <c r="G95" s="4" t="s">
+      <c r="H95" s="4" t="s">
         <v>2410</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>2411</v>
       </c>
     </row>
     <row r="96" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -33360,13 +33360,13 @@
         <v>22</v>
       </c>
       <c r="E97" s="4" t="s">
+        <v>2411</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>2413</v>
+      </c>
+      <c r="H97" s="4" t="s">
         <v>2412</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>2414</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>2413</v>
       </c>
     </row>
     <row r="98" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" firstSheet="2" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="switch_models" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6055" uniqueCount="2469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6065" uniqueCount="2474">
   <si>
     <t>switchType</t>
   </si>
@@ -7458,6 +7458,21 @@
   </si>
   <si>
     <t>Члены зоны определены через wwnp(wwnn)</t>
+  </si>
+  <si>
+    <t>Connected_Distance</t>
+  </si>
+  <si>
+    <t>Длина линка</t>
+  </si>
+  <si>
+    <t>Длина линкана порту подключекния</t>
+  </si>
+  <si>
+    <t>QOS E_Port</t>
+  </si>
+  <si>
+    <t>QOS_E_Port</t>
   </si>
 </sst>
 </file>
@@ -10650,10 +10665,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10750,24 +10765,15 @@
         <v>509</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I4" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="J4" s="4"/>
+        <v>300</v>
+      </c>
       <c r="K4" s="4" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -10780,45 +10786,48 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>264</v>
+        <v>330</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>264</v>
+        <v>330</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>264</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" t="s">
-        <v>157</v>
-      </c>
-      <c r="K6" t="s">
-        <v>157</v>
+      <c r="I6" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4" t="s">
-        <v>178</v>
+      <c r="I7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -10831,85 +10840,85 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="14">
-        <v>0</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>874</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>872</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>873</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>802</v>
-      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
-        <v>878</v>
+        <v>98</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>878</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
-        <v>879</v>
-      </c>
-      <c r="B10" s="42">
-        <v>1</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>875</v>
-      </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42" t="s">
-        <v>886</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>876</v>
+      <c r="A10" s="4"/>
+      <c r="B10" s="14">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>872</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>802</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>878</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
-        <v>880</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+        <v>879</v>
+      </c>
+      <c r="B11" s="42">
+        <v>1</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>875</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42" t="s">
+        <v>886</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>876</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>1371</v>
+        <v>879</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -10919,14 +10928,14 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>1380</v>
+        <v>1371</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -10936,14 +10945,14 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>1367</v>
+        <v>1380</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -10953,14 +10962,14 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4" t="s">
-        <v>1362</v>
+        <v>1367</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -10970,14 +10979,14 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4" t="s">
-        <v>1487</v>
+        <v>1362</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>155</v>
+        <v>884</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -10987,14 +10996,14 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>155</v>
+        <v>1487</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>877</v>
+        <v>155</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -11004,14 +11013,14 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
-        <v>877</v>
+        <v>155</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -11021,46 +11030,50 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="14">
-        <v>2</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>853</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>854</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>852</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>854</v>
-      </c>
+      <c r="A19" s="42" t="s">
+        <v>885</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="I19" s="4" t="s">
+        <v>885</v>
+      </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="8"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="B20" s="14">
+        <v>2</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>853</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>854</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>852</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>854</v>
+      </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
@@ -11077,21 +11090,11 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="14">
-        <v>3</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>931</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>932</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>933</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>932</v>
-      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -11100,11 +11103,21 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="B23" s="14">
+        <v>3</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>931</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>932</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>933</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>932</v>
+      </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -11112,50 +11125,46 @@
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
-        <v>936</v>
-      </c>
-      <c r="B24" s="24">
-        <v>4</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>935</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24" t="s">
-        <v>943</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>934</v>
-      </c>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="4" t="s">
-        <v>1363</v>
-      </c>
+      <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
-        <v>937</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+        <v>936</v>
+      </c>
+      <c r="B25" s="24">
+        <v>4</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>935</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24" t="s">
+        <v>943</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>934</v>
+      </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4" t="s">
-        <v>1371</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -11167,12 +11176,12 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4" t="s">
-        <v>1380</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -11184,12 +11193,12 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>1367</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -11201,12 +11210,12 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4" t="s">
-        <v>1362</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -11218,12 +11227,12 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4" t="s">
-        <v>941</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -11235,130 +11244,147 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="D31" s="5" t="s">
-        <v>450</v>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24"/>
+      <c r="D32" s="5" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="33" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
+    <row r="34" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="24"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="14">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="14">
         <v>5</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C36" s="14" t="s">
         <v>945</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D36" s="14" t="s">
         <v>795</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E36" s="14" t="s">
         <v>944</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F36" s="14" t="s">
         <v>795</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B37" s="20">
-        <v>6</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>799</v>
-      </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20" t="s">
-        <v>801</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>800</v>
+        <v>134</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="L38" t="s">
-        <v>144</v>
+        <v>139</v>
+      </c>
+      <c r="B38" s="20">
+        <v>6</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>799</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20" t="s">
+        <v>801</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>800</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="L39" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>798</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>798</v>
+        <v>152</v>
+      </c>
+      <c r="L40" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>794</v>
-      </c>
-      <c r="L41" t="s">
-        <v>794</v>
+        <v>798</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="L42" t="s">
-        <v>1364</v>
+        <v>794</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
+        <v>796</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
         <v>797</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L44" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D44" s="5" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D45" s="5" t="s">
         <v>450</v>
       </c>
     </row>
@@ -11373,7 +11399,7 @@
   <dimension ref="A1:AH62"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15310,8 +15336,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:BP176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BH36" sqref="BH36"/>
+    <sheetView topLeftCell="BF1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BK13" sqref="BK13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17972,10 +17998,10 @@
         <v>1362</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>1368</v>
+        <v>122</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>1450</v>
+        <v>2470</v>
       </c>
       <c r="S14" t="s">
         <v>1371</v>
@@ -18141,10 +18167,10 @@
         <v>941</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>1380</v>
+        <v>1368</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="S15" t="s">
         <v>134</v>
@@ -18298,10 +18324,10 @@
         <v>942</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>1388</v>
+        <v>1380</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="S16" t="s">
         <v>139</v>
@@ -18444,10 +18470,10 @@
         <v>1368</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="S17" t="s">
         <v>166</v>
@@ -18572,10 +18598,10 @@
         <v>879</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="S18" t="s">
         <v>1372</v>
@@ -18689,10 +18715,10 @@
         <v>155</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="S19" t="s">
         <v>1388</v>
@@ -18805,10 +18831,10 @@
         <v>877</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>1404</v>
+        <v>1392</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="S20" t="s">
         <v>1387</v>
@@ -18908,10 +18934,10 @@
         <v>885</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="S21" t="s">
         <v>1389</v>
@@ -19011,10 +19037,10 @@
         <v>134</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="S22" t="s">
         <v>1390</v>
@@ -19114,10 +19140,10 @@
         <v>139</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>1363</v>
+        <v>1408</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>1444</v>
+        <v>1458</v>
       </c>
       <c r="S23" t="s">
         <v>1165</v>
@@ -19212,10 +19238,10 @@
         <v>166</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>879</v>
+        <v>2469</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>1445</v>
+        <v>2471</v>
       </c>
       <c r="S24" t="s">
         <v>1166</v>
@@ -19313,10 +19339,10 @@
         <v>1372</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>941</v>
+        <v>1363</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="V25" s="56" t="s">
         <v>1910</v>
@@ -19409,10 +19435,10 @@
         <v>1388</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>942</v>
+        <v>879</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>942</v>
+        <v>1445</v>
       </c>
       <c r="V26" s="56" t="s">
         <v>1091</v>
@@ -19509,10 +19535,10 @@
         <v>1387</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>885</v>
+        <v>941</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="V27" s="56" t="s">
         <v>1934</v>
@@ -19603,10 +19629,10 @@
         <v>1389</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>877</v>
+        <v>942</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>1482</v>
+        <v>942</v>
       </c>
       <c r="T28" s="48"/>
       <c r="V28" s="56" t="s">
@@ -19689,10 +19715,10 @@
         <v>1390</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>1425</v>
+        <v>885</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>1480</v>
+        <v>1443</v>
       </c>
       <c r="T29" s="48"/>
       <c r="V29" s="56" t="s">
@@ -19761,10 +19787,10 @@
         <v>663</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>166</v>
+        <v>877</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="T30" s="48"/>
       <c r="V30" s="56" t="s">
@@ -19837,10 +19863,10 @@
         <v>665</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>1384</v>
+        <v>1425</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="T31" s="48"/>
       <c r="V31" s="56" t="s">
@@ -19916,10 +19942,10 @@
         <v>146</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>1406</v>
+        <v>166</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>1476</v>
+        <v>1481</v>
       </c>
       <c r="T32" s="48"/>
       <c r="V32" s="56" t="s">
@@ -19995,10 +20021,10 @@
         <v>666</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>1427</v>
+        <v>1384</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>1447</v>
+        <v>1477</v>
       </c>
       <c r="T33" s="48"/>
       <c r="V33" s="56" t="s">
@@ -20073,10 +20099,10 @@
         <v>667</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>1430</v>
+        <v>1406</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>1448</v>
+        <v>1476</v>
       </c>
       <c r="T34" s="48"/>
       <c r="V34" s="56" t="s">
@@ -20154,10 +20180,10 @@
         <v>668</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="T35" s="48"/>
       <c r="V35" s="56" t="s">
@@ -20224,7 +20250,12 @@
       <c r="P36" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="R36" s="4"/>
+      <c r="Q36" s="4" t="s">
+        <v>1430</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>1448</v>
+      </c>
       <c r="T36" s="48"/>
       <c r="V36" s="56" t="s">
         <v>1789</v>
@@ -20290,7 +20321,12 @@
       <c r="P37" s="4" t="s">
         <v>1391</v>
       </c>
-      <c r="R37" s="4"/>
+      <c r="Q37" s="4" t="s">
+        <v>1431</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>1449</v>
+      </c>
       <c r="T37" s="48"/>
       <c r="V37" s="56" t="s">
         <v>1787</v>
@@ -21059,6 +21095,7 @@
       <c r="P52" s="4" t="s">
         <v>1403</v>
       </c>
+      <c r="R52" s="4"/>
       <c r="AA52" s="48"/>
       <c r="AB52" s="48"/>
       <c r="AG52" s="4"/>
@@ -21091,6 +21128,7 @@
       <c r="P53" s="4" t="s">
         <v>1404</v>
       </c>
+      <c r="R53" s="4"/>
       <c r="AG53" s="4"/>
       <c r="AH53" s="4"/>
       <c r="AI53" s="4"/>
@@ -23467,7 +23505,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26293,8 +26331,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28217,7 +28255,7 @@
   <dimension ref="A1:K175"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30365,10 +30403,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31251,278 +31289,289 @@
         <v>772</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>236</v>
+        <v>2472</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>236</v>
+        <v>2472</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>773</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>136</v>
+        <v>241</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>136</v>
+        <v>241</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>570</v>
+        <v>775</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>776</v>
+        <v>570</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K59" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K61" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>254</v>
+        <v>781</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>782</v>
+        <v>255</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K65" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K67" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K68" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K69" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K70" s="11" t="s">
-        <v>2415</v>
+        <v>261</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>2415</v>
+        <v>787</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K71" s="11" t="s">
-        <v>262</v>
+        <v>2415</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>788</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K73" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="K74" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="K75" s="11" t="s">
+      <c r="K76" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="L75" s="4" t="s">
+      <c r="L76" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D76" s="41" t="s">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D77" s="41" t="s">
         <v>450</v>
       </c>
-      <c r="K76" s="11" t="s">
+      <c r="K77" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="L76" s="4" t="s">
+      <c r="L77" s="4" t="s">
         <v>792</v>
       </c>
     </row>

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="switch_models" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">nameserver!$A$1:$J$113</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">oui!$A$1:$N$202</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">sfp_models!$A$1:$G$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">switch_models!$A$1:$H$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">switch_models!$A$1:$H$79</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6065" uniqueCount="2474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6097" uniqueCount="2487">
   <si>
     <t>switchType</t>
   </si>
@@ -7473,6 +7473,45 @@
   </si>
   <si>
     <t>QOS_E_Port</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>Brocade G620v2</t>
+  </si>
+  <si>
+    <t>v9.0.0a</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>Brocade G630v2</t>
+  </si>
+  <si>
+    <t>2e:c0:15</t>
+  </si>
+  <si>
+    <t>LIB DRV</t>
+  </si>
+  <si>
+    <t>08:c3:a2</t>
+  </si>
+  <si>
+    <t>00:0e:11</t>
+  </si>
+  <si>
+    <t>00:e0:da</t>
+  </si>
+  <si>
+    <t>FUJITSU</t>
+  </si>
+  <si>
+    <t>b0:e2:41</t>
+  </si>
+  <si>
+    <t>3e:55:71</t>
   </si>
 </sst>
 </file>
@@ -8184,10 +8223,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10128,27 +10167,27 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>165</v>
-      </c>
-      <c r="B75" t="s">
-        <v>91</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D75" t="s">
+    <row r="75" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>1699</v>
       </c>
       <c r="E75" s="4">
         <v>32</v>
       </c>
-      <c r="F75" t="s">
-        <v>1121</v>
+      <c r="F75" s="4" t="s">
+        <v>1162</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>2282</v>
+        <v>2476</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>1097</v>
@@ -10156,13 +10195,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D76" t="s">
         <v>1699</v>
@@ -10171,7 +10210,7 @@
         <v>32</v>
       </c>
       <c r="F76" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>2282</v>
@@ -10182,13 +10221,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C77" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="D77" t="s">
         <v>1699</v>
@@ -10197,7 +10236,7 @@
         <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>1163</v>
+        <v>1122</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>2282</v>
@@ -10207,23 +10246,23 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D78" s="4" t="s">
+      <c r="A78" s="3">
+        <v>170</v>
+      </c>
+      <c r="B78" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D78" t="s">
         <v>1699</v>
       </c>
       <c r="E78" s="4">
         <v>32</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>1164</v>
+      <c r="F78" t="s">
+        <v>1163</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>2282</v>
@@ -10232,8 +10271,60 @@
         <v>1097</v>
       </c>
     </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E79" s="4">
+        <v>32</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>2282</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>2478</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E80" s="4">
+        <v>32</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>2476</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>1097</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H78"/>
+  <autoFilter ref="A1:H79"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -15336,8 +15427,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:BP176"/>
   <sheetViews>
-    <sheetView topLeftCell="BF1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BK13" sqref="BK13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23834,10 +23925,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
-  <dimension ref="A1:N210"/>
+  <dimension ref="A1:N216"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="E211" sqref="E211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26308,6 +26399,72 @@
         <v>1516</v>
       </c>
       <c r="C210" s="4" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C211" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C214" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C216" s="4" t="s">
         <v>1661</v>
       </c>
     </row>
@@ -30405,8 +30562,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" firstSheet="10" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="switch_models" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,11 @@
     <sheet name="sensor" sheetId="25" r:id="rId13"/>
     <sheet name="fabricshow" sheetId="10" r:id="rId14"/>
     <sheet name="zoning" sheetId="17" r:id="rId15"/>
-    <sheet name="blades" sheetId="23" r:id="rId16"/>
-    <sheet name="customer_report" sheetId="18" r:id="rId17"/>
-    <sheet name="notes" sheetId="6" r:id="rId18"/>
-    <sheet name="Sheet2" sheetId="19" r:id="rId19"/>
+    <sheet name="common_regex" sheetId="26" r:id="rId16"/>
+    <sheet name="blades" sheetId="23" r:id="rId17"/>
+    <sheet name="customer_report" sheetId="18" r:id="rId18"/>
+    <sheet name="notes" sheetId="6" r:id="rId19"/>
+    <sheet name="Sheet2" sheetId="19" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">nameserver!$A$1:$J$113</definedName>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6097" uniqueCount="2487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6186" uniqueCount="2543">
   <si>
     <t>switchType</t>
   </si>
@@ -6899,9 +6900,6 @@
     <t>Порт коммутатора</t>
   </si>
   <si>
-    <t>v8.2.2c</t>
-  </si>
-  <si>
     <t>^(snmp.(?:snmpv3TrapTarget|agtParty).\d.(?:trapTargetAddr|address)):((?:[0-9]{1,3}\.){3}[0-9]{1,3})$</t>
   </si>
   <si>
@@ -7466,9 +7464,6 @@
     <t>Длина линка</t>
   </si>
   <si>
-    <t>Длина линкана порту подключекния</t>
-  </si>
-  <si>
     <t>QOS E_Port</t>
   </si>
   <si>
@@ -7512,6 +7507,180 @@
   </si>
   <si>
     <t>3e:55:71</t>
+  </si>
+  <si>
+    <t>MAPS policy</t>
+  </si>
+  <si>
+    <t>v8.2.2d</t>
+  </si>
+  <si>
+    <t>isl_aggregated</t>
+  </si>
+  <si>
+    <t>transceiver_mode</t>
+  </si>
+  <si>
+    <t>transceiver_speed</t>
+  </si>
+  <si>
+    <t>((?:\d+,){2}\d+_\w+)</t>
+  </si>
+  <si>
+    <t>(?:\d+,){2}\d+_\w+.*?(\w+w)</t>
+  </si>
+  <si>
+    <t>4,8,16_Gbps M5 sw Short_dist</t>
+  </si>
+  <si>
+    <t>2,4,8_Gbps M5,M6 sw Inter_dist</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>2,4,8_Gbps</t>
+  </si>
+  <si>
+    <t>^N?[124]G?$</t>
+  </si>
+  <si>
+    <t>32G</t>
+  </si>
+  <si>
+    <t>N16,</t>
+  </si>
+  <si>
+    <t>Статистика_ISL_перевод_eng</t>
+  </si>
+  <si>
+    <t>Статистика_ISL_перевод_ru</t>
+  </si>
+  <si>
+    <t>Switch_quantity</t>
+  </si>
+  <si>
+    <t>Port_quantity</t>
+  </si>
+  <si>
+    <t>Bandwidth_Gbps</t>
+  </si>
+  <si>
+    <t>Speed_Auto</t>
+  </si>
+  <si>
+    <t>Speed_Max</t>
+  </si>
+  <si>
+    <t>Transceiver_speed_2,4,8_Gbps</t>
+  </si>
+  <si>
+    <t>Transceiver_speed_4,8,16_Gbps</t>
+  </si>
+  <si>
+    <t>Transceiver_mode_sw</t>
+  </si>
+  <si>
+    <t>Trunking_lic_both_switches</t>
+  </si>
+  <si>
+    <t>Connection_note</t>
+  </si>
+  <si>
+    <t>portType_nonuniformity_note</t>
+  </si>
+  <si>
+    <t>Distance_nonuniformity_note</t>
+  </si>
+  <si>
+    <t>Transceiver_nonuniformity_note</t>
+  </si>
+  <si>
+    <t>Portcfg_nonuniformity_note</t>
+  </si>
+  <si>
+    <t>Speed_note</t>
+  </si>
+  <si>
+    <t>Asymmetry_note</t>
+  </si>
+  <si>
+    <t>Количество коммутаторов</t>
+  </si>
+  <si>
+    <t>Количество портов</t>
+  </si>
+  <si>
+    <t>Speed_Reduced</t>
+  </si>
+  <si>
+    <t>Speed_Fixed</t>
+  </si>
+  <si>
+    <t>Фиксированная скорость</t>
+  </si>
+  <si>
+    <t>Автоматическая скорость</t>
+  </si>
+  <si>
+    <t>Пониженная скорость</t>
+  </si>
+  <si>
+    <t>Длина линка на порту подключекния</t>
+  </si>
+  <si>
+    <t>Transceiver_mode_lw</t>
+  </si>
+  <si>
+    <t>Трансивер sw</t>
+  </si>
+  <si>
+    <t>Трансивер lw</t>
+  </si>
+  <si>
+    <t>Трансивер скорость 2,4,8 Гб/c</t>
+  </si>
+  <si>
+    <t>Трансивер скорость 4,8,16 Гб/c</t>
+  </si>
+  <si>
+    <t>Transceiver_speed_8,16,32_Gbps</t>
+  </si>
+  <si>
+    <t>Трансивер скорость 8,16,32 Гб/c</t>
+  </si>
+  <si>
+    <t>Примечание. Скорость</t>
+  </si>
+  <si>
+    <t>Примечание. Соединение (транк, резервирование)</t>
+  </si>
+  <si>
+    <t>Примечание. Разнотипность портов</t>
+  </si>
+  <si>
+    <t>Примечание. Разнотипность трансиверов</t>
+  </si>
+  <si>
+    <t>Примечание. Различие настроек портов</t>
+  </si>
+  <si>
+    <t>Примечание. Несимметричность соединений</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>Примечание. Различие настроек расстояния</t>
+  </si>
+  <si>
+    <t>Наличие trunking лицензии  на обоих коммутаторах</t>
   </si>
 </sst>
 </file>
@@ -7573,7 +7742,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7778,6 +7947,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -7806,7 +7981,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7898,6 +8073,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -8225,8 +8401,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView topLeftCell="C43" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9251,7 +9427,7 @@
         <v>1125</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>1096</v>
@@ -9277,7 +9453,7 @@
         <v>1108</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>4</v>
@@ -9303,7 +9479,7 @@
         <v>1108</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>1096</v>
@@ -9329,7 +9505,7 @@
         <v>1126</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>1097</v>
@@ -9355,7 +9531,7 @@
         <v>1110</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>1097</v>
@@ -9381,7 +9557,7 @@
         <v>1109</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
@@ -9407,7 +9583,7 @@
         <v>1110</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -9511,7 +9687,7 @@
         <v>1107</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
@@ -9537,7 +9713,7 @@
         <v>1107</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>4</v>
@@ -9745,7 +9921,7 @@
         <v>1120</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>2282</v>
+        <v>2486</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>1097</v>
@@ -9797,7 +9973,7 @@
         <v>1119</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>2282</v>
+        <v>2486</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>4</v>
@@ -9823,7 +9999,7 @@
         <v>1118</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>2282</v>
+        <v>2486</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>1097</v>
@@ -9849,7 +10025,7 @@
         <v>1118</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>2282</v>
+        <v>2486</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>1097</v>
@@ -9875,7 +10051,7 @@
         <v>1129</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>2282</v>
+        <v>2486</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>1097</v>
@@ -9901,7 +10077,7 @@
         <v>1130</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>2282</v>
+        <v>2486</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>1097</v>
@@ -9927,7 +10103,7 @@
         <v>1113</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>1096</v>
@@ -9979,7 +10155,7 @@
         <v>82</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>2282</v>
+        <v>2486</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>1097</v>
@@ -10005,7 +10181,7 @@
         <v>84</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>2282</v>
+        <v>2486</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>1097</v>
@@ -10031,7 +10207,7 @@
         <v>1117</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>2282</v>
+        <v>2486</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>1097</v>
@@ -10057,7 +10233,7 @@
         <v>1110</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>1096</v>
@@ -10083,7 +10259,7 @@
         <v>89</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>2282</v>
+        <v>2486</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>1097</v>
@@ -10109,7 +10285,7 @@
         <v>1974</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>2282</v>
+        <v>2486</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>1097</v>
@@ -10161,7 +10337,7 @@
         <v>1162</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>2282</v>
+        <v>2486</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>1097</v>
@@ -10169,10 +10345,10 @@
     </row>
     <row r="75" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>1103</v>
@@ -10187,7 +10363,7 @@
         <v>1162</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>1097</v>
@@ -10213,7 +10389,7 @@
         <v>1121</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>2282</v>
+        <v>2486</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>1097</v>
@@ -10239,7 +10415,7 @@
         <v>1122</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>2282</v>
+        <v>2486</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>1097</v>
@@ -10265,7 +10441,7 @@
         <v>1163</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>2282</v>
+        <v>2486</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>1097</v>
@@ -10291,7 +10467,7 @@
         <v>1164</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>2282</v>
+        <v>2486</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>1097</v>
@@ -10299,10 +10475,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>1100</v>
@@ -10317,7 +10493,7 @@
         <v>1164</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>1097</v>
@@ -14135,7 +14311,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14724,11 +14900,143 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
+    <col min="8" max="8" width="43" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2489</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2490</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>2492</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>2488</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2491</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2429</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2496</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2498</v>
+      </c>
+      <c r="I6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>2497</v>
+      </c>
+      <c r="I7">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15338,7 +15646,7 @@
         <v>2019</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="F49" s="32" t="s">
         <v>2021</v>
@@ -15422,13 +15730,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:BP176"/>
+  <dimension ref="A1:BR176"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="BN1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BQ31" sqref="BQ31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15494,9 +15802,11 @@
     <col min="65" max="66" width="31.28515625" customWidth="1"/>
     <col min="67" max="67" width="57.7109375" customWidth="1"/>
     <col min="68" max="68" width="46.85546875" customWidth="1"/>
+    <col min="69" max="69" width="41.42578125" customWidth="1"/>
+    <col min="70" max="70" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
         <v>1932</v>
       </c>
@@ -15673,10 +15983,10 @@
         <v>2207</v>
       </c>
       <c r="BI1" s="20" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="BJ1" s="20" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="BK1" s="9" t="s">
         <v>2221</v>
@@ -15691,13 +16001,19 @@
         <v>2229</v>
       </c>
       <c r="BO1" s="34" t="s">
+        <v>2427</v>
+      </c>
+      <c r="BP1" s="34" t="s">
         <v>2428</v>
       </c>
-      <c r="BP1" s="34" t="s">
-        <v>2429</v>
-      </c>
-    </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ1" s="69" t="s">
+        <v>2499</v>
+      </c>
+      <c r="BR1" s="69" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1772</v>
       </c>
@@ -15902,8 +16218,14 @@
       <c r="BP2" s="4" t="s">
         <v>1321</v>
       </c>
-    </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ2" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="BR2" s="4" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1771</v>
       </c>
@@ -16108,8 +16430,14 @@
       <c r="BP3" s="4" t="s">
         <v>1943</v>
       </c>
-    </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ3" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="BR3" s="4" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1911</v>
       </c>
@@ -16291,10 +16619,10 @@
         <v>2120</v>
       </c>
       <c r="BI4" s="4" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="BJ4" s="4" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="BK4" s="4" t="s">
         <v>509</v>
@@ -16314,8 +16642,14 @@
       <c r="BP4" s="4" t="s">
         <v>1942</v>
       </c>
-    </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ4" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="BR4" s="4" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1763</v>
       </c>
@@ -16497,10 +16831,10 @@
         <v>2121</v>
       </c>
       <c r="BI5" s="4" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="BJ5" s="4" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="BK5" s="4" t="s">
         <v>120</v>
@@ -16520,8 +16854,14 @@
       <c r="BP5" s="4" t="s">
         <v>1944</v>
       </c>
-    </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ5" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="BR5" s="4" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2031</v>
       </c>
@@ -16703,10 +17043,10 @@
         <v>2122</v>
       </c>
       <c r="BI6" s="4" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="BJ6" s="4" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="BK6" s="4" t="s">
         <v>2211</v>
@@ -16726,8 +17066,14 @@
       <c r="BP6" s="4" t="s">
         <v>1922</v>
       </c>
-    </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ6" s="4" t="s">
+        <v>1368</v>
+      </c>
+      <c r="BR6" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1764</v>
       </c>
@@ -16912,7 +17258,7 @@
         <v>2161</v>
       </c>
       <c r="BJ7" s="4" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="BK7" s="4" t="s">
         <v>144</v>
@@ -16927,13 +17273,19 @@
         <v>2240</v>
       </c>
       <c r="BO7" s="4" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="BP7" s="4" t="s">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
+        <v>2453</v>
+      </c>
+      <c r="BQ7" s="4" t="s">
+        <v>2501</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>1765</v>
       </c>
@@ -17112,13 +17464,13 @@
         <v>2161</v>
       </c>
       <c r="BH8" s="4" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="BI8" s="4" t="s">
         <v>2164</v>
       </c>
       <c r="BJ8" s="4" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="BK8" s="4" t="s">
         <v>2212</v>
@@ -17133,13 +17485,19 @@
         <v>2242</v>
       </c>
       <c r="BO8" s="4" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="BP8" s="4" t="s">
-        <v>2455</v>
-      </c>
-    </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
+        <v>2454</v>
+      </c>
+      <c r="BQ8" s="4" t="s">
+        <v>2502</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>1766</v>
       </c>
@@ -17308,7 +17666,7 @@
         <v>2162</v>
       </c>
       <c r="BJ9" s="4" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="BK9" s="4" t="s">
         <v>2213</v>
@@ -17317,13 +17675,19 @@
         <v>2227</v>
       </c>
       <c r="BO9" s="4" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="BP9" s="4" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="10" spans="1:68" ht="30" x14ac:dyDescent="0.25">
+        <v>2455</v>
+      </c>
+      <c r="BQ9" s="4" t="s">
+        <v>2503</v>
+      </c>
+      <c r="BR9" s="4" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:70" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>2030</v>
       </c>
@@ -17491,13 +17855,13 @@
         <v>2164</v>
       </c>
       <c r="BH10" s="4" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="BI10" s="4" t="s">
         <v>2163</v>
       </c>
       <c r="BJ10" s="4" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="BK10" s="4" t="s">
         <v>2214</v>
@@ -17506,13 +17870,19 @@
         <v>2226</v>
       </c>
       <c r="BO10" s="4" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="BP10" s="4" t="s">
-        <v>2457</v>
-      </c>
-    </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
+        <v>2456</v>
+      </c>
+      <c r="BQ10" s="4" t="s">
+        <v>2504</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1767</v>
       </c>
@@ -17683,16 +18053,22 @@
         <v>2165</v>
       </c>
       <c r="BJ11" s="4" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="BO11" s="4" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="BP11" s="4" t="s">
-        <v>2458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.25">
+        <v>2457</v>
+      </c>
+      <c r="BQ11" s="4" t="s">
+        <v>2520</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>1770</v>
       </c>
@@ -17863,16 +18239,22 @@
         <v>2166</v>
       </c>
       <c r="BJ12" s="4" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="BO12" s="4" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="BP12" t="s">
-        <v>2452</v>
-      </c>
-    </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
+        <v>2451</v>
+      </c>
+      <c r="BQ12" s="4" t="s">
+        <v>2505</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>1493</v>
       </c>
@@ -18038,16 +18420,22 @@
         <v>2152</v>
       </c>
       <c r="BJ13" s="4" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="BO13" s="4" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="BP13" s="4" t="s">
-        <v>2453</v>
-      </c>
-    </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
+        <v>2452</v>
+      </c>
+      <c r="BQ13" s="4" t="s">
+        <v>2519</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>2060</v>
       </c>
@@ -18092,7 +18480,7 @@
         <v>122</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="S14" t="s">
         <v>1371</v>
@@ -18204,7 +18592,7 @@
         <v>1943</v>
       </c>
       <c r="BG14" s="4" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="BH14" s="4" t="s">
         <v>2205</v>
@@ -18213,16 +18601,22 @@
         <v>2153</v>
       </c>
       <c r="BJ14" s="4" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="BO14" s="4" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="BP14" t="s">
-        <v>2459</v>
-      </c>
-    </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
+        <v>2458</v>
+      </c>
+      <c r="BQ14" s="4" t="s">
+        <v>2506</v>
+      </c>
+      <c r="BR14" s="4" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>1936</v>
       </c>
@@ -18355,10 +18749,10 @@
         <v>2131</v>
       </c>
       <c r="AY15" s="4" t="s">
+        <v>2360</v>
+      </c>
+      <c r="AZ15" t="s">
         <v>2361</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>2362</v>
       </c>
       <c r="BA15" t="s">
         <v>1936</v>
@@ -18376,22 +18770,28 @@
         <v>2200</v>
       </c>
       <c r="BH15" s="4" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="BI15" s="4" t="s">
         <v>2154</v>
       </c>
       <c r="BJ15" s="4" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="BO15" s="4" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="BP15" s="4" t="s">
-        <v>2463</v>
-      </c>
-    </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
+        <v>2462</v>
+      </c>
+      <c r="BQ15" s="4" t="s">
+        <v>2507</v>
+      </c>
+      <c r="BR15" s="4" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>316</v>
       </c>
@@ -18522,22 +18922,28 @@
         <v>2201</v>
       </c>
       <c r="BH16" s="4" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="BI16" s="4" t="s">
         <v>2155</v>
       </c>
       <c r="BJ16" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="BO16" s="4" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="BP16" t="s">
-        <v>2460</v>
-      </c>
-    </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
+        <v>2459</v>
+      </c>
+      <c r="BQ16" s="4" t="s">
+        <v>2530</v>
+      </c>
+      <c r="BR16" s="4" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>317</v>
       </c>
@@ -18647,25 +19053,31 @@
         <v>1944</v>
       </c>
       <c r="BG17" s="14" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="BH17" s="14" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="BI17" s="4" t="s">
         <v>2156</v>
       </c>
       <c r="BJ17" s="4" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="BO17" s="4" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="BP17" t="s">
-        <v>2461</v>
-      </c>
-    </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
+        <v>2460</v>
+      </c>
+      <c r="BQ17" s="4" t="s">
+        <v>2508</v>
+      </c>
+      <c r="BR17" s="4" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
         <v>318</v>
       </c>
@@ -18767,22 +19179,28 @@
         <v>2202</v>
       </c>
       <c r="BH18" s="14" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="BI18" s="4" t="s">
         <v>2167</v>
       </c>
       <c r="BJ18" s="4" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="BO18" s="4" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BP18" s="4" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
+        <v>2461</v>
+      </c>
+      <c r="BQ18" s="4" t="s">
+        <v>2525</v>
+      </c>
+      <c r="BR18" s="4" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="19" spans="1:70" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>319</v>
       </c>
@@ -18883,22 +19301,28 @@
         <v>2203</v>
       </c>
       <c r="BH19" s="14" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="BI19" s="4" t="s">
         <v>2168</v>
       </c>
       <c r="BJ19" s="4" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="BO19" s="4" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="BP19" t="s">
-        <v>2436</v>
-      </c>
-    </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
+        <v>2435</v>
+      </c>
+      <c r="BQ19" s="4" t="s">
+        <v>2509</v>
+      </c>
+      <c r="BR19" s="4" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
         <v>320</v>
       </c>
@@ -18992,16 +19416,22 @@
         <v>1052</v>
       </c>
       <c r="BJ20" s="4" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="BO20" s="4" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="BP20" s="4" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
+        <v>2463</v>
+      </c>
+      <c r="BQ20" s="4" t="s">
+        <v>2510</v>
+      </c>
+      <c r="BR20" s="57" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="21" spans="1:70" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
         <v>321</v>
       </c>
@@ -19092,19 +19522,25 @@
         <v>2149</v>
       </c>
       <c r="BI21" s="4" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="BJ21" s="4" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="BO21" s="4" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BP21" s="4" t="s">
-        <v>2465</v>
-      </c>
-    </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.25">
+        <v>2464</v>
+      </c>
+      <c r="BQ21" s="4" t="s">
+        <v>2511</v>
+      </c>
+      <c r="BR21" s="57" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
         <v>322</v>
       </c>
@@ -19152,10 +19588,10 @@
         <v>1016</v>
       </c>
       <c r="AK22" s="3" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="AL22" s="4" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="AO22" s="4" t="s">
         <v>172</v>
@@ -19189,25 +19625,31 @@
       </c>
       <c r="AY22" s="4"/>
       <c r="BG22" s="4" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="BH22" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="BI22" s="4" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="BJ22" s="4" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="BO22" s="4" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="BP22" t="s">
-        <v>2434</v>
-      </c>
-    </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
+        <v>2433</v>
+      </c>
+      <c r="BQ22" s="4" t="s">
+        <v>2512</v>
+      </c>
+      <c r="BR22" s="57" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="23" spans="1:70" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
         <v>323</v>
       </c>
@@ -19255,10 +19697,10 @@
         <v>1942</v>
       </c>
       <c r="AK23" s="3" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="AL23" s="4" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="AO23" s="4" t="s">
         <v>179</v>
@@ -19292,25 +19734,31 @@
       </c>
       <c r="AY23" s="4"/>
       <c r="BG23" s="4" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="BH23" s="4" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="BI23" s="4" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="BJ23" s="4" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="BO23" s="4" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="BP23" t="s">
-        <v>2435</v>
-      </c>
-    </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
+        <v>2434</v>
+      </c>
+      <c r="BQ23" s="4" t="s">
+        <v>2513</v>
+      </c>
+      <c r="BR23" s="57" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
       <c r="F24" s="3"/>
       <c r="I24" s="4" t="s">
         <v>247</v>
@@ -19329,10 +19777,10 @@
         <v>166</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>2471</v>
+        <v>2524</v>
       </c>
       <c r="S24" t="s">
         <v>1166</v>
@@ -19345,22 +19793,22 @@
       <c r="AC24" s="4"/>
       <c r="AD24" s="48"/>
       <c r="AG24" s="3" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="AH24" s="4" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="AI24" s="3" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="AJ24" s="4" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="AK24" s="3" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="AL24" s="4" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="AO24" s="4" t="s">
         <v>185</v>
@@ -19393,25 +19841,31 @@
         <v>1324</v>
       </c>
       <c r="BG24" s="4" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="BH24" s="4" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="BI24" s="4" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="BJ24" s="4" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="BO24" s="4" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="BP24" t="s">
-        <v>2437</v>
-      </c>
-    </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.25">
+        <v>2436</v>
+      </c>
+      <c r="BQ24" s="4" t="s">
+        <v>2514</v>
+      </c>
+      <c r="BR24" s="57" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:70" x14ac:dyDescent="0.25">
       <c r="F25" s="3"/>
       <c r="I25" s="4" t="s">
         <v>240</v>
@@ -19441,16 +19895,16 @@
       <c r="AA25" s="4"/>
       <c r="AD25" s="48"/>
       <c r="AG25" s="3" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="AH25" s="4" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="AI25" s="3" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="AJ25" s="4" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="AK25" s="3" t="s">
         <v>1939</v>
@@ -19489,25 +19943,31 @@
         <v>2281</v>
       </c>
       <c r="BG25" s="4" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="BH25" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="BI25" s="4" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="BJ25" s="4" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="BO25" s="4" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="BP25" t="s">
-        <v>2438</v>
-      </c>
-    </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
+        <v>2437</v>
+      </c>
+      <c r="BQ25" s="4" t="s">
+        <v>2515</v>
+      </c>
+      <c r="BR25" s="57" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="26" spans="1:70" x14ac:dyDescent="0.25">
       <c r="F26" s="3"/>
       <c r="I26" s="4" t="s">
         <v>251</v>
@@ -19539,16 +19999,16 @@
       <c r="AC26" s="4"/>
       <c r="AD26" s="48"/>
       <c r="AG26" s="3" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="AH26" s="4" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="AI26" s="3" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="AJ26" s="4" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="AK26" s="3" t="s">
         <v>1940</v>
@@ -19587,33 +20047,39 @@
         <v>2128</v>
       </c>
       <c r="BG26" s="4" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="BH26" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="BI26" s="4" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="BJ26" s="4" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="BO26" s="4" t="s">
+        <v>2360</v>
+      </c>
+      <c r="BP26" s="4" t="s">
         <v>2361</v>
       </c>
-      <c r="BP26" s="4" t="s">
-        <v>2362</v>
-      </c>
-    </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ26" s="4" t="s">
+        <v>2516</v>
+      </c>
+      <c r="BR26" s="57" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="27" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="I27" s="4" t="s">
-        <v>484</v>
+        <v>327</v>
       </c>
       <c r="J27" s="52" t="s">
-        <v>1314</v>
+        <v>2485</v>
       </c>
       <c r="K27" s="52"/>
       <c r="L27" s="52"/>
@@ -19686,28 +20152,34 @@
         <v>2129</v>
       </c>
       <c r="BG27" s="4" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="BH27" s="4" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="BI27" s="4" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="BJ27" s="4" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="BO27" s="4"/>
-    </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ27" s="4" t="s">
+        <v>2360</v>
+      </c>
+      <c r="BR27" s="4" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="28" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="I28" s="4" t="s">
-        <v>329</v>
+        <v>484</v>
       </c>
       <c r="J28" s="52" t="s">
-        <v>1361</v>
+        <v>1314</v>
       </c>
       <c r="K28" s="52"/>
       <c r="L28" s="52"/>
@@ -19773,27 +20245,33 @@
         <v>2148</v>
       </c>
       <c r="BG28" s="4" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="BH28" s="4" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="BI28" s="4" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="BJ28" s="4" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="BO28" s="4"/>
-    </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ28" s="4" t="s">
+        <v>2538</v>
+      </c>
+      <c r="BR28" s="50" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="29" spans="1:70" x14ac:dyDescent="0.25">
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="I29" s="4" t="s">
-        <v>99</v>
+        <v>329</v>
       </c>
       <c r="J29" s="52" t="s">
-        <v>1191</v>
+        <v>1361</v>
       </c>
       <c r="K29" s="52"/>
       <c r="L29" s="52"/>
@@ -19845,27 +20323,33 @@
         <v>2128</v>
       </c>
       <c r="AW29" s="4" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="AX29" s="4" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="BI29" s="4" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="BJ29" s="4" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="BO29" s="4"/>
-    </row>
-    <row r="30" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ29" s="4" t="s">
+        <v>2539</v>
+      </c>
+      <c r="BR29" s="50" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="30" spans="1:70" x14ac:dyDescent="0.25">
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="I30" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J30" s="52" t="s">
-        <v>1313</v>
+        <v>1191</v>
       </c>
       <c r="K30" s="52"/>
       <c r="L30" s="52"/>
@@ -19919,29 +20403,36 @@
         <v>2129</v>
       </c>
       <c r="AW30" s="4" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="AX30" s="4" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="BI30" s="4" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="BJ30" s="4" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="BO30" s="4"/>
-    </row>
-    <row r="31" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BP30" s="4"/>
+      <c r="BQ30" s="4" t="s">
+        <v>2540</v>
+      </c>
+      <c r="BR30" s="4" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="31" spans="1:70" x14ac:dyDescent="0.25">
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
       <c r="I31" s="4" t="s">
-        <v>249</v>
+        <v>100</v>
       </c>
       <c r="J31" s="52" t="s">
-        <v>1189</v>
+        <v>1313</v>
       </c>
       <c r="K31" s="52"/>
       <c r="L31" s="52"/>
@@ -20001,26 +20492,29 @@
         <v>2180</v>
       </c>
       <c r="AX31" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="BI31" s="4" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="BJ31" s="4" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="BO31" s="4"/>
-    </row>
-    <row r="32" spans="1:68" ht="30" x14ac:dyDescent="0.25">
+      <c r="BP31" s="4"/>
+      <c r="BQ31" s="4"/>
+      <c r="BR31" s="4"/>
+    </row>
+    <row r="32" spans="1:70" x14ac:dyDescent="0.25">
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="48"/>
       <c r="H32" s="48"/>
-      <c r="I32" s="49" t="s">
-        <v>1089</v>
+      <c r="I32" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="J32" s="52" t="s">
-        <v>1336</v>
+        <v>1189</v>
       </c>
       <c r="K32" s="52"/>
       <c r="L32" s="52"/>
@@ -20071,10 +20565,10 @@
         <v>762</v>
       </c>
       <c r="AU32" s="3" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="AV32" s="4" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="AW32" s="4" t="s">
         <v>2179</v>
@@ -20083,23 +20577,26 @@
         <v>2181</v>
       </c>
       <c r="BI32" s="4" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="BJ32" s="4" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="BO32" s="4"/>
-    </row>
-    <row r="33" spans="3:68" x14ac:dyDescent="0.25">
+      <c r="BP32" s="4"/>
+      <c r="BQ32" s="4"/>
+      <c r="BR32" s="4"/>
+    </row>
+    <row r="33" spans="3:70" ht="30" x14ac:dyDescent="0.25">
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="48"/>
       <c r="H33" s="48"/>
-      <c r="I33" s="4" t="s">
-        <v>325</v>
+      <c r="I33" s="49" t="s">
+        <v>1089</v>
       </c>
       <c r="J33" s="52" t="s">
-        <v>1192</v>
+        <v>1336</v>
       </c>
       <c r="K33" s="52"/>
       <c r="L33" s="52"/>
@@ -20149,10 +20646,10 @@
         <v>763</v>
       </c>
       <c r="AU33" s="3" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="AV33" s="4" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="AW33" s="4" t="s">
         <v>2188</v>
@@ -20161,23 +20658,26 @@
         <v>2182</v>
       </c>
       <c r="BI33" s="4" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="BJ33" s="4" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="BO33" s="4"/>
-    </row>
-    <row r="34" spans="3:68" x14ac:dyDescent="0.25">
+      <c r="BP33" s="4"/>
+      <c r="BQ33" s="4"/>
+      <c r="BR33" s="4"/>
+    </row>
+    <row r="34" spans="3:70" x14ac:dyDescent="0.25">
       <c r="E34" s="4"/>
       <c r="F34" s="3"/>
       <c r="G34" s="48"/>
       <c r="H34" s="48"/>
       <c r="I34" s="4" t="s">
-        <v>407</v>
+        <v>325</v>
       </c>
       <c r="J34" s="52" t="s">
-        <v>1358</v>
+        <v>1192</v>
       </c>
       <c r="K34" s="52"/>
       <c r="L34" s="52"/>
@@ -20230,10 +20730,10 @@
         <v>764</v>
       </c>
       <c r="AU34" s="3" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="AV34" s="4" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="AW34" s="4" t="s">
         <v>2187</v>
@@ -20242,23 +20742,26 @@
         <v>2183</v>
       </c>
       <c r="BI34" s="4" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="BJ34" s="4" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="BO34" s="4"/>
-    </row>
-    <row r="35" spans="3:68" ht="30" x14ac:dyDescent="0.25">
+      <c r="BP34" s="4"/>
+      <c r="BQ34" s="4"/>
+      <c r="BR34" s="4"/>
+    </row>
+    <row r="35" spans="3:70" x14ac:dyDescent="0.25">
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="48"/>
       <c r="H35" s="48"/>
       <c r="I35" s="4" t="s">
-        <v>326</v>
+        <v>407</v>
       </c>
       <c r="J35" s="52" t="s">
-        <v>1315</v>
+        <v>1358</v>
       </c>
       <c r="K35" s="48"/>
       <c r="L35" s="48"/>
@@ -20317,23 +20820,26 @@
         <v>2178</v>
       </c>
       <c r="BI35" s="4" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="BJ35" s="4" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="BO35" s="4"/>
-    </row>
-    <row r="36" spans="3:68" x14ac:dyDescent="0.25">
+      <c r="BP35" s="4"/>
+      <c r="BQ35" s="4"/>
+      <c r="BR35" s="4"/>
+    </row>
+    <row r="36" spans="3:70" ht="30" x14ac:dyDescent="0.25">
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="48"/>
       <c r="H36" s="48"/>
       <c r="I36" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>1169</v>
+        <v>326</v>
+      </c>
+      <c r="J36" s="52" t="s">
+        <v>1315</v>
       </c>
       <c r="O36" s="4" t="s">
         <v>1246</v>
@@ -20388,23 +20894,26 @@
         <v>2149</v>
       </c>
       <c r="BI36" s="4" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="BJ36" s="4" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="BO36" s="4"/>
-    </row>
-    <row r="37" spans="3:68" x14ac:dyDescent="0.25">
+      <c r="BP36" s="4"/>
+      <c r="BQ36" s="4"/>
+      <c r="BR36" s="4"/>
+    </row>
+    <row r="37" spans="3:70" x14ac:dyDescent="0.25">
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="48"/>
       <c r="H37" s="48"/>
       <c r="I37" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="J37" s="52" t="s">
-        <v>1335</v>
+        <v>164</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>1169</v>
       </c>
       <c r="O37" s="4" t="s">
         <v>1247</v>
@@ -20457,17 +20966,20 @@
         <v>767</v>
       </c>
       <c r="BO37" s="4"/>
-    </row>
-    <row r="38" spans="3:68" x14ac:dyDescent="0.25">
+      <c r="BP37" s="4"/>
+      <c r="BQ37" s="4"/>
+      <c r="BR37" s="4"/>
+    </row>
+    <row r="38" spans="3:70" x14ac:dyDescent="0.25">
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="48"/>
       <c r="H38" s="48"/>
       <c r="I38" s="4" t="s">
-        <v>415</v>
+        <v>178</v>
       </c>
       <c r="J38" s="52" t="s">
-        <v>1359</v>
+        <v>1335</v>
       </c>
       <c r="O38" s="4" t="s">
         <v>1248</v>
@@ -20515,17 +21027,20 @@
         <v>768</v>
       </c>
       <c r="BO38" s="4"/>
-    </row>
-    <row r="39" spans="3:68" x14ac:dyDescent="0.25">
+      <c r="BP38" s="4"/>
+      <c r="BQ38" s="4"/>
+      <c r="BR38" s="4"/>
+    </row>
+    <row r="39" spans="3:70" x14ac:dyDescent="0.25">
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="48"/>
       <c r="H39" s="48"/>
       <c r="I39" s="4" t="s">
-        <v>333</v>
+        <v>415</v>
       </c>
       <c r="J39" s="52" t="s">
-        <v>1317</v>
+        <v>1359</v>
       </c>
       <c r="O39" s="4" t="s">
         <v>1249</v>
@@ -20573,8 +21088,11 @@
         <v>769</v>
       </c>
       <c r="BO39" s="4"/>
-    </row>
-    <row r="40" spans="3:68" x14ac:dyDescent="0.25">
+      <c r="BP39" s="4"/>
+      <c r="BQ39" s="4"/>
+      <c r="BR39" s="4"/>
+    </row>
+    <row r="40" spans="3:70" x14ac:dyDescent="0.25">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -20582,10 +21100,10 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J40" s="52" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="O40" s="4"/>
       <c r="P40" s="4" t="s">
@@ -20631,8 +21149,11 @@
         <v>770</v>
       </c>
       <c r="BO40" s="4"/>
-    </row>
-    <row r="41" spans="3:68" x14ac:dyDescent="0.25">
+      <c r="BP40" s="4"/>
+      <c r="BQ40" s="4"/>
+      <c r="BR40" s="4"/>
+    </row>
+    <row r="41" spans="3:70" x14ac:dyDescent="0.25">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -20640,10 +21161,10 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J41" s="52" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="O41" s="4" t="s">
         <v>1251</v>
@@ -20691,14 +21212,21 @@
         <v>771</v>
       </c>
       <c r="BO41" s="3"/>
-    </row>
-    <row r="42" spans="3:68" x14ac:dyDescent="0.25">
+      <c r="BP41" s="4"/>
+      <c r="BQ41" s="4"/>
+      <c r="BR41" s="4"/>
+    </row>
+    <row r="42" spans="3:70" x14ac:dyDescent="0.25">
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="48"/>
       <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
+      <c r="I42" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="J42" s="52" t="s">
+        <v>1318</v>
+      </c>
       <c r="O42" s="4" t="s">
         <v>1252</v>
       </c>
@@ -20745,8 +21273,11 @@
         <v>772</v>
       </c>
       <c r="BO42" s="3"/>
-    </row>
-    <row r="43" spans="3:68" x14ac:dyDescent="0.25">
+      <c r="BP42" s="4"/>
+      <c r="BQ42" s="4"/>
+      <c r="BR42" s="4"/>
+    </row>
+    <row r="43" spans="3:70" x14ac:dyDescent="0.25">
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="48"/>
@@ -20796,8 +21327,11 @@
         <v>773</v>
       </c>
       <c r="BO43" s="3"/>
-    </row>
-    <row r="44" spans="3:68" x14ac:dyDescent="0.25">
+      <c r="BP43" s="4"/>
+      <c r="BQ43" s="4"/>
+      <c r="BR43" s="4"/>
+    </row>
+    <row r="44" spans="3:70" x14ac:dyDescent="0.25">
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="48"/>
@@ -20849,12 +21383,14 @@
       <c r="AU44" s="48"/>
       <c r="AV44" s="48"/>
       <c r="BO44" s="3"/>
-    </row>
-    <row r="45" spans="3:68" x14ac:dyDescent="0.25">
+      <c r="BP44" s="4"/>
+      <c r="BQ44" s="4"/>
+      <c r="BR44" s="4"/>
+    </row>
+    <row r="45" spans="3:70" x14ac:dyDescent="0.25">
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
       <c r="I45" s="48"/>
       <c r="J45" s="48"/>
       <c r="O45" s="4" t="s">
@@ -20902,8 +21438,11 @@
       <c r="AU45" s="48"/>
       <c r="AV45" s="48"/>
       <c r="BO45" s="3"/>
-    </row>
-    <row r="46" spans="3:68" x14ac:dyDescent="0.25">
+      <c r="BP45" s="4"/>
+      <c r="BQ45" s="4"/>
+      <c r="BR45" s="4"/>
+    </row>
+    <row r="46" spans="3:70" x14ac:dyDescent="0.25">
       <c r="E46" s="3"/>
       <c r="F46" s="4"/>
       <c r="G46" s="48"/>
@@ -20943,16 +21482,19 @@
       <c r="AQ46" s="4"/>
       <c r="AR46" s="4"/>
       <c r="AS46" s="4" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="AT46" s="4" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="AU46" s="48"/>
       <c r="AV46" s="48"/>
       <c r="BO46" s="3"/>
-    </row>
-    <row r="47" spans="3:68" x14ac:dyDescent="0.25">
+      <c r="BP46" s="4"/>
+      <c r="BQ46" s="4"/>
+      <c r="BR46" s="4"/>
+    </row>
+    <row r="47" spans="3:70" x14ac:dyDescent="0.25">
       <c r="E47" s="3"/>
       <c r="F47" s="4"/>
       <c r="G47" s="48"/>
@@ -21001,8 +21543,10 @@
       <c r="AV47" s="48"/>
       <c r="BO47" s="3"/>
       <c r="BP47" s="4"/>
-    </row>
-    <row r="48" spans="3:68" x14ac:dyDescent="0.25">
+      <c r="BQ47" s="4"/>
+      <c r="BR47" s="4"/>
+    </row>
+    <row r="48" spans="3:70" x14ac:dyDescent="0.25">
       <c r="E48" s="3"/>
       <c r="F48" s="4"/>
       <c r="G48" s="48"/>
@@ -21050,8 +21594,10 @@
       <c r="AU48" s="48"/>
       <c r="AV48" s="48"/>
       <c r="BP48" s="4"/>
-    </row>
-    <row r="49" spans="7:68" x14ac:dyDescent="0.25">
+      <c r="BQ48" s="4"/>
+      <c r="BR48" s="4"/>
+    </row>
+    <row r="49" spans="7:70" x14ac:dyDescent="0.25">
       <c r="G49" s="48"/>
       <c r="H49" s="48"/>
       <c r="I49" s="48"/>
@@ -21093,9 +21639,11 @@
       </c>
       <c r="AU49" s="48"/>
       <c r="AV49" s="48"/>
-      <c r="BP49" s="3"/>
-    </row>
-    <row r="50" spans="7:68" x14ac:dyDescent="0.25">
+      <c r="BP49" s="4"/>
+      <c r="BQ49" s="4"/>
+      <c r="BR49" s="4"/>
+    </row>
+    <row r="50" spans="7:70" x14ac:dyDescent="0.25">
       <c r="G50" s="48"/>
       <c r="H50" s="48"/>
       <c r="I50" s="48"/>
@@ -21136,8 +21684,10 @@
       <c r="AU50" s="48"/>
       <c r="AV50" s="48"/>
       <c r="BP50" s="4"/>
-    </row>
-    <row r="51" spans="7:68" x14ac:dyDescent="0.25">
+      <c r="BQ50" s="4"/>
+      <c r="BR50" s="4"/>
+    </row>
+    <row r="51" spans="7:70" x14ac:dyDescent="0.25">
       <c r="G51" s="48"/>
       <c r="H51" s="48"/>
       <c r="I51" s="48"/>
@@ -21176,8 +21726,10 @@
       <c r="AU51" s="48"/>
       <c r="AV51" s="48"/>
       <c r="BP51" s="4"/>
-    </row>
-    <row r="52" spans="7:68" x14ac:dyDescent="0.25">
+      <c r="BQ51" s="4"/>
+      <c r="BR51" s="4"/>
+    </row>
+    <row r="52" spans="7:70" x14ac:dyDescent="0.25">
       <c r="I52" s="48"/>
       <c r="J52" s="48"/>
       <c r="O52" s="4" t="s">
@@ -21209,8 +21761,10 @@
       <c r="AU52" s="48"/>
       <c r="AV52" s="48"/>
       <c r="BP52" s="4"/>
-    </row>
-    <row r="53" spans="7:68" x14ac:dyDescent="0.25">
+      <c r="BQ52" s="4"/>
+      <c r="BR52" s="4"/>
+    </row>
+    <row r="53" spans="7:70" x14ac:dyDescent="0.25">
       <c r="I53" s="48"/>
       <c r="J53" s="48"/>
       <c r="O53" s="4" t="s">
@@ -21240,8 +21794,10 @@
       <c r="AU53" s="48"/>
       <c r="AV53" s="48"/>
       <c r="BP53" s="4"/>
-    </row>
-    <row r="54" spans="7:68" x14ac:dyDescent="0.25">
+      <c r="BQ53" s="4"/>
+      <c r="BR53" s="4"/>
+    </row>
+    <row r="54" spans="7:70" x14ac:dyDescent="0.25">
       <c r="I54" s="48"/>
       <c r="J54" s="48"/>
       <c r="O54" s="4" t="s">
@@ -21268,8 +21824,10 @@
         <v>255</v>
       </c>
       <c r="BP54" s="4"/>
-    </row>
-    <row r="55" spans="7:68" x14ac:dyDescent="0.25">
+      <c r="BQ54" s="4"/>
+      <c r="BR54" s="4"/>
+    </row>
+    <row r="55" spans="7:70" x14ac:dyDescent="0.25">
       <c r="I55" s="48"/>
       <c r="J55" s="48"/>
       <c r="O55" s="4" t="s">
@@ -21295,8 +21853,10 @@
         <v>782</v>
       </c>
       <c r="BP55" s="4"/>
-    </row>
-    <row r="56" spans="7:68" x14ac:dyDescent="0.25">
+      <c r="BQ55" s="4"/>
+      <c r="BR55" s="4"/>
+    </row>
+    <row r="56" spans="7:70" x14ac:dyDescent="0.25">
       <c r="I56" s="48"/>
       <c r="J56" s="48"/>
       <c r="O56" s="4" t="s">
@@ -21322,8 +21882,12 @@
         <v>783</v>
       </c>
       <c r="BP56" s="4"/>
-    </row>
-    <row r="57" spans="7:68" x14ac:dyDescent="0.25">
+      <c r="BQ56" s="4"/>
+      <c r="BR56" s="4"/>
+    </row>
+    <row r="57" spans="7:70" x14ac:dyDescent="0.25">
+      <c r="I57" s="48"/>
+      <c r="J57" s="48"/>
       <c r="O57" s="4" t="s">
         <v>1267</v>
       </c>
@@ -21334,10 +21898,10 @@
       <c r="AH57" s="4"/>
       <c r="AI57" s="4"/>
       <c r="AO57" s="4" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="AP57" s="4" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="AS57" s="4" t="s">
         <v>784</v>
@@ -21346,8 +21910,10 @@
         <v>784</v>
       </c>
       <c r="BP57" s="4"/>
-    </row>
-    <row r="58" spans="7:68" x14ac:dyDescent="0.25">
+      <c r="BQ57" s="4"/>
+      <c r="BR57" s="4"/>
+    </row>
+    <row r="58" spans="7:70" x14ac:dyDescent="0.25">
       <c r="O58" s="4" t="s">
         <v>1268</v>
       </c>
@@ -21370,8 +21936,9 @@
         <v>785</v>
       </c>
       <c r="BP58" s="4"/>
-    </row>
-    <row r="59" spans="7:68" x14ac:dyDescent="0.25">
+      <c r="BQ58" s="4"/>
+    </row>
+    <row r="59" spans="7:70" x14ac:dyDescent="0.25">
       <c r="O59" s="4" t="s">
         <v>1269</v>
       </c>
@@ -21394,8 +21961,9 @@
         <v>786</v>
       </c>
       <c r="BP59" s="4"/>
-    </row>
-    <row r="60" spans="7:68" x14ac:dyDescent="0.25">
+      <c r="BQ59" s="4"/>
+    </row>
+    <row r="60" spans="7:70" x14ac:dyDescent="0.25">
       <c r="O60" s="49" t="s">
         <v>1312</v>
       </c>
@@ -21418,8 +21986,9 @@
         <v>787</v>
       </c>
       <c r="BP60" s="4"/>
-    </row>
-    <row r="61" spans="7:68" x14ac:dyDescent="0.25">
+      <c r="BQ60" s="4"/>
+    </row>
+    <row r="61" spans="7:70" x14ac:dyDescent="0.25">
       <c r="O61" s="4" t="s">
         <v>1270</v>
       </c>
@@ -21442,8 +22011,9 @@
         <v>790</v>
       </c>
       <c r="BP61" s="4"/>
-    </row>
-    <row r="62" spans="7:68" x14ac:dyDescent="0.25">
+      <c r="BQ61" s="4"/>
+    </row>
+    <row r="62" spans="7:70" x14ac:dyDescent="0.25">
       <c r="O62" s="4" t="s">
         <v>1271</v>
       </c>
@@ -21466,8 +22036,9 @@
         <v>791</v>
       </c>
       <c r="BP62" s="4"/>
-    </row>
-    <row r="63" spans="7:68" x14ac:dyDescent="0.25">
+      <c r="BQ62" s="4"/>
+    </row>
+    <row r="63" spans="7:70" x14ac:dyDescent="0.25">
       <c r="O63" s="4" t="s">
         <v>1272</v>
       </c>
@@ -21484,14 +22055,15 @@
         <v>278</v>
       </c>
       <c r="AS63" s="4" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="AT63" s="4" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="BP63" s="4"/>
-    </row>
-    <row r="64" spans="7:68" x14ac:dyDescent="0.25">
+      <c r="BQ63" s="4"/>
+    </row>
+    <row r="64" spans="7:70" x14ac:dyDescent="0.25">
       <c r="O64" s="4" t="s">
         <v>1273</v>
       </c>
@@ -21514,8 +22086,9 @@
         <v>792</v>
       </c>
       <c r="BP64" s="4"/>
-    </row>
-    <row r="65" spans="15:68" x14ac:dyDescent="0.25">
+      <c r="BQ64" s="4"/>
+    </row>
+    <row r="65" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O65" s="4" t="s">
         <v>1274</v>
       </c>
@@ -21532,14 +22105,15 @@
         <v>280</v>
       </c>
       <c r="AS65" s="4" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="AT65" s="4" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="BP65" s="4"/>
-    </row>
-    <row r="66" spans="15:68" x14ac:dyDescent="0.25">
+      <c r="BQ65" s="4"/>
+    </row>
+    <row r="66" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O66" s="4" t="s">
         <v>1275</v>
       </c>
@@ -21562,8 +22136,9 @@
         <v>788</v>
       </c>
       <c r="BP66" s="4"/>
-    </row>
-    <row r="67" spans="15:68" x14ac:dyDescent="0.25">
+      <c r="BQ66" s="4"/>
+    </row>
+    <row r="67" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O67" s="4" t="s">
         <v>1276</v>
       </c>
@@ -21585,9 +22160,10 @@
       <c r="AT67" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="BP67" s="3"/>
-    </row>
-    <row r="68" spans="15:68" x14ac:dyDescent="0.25">
+      <c r="BP67" s="4"/>
+      <c r="BQ67" s="4"/>
+    </row>
+    <row r="68" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O68" s="4" t="s">
         <v>1277</v>
       </c>
@@ -21609,8 +22185,10 @@
       <c r="AT68" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="15:68" x14ac:dyDescent="0.25">
+      <c r="BP68" s="4"/>
+      <c r="BQ68" s="4"/>
+    </row>
+    <row r="69" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O69" s="4" t="s">
         <v>1278</v>
       </c>
@@ -21632,8 +22210,10 @@
       <c r="AT69" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="70" spans="15:68" x14ac:dyDescent="0.25">
+      <c r="BP69" s="4"/>
+      <c r="BQ69" s="4"/>
+    </row>
+    <row r="70" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O70" s="4" t="s">
         <v>1279</v>
       </c>
@@ -21655,8 +22235,10 @@
       <c r="AT70" s="4" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="71" spans="15:68" x14ac:dyDescent="0.25">
+      <c r="BP70" s="4"/>
+      <c r="BQ70" s="4"/>
+    </row>
+    <row r="71" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O71" s="4" t="s">
         <v>1280</v>
       </c>
@@ -21678,8 +22260,10 @@
       <c r="AT71" s="4" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="72" spans="15:68" x14ac:dyDescent="0.25">
+      <c r="BP71" s="4"/>
+      <c r="BQ71" s="4"/>
+    </row>
+    <row r="72" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O72" s="4" t="s">
         <v>1281</v>
       </c>
@@ -21695,8 +22279,10 @@
       <c r="AP72" s="4" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="73" spans="15:68" x14ac:dyDescent="0.25">
+      <c r="BP72" s="4"/>
+      <c r="BQ72" s="4"/>
+    </row>
+    <row r="73" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O73" s="4" t="s">
         <v>1282</v>
       </c>
@@ -21712,8 +22298,10 @@
       <c r="AP73" s="4" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="74" spans="15:68" x14ac:dyDescent="0.25">
+      <c r="BP73" s="4"/>
+      <c r="BQ73" s="4"/>
+    </row>
+    <row r="74" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O74" s="4" t="s">
         <v>1283</v>
       </c>
@@ -21729,8 +22317,10 @@
       <c r="AP74" s="4" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="75" spans="15:68" x14ac:dyDescent="0.25">
+      <c r="BP74" s="4"/>
+      <c r="BQ74" s="4"/>
+    </row>
+    <row r="75" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O75" s="4" t="s">
         <v>1284</v>
       </c>
@@ -21746,8 +22336,10 @@
       <c r="AP75" s="4" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="76" spans="15:68" x14ac:dyDescent="0.25">
+      <c r="BP75" s="4"/>
+      <c r="BQ75" s="4"/>
+    </row>
+    <row r="76" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O76" s="4" t="s">
         <v>1285</v>
       </c>
@@ -21763,8 +22355,10 @@
       <c r="AP76" s="4" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="77" spans="15:68" x14ac:dyDescent="0.25">
+      <c r="BP76" s="4"/>
+      <c r="BQ76" s="4"/>
+    </row>
+    <row r="77" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O77" s="4" t="s">
         <v>1286</v>
       </c>
@@ -21780,8 +22374,10 @@
       <c r="AP77" s="4" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="78" spans="15:68" x14ac:dyDescent="0.25">
+      <c r="BP77" s="4"/>
+      <c r="BQ77" s="4"/>
+    </row>
+    <row r="78" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O78" s="4" t="s">
         <v>1287</v>
       </c>
@@ -21797,8 +22393,10 @@
       <c r="AP78" s="4" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="79" spans="15:68" x14ac:dyDescent="0.25">
+      <c r="BP78" s="4"/>
+      <c r="BQ78" s="4"/>
+    </row>
+    <row r="79" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O79" s="4" t="s">
         <v>1288</v>
       </c>
@@ -21814,8 +22412,10 @@
       <c r="AP79" s="4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="80" spans="15:68" x14ac:dyDescent="0.25">
+      <c r="BP79" s="4"/>
+      <c r="BQ79" s="4"/>
+    </row>
+    <row r="80" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O80" s="4" t="s">
         <v>1289</v>
       </c>
@@ -21831,8 +22431,10 @@
       <c r="AP80" s="4" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="81" spans="15:42" x14ac:dyDescent="0.25">
+      <c r="BP80" s="4"/>
+      <c r="BQ80" s="4"/>
+    </row>
+    <row r="81" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O81" s="4" t="s">
         <v>1290</v>
       </c>
@@ -21848,8 +22450,10 @@
       <c r="AP81" s="4" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="82" spans="15:42" x14ac:dyDescent="0.25">
+      <c r="BP81" s="4"/>
+      <c r="BQ81" s="4"/>
+    </row>
+    <row r="82" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O82" s="4" t="s">
         <v>1291</v>
       </c>
@@ -21865,8 +22469,10 @@
       <c r="AP82" s="4" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="83" spans="15:42" x14ac:dyDescent="0.25">
+      <c r="BP82" s="4"/>
+      <c r="BQ82" s="4"/>
+    </row>
+    <row r="83" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O83" s="4" t="s">
         <v>1292</v>
       </c>
@@ -21883,7 +22489,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="84" spans="15:42" x14ac:dyDescent="0.25">
+    <row r="84" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O84" s="4" t="s">
         <v>1293</v>
       </c>
@@ -21900,7 +22506,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="85" spans="15:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O85" s="4" t="s">
         <v>1294</v>
       </c>
@@ -21917,7 +22523,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="86" spans="15:42" x14ac:dyDescent="0.25">
+    <row r="86" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O86" s="4" t="s">
         <v>1295</v>
       </c>
@@ -21934,7 +22540,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="87" spans="15:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O87" s="4" t="s">
         <v>1296</v>
       </c>
@@ -21951,7 +22557,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="88" spans="15:42" x14ac:dyDescent="0.25">
+    <row r="88" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O88" s="4" t="s">
         <v>1297</v>
       </c>
@@ -21968,7 +22574,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="89" spans="15:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O89" s="4" t="s">
         <v>1298</v>
       </c>
@@ -21985,7 +22591,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="90" spans="15:42" x14ac:dyDescent="0.25">
+    <row r="90" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O90" s="4" t="s">
         <v>1299</v>
       </c>
@@ -22002,7 +22608,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="91" spans="15:42" x14ac:dyDescent="0.25">
+    <row r="91" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O91" s="4" t="s">
         <v>1300</v>
       </c>
@@ -22019,7 +22625,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="92" spans="15:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O92" s="4" t="s">
         <v>1301</v>
       </c>
@@ -22036,7 +22642,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="93" spans="15:42" x14ac:dyDescent="0.25">
+    <row r="93" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O93" s="4" t="s">
         <v>1302</v>
       </c>
@@ -22053,7 +22659,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="94" spans="15:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O94" s="4" t="s">
         <v>1303</v>
       </c>
@@ -22070,7 +22676,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="95" spans="15:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O95" s="4" t="s">
         <v>1304</v>
       </c>
@@ -22087,7 +22693,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="96" spans="15:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="15:69" x14ac:dyDescent="0.25">
       <c r="O96" s="4" t="s">
         <v>1305</v>
       </c>
@@ -22801,7 +23407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:G21"/>
@@ -22959,630 +23565,6 @@
       </c>
       <c r="E21" s="8" t="s">
         <v>857</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet14"/>
-  <dimension ref="A1:A121"/>
-  <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="47.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="49" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>1311</v>
       </c>
     </row>
   </sheetData>
@@ -23922,12 +23904,636 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A1:A121"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="49" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:N216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+    <sheetView topLeftCell="A184" workbookViewId="0">
       <selection activeCell="E211" sqref="E211"/>
     </sheetView>
   </sheetViews>
@@ -25807,7 +26413,7 @@
         <v>1516</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -25988,7 +26594,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>1516</v>
@@ -25999,7 +26605,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>1516</v>
@@ -26010,7 +26616,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>1516</v>
@@ -26022,7 +26628,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>1516</v>
@@ -26034,7 +26640,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>1516</v>
@@ -26046,7 +26652,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>1516</v>
@@ -26058,7 +26664,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>1516</v>
@@ -26070,7 +26676,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>1516</v>
@@ -26082,7 +26688,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>1516</v>
@@ -26094,7 +26700,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="B184" t="s">
         <v>1516</v>
@@ -26106,7 +26712,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>1516</v>
@@ -26118,7 +26724,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>1516</v>
@@ -26130,7 +26736,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>1516</v>
@@ -26142,7 +26748,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>1516</v>
@@ -26154,7 +26760,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>1516</v>
@@ -26166,7 +26772,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>1516</v>
@@ -26178,7 +26784,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>1516</v>
@@ -26190,7 +26796,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>1516</v>
@@ -26202,7 +26808,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>1516</v>
@@ -26214,7 +26820,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>1516</v>
@@ -26226,7 +26832,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>1516</v>
@@ -26238,7 +26844,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>1516</v>
@@ -26250,7 +26856,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>1559</v>
@@ -26261,7 +26867,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="B198" t="s">
         <v>1516</v>
@@ -26272,7 +26878,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>1516</v>
@@ -26283,7 +26889,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>1516</v>
@@ -26294,7 +26900,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>1516</v>
@@ -26305,7 +26911,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>1516</v>
@@ -26316,7 +26922,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>1516</v>
@@ -26327,7 +26933,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>1516</v>
@@ -26338,7 +26944,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>1516</v>
@@ -26349,7 +26955,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>1516</v>
@@ -26360,7 +26966,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>1516</v>
@@ -26371,7 +26977,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>1516</v>
@@ -26382,7 +26988,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>1516</v>
@@ -26393,7 +26999,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>1516</v>
@@ -26404,18 +27010,18 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="B211" t="s">
         <v>1501</v>
       </c>
       <c r="C211" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="B212" t="s">
         <v>1501</v>
@@ -26426,7 +27032,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>1501</v>
@@ -26437,29 +27043,29 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
       <c r="B214" t="s">
         <v>1559</v>
       </c>
       <c r="C214" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>1559</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>1516</v>
@@ -26705,7 +27311,7 @@
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="13" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>340</v>
@@ -31448,13 +32054,13 @@
     </row>
     <row r="52" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -31660,10 +32266,10 @@
         <v>262</v>
       </c>
       <c r="K71" s="11" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -32694,8 +33300,8 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView topLeftCell="D40" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32762,7 +33368,7 @@
       </c>
       <c r="F3" s="59"/>
       <c r="G3" s="59" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="H3" s="59" t="s">
         <v>1790</v>
@@ -32817,7 +33423,7 @@
       <c r="F7" s="59"/>
       <c r="G7" s="59"/>
       <c r="H7" s="59" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -32829,7 +33435,7 @@
       <c r="F8" s="59"/>
       <c r="G8" s="59"/>
       <c r="H8" s="59" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -32908,7 +33514,7 @@
         <v>1873</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>1871</v>
@@ -32926,7 +33532,7 @@
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H18" s="4" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -33524,13 +34130,13 @@
         <v>20</v>
       </c>
       <c r="E93" s="4" t="s">
+        <v>2404</v>
+      </c>
+      <c r="G93" s="4" t="s">
         <v>2405</v>
       </c>
-      <c r="G93" s="4" t="s">
+      <c r="H93" s="4" t="s">
         <v>2406</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>2407</v>
       </c>
     </row>
     <row r="94" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -33545,13 +34151,13 @@
         <v>21</v>
       </c>
       <c r="E95" s="4" t="s">
+        <v>2407</v>
+      </c>
+      <c r="G95" s="4" t="s">
         <v>2408</v>
       </c>
-      <c r="G95" s="4" t="s">
+      <c r="H95" s="4" t="s">
         <v>2409</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>2410</v>
       </c>
     </row>
     <row r="96" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -33566,13 +34172,13 @@
         <v>22</v>
       </c>
       <c r="E97" s="4" t="s">
+        <v>2410</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>2412</v>
+      </c>
+      <c r="H97" s="4" t="s">
         <v>2411</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>2413</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>2412</v>
       </c>
     </row>
     <row r="98" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/san_automation_info.xlsx
+++ b/san_automation_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" firstSheet="10" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" firstSheet="9" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="switch_models" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6186" uniqueCount="2543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6213" uniqueCount="2564">
   <si>
     <t>switchType</t>
   </si>
@@ -7533,9 +7533,6 @@
     <t>4,8,16_Gbps M5 sw Short_dist</t>
   </si>
   <si>
-    <t>2,4,8_Gbps M5,M6 sw Inter_dist</t>
-  </si>
-  <si>
     <t>result</t>
   </si>
   <si>
@@ -7545,12 +7542,6 @@
     <t>^N?[124]G?$</t>
   </si>
   <si>
-    <t>32G</t>
-  </si>
-  <si>
-    <t>N16,</t>
-  </si>
-  <si>
     <t>Статистика_ISL_перевод_eng</t>
   </si>
   <si>
@@ -7617,15 +7608,6 @@
     <t>Speed_Fixed</t>
   </si>
   <si>
-    <t>Фиксированная скорость</t>
-  </si>
-  <si>
-    <t>Автоматическая скорость</t>
-  </si>
-  <si>
-    <t>Пониженная скорость</t>
-  </si>
-  <si>
     <t>Длина линка на порту подключекния</t>
   </si>
   <si>
@@ -7674,13 +7656,94 @@
     <t>No</t>
   </si>
   <si>
-    <t>auto</t>
-  </si>
-  <si>
     <t>Примечание. Различие настроек расстояния</t>
   </si>
   <si>
     <t>Наличие trunking лицензии  на обоих коммутаторах</t>
+  </si>
+  <si>
+    <t>2,4,8_Gbps SM lw Long_dist</t>
+  </si>
+  <si>
+    <t>^([\d,]+)_(?:Gbps|MB)</t>
+  </si>
+  <si>
+    <t>2,4,8</t>
+  </si>
+  <si>
+    <t>module_applied</t>
+  </si>
+  <si>
+    <t>4,8,16_Gbps</t>
+  </si>
+  <si>
+    <t>transceiver_speed_values</t>
+  </si>
+  <si>
+    <t>analysis_isl_aggregation</t>
+  </si>
+  <si>
+    <t>nonredundant_connection</t>
+  </si>
+  <si>
+    <t>нерезервированное соединение</t>
+  </si>
+  <si>
+    <t>auto_speed, low_speed</t>
+  </si>
+  <si>
+    <t>скрость не зафиксирована, низкая скорость</t>
+  </si>
+  <si>
+    <t>низкая скорость, пониженная скорость</t>
+  </si>
+  <si>
+    <t>low_speed, reduced_speed</t>
+  </si>
+  <si>
+    <t>auto_speed, low_speed, reduced_speed</t>
+  </si>
+  <si>
+    <t>скрость не зафиксирована, низкая скорость, пониженная скорость</t>
+  </si>
+  <si>
+    <t>switch_quantity, port_quantity, bandwidth_gbps</t>
+  </si>
+  <si>
+    <t>количество коммутаторов, количество портов, пропускная способность</t>
+  </si>
+  <si>
+    <t>analysis_isl_statistics</t>
+  </si>
+  <si>
+    <t>isl_aggregated_modified</t>
+  </si>
+  <si>
+    <t>analysis_isl_statistics_notes</t>
+  </si>
+  <si>
+    <t>finds low speed column names</t>
+  </si>
+  <si>
+    <t>isl_statistics_df</t>
+  </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>2G</t>
+  </si>
+  <si>
+    <t>Порты с автоматической скоростью, шт</t>
+  </si>
+  <si>
+    <t>Порты с фиксированная скоростью, шт</t>
+  </si>
+  <si>
+    <t>Порты с максимальной скоростью, шт</t>
+  </si>
+  <si>
+    <t>Порты с пониженной скоростью, шт</t>
   </si>
 </sst>
 </file>
@@ -7742,7 +7805,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7953,6 +8016,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -7981,7 +8062,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"